--- a/test_templates/test_batch_template4.xlsx
+++ b/test_templates/test_batch_template4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Calibration" sheetId="1" r:id="rId3"/>
     <sheet name="Comparative Analysis" sheetId="12" r:id="rId4"/>
     <sheet name="Transfer Curve Analysis" sheetId="13" r:id="rId5"/>
-    <sheet name="Optional Settings" sheetId="7" r:id="rId6"/>
+    <sheet name="Optional Settings" sheetId="14" r:id="rId6"/>
     <sheet name="96w" sheetId="9" r:id="rId7"/>
     <sheet name="48w" sheetId="11" r:id="rId8"/>
     <sheet name="24w" sheetId="10" r:id="rId9"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="471">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2361,14 +2361,33 @@
   <si>
     <t>/tmp/CSV/</t>
   </si>
+  <si>
+    <t>flow.outputHistogramFile</t>
+  </si>
+  <si>
+    <t>if true, output histogram file for batch analysis</t>
+  </si>
+  <si>
+    <t>flow.outputStatisticsFile</t>
+  </si>
+  <si>
+    <t>if true, output statistics file for batch analysis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2688,7 +2707,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -3368,29 +3387,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3406,7 +3434,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3417,28 +3445,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3447,7 +3475,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3460,62 +3487,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3526,20 +3553,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3548,32 +3575,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3591,19 +3618,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3612,46 +3639,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3669,83 +3696,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3760,37 +3787,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3799,63 +3826,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3878,91 +3905,218 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3973,146 +4127,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4132,22 +4250,34 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4159,155 +4289,59 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4919,20 +4953,24 @@
       <sheetName val="96w"/>
       <sheetName val="48w"/>
       <sheetName val="24w"/>
+      <sheetName val="Optional Settings (2)"/>
+      <sheetName val="test_batch_template2"/>
     </sheetNames>
     <definedNames>
       <definedName name="Sheet2.RunBatch"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5246,587 +5284,601 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="156" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="86" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="142" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="86" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="86" customWidth="1"/>
-    <col min="9" max="9" width="20" style="86" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="86" customWidth="1"/>
-    <col min="11" max="11" width="6" style="86" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="86" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="86"/>
+    <col min="1" max="1" width="20.875" style="155" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="85" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="85" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="141" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="85" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="85" customWidth="1"/>
+    <col min="9" max="9" width="20" style="85" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="85" customWidth="1"/>
+    <col min="11" max="11" width="6" style="85" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="85" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="244" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="226"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="246"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="87"/>
+      <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="223" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="241"/>
+      <c r="B3" s="224"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="238" t="s">
+      <c r="A4" s="237" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="239"/>
+      <c r="B4" s="238"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="254" t="s">
+      <c r="A5" s="239" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="255"/>
+      <c r="B5" s="240"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="87"/>
+      <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="240" t="s">
+      <c r="A7" s="223" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="242"/>
-      <c r="C7" s="242"/>
-      <c r="D7" s="242"/>
-      <c r="E7" s="242"/>
-      <c r="F7" s="242"/>
-      <c r="G7" s="242"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="241"/>
+      <c r="B7" s="225"/>
+      <c r="C7" s="225"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="225"/>
+      <c r="I7" s="225"/>
+      <c r="J7" s="225"/>
+      <c r="K7" s="224"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="227" t="s">
+      <c r="A8" s="247" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="228"/>
-      <c r="C8" s="228"/>
-      <c r="D8" s="228"/>
-      <c r="E8" s="228"/>
-      <c r="F8" s="228"/>
-      <c r="G8" s="228"/>
-      <c r="H8" s="228"/>
-      <c r="I8" s="228"/>
-      <c r="J8" s="228"/>
-      <c r="K8" s="229"/>
+      <c r="B8" s="248"/>
+      <c r="C8" s="248"/>
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="248"/>
+      <c r="I8" s="248"/>
+      <c r="J8" s="248"/>
+      <c r="K8" s="249"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="230"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
-      <c r="G9" s="231"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="231"/>
-      <c r="K9" s="232"/>
+      <c r="A9" s="250"/>
+      <c r="B9" s="251"/>
+      <c r="C9" s="251"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="251"/>
+      <c r="H9" s="251"/>
+      <c r="I9" s="251"/>
+      <c r="J9" s="251"/>
+      <c r="K9" s="252"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="157"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="143"/>
+      <c r="A10" s="156"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="243" t="s">
+      <c r="A11" s="226" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="244"/>
-      <c r="C11" s="244"/>
-      <c r="D11" s="245"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="143"/>
+      <c r="B11" s="227"/>
+      <c r="C11" s="227"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="246" t="s">
+      <c r="A12" s="229" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="247"/>
-      <c r="C12" s="248" t="s">
+      <c r="B12" s="230"/>
+      <c r="C12" s="231" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="249"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="143"/>
+      <c r="D12" s="232"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="250"/>
-      <c r="B13" s="251"/>
-      <c r="C13" s="252"/>
-      <c r="D13" s="253"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="143"/>
+      <c r="A13" s="233"/>
+      <c r="B13" s="234"/>
+      <c r="C13" s="235"/>
+      <c r="D13" s="236"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="142"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="243" t="s">
+      <c r="A15" s="226" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="245"/>
-      <c r="E15" s="243" t="s">
+      <c r="B15" s="228"/>
+      <c r="E15" s="226" t="s">
         <v>293</v>
       </c>
-      <c r="F15" s="244"/>
-      <c r="G15" s="244"/>
-      <c r="H15" s="244"/>
-      <c r="I15" s="245"/>
+      <c r="F15" s="227"/>
+      <c r="G15" s="227"/>
+      <c r="H15" s="227"/>
+      <c r="I15" s="228"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="238" t="s">
+      <c r="A16" s="237" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="239"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="233" t="s">
+      <c r="B16" s="238"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="253" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="234"/>
-      <c r="G16" s="234"/>
-      <c r="H16" s="234"/>
-      <c r="I16" s="235"/>
+      <c r="F16" s="254"/>
+      <c r="G16" s="254"/>
+      <c r="H16" s="254"/>
+      <c r="I16" s="255"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="158" t="s">
+      <c r="A17" s="157" t="s">
         <v>210</v>
       </c>
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="115" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="E17" s="236" t="s">
+      <c r="C17" s="89"/>
+      <c r="E17" s="256" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="237"/>
-      <c r="G17" s="207" t="s">
+      <c r="F17" s="257"/>
+      <c r="G17" s="206" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="207" t="s">
+      <c r="H17" s="206" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="190" t="s">
+      <c r="I17" s="189" t="s">
         <v>336</v>
       </c>
-      <c r="J17" s="82"/>
+      <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="159" t="s">
+      <c r="A18" s="158" t="s">
         <v>244</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="E18" s="84">
+      <c r="C18" s="89"/>
+      <c r="E18" s="83">
         <v>1</v>
       </c>
-      <c r="F18" s="94" t="s">
+      <c r="F18" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34" t="s">
+      <c r="G18" s="33"/>
+      <c r="H18" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="212" t="s">
+      <c r="I18" s="241" t="s">
         <v>458</v>
       </c>
-      <c r="J18" s="82"/>
+      <c r="J18" s="81"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="160" t="s">
+      <c r="A19" s="159" t="s">
         <v>264</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="90"/>
-      <c r="E19" s="84">
+      <c r="B19" s="116"/>
+      <c r="C19" s="89"/>
+      <c r="E19" s="83">
         <v>2</v>
       </c>
-      <c r="F19" s="94" t="s">
+      <c r="F19" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="75" t="s">
+      <c r="H19" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="I19" s="212"/>
-      <c r="J19" s="82"/>
+      <c r="I19" s="241"/>
+      <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="160" t="s">
+      <c r="A20" s="159" t="s">
         <v>265</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="92"/>
-      <c r="E20" s="85">
+      <c r="B20" s="116"/>
+      <c r="C20" s="91"/>
+      <c r="E20" s="84">
         <v>3</v>
       </c>
-      <c r="F20" s="141" t="s">
+      <c r="F20" s="140" t="s">
         <v>172</v>
       </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="82"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="242"/>
+      <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="160" t="s">
+      <c r="A21" s="159" t="s">
         <v>269</v>
       </c>
-      <c r="B21" s="117"/>
-      <c r="C21" s="33"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="32"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="161"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="90"/>
-      <c r="J22" s="82"/>
+      <c r="A22" s="160"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="89"/>
+      <c r="J22" s="81"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="162"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="92"/>
-      <c r="E23" s="214" t="s">
+      <c r="A23" s="161"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="91"/>
+      <c r="E23" s="221" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="215"/>
-      <c r="G23" s="215"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="243"/>
+      <c r="H23" s="243"/>
+      <c r="I23" s="222"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="214" t="s">
+      <c r="A24" s="221" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="216"/>
-      <c r="C24" s="33"/>
-      <c r="E24" s="220" t="s">
+      <c r="B24" s="222"/>
+      <c r="C24" s="32"/>
+      <c r="E24" s="261" t="s">
         <v>208</v>
       </c>
-      <c r="F24" s="221"/>
-      <c r="G24" s="207" t="s">
+      <c r="F24" s="262"/>
+      <c r="G24" s="206" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="207" t="s">
+      <c r="H24" s="206" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="190" t="s">
+      <c r="I24" s="189" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="158" t="s">
+      <c r="A25" s="157" t="s">
         <v>210</v>
       </c>
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="115" t="s">
         <v>261</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="E25" s="84">
+      <c r="C25" s="32"/>
+      <c r="E25" s="83">
         <v>1</v>
       </c>
-      <c r="F25" s="94" t="s">
+      <c r="F25" s="93" t="s">
         <v>194</v>
       </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34" t="s">
+      <c r="G25" s="33"/>
+      <c r="H25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="217" t="s">
+      <c r="I25" s="258" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="159" t="s">
+      <c r="A26" s="158" t="s">
         <v>244</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="90"/>
-      <c r="E26" s="84">
+      <c r="C26" s="89"/>
+      <c r="E26" s="83">
         <v>2</v>
       </c>
-      <c r="F26" s="94" t="s">
+      <c r="F26" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="75" t="s">
+      <c r="H26" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="I26" s="218"/>
+      <c r="I26" s="259"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="160" t="s">
+      <c r="A27" s="159" t="s">
         <v>262</v>
       </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="92"/>
-      <c r="E27" s="85">
+      <c r="B27" s="116"/>
+      <c r="C27" s="91"/>
+      <c r="E27" s="84">
         <v>3</v>
       </c>
-      <c r="F27" s="141" t="s">
+      <c r="F27" s="140" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="219"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="260"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="160" t="s">
+      <c r="A28" s="159" t="s">
         <v>263</v>
       </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="33"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="82"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="32"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="81"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="160"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="33"/>
-      <c r="I29" s="82"/>
+      <c r="A29" s="159"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="32"/>
+      <c r="I29" s="81"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="161"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="90"/>
-      <c r="E30" s="214" t="s">
+      <c r="A30" s="160"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="89"/>
+      <c r="E30" s="221" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="215"/>
-      <c r="G30" s="215"/>
-      <c r="H30" s="215"/>
-      <c r="I30" s="216"/>
+      <c r="F30" s="243"/>
+      <c r="G30" s="243"/>
+      <c r="H30" s="243"/>
+      <c r="I30" s="222"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="162"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="E31" s="222" t="s">
+      <c r="A31" s="161"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="E31" s="263" t="s">
         <v>444</v>
       </c>
-      <c r="F31" s="223"/>
-      <c r="G31" s="205" t="s">
+      <c r="F31" s="264"/>
+      <c r="G31" s="204" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="205" t="s">
+      <c r="H31" s="204" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="190" t="s">
+      <c r="I31" s="189" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="214" t="s">
+      <c r="A32" s="221" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="216"/>
-      <c r="C32" s="33"/>
-      <c r="E32" s="84">
+      <c r="B32" s="222"/>
+      <c r="C32" s="32"/>
+      <c r="E32" s="83">
         <v>1</v>
       </c>
-      <c r="F32" s="94" t="s">
+      <c r="F32" s="93" t="s">
         <v>171</v>
       </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="212"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="241"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="158" t="s">
+      <c r="A33" s="157" t="s">
         <v>210</v>
       </c>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="115" t="s">
         <v>268</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="E33" s="84">
+      <c r="C33" s="89"/>
+      <c r="E33" s="83">
         <v>2</v>
       </c>
-      <c r="F33" s="94" t="s">
+      <c r="F33" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="212"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="241"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="159" t="s">
+      <c r="A34" s="158" t="s">
         <v>212</v>
       </c>
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="E34" s="84">
+      <c r="E34" s="83">
         <v>3</v>
       </c>
-      <c r="F34" s="94"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="212"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="241"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="160" t="s">
+      <c r="A35" s="159" t="s">
         <v>197</v>
       </c>
-      <c r="B35" s="117"/>
-      <c r="E35" s="84">
+      <c r="B35" s="116"/>
+      <c r="E35" s="83">
         <v>4</v>
       </c>
-      <c r="F35" s="94"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="212"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="241"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="160" t="s">
+      <c r="A36" s="159" t="s">
         <v>198</v>
       </c>
-      <c r="B36" s="117"/>
-      <c r="E36" s="84">
+      <c r="B36" s="116"/>
+      <c r="E36" s="83">
         <v>5</v>
       </c>
-      <c r="F36" s="94"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="212"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="241"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="160" t="s">
+      <c r="A37" s="159" t="s">
         <v>199</v>
       </c>
-      <c r="B37" s="117"/>
-      <c r="E37" s="85">
+      <c r="B37" s="116"/>
+      <c r="E37" s="84">
         <v>6</v>
       </c>
-      <c r="F37" s="141"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="213"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="242"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="161" t="s">
+      <c r="A38" s="160" t="s">
         <v>200</v>
       </c>
-      <c r="B38" s="118"/>
+      <c r="B38" s="117"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="163"/>
-      <c r="B39" s="122"/>
+      <c r="A39" s="162"/>
+      <c r="B39" s="121"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="214" t="s">
+      <c r="E40" s="221" t="s">
         <v>187</v>
       </c>
-      <c r="F40" s="215"/>
-      <c r="G40" s="215"/>
-      <c r="H40" s="215"/>
-      <c r="I40" s="216"/>
+      <c r="F40" s="243"/>
+      <c r="G40" s="243"/>
+      <c r="H40" s="243"/>
+      <c r="I40" s="222"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="220"/>
-      <c r="F41" s="221"/>
-      <c r="G41" s="83" t="s">
+      <c r="E41" s="261"/>
+      <c r="F41" s="262"/>
+      <c r="G41" s="82" t="s">
         <v>159</v>
       </c>
-      <c r="H41" s="83" t="s">
+      <c r="H41" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="190" t="s">
+      <c r="I41" s="189" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="84">
+      <c r="E42" s="83">
         <v>1</v>
       </c>
-      <c r="F42" s="94"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="212"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="241"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="84">
+      <c r="E43" s="83">
         <v>2</v>
       </c>
-      <c r="F43" s="94"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="212"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="241"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="84">
+      <c r="E44" s="83">
         <v>3</v>
       </c>
-      <c r="F44" s="94"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="212"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="241"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="84">
+      <c r="E45" s="83">
         <v>4</v>
       </c>
-      <c r="F45" s="94"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="212"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="241"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="84">
+      <c r="E46" s="83">
         <v>5</v>
       </c>
-      <c r="F46" s="94"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="212"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="241"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="85">
+      <c r="E47" s="84">
         <v>6</v>
       </c>
-      <c r="F47" s="141"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="213"/>
+      <c r="F47" s="140"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="242"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5842,20 +5894,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5869,7 +5907,7 @@
   </sheetPr>
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -5895,649 +5933,649 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="269" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="260"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="271"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="272" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="274"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="172" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="175" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="264" t="s">
+      <c r="C3" s="275" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="176" t="s">
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="175" t="s">
         <v>296</v>
       </c>
-      <c r="I3" s="176" t="s">
+      <c r="I3" s="175" t="s">
         <v>297</v>
       </c>
-      <c r="J3" s="177" t="s">
+      <c r="J3" s="176" t="s">
         <v>298</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="139" t="s">
         <v>254</v>
       </c>
-      <c r="E4" s="140" t="s">
+      <c r="E4" s="139" t="s">
         <v>268</v>
       </c>
-      <c r="F4" s="140" t="s">
+      <c r="F4" s="139" t="s">
         <v>261</v>
       </c>
-      <c r="G4" s="140" t="s">
+      <c r="G4" s="139" t="s">
         <v>278</v>
       </c>
-      <c r="H4" s="140" t="s">
+      <c r="H4" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="I4" s="140" t="s">
+      <c r="I4" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="194" t="s">
+      <c r="J4" s="193" t="s">
         <v>387</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="109">
+      <c r="A5" s="108">
         <v>1</v>
       </c>
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="207" t="s">
         <v>460</v>
       </c>
-      <c r="C5" s="110">
+      <c r="C5" s="109">
         <v>0.1</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="109" t="s">
         <v>264</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="109" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="G5" s="110">
+      <c r="G5" s="109">
         <v>0.1</v>
       </c>
-      <c r="H5" s="111">
+      <c r="H5" s="110">
         <v>1</v>
       </c>
-      <c r="I5" s="112" t="s">
+      <c r="I5" s="111" t="s">
         <v>461</v>
       </c>
-      <c r="J5" s="113"/>
-      <c r="K5" s="211" t="s">
+      <c r="J5" s="112"/>
+      <c r="K5" s="210" t="s">
         <v>445</v>
       </c>
-      <c r="L5" s="211" t="s">
+      <c r="L5" s="210" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="109">
+      <c r="A6" s="108">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="208" t="s">
+      <c r="B6" s="207" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="110">
+      <c r="C6" s="109">
         <v>0.2</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="109" t="s">
         <v>264</v>
       </c>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="109" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="109" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="110">
+      <c r="G6" s="109">
         <v>0.2</v>
       </c>
-      <c r="H6" s="111">
+      <c r="H6" s="110">
         <v>1</v>
       </c>
-      <c r="I6" s="112" t="s">
+      <c r="I6" s="111" t="s">
         <v>463</v>
       </c>
-      <c r="J6" s="113"/>
-      <c r="K6" s="211" t="s">
+      <c r="J6" s="112"/>
+      <c r="K6" s="210" t="s">
         <v>447</v>
       </c>
-      <c r="L6" s="211" t="s">
+      <c r="L6" s="210" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="109">
+      <c r="A7" s="108">
         <f t="shared" ref="A7:A13" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="208" t="s">
+      <c r="B7" s="207" t="s">
         <v>464</v>
       </c>
-      <c r="C7" s="110">
+      <c r="C7" s="109">
         <v>0.5</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="109" t="s">
         <v>264</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="109" t="s">
         <v>199</v>
       </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="111">
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="110">
         <v>1</v>
       </c>
-      <c r="I7" s="112" t="s">
+      <c r="I7" s="111" t="s">
         <v>465</v>
       </c>
-      <c r="J7" s="113"/>
-      <c r="K7" s="211" t="s">
+      <c r="J7" s="112"/>
+      <c r="K7" s="210" t="s">
         <v>449</v>
       </c>
-      <c r="L7" s="211" t="s">
+      <c r="L7" s="210" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="109">
+      <c r="A8" s="108">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="111">
+      <c r="C8" s="77"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="110">
         <v>2</v>
       </c>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113" t="s">
+      <c r="I8" s="111"/>
+      <c r="J8" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="206" t="s">
+      <c r="K8" s="205" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="109">
+      <c r="A9" s="108">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="111">
+      <c r="C9" s="77"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="110">
         <v>2</v>
       </c>
-      <c r="I9" s="112"/>
-      <c r="J9" s="113" t="s">
+      <c r="I9" s="111"/>
+      <c r="J9" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="206" t="s">
+      <c r="K9" s="205" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="109">
+      <c r="A10" s="108">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="111">
+      <c r="C10" s="77"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110">
         <v>2</v>
       </c>
-      <c r="I10" s="112"/>
-      <c r="J10" s="113" t="s">
+      <c r="I10" s="111"/>
+      <c r="J10" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="206" t="s">
+      <c r="K10" s="205" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="109">
+      <c r="A11" s="108">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="111">
+      <c r="C11" s="77"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="110">
         <v>2</v>
       </c>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113" t="s">
+      <c r="I11" s="111"/>
+      <c r="J11" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="206" t="s">
+      <c r="K11" s="205" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="109">
+      <c r="A12" s="108">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="111">
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="110">
         <v>2</v>
       </c>
-      <c r="I12" s="112"/>
-      <c r="J12" s="113" t="s">
+      <c r="I12" s="111"/>
+      <c r="J12" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="206" t="s">
+      <c r="K12" s="205" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="109">
+      <c r="A13" s="108">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="110"/>
-      <c r="D13" s="110"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="111">
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="110">
         <v>2</v>
       </c>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113" t="s">
+      <c r="I13" s="111"/>
+      <c r="J13" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="206" t="s">
+      <c r="K13" s="205" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="323">
+      <c r="A14" s="211">
         <f>A13+1</f>
         <v>10</v>
       </c>
-      <c r="B14" s="324" t="s">
+      <c r="B14" s="212" t="s">
         <v>284</v>
       </c>
-      <c r="C14" s="325"/>
-      <c r="D14" s="325"/>
-      <c r="E14" s="325"/>
-      <c r="F14" s="325"/>
-      <c r="G14" s="325"/>
-      <c r="H14" s="326">
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="213"/>
+      <c r="H14" s="214">
         <v>2</v>
       </c>
-      <c r="I14" s="327"/>
-      <c r="J14" s="328" t="s">
+      <c r="I14" s="215"/>
+      <c r="J14" s="216" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="206" t="s">
+      <c r="K14" s="205" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K15" s="206"/>
+      <c r="K15" s="205"/>
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="276" t="s">
+      <c r="A16" s="290" t="s">
         <v>216</v>
       </c>
-      <c r="B16" s="277"/>
-      <c r="C16" s="277"/>
-      <c r="D16" s="277"/>
-      <c r="E16" s="277"/>
-      <c r="F16" s="277"/>
-      <c r="G16" s="277"/>
-      <c r="H16" s="277"/>
-      <c r="I16" s="277"/>
-      <c r="J16" s="277"/>
-      <c r="K16" s="277"/>
-      <c r="L16" s="277"/>
-      <c r="M16" s="277"/>
-      <c r="N16" s="277"/>
-      <c r="O16" s="277"/>
-      <c r="P16" s="277"/>
-      <c r="Q16" s="278"/>
+      <c r="B16" s="291"/>
+      <c r="C16" s="291"/>
+      <c r="D16" s="291"/>
+      <c r="E16" s="291"/>
+      <c r="F16" s="291"/>
+      <c r="G16" s="291"/>
+      <c r="H16" s="291"/>
+      <c r="I16" s="291"/>
+      <c r="J16" s="291"/>
+      <c r="K16" s="291"/>
+      <c r="L16" s="291"/>
+      <c r="M16" s="291"/>
+      <c r="N16" s="291"/>
+      <c r="O16" s="291"/>
+      <c r="P16" s="291"/>
+      <c r="Q16" s="292"/>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="137" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="191" t="s">
+      <c r="B17" s="190" t="s">
         <v>344</v>
       </c>
-      <c r="C17" s="193" t="s">
+      <c r="C17" s="192" t="s">
         <v>310</v>
       </c>
-      <c r="D17" s="193" t="s">
+      <c r="D17" s="192" t="s">
         <v>346</v>
       </c>
-      <c r="E17" s="193" t="s">
+      <c r="E17" s="192" t="s">
         <v>243</v>
       </c>
-      <c r="F17" s="193" t="s">
+      <c r="F17" s="192" t="s">
         <v>361</v>
       </c>
-      <c r="G17" s="193" t="s">
+      <c r="G17" s="192" t="s">
         <v>414</v>
       </c>
-      <c r="H17" s="193" t="s">
+      <c r="H17" s="192" t="s">
         <v>243</v>
       </c>
-      <c r="I17" s="193" t="s">
+      <c r="I17" s="192" t="s">
         <v>414</v>
       </c>
-      <c r="J17" s="193" t="s">
+      <c r="J17" s="192" t="s">
         <v>426</v>
       </c>
-      <c r="K17" s="193" t="s">
+      <c r="K17" s="192" t="s">
         <v>414</v>
       </c>
-      <c r="L17" s="124" t="s">
+      <c r="L17" s="123" t="s">
         <v>246</v>
       </c>
-      <c r="M17" s="124" t="s">
+      <c r="M17" s="123" t="s">
         <v>246</v>
       </c>
-      <c r="N17" s="124" t="s">
+      <c r="N17" s="123" t="s">
         <v>246</v>
       </c>
-      <c r="O17" s="193" t="s">
+      <c r="O17" s="192" t="s">
         <v>252</v>
       </c>
-      <c r="P17" s="193" t="s">
+      <c r="P17" s="192" t="s">
         <v>252</v>
       </c>
-      <c r="Q17" s="192" t="s">
+      <c r="Q17" s="191" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="146"/>
-      <c r="B18" s="97" t="s">
+      <c r="A18" s="145"/>
+      <c r="B18" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="96" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="E18" s="97" t="s">
+      <c r="E18" s="96" t="s">
         <v>227</v>
       </c>
-      <c r="F18" s="97" t="s">
+      <c r="F18" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="G18" s="97" t="s">
+      <c r="G18" s="96" t="s">
         <v>347</v>
       </c>
-      <c r="H18" s="97" t="s">
+      <c r="H18" s="96" t="s">
         <v>415</v>
       </c>
-      <c r="I18" s="97" t="s">
+      <c r="I18" s="96" t="s">
         <v>418</v>
       </c>
-      <c r="J18" s="97" t="s">
+      <c r="J18" s="96" t="s">
         <v>420</v>
       </c>
-      <c r="K18" s="97" t="s">
+      <c r="K18" s="96" t="s">
         <v>421</v>
       </c>
-      <c r="L18" s="97" t="s">
+      <c r="L18" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="97" t="s">
+      <c r="M18" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="N18" s="97" t="s">
+      <c r="N18" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="O18" s="97" t="s">
+      <c r="O18" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="P18" s="97" t="s">
+      <c r="P18" s="96" t="s">
         <v>229</v>
       </c>
-      <c r="Q18" s="119" t="s">
+      <c r="Q18" s="118" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="329"/>
-      <c r="B19" s="330" t="s">
+      <c r="A19" s="217"/>
+      <c r="B19" s="218" t="s">
         <v>417</v>
       </c>
-      <c r="C19" s="330"/>
-      <c r="D19" s="330"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154" t="s">
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153" t="s">
         <v>416</v>
       </c>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154" t="s">
+      <c r="H19" s="153"/>
+      <c r="I19" s="153" t="s">
         <v>419</v>
       </c>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154" t="s">
+      <c r="J19" s="153"/>
+      <c r="K19" s="153" t="s">
         <v>466</v>
       </c>
-      <c r="L19" s="154">
+      <c r="L19" s="153">
         <v>100</v>
       </c>
-      <c r="M19" s="154">
+      <c r="M19" s="153">
         <v>0</v>
       </c>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154">
+      <c r="N19" s="153"/>
+      <c r="O19" s="153">
         <v>4</v>
       </c>
-      <c r="P19" s="154">
+      <c r="P19" s="153">
         <v>10</v>
       </c>
-      <c r="Q19" s="155">
+      <c r="Q19" s="154">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="320" t="s">
+      <c r="A21" s="287" t="s">
         <v>256</v>
       </c>
-      <c r="B21" s="321"/>
-      <c r="C21" s="321"/>
-      <c r="D21" s="321"/>
-      <c r="E21" s="321"/>
-      <c r="F21" s="321"/>
-      <c r="G21" s="321"/>
-      <c r="H21" s="322"/>
+      <c r="B21" s="288"/>
+      <c r="C21" s="288"/>
+      <c r="D21" s="288"/>
+      <c r="E21" s="288"/>
+      <c r="F21" s="288"/>
+      <c r="G21" s="288"/>
+      <c r="H21" s="289"/>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="311" t="s">
+      <c r="A22" s="278" t="s">
         <v>341</v>
       </c>
-      <c r="B22" s="312"/>
-      <c r="C22" s="312"/>
-      <c r="D22" s="312"/>
-      <c r="E22" s="312"/>
-      <c r="F22" s="312"/>
-      <c r="G22" s="312"/>
-      <c r="H22" s="313"/>
+      <c r="B22" s="279"/>
+      <c r="C22" s="279"/>
+      <c r="D22" s="279"/>
+      <c r="E22" s="279"/>
+      <c r="F22" s="279"/>
+      <c r="G22" s="279"/>
+      <c r="H22" s="280"/>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="314"/>
-      <c r="B23" s="315"/>
-      <c r="C23" s="315"/>
-      <c r="D23" s="315"/>
-      <c r="E23" s="315"/>
-      <c r="F23" s="315"/>
-      <c r="G23" s="315"/>
-      <c r="H23" s="316"/>
+      <c r="A23" s="281"/>
+      <c r="B23" s="282"/>
+      <c r="C23" s="282"/>
+      <c r="D23" s="282"/>
+      <c r="E23" s="282"/>
+      <c r="F23" s="282"/>
+      <c r="G23" s="282"/>
+      <c r="H23" s="283"/>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="314"/>
-      <c r="B24" s="315"/>
-      <c r="C24" s="315"/>
-      <c r="D24" s="315"/>
-      <c r="E24" s="315"/>
-      <c r="F24" s="315"/>
-      <c r="G24" s="315"/>
-      <c r="H24" s="316"/>
+      <c r="A24" s="281"/>
+      <c r="B24" s="282"/>
+      <c r="C24" s="282"/>
+      <c r="D24" s="282"/>
+      <c r="E24" s="282"/>
+      <c r="F24" s="282"/>
+      <c r="G24" s="282"/>
+      <c r="H24" s="283"/>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="317"/>
-      <c r="B25" s="318"/>
-      <c r="C25" s="318"/>
-      <c r="D25" s="318"/>
-      <c r="E25" s="318"/>
-      <c r="F25" s="318"/>
-      <c r="G25" s="318"/>
-      <c r="H25" s="319"/>
+      <c r="A25" s="284"/>
+      <c r="B25" s="285"/>
+      <c r="C25" s="285"/>
+      <c r="D25" s="285"/>
+      <c r="E25" s="285"/>
+      <c r="F25" s="285"/>
+      <c r="G25" s="285"/>
+      <c r="H25" s="286"/>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="308" t="s">
+      <c r="A27" s="266" t="s">
         <v>285</v>
       </c>
-      <c r="B27" s="309"/>
-      <c r="C27" s="309"/>
-      <c r="D27" s="309"/>
-      <c r="E27" s="309"/>
-      <c r="F27" s="309"/>
-      <c r="G27" s="310"/>
-      <c r="K27" s="209"/>
-      <c r="L27" s="209"/>
-      <c r="M27" s="209"/>
-      <c r="N27" s="209"/>
-      <c r="O27" s="209"/>
-      <c r="P27" s="209"/>
-      <c r="Q27" s="210"/>
+      <c r="B27" s="267"/>
+      <c r="C27" s="267"/>
+      <c r="D27" s="267"/>
+      <c r="E27" s="267"/>
+      <c r="F27" s="267"/>
+      <c r="G27" s="268"/>
+      <c r="K27" s="208"/>
+      <c r="L27" s="208"/>
+      <c r="M27" s="208"/>
+      <c r="N27" s="208"/>
+      <c r="O27" s="208"/>
+      <c r="P27" s="208"/>
+      <c r="Q27" s="209"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="79" t="s">
+      <c r="A28" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="B28" s="79" t="s">
+      <c r="B28" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C28" s="79" t="s">
+      <c r="C28" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="D28" s="256" t="s">
+      <c r="D28" s="265" t="s">
         <v>288</v>
       </c>
-      <c r="E28" s="256"/>
-      <c r="F28" s="256"/>
-      <c r="G28" s="256"/>
-      <c r="K28" s="193" t="s">
+      <c r="E28" s="265"/>
+      <c r="F28" s="265"/>
+      <c r="G28" s="265"/>
+      <c r="K28" s="192" t="s">
         <v>414</v>
       </c>
-      <c r="L28" s="124" t="s">
+      <c r="L28" s="123" t="s">
         <v>246</v>
       </c>
-      <c r="M28" s="124" t="s">
+      <c r="M28" s="123" t="s">
         <v>246</v>
       </c>
-      <c r="N28" s="124" t="s">
+      <c r="N28" s="123" t="s">
         <v>246</v>
       </c>
-      <c r="O28" s="189" t="s">
+      <c r="O28" s="188" t="s">
         <v>252</v>
       </c>
-      <c r="P28" s="189" t="s">
+      <c r="P28" s="188" t="s">
         <v>252</v>
       </c>
-      <c r="Q28" s="192" t="s">
+      <c r="Q28" s="191" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6551,7 +6589,7 @@
       <c r="C29" t="s">
         <v>424</v>
       </c>
-      <c r="D29" s="175" t="s">
+      <c r="D29" s="174" t="s">
         <v>348</v>
       </c>
       <c r="E29"/>
@@ -6560,25 +6598,25 @@
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
-      <c r="K29" s="97" t="s">
+      <c r="K29" s="96" t="s">
         <v>421</v>
       </c>
-      <c r="L29" s="97" t="s">
+      <c r="L29" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="M29" s="97" t="s">
+      <c r="M29" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="N29" s="97" t="s">
+      <c r="N29" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="O29" s="97" t="s">
+      <c r="O29" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="P29" s="97" t="s">
+      <c r="P29" s="96" t="s">
         <v>229</v>
       </c>
-      <c r="Q29" s="119" t="s">
+      <c r="Q29" s="118" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6592,7 +6630,7 @@
       <c r="C30" t="s">
         <v>424</v>
       </c>
-      <c r="D30" s="188" t="s">
+      <c r="D30" s="187" t="s">
         <v>312</v>
       </c>
       <c r="E30"/>
@@ -6601,23 +6639,23 @@
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
-      <c r="K30" s="154" t="s">
+      <c r="K30" s="153" t="s">
         <v>422</v>
       </c>
-      <c r="L30" s="154">
+      <c r="L30" s="153">
         <v>100</v>
       </c>
-      <c r="M30" s="154">
+      <c r="M30" s="153">
         <v>0</v>
       </c>
-      <c r="N30" s="154"/>
-      <c r="O30" s="154">
+      <c r="N30" s="153"/>
+      <c r="O30" s="153">
         <v>4</v>
       </c>
-      <c r="P30" s="154">
+      <c r="P30" s="153">
         <v>10</v>
       </c>
-      <c r="Q30" s="155">
+      <c r="Q30" s="154">
         <v>10</v>
       </c>
     </row>
@@ -6631,7 +6669,7 @@
       <c r="C31" t="s">
         <v>424</v>
       </c>
-      <c r="D31" s="175" t="s">
+      <c r="D31" s="174" t="s">
         <v>313</v>
       </c>
       <c r="E31"/>
@@ -6651,7 +6689,7 @@
       <c r="C32" t="s">
         <v>424</v>
       </c>
-      <c r="D32" s="175" t="s">
+      <c r="D32" s="174" t="s">
         <v>335</v>
       </c>
       <c r="E32"/>
@@ -6671,7 +6709,7 @@
       <c r="C33" t="s">
         <v>424</v>
       </c>
-      <c r="D33" s="178" t="s">
+      <c r="D33" s="177" t="s">
         <v>314</v>
       </c>
       <c r="E33"/>
@@ -6691,7 +6729,7 @@
       <c r="C34" t="s">
         <v>424</v>
       </c>
-      <c r="D34" s="188" t="s">
+      <c r="D34" s="187" t="s">
         <v>389</v>
       </c>
       <c r="E34"/>
@@ -6711,7 +6749,7 @@
       <c r="C35" t="s">
         <v>424</v>
       </c>
-      <c r="D35" s="188" t="s">
+      <c r="D35" s="187" t="s">
         <v>370</v>
       </c>
       <c r="E35"/>
@@ -6731,7 +6769,7 @@
       <c r="C36" t="s">
         <v>424</v>
       </c>
-      <c r="D36" s="188" t="s">
+      <c r="D36" s="187" t="s">
         <v>390</v>
       </c>
       <c r="E36"/>
@@ -6751,7 +6789,7 @@
       <c r="C37" t="s">
         <v>424</v>
       </c>
-      <c r="D37" s="188" t="s">
+      <c r="D37" s="187" t="s">
         <v>392</v>
       </c>
       <c r="E37"/>
@@ -6771,7 +6809,7 @@
       <c r="C38" t="s">
         <v>424</v>
       </c>
-      <c r="D38" s="188" t="s">
+      <c r="D38" s="187" t="s">
         <v>391</v>
       </c>
       <c r="E38"/>
@@ -6791,7 +6829,7 @@
       <c r="C39" t="s">
         <v>424</v>
       </c>
-      <c r="D39" s="188" t="s">
+      <c r="D39" s="187" t="s">
         <v>393</v>
       </c>
       <c r="E39"/>
@@ -6811,7 +6849,7 @@
       <c r="C40" t="s">
         <v>424</v>
       </c>
-      <c r="D40" s="188" t="s">
+      <c r="D40" s="187" t="s">
         <v>396</v>
       </c>
     </row>
@@ -6825,7 +6863,7 @@
       <c r="C41" t="s">
         <v>424</v>
       </c>
-      <c r="D41" s="175" t="s">
+      <c r="D41" s="174" t="s">
         <v>425</v>
       </c>
     </row>
@@ -6839,7 +6877,7 @@
       <c r="C42" t="s">
         <v>424</v>
       </c>
-      <c r="D42" s="188" t="s">
+      <c r="D42" s="187" t="s">
         <v>399</v>
       </c>
     </row>
@@ -6853,7 +6891,7 @@
       <c r="C43" t="s">
         <v>424</v>
       </c>
-      <c r="D43" s="188" t="s">
+      <c r="D43" s="187" t="s">
         <v>399</v>
       </c>
     </row>
@@ -6867,7 +6905,7 @@
       <c r="C44" t="s">
         <v>424</v>
       </c>
-      <c r="D44" s="188" t="s">
+      <c r="D44" s="187" t="s">
         <v>399</v>
       </c>
     </row>
@@ -6881,7 +6919,7 @@
       <c r="C45" t="s">
         <v>424</v>
       </c>
-      <c r="D45" s="188" t="s">
+      <c r="D45" s="187" t="s">
         <v>399</v>
       </c>
     </row>
@@ -6895,7 +6933,7 @@
       <c r="C46" t="s">
         <v>424</v>
       </c>
-      <c r="D46" s="188" t="s">
+      <c r="D46" s="187" t="s">
         <v>399</v>
       </c>
     </row>
@@ -6909,7 +6947,7 @@
       <c r="C47" t="s">
         <v>424</v>
       </c>
-      <c r="D47" s="175" t="s">
+      <c r="D47" s="174" t="s">
         <v>400</v>
       </c>
     </row>
@@ -6923,7 +6961,7 @@
       <c r="C48" t="s">
         <v>424</v>
       </c>
-      <c r="D48" s="175" t="s">
+      <c r="D48" s="174" t="s">
         <v>401</v>
       </c>
     </row>
@@ -6937,7 +6975,7 @@
       <c r="C49" t="s">
         <v>424</v>
       </c>
-      <c r="D49" s="175" t="s">
+      <c r="D49" s="174" t="s">
         <v>402</v>
       </c>
     </row>
@@ -6951,7 +6989,7 @@
       <c r="C50" t="s">
         <v>424</v>
       </c>
-      <c r="D50" s="175" t="s">
+      <c r="D50" s="174" t="s">
         <v>403</v>
       </c>
     </row>
@@ -6965,7 +7003,7 @@
       <c r="C51" t="s">
         <v>424</v>
       </c>
-      <c r="D51" s="175" t="s">
+      <c r="D51" s="174" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6979,7 +7017,7 @@
       <c r="C52" t="s">
         <v>424</v>
       </c>
-      <c r="D52" s="175" t="s">
+      <c r="D52" s="174" t="s">
         <v>405</v>
       </c>
     </row>
@@ -6993,7 +7031,7 @@
       <c r="C53" t="s">
         <v>424</v>
       </c>
-      <c r="D53" s="175" t="s">
+      <c r="D53" s="174" t="s">
         <v>406</v>
       </c>
     </row>
@@ -7007,7 +7045,7 @@
       <c r="C54" t="s">
         <v>424</v>
       </c>
-      <c r="D54" s="175" t="s">
+      <c r="D54" s="174" t="s">
         <v>407</v>
       </c>
     </row>
@@ -7021,7 +7059,7 @@
       <c r="C55" t="s">
         <v>424</v>
       </c>
-      <c r="D55" s="175" t="s">
+      <c r="D55" s="174" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7035,7 +7073,7 @@
       <c r="C56" t="s">
         <v>424</v>
       </c>
-      <c r="D56" s="175" t="s">
+      <c r="D56" s="174" t="s">
         <v>409</v>
       </c>
     </row>
@@ -7049,7 +7087,7 @@
       <c r="C57" t="s">
         <v>424</v>
       </c>
-      <c r="D57" s="175" t="s">
+      <c r="D57" s="174" t="s">
         <v>410</v>
       </c>
     </row>
@@ -7063,7 +7101,7 @@
       <c r="C58" t="s">
         <v>424</v>
       </c>
-      <c r="D58" s="175" t="s">
+      <c r="D58" s="174" t="s">
         <v>411</v>
       </c>
     </row>
@@ -7077,7 +7115,7 @@
       <c r="C59" t="s">
         <v>424</v>
       </c>
-      <c r="D59" s="175" t="s">
+      <c r="D59" s="174" t="s">
         <v>412</v>
       </c>
     </row>
@@ -7091,7 +7129,7 @@
       <c r="C60" t="s">
         <v>424</v>
       </c>
-      <c r="D60" s="175" t="s">
+      <c r="D60" s="174" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7211,92 +7249,92 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="279" t="s">
+    <row r="1" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="302" t="s">
         <v>360</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="281"/>
-    </row>
-    <row r="2" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="276" t="s">
+      <c r="B1" s="303"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="303"/>
+      <c r="F1" s="303"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303"/>
+      <c r="I1" s="303"/>
+      <c r="J1" s="304"/>
+    </row>
+    <row r="2" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="290" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="277"/>
-      <c r="G2" s="277"/>
-      <c r="H2" s="277"/>
-      <c r="I2" s="277"/>
-      <c r="J2" s="278"/>
-    </row>
-    <row r="3" spans="1:10" s="114" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="292"/>
+    </row>
+    <row r="3" spans="1:10" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="131" t="s">
         <v>299</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="131" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="128" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>247</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="125" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="127" t="s">
+      <c r="F3" s="126" t="s">
         <v>246</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="132" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="171" t="s">
+      <c r="H3" s="170" t="s">
         <v>281</v>
       </c>
-      <c r="I3" s="129"/>
-      <c r="J3" s="131"/>
-    </row>
-    <row r="4" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="I3" s="128"/>
+      <c r="J3" s="130"/>
+    </row>
+    <row r="4" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="100" t="s">
+      <c r="G4" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="H4" s="172" t="s">
+      <c r="H4" s="171" t="s">
         <v>282</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="103"/>
-    </row>
-    <row r="5" spans="1:10" s="114" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="74" t="s">
+      <c r="I4" s="101"/>
+      <c r="J4" s="102"/>
+    </row>
+    <row r="5" spans="1:10" s="113" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="73" t="s">
         <v>173</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7308,145 +7346,145 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="204" t="s">
+      <c r="G5" s="203" t="s">
         <v>283</v>
       </c>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-    </row>
-    <row r="6" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="276" t="s">
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+    </row>
+    <row r="6" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="277"/>
-      <c r="C6" s="277"/>
-      <c r="D6" s="277"/>
-      <c r="E6" s="277"/>
-      <c r="F6" s="277"/>
-      <c r="G6" s="277"/>
-      <c r="H6" s="277"/>
-      <c r="I6" s="277"/>
-      <c r="J6" s="278"/>
-    </row>
-    <row r="7" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="B6" s="291"/>
+      <c r="C6" s="291"/>
+      <c r="D6" s="291"/>
+      <c r="E6" s="291"/>
+      <c r="F6" s="291"/>
+      <c r="G6" s="291"/>
+      <c r="H6" s="291"/>
+      <c r="I6" s="291"/>
+      <c r="J6" s="292"/>
+    </row>
+    <row r="7" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="124" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="132" t="s">
         <v>301</v>
       </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="131"/>
-    </row>
-    <row r="8" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="130"/>
+    </row>
+    <row r="8" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106"/>
-    </row>
-    <row r="9" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69" t="s">
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105"/>
+    </row>
+    <row r="9" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
-    </row>
-    <row r="10" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="276" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
+    </row>
+    <row r="10" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="277"/>
-      <c r="C10" s="277"/>
-      <c r="D10" s="277"/>
-      <c r="E10" s="277"/>
-      <c r="F10" s="277"/>
-      <c r="G10" s="277"/>
-      <c r="H10" s="277"/>
-      <c r="I10" s="277"/>
-      <c r="J10" s="278"/>
-    </row>
-    <row r="11" spans="1:10" s="114" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="128"/>
-      <c r="B11" s="129" t="s">
+      <c r="B10" s="291"/>
+      <c r="C10" s="291"/>
+      <c r="D10" s="291"/>
+      <c r="E10" s="291"/>
+      <c r="F10" s="291"/>
+      <c r="G10" s="291"/>
+      <c r="H10" s="291"/>
+      <c r="I10" s="291"/>
+      <c r="J10" s="292"/>
+    </row>
+    <row r="11" spans="1:10" s="113" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="127"/>
+      <c r="B11" s="128" t="s">
         <v>253</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="128" t="s">
         <v>233</v>
       </c>
-      <c r="D11" s="174" t="s">
+      <c r="D11" s="173" t="s">
         <v>309</v>
       </c>
-      <c r="E11" s="129" t="s">
+      <c r="E11" s="128" t="s">
         <v>235</v>
       </c>
-      <c r="F11" s="134" t="s">
+      <c r="F11" s="133" t="s">
         <v>303</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="132" t="s">
         <v>302</v>
       </c>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="132" t="s">
         <v>304</v>
       </c>
-      <c r="I11" s="129"/>
-      <c r="J11" s="131"/>
-    </row>
-    <row r="12" spans="1:10" s="114" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="96" t="s">
+      <c r="I11" s="128"/>
+      <c r="J11" s="130"/>
+    </row>
+    <row r="12" spans="1:10" s="113" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="96" t="s">
         <v>236</v>
       </c>
-      <c r="F12" s="97" t="s">
+      <c r="F12" s="96" t="s">
         <v>237</v>
       </c>
-      <c r="G12" s="135" t="s">
+      <c r="G12" s="134" t="s">
         <v>238</v>
       </c>
-      <c r="H12" s="100" t="s">
+      <c r="H12" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="I12" s="120"/>
-      <c r="J12" s="121"/>
-    </row>
-    <row r="13" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107" t="s">
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
+    </row>
+    <row r="13" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="106" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -7473,8 +7511,8 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107">
+    <row r="14" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="106">
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -7501,8 +7539,8 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="107">
+    <row r="15" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="106">
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -7529,8 +7567,8 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107">
+    <row r="16" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="106">
         <v>4</v>
       </c>
       <c r="B16" s="4"/>
@@ -7543,8 +7581,8 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="107">
+    <row r="17" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="106">
         <v>5</v>
       </c>
       <c r="B17" s="4"/>
@@ -7557,8 +7595,8 @@
       <c r="I17" s="4"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107">
+    <row r="18" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="106">
         <v>6</v>
       </c>
       <c r="B18" s="4"/>
@@ -7571,8 +7609,8 @@
       <c r="I18" s="4"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107">
+    <row r="19" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="106">
         <v>7</v>
       </c>
       <c r="B19" s="4"/>
@@ -7585,8 +7623,8 @@
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" s="114" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="108">
+    <row r="20" spans="1:10" s="113" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="107">
         <v>8</v>
       </c>
       <c r="B20" s="8"/>
@@ -7599,62 +7637,62 @@
       <c r="I20" s="8"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" s="114" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="276" t="s">
+    <row r="21" spans="1:10" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="290" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="277"/>
-      <c r="C21" s="277"/>
-      <c r="D21" s="277"/>
-      <c r="E21" s="277"/>
-      <c r="F21" s="277"/>
-      <c r="G21" s="277"/>
-      <c r="H21" s="277"/>
-      <c r="I21" s="277"/>
-      <c r="J21" s="278"/>
-    </row>
-    <row r="22" spans="1:10" s="114" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="132" t="s">
+      <c r="B21" s="291"/>
+      <c r="C21" s="291"/>
+      <c r="D21" s="291"/>
+      <c r="E21" s="291"/>
+      <c r="F21" s="291"/>
+      <c r="G21" s="291"/>
+      <c r="H21" s="291"/>
+      <c r="I21" s="291"/>
+      <c r="J21" s="292"/>
+    </row>
+    <row r="22" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="131" t="s">
         <v>305</v>
       </c>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="132" t="s">
         <v>306</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="132" t="s">
         <v>248</v>
       </c>
-      <c r="D22" s="133" t="s">
+      <c r="D22" s="132" t="s">
         <v>307</v>
       </c>
-      <c r="E22" s="129"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="131"/>
-    </row>
-    <row r="23" spans="1:10" s="114" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="130"/>
+    </row>
+    <row r="23" spans="1:10" s="113" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="96" t="s">
         <v>241</v>
       </c>
-      <c r="D23" s="100" t="s">
+      <c r="D23" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="E23" s="115"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="106"/>
-    </row>
-    <row r="24" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31">
+      <c r="E23" s="114"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="105"/>
+    </row>
+    <row r="24" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30">
         <v>3</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -7663,7 +7701,7 @@
       <c r="C24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="154" t="s">
+      <c r="D24" s="153" t="s">
         <v>193</v>
       </c>
       <c r="E24" s="8"/>
@@ -7673,70 +7711,70 @@
       <c r="I24" s="8"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="276" t="s">
+    <row r="25" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="290" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="277"/>
-      <c r="C25" s="277"/>
-      <c r="D25" s="277"/>
-      <c r="E25" s="277"/>
-      <c r="F25" s="277"/>
-      <c r="G25" s="277"/>
-      <c r="H25" s="277"/>
-      <c r="I25" s="277"/>
-      <c r="J25" s="278"/>
-    </row>
-    <row r="26" spans="1:10" s="114" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="132" t="s">
+      <c r="B25" s="291"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
+      <c r="E25" s="291"/>
+      <c r="F25" s="291"/>
+      <c r="G25" s="291"/>
+      <c r="H25" s="291"/>
+      <c r="I25" s="291"/>
+      <c r="J25" s="292"/>
+    </row>
+    <row r="26" spans="1:10" s="113" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="131" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="193" t="s">
+      <c r="B26" s="192" t="s">
         <v>346</v>
       </c>
-      <c r="C26" s="133" t="s">
+      <c r="C26" s="132" t="s">
         <v>308</v>
       </c>
-      <c r="D26" s="133" t="s">
+      <c r="D26" s="132" t="s">
         <v>242</v>
       </c>
-      <c r="E26" s="189" t="s">
+      <c r="E26" s="188" t="s">
         <v>346</v>
       </c>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="152"/>
-    </row>
-    <row r="27" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="149"/>
-      <c r="B27" s="148" t="s">
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="151"/>
+    </row>
+    <row r="27" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="148"/>
+      <c r="B27" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="148" t="s">
+      <c r="C27" s="147" t="s">
         <v>240</v>
       </c>
-      <c r="D27" s="97" t="s">
+      <c r="D27" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="97" t="s">
+      <c r="E27" s="96" t="s">
         <v>347</v>
       </c>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="153"/>
-    </row>
-    <row r="28" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="147"/>
-      <c r="B28" s="203" t="s">
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="152"/>
+    </row>
+    <row r="28" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="146"/>
+      <c r="B28" s="202" t="s">
         <v>438</v>
       </c>
-      <c r="C28" s="185"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="154" t="s">
+      <c r="C28" s="184"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="153" t="s">
         <v>439</v>
       </c>
       <c r="F28" s="8"/>
@@ -7745,89 +7783,89 @@
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:10" s="114" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="273" t="s">
+    <row r="29" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="293" t="s">
         <v>256</v>
       </c>
-      <c r="B30" s="274"/>
-      <c r="C30" s="274"/>
-      <c r="D30" s="274"/>
-      <c r="E30" s="274"/>
-      <c r="F30" s="274"/>
-      <c r="G30" s="274"/>
-      <c r="H30" s="275"/>
-    </row>
-    <row r="31" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="267" t="s">
+      <c r="B30" s="294"/>
+      <c r="C30" s="294"/>
+      <c r="D30" s="294"/>
+      <c r="E30" s="294"/>
+      <c r="F30" s="294"/>
+      <c r="G30" s="294"/>
+      <c r="H30" s="295"/>
+    </row>
+    <row r="31" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="296" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="268"/>
-      <c r="C31" s="268"/>
-      <c r="D31" s="268"/>
-      <c r="E31" s="268"/>
-      <c r="F31" s="268"/>
-      <c r="G31" s="268"/>
-      <c r="H31" s="269"/>
-    </row>
-    <row r="32" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="267"/>
-      <c r="B32" s="268"/>
-      <c r="C32" s="268"/>
-      <c r="D32" s="268"/>
-      <c r="E32" s="268"/>
-      <c r="F32" s="268"/>
-      <c r="G32" s="268"/>
-      <c r="H32" s="269"/>
-    </row>
-    <row r="33" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="267"/>
-      <c r="B33" s="268"/>
-      <c r="C33" s="268"/>
-      <c r="D33" s="268"/>
-      <c r="E33" s="268"/>
-      <c r="F33" s="268"/>
-      <c r="G33" s="268"/>
-      <c r="H33" s="269"/>
-    </row>
-    <row r="34" spans="1:8" s="114" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="270"/>
-      <c r="B34" s="271"/>
-      <c r="C34" s="271"/>
-      <c r="D34" s="271"/>
-      <c r="E34" s="271"/>
-      <c r="F34" s="271"/>
-      <c r="G34" s="271"/>
-      <c r="H34" s="272"/>
-    </row>
-    <row r="35" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:8" s="114" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="257" t="s">
+      <c r="B31" s="297"/>
+      <c r="C31" s="297"/>
+      <c r="D31" s="297"/>
+      <c r="E31" s="297"/>
+      <c r="F31" s="297"/>
+      <c r="G31" s="297"/>
+      <c r="H31" s="298"/>
+    </row>
+    <row r="32" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="296"/>
+      <c r="B32" s="297"/>
+      <c r="C32" s="297"/>
+      <c r="D32" s="297"/>
+      <c r="E32" s="297"/>
+      <c r="F32" s="297"/>
+      <c r="G32" s="297"/>
+      <c r="H32" s="298"/>
+    </row>
+    <row r="33" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="296"/>
+      <c r="B33" s="297"/>
+      <c r="C33" s="297"/>
+      <c r="D33" s="297"/>
+      <c r="E33" s="297"/>
+      <c r="F33" s="297"/>
+      <c r="G33" s="297"/>
+      <c r="H33" s="298"/>
+    </row>
+    <row r="34" spans="1:8" s="113" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="299"/>
+      <c r="B34" s="300"/>
+      <c r="C34" s="300"/>
+      <c r="D34" s="300"/>
+      <c r="E34" s="300"/>
+      <c r="F34" s="300"/>
+      <c r="G34" s="300"/>
+      <c r="H34" s="301"/>
+    </row>
+    <row r="35" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:8" s="113" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="305" t="s">
         <v>285</v>
       </c>
-      <c r="B36" s="257"/>
-      <c r="C36" s="257"/>
-      <c r="D36" s="257"/>
-      <c r="E36" s="257"/>
-      <c r="F36" s="257"/>
-      <c r="G36" s="257"/>
-    </row>
-    <row r="37" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="79" t="s">
+      <c r="B36" s="305"/>
+      <c r="C36" s="305"/>
+      <c r="D36" s="305"/>
+      <c r="E36" s="305"/>
+      <c r="F36" s="305"/>
+      <c r="G36" s="305"/>
+    </row>
+    <row r="37" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="D37" s="256" t="s">
+      <c r="D37" s="265" t="s">
         <v>288</v>
       </c>
-      <c r="E37" s="256"/>
-      <c r="F37" s="256"/>
-      <c r="G37" s="256"/>
+      <c r="E37" s="265"/>
+      <c r="F37" s="265"/>
+      <c r="G37" s="265"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7839,7 +7877,7 @@
       <c r="C38" t="s">
         <v>441</v>
       </c>
-      <c r="D38" s="175" t="s">
+      <c r="D38" s="174" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7853,7 +7891,7 @@
       <c r="C39" t="s">
         <v>441</v>
       </c>
-      <c r="D39" s="188" t="s">
+      <c r="D39" s="187" t="s">
         <v>312</v>
       </c>
     </row>
@@ -7867,7 +7905,7 @@
       <c r="C40" t="s">
         <v>441</v>
       </c>
-      <c r="D40" s="175" t="s">
+      <c r="D40" s="174" t="s">
         <v>313</v>
       </c>
     </row>
@@ -7881,7 +7919,7 @@
       <c r="C41" t="s">
         <v>441</v>
       </c>
-      <c r="D41" s="175" t="s">
+      <c r="D41" s="174" t="s">
         <v>335</v>
       </c>
     </row>
@@ -7895,7 +7933,7 @@
       <c r="C42" t="s">
         <v>441</v>
       </c>
-      <c r="D42" s="178" t="s">
+      <c r="D42" s="177" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7909,7 +7947,7 @@
       <c r="C43" t="s">
         <v>441</v>
       </c>
-      <c r="D43" s="188" t="s">
+      <c r="D43" s="187" t="s">
         <v>350</v>
       </c>
     </row>
@@ -7923,7 +7961,7 @@
       <c r="C44" t="s">
         <v>441</v>
       </c>
-      <c r="D44" s="188" t="s">
+      <c r="D44" s="187" t="s">
         <v>353</v>
       </c>
     </row>
@@ -7937,7 +7975,7 @@
       <c r="C45" t="s">
         <v>441</v>
       </c>
-      <c r="D45" s="188" t="s">
+      <c r="D45" s="187" t="s">
         <v>440</v>
       </c>
     </row>
@@ -7951,7 +7989,7 @@
       <c r="C46" t="s">
         <v>441</v>
       </c>
-      <c r="D46" s="188" t="s">
+      <c r="D46" s="187" t="s">
         <v>354</v>
       </c>
     </row>
@@ -7965,7 +8003,7 @@
       <c r="C47" t="s">
         <v>441</v>
       </c>
-      <c r="D47" s="188" t="s">
+      <c r="D47" s="187" t="s">
         <v>355</v>
       </c>
     </row>
@@ -7979,7 +8017,7 @@
       <c r="C48" t="s">
         <v>441</v>
       </c>
-      <c r="D48" s="178" t="s">
+      <c r="D48" s="177" t="s">
         <v>443</v>
       </c>
     </row>
@@ -8064,383 +8102,383 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="288" t="s">
+      <c r="A1" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="288"/>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
-      <c r="N1" s="288"/>
-      <c r="O1" s="288"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="307"/>
+      <c r="N1" s="307"/>
+      <c r="O1" s="307"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="196" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="289" t="s">
+      <c r="B2" s="308" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="289"/>
-      <c r="D2" s="289"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="289"/>
-      <c r="G2" s="289" t="s">
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289"/>
-      <c r="J2" s="289"/>
-      <c r="K2" s="289"/>
-      <c r="L2" s="289"/>
-      <c r="M2" s="284" t="s">
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+      <c r="J2" s="308"/>
+      <c r="K2" s="308"/>
+      <c r="L2" s="308"/>
+      <c r="M2" s="311" t="s">
         <v>272</v>
       </c>
-      <c r="N2" s="284"/>
-      <c r="O2" s="284"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
+      <c r="N2" s="311"/>
+      <c r="O2" s="311"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="195" t="s">
         <v>334</v>
       </c>
-      <c r="B3" s="290" t="s">
+      <c r="B3" s="310" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290" t="s">
+      <c r="C3" s="310"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="310"/>
+      <c r="F3" s="310"/>
+      <c r="G3" s="310" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="196" t="s">
+      <c r="H3" s="310"/>
+      <c r="I3" s="310"/>
+      <c r="J3" s="310"/>
+      <c r="K3" s="310"/>
+      <c r="L3" s="310"/>
+      <c r="M3" s="195" t="s">
         <v>277</v>
       </c>
-      <c r="N3" s="196" t="s">
+      <c r="N3" s="195" t="s">
         <v>346</v>
       </c>
-      <c r="O3" s="198" t="s">
+      <c r="O3" s="197" t="s">
         <v>346</v>
       </c>
-      <c r="P3" s="201"/>
+      <c r="P3" s="200"/>
     </row>
     <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="199">
+      <c r="A4" s="198">
         <v>8</v>
       </c>
-      <c r="B4" s="282" t="s">
+      <c r="B4" s="309" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282" t="s">
+      <c r="C4" s="309"/>
+      <c r="D4" s="309" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282" t="s">
+      <c r="E4" s="309"/>
+      <c r="F4" s="309"/>
+      <c r="G4" s="309" t="s">
         <v>222</v>
       </c>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282" t="s">
+      <c r="H4" s="309"/>
+      <c r="I4" s="309"/>
+      <c r="J4" s="309" t="s">
         <v>280</v>
       </c>
-      <c r="K4" s="282"/>
-      <c r="L4" s="282"/>
-      <c r="M4" s="167" t="s">
+      <c r="K4" s="309"/>
+      <c r="L4" s="309"/>
+      <c r="M4" s="166" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="167" t="s">
+      <c r="N4" s="166" t="s">
         <v>347</v>
       </c>
-      <c r="O4" s="167" t="s">
+      <c r="O4" s="166" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="186"/>
-      <c r="B5" s="283"/>
-      <c r="C5" s="283"/>
-      <c r="D5" s="283"/>
-      <c r="E5" s="283"/>
-      <c r="F5" s="283"/>
-      <c r="G5" s="283" t="s">
+      <c r="A5" s="185"/>
+      <c r="B5" s="306"/>
+      <c r="C5" s="306"/>
+      <c r="D5" s="306"/>
+      <c r="E5" s="306"/>
+      <c r="F5" s="306"/>
+      <c r="G5" s="306" t="s">
         <v>254</v>
       </c>
-      <c r="H5" s="283"/>
-      <c r="I5" s="283"/>
-      <c r="J5" s="283" t="s">
+      <c r="H5" s="306"/>
+      <c r="I5" s="306"/>
+      <c r="J5" s="306" t="s">
         <v>268</v>
       </c>
-      <c r="K5" s="283"/>
-      <c r="L5" s="283"/>
-      <c r="M5" s="195"/>
-      <c r="N5" s="195" t="s">
+      <c r="K5" s="306"/>
+      <c r="L5" s="306"/>
+      <c r="M5" s="194"/>
+      <c r="N5" s="194" t="s">
         <v>364</v>
       </c>
-      <c r="O5" s="202" t="s">
+      <c r="O5" s="201" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="186"/>
-      <c r="B6" s="283" t="s">
+      <c r="A6" s="185"/>
+      <c r="B6" s="306" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="283"/>
-      <c r="D6" s="283" t="s">
+      <c r="C6" s="306"/>
+      <c r="D6" s="306" t="s">
         <v>264</v>
       </c>
-      <c r="E6" s="283"/>
-      <c r="F6" s="283"/>
-      <c r="G6" s="283" t="s">
+      <c r="E6" s="306"/>
+      <c r="F6" s="306"/>
+      <c r="G6" s="306" t="s">
         <v>261</v>
       </c>
-      <c r="H6" s="283"/>
-      <c r="I6" s="283"/>
-      <c r="J6" s="283"/>
-      <c r="K6" s="283"/>
-      <c r="L6" s="283"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="195" t="s">
+      <c r="H6" s="306"/>
+      <c r="I6" s="306"/>
+      <c r="J6" s="306"/>
+      <c r="K6" s="306"/>
+      <c r="L6" s="306"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194" t="s">
         <v>365</v>
       </c>
-      <c r="O6" s="202" t="s">
+      <c r="O6" s="201" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="186"/>
-      <c r="B7" s="283" t="s">
+      <c r="A7" s="185"/>
+      <c r="B7" s="306" t="s">
         <v>254</v>
       </c>
-      <c r="C7" s="283"/>
-      <c r="D7" s="283" t="s">
+      <c r="C7" s="306"/>
+      <c r="D7" s="306" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="283"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="283"/>
-      <c r="H7" s="283"/>
-      <c r="I7" s="283"/>
-      <c r="J7" s="283"/>
-      <c r="K7" s="283"/>
-      <c r="L7" s="283"/>
-      <c r="M7" s="195"/>
-      <c r="N7" s="195"/>
-      <c r="O7" s="165"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="306"/>
+      <c r="H7" s="306"/>
+      <c r="I7" s="306"/>
+      <c r="J7" s="306"/>
+      <c r="K7" s="306"/>
+      <c r="L7" s="306"/>
+      <c r="M7" s="194"/>
+      <c r="N7" s="194"/>
+      <c r="O7" s="164"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="186"/>
-      <c r="B8" s="283"/>
-      <c r="C8" s="283"/>
-      <c r="D8" s="283" t="s">
+      <c r="A8" s="185"/>
+      <c r="B8" s="306"/>
+      <c r="C8" s="306"/>
+      <c r="D8" s="306" t="s">
         <v>245</v>
       </c>
-      <c r="E8" s="283"/>
-      <c r="F8" s="283"/>
-      <c r="G8" s="283"/>
-      <c r="H8" s="283"/>
-      <c r="I8" s="283"/>
-      <c r="J8" s="283"/>
-      <c r="K8" s="283"/>
-      <c r="L8" s="283"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="195"/>
-      <c r="O8" s="165"/>
+      <c r="E8" s="306"/>
+      <c r="F8" s="306"/>
+      <c r="G8" s="306"/>
+      <c r="H8" s="306"/>
+      <c r="I8" s="306"/>
+      <c r="J8" s="306"/>
+      <c r="K8" s="306"/>
+      <c r="L8" s="306"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
+      <c r="O8" s="164"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="285" t="s">
+      <c r="A10" s="312" t="s">
         <v>332</v>
       </c>
-      <c r="B10" s="286"/>
-      <c r="C10" s="286"/>
-      <c r="D10" s="286"/>
-      <c r="E10" s="286"/>
-      <c r="F10" s="286"/>
-      <c r="G10" s="286"/>
-      <c r="H10" s="286"/>
-      <c r="I10" s="287"/>
+      <c r="B10" s="313"/>
+      <c r="C10" s="313"/>
+      <c r="D10" s="313"/>
+      <c r="E10" s="313"/>
+      <c r="F10" s="313"/>
+      <c r="G10" s="313"/>
+      <c r="H10" s="313"/>
+      <c r="I10" s="314"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="131" t="s">
         <v>257</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="132" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="189" t="s">
+      <c r="C11" s="188" t="s">
         <v>346</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="125" t="s">
         <v>246</v>
       </c>
-      <c r="E11" s="126" t="s">
+      <c r="E11" s="125" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="126" t="s">
+      <c r="F11" s="125" t="s">
         <v>246</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="132" t="s">
         <v>252</v>
       </c>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="132" t="s">
         <v>252</v>
       </c>
-      <c r="I11" s="145" t="s">
+      <c r="I11" s="144" t="s">
         <v>252</v>
       </c>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
+      <c r="K11" s="186"/>
+      <c r="L11" s="186"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="149"/>
-      <c r="B12" s="148" t="s">
+      <c r="A12" s="148"/>
+      <c r="B12" s="147" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="148" t="s">
+      <c r="F12" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="147" t="s">
         <v>228</v>
       </c>
-      <c r="H12" s="148" t="s">
+      <c r="H12" s="147" t="s">
         <v>229</v>
       </c>
-      <c r="I12" s="150" t="s">
+      <c r="I12" s="149" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="154">
+      <c r="A13" s="146"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="153">
         <v>100</v>
       </c>
-      <c r="E13" s="154">
+      <c r="E13" s="153">
         <v>0</v>
       </c>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154">
+      <c r="F13" s="153"/>
+      <c r="G13" s="153">
         <v>4</v>
       </c>
-      <c r="H13" s="154">
+      <c r="H13" s="153">
         <v>10</v>
       </c>
-      <c r="I13" s="155">
+      <c r="I13" s="154">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="273" t="s">
+      <c r="A15" s="293" t="s">
         <v>256</v>
       </c>
-      <c r="B15" s="274"/>
-      <c r="C15" s="274"/>
-      <c r="D15" s="274"/>
-      <c r="E15" s="274"/>
-      <c r="F15" s="274"/>
-      <c r="G15" s="274"/>
-      <c r="H15" s="275"/>
+      <c r="B15" s="294"/>
+      <c r="C15" s="294"/>
+      <c r="D15" s="294"/>
+      <c r="E15" s="294"/>
+      <c r="F15" s="294"/>
+      <c r="G15" s="294"/>
+      <c r="H15" s="295"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="267" t="s">
+      <c r="A16" s="296" t="s">
         <v>342</v>
       </c>
-      <c r="B16" s="268"/>
-      <c r="C16" s="268"/>
-      <c r="D16" s="268"/>
-      <c r="E16" s="268"/>
-      <c r="F16" s="268"/>
-      <c r="G16" s="268"/>
-      <c r="H16" s="269"/>
+      <c r="B16" s="297"/>
+      <c r="C16" s="297"/>
+      <c r="D16" s="297"/>
+      <c r="E16" s="297"/>
+      <c r="F16" s="297"/>
+      <c r="G16" s="297"/>
+      <c r="H16" s="298"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="267"/>
-      <c r="B17" s="268"/>
-      <c r="C17" s="268"/>
-      <c r="D17" s="268"/>
-      <c r="E17" s="268"/>
-      <c r="F17" s="268"/>
-      <c r="G17" s="268"/>
-      <c r="H17" s="269"/>
+      <c r="A17" s="296"/>
+      <c r="B17" s="297"/>
+      <c r="C17" s="297"/>
+      <c r="D17" s="297"/>
+      <c r="E17" s="297"/>
+      <c r="F17" s="297"/>
+      <c r="G17" s="297"/>
+      <c r="H17" s="298"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="267"/>
-      <c r="B18" s="268"/>
-      <c r="C18" s="268"/>
-      <c r="D18" s="268"/>
-      <c r="E18" s="268"/>
-      <c r="F18" s="268"/>
-      <c r="G18" s="268"/>
-      <c r="H18" s="269"/>
+      <c r="A18" s="296"/>
+      <c r="B18" s="297"/>
+      <c r="C18" s="297"/>
+      <c r="D18" s="297"/>
+      <c r="E18" s="297"/>
+      <c r="F18" s="297"/>
+      <c r="G18" s="297"/>
+      <c r="H18" s="298"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="270"/>
-      <c r="B19" s="271"/>
-      <c r="C19" s="271"/>
-      <c r="D19" s="271"/>
-      <c r="E19" s="271"/>
-      <c r="F19" s="271"/>
-      <c r="G19" s="271"/>
-      <c r="H19" s="272"/>
+      <c r="A19" s="299"/>
+      <c r="B19" s="300"/>
+      <c r="C19" s="300"/>
+      <c r="D19" s="300"/>
+      <c r="E19" s="300"/>
+      <c r="F19" s="300"/>
+      <c r="G19" s="300"/>
+      <c r="H19" s="301"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="257" t="s">
+      <c r="A21" s="305" t="s">
         <v>285</v>
       </c>
-      <c r="B21" s="257"/>
-      <c r="C21" s="257"/>
-      <c r="D21" s="257"/>
-      <c r="E21" s="257"/>
-      <c r="F21" s="257"/>
-      <c r="G21" s="257"/>
+      <c r="B21" s="305"/>
+      <c r="C21" s="305"/>
+      <c r="D21" s="305"/>
+      <c r="E21" s="305"/>
+      <c r="F21" s="305"/>
+      <c r="G21" s="305"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="256" t="s">
+      <c r="D22" s="265" t="s">
         <v>288</v>
       </c>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256"/>
+      <c r="E22" s="265"/>
+      <c r="F22" s="265"/>
+      <c r="G22" s="265"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8452,7 +8490,7 @@
       <c r="C23" t="s">
         <v>427</v>
       </c>
-      <c r="D23" s="175" t="s">
+      <c r="D23" s="174" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8466,7 +8504,7 @@
       <c r="C24" t="s">
         <v>427</v>
       </c>
-      <c r="D24" s="188" t="s">
+      <c r="D24" s="187" t="s">
         <v>312</v>
       </c>
     </row>
@@ -8480,7 +8518,7 @@
       <c r="C25" t="s">
         <v>427</v>
       </c>
-      <c r="D25" s="175" t="s">
+      <c r="D25" s="174" t="s">
         <v>313</v>
       </c>
     </row>
@@ -8494,7 +8532,7 @@
       <c r="C26" t="s">
         <v>427</v>
       </c>
-      <c r="D26" s="175" t="s">
+      <c r="D26" s="174" t="s">
         <v>335</v>
       </c>
     </row>
@@ -8508,7 +8546,7 @@
       <c r="C27" t="s">
         <v>427</v>
       </c>
-      <c r="D27" s="178" t="s">
+      <c r="D27" s="177" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8522,7 +8560,7 @@
       <c r="C28" t="s">
         <v>427</v>
       </c>
-      <c r="D28" s="188" t="s">
+      <c r="D28" s="187" t="s">
         <v>371</v>
       </c>
     </row>
@@ -8536,7 +8574,7 @@
       <c r="C29" t="s">
         <v>427</v>
       </c>
-      <c r="D29" s="188" t="s">
+      <c r="D29" s="187" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8550,7 +8588,7 @@
       <c r="C30" t="s">
         <v>427</v>
       </c>
-      <c r="D30" s="188" t="s">
+      <c r="D30" s="187" t="s">
         <v>372</v>
       </c>
     </row>
@@ -8564,7 +8602,7 @@
       <c r="C31" t="s">
         <v>427</v>
       </c>
-      <c r="D31" s="188" t="s">
+      <c r="D31" s="187" t="s">
         <v>321</v>
       </c>
     </row>
@@ -8578,7 +8616,7 @@
       <c r="C32" t="s">
         <v>427</v>
       </c>
-      <c r="D32" s="188" t="s">
+      <c r="D32" s="187" t="s">
         <v>373</v>
       </c>
     </row>
@@ -8592,7 +8630,7 @@
       <c r="C33" t="s">
         <v>427</v>
       </c>
-      <c r="D33" s="188" t="s">
+      <c r="D33" s="187" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8606,7 +8644,7 @@
       <c r="C34" t="s">
         <v>427</v>
       </c>
-      <c r="D34" s="175" t="s">
+      <c r="D34" s="174" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8620,7 +8658,7 @@
       <c r="C35" t="s">
         <v>427</v>
       </c>
-      <c r="D35" s="175" t="s">
+      <c r="D35" s="174" t="s">
         <v>376</v>
       </c>
     </row>
@@ -8634,7 +8672,7 @@
       <c r="C36" t="s">
         <v>427</v>
       </c>
-      <c r="D36" s="175" t="s">
+      <c r="D36" s="174" t="s">
         <v>377</v>
       </c>
     </row>
@@ -8648,7 +8686,7 @@
       <c r="C37" t="s">
         <v>427</v>
       </c>
-      <c r="D37" s="175" t="s">
+      <c r="D37" s="174" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8662,7 +8700,7 @@
       <c r="C38" t="s">
         <v>427</v>
       </c>
-      <c r="D38" s="175" t="s">
+      <c r="D38" s="174" t="s">
         <v>379</v>
       </c>
     </row>
@@ -8676,7 +8714,7 @@
       <c r="C39" t="s">
         <v>427</v>
       </c>
-      <c r="D39" s="175" t="s">
+      <c r="D39" s="174" t="s">
         <v>380</v>
       </c>
     </row>
@@ -8690,7 +8728,7 @@
       <c r="C40" t="s">
         <v>427</v>
       </c>
-      <c r="D40" s="175" t="s">
+      <c r="D40" s="174" t="s">
         <v>381</v>
       </c>
     </row>
@@ -8704,7 +8742,7 @@
       <c r="C41" t="s">
         <v>427</v>
       </c>
-      <c r="D41" s="175" t="s">
+      <c r="D41" s="174" t="s">
         <v>428</v>
       </c>
     </row>
@@ -8718,7 +8756,7 @@
       <c r="C42" t="s">
         <v>427</v>
       </c>
-      <c r="D42" s="175" t="s">
+      <c r="D42" s="174" t="s">
         <v>382</v>
       </c>
     </row>
@@ -8732,7 +8770,7 @@
       <c r="C43" t="s">
         <v>427</v>
       </c>
-      <c r="D43" s="175" t="s">
+      <c r="D43" s="174" t="s">
         <v>429</v>
       </c>
     </row>
@@ -8746,7 +8784,7 @@
       <c r="C44" t="s">
         <v>427</v>
       </c>
-      <c r="D44" s="175" t="s">
+      <c r="D44" s="174" t="s">
         <v>382</v>
       </c>
     </row>
@@ -8760,7 +8798,7 @@
       <c r="C45" t="s">
         <v>427</v>
       </c>
-      <c r="D45" s="175" t="s">
+      <c r="D45" s="174" t="s">
         <v>430</v>
       </c>
     </row>
@@ -8774,7 +8812,7 @@
       <c r="C46" t="s">
         <v>427</v>
       </c>
-      <c r="D46" s="175" t="s">
+      <c r="D46" s="174" t="s">
         <v>431</v>
       </c>
     </row>
@@ -8788,7 +8826,7 @@
       <c r="C47" t="s">
         <v>427</v>
       </c>
-      <c r="D47" s="175" t="s">
+      <c r="D47" s="174" t="s">
         <v>432</v>
       </c>
     </row>
@@ -8802,7 +8840,7 @@
       <c r="C48" t="s">
         <v>427</v>
       </c>
-      <c r="D48" s="175" t="s">
+      <c r="D48" s="174" t="s">
         <v>433</v>
       </c>
     </row>
@@ -8816,7 +8854,7 @@
       <c r="C49" t="s">
         <v>427</v>
       </c>
-      <c r="D49" s="175" t="s">
+      <c r="D49" s="174" t="s">
         <v>434</v>
       </c>
     </row>
@@ -8830,7 +8868,7 @@
       <c r="C50" t="s">
         <v>427</v>
       </c>
-      <c r="D50" s="175" t="s">
+      <c r="D50" s="174" t="s">
         <v>435</v>
       </c>
     </row>
@@ -8844,7 +8882,7 @@
       <c r="C51" t="s">
         <v>427</v>
       </c>
-      <c r="D51" s="175" t="s">
+      <c r="D51" s="174" t="s">
         <v>436</v>
       </c>
     </row>
@@ -8858,7 +8896,7 @@
       <c r="C52" t="s">
         <v>427</v>
       </c>
-      <c r="D52" s="188" t="s">
+      <c r="D52" s="187" t="s">
         <v>374</v>
       </c>
     </row>
@@ -8872,18 +8910,21 @@
       <c r="C53" t="s">
         <v>427</v>
       </c>
-      <c r="D53" s="175" t="s">
+      <c r="D53" s="174" t="s">
         <v>383</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -8900,15 +8941,12 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9000,368 +9038,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="288" t="s">
+      <c r="A1" s="307" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="288"/>
-      <c r="C1" s="288"/>
-      <c r="D1" s="288"/>
-      <c r="E1" s="288"/>
-      <c r="F1" s="288"/>
-      <c r="G1" s="288"/>
-      <c r="H1" s="288"/>
-      <c r="I1" s="288"/>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
-      <c r="N1" s="288"/>
-      <c r="O1" s="288"/>
-      <c r="P1" s="288"/>
-      <c r="Q1" s="32"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="307"/>
+      <c r="N1" s="307"/>
+      <c r="O1" s="307"/>
+      <c r="P1" s="307"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="289" t="s">
+      <c r="A2" s="308" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="289"/>
-      <c r="C2" s="289"/>
-      <c r="D2" s="289"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="289"/>
-      <c r="G2" s="289" t="s">
+      <c r="B2" s="308"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289"/>
-      <c r="J2" s="289"/>
-      <c r="K2" s="289"/>
-      <c r="L2" s="289"/>
-      <c r="M2" s="284" t="s">
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+      <c r="J2" s="308"/>
+      <c r="K2" s="308"/>
+      <c r="L2" s="308"/>
+      <c r="M2" s="311" t="s">
         <v>270</v>
       </c>
-      <c r="N2" s="284"/>
-      <c r="O2" s="284"/>
-      <c r="P2" s="284"/>
-      <c r="Q2" s="89"/>
+      <c r="N2" s="311"/>
+      <c r="O2" s="311"/>
+      <c r="P2" s="311"/>
+      <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="290" t="s">
+      <c r="A3" s="310" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290" t="s">
+      <c r="B3" s="310"/>
+      <c r="C3" s="310"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="310"/>
+      <c r="F3" s="310"/>
+      <c r="G3" s="310" t="s">
         <v>273</v>
       </c>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="196" t="s">
+      <c r="H3" s="310"/>
+      <c r="I3" s="310"/>
+      <c r="J3" s="310"/>
+      <c r="K3" s="310"/>
+      <c r="L3" s="310"/>
+      <c r="M3" s="195" t="s">
         <v>276</v>
       </c>
-      <c r="N3" s="196" t="s">
+      <c r="N3" s="195" t="s">
         <v>275</v>
       </c>
-      <c r="O3" s="196" t="s">
+      <c r="O3" s="195" t="s">
         <v>346</v>
       </c>
-      <c r="P3" s="196" t="s">
+      <c r="P3" s="195" t="s">
         <v>346</v>
       </c>
-      <c r="Q3" s="200"/>
+      <c r="Q3" s="199"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="282" t="s">
+      <c r="A4" s="309" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="282"/>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282" t="s">
+      <c r="B4" s="309"/>
+      <c r="C4" s="309"/>
+      <c r="D4" s="309" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282" t="s">
+      <c r="E4" s="309"/>
+      <c r="F4" s="309"/>
+      <c r="G4" s="309" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="282"/>
-      <c r="L4" s="282"/>
-      <c r="M4" s="167" t="s">
+      <c r="H4" s="309"/>
+      <c r="I4" s="309"/>
+      <c r="J4" s="309"/>
+      <c r="K4" s="309"/>
+      <c r="L4" s="309"/>
+      <c r="M4" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="N4" s="167" t="s">
+      <c r="N4" s="166" t="s">
         <v>154</v>
       </c>
-      <c r="O4" s="167" t="s">
+      <c r="O4" s="166" t="s">
         <v>347</v>
       </c>
-      <c r="P4" s="167" t="s">
+      <c r="P4" s="166" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="283"/>
-      <c r="B5" s="283"/>
-      <c r="C5" s="283"/>
-      <c r="D5" s="283"/>
-      <c r="E5" s="283"/>
-      <c r="F5" s="283"/>
-      <c r="G5" s="291" t="s">
+      <c r="A5" s="306"/>
+      <c r="B5" s="306"/>
+      <c r="C5" s="306"/>
+      <c r="D5" s="306"/>
+      <c r="E5" s="306"/>
+      <c r="F5" s="306"/>
+      <c r="G5" s="315" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="291"/>
-      <c r="I5" s="291"/>
-      <c r="J5" s="291"/>
-      <c r="K5" s="291"/>
-      <c r="L5" s="291"/>
-      <c r="M5" s="195" t="s">
+      <c r="H5" s="315"/>
+      <c r="I5" s="315"/>
+      <c r="J5" s="315"/>
+      <c r="K5" s="315"/>
+      <c r="L5" s="315"/>
+      <c r="M5" s="194" t="s">
         <v>267</v>
       </c>
-      <c r="N5" s="195"/>
-      <c r="O5" s="195" t="s">
+      <c r="N5" s="194"/>
+      <c r="O5" s="194" t="s">
         <v>368</v>
       </c>
-      <c r="P5" s="195" t="s">
+      <c r="P5" s="194" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="283"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="283"/>
-      <c r="D6" s="283"/>
-      <c r="E6" s="283"/>
-      <c r="F6" s="283"/>
-      <c r="G6" s="291"/>
-      <c r="H6" s="291"/>
-      <c r="I6" s="291"/>
-      <c r="J6" s="291"/>
-      <c r="K6" s="291"/>
-      <c r="L6" s="291"/>
-      <c r="M6" s="195"/>
-      <c r="N6" s="195"/>
-      <c r="O6" s="195"/>
-      <c r="P6" s="168"/>
+      <c r="A6" s="306"/>
+      <c r="B6" s="306"/>
+      <c r="C6" s="306"/>
+      <c r="D6" s="306"/>
+      <c r="E6" s="306"/>
+      <c r="F6" s="306"/>
+      <c r="G6" s="315"/>
+      <c r="H6" s="315"/>
+      <c r="I6" s="315"/>
+      <c r="J6" s="315"/>
+      <c r="K6" s="315"/>
+      <c r="L6" s="315"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="194"/>
+      <c r="P6" s="167"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="283"/>
-      <c r="B7" s="283"/>
-      <c r="C7" s="283"/>
-      <c r="D7" s="283"/>
-      <c r="E7" s="283"/>
-      <c r="F7" s="283"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="291"/>
-      <c r="J7" s="291"/>
-      <c r="K7" s="291"/>
-      <c r="L7" s="291"/>
-      <c r="M7" s="195"/>
-      <c r="N7" s="195"/>
-      <c r="O7" s="195"/>
-      <c r="P7" s="166"/>
+      <c r="A7" s="306"/>
+      <c r="B7" s="306"/>
+      <c r="C7" s="306"/>
+      <c r="D7" s="306"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="306"/>
+      <c r="G7" s="315"/>
+      <c r="H7" s="315"/>
+      <c r="I7" s="315"/>
+      <c r="J7" s="315"/>
+      <c r="K7" s="315"/>
+      <c r="L7" s="315"/>
+      <c r="M7" s="194"/>
+      <c r="N7" s="194"/>
+      <c r="O7" s="194"/>
+      <c r="P7" s="165"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="283"/>
-      <c r="B8" s="283"/>
-      <c r="C8" s="283"/>
-      <c r="D8" s="283"/>
-      <c r="E8" s="283"/>
-      <c r="F8" s="283"/>
-      <c r="G8" s="291"/>
-      <c r="H8" s="291"/>
-      <c r="I8" s="291"/>
-      <c r="J8" s="291"/>
-      <c r="K8" s="291"/>
-      <c r="L8" s="291"/>
-      <c r="M8" s="195"/>
-      <c r="N8" s="195"/>
-      <c r="O8" s="195"/>
-      <c r="P8" s="166"/>
+      <c r="A8" s="306"/>
+      <c r="B8" s="306"/>
+      <c r="C8" s="306"/>
+      <c r="D8" s="306"/>
+      <c r="E8" s="306"/>
+      <c r="F8" s="306"/>
+      <c r="G8" s="315"/>
+      <c r="H8" s="315"/>
+      <c r="I8" s="315"/>
+      <c r="J8" s="315"/>
+      <c r="K8" s="315"/>
+      <c r="L8" s="315"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
+      <c r="O8" s="194"/>
+      <c r="P8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="285" t="s">
+      <c r="A10" s="312" t="s">
         <v>331</v>
       </c>
-      <c r="B10" s="286"/>
-      <c r="C10" s="286"/>
-      <c r="D10" s="286"/>
-      <c r="E10" s="286"/>
-      <c r="F10" s="286"/>
-      <c r="G10" s="286"/>
-      <c r="H10" s="286"/>
-      <c r="I10" s="287"/>
+      <c r="B10" s="313"/>
+      <c r="C10" s="313"/>
+      <c r="D10" s="313"/>
+      <c r="E10" s="313"/>
+      <c r="F10" s="313"/>
+      <c r="G10" s="313"/>
+      <c r="H10" s="313"/>
+      <c r="I10" s="314"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="131" t="s">
         <v>257</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="132" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="189" t="s">
+      <c r="C11" s="188" t="s">
         <v>346</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="125" t="s">
         <v>246</v>
       </c>
-      <c r="E11" s="126" t="s">
+      <c r="E11" s="125" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="126" t="s">
+      <c r="F11" s="125" t="s">
         <v>246</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="132" t="s">
         <v>252</v>
       </c>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="132" t="s">
         <v>252</v>
       </c>
-      <c r="I11" s="145" t="s">
+      <c r="I11" s="144" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="149"/>
-      <c r="B12" s="148" t="s">
+      <c r="A12" s="148"/>
+      <c r="B12" s="147" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="96" t="s">
         <v>345</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="148" t="s">
+      <c r="F12" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="147" t="s">
         <v>228</v>
       </c>
-      <c r="H12" s="148" t="s">
+      <c r="H12" s="147" t="s">
         <v>229</v>
       </c>
-      <c r="I12" s="150" t="s">
+      <c r="I12" s="149" t="s">
         <v>230</v>
       </c>
-      <c r="K12" s="169"/>
+      <c r="K12" s="168"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="154">
+      <c r="A13" s="146"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="153">
         <v>100</v>
       </c>
-      <c r="E13" s="154">
+      <c r="E13" s="153">
         <v>0</v>
       </c>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154">
+      <c r="F13" s="153"/>
+      <c r="G13" s="153">
         <v>4</v>
       </c>
-      <c r="H13" s="154">
+      <c r="H13" s="153">
         <v>10</v>
       </c>
-      <c r="I13" s="155">
+      <c r="I13" s="154">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="273" t="s">
+      <c r="A15" s="293" t="s">
         <v>256</v>
       </c>
-      <c r="B15" s="274"/>
-      <c r="C15" s="274"/>
-      <c r="D15" s="274"/>
-      <c r="E15" s="274"/>
-      <c r="F15" s="274"/>
-      <c r="G15" s="274"/>
-      <c r="H15" s="275"/>
+      <c r="B15" s="294"/>
+      <c r="C15" s="294"/>
+      <c r="D15" s="294"/>
+      <c r="E15" s="294"/>
+      <c r="F15" s="294"/>
+      <c r="G15" s="294"/>
+      <c r="H15" s="295"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="267" t="s">
+      <c r="A16" s="296" t="s">
         <v>343</v>
       </c>
-      <c r="B16" s="268"/>
-      <c r="C16" s="268"/>
-      <c r="D16" s="268"/>
-      <c r="E16" s="268"/>
-      <c r="F16" s="268"/>
-      <c r="G16" s="268"/>
-      <c r="H16" s="269"/>
+      <c r="B16" s="297"/>
+      <c r="C16" s="297"/>
+      <c r="D16" s="297"/>
+      <c r="E16" s="297"/>
+      <c r="F16" s="297"/>
+      <c r="G16" s="297"/>
+      <c r="H16" s="298"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="267"/>
-      <c r="B17" s="268"/>
-      <c r="C17" s="268"/>
-      <c r="D17" s="268"/>
-      <c r="E17" s="268"/>
-      <c r="F17" s="268"/>
-      <c r="G17" s="268"/>
-      <c r="H17" s="269"/>
+      <c r="A17" s="296"/>
+      <c r="B17" s="297"/>
+      <c r="C17" s="297"/>
+      <c r="D17" s="297"/>
+      <c r="E17" s="297"/>
+      <c r="F17" s="297"/>
+      <c r="G17" s="297"/>
+      <c r="H17" s="298"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="267"/>
-      <c r="B18" s="268"/>
-      <c r="C18" s="268"/>
-      <c r="D18" s="268"/>
-      <c r="E18" s="268"/>
-      <c r="F18" s="268"/>
-      <c r="G18" s="268"/>
-      <c r="H18" s="269"/>
+      <c r="A18" s="296"/>
+      <c r="B18" s="297"/>
+      <c r="C18" s="297"/>
+      <c r="D18" s="297"/>
+      <c r="E18" s="297"/>
+      <c r="F18" s="297"/>
+      <c r="G18" s="297"/>
+      <c r="H18" s="298"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="270"/>
-      <c r="B19" s="271"/>
-      <c r="C19" s="271"/>
-      <c r="D19" s="271"/>
-      <c r="E19" s="271"/>
-      <c r="F19" s="271"/>
-      <c r="G19" s="271"/>
-      <c r="H19" s="272"/>
+      <c r="A19" s="299"/>
+      <c r="B19" s="300"/>
+      <c r="C19" s="300"/>
+      <c r="D19" s="300"/>
+      <c r="E19" s="300"/>
+      <c r="F19" s="300"/>
+      <c r="G19" s="300"/>
+      <c r="H19" s="301"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="257" t="s">
+      <c r="A21" s="305" t="s">
         <v>285</v>
       </c>
-      <c r="B21" s="257"/>
-      <c r="C21" s="257"/>
-      <c r="D21" s="257"/>
-      <c r="E21" s="257"/>
-      <c r="F21" s="257"/>
-      <c r="G21" s="257"/>
+      <c r="B21" s="305"/>
+      <c r="C21" s="305"/>
+      <c r="D21" s="305"/>
+      <c r="E21" s="305"/>
+      <c r="F21" s="305"/>
+      <c r="G21" s="305"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="256" t="s">
+      <c r="D22" s="265" t="s">
         <v>288</v>
       </c>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256"/>
+      <c r="E22" s="265"/>
+      <c r="F22" s="265"/>
+      <c r="G22" s="265"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9373,7 +9411,7 @@
       <c r="C23" t="s">
         <v>437</v>
       </c>
-      <c r="D23" s="175" t="s">
+      <c r="D23" s="174" t="s">
         <v>348</v>
       </c>
     </row>
@@ -9387,7 +9425,7 @@
       <c r="C24" t="s">
         <v>437</v>
       </c>
-      <c r="D24" s="188" t="s">
+      <c r="D24" s="187" t="s">
         <v>312</v>
       </c>
     </row>
@@ -9401,7 +9439,7 @@
       <c r="C25" t="s">
         <v>437</v>
       </c>
-      <c r="D25" s="175" t="s">
+      <c r="D25" s="174" t="s">
         <v>313</v>
       </c>
     </row>
@@ -9415,7 +9453,7 @@
       <c r="C26" t="s">
         <v>437</v>
       </c>
-      <c r="D26" s="175" t="s">
+      <c r="D26" s="174" t="s">
         <v>335</v>
       </c>
     </row>
@@ -9429,7 +9467,7 @@
       <c r="C27" t="s">
         <v>437</v>
       </c>
-      <c r="D27" s="178" t="s">
+      <c r="D27" s="177" t="s">
         <v>314</v>
       </c>
     </row>
@@ -9443,7 +9481,7 @@
       <c r="C28" t="s">
         <v>437</v>
       </c>
-      <c r="D28" s="188" t="s">
+      <c r="D28" s="187" t="s">
         <v>384</v>
       </c>
     </row>
@@ -9457,7 +9495,7 @@
       <c r="C29" t="s">
         <v>437</v>
       </c>
-      <c r="D29" s="188" t="s">
+      <c r="D29" s="187" t="s">
         <v>370</v>
       </c>
     </row>
@@ -9471,7 +9509,7 @@
       <c r="C30" t="s">
         <v>437</v>
       </c>
-      <c r="D30" s="188" t="s">
+      <c r="D30" s="187" t="s">
         <v>385</v>
       </c>
     </row>
@@ -9485,7 +9523,7 @@
       <c r="C31" t="s">
         <v>437</v>
       </c>
-      <c r="D31" s="188" t="s">
+      <c r="D31" s="187" t="s">
         <v>323</v>
       </c>
     </row>
@@ -9499,7 +9537,7 @@
       <c r="C32" t="s">
         <v>437</v>
       </c>
-      <c r="D32" s="188" t="s">
+      <c r="D32" s="187" t="s">
         <v>324</v>
       </c>
     </row>
@@ -9513,7 +9551,7 @@
       <c r="C33" t="s">
         <v>437</v>
       </c>
-      <c r="D33" s="175" t="s">
+      <c r="D33" s="174" t="s">
         <v>386</v>
       </c>
     </row>
@@ -9527,12 +9565,22 @@
       <c r="C34" t="s">
         <v>437</v>
       </c>
-      <c r="D34" s="188" t="s">
+      <c r="D34" s="187" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9549,16 +9597,6 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9622,39 +9660,39 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
-    <col min="2" max="2" width="68.75" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="184" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="68" customWidth="1"/>
+    <col min="2" max="2" width="68.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16" style="183" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="67" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
     <col min="7" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="316" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="293"/>
-      <c r="C1" s="293"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="66"/>
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -9669,7 +9707,7 @@
       <c r="D2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="136" t="s">
+      <c r="F2" s="135" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9680,9 +9718,9 @@
       <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="181"/>
+      <c r="C3" s="180"/>
       <c r="D3" s="23"/>
-      <c r="F3" s="137" t="s">
+      <c r="F3" s="136" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9693,7 +9731,7 @@
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="182"/>
+      <c r="C4" s="181"/>
       <c r="D4" s="24">
         <v>0</v>
       </c>
@@ -9708,7 +9746,7 @@
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="182"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="24">
         <v>7</v>
       </c>
@@ -9720,7 +9758,7 @@
       <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="182">
+      <c r="C6" s="181">
         <v>1</v>
       </c>
       <c r="D6" s="24">
@@ -9728,627 +9766,651 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>102</v>
+      <c r="A7" s="219" t="s">
+        <v>467</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="182"/>
-      <c r="D7" s="24"/>
+        <v>468</v>
+      </c>
+      <c r="C7" s="220"/>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="181"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="219" t="s">
+        <v>469</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C8" s="220"/>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="24">
-        <v>0</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="181"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="182"/>
-      <c r="D10" s="25" t="s">
-        <v>68</v>
-      </c>
+      <c r="A10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="180"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="182"/>
-      <c r="D11" s="25" t="s">
-        <v>69</v>
+        <v>29</v>
+      </c>
+      <c r="C11" s="181"/>
+      <c r="D11" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="182"/>
-      <c r="D12" s="24">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="C12" s="181"/>
+      <c r="D12" s="25" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="182"/>
-      <c r="D13" s="24" t="s">
-        <v>31</v>
+        <v>70</v>
+      </c>
+      <c r="C13" s="181"/>
+      <c r="D13" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>34</v>
+      <c r="A14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="181"/>
-      <c r="D14" s="23"/>
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="24"/>
+        <v>32</v>
+      </c>
+      <c r="C15" s="181"/>
+      <c r="D15" s="24" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="182"/>
-      <c r="D16" s="24"/>
+      <c r="A16" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="180"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="182"/>
+        <v>35</v>
+      </c>
+      <c r="C17" s="181"/>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="182"/>
+        <v>36</v>
+      </c>
+      <c r="C18" s="181"/>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="182"/>
-      <c r="D19" s="24">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C19" s="181"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="182"/>
+        <v>38</v>
+      </c>
+      <c r="C20" s="181"/>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="182"/>
-      <c r="D21" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="C21" s="181"/>
+      <c r="D21" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="182"/>
+        <v>40</v>
+      </c>
+      <c r="C22" s="181"/>
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>42</v>
+      <c r="A23" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="C23" s="181"/>
-      <c r="D23" s="23"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="182"/>
-      <c r="D24" s="24">
-        <v>100</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C24" s="181"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="182"/>
-      <c r="D25" s="24">
-        <v>65535</v>
-      </c>
+      <c r="A25" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="180"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="182"/>
+        <v>43</v>
+      </c>
+      <c r="C26" s="181"/>
       <c r="D26" s="24">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="182"/>
+        <v>44</v>
+      </c>
+      <c r="C27" s="181"/>
       <c r="D27" s="24">
-        <v>0.1</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="182"/>
-      <c r="D28" s="24"/>
+        <v>45</v>
+      </c>
+      <c r="C28" s="181"/>
+      <c r="D28" s="24">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="182"/>
-      <c r="D29" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="C29" s="181"/>
+      <c r="D29" s="24">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="182"/>
+        <v>47</v>
+      </c>
+      <c r="C30" s="181"/>
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>50</v>
+      <c r="A31" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C31" s="181"/>
-      <c r="D31" s="23"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="182"/>
+        <v>83</v>
+      </c>
+      <c r="C32" s="181"/>
       <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="182"/>
-      <c r="D33" s="24">
-        <v>0.02</v>
-      </c>
+      <c r="A33" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="180"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="182"/>
+        <v>51</v>
+      </c>
+      <c r="C34" s="181"/>
       <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="182"/>
-      <c r="D35" s="24"/>
-    </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="C35" s="181"/>
+      <c r="D35" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="182"/>
+        <v>53</v>
+      </c>
+      <c r="C36" s="181"/>
       <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="182"/>
-      <c r="D37" s="25" t="s">
-        <v>72</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C37" s="181"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="181"/>
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="181"/>
+      <c r="D39" s="25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B40" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="182"/>
-      <c r="D38" s="25">
+      <c r="C40" s="181"/>
+      <c r="D40" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B41" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="181"/>
-      <c r="D39" s="23"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="182"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="182"/>
+        <v>129</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="181"/>
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="182"/>
+        <v>85</v>
+      </c>
+      <c r="C43" s="181"/>
       <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" s="182"/>
+        <v>86</v>
+      </c>
+      <c r="C44" s="181"/>
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="182"/>
+        <v>87</v>
+      </c>
+      <c r="C45" s="181"/>
       <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="182"/>
+        <v>169</v>
+      </c>
+      <c r="C46" s="181"/>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="182"/>
+        <v>89</v>
+      </c>
+      <c r="C47" s="181"/>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" s="182"/>
+        <v>90</v>
+      </c>
+      <c r="C48" s="181"/>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="182"/>
+        <v>88</v>
+      </c>
+      <c r="C49" s="181"/>
       <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="182"/>
+        <v>91</v>
+      </c>
+      <c r="C50" s="181"/>
       <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="182"/>
-      <c r="D51" s="24">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C51" s="181"/>
+      <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="182"/>
-      <c r="D52" s="24">
-        <v>1</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C52" s="181"/>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="182"/>
+        <v>59</v>
+      </c>
+      <c r="C53" s="181"/>
       <c r="D53" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="182"/>
+        <v>60</v>
+      </c>
+      <c r="C54" s="181"/>
       <c r="D54" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="182"/>
+        <v>61</v>
+      </c>
+      <c r="C55" s="181"/>
       <c r="D55" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="182"/>
+        <v>62</v>
+      </c>
+      <c r="C56" s="181"/>
       <c r="D56" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="182"/>
-      <c r="D57" s="24"/>
+        <v>63</v>
+      </c>
+      <c r="C57" s="181"/>
+      <c r="D57" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="182"/>
-      <c r="D58" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="C58" s="181"/>
+      <c r="D58" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>148</v>
+      <c r="A59" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="C59" s="181"/>
-      <c r="D59" s="26"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C60" s="182"/>
-      <c r="D60" s="27">
-        <v>0</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="181"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="B61" s="179"/>
-      <c r="C61" s="181"/>
-      <c r="D61" s="180"/>
+        <v>147</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C61" s="180"/>
+      <c r="D61" s="179"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>329</v>
+        <v>149</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="C62" s="182"/>
-      <c r="D62" s="27">
+        <v>150</v>
+      </c>
+      <c r="C62" s="181"/>
+      <c r="D62" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="B63" s="178"/>
+      <c r="C63" s="180"/>
+      <c r="D63" s="179"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C64" s="181"/>
+      <c r="D64" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B65" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C63" s="181"/>
-      <c r="D63" s="26"/>
-    </row>
-    <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="28" t="s">
+      <c r="C65" s="180"/>
+      <c r="D65" s="179"/>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B66" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="183"/>
-      <c r="D64" s="30">
+      <c r="C66" s="182"/>
+      <c r="D66" s="29">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="f2zB4CaXZ1eO3MiUBsL42LhWsqnsHJG8yOOcR3Uc32wh/Kd5GPtyZ0JFamOimtjgoXnAV7YKwEW+nvqfdapecw==" saltValue="OmrrGRFpOtx4df7rc/rpvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="e8kOAtFlpesjtn2br0yWcMpJ0DR209aE1yKF50VLzsPmXh5YkSkNGPUjF34NepgBd0tNNjIcbP5PGt3vMdgCiw==" saltValue="lwyCEHXZ04Z8PX//kotMKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -10382,163 +10444,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="298" t="s">
+      <c r="A1" s="322" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="299"/>
-      <c r="C1" s="299"/>
-      <c r="D1" s="299"/>
-      <c r="E1" s="299"/>
-      <c r="F1" s="299"/>
-      <c r="G1" s="299"/>
-      <c r="H1" s="299"/>
-      <c r="I1" s="299"/>
-      <c r="J1" s="299"/>
-      <c r="K1" s="299"/>
-      <c r="L1" s="299"/>
-      <c r="M1" s="299"/>
-      <c r="N1" s="299"/>
-      <c r="O1" s="299"/>
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="323"/>
+      <c r="E1" s="323"/>
+      <c r="F1" s="323"/>
+      <c r="G1" s="323"/>
+      <c r="H1" s="323"/>
+      <c r="I1" s="323"/>
+      <c r="J1" s="323"/>
+      <c r="K1" s="323"/>
+      <c r="L1" s="323"/>
+      <c r="M1" s="323"/>
+      <c r="N1" s="323"/>
+      <c r="O1" s="323"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="295" t="s">
+      <c r="B3" s="319" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
-      <c r="J3" s="297"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
+      <c r="F3" s="320"/>
+      <c r="G3" s="320"/>
+      <c r="H3" s="320"/>
+      <c r="I3" s="320"/>
+      <c r="J3" s="321"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="41">
+      <c r="B5" s="40">
         <v>1</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="41">
+      <c r="B6" s="40">
         <v>2</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="41">
+      <c r="B7" s="40">
         <v>3</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="41">
+      <c r="B8" s="40">
         <v>4</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="N8" s="37"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="41">
+      <c r="B9" s="40">
         <v>5</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="41">
+      <c r="B10" s="40">
         <v>6</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="44">
+      <c r="B11" s="43">
         <v>7</v>
       </c>
       <c r="C11" s="3"/>
@@ -10548,10 +10610,10 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="45"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="44">
+      <c r="B12" s="43">
         <v>8</v>
       </c>
       <c r="C12" s="3"/>
@@ -10561,10 +10623,10 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="45"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="44">
+      <c r="B13" s="43">
         <v>9</v>
       </c>
       <c r="C13" s="3"/>
@@ -10574,10 +10636,10 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="45"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="44">
+      <c r="B14" s="43">
         <v>10</v>
       </c>
       <c r="C14" s="3"/>
@@ -10587,10 +10649,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="45"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="44">
+      <c r="B15" s="43">
         <v>11</v>
       </c>
       <c r="C15" s="3"/>
@@ -10600,10 +10662,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="45"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="46">
+      <c r="B16" s="45">
         <v>12</v>
       </c>
       <c r="C16" s="6"/>
@@ -10617,190 +10679,190 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="295" t="s">
+      <c r="B19" s="319" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="296"/>
-      <c r="D19" s="296"/>
-      <c r="E19" s="296"/>
-      <c r="F19" s="296"/>
-      <c r="G19" s="296"/>
-      <c r="H19" s="296"/>
-      <c r="I19" s="296"/>
-      <c r="J19" s="296"/>
-      <c r="K19" s="296"/>
-      <c r="L19" s="296"/>
-      <c r="M19" s="296"/>
-      <c r="N19" s="297"/>
+      <c r="C19" s="320"/>
+      <c r="D19" s="320"/>
+      <c r="E19" s="320"/>
+      <c r="F19" s="320"/>
+      <c r="G19" s="320"/>
+      <c r="H19" s="320"/>
+      <c r="I19" s="320"/>
+      <c r="J19" s="320"/>
+      <c r="K19" s="320"/>
+      <c r="L19" s="320"/>
+      <c r="M19" s="320"/>
+      <c r="N19" s="321"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B20" s="38"/>
-      <c r="C20" s="47">
+      <c r="B20" s="37"/>
+      <c r="C20" s="46">
         <v>1</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="46">
         <v>2</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="46">
         <v>3</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="46">
         <v>4</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="46">
         <v>5</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="46">
         <v>6</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="47">
         <v>7</v>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="47">
         <v>8</v>
       </c>
-      <c r="K20" s="48">
+      <c r="K20" s="47">
         <v>9</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L20" s="47">
         <v>10</v>
       </c>
-      <c r="M20" s="48">
+      <c r="M20" s="47">
         <v>11</v>
       </c>
-      <c r="N20" s="49">
+      <c r="N20" s="48">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="45"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="45"/>
+      <c r="N22" s="44"/>
     </row>
     <row r="23" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="45"/>
+      <c r="N23" s="44"/>
     </row>
     <row r="24" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="45"/>
+      <c r="N24" s="44"/>
     </row>
     <row r="25" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="45"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="45"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="49" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="45"/>
+      <c r="N27" s="44"/>
     </row>
     <row r="28" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -10833,122 +10895,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="327" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="304"/>
-      <c r="C1" s="304"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304"/>
-      <c r="N1" s="304"/>
-      <c r="O1" s="304"/>
-      <c r="P1" s="304"/>
-      <c r="Q1" s="304"/>
-      <c r="R1" s="304"/>
-      <c r="S1" s="304"/>
+      <c r="B1" s="328"/>
+      <c r="C1" s="328"/>
+      <c r="D1" s="328"/>
+      <c r="E1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
+      <c r="H1" s="328"/>
+      <c r="I1" s="328"/>
+      <c r="J1" s="328"/>
+      <c r="K1" s="328"/>
+      <c r="L1" s="328"/>
+      <c r="M1" s="328"/>
+      <c r="N1" s="328"/>
+      <c r="O1" s="328"/>
+      <c r="P1" s="328"/>
+      <c r="Q1" s="328"/>
+      <c r="R1" s="328"/>
+      <c r="S1" s="328"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="295" t="s">
+      <c r="B3" s="319" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
-      <c r="J3" s="297"/>
-      <c r="L3" s="300" t="s">
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
+      <c r="F3" s="320"/>
+      <c r="G3" s="320"/>
+      <c r="H3" s="320"/>
+      <c r="I3" s="320"/>
+      <c r="J3" s="321"/>
+      <c r="L3" s="324" t="s">
         <v>196</v>
       </c>
-      <c r="M3" s="301"/>
-      <c r="N3" s="301"/>
-      <c r="O3" s="301"/>
-      <c r="P3" s="301"/>
-      <c r="Q3" s="301"/>
-      <c r="R3" s="302"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
+      <c r="M3" s="325"/>
+      <c r="N3" s="325"/>
+      <c r="O3" s="325"/>
+      <c r="P3" s="325"/>
+      <c r="Q3" s="325"/>
+      <c r="R3" s="326"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
     </row>
     <row r="4" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="38"/>
-      <c r="C4" s="59">
+      <c r="B4" s="37"/>
+      <c r="C4" s="58">
         <v>1</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>2</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="46">
         <v>3</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="46">
         <v>4</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="46">
         <v>5</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="46">
         <v>6</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="59">
         <v>7</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="48">
         <v>8</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39" t="s">
+      <c r="L4" s="37"/>
+      <c r="M4" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="Q4" s="39" t="s">
+      <c r="Q4" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="39" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="45"/>
-      <c r="L5" s="41">
+      <c r="I5" s="61"/>
+      <c r="J5" s="44"/>
+      <c r="L5" s="40">
         <v>1</v>
       </c>
       <c r="M5" s="3"/>
@@ -10956,21 +11018,21 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="45"/>
+      <c r="R5" s="44"/>
     </row>
     <row r="6" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="45"/>
-      <c r="L6" s="41">
+      <c r="I6" s="61"/>
+      <c r="J6" s="44"/>
+      <c r="L6" s="40">
         <v>2</v>
       </c>
       <c r="M6" s="3"/>
@@ -10978,21 +11040,21 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="45"/>
+      <c r="R6" s="44"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="45"/>
-      <c r="L7" s="41">
+      <c r="I7" s="61"/>
+      <c r="J7" s="44"/>
+      <c r="L7" s="40">
         <v>3</v>
       </c>
       <c r="M7" s="3"/>
@@ -11000,21 +11062,21 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="45"/>
+      <c r="R7" s="44"/>
     </row>
     <row r="8" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="45"/>
-      <c r="L8" s="41">
+      <c r="I8" s="61"/>
+      <c r="J8" s="44"/>
+      <c r="L8" s="40">
         <v>4</v>
       </c>
       <c r="M8" s="3"/>
@@ -11022,21 +11084,21 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="45"/>
+      <c r="R8" s="44"/>
     </row>
     <row r="9" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="45"/>
-      <c r="L9" s="41">
+      <c r="I9" s="61"/>
+      <c r="J9" s="44"/>
+      <c r="L9" s="40">
         <v>5</v>
       </c>
       <c r="M9" s="3"/>
@@ -11044,21 +11106,21 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="45"/>
+      <c r="R9" s="44"/>
     </row>
     <row r="10" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="64"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="7"/>
-      <c r="L10" s="41">
+      <c r="L10" s="40">
         <v>6</v>
       </c>
       <c r="M10" s="3"/>
@@ -11066,10 +11128,10 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="45"/>
+      <c r="R10" s="44"/>
     </row>
     <row r="11" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="L11" s="44">
+      <c r="L11" s="43">
         <v>7</v>
       </c>
       <c r="M11" s="3"/>
@@ -11077,10 +11139,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="45"/>
+      <c r="R11" s="44"/>
     </row>
     <row r="12" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L12" s="46">
+      <c r="L12" s="45">
         <v>8</v>
       </c>
       <c r="M12" s="6"/>
@@ -11117,90 +11179,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="329" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
-      <c r="N1" s="306"/>
-      <c r="O1" s="307"/>
+      <c r="B1" s="330"/>
+      <c r="C1" s="330"/>
+      <c r="D1" s="330"/>
+      <c r="E1" s="330"/>
+      <c r="F1" s="330"/>
+      <c r="G1" s="330"/>
+      <c r="H1" s="330"/>
+      <c r="I1" s="330"/>
+      <c r="J1" s="330"/>
+      <c r="K1" s="330"/>
+      <c r="L1" s="330"/>
+      <c r="M1" s="330"/>
+      <c r="N1" s="330"/>
+      <c r="O1" s="331"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="295" t="s">
+      <c r="B3" s="319" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="297"/>
-      <c r="J3" s="300" t="s">
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
+      <c r="F3" s="320"/>
+      <c r="G3" s="320"/>
+      <c r="H3" s="321"/>
+      <c r="J3" s="324" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="301"/>
-      <c r="L3" s="301"/>
-      <c r="M3" s="301"/>
-      <c r="N3" s="302"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
+      <c r="K3" s="325"/>
+      <c r="L3" s="325"/>
+      <c r="M3" s="325"/>
+      <c r="N3" s="326"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="38"/>
-      <c r="C4" s="47">
+      <c r="B4" s="37"/>
+      <c r="C4" s="46">
         <v>1</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>2</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="46">
         <v>3</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="46">
         <v>4</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="46">
         <v>5</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="53">
         <v>6</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39" t="s">
+      <c r="J4" s="37"/>
+      <c r="K4" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="39" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="3"/>
@@ -11208,17 +11270,17 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="45"/>
-      <c r="J5" s="41">
+      <c r="H5" s="44"/>
+      <c r="J5" s="40">
         <v>1</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="45"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>198</v>
       </c>
       <c r="C6" s="3"/>
@@ -11226,17 +11288,17 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="45"/>
-      <c r="J6" s="41">
+      <c r="H6" s="44"/>
+      <c r="J6" s="40">
         <v>2</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="45"/>
+      <c r="N6" s="44"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>199</v>
       </c>
       <c r="C7" s="3"/>
@@ -11244,17 +11306,17 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="45"/>
-      <c r="J7" s="41">
+      <c r="H7" s="44"/>
+      <c r="J7" s="40">
         <v>3</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="45"/>
+      <c r="N7" s="44"/>
     </row>
     <row r="8" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="50" t="s">
         <v>200</v>
       </c>
       <c r="C8" s="6"/>
@@ -11263,27 +11325,27 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="J8" s="41">
+      <c r="J8" s="40">
         <v>4</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="45"/>
+      <c r="N8" s="44"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H9" s="55"/>
-      <c r="J9" s="41">
+      <c r="H9" s="54"/>
+      <c r="J9" s="40">
         <v>5</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="45"/>
+      <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H10" s="56"/>
-      <c r="J10" s="57">
+      <c r="H10" s="55"/>
+      <c r="J10" s="56">
         <v>6</v>
       </c>
       <c r="K10" s="6"/>
@@ -11292,19 +11354,19 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="H11" s="58"/>
+      <c r="H11" s="57"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="55"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="55"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="55"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H15" s="55"/>
+      <c r="H15" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/test_templates/test_batch_template4.xlsx
+++ b/test_templates/test_batch_template4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="486">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2007,18 +2007,6 @@
     <t>UnsafeCharacters</t>
   </si>
   <si>
-    <t>plusminus1</t>
-  </si>
-  <si>
-    <t>plusminus2</t>
-  </si>
-  <si>
-    <t>plusminus1/plots</t>
-  </si>
-  <si>
-    <t>plusminus2/plots</t>
-  </si>
-  <si>
     <t>transfercurve</t>
   </si>
   <si>
@@ -2373,21 +2361,71 @@
   <si>
     <t>if true, output statistics file for batch analysis</t>
   </si>
+  <si>
+    <t>PM1</t>
+  </si>
+  <si>
+    <t>PM2</t>
+  </si>
+  <si>
+    <t>PM3</t>
+  </si>
+  <si>
+    <t>PM4</t>
+  </si>
+  <si>
+    <t>PM5</t>
+  </si>
+  <si>
+    <t>PM6</t>
+  </si>
+  <si>
+    <t>PM7</t>
+  </si>
+  <si>
+    <t>PM8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B9_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B10_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_C3_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_C4_P3.fcs</t>
+  </si>
+  <si>
+    <t>plusminus/plots</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2707,7 +2745,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -3375,19 +3413,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -3400,25 +3425,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="336">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3434,7 +3459,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3445,28 +3470,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3487,62 +3512,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3553,20 +3578,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3575,32 +3600,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3618,19 +3643,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3639,46 +3664,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3696,83 +3721,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3787,37 +3812,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3826,63 +3851,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3905,81 +3930,75 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4000,17 +4019,101 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4031,151 +4134,73 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4205,31 +4230,31 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4250,36 +4275,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4289,59 +4284,101 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4400,13 +4437,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4532,13 +4569,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>25</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>26</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5300,86 +5337,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="233" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="246"/>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="235"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="223" t="s">
+      <c r="A3" s="249" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="224"/>
+      <c r="B3" s="250"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="237" t="s">
+      <c r="A4" s="247" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="238"/>
+      <c r="B4" s="248"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="239" t="s">
+      <c r="A5" s="263" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="240"/>
+      <c r="B5" s="264"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="223" t="s">
+      <c r="A7" s="249" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="225"/>
-      <c r="C7" s="225"/>
-      <c r="D7" s="225"/>
-      <c r="E7" s="225"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="225"/>
-      <c r="H7" s="225"/>
-      <c r="I7" s="225"/>
-      <c r="J7" s="225"/>
-      <c r="K7" s="224"/>
+      <c r="B7" s="251"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="251"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="251"/>
+      <c r="G7" s="251"/>
+      <c r="H7" s="251"/>
+      <c r="I7" s="251"/>
+      <c r="J7" s="251"/>
+      <c r="K7" s="250"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="247" t="s">
+      <c r="A8" s="236" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="248"/>
-      <c r="C8" s="248"/>
-      <c r="D8" s="248"/>
-      <c r="E8" s="248"/>
-      <c r="F8" s="248"/>
-      <c r="G8" s="248"/>
-      <c r="H8" s="248"/>
-      <c r="I8" s="248"/>
-      <c r="J8" s="248"/>
-      <c r="K8" s="249"/>
+      <c r="B8" s="237"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="237"/>
+      <c r="H8" s="237"/>
+      <c r="I8" s="237"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="238"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="250"/>
-      <c r="B9" s="251"/>
-      <c r="C9" s="251"/>
-      <c r="D9" s="251"/>
-      <c r="E9" s="251"/>
-      <c r="F9" s="251"/>
-      <c r="G9" s="251"/>
-      <c r="H9" s="251"/>
-      <c r="I9" s="251"/>
-      <c r="J9" s="251"/>
-      <c r="K9" s="252"/>
+      <c r="A9" s="239"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="240"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="240"/>
+      <c r="H9" s="240"/>
+      <c r="I9" s="240"/>
+      <c r="J9" s="240"/>
+      <c r="K9" s="241"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="156"/>
@@ -5390,62 +5427,62 @@
       <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="226" t="s">
+      <c r="A11" s="252" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="227"/>
-      <c r="C11" s="227"/>
-      <c r="D11" s="228"/>
+      <c r="B11" s="253"/>
+      <c r="C11" s="253"/>
+      <c r="D11" s="254"/>
       <c r="E11" s="87"/>
       <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="229" t="s">
+      <c r="A12" s="255" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="230"/>
-      <c r="C12" s="231" t="s">
+      <c r="B12" s="256"/>
+      <c r="C12" s="257" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="232"/>
+      <c r="D12" s="258"/>
       <c r="E12" s="87"/>
       <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="233"/>
-      <c r="B13" s="234"/>
-      <c r="C13" s="235"/>
-      <c r="D13" s="236"/>
+      <c r="A13" s="259"/>
+      <c r="B13" s="260"/>
+      <c r="C13" s="261"/>
+      <c r="D13" s="262"/>
       <c r="E13" s="87"/>
       <c r="F13" s="142"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="226" t="s">
+      <c r="A15" s="252" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="228"/>
-      <c r="E15" s="226" t="s">
+      <c r="B15" s="254"/>
+      <c r="E15" s="252" t="s">
         <v>293</v>
       </c>
-      <c r="F15" s="227"/>
-      <c r="G15" s="227"/>
-      <c r="H15" s="227"/>
-      <c r="I15" s="228"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="253"/>
+      <c r="H15" s="253"/>
+      <c r="I15" s="254"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="237" t="s">
+      <c r="A16" s="247" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="238"/>
+      <c r="B16" s="248"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="253" t="s">
+      <c r="E16" s="242" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="254"/>
-      <c r="G16" s="254"/>
-      <c r="H16" s="254"/>
-      <c r="I16" s="255"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="243"/>
+      <c r="H16" s="243"/>
+      <c r="I16" s="244"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="157" t="s">
@@ -5455,14 +5492,14 @@
         <v>254</v>
       </c>
       <c r="C17" s="89"/>
-      <c r="E17" s="256" t="s">
+      <c r="E17" s="245" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="257"/>
-      <c r="G17" s="206" t="s">
+      <c r="F17" s="246"/>
+      <c r="G17" s="205" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="206" t="s">
+      <c r="H17" s="205" t="s">
         <v>160</v>
       </c>
       <c r="I17" s="189" t="s">
@@ -5488,8 +5525,8 @@
       <c r="H18" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="241" t="s">
-        <v>458</v>
+      <c r="I18" s="221" t="s">
+        <v>454</v>
       </c>
       <c r="J18" s="81"/>
     </row>
@@ -5511,7 +5548,7 @@
       <c r="H19" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="I19" s="241"/>
+      <c r="I19" s="221"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5528,7 +5565,7 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="242"/>
+      <c r="I20" s="222"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5550,28 +5587,28 @@
       <c r="A23" s="161"/>
       <c r="B23" s="92"/>
       <c r="C23" s="91"/>
-      <c r="E23" s="221" t="s">
+      <c r="E23" s="223" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="243"/>
-      <c r="G23" s="243"/>
-      <c r="H23" s="243"/>
-      <c r="I23" s="222"/>
+      <c r="F23" s="224"/>
+      <c r="G23" s="224"/>
+      <c r="H23" s="224"/>
+      <c r="I23" s="225"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="221" t="s">
+      <c r="A24" s="223" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="222"/>
+      <c r="B24" s="225"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="261" t="s">
+      <c r="E24" s="229" t="s">
         <v>208</v>
       </c>
-      <c r="F24" s="262"/>
-      <c r="G24" s="206" t="s">
+      <c r="F24" s="230"/>
+      <c r="G24" s="205" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="206" t="s">
+      <c r="H24" s="205" t="s">
         <v>160</v>
       </c>
       <c r="I24" s="189" t="s">
@@ -5596,8 +5633,8 @@
       <c r="H25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="258" t="s">
-        <v>459</v>
+      <c r="I25" s="226" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -5620,7 +5657,7 @@
       <c r="H26" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="I26" s="259"/>
+      <c r="I26" s="227"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="159" t="s">
@@ -5636,7 +5673,7 @@
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="260"/>
+      <c r="I27" s="228"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="159" t="s">
@@ -5660,26 +5697,26 @@
       <c r="A30" s="160"/>
       <c r="B30" s="117"/>
       <c r="C30" s="89"/>
-      <c r="E30" s="221" t="s">
+      <c r="E30" s="223" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="243"/>
-      <c r="G30" s="243"/>
-      <c r="H30" s="243"/>
-      <c r="I30" s="222"/>
+      <c r="F30" s="224"/>
+      <c r="G30" s="224"/>
+      <c r="H30" s="224"/>
+      <c r="I30" s="225"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="161"/>
       <c r="B31" s="91"/>
       <c r="C31" s="91"/>
-      <c r="E31" s="263" t="s">
-        <v>444</v>
-      </c>
-      <c r="F31" s="264"/>
-      <c r="G31" s="204" t="s">
+      <c r="E31" s="231" t="s">
+        <v>440</v>
+      </c>
+      <c r="F31" s="232"/>
+      <c r="G31" s="203" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="204" t="s">
+      <c r="H31" s="203" t="s">
         <v>160</v>
       </c>
       <c r="I31" s="189" t="s">
@@ -5687,10 +5724,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="221" t="s">
+      <c r="A32" s="223" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="222"/>
+      <c r="B32" s="225"/>
       <c r="C32" s="32"/>
       <c r="E32" s="83">
         <v>1</v>
@@ -5700,7 +5737,7 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="241"/>
+      <c r="I32" s="221"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="157" t="s">
@@ -5720,7 +5757,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="241"/>
+      <c r="I33" s="221"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="158" t="s">
@@ -5735,7 +5772,7 @@
       <c r="F34" s="93"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="241"/>
+      <c r="I34" s="221"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="159" t="s">
@@ -5748,7 +5785,7 @@
       <c r="F35" s="93"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="241"/>
+      <c r="I35" s="221"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="159" t="s">
@@ -5761,7 +5798,7 @@
       <c r="F36" s="93"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="241"/>
+      <c r="I36" s="221"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="159" t="s">
@@ -5774,7 +5811,7 @@
       <c r="F37" s="140"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="242"/>
+      <c r="I37" s="222"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="160" t="s">
@@ -5787,17 +5824,17 @@
       <c r="B39" s="121"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="221" t="s">
+      <c r="E40" s="223" t="s">
         <v>187</v>
       </c>
-      <c r="F40" s="243"/>
-      <c r="G40" s="243"/>
-      <c r="H40" s="243"/>
-      <c r="I40" s="222"/>
+      <c r="F40" s="224"/>
+      <c r="G40" s="224"/>
+      <c r="H40" s="224"/>
+      <c r="I40" s="225"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="261"/>
-      <c r="F41" s="262"/>
+      <c r="E41" s="229"/>
+      <c r="F41" s="230"/>
       <c r="G41" s="82" t="s">
         <v>159</v>
       </c>
@@ -5815,7 +5852,7 @@
       <c r="F42" s="93"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="241"/>
+      <c r="I42" s="221"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="83">
@@ -5824,7 +5861,7 @@
       <c r="F43" s="93"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="241"/>
+      <c r="I43" s="221"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="83">
@@ -5833,7 +5870,7 @@
       <c r="F44" s="93"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="241"/>
+      <c r="I44" s="221"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="83">
@@ -5842,7 +5879,7 @@
       <c r="F45" s="93"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="241"/>
+      <c r="I45" s="221"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="83">
@@ -5851,7 +5888,7 @@
       <c r="F46" s="93"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="241"/>
+      <c r="I46" s="221"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="84">
@@ -5860,25 +5897,11 @@
       <c r="F47" s="140"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="242"/>
+      <c r="I47" s="222"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5894,6 +5917,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5905,10 +5942,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5932,7 +5969,7 @@
     <col min="17" max="17" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="269" t="s">
         <v>359</v>
       </c>
@@ -5946,7 +5983,7 @@
       <c r="I1" s="270"/>
       <c r="J1" s="271"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="272" t="s">
         <v>215</v>
       </c>
@@ -5965,7 +6002,7 @@
       <c r="N2" s="76"/>
       <c r="O2" s="76"/>
     </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="172" t="s">
         <v>225</v>
       </c>
@@ -5994,7 +6031,7 @@
       <c r="N3" s="76"/>
       <c r="O3" s="76"/>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A4" s="138" t="s">
         <v>3</v>
       </c>
@@ -6023,98 +6060,84 @@
         <v>8</v>
       </c>
       <c r="J4" s="193" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="108">
         <v>1</v>
       </c>
-      <c r="B5" s="207" t="s">
-        <v>460</v>
+      <c r="B5" s="206" t="s">
+        <v>456</v>
       </c>
       <c r="C5" s="109">
         <v>0.1</v>
       </c>
-      <c r="D5" s="109" t="s">
-        <v>264</v>
-      </c>
+      <c r="D5" s="109"/>
       <c r="E5" s="109" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="109" t="s">
-        <v>263</v>
-      </c>
-      <c r="G5" s="109">
-        <v>0.1</v>
-      </c>
+      <c r="F5" s="109"/>
+      <c r="G5" s="109"/>
       <c r="H5" s="110">
         <v>1</v>
       </c>
       <c r="I5" s="111" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J5" s="112"/>
-      <c r="K5" s="210" t="s">
-        <v>445</v>
-      </c>
-      <c r="L5" s="210" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="209" t="s">
+        <v>441</v>
+      </c>
+      <c r="L5" s="209" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="108">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="207" t="s">
-        <v>462</v>
+      <c r="B6" s="206" t="s">
+        <v>458</v>
       </c>
       <c r="C6" s="109">
         <v>0.2</v>
       </c>
-      <c r="D6" s="109" t="s">
-        <v>264</v>
-      </c>
+      <c r="D6" s="109"/>
       <c r="E6" s="109" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="109" t="s">
-        <v>263</v>
-      </c>
-      <c r="G6" s="109">
-        <v>0.2</v>
-      </c>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
       <c r="H6" s="110">
         <v>1</v>
       </c>
       <c r="I6" s="111" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J6" s="112"/>
-      <c r="K6" s="210" t="s">
-        <v>447</v>
-      </c>
-      <c r="L6" s="210" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="209" t="s">
+        <v>443</v>
+      </c>
+      <c r="L6" s="209" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="108">
-        <f t="shared" ref="A7:A13" si="0">A6+1</f>
+        <f t="shared" ref="A7:A22" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="207" t="s">
-        <v>464</v>
+      <c r="B7" s="206" t="s">
+        <v>460</v>
       </c>
       <c r="C7" s="109">
         <v>0.5</v>
       </c>
-      <c r="D7" s="109" t="s">
-        <v>264</v>
-      </c>
+      <c r="D7" s="109"/>
       <c r="E7" s="109" t="s">
         <v>199</v>
       </c>
@@ -6124,673 +6147,721 @@
         <v>1</v>
       </c>
       <c r="I7" s="111" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J7" s="112"/>
-      <c r="K7" s="210" t="s">
-        <v>449</v>
-      </c>
-      <c r="L7" s="210" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="209" t="s">
+        <v>445</v>
+      </c>
+      <c r="L7" s="209" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="108">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
+      <c r="B8" s="219" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="109">
+        <v>0.1</v>
+      </c>
       <c r="H8" s="110">
-        <v>2</v>
-      </c>
-      <c r="I8" s="111"/>
-      <c r="J8" s="112" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="205" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I8" s="111" t="s">
+        <v>475</v>
+      </c>
+      <c r="J8" s="112"/>
+      <c r="K8" s="209" t="s">
+        <v>481</v>
+      </c>
+      <c r="L8" s="209"/>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="108">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
+      <c r="B9" s="219" t="s">
+        <v>468</v>
+      </c>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109" t="s">
+        <v>264</v>
+      </c>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="G9" s="109">
+        <v>0.2</v>
+      </c>
       <c r="H9" s="110">
-        <v>2</v>
-      </c>
-      <c r="I9" s="111"/>
-      <c r="J9" s="112" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="205" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I9" s="111" t="s">
+        <v>476</v>
+      </c>
+      <c r="J9" s="112"/>
+      <c r="K9" s="209" t="s">
+        <v>482</v>
+      </c>
+      <c r="L9" s="209"/>
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="108">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
+      <c r="B10" s="219" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109" t="s">
+        <v>264</v>
+      </c>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109" t="s">
+        <v>263</v>
+      </c>
+      <c r="G10" s="109">
+        <v>0.1</v>
+      </c>
       <c r="H10" s="110">
-        <v>2</v>
-      </c>
-      <c r="I10" s="111"/>
-      <c r="J10" s="112" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="205" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I10" s="111" t="s">
+        <v>477</v>
+      </c>
+      <c r="J10" s="112"/>
+      <c r="K10" s="209" t="s">
+        <v>441</v>
+      </c>
+      <c r="L10" s="209"/>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="108">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="163"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
+      <c r="B11" s="219" t="s">
+        <v>470</v>
+      </c>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" s="109">
+        <v>0.2</v>
+      </c>
       <c r="H11" s="110">
-        <v>2</v>
-      </c>
-      <c r="I11" s="111"/>
-      <c r="J11" s="112" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="205" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I11" s="111" t="s">
+        <v>478</v>
+      </c>
+      <c r="J11" s="112"/>
+      <c r="K11" s="209" t="s">
+        <v>442</v>
+      </c>
+      <c r="L11" s="209"/>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="108">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="78" t="s">
-        <v>193</v>
+      <c r="B12" s="219" t="s">
+        <v>471</v>
       </c>
       <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
+      <c r="D12" s="109" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="G12" s="109">
+        <v>10</v>
+      </c>
       <c r="H12" s="110">
-        <v>2</v>
-      </c>
-      <c r="I12" s="111"/>
-      <c r="J12" s="112" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="205" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I12" s="111" t="s">
+        <v>479</v>
+      </c>
+      <c r="J12" s="112"/>
+      <c r="K12" s="209" t="s">
+        <v>483</v>
+      </c>
+      <c r="L12" s="209"/>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="108">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="219" t="s">
+        <v>472</v>
+      </c>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="109">
+        <v>20</v>
+      </c>
+      <c r="H13" s="110">
+        <v>1</v>
+      </c>
+      <c r="I13" s="111" t="s">
+        <v>480</v>
+      </c>
+      <c r="J13" s="112"/>
+      <c r="K13" s="209" t="s">
+        <v>484</v>
+      </c>
+      <c r="L13" s="209"/>
+    </row>
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="108">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="219" t="s">
+        <v>473</v>
+      </c>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109" t="s">
+        <v>263</v>
+      </c>
+      <c r="G14" s="109">
+        <v>10</v>
+      </c>
+      <c r="H14" s="110">
+        <v>1</v>
+      </c>
+      <c r="I14" s="111" t="s">
+        <v>475</v>
+      </c>
+      <c r="J14" s="112"/>
+      <c r="K14" s="209" t="s">
+        <v>481</v>
+      </c>
+      <c r="L14" s="209"/>
+    </row>
+    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="108">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="219" t="s">
+        <v>474</v>
+      </c>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109" t="s">
+        <v>265</v>
+      </c>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109" t="s">
+        <v>263</v>
+      </c>
+      <c r="G15" s="109">
+        <v>20</v>
+      </c>
+      <c r="H15" s="110">
+        <v>1</v>
+      </c>
+      <c r="I15" s="111" t="s">
+        <v>476</v>
+      </c>
+      <c r="J15" s="112"/>
+      <c r="K15" s="209" t="s">
+        <v>482</v>
+      </c>
+      <c r="L15" s="209"/>
+    </row>
+    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="108">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="77"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="110">
+        <v>2</v>
+      </c>
+      <c r="I16" s="111"/>
+      <c r="J16" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="204" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="108">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="110">
+        <v>2</v>
+      </c>
+      <c r="I17" s="111"/>
+      <c r="J17" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="204" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="108">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="110">
+        <v>2</v>
+      </c>
+      <c r="I18" s="111"/>
+      <c r="J18" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="204" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="108">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="77"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="110">
+        <v>2</v>
+      </c>
+      <c r="I19" s="111"/>
+      <c r="J19" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="204" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="108">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="110">
+        <v>2</v>
+      </c>
+      <c r="I20" s="111"/>
+      <c r="J20" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="204" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="108">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="110">
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="110">
         <v>2</v>
       </c>
-      <c r="I13" s="111"/>
-      <c r="J13" s="112" t="s">
+      <c r="I21" s="111"/>
+      <c r="J21" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="205" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="211">
-        <f>A13+1</f>
+      <c r="K21" s="204" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="108">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="210" t="s">
+        <v>284</v>
+      </c>
+      <c r="C22" s="211"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="212">
+        <v>2</v>
+      </c>
+      <c r="I22" s="213"/>
+      <c r="J22" s="214" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="204" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="204"/>
+    </row>
+    <row r="24" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="290" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" s="291"/>
+      <c r="C24" s="291"/>
+      <c r="D24" s="291"/>
+      <c r="E24" s="291"/>
+      <c r="F24" s="291"/>
+      <c r="G24" s="291"/>
+      <c r="H24" s="291"/>
+      <c r="I24" s="291"/>
+      <c r="J24" s="291"/>
+      <c r="K24" s="291"/>
+      <c r="L24" s="291"/>
+      <c r="M24" s="291"/>
+      <c r="N24" s="291"/>
+      <c r="O24" s="291"/>
+      <c r="P24" s="291"/>
+      <c r="Q24" s="292"/>
+    </row>
+    <row r="25" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="137" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" s="190" t="s">
+        <v>344</v>
+      </c>
+      <c r="C25" s="192" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" s="192" t="s">
+        <v>346</v>
+      </c>
+      <c r="E25" s="192" t="s">
+        <v>243</v>
+      </c>
+      <c r="F25" s="192" t="s">
+        <v>361</v>
+      </c>
+      <c r="G25" s="192" t="s">
+        <v>410</v>
+      </c>
+      <c r="H25" s="192" t="s">
+        <v>243</v>
+      </c>
+      <c r="I25" s="192" t="s">
+        <v>410</v>
+      </c>
+      <c r="J25" s="192" t="s">
+        <v>422</v>
+      </c>
+      <c r="K25" s="192" t="s">
+        <v>410</v>
+      </c>
+      <c r="L25" s="123" t="s">
+        <v>246</v>
+      </c>
+      <c r="M25" s="123" t="s">
+        <v>246</v>
+      </c>
+      <c r="N25" s="123" t="s">
+        <v>246</v>
+      </c>
+      <c r="O25" s="192" t="s">
+        <v>252</v>
+      </c>
+      <c r="P25" s="192" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q25" s="191" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="145"/>
+      <c r="B26" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="96" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="96" t="s">
+        <v>345</v>
+      </c>
+      <c r="E26" s="96" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="96" t="s">
+        <v>347</v>
+      </c>
+      <c r="H26" s="96" t="s">
+        <v>411</v>
+      </c>
+      <c r="I26" s="96" t="s">
+        <v>414</v>
+      </c>
+      <c r="J26" s="96" t="s">
+        <v>416</v>
+      </c>
+      <c r="K26" s="96" t="s">
+        <v>417</v>
+      </c>
+      <c r="L26" s="96" t="s">
+        <v>94</v>
+      </c>
+      <c r="M26" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="N26" s="96" t="s">
+        <v>96</v>
+      </c>
+      <c r="O26" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="P26" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q26" s="118" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="215"/>
+      <c r="B27" s="216" t="s">
+        <v>413</v>
+      </c>
+      <c r="C27" s="216"/>
+      <c r="D27" s="216"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153" t="s">
+        <v>412</v>
+      </c>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153" t="s">
+        <v>415</v>
+      </c>
+      <c r="J27" s="153"/>
+      <c r="K27" s="153" t="s">
+        <v>462</v>
+      </c>
+      <c r="L27" s="153">
+        <v>100</v>
+      </c>
+      <c r="M27" s="153">
+        <v>0</v>
+      </c>
+      <c r="N27" s="153"/>
+      <c r="O27" s="153">
+        <v>4</v>
+      </c>
+      <c r="P27" s="153">
         <v>10</v>
       </c>
-      <c r="B14" s="212" t="s">
-        <v>284</v>
-      </c>
-      <c r="C14" s="213"/>
-      <c r="D14" s="213"/>
-      <c r="E14" s="213"/>
-      <c r="F14" s="213"/>
-      <c r="G14" s="213"/>
-      <c r="H14" s="214">
-        <v>2</v>
-      </c>
-      <c r="I14" s="215"/>
-      <c r="J14" s="216" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="205" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K15" s="205"/>
-    </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="290" t="s">
-        <v>216</v>
-      </c>
-      <c r="B16" s="291"/>
-      <c r="C16" s="291"/>
-      <c r="D16" s="291"/>
-      <c r="E16" s="291"/>
-      <c r="F16" s="291"/>
-      <c r="G16" s="291"/>
-      <c r="H16" s="291"/>
-      <c r="I16" s="291"/>
-      <c r="J16" s="291"/>
-      <c r="K16" s="291"/>
-      <c r="L16" s="291"/>
-      <c r="M16" s="291"/>
-      <c r="N16" s="291"/>
-      <c r="O16" s="291"/>
-      <c r="P16" s="291"/>
-      <c r="Q16" s="292"/>
-    </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="B17" s="190" t="s">
-        <v>344</v>
-      </c>
-      <c r="C17" s="192" t="s">
-        <v>310</v>
-      </c>
-      <c r="D17" s="192" t="s">
-        <v>346</v>
-      </c>
-      <c r="E17" s="192" t="s">
-        <v>243</v>
-      </c>
-      <c r="F17" s="192" t="s">
-        <v>361</v>
-      </c>
-      <c r="G17" s="192" t="s">
-        <v>414</v>
-      </c>
-      <c r="H17" s="192" t="s">
-        <v>243</v>
-      </c>
-      <c r="I17" s="192" t="s">
-        <v>414</v>
-      </c>
-      <c r="J17" s="192" t="s">
-        <v>426</v>
-      </c>
-      <c r="K17" s="192" t="s">
-        <v>414</v>
-      </c>
-      <c r="L17" s="123" t="s">
+      <c r="Q27" s="154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="287" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" s="288"/>
+      <c r="C29" s="288"/>
+      <c r="D29" s="288"/>
+      <c r="E29" s="288"/>
+      <c r="F29" s="288"/>
+      <c r="G29" s="288"/>
+      <c r="H29" s="289"/>
+    </row>
+    <row r="30" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="278" t="s">
+        <v>341</v>
+      </c>
+      <c r="B30" s="279"/>
+      <c r="C30" s="279"/>
+      <c r="D30" s="279"/>
+      <c r="E30" s="279"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
+      <c r="H30" s="280"/>
+    </row>
+    <row r="31" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="281"/>
+      <c r="B31" s="282"/>
+      <c r="C31" s="282"/>
+      <c r="D31" s="282"/>
+      <c r="E31" s="282"/>
+      <c r="F31" s="282"/>
+      <c r="G31" s="282"/>
+      <c r="H31" s="283"/>
+    </row>
+    <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="281"/>
+      <c r="B32" s="282"/>
+      <c r="C32" s="282"/>
+      <c r="D32" s="282"/>
+      <c r="E32" s="282"/>
+      <c r="F32" s="282"/>
+      <c r="G32" s="282"/>
+      <c r="H32" s="283"/>
+    </row>
+    <row r="33" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="284"/>
+      <c r="B33" s="285"/>
+      <c r="C33" s="285"/>
+      <c r="D33" s="285"/>
+      <c r="E33" s="285"/>
+      <c r="F33" s="285"/>
+      <c r="G33" s="285"/>
+      <c r="H33" s="286"/>
+    </row>
+    <row r="34" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:17" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="266" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" s="267"/>
+      <c r="C35" s="267"/>
+      <c r="D35" s="267"/>
+      <c r="E35" s="267"/>
+      <c r="F35" s="267"/>
+      <c r="G35" s="268"/>
+      <c r="K35" s="207"/>
+      <c r="L35" s="207"/>
+      <c r="M35" s="207"/>
+      <c r="N35" s="207"/>
+      <c r="O35" s="207"/>
+      <c r="P35" s="207"/>
+      <c r="Q35" s="208"/>
+    </row>
+    <row r="36" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="78" t="s">
+        <v>292</v>
+      </c>
+      <c r="B36" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="C36" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="D36" s="265" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36" s="265"/>
+      <c r="F36" s="265"/>
+      <c r="G36" s="265"/>
+      <c r="K36" s="192" t="s">
+        <v>410</v>
+      </c>
+      <c r="L36" s="123" t="s">
         <v>246</v>
       </c>
-      <c r="M17" s="123" t="s">
+      <c r="M36" s="123" t="s">
         <v>246</v>
       </c>
-      <c r="N17" s="123" t="s">
+      <c r="N36" s="123" t="s">
         <v>246</v>
       </c>
-      <c r="O17" s="192" t="s">
+      <c r="O36" s="188" t="s">
         <v>252</v>
       </c>
-      <c r="P17" s="192" t="s">
+      <c r="P36" s="188" t="s">
         <v>252</v>
       </c>
-      <c r="Q17" s="191" t="s">
+      <c r="Q36" s="191" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="145"/>
-      <c r="B18" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="96" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="96" t="s">
-        <v>345</v>
-      </c>
-      <c r="E18" s="96" t="s">
-        <v>227</v>
-      </c>
-      <c r="F18" s="96" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" s="96" t="s">
-        <v>347</v>
-      </c>
-      <c r="H18" s="96" t="s">
-        <v>415</v>
-      </c>
-      <c r="I18" s="96" t="s">
-        <v>418</v>
-      </c>
-      <c r="J18" s="96" t="s">
+    <row r="37" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>289</v>
+      </c>
+      <c r="B37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" t="s">
         <v>420</v>
       </c>
-      <c r="K18" s="96" t="s">
-        <v>421</v>
-      </c>
-      <c r="L18" s="96" t="s">
-        <v>94</v>
-      </c>
-      <c r="M18" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="N18" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="O18" s="96" t="s">
-        <v>228</v>
-      </c>
-      <c r="P18" s="96" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q18" s="118" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="217"/>
-      <c r="B19" s="218" t="s">
-        <v>417</v>
-      </c>
-      <c r="C19" s="218"/>
-      <c r="D19" s="218"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153" t="s">
-        <v>416</v>
-      </c>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153" t="s">
-        <v>419</v>
-      </c>
-      <c r="J19" s="153"/>
-      <c r="K19" s="153" t="s">
-        <v>466</v>
-      </c>
-      <c r="L19" s="153">
-        <v>100</v>
-      </c>
-      <c r="M19" s="153">
-        <v>0</v>
-      </c>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153">
-        <v>4</v>
-      </c>
-      <c r="P19" s="153">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="154">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="287" t="s">
-        <v>256</v>
-      </c>
-      <c r="B21" s="288"/>
-      <c r="C21" s="288"/>
-      <c r="D21" s="288"/>
-      <c r="E21" s="288"/>
-      <c r="F21" s="288"/>
-      <c r="G21" s="288"/>
-      <c r="H21" s="289"/>
-    </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="278" t="s">
-        <v>341</v>
-      </c>
-      <c r="B22" s="279"/>
-      <c r="C22" s="279"/>
-      <c r="D22" s="279"/>
-      <c r="E22" s="279"/>
-      <c r="F22" s="279"/>
-      <c r="G22" s="279"/>
-      <c r="H22" s="280"/>
-    </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="281"/>
-      <c r="B23" s="282"/>
-      <c r="C23" s="282"/>
-      <c r="D23" s="282"/>
-      <c r="E23" s="282"/>
-      <c r="F23" s="282"/>
-      <c r="G23" s="282"/>
-      <c r="H23" s="283"/>
-    </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="281"/>
-      <c r="B24" s="282"/>
-      <c r="C24" s="282"/>
-      <c r="D24" s="282"/>
-      <c r="E24" s="282"/>
-      <c r="F24" s="282"/>
-      <c r="G24" s="282"/>
-      <c r="H24" s="283"/>
-    </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="284"/>
-      <c r="B25" s="285"/>
-      <c r="C25" s="285"/>
-      <c r="D25" s="285"/>
-      <c r="E25" s="285"/>
-      <c r="F25" s="285"/>
-      <c r="G25" s="285"/>
-      <c r="H25" s="286"/>
-    </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:17" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="266" t="s">
-        <v>285</v>
-      </c>
-      <c r="B27" s="267"/>
-      <c r="C27" s="267"/>
-      <c r="D27" s="267"/>
-      <c r="E27" s="267"/>
-      <c r="F27" s="267"/>
-      <c r="G27" s="268"/>
-      <c r="K27" s="208"/>
-      <c r="L27" s="208"/>
-      <c r="M27" s="208"/>
-      <c r="N27" s="208"/>
-      <c r="O27" s="208"/>
-      <c r="P27" s="208"/>
-      <c r="Q27" s="209"/>
-    </row>
-    <row r="28" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="B28" s="78" t="s">
-        <v>286</v>
-      </c>
-      <c r="C28" s="78" t="s">
-        <v>287</v>
-      </c>
-      <c r="D28" s="265" t="s">
-        <v>288</v>
-      </c>
-      <c r="E28" s="265"/>
-      <c r="F28" s="265"/>
-      <c r="G28" s="265"/>
-      <c r="K28" s="192" t="s">
-        <v>414</v>
-      </c>
-      <c r="L28" s="123" t="s">
-        <v>246</v>
-      </c>
-      <c r="M28" s="123" t="s">
-        <v>246</v>
-      </c>
-      <c r="N28" s="123" t="s">
-        <v>246</v>
-      </c>
-      <c r="O28" s="188" t="s">
-        <v>252</v>
-      </c>
-      <c r="P28" s="188" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q28" s="191" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>289</v>
-      </c>
-      <c r="B29" t="s">
-        <v>290</v>
-      </c>
-      <c r="C29" t="s">
-        <v>424</v>
-      </c>
-      <c r="D29" s="174" t="s">
+      <c r="D37" s="174" t="s">
         <v>348</v>
-      </c>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29" s="96" t="s">
-        <v>421</v>
-      </c>
-      <c r="L29" s="96" t="s">
-        <v>94</v>
-      </c>
-      <c r="M29" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="N29" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="O29" s="96" t="s">
-        <v>228</v>
-      </c>
-      <c r="P29" s="96" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q29" s="118" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>311</v>
-      </c>
-      <c r="B30" t="s">
-        <v>315</v>
-      </c>
-      <c r="C30" t="s">
-        <v>424</v>
-      </c>
-      <c r="D30" s="187" t="s">
-        <v>312</v>
-      </c>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30" s="153" t="s">
-        <v>422</v>
-      </c>
-      <c r="L30" s="153">
-        <v>100</v>
-      </c>
-      <c r="M30" s="153">
-        <v>0</v>
-      </c>
-      <c r="N30" s="153"/>
-      <c r="O30" s="153">
-        <v>4</v>
-      </c>
-      <c r="P30" s="153">
-        <v>10</v>
-      </c>
-      <c r="Q30" s="154">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>311</v>
-      </c>
-      <c r="B31" t="s">
-        <v>316</v>
-      </c>
-      <c r="C31" t="s">
-        <v>424</v>
-      </c>
-      <c r="D31" s="174" t="s">
-        <v>313</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-    </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>311</v>
-      </c>
-      <c r="B32" t="s">
-        <v>317</v>
-      </c>
-      <c r="C32" t="s">
-        <v>424</v>
-      </c>
-      <c r="D32" s="174" t="s">
-        <v>335</v>
-      </c>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-    </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>311</v>
-      </c>
-      <c r="B33" t="s">
-        <v>318</v>
-      </c>
-      <c r="C33" t="s">
-        <v>424</v>
-      </c>
-      <c r="D33" s="177" t="s">
-        <v>314</v>
-      </c>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
-    </row>
-    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>388</v>
-      </c>
-      <c r="B34" t="s">
-        <v>291</v>
-      </c>
-      <c r="C34" t="s">
-        <v>424</v>
-      </c>
-      <c r="D34" s="187" t="s">
-        <v>389</v>
-      </c>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-    </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>388</v>
-      </c>
-      <c r="B35" t="s">
-        <v>291</v>
-      </c>
-      <c r="C35" t="s">
-        <v>424</v>
-      </c>
-      <c r="D35" s="187" t="s">
-        <v>370</v>
-      </c>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-    </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>388</v>
-      </c>
-      <c r="B36" t="s">
-        <v>291</v>
-      </c>
-      <c r="C36" t="s">
-        <v>424</v>
-      </c>
-      <c r="D36" s="187" t="s">
-        <v>390</v>
-      </c>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36"/>
-    </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>388</v>
-      </c>
-      <c r="B37" t="s">
-        <v>291</v>
-      </c>
-      <c r="C37" t="s">
-        <v>424</v>
-      </c>
-      <c r="D37" s="187" t="s">
-        <v>392</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
@@ -6798,19 +6869,40 @@
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
-    </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="96" t="s">
+        <v>417</v>
+      </c>
+      <c r="L37" s="96" t="s">
+        <v>94</v>
+      </c>
+      <c r="M37" s="96" t="s">
+        <v>95</v>
+      </c>
+      <c r="N37" s="96" t="s">
+        <v>96</v>
+      </c>
+      <c r="O37" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="P37" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q37" s="118" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>388</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="C38" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D38" s="187" t="s">
-        <v>391</v>
+        <v>312</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
@@ -6818,19 +6910,38 @@
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
-    </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K38" s="153" t="s">
+        <v>418</v>
+      </c>
+      <c r="L38" s="153">
+        <v>100</v>
+      </c>
+      <c r="M38" s="153">
+        <v>0</v>
+      </c>
+      <c r="N38" s="153"/>
+      <c r="O38" s="153">
+        <v>4</v>
+      </c>
+      <c r="P38" s="153">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>388</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C39" t="s">
-        <v>424</v>
-      </c>
-      <c r="D39" s="187" t="s">
-        <v>393</v>
+        <v>420</v>
+      </c>
+      <c r="D39" s="174" t="s">
+        <v>313</v>
       </c>
       <c r="E39"/>
       <c r="F39"/>
@@ -6839,214 +6950,262 @@
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>311</v>
+      </c>
+      <c r="B40" t="s">
+        <v>317</v>
+      </c>
+      <c r="C40" t="s">
+        <v>420</v>
+      </c>
+      <c r="D40" s="174" t="s">
+        <v>335</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+    </row>
+    <row r="41" spans="1:17" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>311</v>
+      </c>
+      <c r="B41" t="s">
+        <v>318</v>
+      </c>
+      <c r="C41" t="s">
+        <v>420</v>
+      </c>
+      <c r="D41" s="177" t="s">
+        <v>314</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+    </row>
+    <row r="42" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>384</v>
+      </c>
+      <c r="B42" t="s">
+        <v>291</v>
+      </c>
+      <c r="C42" t="s">
+        <v>420</v>
+      </c>
+      <c r="D42" s="187" t="s">
+        <v>385</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+    </row>
+    <row r="43" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>384</v>
+      </c>
+      <c r="B43" t="s">
+        <v>291</v>
+      </c>
+      <c r="C43" t="s">
+        <v>420</v>
+      </c>
+      <c r="D43" s="187" t="s">
+        <v>366</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+    </row>
+    <row r="44" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>384</v>
+      </c>
+      <c r="B44" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" t="s">
+        <v>420</v>
+      </c>
+      <c r="D44" s="187" t="s">
+        <v>386</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+    </row>
+    <row r="45" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>384</v>
+      </c>
+      <c r="B45" t="s">
+        <v>291</v>
+      </c>
+      <c r="C45" t="s">
+        <v>420</v>
+      </c>
+      <c r="D45" s="187" t="s">
+        <v>388</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+    </row>
+    <row r="46" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>384</v>
+      </c>
+      <c r="B46" t="s">
+        <v>291</v>
+      </c>
+      <c r="C46" t="s">
+        <v>420</v>
+      </c>
+      <c r="D46" s="187" t="s">
+        <v>387</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+    </row>
+    <row r="47" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>384</v>
+      </c>
+      <c r="B47" t="s">
+        <v>319</v>
+      </c>
+      <c r="C47" t="s">
+        <v>420</v>
+      </c>
+      <c r="D47" s="187" t="s">
+        <v>389</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>390</v>
+      </c>
+      <c r="B48" t="s">
+        <v>391</v>
+      </c>
+      <c r="C48" t="s">
+        <v>420</v>
+      </c>
+      <c r="D48" s="187" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>419</v>
+      </c>
+      <c r="B49" t="s">
+        <v>357</v>
+      </c>
+      <c r="C49" t="s">
+        <v>420</v>
+      </c>
+      <c r="D49" s="174" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>393</v>
+      </c>
+      <c r="B50" t="s">
         <v>394</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C50" t="s">
+        <v>420</v>
+      </c>
+      <c r="D50" s="187" t="s">
         <v>395</v>
-      </c>
-      <c r="C40" t="s">
-        <v>424</v>
-      </c>
-      <c r="D40" s="187" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>423</v>
-      </c>
-      <c r="B41" t="s">
-        <v>357</v>
-      </c>
-      <c r="C41" t="s">
-        <v>424</v>
-      </c>
-      <c r="D41" s="174" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>397</v>
-      </c>
-      <c r="B42" t="s">
-        <v>398</v>
-      </c>
-      <c r="C42" t="s">
-        <v>424</v>
-      </c>
-      <c r="D42" s="187" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>397</v>
-      </c>
-      <c r="B43" t="s">
-        <v>398</v>
-      </c>
-      <c r="C43" t="s">
-        <v>424</v>
-      </c>
-      <c r="D43" s="187" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>397</v>
-      </c>
-      <c r="B44" t="s">
-        <v>398</v>
-      </c>
-      <c r="C44" t="s">
-        <v>424</v>
-      </c>
-      <c r="D44" s="187" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>397</v>
-      </c>
-      <c r="B45" t="s">
-        <v>398</v>
-      </c>
-      <c r="C45" t="s">
-        <v>424</v>
-      </c>
-      <c r="D45" s="187" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>397</v>
-      </c>
-      <c r="B46" t="s">
-        <v>398</v>
-      </c>
-      <c r="C46" t="s">
-        <v>424</v>
-      </c>
-      <c r="D46" s="187" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>362</v>
-      </c>
-      <c r="B47" t="s">
-        <v>363</v>
-      </c>
-      <c r="C47" t="s">
-        <v>424</v>
-      </c>
-      <c r="D47" s="174" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>362</v>
-      </c>
-      <c r="B48" t="s">
-        <v>363</v>
-      </c>
-      <c r="C48" t="s">
-        <v>424</v>
-      </c>
-      <c r="D48" s="174" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>362</v>
-      </c>
-      <c r="B49" t="s">
-        <v>363</v>
-      </c>
-      <c r="C49" t="s">
-        <v>424</v>
-      </c>
-      <c r="D49" s="174" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>362</v>
-      </c>
-      <c r="B50" t="s">
-        <v>363</v>
-      </c>
-      <c r="C50" t="s">
-        <v>424</v>
-      </c>
-      <c r="D50" s="174" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="B51" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="C51" t="s">
-        <v>424</v>
-      </c>
-      <c r="D51" s="174" t="s">
-        <v>404</v>
+        <v>420</v>
+      </c>
+      <c r="D51" s="187" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="B52" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="C52" t="s">
-        <v>424</v>
-      </c>
-      <c r="D52" s="174" t="s">
-        <v>405</v>
+        <v>420</v>
+      </c>
+      <c r="D52" s="187" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="B53" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="C53" t="s">
-        <v>424</v>
-      </c>
-      <c r="D53" s="174" t="s">
-        <v>406</v>
+        <v>420</v>
+      </c>
+      <c r="D53" s="187" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="B54" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="C54" t="s">
-        <v>424</v>
-      </c>
-      <c r="D54" s="174" t="s">
-        <v>407</v>
+        <v>420</v>
+      </c>
+      <c r="D54" s="187" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -7057,10 +7216,10 @@
         <v>363</v>
       </c>
       <c r="C55" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D55" s="174" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -7071,10 +7230,10 @@
         <v>363</v>
       </c>
       <c r="C56" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D56" s="174" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -7085,10 +7244,10 @@
         <v>363</v>
       </c>
       <c r="C57" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D57" s="174" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -7099,10 +7258,10 @@
         <v>363</v>
       </c>
       <c r="C58" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D58" s="174" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -7113,10 +7272,10 @@
         <v>363</v>
       </c>
       <c r="C59" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D59" s="174" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -7127,22 +7286,134 @@
         <v>363</v>
       </c>
       <c r="C60" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D60" s="174" t="s">
-        <v>413</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>362</v>
+      </c>
+      <c r="B61" t="s">
+        <v>363</v>
+      </c>
+      <c r="C61" t="s">
+        <v>420</v>
+      </c>
+      <c r="D61" s="174" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>362</v>
+      </c>
+      <c r="B62" t="s">
+        <v>363</v>
+      </c>
+      <c r="C62" t="s">
+        <v>420</v>
+      </c>
+      <c r="D62" s="174" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>362</v>
+      </c>
+      <c r="B63" t="s">
+        <v>363</v>
+      </c>
+      <c r="C63" t="s">
+        <v>420</v>
+      </c>
+      <c r="D63" s="174" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>362</v>
+      </c>
+      <c r="B64" t="s">
+        <v>363</v>
+      </c>
+      <c r="C64" t="s">
+        <v>420</v>
+      </c>
+      <c r="D64" s="174" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>362</v>
+      </c>
+      <c r="B65" t="s">
+        <v>363</v>
+      </c>
+      <c r="C65" t="s">
+        <v>420</v>
+      </c>
+      <c r="D65" s="174" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>362</v>
+      </c>
+      <c r="B66" t="s">
+        <v>363</v>
+      </c>
+      <c r="C66" t="s">
+        <v>420</v>
+      </c>
+      <c r="D66" s="174" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>362</v>
+      </c>
+      <c r="B67" t="s">
+        <v>363</v>
+      </c>
+      <c r="C67" t="s">
+        <v>420</v>
+      </c>
+      <c r="D67" s="174" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>362</v>
+      </c>
+      <c r="B68" t="s">
+        <v>363</v>
+      </c>
+      <c r="C68" t="s">
+        <v>420</v>
+      </c>
+      <c r="D68" s="174" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="A35:G35"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A22:H25"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A16:Q16"/>
+    <mergeCell ref="A30:H33"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A24:Q24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7159,13 +7430,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7203,13 +7474,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>25</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>26</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
@@ -7230,8 +7501,8 @@
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7346,7 +7617,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="203" t="s">
+      <c r="G5" s="202" t="s">
         <v>283</v>
       </c>
       <c r="H5" s="169"/>
@@ -7769,13 +8040,13 @@
     </row>
     <row r="28" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="146"/>
-      <c r="B28" s="202" t="s">
-        <v>438</v>
+      <c r="B28" s="201" t="s">
+        <v>434</v>
       </c>
       <c r="C28" s="184"/>
       <c r="D28" s="122"/>
       <c r="E28" s="153" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -7875,7 +8146,7 @@
         <v>290</v>
       </c>
       <c r="C38" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D38" s="174" t="s">
         <v>348</v>
@@ -7889,7 +8160,7 @@
         <v>315</v>
       </c>
       <c r="C39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D39" s="187" t="s">
         <v>312</v>
@@ -7903,7 +8174,7 @@
         <v>316</v>
       </c>
       <c r="C40" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D40" s="174" t="s">
         <v>313</v>
@@ -7917,7 +8188,7 @@
         <v>317</v>
       </c>
       <c r="C41" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D41" s="174" t="s">
         <v>335</v>
@@ -7931,7 +8202,7 @@
         <v>318</v>
       </c>
       <c r="C42" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D42" s="177" t="s">
         <v>314</v>
@@ -7945,7 +8216,7 @@
         <v>291</v>
       </c>
       <c r="C43" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D43" s="187" t="s">
         <v>350</v>
@@ -7959,7 +8230,7 @@
         <v>352</v>
       </c>
       <c r="C44" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D44" s="187" t="s">
         <v>353</v>
@@ -7973,10 +8244,10 @@
         <v>352</v>
       </c>
       <c r="C45" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D45" s="187" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -7987,7 +8258,7 @@
         <v>352</v>
       </c>
       <c r="C46" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D46" s="187" t="s">
         <v>354</v>
@@ -8001,7 +8272,7 @@
         <v>352</v>
       </c>
       <c r="C47" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D47" s="187" t="s">
         <v>355</v>
@@ -8012,13 +8283,13 @@
         <v>311</v>
       </c>
       <c r="B48" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C48" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D48" s="177" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -8076,8 +8347,8 @@
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8102,23 +8373,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="312" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="307"/>
-      <c r="K1" s="307"/>
-      <c r="L1" s="307"/>
-      <c r="M1" s="307"/>
-      <c r="N1" s="307"/>
-      <c r="O1" s="307"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="312"/>
+      <c r="O1" s="312"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
@@ -8126,26 +8397,26 @@
       <c r="A2" s="196" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="308" t="s">
+      <c r="B2" s="313" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="308"/>
-      <c r="F2" s="308"/>
-      <c r="G2" s="308" t="s">
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="308"/>
-      <c r="I2" s="308"/>
-      <c r="J2" s="308"/>
-      <c r="K2" s="308"/>
-      <c r="L2" s="308"/>
-      <c r="M2" s="311" t="s">
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="313"/>
+      <c r="L2" s="313"/>
+      <c r="M2" s="308" t="s">
         <v>272</v>
       </c>
-      <c r="N2" s="311"/>
-      <c r="O2" s="311"/>
+      <c r="N2" s="308"/>
+      <c r="O2" s="308"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
@@ -8153,21 +8424,21 @@
       <c r="A3" s="195" t="s">
         <v>334</v>
       </c>
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="314" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="310"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="310"/>
-      <c r="F3" s="310"/>
-      <c r="G3" s="310" t="s">
+      <c r="C3" s="314"/>
+      <c r="D3" s="314"/>
+      <c r="E3" s="314"/>
+      <c r="F3" s="314"/>
+      <c r="G3" s="314" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="310"/>
-      <c r="I3" s="310"/>
-      <c r="J3" s="310"/>
-      <c r="K3" s="310"/>
-      <c r="L3" s="310"/>
+      <c r="H3" s="314"/>
+      <c r="I3" s="314"/>
+      <c r="J3" s="314"/>
+      <c r="K3" s="314"/>
+      <c r="L3" s="314"/>
       <c r="M3" s="195" t="s">
         <v>277</v>
       </c>
@@ -8183,25 +8454,25 @@
       <c r="A4" s="198">
         <v>8</v>
       </c>
-      <c r="B4" s="309" t="s">
+      <c r="B4" s="306" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="309"/>
-      <c r="D4" s="309" t="s">
+      <c r="C4" s="306"/>
+      <c r="D4" s="306" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="309"/>
-      <c r="F4" s="309"/>
-      <c r="G4" s="309" t="s">
+      <c r="E4" s="306"/>
+      <c r="F4" s="306"/>
+      <c r="G4" s="306" t="s">
         <v>222</v>
       </c>
-      <c r="H4" s="309"/>
-      <c r="I4" s="309"/>
-      <c r="J4" s="309" t="s">
+      <c r="H4" s="306"/>
+      <c r="I4" s="306"/>
+      <c r="J4" s="306" t="s">
         <v>280</v>
       </c>
-      <c r="K4" s="309"/>
-      <c r="L4" s="309"/>
+      <c r="K4" s="306"/>
+      <c r="L4" s="306"/>
       <c r="M4" s="166" t="s">
         <v>154</v>
       </c>
@@ -8214,109 +8485,103 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="185"/>
-      <c r="B5" s="306"/>
-      <c r="C5" s="306"/>
-      <c r="D5" s="306"/>
-      <c r="E5" s="306"/>
-      <c r="F5" s="306"/>
-      <c r="G5" s="306" t="s">
+      <c r="B5" s="332" t="s">
         <v>254</v>
       </c>
-      <c r="H5" s="306"/>
-      <c r="I5" s="306"/>
-      <c r="J5" s="306" t="s">
-        <v>268</v>
-      </c>
-      <c r="K5" s="306"/>
-      <c r="L5" s="306"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="194" t="s">
-        <v>364</v>
-      </c>
-      <c r="O5" s="201" t="s">
-        <v>366</v>
+      <c r="C5" s="333"/>
+      <c r="D5" s="332" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" s="334"/>
+      <c r="F5" s="333"/>
+      <c r="G5" s="332" t="s">
+        <v>261</v>
+      </c>
+      <c r="H5" s="334"/>
+      <c r="I5" s="333"/>
+      <c r="J5" s="332" t="s">
+        <v>278</v>
+      </c>
+      <c r="K5" s="334"/>
+      <c r="L5" s="333"/>
+      <c r="M5" s="220"/>
+      <c r="N5" s="220" t="s">
+        <v>147</v>
+      </c>
+      <c r="O5" s="335" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="185"/>
-      <c r="B6" s="306" t="s">
+      <c r="B6" s="332" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="306"/>
-      <c r="D6" s="306" t="s">
-        <v>264</v>
-      </c>
-      <c r="E6" s="306"/>
-      <c r="F6" s="306"/>
-      <c r="G6" s="306" t="s">
-        <v>261</v>
-      </c>
-      <c r="H6" s="306"/>
-      <c r="I6" s="306"/>
-      <c r="J6" s="306"/>
-      <c r="K6" s="306"/>
-      <c r="L6" s="306"/>
-      <c r="M6" s="194"/>
-      <c r="N6" s="194" t="s">
-        <v>365</v>
-      </c>
-      <c r="O6" s="201" t="s">
-        <v>367</v>
-      </c>
+      <c r="C6" s="333"/>
+      <c r="D6" s="307" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="307"/>
+      <c r="F6" s="307"/>
+      <c r="G6" s="307"/>
+      <c r="H6" s="307"/>
+      <c r="I6" s="307"/>
+      <c r="J6" s="307"/>
+      <c r="K6" s="307"/>
+      <c r="L6" s="307"/>
+      <c r="M6" s="220"/>
+      <c r="N6" s="220"/>
+      <c r="O6" s="164"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="185"/>
-      <c r="B7" s="306" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="306"/>
-      <c r="D7" s="306" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" s="306"/>
-      <c r="F7" s="306"/>
-      <c r="G7" s="306"/>
-      <c r="H7" s="306"/>
-      <c r="I7" s="306"/>
-      <c r="J7" s="306"/>
-      <c r="K7" s="306"/>
-      <c r="L7" s="306"/>
+      <c r="B7" s="307"/>
+      <c r="C7" s="307"/>
+      <c r="D7" s="307"/>
+      <c r="E7" s="307"/>
+      <c r="F7" s="307"/>
+      <c r="G7" s="307"/>
+      <c r="H7" s="307"/>
+      <c r="I7" s="307"/>
+      <c r="J7" s="307"/>
+      <c r="K7" s="307"/>
+      <c r="L7" s="307"/>
       <c r="M7" s="194"/>
       <c r="N7" s="194"/>
       <c r="O7" s="164"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="185"/>
-      <c r="B8" s="306"/>
-      <c r="C8" s="306"/>
-      <c r="D8" s="306" t="s">
+      <c r="B8" s="307"/>
+      <c r="C8" s="307"/>
+      <c r="D8" s="307" t="s">
         <v>245</v>
       </c>
-      <c r="E8" s="306"/>
-      <c r="F8" s="306"/>
-      <c r="G8" s="306"/>
-      <c r="H8" s="306"/>
-      <c r="I8" s="306"/>
-      <c r="J8" s="306"/>
-      <c r="K8" s="306"/>
-      <c r="L8" s="306"/>
+      <c r="E8" s="307"/>
+      <c r="F8" s="307"/>
+      <c r="G8" s="307"/>
+      <c r="H8" s="307"/>
+      <c r="I8" s="307"/>
+      <c r="J8" s="307"/>
+      <c r="K8" s="307"/>
+      <c r="L8" s="307"/>
       <c r="M8" s="194"/>
       <c r="N8" s="194"/>
       <c r="O8" s="164"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="312" t="s">
+      <c r="A10" s="309" t="s">
         <v>332</v>
       </c>
-      <c r="B10" s="313"/>
-      <c r="C10" s="313"/>
-      <c r="D10" s="313"/>
-      <c r="E10" s="313"/>
-      <c r="F10" s="313"/>
-      <c r="G10" s="313"/>
-      <c r="H10" s="313"/>
-      <c r="I10" s="314"/>
+      <c r="B10" s="310"/>
+      <c r="C10" s="310"/>
+      <c r="D10" s="310"/>
+      <c r="E10" s="310"/>
+      <c r="F10" s="310"/>
+      <c r="G10" s="310"/>
+      <c r="H10" s="310"/>
+      <c r="I10" s="311"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
@@ -8488,7 +8753,7 @@
         <v>290</v>
       </c>
       <c r="C23" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D23" s="174" t="s">
         <v>348</v>
@@ -8502,7 +8767,7 @@
         <v>315</v>
       </c>
       <c r="C24" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D24" s="187" t="s">
         <v>312</v>
@@ -8516,7 +8781,7 @@
         <v>316</v>
       </c>
       <c r="C25" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D25" s="174" t="s">
         <v>313</v>
@@ -8530,7 +8795,7 @@
         <v>317</v>
       </c>
       <c r="C26" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D26" s="174" t="s">
         <v>335</v>
@@ -8544,7 +8809,7 @@
         <v>318</v>
       </c>
       <c r="C27" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D27" s="177" t="s">
         <v>314</v>
@@ -8558,10 +8823,10 @@
         <v>291</v>
       </c>
       <c r="C28" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D28" s="187" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -8572,10 +8837,10 @@
         <v>291</v>
       </c>
       <c r="C29" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D29" s="187" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -8586,10 +8851,10 @@
         <v>291</v>
       </c>
       <c r="C30" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D30" s="187" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -8600,7 +8865,7 @@
         <v>291</v>
       </c>
       <c r="C31" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D31" s="187" t="s">
         <v>321</v>
@@ -8614,10 +8879,10 @@
         <v>291</v>
       </c>
       <c r="C32" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D32" s="187" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -8628,10 +8893,10 @@
         <v>319</v>
       </c>
       <c r="C33" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D33" s="187" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -8642,10 +8907,10 @@
         <v>357</v>
       </c>
       <c r="C34" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D34" s="174" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -8656,10 +8921,10 @@
         <v>363</v>
       </c>
       <c r="C35" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D35" s="174" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -8670,10 +8935,10 @@
         <v>363</v>
       </c>
       <c r="C36" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D36" s="174" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -8684,10 +8949,10 @@
         <v>363</v>
       </c>
       <c r="C37" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D37" s="174" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -8698,10 +8963,10 @@
         <v>363</v>
       </c>
       <c r="C38" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D38" s="174" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -8712,10 +8977,10 @@
         <v>363</v>
       </c>
       <c r="C39" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D39" s="174" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -8726,10 +8991,10 @@
         <v>363</v>
       </c>
       <c r="C40" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D40" s="174" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -8740,10 +9005,10 @@
         <v>363</v>
       </c>
       <c r="C41" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D41" s="174" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -8754,10 +9019,10 @@
         <v>363</v>
       </c>
       <c r="C42" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D42" s="174" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -8768,10 +9033,10 @@
         <v>363</v>
       </c>
       <c r="C43" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D43" s="174" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -8782,10 +9047,10 @@
         <v>363</v>
       </c>
       <c r="C44" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D44" s="174" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -8796,10 +9061,10 @@
         <v>363</v>
       </c>
       <c r="C45" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D45" s="174" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -8810,10 +9075,10 @@
         <v>363</v>
       </c>
       <c r="C46" t="s">
+        <v>423</v>
+      </c>
+      <c r="D46" s="174" t="s">
         <v>427</v>
-      </c>
-      <c r="D46" s="174" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -8824,10 +9089,10 @@
         <v>363</v>
       </c>
       <c r="C47" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D47" s="174" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -8838,10 +9103,10 @@
         <v>363</v>
       </c>
       <c r="C48" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D48" s="174" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -8852,10 +9117,10 @@
         <v>363</v>
       </c>
       <c r="C49" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D49" s="174" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -8866,10 +9131,10 @@
         <v>363</v>
       </c>
       <c r="C50" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D50" s="174" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -8880,10 +9145,10 @@
         <v>363</v>
       </c>
       <c r="C51" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D51" s="174" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -8894,10 +9159,10 @@
         <v>319</v>
       </c>
       <c r="C52" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D52" s="187" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -8908,23 +9173,20 @@
         <v>357</v>
       </c>
       <c r="C53" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D53" s="174" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -8941,12 +9203,15 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9038,68 +9303,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="312" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="307"/>
-      <c r="K1" s="307"/>
-      <c r="L1" s="307"/>
-      <c r="M1" s="307"/>
-      <c r="N1" s="307"/>
-      <c r="O1" s="307"/>
-      <c r="P1" s="307"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="312"/>
+      <c r="O1" s="312"/>
+      <c r="P1" s="312"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="313" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="308"/>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="308"/>
-      <c r="F2" s="308"/>
-      <c r="G2" s="308" t="s">
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="308"/>
-      <c r="I2" s="308"/>
-      <c r="J2" s="308"/>
-      <c r="K2" s="308"/>
-      <c r="L2" s="308"/>
-      <c r="M2" s="311" t="s">
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="313"/>
+      <c r="K2" s="313"/>
+      <c r="L2" s="313"/>
+      <c r="M2" s="308" t="s">
         <v>270</v>
       </c>
-      <c r="N2" s="311"/>
-      <c r="O2" s="311"/>
-      <c r="P2" s="311"/>
+      <c r="N2" s="308"/>
+      <c r="O2" s="308"/>
+      <c r="P2" s="308"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="310" t="s">
+      <c r="A3" s="314" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="310"/>
-      <c r="C3" s="310"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="310"/>
-      <c r="F3" s="310"/>
-      <c r="G3" s="310" t="s">
+      <c r="B3" s="314"/>
+      <c r="C3" s="314"/>
+      <c r="D3" s="314"/>
+      <c r="E3" s="314"/>
+      <c r="F3" s="314"/>
+      <c r="G3" s="314" t="s">
         <v>273</v>
       </c>
-      <c r="H3" s="310"/>
-      <c r="I3" s="310"/>
-      <c r="J3" s="310"/>
-      <c r="K3" s="310"/>
-      <c r="L3" s="310"/>
+      <c r="H3" s="314"/>
+      <c r="I3" s="314"/>
+      <c r="J3" s="314"/>
+      <c r="K3" s="314"/>
+      <c r="L3" s="314"/>
       <c r="M3" s="195" t="s">
         <v>276</v>
       </c>
@@ -9115,24 +9380,24 @@
       <c r="Q3" s="199"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="309" t="s">
+      <c r="A4" s="306" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="309"/>
-      <c r="C4" s="309"/>
-      <c r="D4" s="309" t="s">
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="309"/>
-      <c r="F4" s="309"/>
-      <c r="G4" s="309" t="s">
+      <c r="E4" s="306"/>
+      <c r="F4" s="306"/>
+      <c r="G4" s="306" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="309"/>
-      <c r="I4" s="309"/>
-      <c r="J4" s="309"/>
-      <c r="K4" s="309"/>
-      <c r="L4" s="309"/>
+      <c r="H4" s="306"/>
+      <c r="I4" s="306"/>
+      <c r="J4" s="306"/>
+      <c r="K4" s="306"/>
+      <c r="L4" s="306"/>
       <c r="M4" s="166" t="s">
         <v>227</v>
       </c>
@@ -9147,12 +9412,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="306"/>
-      <c r="B5" s="306"/>
-      <c r="C5" s="306"/>
-      <c r="D5" s="306"/>
-      <c r="E5" s="306"/>
-      <c r="F5" s="306"/>
+      <c r="A5" s="307"/>
+      <c r="B5" s="307"/>
+      <c r="C5" s="307"/>
+      <c r="D5" s="307"/>
+      <c r="E5" s="307"/>
+      <c r="F5" s="307"/>
       <c r="G5" s="315" t="s">
         <v>4</v>
       </c>
@@ -9166,19 +9431,19 @@
       </c>
       <c r="N5" s="194"/>
       <c r="O5" s="194" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P5" s="194" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="306"/>
-      <c r="B6" s="306"/>
-      <c r="C6" s="306"/>
-      <c r="D6" s="306"/>
-      <c r="E6" s="306"/>
-      <c r="F6" s="306"/>
+      <c r="A6" s="307"/>
+      <c r="B6" s="307"/>
+      <c r="C6" s="307"/>
+      <c r="D6" s="307"/>
+      <c r="E6" s="307"/>
+      <c r="F6" s="307"/>
       <c r="G6" s="315"/>
       <c r="H6" s="315"/>
       <c r="I6" s="315"/>
@@ -9191,12 +9456,12 @@
       <c r="P6" s="167"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="306"/>
-      <c r="B7" s="306"/>
-      <c r="C7" s="306"/>
-      <c r="D7" s="306"/>
-      <c r="E7" s="306"/>
-      <c r="F7" s="306"/>
+      <c r="A7" s="307"/>
+      <c r="B7" s="307"/>
+      <c r="C7" s="307"/>
+      <c r="D7" s="307"/>
+      <c r="E7" s="307"/>
+      <c r="F7" s="307"/>
       <c r="G7" s="315"/>
       <c r="H7" s="315"/>
       <c r="I7" s="315"/>
@@ -9209,12 +9474,12 @@
       <c r="P7" s="165"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="306"/>
-      <c r="B8" s="306"/>
-      <c r="C8" s="306"/>
-      <c r="D8" s="306"/>
-      <c r="E8" s="306"/>
-      <c r="F8" s="306"/>
+      <c r="A8" s="307"/>
+      <c r="B8" s="307"/>
+      <c r="C8" s="307"/>
+      <c r="D8" s="307"/>
+      <c r="E8" s="307"/>
+      <c r="F8" s="307"/>
       <c r="G8" s="315"/>
       <c r="H8" s="315"/>
       <c r="I8" s="315"/>
@@ -9228,17 +9493,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="312" t="s">
+      <c r="A10" s="309" t="s">
         <v>331</v>
       </c>
-      <c r="B10" s="313"/>
-      <c r="C10" s="313"/>
-      <c r="D10" s="313"/>
-      <c r="E10" s="313"/>
-      <c r="F10" s="313"/>
-      <c r="G10" s="313"/>
-      <c r="H10" s="313"/>
-      <c r="I10" s="314"/>
+      <c r="B10" s="310"/>
+      <c r="C10" s="310"/>
+      <c r="D10" s="310"/>
+      <c r="E10" s="310"/>
+      <c r="F10" s="310"/>
+      <c r="G10" s="310"/>
+      <c r="H10" s="310"/>
+      <c r="I10" s="311"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
@@ -9409,7 +9674,7 @@
         <v>290</v>
       </c>
       <c r="C23" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D23" s="174" t="s">
         <v>348</v>
@@ -9423,7 +9688,7 @@
         <v>315</v>
       </c>
       <c r="C24" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D24" s="187" t="s">
         <v>312</v>
@@ -9437,7 +9702,7 @@
         <v>316</v>
       </c>
       <c r="C25" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D25" s="174" t="s">
         <v>313</v>
@@ -9451,7 +9716,7 @@
         <v>317</v>
       </c>
       <c r="C26" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D26" s="174" t="s">
         <v>335</v>
@@ -9465,7 +9730,7 @@
         <v>318</v>
       </c>
       <c r="C27" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D27" s="177" t="s">
         <v>314</v>
@@ -9479,10 +9744,10 @@
         <v>291</v>
       </c>
       <c r="C28" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D28" s="187" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -9493,10 +9758,10 @@
         <v>291</v>
       </c>
       <c r="C29" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D29" s="187" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -9507,10 +9772,10 @@
         <v>291</v>
       </c>
       <c r="C30" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D30" s="187" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -9521,7 +9786,7 @@
         <v>291</v>
       </c>
       <c r="C31" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D31" s="187" t="s">
         <v>323</v>
@@ -9535,7 +9800,7 @@
         <v>319</v>
       </c>
       <c r="C32" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D32" s="187" t="s">
         <v>324</v>
@@ -9549,10 +9814,10 @@
         <v>357</v>
       </c>
       <c r="C33" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D33" s="174" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9563,7 +9828,7 @@
         <v>326</v>
       </c>
       <c r="C34" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D34" s="187" t="s">
         <v>327</v>
@@ -9571,16 +9836,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9597,6 +9852,16 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9662,8 +9927,8 @@
   </sheetPr>
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9766,25 +10031,25 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="219" t="s">
-        <v>467</v>
+      <c r="A7" s="217" t="s">
+        <v>463</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="C7" s="220"/>
+        <v>464</v>
+      </c>
+      <c r="C7" s="218"/>
       <c r="D7" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="219" t="s">
-        <v>469</v>
+      <c r="A8" s="217" t="s">
+        <v>465</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="C8" s="220"/>
+        <v>466</v>
+      </c>
+      <c r="C8" s="218"/>
       <c r="D8" s="24">
         <v>1</v>
       </c>

--- a/test_templates/test_batch_template4.xlsx
+++ b/test_templates/test_batch_template4.xlsx
@@ -22,9 +22,6 @@
     <sheet name="48w" sheetId="11" r:id="rId8"/>
     <sheet name="24w" sheetId="10" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="485">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2187,9 +2184,6 @@
     <t>Point Cloud Filepath</t>
   </si>
   <si>
-    <t>batch/csv</t>
-  </si>
-  <si>
     <t>TASBE:Utilities</t>
   </si>
   <si>
@@ -2423,9 +2417,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3425,25 +3426,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="336">
+  <cellXfs count="334">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3459,7 +3460,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3470,28 +3471,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3512,62 +3513,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3578,20 +3579,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3600,32 +3601,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3643,19 +3644,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3664,46 +3665,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3721,83 +3722,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3812,37 +3813,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3851,63 +3852,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3930,95 +3931,89 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -4026,11 +4021,74 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4038,14 +4096,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4056,151 +4150,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4230,31 +4228,31 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4275,6 +4273,45 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4284,101 +4321,59 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4977,42 +4972,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Experiment"/>
-      <sheetName val="Samples"/>
-      <sheetName val="Calibration"/>
-      <sheetName val="Comparative Analysis"/>
-      <sheetName val="Transfer Curve Analysis"/>
-      <sheetName val="Optional Settings"/>
-      <sheetName val="96w"/>
-      <sheetName val="48w"/>
-      <sheetName val="24w"/>
-      <sheetName val="Optional Settings (2)"/>
-      <sheetName val="test_batch_template2"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="Sheet2.RunBatch"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5337,86 +5296,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="243" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="235"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="245"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="249" t="s">
+      <c r="A3" s="222" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="250"/>
+      <c r="B3" s="223"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="247" t="s">
+      <c r="A4" s="236" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="248"/>
+      <c r="B4" s="237"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="263" t="s">
+      <c r="A5" s="238" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="264"/>
+      <c r="B5" s="239"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="222" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="251"/>
-      <c r="G7" s="251"/>
-      <c r="H7" s="251"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="251"/>
-      <c r="K7" s="250"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="224"/>
+      <c r="J7" s="224"/>
+      <c r="K7" s="223"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="236" t="s">
+      <c r="A8" s="246" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="237"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="237"/>
-      <c r="G8" s="237"/>
-      <c r="H8" s="237"/>
-      <c r="I8" s="237"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="238"/>
+      <c r="B8" s="247"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="247"/>
+      <c r="E8" s="247"/>
+      <c r="F8" s="247"/>
+      <c r="G8" s="247"/>
+      <c r="H8" s="247"/>
+      <c r="I8" s="247"/>
+      <c r="J8" s="247"/>
+      <c r="K8" s="248"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="239"/>
-      <c r="B9" s="240"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="240"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="240"/>
-      <c r="H9" s="240"/>
-      <c r="I9" s="240"/>
-      <c r="J9" s="240"/>
-      <c r="K9" s="241"/>
+      <c r="A9" s="249"/>
+      <c r="B9" s="250"/>
+      <c r="C9" s="250"/>
+      <c r="D9" s="250"/>
+      <c r="E9" s="250"/>
+      <c r="F9" s="250"/>
+      <c r="G9" s="250"/>
+      <c r="H9" s="250"/>
+      <c r="I9" s="250"/>
+      <c r="J9" s="250"/>
+      <c r="K9" s="251"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="156"/>
@@ -5427,62 +5386,62 @@
       <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="252" t="s">
+      <c r="A11" s="225" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="253"/>
-      <c r="C11" s="253"/>
-      <c r="D11" s="254"/>
+      <c r="B11" s="226"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="227"/>
       <c r="E11" s="87"/>
       <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="255" t="s">
+      <c r="A12" s="228" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="256"/>
-      <c r="C12" s="257" t="s">
+      <c r="B12" s="229"/>
+      <c r="C12" s="230" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="258"/>
+      <c r="D12" s="231"/>
       <c r="E12" s="87"/>
       <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="259"/>
-      <c r="B13" s="260"/>
-      <c r="C13" s="261"/>
-      <c r="D13" s="262"/>
+      <c r="A13" s="232"/>
+      <c r="B13" s="233"/>
+      <c r="C13" s="234"/>
+      <c r="D13" s="235"/>
       <c r="E13" s="87"/>
       <c r="F13" s="142"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="252" t="s">
+      <c r="A15" s="225" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="254"/>
-      <c r="E15" s="252" t="s">
+      <c r="B15" s="227"/>
+      <c r="E15" s="225" t="s">
         <v>293</v>
       </c>
-      <c r="F15" s="253"/>
-      <c r="G15" s="253"/>
-      <c r="H15" s="253"/>
-      <c r="I15" s="254"/>
+      <c r="F15" s="226"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="226"/>
+      <c r="I15" s="227"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="247" t="s">
+      <c r="A16" s="236" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="248"/>
+      <c r="B16" s="237"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="242" t="s">
+      <c r="E16" s="252" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="243"/>
-      <c r="G16" s="243"/>
-      <c r="H16" s="243"/>
-      <c r="I16" s="244"/>
+      <c r="F16" s="253"/>
+      <c r="G16" s="253"/>
+      <c r="H16" s="253"/>
+      <c r="I16" s="254"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="157" t="s">
@@ -5492,10 +5451,10 @@
         <v>254</v>
       </c>
       <c r="C17" s="89"/>
-      <c r="E17" s="245" t="s">
+      <c r="E17" s="255" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="246"/>
+      <c r="F17" s="256"/>
       <c r="G17" s="205" t="s">
         <v>159</v>
       </c>
@@ -5525,8 +5484,8 @@
       <c r="H18" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="221" t="s">
-        <v>454</v>
+      <c r="I18" s="240" t="s">
+        <v>453</v>
       </c>
       <c r="J18" s="81"/>
     </row>
@@ -5548,7 +5507,7 @@
       <c r="H19" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="I19" s="221"/>
+      <c r="I19" s="240"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5565,7 +5524,7 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="222"/>
+      <c r="I20" s="241"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5587,24 +5546,24 @@
       <c r="A23" s="161"/>
       <c r="B23" s="92"/>
       <c r="C23" s="91"/>
-      <c r="E23" s="223" t="s">
+      <c r="E23" s="220" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="224"/>
-      <c r="G23" s="224"/>
-      <c r="H23" s="224"/>
-      <c r="I23" s="225"/>
+      <c r="F23" s="242"/>
+      <c r="G23" s="242"/>
+      <c r="H23" s="242"/>
+      <c r="I23" s="221"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="223" t="s">
+      <c r="A24" s="220" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="225"/>
+      <c r="B24" s="221"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="229" t="s">
+      <c r="E24" s="260" t="s">
         <v>208</v>
       </c>
-      <c r="F24" s="230"/>
+      <c r="F24" s="261"/>
       <c r="G24" s="205" t="s">
         <v>159</v>
       </c>
@@ -5633,8 +5592,8 @@
       <c r="H25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="226" t="s">
-        <v>455</v>
+      <c r="I25" s="257" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -5657,7 +5616,7 @@
       <c r="H26" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="I26" s="227"/>
+      <c r="I26" s="258"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="159" t="s">
@@ -5673,7 +5632,7 @@
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="228"/>
+      <c r="I27" s="259"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="159" t="s">
@@ -5697,22 +5656,22 @@
       <c r="A30" s="160"/>
       <c r="B30" s="117"/>
       <c r="C30" s="89"/>
-      <c r="E30" s="223" t="s">
+      <c r="E30" s="220" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="224"/>
-      <c r="G30" s="224"/>
-      <c r="H30" s="224"/>
-      <c r="I30" s="225"/>
+      <c r="F30" s="242"/>
+      <c r="G30" s="242"/>
+      <c r="H30" s="242"/>
+      <c r="I30" s="221"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="161"/>
       <c r="B31" s="91"/>
       <c r="C31" s="91"/>
-      <c r="E31" s="231" t="s">
-        <v>440</v>
-      </c>
-      <c r="F31" s="232"/>
+      <c r="E31" s="262" t="s">
+        <v>439</v>
+      </c>
+      <c r="F31" s="263"/>
       <c r="G31" s="203" t="s">
         <v>159</v>
       </c>
@@ -5724,10 +5683,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="223" t="s">
+      <c r="A32" s="220" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="225"/>
+      <c r="B32" s="221"/>
       <c r="C32" s="32"/>
       <c r="E32" s="83">
         <v>1</v>
@@ -5737,7 +5696,7 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="221"/>
+      <c r="I32" s="240"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="157" t="s">
@@ -5757,7 +5716,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="221"/>
+      <c r="I33" s="240"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="158" t="s">
@@ -5772,7 +5731,7 @@
       <c r="F34" s="93"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="221"/>
+      <c r="I34" s="240"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="159" t="s">
@@ -5785,7 +5744,7 @@
       <c r="F35" s="93"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="221"/>
+      <c r="I35" s="240"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="159" t="s">
@@ -5798,7 +5757,7 @@
       <c r="F36" s="93"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="221"/>
+      <c r="I36" s="240"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="159" t="s">
@@ -5811,7 +5770,7 @@
       <c r="F37" s="140"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="222"/>
+      <c r="I37" s="241"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="160" t="s">
@@ -5824,17 +5783,17 @@
       <c r="B39" s="121"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="223" t="s">
+      <c r="E40" s="220" t="s">
         <v>187</v>
       </c>
-      <c r="F40" s="224"/>
-      <c r="G40" s="224"/>
-      <c r="H40" s="224"/>
-      <c r="I40" s="225"/>
+      <c r="F40" s="242"/>
+      <c r="G40" s="242"/>
+      <c r="H40" s="242"/>
+      <c r="I40" s="221"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="229"/>
-      <c r="F41" s="230"/>
+      <c r="E41" s="260"/>
+      <c r="F41" s="261"/>
       <c r="G41" s="82" t="s">
         <v>159</v>
       </c>
@@ -5852,7 +5811,7 @@
       <c r="F42" s="93"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="221"/>
+      <c r="I42" s="240"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="83">
@@ -5861,7 +5820,7 @@
       <c r="F43" s="93"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="221"/>
+      <c r="I43" s="240"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="83">
@@ -5870,7 +5829,7 @@
       <c r="F44" s="93"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="221"/>
+      <c r="I44" s="240"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="83">
@@ -5879,7 +5838,7 @@
       <c r="F45" s="93"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="221"/>
+      <c r="I45" s="240"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="83">
@@ -5888,7 +5847,7 @@
       <c r="F46" s="93"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="221"/>
+      <c r="I46" s="240"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="84">
@@ -5897,11 +5856,25 @@
       <c r="F47" s="140"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="222"/>
+      <c r="I47" s="241"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5917,20 +5890,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5945,7 +5904,7 @@
   <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5970,32 +5929,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="268" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="271"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="270"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="272" t="s">
+      <c r="A2" s="271" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="273"/>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="273"/>
-      <c r="J2" s="274"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="272"/>
+      <c r="J2" s="273"/>
       <c r="K2" s="79"/>
       <c r="L2" s="79"/>
       <c r="M2" s="75"/>
@@ -6009,13 +5968,13 @@
       <c r="B3" s="175" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="275" t="s">
+      <c r="C3" s="274" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="276"/>
-      <c r="E3" s="276"/>
-      <c r="F3" s="276"/>
-      <c r="G3" s="277"/>
+      <c r="D3" s="275"/>
+      <c r="E3" s="275"/>
+      <c r="F3" s="275"/>
+      <c r="G3" s="276"/>
       <c r="H3" s="175" t="s">
         <v>296</v>
       </c>
@@ -6070,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="206" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C5" s="109">
         <v>0.1</v>
@@ -6085,14 +6044,14 @@
         <v>1</v>
       </c>
       <c r="I5" s="111" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J5" s="112"/>
-      <c r="K5" s="209" t="s">
+      <c r="K5" s="207" t="s">
+        <v>440</v>
+      </c>
+      <c r="L5" s="207" t="s">
         <v>441</v>
-      </c>
-      <c r="L5" s="209" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6101,7 +6060,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="206" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C6" s="109">
         <v>0.2</v>
@@ -6116,14 +6075,14 @@
         <v>1</v>
       </c>
       <c r="I6" s="111" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J6" s="112"/>
-      <c r="K6" s="209" t="s">
+      <c r="K6" s="207" t="s">
+        <v>442</v>
+      </c>
+      <c r="L6" s="207" t="s">
         <v>443</v>
-      </c>
-      <c r="L6" s="209" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6132,7 +6091,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="206" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C7" s="109">
         <v>0.5</v>
@@ -6147,14 +6106,14 @@
         <v>1</v>
       </c>
       <c r="I7" s="111" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J7" s="112"/>
-      <c r="K7" s="209" t="s">
+      <c r="K7" s="207" t="s">
+        <v>444</v>
+      </c>
+      <c r="L7" s="207" t="s">
         <v>445</v>
-      </c>
-      <c r="L7" s="209" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6162,8 +6121,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="219" t="s">
-        <v>467</v>
+      <c r="B8" s="217" t="s">
+        <v>466</v>
       </c>
       <c r="C8" s="109"/>
       <c r="D8" s="109" t="s">
@@ -6180,21 +6139,23 @@
         <v>1</v>
       </c>
       <c r="I8" s="111" t="s">
-        <v>475</v>
-      </c>
-      <c r="J8" s="112"/>
-      <c r="K8" s="209" t="s">
-        <v>481</v>
-      </c>
-      <c r="L8" s="209"/>
+        <v>474</v>
+      </c>
+      <c r="J8" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="207" t="s">
+        <v>480</v>
+      </c>
+      <c r="L8" s="207"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="108">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="219" t="s">
-        <v>468</v>
+      <c r="B9" s="217" t="s">
+        <v>467</v>
       </c>
       <c r="C9" s="109"/>
       <c r="D9" s="109" t="s">
@@ -6211,21 +6172,23 @@
         <v>1</v>
       </c>
       <c r="I9" s="111" t="s">
-        <v>476</v>
-      </c>
-      <c r="J9" s="112"/>
-      <c r="K9" s="209" t="s">
-        <v>482</v>
-      </c>
-      <c r="L9" s="209"/>
+        <v>475</v>
+      </c>
+      <c r="J9" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="207" t="s">
+        <v>481</v>
+      </c>
+      <c r="L9" s="207"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="108">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="219" t="s">
-        <v>469</v>
+      <c r="B10" s="217" t="s">
+        <v>468</v>
       </c>
       <c r="C10" s="109"/>
       <c r="D10" s="109" t="s">
@@ -6242,21 +6205,23 @@
         <v>1</v>
       </c>
       <c r="I10" s="111" t="s">
-        <v>477</v>
-      </c>
-      <c r="J10" s="112"/>
-      <c r="K10" s="209" t="s">
-        <v>441</v>
-      </c>
-      <c r="L10" s="209"/>
+        <v>476</v>
+      </c>
+      <c r="J10" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="207" t="s">
+        <v>440</v>
+      </c>
+      <c r="L10" s="207"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="108">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="219" t="s">
-        <v>470</v>
+      <c r="B11" s="217" t="s">
+        <v>469</v>
       </c>
       <c r="C11" s="109"/>
       <c r="D11" s="109" t="s">
@@ -6273,21 +6238,23 @@
         <v>1</v>
       </c>
       <c r="I11" s="111" t="s">
-        <v>478</v>
-      </c>
-      <c r="J11" s="112"/>
-      <c r="K11" s="209" t="s">
-        <v>442</v>
-      </c>
-      <c r="L11" s="209"/>
+        <v>477</v>
+      </c>
+      <c r="J11" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="207" t="s">
+        <v>441</v>
+      </c>
+      <c r="L11" s="207"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="108">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="219" t="s">
-        <v>471</v>
+      <c r="B12" s="217" t="s">
+        <v>470</v>
       </c>
       <c r="C12" s="109"/>
       <c r="D12" s="109" t="s">
@@ -6304,21 +6271,23 @@
         <v>1</v>
       </c>
       <c r="I12" s="111" t="s">
-        <v>479</v>
-      </c>
-      <c r="J12" s="112"/>
-      <c r="K12" s="209" t="s">
-        <v>483</v>
-      </c>
-      <c r="L12" s="209"/>
+        <v>478</v>
+      </c>
+      <c r="J12" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" s="207" t="s">
+        <v>482</v>
+      </c>
+      <c r="L12" s="207"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="108">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="219" t="s">
-        <v>472</v>
+      <c r="B13" s="217" t="s">
+        <v>471</v>
       </c>
       <c r="C13" s="109"/>
       <c r="D13" s="109" t="s">
@@ -6335,21 +6304,23 @@
         <v>1</v>
       </c>
       <c r="I13" s="111" t="s">
-        <v>480</v>
-      </c>
-      <c r="J13" s="112"/>
-      <c r="K13" s="209" t="s">
-        <v>484</v>
-      </c>
-      <c r="L13" s="209"/>
+        <v>479</v>
+      </c>
+      <c r="J13" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="207" t="s">
+        <v>483</v>
+      </c>
+      <c r="L13" s="207"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="108">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="219" t="s">
-        <v>473</v>
+      <c r="B14" s="217" t="s">
+        <v>472</v>
       </c>
       <c r="C14" s="109"/>
       <c r="D14" s="109" t="s">
@@ -6366,21 +6337,23 @@
         <v>1</v>
       </c>
       <c r="I14" s="111" t="s">
-        <v>475</v>
-      </c>
-      <c r="J14" s="112"/>
-      <c r="K14" s="209" t="s">
-        <v>481</v>
-      </c>
-      <c r="L14" s="209"/>
+        <v>474</v>
+      </c>
+      <c r="J14" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="207" t="s">
+        <v>480</v>
+      </c>
+      <c r="L14" s="207"/>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="108">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="219" t="s">
-        <v>474</v>
+      <c r="B15" s="217" t="s">
+        <v>473</v>
       </c>
       <c r="C15" s="109"/>
       <c r="D15" s="109" t="s">
@@ -6397,13 +6370,15 @@
         <v>1</v>
       </c>
       <c r="I15" s="111" t="s">
-        <v>476</v>
-      </c>
-      <c r="J15" s="112"/>
-      <c r="K15" s="209" t="s">
-        <v>482</v>
-      </c>
-      <c r="L15" s="209"/>
+        <v>475</v>
+      </c>
+      <c r="J15" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="207" t="s">
+        <v>481</v>
+      </c>
+      <c r="L15" s="207"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="108">
@@ -6426,7 +6401,7 @@
         <v>5</v>
       </c>
       <c r="K16" s="204" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6450,7 +6425,7 @@
         <v>5</v>
       </c>
       <c r="K17" s="204" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6474,7 +6449,7 @@
         <v>5</v>
       </c>
       <c r="K18" s="204" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6498,7 +6473,7 @@
         <v>5</v>
       </c>
       <c r="K19" s="204" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6522,7 +6497,7 @@
         <v>5</v>
       </c>
       <c r="K20" s="204" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6546,7 +6521,7 @@
         <v>5</v>
       </c>
       <c r="K21" s="204" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6554,48 +6529,48 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="210" t="s">
+      <c r="B22" s="208" t="s">
         <v>284</v>
       </c>
-      <c r="C22" s="211"/>
-      <c r="D22" s="211"/>
-      <c r="E22" s="211"/>
-      <c r="F22" s="211"/>
-      <c r="G22" s="211"/>
-      <c r="H22" s="212">
+      <c r="C22" s="209"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="210">
         <v>2</v>
       </c>
-      <c r="I22" s="213"/>
-      <c r="J22" s="214" t="s">
+      <c r="I22" s="211"/>
+      <c r="J22" s="212" t="s">
         <v>5</v>
       </c>
       <c r="K22" s="204" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K23" s="204"/>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="290" t="s">
+      <c r="A24" s="289" t="s">
         <v>216</v>
       </c>
-      <c r="B24" s="291"/>
-      <c r="C24" s="291"/>
-      <c r="D24" s="291"/>
-      <c r="E24" s="291"/>
-      <c r="F24" s="291"/>
-      <c r="G24" s="291"/>
-      <c r="H24" s="291"/>
-      <c r="I24" s="291"/>
-      <c r="J24" s="291"/>
-      <c r="K24" s="291"/>
-      <c r="L24" s="291"/>
-      <c r="M24" s="291"/>
-      <c r="N24" s="291"/>
-      <c r="O24" s="291"/>
-      <c r="P24" s="291"/>
-      <c r="Q24" s="292"/>
+      <c r="B24" s="290"/>
+      <c r="C24" s="290"/>
+      <c r="D24" s="290"/>
+      <c r="E24" s="290"/>
+      <c r="F24" s="290"/>
+      <c r="G24" s="290"/>
+      <c r="H24" s="290"/>
+      <c r="I24" s="290"/>
+      <c r="J24" s="290"/>
+      <c r="K24" s="290"/>
+      <c r="L24" s="290"/>
+      <c r="M24" s="290"/>
+      <c r="N24" s="290"/>
+      <c r="O24" s="290"/>
+      <c r="P24" s="290"/>
+      <c r="Q24" s="291"/>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="137" t="s">
@@ -6626,7 +6601,7 @@
         <v>410</v>
       </c>
       <c r="J25" s="192" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K25" s="192" t="s">
         <v>410</v>
@@ -6702,12 +6677,12 @@
       </c>
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="215"/>
-      <c r="B27" s="216" t="s">
+      <c r="A27" s="213"/>
+      <c r="B27" s="214" t="s">
         <v>413</v>
       </c>
-      <c r="C27" s="216"/>
-      <c r="D27" s="216"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="214"/>
       <c r="E27" s="153"/>
       <c r="F27" s="153"/>
       <c r="G27" s="153" t="s">
@@ -6719,7 +6694,7 @@
       </c>
       <c r="J27" s="153"/>
       <c r="K27" s="153" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L27" s="153">
         <v>100</v>
@@ -6740,79 +6715,72 @@
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="287" t="s">
+      <c r="A29" s="286" t="s">
         <v>256</v>
       </c>
-      <c r="B29" s="288"/>
-      <c r="C29" s="288"/>
-      <c r="D29" s="288"/>
-      <c r="E29" s="288"/>
-      <c r="F29" s="288"/>
-      <c r="G29" s="288"/>
-      <c r="H29" s="289"/>
+      <c r="B29" s="287"/>
+      <c r="C29" s="287"/>
+      <c r="D29" s="287"/>
+      <c r="E29" s="287"/>
+      <c r="F29" s="287"/>
+      <c r="G29" s="287"/>
+      <c r="H29" s="288"/>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="278" t="s">
+      <c r="A30" s="277" t="s">
         <v>341</v>
       </c>
-      <c r="B30" s="279"/>
-      <c r="C30" s="279"/>
-      <c r="D30" s="279"/>
-      <c r="E30" s="279"/>
-      <c r="F30" s="279"/>
-      <c r="G30" s="279"/>
-      <c r="H30" s="280"/>
+      <c r="B30" s="278"/>
+      <c r="C30" s="278"/>
+      <c r="D30" s="278"/>
+      <c r="E30" s="278"/>
+      <c r="F30" s="278"/>
+      <c r="G30" s="278"/>
+      <c r="H30" s="279"/>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="281"/>
-      <c r="B31" s="282"/>
-      <c r="C31" s="282"/>
-      <c r="D31" s="282"/>
-      <c r="E31" s="282"/>
-      <c r="F31" s="282"/>
-      <c r="G31" s="282"/>
-      <c r="H31" s="283"/>
+      <c r="A31" s="280"/>
+      <c r="B31" s="281"/>
+      <c r="C31" s="281"/>
+      <c r="D31" s="281"/>
+      <c r="E31" s="281"/>
+      <c r="F31" s="281"/>
+      <c r="G31" s="281"/>
+      <c r="H31" s="282"/>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="281"/>
-      <c r="B32" s="282"/>
-      <c r="C32" s="282"/>
-      <c r="D32" s="282"/>
-      <c r="E32" s="282"/>
-      <c r="F32" s="282"/>
-      <c r="G32" s="282"/>
-      <c r="H32" s="283"/>
-    </row>
-    <row r="33" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="284"/>
-      <c r="B33" s="285"/>
-      <c r="C33" s="285"/>
-      <c r="D33" s="285"/>
-      <c r="E33" s="285"/>
-      <c r="F33" s="285"/>
-      <c r="G33" s="285"/>
-      <c r="H33" s="286"/>
-    </row>
-    <row r="34" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:17" s="1" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="266" t="s">
+      <c r="A32" s="280"/>
+      <c r="B32" s="281"/>
+      <c r="C32" s="281"/>
+      <c r="D32" s="281"/>
+      <c r="E32" s="281"/>
+      <c r="F32" s="281"/>
+      <c r="G32" s="281"/>
+      <c r="H32" s="282"/>
+    </row>
+    <row r="33" spans="1:10" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="283"/>
+      <c r="B33" s="284"/>
+      <c r="C33" s="284"/>
+      <c r="D33" s="284"/>
+      <c r="E33" s="284"/>
+      <c r="F33" s="284"/>
+      <c r="G33" s="284"/>
+      <c r="H33" s="285"/>
+    </row>
+    <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="265" t="s">
         <v>285</v>
       </c>
-      <c r="B35" s="267"/>
-      <c r="C35" s="267"/>
-      <c r="D35" s="267"/>
-      <c r="E35" s="267"/>
-      <c r="F35" s="267"/>
-      <c r="G35" s="268"/>
-      <c r="K35" s="207"/>
-      <c r="L35" s="207"/>
-      <c r="M35" s="207"/>
-      <c r="N35" s="207"/>
-      <c r="O35" s="207"/>
-      <c r="P35" s="207"/>
-      <c r="Q35" s="208"/>
-    </row>
-    <row r="36" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="266"/>
+      <c r="C35" s="266"/>
+      <c r="D35" s="266"/>
+      <c r="E35" s="266"/>
+      <c r="F35" s="266"/>
+      <c r="G35" s="267"/>
+    </row>
+    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
         <v>292</v>
       </c>
@@ -6822,35 +6790,14 @@
       <c r="C36" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="D36" s="265" t="s">
+      <c r="D36" s="264" t="s">
         <v>288</v>
       </c>
-      <c r="E36" s="265"/>
-      <c r="F36" s="265"/>
-      <c r="G36" s="265"/>
-      <c r="K36" s="192" t="s">
-        <v>410</v>
-      </c>
-      <c r="L36" s="123" t="s">
-        <v>246</v>
-      </c>
-      <c r="M36" s="123" t="s">
-        <v>246</v>
-      </c>
-      <c r="N36" s="123" t="s">
-        <v>246</v>
-      </c>
-      <c r="O36" s="188" t="s">
-        <v>252</v>
-      </c>
-      <c r="P36" s="188" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q36" s="191" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E36" s="264"/>
+      <c r="F36" s="264"/>
+      <c r="G36" s="264"/>
+    </row>
+    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>289</v>
       </c>
@@ -6858,7 +6805,7 @@
         <v>290</v>
       </c>
       <c r="C37" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D37" s="174" t="s">
         <v>348</v>
@@ -6869,29 +6816,8 @@
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
-      <c r="K37" s="96" t="s">
-        <v>417</v>
-      </c>
-      <c r="L37" s="96" t="s">
-        <v>94</v>
-      </c>
-      <c r="M37" s="96" t="s">
-        <v>95</v>
-      </c>
-      <c r="N37" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="O37" s="96" t="s">
-        <v>228</v>
-      </c>
-      <c r="P37" s="96" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q37" s="118" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>311</v>
       </c>
@@ -6899,7 +6825,7 @@
         <v>315</v>
       </c>
       <c r="C38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D38" s="187" t="s">
         <v>312</v>
@@ -6910,27 +6836,8 @@
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
-      <c r="K38" s="153" t="s">
-        <v>418</v>
-      </c>
-      <c r="L38" s="153">
-        <v>100</v>
-      </c>
-      <c r="M38" s="153">
-        <v>0</v>
-      </c>
-      <c r="N38" s="153"/>
-      <c r="O38" s="153">
-        <v>4</v>
-      </c>
-      <c r="P38" s="153">
-        <v>10</v>
-      </c>
-      <c r="Q38" s="154">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>311</v>
       </c>
@@ -6938,7 +6845,7 @@
         <v>316</v>
       </c>
       <c r="C39" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D39" s="174" t="s">
         <v>313</v>
@@ -6950,7 +6857,7 @@
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>311</v>
       </c>
@@ -6958,7 +6865,7 @@
         <v>317</v>
       </c>
       <c r="C40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D40" s="174" t="s">
         <v>335</v>
@@ -6970,7 +6877,7 @@
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="1:17" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>311</v>
       </c>
@@ -6978,7 +6885,7 @@
         <v>318</v>
       </c>
       <c r="C41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D41" s="177" t="s">
         <v>314</v>
@@ -6990,7 +6897,7 @@
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>384</v>
       </c>
@@ -6998,7 +6905,7 @@
         <v>291</v>
       </c>
       <c r="C42" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D42" s="187" t="s">
         <v>385</v>
@@ -7010,7 +6917,7 @@
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>384</v>
       </c>
@@ -7018,7 +6925,7 @@
         <v>291</v>
       </c>
       <c r="C43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D43" s="187" t="s">
         <v>366</v>
@@ -7030,7 +6937,7 @@
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>384</v>
       </c>
@@ -7038,7 +6945,7 @@
         <v>291</v>
       </c>
       <c r="C44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D44" s="187" t="s">
         <v>386</v>
@@ -7050,7 +6957,7 @@
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>384</v>
       </c>
@@ -7058,7 +6965,7 @@
         <v>291</v>
       </c>
       <c r="C45" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D45" s="187" t="s">
         <v>388</v>
@@ -7070,7 +6977,7 @@
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>384</v>
       </c>
@@ -7078,7 +6985,7 @@
         <v>291</v>
       </c>
       <c r="C46" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D46" s="187" t="s">
         <v>387</v>
@@ -7090,7 +6997,7 @@
       <c r="I46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>384</v>
       </c>
@@ -7098,7 +7005,7 @@
         <v>319</v>
       </c>
       <c r="C47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D47" s="187" t="s">
         <v>389</v>
@@ -7110,7 +7017,7 @@
       <c r="I47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>390</v>
       </c>
@@ -7118,7 +7025,7 @@
         <v>391</v>
       </c>
       <c r="C48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D48" s="187" t="s">
         <v>392</v>
@@ -7126,16 +7033,16 @@
     </row>
     <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B49" t="s">
         <v>357</v>
       </c>
       <c r="C49" t="s">
+        <v>419</v>
+      </c>
+      <c r="D49" s="174" t="s">
         <v>420</v>
-      </c>
-      <c r="D49" s="174" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7146,7 +7053,7 @@
         <v>394</v>
       </c>
       <c r="C50" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D50" s="187" t="s">
         <v>395</v>
@@ -7160,7 +7067,7 @@
         <v>394</v>
       </c>
       <c r="C51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D51" s="187" t="s">
         <v>395</v>
@@ -7174,7 +7081,7 @@
         <v>394</v>
       </c>
       <c r="C52" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D52" s="187" t="s">
         <v>395</v>
@@ -7188,7 +7095,7 @@
         <v>394</v>
       </c>
       <c r="C53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D53" s="187" t="s">
         <v>395</v>
@@ -7202,7 +7109,7 @@
         <v>394</v>
       </c>
       <c r="C54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D54" s="187" t="s">
         <v>395</v>
@@ -7216,7 +7123,7 @@
         <v>363</v>
       </c>
       <c r="C55" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D55" s="174" t="s">
         <v>396</v>
@@ -7230,7 +7137,7 @@
         <v>363</v>
       </c>
       <c r="C56" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D56" s="174" t="s">
         <v>397</v>
@@ -7244,7 +7151,7 @@
         <v>363</v>
       </c>
       <c r="C57" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D57" s="174" t="s">
         <v>398</v>
@@ -7258,7 +7165,7 @@
         <v>363</v>
       </c>
       <c r="C58" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D58" s="174" t="s">
         <v>399</v>
@@ -7272,7 +7179,7 @@
         <v>363</v>
       </c>
       <c r="C59" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D59" s="174" t="s">
         <v>400</v>
@@ -7286,7 +7193,7 @@
         <v>363</v>
       </c>
       <c r="C60" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D60" s="174" t="s">
         <v>401</v>
@@ -7300,7 +7207,7 @@
         <v>363</v>
       </c>
       <c r="C61" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D61" s="174" t="s">
         <v>402</v>
@@ -7314,7 +7221,7 @@
         <v>363</v>
       </c>
       <c r="C62" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D62" s="174" t="s">
         <v>403</v>
@@ -7328,7 +7235,7 @@
         <v>363</v>
       </c>
       <c r="C63" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D63" s="174" t="s">
         <v>404</v>
@@ -7342,7 +7249,7 @@
         <v>363</v>
       </c>
       <c r="C64" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D64" s="174" t="s">
         <v>405</v>
@@ -7356,7 +7263,7 @@
         <v>363</v>
       </c>
       <c r="C65" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D65" s="174" t="s">
         <v>406</v>
@@ -7370,7 +7277,7 @@
         <v>363</v>
       </c>
       <c r="C66" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D66" s="174" t="s">
         <v>407</v>
@@ -7384,7 +7291,7 @@
         <v>363</v>
       </c>
       <c r="C67" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D67" s="174" t="s">
         <v>408</v>
@@ -7398,7 +7305,7 @@
         <v>363</v>
       </c>
       <c r="C68" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D68" s="174" t="s">
         <v>409</v>
@@ -7469,7 +7376,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="3076" r:id="rId6" name="Button 4">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[1]!Sheet2.RunBatch">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>0</xdr:col>
@@ -7521,32 +7428,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="301" t="s">
         <v>360</v>
       </c>
-      <c r="B1" s="303"/>
-      <c r="C1" s="303"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="303"/>
-      <c r="F1" s="303"/>
-      <c r="G1" s="303"/>
-      <c r="H1" s="303"/>
-      <c r="I1" s="303"/>
-      <c r="J1" s="304"/>
+      <c r="B1" s="302"/>
+      <c r="C1" s="302"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="302"/>
+      <c r="F1" s="302"/>
+      <c r="G1" s="302"/>
+      <c r="H1" s="302"/>
+      <c r="I1" s="302"/>
+      <c r="J1" s="303"/>
     </row>
     <row r="2" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="290" t="s">
+      <c r="A2" s="289" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="291"/>
-      <c r="C2" s="291"/>
-      <c r="D2" s="291"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="291"/>
-      <c r="G2" s="291"/>
-      <c r="H2" s="291"/>
-      <c r="I2" s="291"/>
-      <c r="J2" s="292"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="291"/>
     </row>
     <row r="3" spans="1:10" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="131" t="s">
@@ -7625,18 +7532,18 @@
       <c r="J5" s="169"/>
     </row>
     <row r="6" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="290" t="s">
+      <c r="A6" s="289" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="291"/>
-      <c r="C6" s="291"/>
-      <c r="D6" s="291"/>
-      <c r="E6" s="291"/>
-      <c r="F6" s="291"/>
-      <c r="G6" s="291"/>
-      <c r="H6" s="291"/>
-      <c r="I6" s="291"/>
-      <c r="J6" s="292"/>
+      <c r="B6" s="290"/>
+      <c r="C6" s="290"/>
+      <c r="D6" s="290"/>
+      <c r="E6" s="290"/>
+      <c r="F6" s="290"/>
+      <c r="G6" s="290"/>
+      <c r="H6" s="290"/>
+      <c r="I6" s="290"/>
+      <c r="J6" s="291"/>
     </row>
     <row r="7" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="124" t="s">
@@ -7687,18 +7594,18 @@
       <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="290" t="s">
+      <c r="A10" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="291"/>
-      <c r="C10" s="291"/>
-      <c r="D10" s="291"/>
-      <c r="E10" s="291"/>
-      <c r="F10" s="291"/>
-      <c r="G10" s="291"/>
-      <c r="H10" s="291"/>
-      <c r="I10" s="291"/>
-      <c r="J10" s="292"/>
+      <c r="B10" s="290"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="290"/>
+      <c r="F10" s="290"/>
+      <c r="G10" s="290"/>
+      <c r="H10" s="290"/>
+      <c r="I10" s="290"/>
+      <c r="J10" s="291"/>
     </row>
     <row r="11" spans="1:10" s="113" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="127"/>
@@ -7909,18 +7816,18 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="290" t="s">
+      <c r="A21" s="289" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="291"/>
-      <c r="C21" s="291"/>
-      <c r="D21" s="291"/>
-      <c r="E21" s="291"/>
-      <c r="F21" s="291"/>
-      <c r="G21" s="291"/>
-      <c r="H21" s="291"/>
-      <c r="I21" s="291"/>
-      <c r="J21" s="292"/>
+      <c r="B21" s="290"/>
+      <c r="C21" s="290"/>
+      <c r="D21" s="290"/>
+      <c r="E21" s="290"/>
+      <c r="F21" s="290"/>
+      <c r="G21" s="290"/>
+      <c r="H21" s="290"/>
+      <c r="I21" s="290"/>
+      <c r="J21" s="291"/>
     </row>
     <row r="22" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="131" t="s">
@@ -7983,18 +7890,18 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="290" t="s">
+      <c r="A25" s="289" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="291"/>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
-      <c r="E25" s="291"/>
-      <c r="F25" s="291"/>
-      <c r="G25" s="291"/>
-      <c r="H25" s="291"/>
-      <c r="I25" s="291"/>
-      <c r="J25" s="292"/>
+      <c r="B25" s="290"/>
+      <c r="C25" s="290"/>
+      <c r="D25" s="290"/>
+      <c r="E25" s="290"/>
+      <c r="F25" s="290"/>
+      <c r="G25" s="290"/>
+      <c r="H25" s="290"/>
+      <c r="I25" s="290"/>
+      <c r="J25" s="291"/>
     </row>
     <row r="26" spans="1:10" s="113" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="131" t="s">
@@ -8041,12 +7948,12 @@
     <row r="28" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="146"/>
       <c r="B28" s="201" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C28" s="184"/>
       <c r="D28" s="122"/>
       <c r="E28" s="153" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -8056,70 +7963,70 @@
     </row>
     <row r="29" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="293" t="s">
+      <c r="A30" s="292" t="s">
         <v>256</v>
       </c>
-      <c r="B30" s="294"/>
-      <c r="C30" s="294"/>
-      <c r="D30" s="294"/>
-      <c r="E30" s="294"/>
-      <c r="F30" s="294"/>
-      <c r="G30" s="294"/>
-      <c r="H30" s="295"/>
+      <c r="B30" s="293"/>
+      <c r="C30" s="293"/>
+      <c r="D30" s="293"/>
+      <c r="E30" s="293"/>
+      <c r="F30" s="293"/>
+      <c r="G30" s="293"/>
+      <c r="H30" s="294"/>
     </row>
     <row r="31" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="296" t="s">
+      <c r="A31" s="295" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="297"/>
-      <c r="C31" s="297"/>
-      <c r="D31" s="297"/>
-      <c r="E31" s="297"/>
-      <c r="F31" s="297"/>
-      <c r="G31" s="297"/>
-      <c r="H31" s="298"/>
+      <c r="B31" s="296"/>
+      <c r="C31" s="296"/>
+      <c r="D31" s="296"/>
+      <c r="E31" s="296"/>
+      <c r="F31" s="296"/>
+      <c r="G31" s="296"/>
+      <c r="H31" s="297"/>
     </row>
     <row r="32" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="296"/>
-      <c r="B32" s="297"/>
-      <c r="C32" s="297"/>
-      <c r="D32" s="297"/>
-      <c r="E32" s="297"/>
-      <c r="F32" s="297"/>
-      <c r="G32" s="297"/>
-      <c r="H32" s="298"/>
+      <c r="A32" s="295"/>
+      <c r="B32" s="296"/>
+      <c r="C32" s="296"/>
+      <c r="D32" s="296"/>
+      <c r="E32" s="296"/>
+      <c r="F32" s="296"/>
+      <c r="G32" s="296"/>
+      <c r="H32" s="297"/>
     </row>
     <row r="33" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="296"/>
-      <c r="B33" s="297"/>
-      <c r="C33" s="297"/>
-      <c r="D33" s="297"/>
-      <c r="E33" s="297"/>
-      <c r="F33" s="297"/>
-      <c r="G33" s="297"/>
-      <c r="H33" s="298"/>
+      <c r="A33" s="295"/>
+      <c r="B33" s="296"/>
+      <c r="C33" s="296"/>
+      <c r="D33" s="296"/>
+      <c r="E33" s="296"/>
+      <c r="F33" s="296"/>
+      <c r="G33" s="296"/>
+      <c r="H33" s="297"/>
     </row>
     <row r="34" spans="1:8" s="113" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="299"/>
-      <c r="B34" s="300"/>
-      <c r="C34" s="300"/>
-      <c r="D34" s="300"/>
-      <c r="E34" s="300"/>
-      <c r="F34" s="300"/>
-      <c r="G34" s="300"/>
-      <c r="H34" s="301"/>
+      <c r="A34" s="298"/>
+      <c r="B34" s="299"/>
+      <c r="C34" s="299"/>
+      <c r="D34" s="299"/>
+      <c r="E34" s="299"/>
+      <c r="F34" s="299"/>
+      <c r="G34" s="299"/>
+      <c r="H34" s="300"/>
     </row>
     <row r="35" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:8" s="113" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="305" t="s">
+      <c r="A36" s="304" t="s">
         <v>285</v>
       </c>
-      <c r="B36" s="305"/>
-      <c r="C36" s="305"/>
-      <c r="D36" s="305"/>
-      <c r="E36" s="305"/>
-      <c r="F36" s="305"/>
-      <c r="G36" s="305"/>
+      <c r="B36" s="304"/>
+      <c r="C36" s="304"/>
+      <c r="D36" s="304"/>
+      <c r="E36" s="304"/>
+      <c r="F36" s="304"/>
+      <c r="G36" s="304"/>
     </row>
     <row r="37" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
@@ -8131,12 +8038,12 @@
       <c r="C37" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="D37" s="265" t="s">
+      <c r="D37" s="264" t="s">
         <v>288</v>
       </c>
-      <c r="E37" s="265"/>
-      <c r="F37" s="265"/>
-      <c r="G37" s="265"/>
+      <c r="E37" s="264"/>
+      <c r="F37" s="264"/>
+      <c r="G37" s="264"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -8146,7 +8053,7 @@
         <v>290</v>
       </c>
       <c r="C38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D38" s="174" t="s">
         <v>348</v>
@@ -8160,7 +8067,7 @@
         <v>315</v>
       </c>
       <c r="C39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D39" s="187" t="s">
         <v>312</v>
@@ -8174,7 +8081,7 @@
         <v>316</v>
       </c>
       <c r="C40" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D40" s="174" t="s">
         <v>313</v>
@@ -8188,7 +8095,7 @@
         <v>317</v>
       </c>
       <c r="C41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D41" s="174" t="s">
         <v>335</v>
@@ -8202,7 +8109,7 @@
         <v>318</v>
       </c>
       <c r="C42" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D42" s="177" t="s">
         <v>314</v>
@@ -8216,7 +8123,7 @@
         <v>291</v>
       </c>
       <c r="C43" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D43" s="187" t="s">
         <v>350</v>
@@ -8230,7 +8137,7 @@
         <v>352</v>
       </c>
       <c r="C44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D44" s="187" t="s">
         <v>353</v>
@@ -8244,10 +8151,10 @@
         <v>352</v>
       </c>
       <c r="C45" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D45" s="187" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -8258,7 +8165,7 @@
         <v>352</v>
       </c>
       <c r="C46" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D46" s="187" t="s">
         <v>354</v>
@@ -8272,7 +8179,7 @@
         <v>352</v>
       </c>
       <c r="C47" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D47" s="187" t="s">
         <v>355</v>
@@ -8283,13 +8190,13 @@
         <v>311</v>
       </c>
       <c r="B48" t="s">
+        <v>437</v>
+      </c>
+      <c r="C48" t="s">
+        <v>436</v>
+      </c>
+      <c r="D48" s="177" t="s">
         <v>438</v>
-      </c>
-      <c r="C48" t="s">
-        <v>437</v>
-      </c>
-      <c r="D48" s="177" t="s">
-        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -8373,23 +8280,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="312" t="s">
+      <c r="A1" s="306" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="312"/>
-      <c r="O1" s="312"/>
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
+      <c r="N1" s="306"/>
+      <c r="O1" s="306"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
@@ -8397,26 +8304,26 @@
       <c r="A2" s="196" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="313" t="s">
+      <c r="B2" s="309" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313" t="s">
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
+      <c r="E2" s="309"/>
+      <c r="F2" s="309"/>
+      <c r="G2" s="309" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
-      <c r="L2" s="313"/>
-      <c r="M2" s="308" t="s">
+      <c r="H2" s="309"/>
+      <c r="I2" s="309"/>
+      <c r="J2" s="309"/>
+      <c r="K2" s="309"/>
+      <c r="L2" s="309"/>
+      <c r="M2" s="313" t="s">
         <v>272</v>
       </c>
-      <c r="N2" s="308"/>
-      <c r="O2" s="308"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="313"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
@@ -8424,21 +8331,21 @@
       <c r="A3" s="195" t="s">
         <v>334</v>
       </c>
-      <c r="B3" s="314" t="s">
+      <c r="B3" s="311" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="314"/>
-      <c r="D3" s="314"/>
-      <c r="E3" s="314"/>
-      <c r="F3" s="314"/>
-      <c r="G3" s="314" t="s">
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
+      <c r="F3" s="311"/>
+      <c r="G3" s="311" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="314"/>
-      <c r="I3" s="314"/>
-      <c r="J3" s="314"/>
-      <c r="K3" s="314"/>
-      <c r="L3" s="314"/>
+      <c r="H3" s="311"/>
+      <c r="I3" s="311"/>
+      <c r="J3" s="311"/>
+      <c r="K3" s="311"/>
+      <c r="L3" s="311"/>
       <c r="M3" s="195" t="s">
         <v>277</v>
       </c>
@@ -8454,25 +8361,25 @@
       <c r="A4" s="198">
         <v>8</v>
       </c>
-      <c r="B4" s="306" t="s">
+      <c r="B4" s="310" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306" t="s">
+      <c r="C4" s="310"/>
+      <c r="D4" s="310" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="306"/>
-      <c r="F4" s="306"/>
-      <c r="G4" s="306" t="s">
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310" t="s">
         <v>222</v>
       </c>
-      <c r="H4" s="306"/>
-      <c r="I4" s="306"/>
-      <c r="J4" s="306" t="s">
+      <c r="H4" s="310"/>
+      <c r="I4" s="310"/>
+      <c r="J4" s="310" t="s">
         <v>280</v>
       </c>
-      <c r="K4" s="306"/>
-      <c r="L4" s="306"/>
+      <c r="K4" s="310"/>
+      <c r="L4" s="310"/>
       <c r="M4" s="166" t="s">
         <v>154</v>
       </c>
@@ -8485,103 +8392,103 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="185"/>
-      <c r="B5" s="332" t="s">
+      <c r="B5" s="307" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="333"/>
-      <c r="D5" s="332" t="s">
+      <c r="C5" s="308"/>
+      <c r="D5" s="307" t="s">
         <v>264</v>
       </c>
-      <c r="E5" s="334"/>
-      <c r="F5" s="333"/>
-      <c r="G5" s="332" t="s">
+      <c r="E5" s="312"/>
+      <c r="F5" s="308"/>
+      <c r="G5" s="307" t="s">
         <v>261</v>
       </c>
-      <c r="H5" s="334"/>
-      <c r="I5" s="333"/>
-      <c r="J5" s="332" t="s">
+      <c r="H5" s="312"/>
+      <c r="I5" s="308"/>
+      <c r="J5" s="307" t="s">
         <v>278</v>
       </c>
-      <c r="K5" s="334"/>
-      <c r="L5" s="333"/>
-      <c r="M5" s="220"/>
-      <c r="N5" s="220" t="s">
+      <c r="K5" s="312"/>
+      <c r="L5" s="308"/>
+      <c r="M5" s="218"/>
+      <c r="N5" s="218" t="s">
         <v>147</v>
       </c>
-      <c r="O5" s="335" t="s">
-        <v>485</v>
+      <c r="O5" s="219" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="185"/>
-      <c r="B6" s="332" t="s">
+      <c r="B6" s="307" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="333"/>
-      <c r="D6" s="307" t="s">
+      <c r="C6" s="308"/>
+      <c r="D6" s="305" t="s">
         <v>265</v>
       </c>
-      <c r="E6" s="307"/>
-      <c r="F6" s="307"/>
-      <c r="G6" s="307"/>
-      <c r="H6" s="307"/>
-      <c r="I6" s="307"/>
-      <c r="J6" s="307"/>
-      <c r="K6" s="307"/>
-      <c r="L6" s="307"/>
-      <c r="M6" s="220"/>
-      <c r="N6" s="220"/>
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="218"/>
+      <c r="N6" s="218"/>
       <c r="O6" s="164"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="185"/>
-      <c r="B7" s="307"/>
-      <c r="C7" s="307"/>
-      <c r="D7" s="307"/>
-      <c r="E7" s="307"/>
-      <c r="F7" s="307"/>
-      <c r="G7" s="307"/>
-      <c r="H7" s="307"/>
-      <c r="I7" s="307"/>
-      <c r="J7" s="307"/>
-      <c r="K7" s="307"/>
-      <c r="L7" s="307"/>
+      <c r="B7" s="305"/>
+      <c r="C7" s="305"/>
+      <c r="D7" s="305"/>
+      <c r="E7" s="305"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="305"/>
+      <c r="H7" s="305"/>
+      <c r="I7" s="305"/>
+      <c r="J7" s="305"/>
+      <c r="K7" s="305"/>
+      <c r="L7" s="305"/>
       <c r="M7" s="194"/>
       <c r="N7" s="194"/>
       <c r="O7" s="164"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="185"/>
-      <c r="B8" s="307"/>
-      <c r="C8" s="307"/>
-      <c r="D8" s="307" t="s">
+      <c r="B8" s="305"/>
+      <c r="C8" s="305"/>
+      <c r="D8" s="305" t="s">
         <v>245</v>
       </c>
-      <c r="E8" s="307"/>
-      <c r="F8" s="307"/>
-      <c r="G8" s="307"/>
-      <c r="H8" s="307"/>
-      <c r="I8" s="307"/>
-      <c r="J8" s="307"/>
-      <c r="K8" s="307"/>
-      <c r="L8" s="307"/>
+      <c r="E8" s="305"/>
+      <c r="F8" s="305"/>
+      <c r="G8" s="305"/>
+      <c r="H8" s="305"/>
+      <c r="I8" s="305"/>
+      <c r="J8" s="305"/>
+      <c r="K8" s="305"/>
+      <c r="L8" s="305"/>
       <c r="M8" s="194"/>
       <c r="N8" s="194"/>
       <c r="O8" s="164"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="309" t="s">
+      <c r="A10" s="314" t="s">
         <v>332</v>
       </c>
-      <c r="B10" s="310"/>
-      <c r="C10" s="310"/>
-      <c r="D10" s="310"/>
-      <c r="E10" s="310"/>
-      <c r="F10" s="310"/>
-      <c r="G10" s="310"/>
-      <c r="H10" s="310"/>
-      <c r="I10" s="311"/>
+      <c r="B10" s="315"/>
+      <c r="C10" s="315"/>
+      <c r="D10" s="315"/>
+      <c r="E10" s="315"/>
+      <c r="F10" s="315"/>
+      <c r="G10" s="315"/>
+      <c r="H10" s="315"/>
+      <c r="I10" s="316"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
@@ -8664,69 +8571,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="293" t="s">
+      <c r="A15" s="292" t="s">
         <v>256</v>
       </c>
-      <c r="B15" s="294"/>
-      <c r="C15" s="294"/>
-      <c r="D15" s="294"/>
-      <c r="E15" s="294"/>
-      <c r="F15" s="294"/>
-      <c r="G15" s="294"/>
-      <c r="H15" s="295"/>
+      <c r="B15" s="293"/>
+      <c r="C15" s="293"/>
+      <c r="D15" s="293"/>
+      <c r="E15" s="293"/>
+      <c r="F15" s="293"/>
+      <c r="G15" s="293"/>
+      <c r="H15" s="294"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="296" t="s">
+      <c r="A16" s="295" t="s">
         <v>342</v>
       </c>
-      <c r="B16" s="297"/>
-      <c r="C16" s="297"/>
-      <c r="D16" s="297"/>
-      <c r="E16" s="297"/>
-      <c r="F16" s="297"/>
-      <c r="G16" s="297"/>
-      <c r="H16" s="298"/>
+      <c r="B16" s="296"/>
+      <c r="C16" s="296"/>
+      <c r="D16" s="296"/>
+      <c r="E16" s="296"/>
+      <c r="F16" s="296"/>
+      <c r="G16" s="296"/>
+      <c r="H16" s="297"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="296"/>
-      <c r="B17" s="297"/>
-      <c r="C17" s="297"/>
-      <c r="D17" s="297"/>
-      <c r="E17" s="297"/>
-      <c r="F17" s="297"/>
-      <c r="G17" s="297"/>
-      <c r="H17" s="298"/>
+      <c r="A17" s="295"/>
+      <c r="B17" s="296"/>
+      <c r="C17" s="296"/>
+      <c r="D17" s="296"/>
+      <c r="E17" s="296"/>
+      <c r="F17" s="296"/>
+      <c r="G17" s="296"/>
+      <c r="H17" s="297"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="296"/>
-      <c r="B18" s="297"/>
-      <c r="C18" s="297"/>
-      <c r="D18" s="297"/>
-      <c r="E18" s="297"/>
-      <c r="F18" s="297"/>
-      <c r="G18" s="297"/>
-      <c r="H18" s="298"/>
+      <c r="A18" s="295"/>
+      <c r="B18" s="296"/>
+      <c r="C18" s="296"/>
+      <c r="D18" s="296"/>
+      <c r="E18" s="296"/>
+      <c r="F18" s="296"/>
+      <c r="G18" s="296"/>
+      <c r="H18" s="297"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="299"/>
-      <c r="B19" s="300"/>
-      <c r="C19" s="300"/>
-      <c r="D19" s="300"/>
-      <c r="E19" s="300"/>
-      <c r="F19" s="300"/>
-      <c r="G19" s="300"/>
-      <c r="H19" s="301"/>
+      <c r="A19" s="298"/>
+      <c r="B19" s="299"/>
+      <c r="C19" s="299"/>
+      <c r="D19" s="299"/>
+      <c r="E19" s="299"/>
+      <c r="F19" s="299"/>
+      <c r="G19" s="299"/>
+      <c r="H19" s="300"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="305" t="s">
+      <c r="A21" s="304" t="s">
         <v>285</v>
       </c>
-      <c r="B21" s="305"/>
-      <c r="C21" s="305"/>
-      <c r="D21" s="305"/>
-      <c r="E21" s="305"/>
-      <c r="F21" s="305"/>
-      <c r="G21" s="305"/>
+      <c r="B21" s="304"/>
+      <c r="C21" s="304"/>
+      <c r="D21" s="304"/>
+      <c r="E21" s="304"/>
+      <c r="F21" s="304"/>
+      <c r="G21" s="304"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -8738,12 +8645,12 @@
       <c r="C22" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="265" t="s">
+      <c r="D22" s="264" t="s">
         <v>288</v>
       </c>
-      <c r="E22" s="265"/>
-      <c r="F22" s="265"/>
-      <c r="G22" s="265"/>
+      <c r="E22" s="264"/>
+      <c r="F22" s="264"/>
+      <c r="G22" s="264"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8753,7 +8660,7 @@
         <v>290</v>
       </c>
       <c r="C23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D23" s="174" t="s">
         <v>348</v>
@@ -8767,7 +8674,7 @@
         <v>315</v>
       </c>
       <c r="C24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D24" s="187" t="s">
         <v>312</v>
@@ -8781,7 +8688,7 @@
         <v>316</v>
       </c>
       <c r="C25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D25" s="174" t="s">
         <v>313</v>
@@ -8795,7 +8702,7 @@
         <v>317</v>
       </c>
       <c r="C26" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D26" s="174" t="s">
         <v>335</v>
@@ -8809,7 +8716,7 @@
         <v>318</v>
       </c>
       <c r="C27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D27" s="177" t="s">
         <v>314</v>
@@ -8823,7 +8730,7 @@
         <v>291</v>
       </c>
       <c r="C28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D28" s="187" t="s">
         <v>367</v>
@@ -8837,7 +8744,7 @@
         <v>291</v>
       </c>
       <c r="C29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D29" s="187" t="s">
         <v>366</v>
@@ -8851,7 +8758,7 @@
         <v>291</v>
       </c>
       <c r="C30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D30" s="187" t="s">
         <v>368</v>
@@ -8865,7 +8772,7 @@
         <v>291</v>
       </c>
       <c r="C31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D31" s="187" t="s">
         <v>321</v>
@@ -8879,7 +8786,7 @@
         <v>291</v>
       </c>
       <c r="C32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D32" s="187" t="s">
         <v>369</v>
@@ -8893,7 +8800,7 @@
         <v>319</v>
       </c>
       <c r="C33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D33" s="187" t="s">
         <v>370</v>
@@ -8907,7 +8814,7 @@
         <v>357</v>
       </c>
       <c r="C34" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D34" s="174" t="s">
         <v>371</v>
@@ -8921,7 +8828,7 @@
         <v>363</v>
       </c>
       <c r="C35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D35" s="174" t="s">
         <v>372</v>
@@ -8935,7 +8842,7 @@
         <v>363</v>
       </c>
       <c r="C36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D36" s="174" t="s">
         <v>373</v>
@@ -8949,7 +8856,7 @@
         <v>363</v>
       </c>
       <c r="C37" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D37" s="174" t="s">
         <v>374</v>
@@ -8963,7 +8870,7 @@
         <v>363</v>
       </c>
       <c r="C38" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D38" s="174" t="s">
         <v>375</v>
@@ -8977,7 +8884,7 @@
         <v>363</v>
       </c>
       <c r="C39" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D39" s="174" t="s">
         <v>376</v>
@@ -8991,7 +8898,7 @@
         <v>363</v>
       </c>
       <c r="C40" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D40" s="174" t="s">
         <v>377</v>
@@ -9005,10 +8912,10 @@
         <v>363</v>
       </c>
       <c r="C41" t="s">
+        <v>422</v>
+      </c>
+      <c r="D41" s="174" t="s">
         <v>423</v>
-      </c>
-      <c r="D41" s="174" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -9019,7 +8926,7 @@
         <v>363</v>
       </c>
       <c r="C42" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D42" s="174" t="s">
         <v>378</v>
@@ -9033,10 +8940,10 @@
         <v>363</v>
       </c>
       <c r="C43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D43" s="174" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -9047,7 +8954,7 @@
         <v>363</v>
       </c>
       <c r="C44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D44" s="174" t="s">
         <v>378</v>
@@ -9061,10 +8968,10 @@
         <v>363</v>
       </c>
       <c r="C45" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D45" s="174" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -9075,10 +8982,10 @@
         <v>363</v>
       </c>
       <c r="C46" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D46" s="174" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -9089,10 +8996,10 @@
         <v>363</v>
       </c>
       <c r="C47" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D47" s="174" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -9103,10 +9010,10 @@
         <v>363</v>
       </c>
       <c r="C48" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D48" s="174" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -9117,10 +9024,10 @@
         <v>363</v>
       </c>
       <c r="C49" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D49" s="174" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -9131,10 +9038,10 @@
         <v>363</v>
       </c>
       <c r="C50" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D50" s="174" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -9145,10 +9052,10 @@
         <v>363</v>
       </c>
       <c r="C51" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D51" s="174" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -9159,7 +9066,7 @@
         <v>319</v>
       </c>
       <c r="C52" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D52" s="187" t="s">
         <v>370</v>
@@ -9173,7 +9080,7 @@
         <v>357</v>
       </c>
       <c r="C53" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D53" s="174" t="s">
         <v>379</v>
@@ -9181,12 +9088,15 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -9203,15 +9113,12 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9303,68 +9210,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="312" t="s">
+      <c r="A1" s="306" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="312"/>
-      <c r="O1" s="312"/>
-      <c r="P1" s="312"/>
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
+      <c r="N1" s="306"/>
+      <c r="O1" s="306"/>
+      <c r="P1" s="306"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="313" t="s">
+      <c r="A2" s="309" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313" t="s">
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
+      <c r="E2" s="309"/>
+      <c r="F2" s="309"/>
+      <c r="G2" s="309" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
-      <c r="L2" s="313"/>
-      <c r="M2" s="308" t="s">
+      <c r="H2" s="309"/>
+      <c r="I2" s="309"/>
+      <c r="J2" s="309"/>
+      <c r="K2" s="309"/>
+      <c r="L2" s="309"/>
+      <c r="M2" s="313" t="s">
         <v>270</v>
       </c>
-      <c r="N2" s="308"/>
-      <c r="O2" s="308"/>
-      <c r="P2" s="308"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="313"/>
+      <c r="P2" s="313"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="311" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="314"/>
-      <c r="C3" s="314"/>
-      <c r="D3" s="314"/>
-      <c r="E3" s="314"/>
-      <c r="F3" s="314"/>
-      <c r="G3" s="314" t="s">
+      <c r="B3" s="311"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
+      <c r="F3" s="311"/>
+      <c r="G3" s="311" t="s">
         <v>273</v>
       </c>
-      <c r="H3" s="314"/>
-      <c r="I3" s="314"/>
-      <c r="J3" s="314"/>
-      <c r="K3" s="314"/>
-      <c r="L3" s="314"/>
+      <c r="H3" s="311"/>
+      <c r="I3" s="311"/>
+      <c r="J3" s="311"/>
+      <c r="K3" s="311"/>
+      <c r="L3" s="311"/>
       <c r="M3" s="195" t="s">
         <v>276</v>
       </c>
@@ -9380,24 +9287,24 @@
       <c r="Q3" s="199"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="306" t="s">
+      <c r="A4" s="310" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="306"/>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306" t="s">
+      <c r="B4" s="310"/>
+      <c r="C4" s="310"/>
+      <c r="D4" s="310" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="306"/>
-      <c r="F4" s="306"/>
-      <c r="G4" s="306" t="s">
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="306"/>
-      <c r="I4" s="306"/>
-      <c r="J4" s="306"/>
-      <c r="K4" s="306"/>
-      <c r="L4" s="306"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="310"/>
+      <c r="J4" s="310"/>
+      <c r="K4" s="310"/>
+      <c r="L4" s="310"/>
       <c r="M4" s="166" t="s">
         <v>227</v>
       </c>
@@ -9412,20 +9319,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="307"/>
-      <c r="B5" s="307"/>
-      <c r="C5" s="307"/>
-      <c r="D5" s="307"/>
-      <c r="E5" s="307"/>
-      <c r="F5" s="307"/>
-      <c r="G5" s="315" t="s">
+      <c r="A5" s="305"/>
+      <c r="B5" s="305"/>
+      <c r="C5" s="305"/>
+      <c r="D5" s="305"/>
+      <c r="E5" s="305"/>
+      <c r="F5" s="305"/>
+      <c r="G5" s="317" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="315"/>
-      <c r="I5" s="315"/>
-      <c r="J5" s="315"/>
-      <c r="K5" s="315"/>
-      <c r="L5" s="315"/>
+      <c r="H5" s="317"/>
+      <c r="I5" s="317"/>
+      <c r="J5" s="317"/>
+      <c r="K5" s="317"/>
+      <c r="L5" s="317"/>
       <c r="M5" s="194" t="s">
         <v>267</v>
       </c>
@@ -9438,54 +9345,54 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="307"/>
-      <c r="B6" s="307"/>
-      <c r="C6" s="307"/>
-      <c r="D6" s="307"/>
-      <c r="E6" s="307"/>
-      <c r="F6" s="307"/>
-      <c r="G6" s="315"/>
-      <c r="H6" s="315"/>
-      <c r="I6" s="315"/>
-      <c r="J6" s="315"/>
-      <c r="K6" s="315"/>
-      <c r="L6" s="315"/>
+      <c r="A6" s="305"/>
+      <c r="B6" s="305"/>
+      <c r="C6" s="305"/>
+      <c r="D6" s="305"/>
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="317"/>
+      <c r="H6" s="317"/>
+      <c r="I6" s="317"/>
+      <c r="J6" s="317"/>
+      <c r="K6" s="317"/>
+      <c r="L6" s="317"/>
       <c r="M6" s="194"/>
       <c r="N6" s="194"/>
       <c r="O6" s="194"/>
       <c r="P6" s="167"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="307"/>
-      <c r="B7" s="307"/>
-      <c r="C7" s="307"/>
-      <c r="D7" s="307"/>
-      <c r="E7" s="307"/>
-      <c r="F7" s="307"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="315"/>
-      <c r="J7" s="315"/>
-      <c r="K7" s="315"/>
-      <c r="L7" s="315"/>
+      <c r="A7" s="305"/>
+      <c r="B7" s="305"/>
+      <c r="C7" s="305"/>
+      <c r="D7" s="305"/>
+      <c r="E7" s="305"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="317"/>
+      <c r="H7" s="317"/>
+      <c r="I7" s="317"/>
+      <c r="J7" s="317"/>
+      <c r="K7" s="317"/>
+      <c r="L7" s="317"/>
       <c r="M7" s="194"/>
       <c r="N7" s="194"/>
       <c r="O7" s="194"/>
       <c r="P7" s="165"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="307"/>
-      <c r="B8" s="307"/>
-      <c r="C8" s="307"/>
-      <c r="D8" s="307"/>
-      <c r="E8" s="307"/>
-      <c r="F8" s="307"/>
-      <c r="G8" s="315"/>
-      <c r="H8" s="315"/>
-      <c r="I8" s="315"/>
-      <c r="J8" s="315"/>
-      <c r="K8" s="315"/>
-      <c r="L8" s="315"/>
+      <c r="A8" s="305"/>
+      <c r="B8" s="305"/>
+      <c r="C8" s="305"/>
+      <c r="D8" s="305"/>
+      <c r="E8" s="305"/>
+      <c r="F8" s="305"/>
+      <c r="G8" s="317"/>
+      <c r="H8" s="317"/>
+      <c r="I8" s="317"/>
+      <c r="J8" s="317"/>
+      <c r="K8" s="317"/>
+      <c r="L8" s="317"/>
       <c r="M8" s="194"/>
       <c r="N8" s="194"/>
       <c r="O8" s="194"/>
@@ -9493,17 +9400,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="309" t="s">
+      <c r="A10" s="314" t="s">
         <v>331</v>
       </c>
-      <c r="B10" s="310"/>
-      <c r="C10" s="310"/>
-      <c r="D10" s="310"/>
-      <c r="E10" s="310"/>
-      <c r="F10" s="310"/>
-      <c r="G10" s="310"/>
-      <c r="H10" s="310"/>
-      <c r="I10" s="311"/>
+      <c r="B10" s="315"/>
+      <c r="C10" s="315"/>
+      <c r="D10" s="315"/>
+      <c r="E10" s="315"/>
+      <c r="F10" s="315"/>
+      <c r="G10" s="315"/>
+      <c r="H10" s="315"/>
+      <c r="I10" s="316"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
@@ -9585,69 +9492,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="293" t="s">
+      <c r="A15" s="292" t="s">
         <v>256</v>
       </c>
-      <c r="B15" s="294"/>
-      <c r="C15" s="294"/>
-      <c r="D15" s="294"/>
-      <c r="E15" s="294"/>
-      <c r="F15" s="294"/>
-      <c r="G15" s="294"/>
-      <c r="H15" s="295"/>
+      <c r="B15" s="293"/>
+      <c r="C15" s="293"/>
+      <c r="D15" s="293"/>
+      <c r="E15" s="293"/>
+      <c r="F15" s="293"/>
+      <c r="G15" s="293"/>
+      <c r="H15" s="294"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="296" t="s">
+      <c r="A16" s="295" t="s">
         <v>343</v>
       </c>
-      <c r="B16" s="297"/>
-      <c r="C16" s="297"/>
-      <c r="D16" s="297"/>
-      <c r="E16" s="297"/>
-      <c r="F16" s="297"/>
-      <c r="G16" s="297"/>
-      <c r="H16" s="298"/>
+      <c r="B16" s="296"/>
+      <c r="C16" s="296"/>
+      <c r="D16" s="296"/>
+      <c r="E16" s="296"/>
+      <c r="F16" s="296"/>
+      <c r="G16" s="296"/>
+      <c r="H16" s="297"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="296"/>
-      <c r="B17" s="297"/>
-      <c r="C17" s="297"/>
-      <c r="D17" s="297"/>
-      <c r="E17" s="297"/>
-      <c r="F17" s="297"/>
-      <c r="G17" s="297"/>
-      <c r="H17" s="298"/>
+      <c r="A17" s="295"/>
+      <c r="B17" s="296"/>
+      <c r="C17" s="296"/>
+      <c r="D17" s="296"/>
+      <c r="E17" s="296"/>
+      <c r="F17" s="296"/>
+      <c r="G17" s="296"/>
+      <c r="H17" s="297"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="296"/>
-      <c r="B18" s="297"/>
-      <c r="C18" s="297"/>
-      <c r="D18" s="297"/>
-      <c r="E18" s="297"/>
-      <c r="F18" s="297"/>
-      <c r="G18" s="297"/>
-      <c r="H18" s="298"/>
+      <c r="A18" s="295"/>
+      <c r="B18" s="296"/>
+      <c r="C18" s="296"/>
+      <c r="D18" s="296"/>
+      <c r="E18" s="296"/>
+      <c r="F18" s="296"/>
+      <c r="G18" s="296"/>
+      <c r="H18" s="297"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="299"/>
-      <c r="B19" s="300"/>
-      <c r="C19" s="300"/>
-      <c r="D19" s="300"/>
-      <c r="E19" s="300"/>
-      <c r="F19" s="300"/>
-      <c r="G19" s="300"/>
-      <c r="H19" s="301"/>
+      <c r="A19" s="298"/>
+      <c r="B19" s="299"/>
+      <c r="C19" s="299"/>
+      <c r="D19" s="299"/>
+      <c r="E19" s="299"/>
+      <c r="F19" s="299"/>
+      <c r="G19" s="299"/>
+      <c r="H19" s="300"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="305" t="s">
+      <c r="A21" s="304" t="s">
         <v>285</v>
       </c>
-      <c r="B21" s="305"/>
-      <c r="C21" s="305"/>
-      <c r="D21" s="305"/>
-      <c r="E21" s="305"/>
-      <c r="F21" s="305"/>
-      <c r="G21" s="305"/>
+      <c r="B21" s="304"/>
+      <c r="C21" s="304"/>
+      <c r="D21" s="304"/>
+      <c r="E21" s="304"/>
+      <c r="F21" s="304"/>
+      <c r="G21" s="304"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -9659,12 +9566,12 @@
       <c r="C22" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="265" t="s">
+      <c r="D22" s="264" t="s">
         <v>288</v>
       </c>
-      <c r="E22" s="265"/>
-      <c r="F22" s="265"/>
-      <c r="G22" s="265"/>
+      <c r="E22" s="264"/>
+      <c r="F22" s="264"/>
+      <c r="G22" s="264"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9674,7 +9581,7 @@
         <v>290</v>
       </c>
       <c r="C23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D23" s="174" t="s">
         <v>348</v>
@@ -9688,7 +9595,7 @@
         <v>315</v>
       </c>
       <c r="C24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D24" s="187" t="s">
         <v>312</v>
@@ -9702,7 +9609,7 @@
         <v>316</v>
       </c>
       <c r="C25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D25" s="174" t="s">
         <v>313</v>
@@ -9716,7 +9623,7 @@
         <v>317</v>
       </c>
       <c r="C26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D26" s="174" t="s">
         <v>335</v>
@@ -9730,7 +9637,7 @@
         <v>318</v>
       </c>
       <c r="C27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D27" s="177" t="s">
         <v>314</v>
@@ -9744,7 +9651,7 @@
         <v>291</v>
       </c>
       <c r="C28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D28" s="187" t="s">
         <v>380</v>
@@ -9758,7 +9665,7 @@
         <v>291</v>
       </c>
       <c r="C29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D29" s="187" t="s">
         <v>366</v>
@@ -9772,7 +9679,7 @@
         <v>291</v>
       </c>
       <c r="C30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D30" s="187" t="s">
         <v>381</v>
@@ -9786,7 +9693,7 @@
         <v>291</v>
       </c>
       <c r="C31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D31" s="187" t="s">
         <v>323</v>
@@ -9800,7 +9707,7 @@
         <v>319</v>
       </c>
       <c r="C32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D32" s="187" t="s">
         <v>324</v>
@@ -9814,7 +9721,7 @@
         <v>357</v>
       </c>
       <c r="C33" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D33" s="174" t="s">
         <v>382</v>
@@ -9828,7 +9735,7 @@
         <v>326</v>
       </c>
       <c r="C34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D34" s="187" t="s">
         <v>327</v>
@@ -9836,6 +9743,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9852,16 +9769,6 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9928,7 +9835,7 @@
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9943,12 +9850,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="316" t="s">
+      <c r="A1" s="318" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="317"/>
-      <c r="C1" s="317"/>
-      <c r="D1" s="318"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="320"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -10031,25 +9938,25 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="217" t="s">
+      <c r="A7" s="215" t="s">
+        <v>462</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="C7" s="218"/>
+      <c r="C7" s="216"/>
       <c r="D7" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="217" t="s">
+      <c r="A8" s="215" t="s">
+        <v>464</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="C8" s="218"/>
+      <c r="C8" s="216"/>
       <c r="D8" s="24">
         <v>1</v>
       </c>
@@ -10709,23 +10616,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="322" t="s">
+      <c r="A1" s="324" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="323"/>
-      <c r="C1" s="323"/>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323"/>
-      <c r="N1" s="323"/>
-      <c r="O1" s="323"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -10743,17 +10650,17 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="319" t="s">
+      <c r="B3" s="321" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
-      <c r="F3" s="320"/>
-      <c r="G3" s="320"/>
-      <c r="H3" s="320"/>
-      <c r="I3" s="320"/>
-      <c r="J3" s="321"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="323"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="37"/>
@@ -10944,21 +10851,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="319" t="s">
+      <c r="B19" s="321" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="320"/>
-      <c r="D19" s="320"/>
-      <c r="E19" s="320"/>
-      <c r="F19" s="320"/>
-      <c r="G19" s="320"/>
-      <c r="H19" s="320"/>
-      <c r="I19" s="320"/>
-      <c r="J19" s="320"/>
-      <c r="K19" s="320"/>
-      <c r="L19" s="320"/>
-      <c r="M19" s="320"/>
-      <c r="N19" s="321"/>
+      <c r="C19" s="322"/>
+      <c r="D19" s="322"/>
+      <c r="E19" s="322"/>
+      <c r="F19" s="322"/>
+      <c r="G19" s="322"/>
+      <c r="H19" s="322"/>
+      <c r="I19" s="322"/>
+      <c r="J19" s="322"/>
+      <c r="K19" s="322"/>
+      <c r="L19" s="322"/>
+      <c r="M19" s="322"/>
+      <c r="N19" s="323"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
@@ -11160,27 +11067,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="329" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="328"/>
-      <c r="C1" s="328"/>
-      <c r="D1" s="328"/>
-      <c r="E1" s="328"/>
-      <c r="F1" s="328"/>
-      <c r="G1" s="328"/>
-      <c r="H1" s="328"/>
-      <c r="I1" s="328"/>
-      <c r="J1" s="328"/>
-      <c r="K1" s="328"/>
-      <c r="L1" s="328"/>
-      <c r="M1" s="328"/>
-      <c r="N1" s="328"/>
-      <c r="O1" s="328"/>
-      <c r="P1" s="328"/>
-      <c r="Q1" s="328"/>
-      <c r="R1" s="328"/>
-      <c r="S1" s="328"/>
+      <c r="B1" s="330"/>
+      <c r="C1" s="330"/>
+      <c r="D1" s="330"/>
+      <c r="E1" s="330"/>
+      <c r="F1" s="330"/>
+      <c r="G1" s="330"/>
+      <c r="H1" s="330"/>
+      <c r="I1" s="330"/>
+      <c r="J1" s="330"/>
+      <c r="K1" s="330"/>
+      <c r="L1" s="330"/>
+      <c r="M1" s="330"/>
+      <c r="N1" s="330"/>
+      <c r="O1" s="330"/>
+      <c r="P1" s="330"/>
+      <c r="Q1" s="330"/>
+      <c r="R1" s="330"/>
+      <c r="S1" s="330"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -11194,26 +11101,26 @@
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="319" t="s">
+      <c r="B3" s="321" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
-      <c r="F3" s="320"/>
-      <c r="G3" s="320"/>
-      <c r="H3" s="320"/>
-      <c r="I3" s="320"/>
-      <c r="J3" s="321"/>
-      <c r="L3" s="324" t="s">
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="323"/>
+      <c r="L3" s="326" t="s">
         <v>196</v>
       </c>
-      <c r="M3" s="325"/>
-      <c r="N3" s="325"/>
-      <c r="O3" s="325"/>
-      <c r="P3" s="325"/>
-      <c r="Q3" s="325"/>
-      <c r="R3" s="326"/>
+      <c r="M3" s="327"/>
+      <c r="N3" s="327"/>
+      <c r="O3" s="327"/>
+      <c r="P3" s="327"/>
+      <c r="Q3" s="327"/>
+      <c r="R3" s="328"/>
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
     </row>
@@ -11444,23 +11351,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="329" t="s">
+      <c r="A1" s="331" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="330"/>
-      <c r="C1" s="330"/>
-      <c r="D1" s="330"/>
-      <c r="E1" s="330"/>
-      <c r="F1" s="330"/>
-      <c r="G1" s="330"/>
-      <c r="H1" s="330"/>
-      <c r="I1" s="330"/>
-      <c r="J1" s="330"/>
-      <c r="K1" s="330"/>
-      <c r="L1" s="330"/>
-      <c r="M1" s="330"/>
-      <c r="N1" s="330"/>
-      <c r="O1" s="331"/>
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="332"/>
+      <c r="N1" s="332"/>
+      <c r="O1" s="333"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11473,22 +11380,22 @@
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="319" t="s">
+      <c r="B3" s="321" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
-      <c r="F3" s="320"/>
-      <c r="G3" s="320"/>
-      <c r="H3" s="321"/>
-      <c r="J3" s="324" t="s">
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322"/>
+      <c r="H3" s="323"/>
+      <c r="J3" s="326" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="325"/>
-      <c r="L3" s="325"/>
-      <c r="M3" s="325"/>
-      <c r="N3" s="326"/>
+      <c r="K3" s="327"/>
+      <c r="L3" s="327"/>
+      <c r="M3" s="327"/>
+      <c r="N3" s="328"/>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
     </row>

--- a/test_templates/test_batch_template4.xlsx
+++ b/test_templates/test_batch_template4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="483">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -1662,30 +1662,6 @@
     <t xml:space="preserve">Note: Always leave an empty row between Comparisons/ Comparison Group(s) and preferences below. </t>
   </si>
   <si>
-    <t>End Row Number</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Required: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Input the bottom row number for "Comparison Group(s)" and "Comparisons"</t>
-    </r>
-  </si>
-  <si>
     <t>A skip is also green.</t>
   </si>
   <si>
@@ -2417,7 +2393,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2664,14 +2640,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3426,7 +3394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="334">
+  <cellXfs count="344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3934,13 +3902,10 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3965,14 +3930,8 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -4030,74 +3989,41 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4141,26 +4067,59 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4288,15 +4247,57 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4304,21 +4305,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4374,6 +4360,18 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5296,86 +5294,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="243" t="s">
-        <v>358</v>
-      </c>
-      <c r="B1" s="244"/>
-      <c r="C1" s="244"/>
-      <c r="D1" s="244"/>
-      <c r="E1" s="244"/>
-      <c r="F1" s="244"/>
-      <c r="G1" s="244"/>
-      <c r="H1" s="244"/>
-      <c r="I1" s="244"/>
-      <c r="J1" s="244"/>
-      <c r="K1" s="245"/>
+      <c r="A1" s="229" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" s="230"/>
+      <c r="C1" s="230"/>
+      <c r="D1" s="230"/>
+      <c r="E1" s="230"/>
+      <c r="F1" s="230"/>
+      <c r="G1" s="230"/>
+      <c r="H1" s="230"/>
+      <c r="I1" s="230"/>
+      <c r="J1" s="230"/>
+      <c r="K1" s="231"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="222" t="s">
+      <c r="A3" s="245" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="223"/>
+      <c r="B3" s="246"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="236" t="s">
+      <c r="A4" s="243" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="237"/>
+      <c r="B4" s="244"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="238" t="s">
+      <c r="A5" s="259" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="239"/>
+      <c r="B5" s="260"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="222" t="s">
+      <c r="A7" s="245" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="224"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="224"/>
-      <c r="F7" s="224"/>
-      <c r="G7" s="224"/>
-      <c r="H7" s="224"/>
-      <c r="I7" s="224"/>
-      <c r="J7" s="224"/>
-      <c r="K7" s="223"/>
+      <c r="B7" s="247"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="247"/>
+      <c r="I7" s="247"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="246"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="246" t="s">
+      <c r="A8" s="232" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="247"/>
-      <c r="C8" s="247"/>
-      <c r="D8" s="247"/>
-      <c r="E8" s="247"/>
-      <c r="F8" s="247"/>
-      <c r="G8" s="247"/>
-      <c r="H8" s="247"/>
-      <c r="I8" s="247"/>
-      <c r="J8" s="247"/>
-      <c r="K8" s="248"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="233"/>
+      <c r="F8" s="233"/>
+      <c r="G8" s="233"/>
+      <c r="H8" s="233"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="233"/>
+      <c r="K8" s="234"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="249"/>
-      <c r="B9" s="250"/>
-      <c r="C9" s="250"/>
-      <c r="D9" s="250"/>
-      <c r="E9" s="250"/>
-      <c r="F9" s="250"/>
-      <c r="G9" s="250"/>
-      <c r="H9" s="250"/>
-      <c r="I9" s="250"/>
-      <c r="J9" s="250"/>
-      <c r="K9" s="251"/>
+      <c r="A9" s="235"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="236"/>
+      <c r="G9" s="236"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="236"/>
+      <c r="K9" s="237"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="156"/>
@@ -5386,62 +5384,62 @@
       <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="225" t="s">
+      <c r="A11" s="248" t="s">
         <v>250</v>
       </c>
-      <c r="B11" s="226"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="227"/>
+      <c r="B11" s="249"/>
+      <c r="C11" s="249"/>
+      <c r="D11" s="250"/>
       <c r="E11" s="87"/>
       <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="228" t="s">
+      <c r="A12" s="251" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="229"/>
-      <c r="C12" s="230" t="s">
+      <c r="B12" s="252"/>
+      <c r="C12" s="253" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="231"/>
+      <c r="D12" s="254"/>
       <c r="E12" s="87"/>
       <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="232"/>
-      <c r="B13" s="233"/>
-      <c r="C13" s="234"/>
-      <c r="D13" s="235"/>
+      <c r="A13" s="255"/>
+      <c r="B13" s="256"/>
+      <c r="C13" s="257"/>
+      <c r="D13" s="258"/>
       <c r="E13" s="87"/>
       <c r="F13" s="142"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="225" t="s">
+      <c r="A15" s="248" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="227"/>
-      <c r="E15" s="225" t="s">
+      <c r="B15" s="250"/>
+      <c r="E15" s="248" t="s">
         <v>293</v>
       </c>
-      <c r="F15" s="226"/>
-      <c r="G15" s="226"/>
-      <c r="H15" s="226"/>
-      <c r="I15" s="227"/>
+      <c r="F15" s="249"/>
+      <c r="G15" s="249"/>
+      <c r="H15" s="249"/>
+      <c r="I15" s="250"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="236" t="s">
+      <c r="A16" s="243" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="237"/>
+      <c r="B16" s="244"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="252" t="s">
+      <c r="E16" s="238" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="253"/>
-      <c r="G16" s="253"/>
-      <c r="H16" s="253"/>
-      <c r="I16" s="254"/>
+      <c r="F16" s="239"/>
+      <c r="G16" s="239"/>
+      <c r="H16" s="239"/>
+      <c r="I16" s="240"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="157" t="s">
@@ -5451,18 +5449,18 @@
         <v>254</v>
       </c>
       <c r="C17" s="89"/>
-      <c r="E17" s="255" t="s">
+      <c r="E17" s="241" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="256"/>
-      <c r="G17" s="205" t="s">
+      <c r="F17" s="242"/>
+      <c r="G17" s="202" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="205" t="s">
+      <c r="H17" s="202" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="189" t="s">
-        <v>336</v>
+      <c r="I17" s="188" t="s">
+        <v>334</v>
       </c>
       <c r="J17" s="81"/>
     </row>
@@ -5484,8 +5482,8 @@
       <c r="H18" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="240" t="s">
-        <v>453</v>
+      <c r="I18" s="217" t="s">
+        <v>451</v>
       </c>
       <c r="J18" s="81"/>
     </row>
@@ -5507,7 +5505,7 @@
       <c r="H19" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="I19" s="240"/>
+      <c r="I19" s="217"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5524,7 +5522,7 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="241"/>
+      <c r="I20" s="218"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5546,32 +5544,32 @@
       <c r="A23" s="161"/>
       <c r="B23" s="92"/>
       <c r="C23" s="91"/>
-      <c r="E23" s="220" t="s">
+      <c r="E23" s="219" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="242"/>
-      <c r="G23" s="242"/>
-      <c r="H23" s="242"/>
+      <c r="F23" s="220"/>
+      <c r="G23" s="220"/>
+      <c r="H23" s="220"/>
       <c r="I23" s="221"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="220" t="s">
+      <c r="A24" s="219" t="s">
         <v>213</v>
       </c>
       <c r="B24" s="221"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="260" t="s">
+      <c r="E24" s="225" t="s">
         <v>208</v>
       </c>
-      <c r="F24" s="261"/>
-      <c r="G24" s="205" t="s">
+      <c r="F24" s="226"/>
+      <c r="G24" s="202" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="205" t="s">
+      <c r="H24" s="202" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="189" t="s">
-        <v>337</v>
+      <c r="I24" s="188" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5592,8 +5590,8 @@
       <c r="H25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="257" t="s">
-        <v>454</v>
+      <c r="I25" s="222" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -5616,7 +5614,7 @@
       <c r="H26" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="I26" s="258"/>
+      <c r="I26" s="223"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="159" t="s">
@@ -5632,7 +5630,7 @@
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="259"/>
+      <c r="I27" s="224"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="159" t="s">
@@ -5656,34 +5654,34 @@
       <c r="A30" s="160"/>
       <c r="B30" s="117"/>
       <c r="C30" s="89"/>
-      <c r="E30" s="220" t="s">
+      <c r="E30" s="219" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="242"/>
-      <c r="G30" s="242"/>
-      <c r="H30" s="242"/>
+      <c r="F30" s="220"/>
+      <c r="G30" s="220"/>
+      <c r="H30" s="220"/>
       <c r="I30" s="221"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="161"/>
       <c r="B31" s="91"/>
       <c r="C31" s="91"/>
-      <c r="E31" s="262" t="s">
-        <v>439</v>
-      </c>
-      <c r="F31" s="263"/>
-      <c r="G31" s="203" t="s">
+      <c r="E31" s="227" t="s">
+        <v>437</v>
+      </c>
+      <c r="F31" s="228"/>
+      <c r="G31" s="200" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="203" t="s">
+      <c r="H31" s="200" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="189" t="s">
-        <v>338</v>
+      <c r="I31" s="188" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="220" t="s">
+      <c r="A32" s="219" t="s">
         <v>214</v>
       </c>
       <c r="B32" s="221"/>
@@ -5696,7 +5694,7 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="240"/>
+      <c r="I32" s="217"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="157" t="s">
@@ -5716,7 +5714,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="240"/>
+      <c r="I33" s="217"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="158" t="s">
@@ -5731,7 +5729,7 @@
       <c r="F34" s="93"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="240"/>
+      <c r="I34" s="217"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="159" t="s">
@@ -5744,7 +5742,7 @@
       <c r="F35" s="93"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="240"/>
+      <c r="I35" s="217"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="159" t="s">
@@ -5757,7 +5755,7 @@
       <c r="F36" s="93"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="240"/>
+      <c r="I36" s="217"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="159" t="s">
@@ -5770,7 +5768,7 @@
       <c r="F37" s="140"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="241"/>
+      <c r="I37" s="218"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="160" t="s">
@@ -5783,25 +5781,25 @@
       <c r="B39" s="121"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="220" t="s">
+      <c r="E40" s="219" t="s">
         <v>187</v>
       </c>
-      <c r="F40" s="242"/>
-      <c r="G40" s="242"/>
-      <c r="H40" s="242"/>
+      <c r="F40" s="220"/>
+      <c r="G40" s="220"/>
+      <c r="H40" s="220"/>
       <c r="I40" s="221"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="260"/>
-      <c r="F41" s="261"/>
+      <c r="E41" s="225"/>
+      <c r="F41" s="226"/>
       <c r="G41" s="82" t="s">
         <v>159</v>
       </c>
       <c r="H41" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="189" t="s">
-        <v>339</v>
+      <c r="I41" s="188" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5811,7 +5809,7 @@
       <c r="F42" s="93"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="240"/>
+      <c r="I42" s="217"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="83">
@@ -5820,7 +5818,7 @@
       <c r="F43" s="93"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="240"/>
+      <c r="I43" s="217"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="83">
@@ -5829,7 +5827,7 @@
       <c r="F44" s="93"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="240"/>
+      <c r="I44" s="217"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="83">
@@ -5838,7 +5836,7 @@
       <c r="F45" s="93"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="240"/>
+      <c r="I45" s="217"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="83">
@@ -5847,7 +5845,7 @@
       <c r="F46" s="93"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="240"/>
+      <c r="I46" s="217"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="84">
@@ -5856,25 +5854,11 @@
       <c r="F47" s="140"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="241"/>
+      <c r="I47" s="218"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5890,6 +5874,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5903,8 +5901,8 @@
   </sheetPr>
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5929,32 +5927,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="268" t="s">
-        <v>359</v>
-      </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
-      <c r="J1" s="270"/>
+      <c r="A1" s="265" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="267"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="271" t="s">
+      <c r="A2" s="268" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="272"/>
-      <c r="J2" s="273"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="270"/>
       <c r="K2" s="79"/>
       <c r="L2" s="79"/>
       <c r="M2" s="75"/>
@@ -5968,13 +5966,13 @@
       <c r="B3" s="175" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="274" t="s">
+      <c r="C3" s="271" t="s">
         <v>266</v>
       </c>
-      <c r="D3" s="275"/>
-      <c r="E3" s="275"/>
-      <c r="F3" s="275"/>
-      <c r="G3" s="276"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="272"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="273"/>
       <c r="H3" s="175" t="s">
         <v>296</v>
       </c>
@@ -6018,8 +6016,8 @@
       <c r="I4" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="193" t="s">
-        <v>383</v>
+      <c r="J4" s="192" t="s">
+        <v>381</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -6028,8 +6026,8 @@
       <c r="A5" s="108">
         <v>1</v>
       </c>
-      <c r="B5" s="206" t="s">
-        <v>455</v>
+      <c r="B5" s="203" t="s">
+        <v>453</v>
       </c>
       <c r="C5" s="109">
         <v>0.1</v>
@@ -6044,14 +6042,14 @@
         <v>1</v>
       </c>
       <c r="I5" s="111" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J5" s="112"/>
-      <c r="K5" s="207" t="s">
-        <v>440</v>
-      </c>
-      <c r="L5" s="207" t="s">
-        <v>441</v>
+      <c r="K5" s="204" t="s">
+        <v>438</v>
+      </c>
+      <c r="L5" s="204" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6059,8 +6057,8 @@
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="206" t="s">
-        <v>457</v>
+      <c r="B6" s="203" t="s">
+        <v>455</v>
       </c>
       <c r="C6" s="109">
         <v>0.2</v>
@@ -6075,14 +6073,14 @@
         <v>1</v>
       </c>
       <c r="I6" s="111" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J6" s="112"/>
-      <c r="K6" s="207" t="s">
-        <v>442</v>
-      </c>
-      <c r="L6" s="207" t="s">
-        <v>443</v>
+      <c r="K6" s="204" t="s">
+        <v>440</v>
+      </c>
+      <c r="L6" s="204" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6090,8 +6088,8 @@
         <f t="shared" ref="A7:A22" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="206" t="s">
-        <v>459</v>
+      <c r="B7" s="203" t="s">
+        <v>457</v>
       </c>
       <c r="C7" s="109">
         <v>0.5</v>
@@ -6106,14 +6104,14 @@
         <v>1</v>
       </c>
       <c r="I7" s="111" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J7" s="112"/>
-      <c r="K7" s="207" t="s">
-        <v>444</v>
-      </c>
-      <c r="L7" s="207" t="s">
-        <v>445</v>
+      <c r="K7" s="204" t="s">
+        <v>442</v>
+      </c>
+      <c r="L7" s="204" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6121,8 +6119,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="217" t="s">
-        <v>466</v>
+      <c r="B8" s="214" t="s">
+        <v>464</v>
       </c>
       <c r="C8" s="109"/>
       <c r="D8" s="109" t="s">
@@ -6139,23 +6137,23 @@
         <v>1</v>
       </c>
       <c r="I8" s="111" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J8" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="207" t="s">
-        <v>480</v>
-      </c>
-      <c r="L8" s="207"/>
+      <c r="K8" s="204" t="s">
+        <v>478</v>
+      </c>
+      <c r="L8" s="204"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="108">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="217" t="s">
-        <v>467</v>
+      <c r="B9" s="214" t="s">
+        <v>465</v>
       </c>
       <c r="C9" s="109"/>
       <c r="D9" s="109" t="s">
@@ -6172,23 +6170,23 @@
         <v>1</v>
       </c>
       <c r="I9" s="111" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J9" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="207" t="s">
-        <v>481</v>
-      </c>
-      <c r="L9" s="207"/>
+      <c r="K9" s="204" t="s">
+        <v>479</v>
+      </c>
+      <c r="L9" s="204"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="108">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="217" t="s">
-        <v>468</v>
+      <c r="B10" s="214" t="s">
+        <v>466</v>
       </c>
       <c r="C10" s="109"/>
       <c r="D10" s="109" t="s">
@@ -6205,23 +6203,23 @@
         <v>1</v>
       </c>
       <c r="I10" s="111" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="J10" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="207" t="s">
-        <v>440</v>
-      </c>
-      <c r="L10" s="207"/>
+      <c r="K10" s="204" t="s">
+        <v>438</v>
+      </c>
+      <c r="L10" s="204"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="108">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="217" t="s">
-        <v>469</v>
+      <c r="B11" s="214" t="s">
+        <v>467</v>
       </c>
       <c r="C11" s="109"/>
       <c r="D11" s="109" t="s">
@@ -6238,23 +6236,23 @@
         <v>1</v>
       </c>
       <c r="I11" s="111" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="J11" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="207" t="s">
-        <v>441</v>
-      </c>
-      <c r="L11" s="207"/>
+      <c r="K11" s="204" t="s">
+        <v>439</v>
+      </c>
+      <c r="L11" s="204"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="108">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="217" t="s">
-        <v>470</v>
+      <c r="B12" s="214" t="s">
+        <v>468</v>
       </c>
       <c r="C12" s="109"/>
       <c r="D12" s="109" t="s">
@@ -6271,23 +6269,23 @@
         <v>1</v>
       </c>
       <c r="I12" s="111" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J12" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="207" t="s">
-        <v>482</v>
-      </c>
-      <c r="L12" s="207"/>
+      <c r="K12" s="204" t="s">
+        <v>480</v>
+      </c>
+      <c r="L12" s="204"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="108">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="217" t="s">
-        <v>471</v>
+      <c r="B13" s="214" t="s">
+        <v>469</v>
       </c>
       <c r="C13" s="109"/>
       <c r="D13" s="109" t="s">
@@ -6304,23 +6302,23 @@
         <v>1</v>
       </c>
       <c r="I13" s="111" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J13" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="207" t="s">
-        <v>483</v>
-      </c>
-      <c r="L13" s="207"/>
+      <c r="K13" s="204" t="s">
+        <v>481</v>
+      </c>
+      <c r="L13" s="204"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="108">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="217" t="s">
-        <v>472</v>
+      <c r="B14" s="214" t="s">
+        <v>470</v>
       </c>
       <c r="C14" s="109"/>
       <c r="D14" s="109" t="s">
@@ -6337,23 +6335,23 @@
         <v>1</v>
       </c>
       <c r="I14" s="111" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J14" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="207" t="s">
-        <v>480</v>
-      </c>
-      <c r="L14" s="207"/>
+      <c r="K14" s="204" t="s">
+        <v>478</v>
+      </c>
+      <c r="L14" s="204"/>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="108">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="217" t="s">
-        <v>473</v>
+      <c r="B15" s="214" t="s">
+        <v>471</v>
       </c>
       <c r="C15" s="109"/>
       <c r="D15" s="109" t="s">
@@ -6370,15 +6368,15 @@
         <v>1</v>
       </c>
       <c r="I15" s="111" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J15" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="207" t="s">
-        <v>481</v>
-      </c>
-      <c r="L15" s="207"/>
+      <c r="K15" s="204" t="s">
+        <v>479</v>
+      </c>
+      <c r="L15" s="204"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="108">
@@ -6400,8 +6398,8 @@
       <c r="J16" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="204" t="s">
-        <v>446</v>
+      <c r="K16" s="201" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6424,8 +6422,8 @@
       <c r="J17" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="204" t="s">
-        <v>447</v>
+      <c r="K17" s="201" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6448,8 +6446,8 @@
       <c r="J18" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="204" t="s">
-        <v>448</v>
+      <c r="K18" s="201" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6472,8 +6470,8 @@
       <c r="J19" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="204" t="s">
-        <v>449</v>
+      <c r="K19" s="201" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6496,8 +6494,8 @@
       <c r="J20" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="204" t="s">
-        <v>450</v>
+      <c r="K20" s="201" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6520,8 +6518,8 @@
       <c r="J21" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="204" t="s">
-        <v>451</v>
+      <c r="K21" s="201" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6529,82 +6527,82 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="208" t="s">
+      <c r="B22" s="205" t="s">
         <v>284</v>
       </c>
-      <c r="C22" s="209"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="209"/>
-      <c r="H22" s="210">
+      <c r="C22" s="206"/>
+      <c r="D22" s="206"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="206"/>
+      <c r="G22" s="206"/>
+      <c r="H22" s="207">
         <v>2</v>
       </c>
-      <c r="I22" s="211"/>
-      <c r="J22" s="212" t="s">
+      <c r="I22" s="208"/>
+      <c r="J22" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="204" t="s">
-        <v>452</v>
+      <c r="K22" s="201" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K23" s="204"/>
+      <c r="K23" s="201"/>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="289" t="s">
+      <c r="A24" s="286" t="s">
         <v>216</v>
       </c>
-      <c r="B24" s="290"/>
-      <c r="C24" s="290"/>
-      <c r="D24" s="290"/>
-      <c r="E24" s="290"/>
-      <c r="F24" s="290"/>
-      <c r="G24" s="290"/>
-      <c r="H24" s="290"/>
-      <c r="I24" s="290"/>
-      <c r="J24" s="290"/>
-      <c r="K24" s="290"/>
-      <c r="L24" s="290"/>
-      <c r="M24" s="290"/>
-      <c r="N24" s="290"/>
-      <c r="O24" s="290"/>
-      <c r="P24" s="290"/>
-      <c r="Q24" s="291"/>
+      <c r="B24" s="287"/>
+      <c r="C24" s="287"/>
+      <c r="D24" s="287"/>
+      <c r="E24" s="287"/>
+      <c r="F24" s="287"/>
+      <c r="G24" s="287"/>
+      <c r="H24" s="287"/>
+      <c r="I24" s="287"/>
+      <c r="J24" s="287"/>
+      <c r="K24" s="287"/>
+      <c r="L24" s="287"/>
+      <c r="M24" s="287"/>
+      <c r="N24" s="287"/>
+      <c r="O24" s="287"/>
+      <c r="P24" s="287"/>
+      <c r="Q24" s="288"/>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="137" t="s">
         <v>257</v>
       </c>
-      <c r="B25" s="190" t="s">
+      <c r="B25" s="189" t="s">
+        <v>342</v>
+      </c>
+      <c r="C25" s="191" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" s="191" t="s">
         <v>344</v>
       </c>
-      <c r="C25" s="192" t="s">
-        <v>310</v>
-      </c>
-      <c r="D25" s="192" t="s">
-        <v>346</v>
-      </c>
-      <c r="E25" s="192" t="s">
+      <c r="E25" s="191" t="s">
         <v>243</v>
       </c>
-      <c r="F25" s="192" t="s">
-        <v>361</v>
-      </c>
-      <c r="G25" s="192" t="s">
-        <v>410</v>
-      </c>
-      <c r="H25" s="192" t="s">
+      <c r="F25" s="191" t="s">
+        <v>359</v>
+      </c>
+      <c r="G25" s="191" t="s">
+        <v>408</v>
+      </c>
+      <c r="H25" s="191" t="s">
         <v>243</v>
       </c>
-      <c r="I25" s="192" t="s">
-        <v>410</v>
-      </c>
-      <c r="J25" s="192" t="s">
-        <v>421</v>
-      </c>
-      <c r="K25" s="192" t="s">
-        <v>410</v>
+      <c r="I25" s="191" t="s">
+        <v>408</v>
+      </c>
+      <c r="J25" s="191" t="s">
+        <v>419</v>
+      </c>
+      <c r="K25" s="191" t="s">
+        <v>408</v>
       </c>
       <c r="L25" s="123" t="s">
         <v>246</v>
@@ -6615,13 +6613,13 @@
       <c r="N25" s="123" t="s">
         <v>246</v>
       </c>
-      <c r="O25" s="192" t="s">
+      <c r="O25" s="191" t="s">
         <v>252</v>
       </c>
-      <c r="P25" s="192" t="s">
+      <c r="P25" s="191" t="s">
         <v>252</v>
       </c>
-      <c r="Q25" s="191" t="s">
+      <c r="Q25" s="190" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6634,7 +6632,7 @@
         <v>226</v>
       </c>
       <c r="D26" s="96" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E26" s="96" t="s">
         <v>227</v>
@@ -6643,19 +6641,19 @@
         <v>154</v>
       </c>
       <c r="G26" s="96" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H26" s="96" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I26" s="96" t="s">
+        <v>412</v>
+      </c>
+      <c r="J26" s="96" t="s">
         <v>414</v>
       </c>
-      <c r="J26" s="96" t="s">
-        <v>416</v>
-      </c>
       <c r="K26" s="96" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="L26" s="96" t="s">
         <v>94</v>
@@ -6677,24 +6675,24 @@
       </c>
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="213"/>
-      <c r="B27" s="214" t="s">
-        <v>413</v>
-      </c>
-      <c r="C27" s="214"/>
-      <c r="D27" s="214"/>
+      <c r="A27" s="210"/>
+      <c r="B27" s="211" t="s">
+        <v>411</v>
+      </c>
+      <c r="C27" s="211"/>
+      <c r="D27" s="211"/>
       <c r="E27" s="153"/>
       <c r="F27" s="153"/>
       <c r="G27" s="153" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H27" s="153"/>
       <c r="I27" s="153" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J27" s="153"/>
       <c r="K27" s="153" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="L27" s="153">
         <v>100</v>
@@ -6715,70 +6713,70 @@
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="286" t="s">
+      <c r="A29" s="283" t="s">
         <v>256</v>
       </c>
-      <c r="B29" s="287"/>
-      <c r="C29" s="287"/>
-      <c r="D29" s="287"/>
-      <c r="E29" s="287"/>
-      <c r="F29" s="287"/>
-      <c r="G29" s="287"/>
-      <c r="H29" s="288"/>
+      <c r="B29" s="284"/>
+      <c r="C29" s="284"/>
+      <c r="D29" s="284"/>
+      <c r="E29" s="284"/>
+      <c r="F29" s="284"/>
+      <c r="G29" s="284"/>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="277" t="s">
-        <v>341</v>
-      </c>
-      <c r="B30" s="278"/>
-      <c r="C30" s="278"/>
-      <c r="D30" s="278"/>
-      <c r="E30" s="278"/>
-      <c r="F30" s="278"/>
-      <c r="G30" s="278"/>
-      <c r="H30" s="279"/>
+      <c r="A30" s="274" t="s">
+        <v>339</v>
+      </c>
+      <c r="B30" s="275"/>
+      <c r="C30" s="275"/>
+      <c r="D30" s="275"/>
+      <c r="E30" s="275"/>
+      <c r="F30" s="275"/>
+      <c r="G30" s="275"/>
+      <c r="H30" s="276"/>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="280"/>
-      <c r="B31" s="281"/>
-      <c r="C31" s="281"/>
-      <c r="D31" s="281"/>
-      <c r="E31" s="281"/>
-      <c r="F31" s="281"/>
-      <c r="G31" s="281"/>
-      <c r="H31" s="282"/>
+      <c r="A31" s="277"/>
+      <c r="B31" s="278"/>
+      <c r="C31" s="278"/>
+      <c r="D31" s="278"/>
+      <c r="E31" s="278"/>
+      <c r="F31" s="278"/>
+      <c r="G31" s="278"/>
+      <c r="H31" s="279"/>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="280"/>
-      <c r="B32" s="281"/>
-      <c r="C32" s="281"/>
-      <c r="D32" s="281"/>
-      <c r="E32" s="281"/>
-      <c r="F32" s="281"/>
-      <c r="G32" s="281"/>
-      <c r="H32" s="282"/>
+      <c r="A32" s="277"/>
+      <c r="B32" s="278"/>
+      <c r="C32" s="278"/>
+      <c r="D32" s="278"/>
+      <c r="E32" s="278"/>
+      <c r="F32" s="278"/>
+      <c r="G32" s="278"/>
+      <c r="H32" s="279"/>
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="283"/>
-      <c r="B33" s="284"/>
-      <c r="C33" s="284"/>
-      <c r="D33" s="284"/>
-      <c r="E33" s="284"/>
-      <c r="F33" s="284"/>
-      <c r="G33" s="284"/>
-      <c r="H33" s="285"/>
+      <c r="A33" s="280"/>
+      <c r="B33" s="281"/>
+      <c r="C33" s="281"/>
+      <c r="D33" s="281"/>
+      <c r="E33" s="281"/>
+      <c r="F33" s="281"/>
+      <c r="G33" s="281"/>
+      <c r="H33" s="282"/>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="265" t="s">
+      <c r="A35" s="262" t="s">
         <v>285</v>
       </c>
-      <c r="B35" s="266"/>
-      <c r="C35" s="266"/>
-      <c r="D35" s="266"/>
-      <c r="E35" s="266"/>
-      <c r="F35" s="266"/>
-      <c r="G35" s="267"/>
+      <c r="B35" s="263"/>
+      <c r="C35" s="263"/>
+      <c r="D35" s="263"/>
+      <c r="E35" s="263"/>
+      <c r="F35" s="263"/>
+      <c r="G35" s="264"/>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
@@ -6790,12 +6788,12 @@
       <c r="C36" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="D36" s="264" t="s">
+      <c r="D36" s="261" t="s">
         <v>288</v>
       </c>
-      <c r="E36" s="264"/>
-      <c r="F36" s="264"/>
-      <c r="G36" s="264"/>
+      <c r="E36" s="261"/>
+      <c r="F36" s="261"/>
+      <c r="G36" s="261"/>
     </row>
     <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -6805,10 +6803,10 @@
         <v>290</v>
       </c>
       <c r="C37" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D37" s="174" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
@@ -6825,9 +6823,9 @@
         <v>315</v>
       </c>
       <c r="C38" t="s">
-        <v>419</v>
-      </c>
-      <c r="D38" s="187" t="s">
+        <v>417</v>
+      </c>
+      <c r="D38" s="186" t="s">
         <v>312</v>
       </c>
       <c r="E38"/>
@@ -6845,7 +6843,7 @@
         <v>316</v>
       </c>
       <c r="C39" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D39" s="174" t="s">
         <v>313</v>
@@ -6865,10 +6863,10 @@
         <v>317</v>
       </c>
       <c r="C40" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D40" s="174" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
@@ -6885,7 +6883,7 @@
         <v>318</v>
       </c>
       <c r="C41" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D41" s="177" t="s">
         <v>314</v>
@@ -6899,16 +6897,16 @@
     </row>
     <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s">
         <v>291</v>
       </c>
       <c r="C42" t="s">
-        <v>419</v>
-      </c>
-      <c r="D42" s="187" t="s">
-        <v>385</v>
+        <v>417</v>
+      </c>
+      <c r="D42" s="186" t="s">
+        <v>383</v>
       </c>
       <c r="E42"/>
       <c r="F42"/>
@@ -6919,16 +6917,16 @@
     </row>
     <row r="43" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B43" t="s">
         <v>291</v>
       </c>
       <c r="C43" t="s">
-        <v>419</v>
-      </c>
-      <c r="D43" s="187" t="s">
-        <v>366</v>
+        <v>417</v>
+      </c>
+      <c r="D43" s="186" t="s">
+        <v>364</v>
       </c>
       <c r="E43"/>
       <c r="F43"/>
@@ -6939,16 +6937,16 @@
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B44" t="s">
         <v>291</v>
       </c>
       <c r="C44" t="s">
-        <v>419</v>
-      </c>
-      <c r="D44" s="187" t="s">
-        <v>386</v>
+        <v>417</v>
+      </c>
+      <c r="D44" s="186" t="s">
+        <v>384</v>
       </c>
       <c r="E44"/>
       <c r="F44"/>
@@ -6959,16 +6957,16 @@
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B45" t="s">
         <v>291</v>
       </c>
       <c r="C45" t="s">
-        <v>419</v>
-      </c>
-      <c r="D45" s="187" t="s">
-        <v>388</v>
+        <v>417</v>
+      </c>
+      <c r="D45" s="186" t="s">
+        <v>386</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
@@ -6979,16 +6977,16 @@
     </row>
     <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B46" t="s">
         <v>291</v>
       </c>
       <c r="C46" t="s">
-        <v>419</v>
-      </c>
-      <c r="D46" s="187" t="s">
-        <v>387</v>
+        <v>417</v>
+      </c>
+      <c r="D46" s="186" t="s">
+        <v>385</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
@@ -6999,16 +6997,16 @@
     </row>
     <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s">
         <v>319</v>
       </c>
       <c r="C47" t="s">
-        <v>419</v>
-      </c>
-      <c r="D47" s="187" t="s">
-        <v>389</v>
+        <v>417</v>
+      </c>
+      <c r="D47" s="186" t="s">
+        <v>387</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
@@ -7019,296 +7017,296 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>388</v>
+      </c>
+      <c r="B48" t="s">
+        <v>389</v>
+      </c>
+      <c r="C48" t="s">
+        <v>417</v>
+      </c>
+      <c r="D48" s="186" t="s">
         <v>390</v>
-      </c>
-      <c r="B48" t="s">
-        <v>391</v>
-      </c>
-      <c r="C48" t="s">
-        <v>419</v>
-      </c>
-      <c r="D48" s="187" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>416</v>
+      </c>
+      <c r="B49" t="s">
+        <v>355</v>
+      </c>
+      <c r="C49" t="s">
+        <v>417</v>
+      </c>
+      <c r="D49" s="174" t="s">
         <v>418</v>
-      </c>
-      <c r="B49" t="s">
-        <v>357</v>
-      </c>
-      <c r="C49" t="s">
-        <v>419</v>
-      </c>
-      <c r="D49" s="174" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>391</v>
+      </c>
+      <c r="B50" t="s">
+        <v>392</v>
+      </c>
+      <c r="C50" t="s">
+        <v>417</v>
+      </c>
+      <c r="D50" s="186" t="s">
         <v>393</v>
-      </c>
-      <c r="B50" t="s">
-        <v>394</v>
-      </c>
-      <c r="C50" t="s">
-        <v>419</v>
-      </c>
-      <c r="D50" s="187" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>391</v>
+      </c>
+      <c r="B51" t="s">
+        <v>392</v>
+      </c>
+      <c r="C51" t="s">
+        <v>417</v>
+      </c>
+      <c r="D51" s="186" t="s">
         <v>393</v>
-      </c>
-      <c r="B51" t="s">
-        <v>394</v>
-      </c>
-      <c r="C51" t="s">
-        <v>419</v>
-      </c>
-      <c r="D51" s="187" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>391</v>
+      </c>
+      <c r="B52" t="s">
+        <v>392</v>
+      </c>
+      <c r="C52" t="s">
+        <v>417</v>
+      </c>
+      <c r="D52" s="186" t="s">
         <v>393</v>
-      </c>
-      <c r="B52" t="s">
-        <v>394</v>
-      </c>
-      <c r="C52" t="s">
-        <v>419</v>
-      </c>
-      <c r="D52" s="187" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>391</v>
+      </c>
+      <c r="B53" t="s">
+        <v>392</v>
+      </c>
+      <c r="C53" t="s">
+        <v>417</v>
+      </c>
+      <c r="D53" s="186" t="s">
         <v>393</v>
-      </c>
-      <c r="B53" t="s">
-        <v>394</v>
-      </c>
-      <c r="C53" t="s">
-        <v>419</v>
-      </c>
-      <c r="D53" s="187" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>391</v>
+      </c>
+      <c r="B54" t="s">
+        <v>392</v>
+      </c>
+      <c r="C54" t="s">
+        <v>417</v>
+      </c>
+      <c r="D54" s="186" t="s">
         <v>393</v>
-      </c>
-      <c r="B54" t="s">
-        <v>394</v>
-      </c>
-      <c r="C54" t="s">
-        <v>419</v>
-      </c>
-      <c r="D54" s="187" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B55" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C55" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D55" s="174" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B56" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C56" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D56" s="174" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B57" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C57" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D57" s="174" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B58" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C58" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D58" s="174" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B59" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C59" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D59" s="174" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B60" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C60" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D60" s="174" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B61" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C61" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D61" s="174" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B62" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C62" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D62" s="174" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B63" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C63" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D63" s="174" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B64" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C64" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D64" s="174" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B65" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C65" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D65" s="174" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B66" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C66" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D66" s="174" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B67" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C67" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D67" s="174" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B68" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C68" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D68" s="174" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -7428,32 +7426,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="301" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="302"/>
-      <c r="F1" s="302"/>
-      <c r="G1" s="302"/>
-      <c r="H1" s="302"/>
-      <c r="I1" s="302"/>
-      <c r="J1" s="303"/>
+      <c r="A1" s="298" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="299"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="299"/>
+      <c r="I1" s="299"/>
+      <c r="J1" s="300"/>
     </row>
     <row r="2" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="289" t="s">
+      <c r="A2" s="286" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="290"/>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290"/>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="291"/>
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287"/>
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="288"/>
     </row>
     <row r="3" spans="1:10" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="131" t="s">
@@ -7524,7 +7522,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="202" t="s">
+      <c r="G5" s="199" t="s">
         <v>283</v>
       </c>
       <c r="H5" s="169"/>
@@ -7532,18 +7530,18 @@
       <c r="J5" s="169"/>
     </row>
     <row r="6" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="289" t="s">
+      <c r="A6" s="286" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="290"/>
-      <c r="C6" s="290"/>
-      <c r="D6" s="290"/>
-      <c r="E6" s="290"/>
-      <c r="F6" s="290"/>
-      <c r="G6" s="290"/>
-      <c r="H6" s="290"/>
-      <c r="I6" s="290"/>
-      <c r="J6" s="291"/>
+      <c r="B6" s="287"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="287"/>
+      <c r="H6" s="287"/>
+      <c r="I6" s="287"/>
+      <c r="J6" s="288"/>
     </row>
     <row r="7" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="124" t="s">
@@ -7594,18 +7592,18 @@
       <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="289" t="s">
+      <c r="A10" s="286" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="290"/>
-      <c r="C10" s="290"/>
-      <c r="D10" s="290"/>
-      <c r="E10" s="290"/>
-      <c r="F10" s="290"/>
-      <c r="G10" s="290"/>
-      <c r="H10" s="290"/>
-      <c r="I10" s="290"/>
-      <c r="J10" s="291"/>
+      <c r="B10" s="287"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="287"/>
+      <c r="I10" s="287"/>
+      <c r="J10" s="288"/>
     </row>
     <row r="11" spans="1:10" s="113" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="127"/>
@@ -7816,18 +7814,18 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="289" t="s">
+      <c r="A21" s="286" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="290"/>
-      <c r="C21" s="290"/>
-      <c r="D21" s="290"/>
-      <c r="E21" s="290"/>
-      <c r="F21" s="290"/>
-      <c r="G21" s="290"/>
-      <c r="H21" s="290"/>
-      <c r="I21" s="290"/>
-      <c r="J21" s="291"/>
+      <c r="B21" s="287"/>
+      <c r="C21" s="287"/>
+      <c r="D21" s="287"/>
+      <c r="E21" s="287"/>
+      <c r="F21" s="287"/>
+      <c r="G21" s="287"/>
+      <c r="H21" s="287"/>
+      <c r="I21" s="287"/>
+      <c r="J21" s="288"/>
     </row>
     <row r="22" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="131" t="s">
@@ -7890,25 +7888,25 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="289" t="s">
+      <c r="A25" s="286" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="290"/>
-      <c r="C25" s="290"/>
-      <c r="D25" s="290"/>
-      <c r="E25" s="290"/>
-      <c r="F25" s="290"/>
-      <c r="G25" s="290"/>
-      <c r="H25" s="290"/>
-      <c r="I25" s="290"/>
-      <c r="J25" s="291"/>
+      <c r="B25" s="287"/>
+      <c r="C25" s="287"/>
+      <c r="D25" s="287"/>
+      <c r="E25" s="287"/>
+      <c r="F25" s="287"/>
+      <c r="G25" s="287"/>
+      <c r="H25" s="287"/>
+      <c r="I25" s="287"/>
+      <c r="J25" s="288"/>
     </row>
     <row r="26" spans="1:10" s="113" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="131" t="s">
         <v>257</v>
       </c>
-      <c r="B26" s="192" t="s">
-        <v>346</v>
+      <c r="B26" s="191" t="s">
+        <v>344</v>
       </c>
       <c r="C26" s="132" t="s">
         <v>308</v>
@@ -7916,8 +7914,8 @@
       <c r="D26" s="132" t="s">
         <v>242</v>
       </c>
-      <c r="E26" s="188" t="s">
-        <v>346</v>
+      <c r="E26" s="187" t="s">
+        <v>344</v>
       </c>
       <c r="F26" s="128"/>
       <c r="G26" s="128"/>
@@ -7937,7 +7935,7 @@
         <v>154</v>
       </c>
       <c r="E27" s="96" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F27" s="147"/>
       <c r="G27" s="147"/>
@@ -7947,13 +7945,13 @@
     </row>
     <row r="28" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="146"/>
-      <c r="B28" s="201" t="s">
-        <v>433</v>
+      <c r="B28" s="198" t="s">
+        <v>431</v>
       </c>
       <c r="C28" s="184"/>
       <c r="D28" s="122"/>
       <c r="E28" s="153" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -7963,70 +7961,70 @@
     </row>
     <row r="29" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="292" t="s">
+      <c r="A30" s="289" t="s">
         <v>256</v>
       </c>
-      <c r="B30" s="293"/>
-      <c r="C30" s="293"/>
-      <c r="D30" s="293"/>
-      <c r="E30" s="293"/>
-      <c r="F30" s="293"/>
-      <c r="G30" s="293"/>
-      <c r="H30" s="294"/>
+      <c r="B30" s="290"/>
+      <c r="C30" s="290"/>
+      <c r="D30" s="290"/>
+      <c r="E30" s="290"/>
+      <c r="F30" s="290"/>
+      <c r="G30" s="290"/>
+      <c r="H30" s="291"/>
     </row>
     <row r="31" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="295" t="s">
-        <v>340</v>
-      </c>
-      <c r="B31" s="296"/>
-      <c r="C31" s="296"/>
-      <c r="D31" s="296"/>
-      <c r="E31" s="296"/>
-      <c r="F31" s="296"/>
-      <c r="G31" s="296"/>
-      <c r="H31" s="297"/>
+      <c r="A31" s="292" t="s">
+        <v>338</v>
+      </c>
+      <c r="B31" s="293"/>
+      <c r="C31" s="293"/>
+      <c r="D31" s="293"/>
+      <c r="E31" s="293"/>
+      <c r="F31" s="293"/>
+      <c r="G31" s="293"/>
+      <c r="H31" s="294"/>
     </row>
     <row r="32" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="295"/>
-      <c r="B32" s="296"/>
-      <c r="C32" s="296"/>
-      <c r="D32" s="296"/>
-      <c r="E32" s="296"/>
-      <c r="F32" s="296"/>
-      <c r="G32" s="296"/>
-      <c r="H32" s="297"/>
+      <c r="A32" s="292"/>
+      <c r="B32" s="293"/>
+      <c r="C32" s="293"/>
+      <c r="D32" s="293"/>
+      <c r="E32" s="293"/>
+      <c r="F32" s="293"/>
+      <c r="G32" s="293"/>
+      <c r="H32" s="294"/>
     </row>
     <row r="33" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="295"/>
-      <c r="B33" s="296"/>
-      <c r="C33" s="296"/>
-      <c r="D33" s="296"/>
-      <c r="E33" s="296"/>
-      <c r="F33" s="296"/>
-      <c r="G33" s="296"/>
-      <c r="H33" s="297"/>
+      <c r="A33" s="292"/>
+      <c r="B33" s="293"/>
+      <c r="C33" s="293"/>
+      <c r="D33" s="293"/>
+      <c r="E33" s="293"/>
+      <c r="F33" s="293"/>
+      <c r="G33" s="293"/>
+      <c r="H33" s="294"/>
     </row>
     <row r="34" spans="1:8" s="113" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="298"/>
-      <c r="B34" s="299"/>
-      <c r="C34" s="299"/>
-      <c r="D34" s="299"/>
-      <c r="E34" s="299"/>
-      <c r="F34" s="299"/>
-      <c r="G34" s="299"/>
-      <c r="H34" s="300"/>
+      <c r="A34" s="295"/>
+      <c r="B34" s="296"/>
+      <c r="C34" s="296"/>
+      <c r="D34" s="296"/>
+      <c r="E34" s="296"/>
+      <c r="F34" s="296"/>
+      <c r="G34" s="296"/>
+      <c r="H34" s="297"/>
     </row>
     <row r="35" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:8" s="113" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="304" t="s">
+      <c r="A36" s="301" t="s">
         <v>285</v>
       </c>
-      <c r="B36" s="304"/>
-      <c r="C36" s="304"/>
-      <c r="D36" s="304"/>
-      <c r="E36" s="304"/>
-      <c r="F36" s="304"/>
-      <c r="G36" s="304"/>
+      <c r="B36" s="301"/>
+      <c r="C36" s="301"/>
+      <c r="D36" s="301"/>
+      <c r="E36" s="301"/>
+      <c r="F36" s="301"/>
+      <c r="G36" s="301"/>
     </row>
     <row r="37" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
@@ -8038,12 +8036,12 @@
       <c r="C37" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="D37" s="264" t="s">
+      <c r="D37" s="261" t="s">
         <v>288</v>
       </c>
-      <c r="E37" s="264"/>
-      <c r="F37" s="264"/>
-      <c r="G37" s="264"/>
+      <c r="E37" s="261"/>
+      <c r="F37" s="261"/>
+      <c r="G37" s="261"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -8053,10 +8051,10 @@
         <v>290</v>
       </c>
       <c r="C38" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D38" s="174" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -8067,9 +8065,9 @@
         <v>315</v>
       </c>
       <c r="C39" t="s">
-        <v>436</v>
-      </c>
-      <c r="D39" s="187" t="s">
+        <v>434</v>
+      </c>
+      <c r="D39" s="186" t="s">
         <v>312</v>
       </c>
     </row>
@@ -8081,7 +8079,7 @@
         <v>316</v>
       </c>
       <c r="C40" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D40" s="174" t="s">
         <v>313</v>
@@ -8095,10 +8093,10 @@
         <v>317</v>
       </c>
       <c r="C41" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D41" s="174" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -8109,7 +8107,7 @@
         <v>318</v>
       </c>
       <c r="C42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D42" s="177" t="s">
         <v>314</v>
@@ -8117,72 +8115,72 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s">
         <v>291</v>
       </c>
       <c r="C43" t="s">
-        <v>436</v>
-      </c>
-      <c r="D43" s="187" t="s">
-        <v>350</v>
+        <v>434</v>
+      </c>
+      <c r="D43" s="186" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>349</v>
+      </c>
+      <c r="B44" t="s">
+        <v>350</v>
+      </c>
+      <c r="C44" t="s">
+        <v>434</v>
+      </c>
+      <c r="D44" s="186" t="s">
         <v>351</v>
-      </c>
-      <c r="B44" t="s">
-        <v>352</v>
-      </c>
-      <c r="C44" t="s">
-        <v>436</v>
-      </c>
-      <c r="D44" s="187" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C45" t="s">
-        <v>436</v>
-      </c>
-      <c r="D45" s="187" t="s">
-        <v>435</v>
+        <v>434</v>
+      </c>
+      <c r="D45" s="186" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B46" t="s">
+        <v>350</v>
+      </c>
+      <c r="C46" t="s">
+        <v>434</v>
+      </c>
+      <c r="D46" s="186" t="s">
         <v>352</v>
-      </c>
-      <c r="C46" t="s">
-        <v>436</v>
-      </c>
-      <c r="D46" s="187" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C47" t="s">
-        <v>436</v>
-      </c>
-      <c r="D47" s="187" t="s">
-        <v>355</v>
+        <v>434</v>
+      </c>
+      <c r="D47" s="186" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -8190,13 +8188,13 @@
         <v>311</v>
       </c>
       <c r="B48" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C48" t="s">
+        <v>434</v>
+      </c>
+      <c r="D48" s="177" t="s">
         <v>436</v>
-      </c>
-      <c r="D48" s="177" t="s">
-        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -8254,8 +8252,8 @@
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8280,215 +8278,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="319" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
-      <c r="N1" s="306"/>
-      <c r="O1" s="306"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="319"/>
+      <c r="J1" s="319"/>
+      <c r="K1" s="319"/>
+      <c r="L1" s="319"/>
+      <c r="M1" s="319"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="319"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="196" t="s">
-        <v>333</v>
-      </c>
-      <c r="B2" s="309" t="s">
+      <c r="A2" s="307" t="s">
         <v>255</v>
       </c>
-      <c r="C2" s="309"/>
-      <c r="D2" s="309"/>
-      <c r="E2" s="309"/>
+      <c r="B2" s="308"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
       <c r="F2" s="309"/>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="320" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="309"/>
-      <c r="I2" s="309"/>
-      <c r="J2" s="309"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="309"/>
-      <c r="M2" s="313" t="s">
+      <c r="H2" s="320"/>
+      <c r="I2" s="320"/>
+      <c r="J2" s="320"/>
+      <c r="K2" s="320"/>
+      <c r="L2" s="320"/>
+      <c r="M2" s="303" t="s">
         <v>272</v>
       </c>
-      <c r="N2" s="313"/>
-      <c r="O2" s="313"/>
+      <c r="N2" s="303"/>
+      <c r="O2" s="303"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="195" t="s">
-        <v>334</v>
-      </c>
-      <c r="B3" s="311" t="s">
+      <c r="A3" s="310" t="s">
         <v>271</v>
       </c>
+      <c r="B3" s="311"/>
       <c r="C3" s="311"/>
       <c r="D3" s="311"/>
       <c r="E3" s="311"/>
-      <c r="F3" s="311"/>
-      <c r="G3" s="311" t="s">
+      <c r="F3" s="312"/>
+      <c r="G3" s="322" t="s">
         <v>279</v>
       </c>
-      <c r="H3" s="311"/>
-      <c r="I3" s="311"/>
-      <c r="J3" s="311"/>
-      <c r="K3" s="311"/>
-      <c r="L3" s="311"/>
-      <c r="M3" s="195" t="s">
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="322"/>
+      <c r="M3" s="194" t="s">
         <v>277</v>
       </c>
-      <c r="N3" s="195" t="s">
-        <v>346</v>
-      </c>
-      <c r="O3" s="197" t="s">
-        <v>346</v>
-      </c>
-      <c r="P3" s="200"/>
-    </row>
-    <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="198">
-        <v>8</v>
-      </c>
-      <c r="B4" s="310" t="s">
+      <c r="N3" s="194" t="s">
+        <v>344</v>
+      </c>
+      <c r="O3" s="195" t="s">
+        <v>344</v>
+      </c>
+      <c r="P3" s="197"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="313" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310" t="s">
+      <c r="B4" s="314"/>
+      <c r="C4" s="315"/>
+      <c r="D4" s="321" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="310" t="s">
+      <c r="E4" s="321"/>
+      <c r="F4" s="321"/>
+      <c r="G4" s="321" t="s">
         <v>222</v>
       </c>
-      <c r="H4" s="310"/>
-      <c r="I4" s="310"/>
-      <c r="J4" s="310" t="s">
+      <c r="H4" s="321"/>
+      <c r="I4" s="321"/>
+      <c r="J4" s="321" t="s">
         <v>280</v>
       </c>
-      <c r="K4" s="310"/>
-      <c r="L4" s="310"/>
+      <c r="K4" s="321"/>
+      <c r="L4" s="321"/>
       <c r="M4" s="166" t="s">
         <v>154</v>
       </c>
       <c r="N4" s="166" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="O4" s="166" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="185"/>
-      <c r="B5" s="307" t="s">
+      <c r="A5" s="340" t="s">
         <v>254</v>
       </c>
-      <c r="C5" s="308"/>
-      <c r="D5" s="307" t="s">
+      <c r="B5" s="341"/>
+      <c r="C5" s="342"/>
+      <c r="D5" s="340" t="s">
         <v>264</v>
       </c>
-      <c r="E5" s="312"/>
-      <c r="F5" s="308"/>
-      <c r="G5" s="307" t="s">
+      <c r="E5" s="341"/>
+      <c r="F5" s="342"/>
+      <c r="G5" s="316" t="s">
         <v>261</v>
       </c>
-      <c r="H5" s="312"/>
-      <c r="I5" s="308"/>
-      <c r="J5" s="307" t="s">
+      <c r="H5" s="317"/>
+      <c r="I5" s="318"/>
+      <c r="J5" s="316" t="s">
         <v>278</v>
       </c>
-      <c r="K5" s="312"/>
-      <c r="L5" s="308"/>
-      <c r="M5" s="218"/>
-      <c r="N5" s="218" t="s">
+      <c r="K5" s="317"/>
+      <c r="L5" s="318"/>
+      <c r="M5" s="215"/>
+      <c r="N5" s="215" t="s">
         <v>147</v>
       </c>
-      <c r="O5" s="219" t="s">
-        <v>484</v>
+      <c r="O5" s="216" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="185"/>
-      <c r="B6" s="307" t="s">
+      <c r="A6" s="340" t="s">
         <v>254</v>
       </c>
-      <c r="C6" s="308"/>
-      <c r="D6" s="305" t="s">
+      <c r="B6" s="341"/>
+      <c r="C6" s="342"/>
+      <c r="D6" s="343" t="s">
         <v>265</v>
       </c>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="305"/>
-      <c r="H6" s="305"/>
-      <c r="I6" s="305"/>
-      <c r="J6" s="305"/>
-      <c r="K6" s="305"/>
-      <c r="L6" s="305"/>
-      <c r="M6" s="218"/>
-      <c r="N6" s="218"/>
+      <c r="E6" s="343"/>
+      <c r="F6" s="343"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="302"/>
+      <c r="I6" s="302"/>
+      <c r="J6" s="302"/>
+      <c r="K6" s="302"/>
+      <c r="L6" s="302"/>
+      <c r="M6" s="215"/>
+      <c r="N6" s="215"/>
       <c r="O6" s="164"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="185"/>
-      <c r="B7" s="305"/>
-      <c r="C7" s="305"/>
-      <c r="D7" s="305"/>
-      <c r="E7" s="305"/>
-      <c r="F7" s="305"/>
-      <c r="G7" s="305"/>
-      <c r="H7" s="305"/>
-      <c r="I7" s="305"/>
-      <c r="J7" s="305"/>
-      <c r="K7" s="305"/>
-      <c r="L7" s="305"/>
-      <c r="M7" s="194"/>
-      <c r="N7" s="194"/>
+      <c r="A7" s="340"/>
+      <c r="B7" s="341"/>
+      <c r="C7" s="342"/>
+      <c r="D7" s="343"/>
+      <c r="E7" s="343"/>
+      <c r="F7" s="343"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="302"/>
+      <c r="I7" s="302"/>
+      <c r="J7" s="302"/>
+      <c r="K7" s="302"/>
+      <c r="L7" s="302"/>
+      <c r="M7" s="193"/>
+      <c r="N7" s="193"/>
       <c r="O7" s="164"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="305"/>
-      <c r="C8" s="305"/>
-      <c r="D8" s="305" t="s">
+      <c r="A8" s="340"/>
+      <c r="B8" s="341"/>
+      <c r="C8" s="342"/>
+      <c r="D8" s="343" t="s">
         <v>245</v>
       </c>
-      <c r="E8" s="305"/>
-      <c r="F8" s="305"/>
-      <c r="G8" s="305"/>
-      <c r="H8" s="305"/>
-      <c r="I8" s="305"/>
-      <c r="J8" s="305"/>
-      <c r="K8" s="305"/>
-      <c r="L8" s="305"/>
-      <c r="M8" s="194"/>
-      <c r="N8" s="194"/>
+      <c r="E8" s="343"/>
+      <c r="F8" s="343"/>
+      <c r="G8" s="302"/>
+      <c r="H8" s="302"/>
+      <c r="I8" s="302"/>
+      <c r="J8" s="302"/>
+      <c r="K8" s="302"/>
+      <c r="L8" s="302"/>
+      <c r="M8" s="193"/>
+      <c r="N8" s="193"/>
       <c r="O8" s="164"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="314" t="s">
+      <c r="A10" s="304" t="s">
         <v>332</v>
       </c>
-      <c r="B10" s="315"/>
-      <c r="C10" s="315"/>
-      <c r="D10" s="315"/>
-      <c r="E10" s="315"/>
-      <c r="F10" s="315"/>
-      <c r="G10" s="315"/>
-      <c r="H10" s="315"/>
-      <c r="I10" s="316"/>
+      <c r="B10" s="305"/>
+      <c r="C10" s="305"/>
+      <c r="D10" s="305"/>
+      <c r="E10" s="305"/>
+      <c r="F10" s="305"/>
+      <c r="G10" s="305"/>
+      <c r="H10" s="305"/>
+      <c r="I10" s="306"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
@@ -8497,8 +8489,8 @@
       <c r="B11" s="132" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="188" t="s">
-        <v>346</v>
+      <c r="C11" s="187" t="s">
+        <v>344</v>
       </c>
       <c r="D11" s="125" t="s">
         <v>246</v>
@@ -8518,8 +8510,8 @@
       <c r="I11" s="144" t="s">
         <v>252</v>
       </c>
-      <c r="K11" s="186"/>
-      <c r="L11" s="186"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="185"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="148"/>
@@ -8527,7 +8519,7 @@
         <v>226</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D12" s="147" t="s">
         <v>94</v>
@@ -8571,69 +8563,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="292" t="s">
+      <c r="A15" s="289" t="s">
         <v>256</v>
       </c>
-      <c r="B15" s="293"/>
-      <c r="C15" s="293"/>
-      <c r="D15" s="293"/>
-      <c r="E15" s="293"/>
-      <c r="F15" s="293"/>
-      <c r="G15" s="293"/>
-      <c r="H15" s="294"/>
+      <c r="B15" s="290"/>
+      <c r="C15" s="290"/>
+      <c r="D15" s="290"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="290"/>
+      <c r="H15" s="291"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="295" t="s">
-        <v>342</v>
-      </c>
-      <c r="B16" s="296"/>
-      <c r="C16" s="296"/>
-      <c r="D16" s="296"/>
-      <c r="E16" s="296"/>
-      <c r="F16" s="296"/>
-      <c r="G16" s="296"/>
-      <c r="H16" s="297"/>
+      <c r="A16" s="292" t="s">
+        <v>340</v>
+      </c>
+      <c r="B16" s="293"/>
+      <c r="C16" s="293"/>
+      <c r="D16" s="293"/>
+      <c r="E16" s="293"/>
+      <c r="F16" s="293"/>
+      <c r="G16" s="293"/>
+      <c r="H16" s="294"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="295"/>
-      <c r="B17" s="296"/>
-      <c r="C17" s="296"/>
-      <c r="D17" s="296"/>
-      <c r="E17" s="296"/>
-      <c r="F17" s="296"/>
-      <c r="G17" s="296"/>
-      <c r="H17" s="297"/>
+      <c r="A17" s="292"/>
+      <c r="B17" s="293"/>
+      <c r="C17" s="293"/>
+      <c r="D17" s="293"/>
+      <c r="E17" s="293"/>
+      <c r="F17" s="293"/>
+      <c r="G17" s="293"/>
+      <c r="H17" s="294"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="295"/>
-      <c r="B18" s="296"/>
-      <c r="C18" s="296"/>
-      <c r="D18" s="296"/>
-      <c r="E18" s="296"/>
-      <c r="F18" s="296"/>
-      <c r="G18" s="296"/>
-      <c r="H18" s="297"/>
+      <c r="A18" s="292"/>
+      <c r="B18" s="293"/>
+      <c r="C18" s="293"/>
+      <c r="D18" s="293"/>
+      <c r="E18" s="293"/>
+      <c r="F18" s="293"/>
+      <c r="G18" s="293"/>
+      <c r="H18" s="294"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="298"/>
-      <c r="B19" s="299"/>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="300"/>
+      <c r="A19" s="295"/>
+      <c r="B19" s="296"/>
+      <c r="C19" s="296"/>
+      <c r="D19" s="296"/>
+      <c r="E19" s="296"/>
+      <c r="F19" s="296"/>
+      <c r="G19" s="296"/>
+      <c r="H19" s="297"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="304" t="s">
+      <c r="A21" s="301" t="s">
         <v>285</v>
       </c>
-      <c r="B21" s="304"/>
-      <c r="C21" s="304"/>
-      <c r="D21" s="304"/>
-      <c r="E21" s="304"/>
-      <c r="F21" s="304"/>
-      <c r="G21" s="304"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="301"/>
+      <c r="D21" s="301"/>
+      <c r="E21" s="301"/>
+      <c r="F21" s="301"/>
+      <c r="G21" s="301"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -8645,12 +8637,12 @@
       <c r="C22" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="264" t="s">
+      <c r="D22" s="261" t="s">
         <v>288</v>
       </c>
-      <c r="E22" s="264"/>
-      <c r="F22" s="264"/>
-      <c r="G22" s="264"/>
+      <c r="E22" s="261"/>
+      <c r="F22" s="261"/>
+      <c r="G22" s="261"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8660,10 +8652,10 @@
         <v>290</v>
       </c>
       <c r="C23" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D23" s="174" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -8674,9 +8666,9 @@
         <v>315</v>
       </c>
       <c r="C24" t="s">
-        <v>422</v>
-      </c>
-      <c r="D24" s="187" t="s">
+        <v>420</v>
+      </c>
+      <c r="D24" s="186" t="s">
         <v>312</v>
       </c>
     </row>
@@ -8688,7 +8680,7 @@
         <v>316</v>
       </c>
       <c r="C25" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D25" s="174" t="s">
         <v>313</v>
@@ -8702,10 +8694,10 @@
         <v>317</v>
       </c>
       <c r="C26" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D26" s="174" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -8716,7 +8708,7 @@
         <v>318</v>
       </c>
       <c r="C27" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D27" s="177" t="s">
         <v>314</v>
@@ -8730,10 +8722,10 @@
         <v>291</v>
       </c>
       <c r="C28" t="s">
-        <v>422</v>
-      </c>
-      <c r="D28" s="187" t="s">
-        <v>367</v>
+        <v>420</v>
+      </c>
+      <c r="D28" s="186" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -8744,10 +8736,10 @@
         <v>291</v>
       </c>
       <c r="C29" t="s">
-        <v>422</v>
-      </c>
-      <c r="D29" s="187" t="s">
-        <v>366</v>
+        <v>420</v>
+      </c>
+      <c r="D29" s="186" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -8758,10 +8750,10 @@
         <v>291</v>
       </c>
       <c r="C30" t="s">
-        <v>422</v>
-      </c>
-      <c r="D30" s="187" t="s">
-        <v>368</v>
+        <v>420</v>
+      </c>
+      <c r="D30" s="186" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -8772,9 +8764,9 @@
         <v>291</v>
       </c>
       <c r="C31" t="s">
-        <v>422</v>
-      </c>
-      <c r="D31" s="187" t="s">
+        <v>420</v>
+      </c>
+      <c r="D31" s="186" t="s">
         <v>321</v>
       </c>
     </row>
@@ -8786,10 +8778,10 @@
         <v>291</v>
       </c>
       <c r="C32" t="s">
-        <v>422</v>
-      </c>
-      <c r="D32" s="187" t="s">
-        <v>369</v>
+        <v>420</v>
+      </c>
+      <c r="D32" s="186" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -8800,262 +8792,262 @@
         <v>319</v>
       </c>
       <c r="C33" t="s">
-        <v>422</v>
-      </c>
-      <c r="D33" s="187" t="s">
-        <v>370</v>
+        <v>420</v>
+      </c>
+      <c r="D33" s="186" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B34" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C34" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D34" s="174" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B35" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C35" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D35" s="174" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B36" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C36" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D36" s="174" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B37" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C37" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D37" s="174" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B38" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C38" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D38" s="174" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B39" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C39" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D39" s="174" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B40" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C40" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D40" s="174" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B41" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C41" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D41" s="174" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C42" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D42" s="174" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C43" t="s">
+        <v>420</v>
+      </c>
+      <c r="D43" s="174" t="s">
         <v>422</v>
-      </c>
-      <c r="D43" s="174" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C44" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D44" s="174" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C45" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D45" s="174" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C46" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D46" s="174" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C47" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D47" s="174" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C48" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D48" s="174" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B49" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C49" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D49" s="174" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B50" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C50" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D50" s="174" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B51" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C51" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D51" s="174" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -9066,28 +9058,46 @@
         <v>319</v>
       </c>
       <c r="C52" t="s">
-        <v>422</v>
-      </c>
-      <c r="D52" s="187" t="s">
-        <v>370</v>
+        <v>420</v>
+      </c>
+      <c r="D52" s="186" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B53" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C53" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D53" s="174" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
@@ -9096,29 +9106,11 @@
     <mergeCell ref="A16:H19"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9210,101 +9202,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="319" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
-      <c r="N1" s="306"/>
-      <c r="O1" s="306"/>
-      <c r="P1" s="306"/>
+      <c r="B1" s="319"/>
+      <c r="C1" s="319"/>
+      <c r="D1" s="319"/>
+      <c r="E1" s="319"/>
+      <c r="F1" s="319"/>
+      <c r="G1" s="319"/>
+      <c r="H1" s="319"/>
+      <c r="I1" s="319"/>
+      <c r="J1" s="319"/>
+      <c r="K1" s="319"/>
+      <c r="L1" s="319"/>
+      <c r="M1" s="319"/>
+      <c r="N1" s="319"/>
+      <c r="O1" s="319"/>
+      <c r="P1" s="319"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="320" t="s">
         <v>255</v>
       </c>
-      <c r="B2" s="309"/>
-      <c r="C2" s="309"/>
-      <c r="D2" s="309"/>
-      <c r="E2" s="309"/>
-      <c r="F2" s="309"/>
-      <c r="G2" s="309" t="s">
+      <c r="B2" s="320"/>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
+      <c r="F2" s="320"/>
+      <c r="G2" s="320" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="309"/>
-      <c r="I2" s="309"/>
-      <c r="J2" s="309"/>
-      <c r="K2" s="309"/>
-      <c r="L2" s="309"/>
-      <c r="M2" s="313" t="s">
+      <c r="H2" s="320"/>
+      <c r="I2" s="320"/>
+      <c r="J2" s="320"/>
+      <c r="K2" s="320"/>
+      <c r="L2" s="320"/>
+      <c r="M2" s="303" t="s">
         <v>270</v>
       </c>
-      <c r="N2" s="313"/>
-      <c r="O2" s="313"/>
-      <c r="P2" s="313"/>
+      <c r="N2" s="303"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="303"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="311" t="s">
+      <c r="A3" s="322" t="s">
         <v>274</v>
       </c>
-      <c r="B3" s="311"/>
-      <c r="C3" s="311"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="311"/>
-      <c r="F3" s="311"/>
-      <c r="G3" s="311" t="s">
+      <c r="B3" s="322"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="322" t="s">
         <v>273</v>
       </c>
-      <c r="H3" s="311"/>
-      <c r="I3" s="311"/>
-      <c r="J3" s="311"/>
-      <c r="K3" s="311"/>
-      <c r="L3" s="311"/>
-      <c r="M3" s="195" t="s">
+      <c r="H3" s="322"/>
+      <c r="I3" s="322"/>
+      <c r="J3" s="322"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="322"/>
+      <c r="M3" s="194" t="s">
         <v>276</v>
       </c>
-      <c r="N3" s="195" t="s">
+      <c r="N3" s="194" t="s">
         <v>275</v>
       </c>
-      <c r="O3" s="195" t="s">
-        <v>346</v>
-      </c>
-      <c r="P3" s="195" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q3" s="199"/>
+      <c r="O3" s="194" t="s">
+        <v>344</v>
+      </c>
+      <c r="P3" s="194" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q3" s="196"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="310" t="s">
+      <c r="A4" s="321" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="310"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310" t="s">
+      <c r="B4" s="321"/>
+      <c r="C4" s="321"/>
+      <c r="D4" s="321" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="310" t="s">
+      <c r="E4" s="321"/>
+      <c r="F4" s="321"/>
+      <c r="G4" s="321" t="s">
         <v>223</v>
       </c>
-      <c r="H4" s="310"/>
-      <c r="I4" s="310"/>
-      <c r="J4" s="310"/>
-      <c r="K4" s="310"/>
-      <c r="L4" s="310"/>
+      <c r="H4" s="321"/>
+      <c r="I4" s="321"/>
+      <c r="J4" s="321"/>
+      <c r="K4" s="321"/>
+      <c r="L4" s="321"/>
       <c r="M4" s="166" t="s">
         <v>227</v>
       </c>
@@ -9312,105 +9304,105 @@
         <v>154</v>
       </c>
       <c r="O4" s="166" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P4" s="166" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="305"/>
-      <c r="B5" s="305"/>
-      <c r="C5" s="305"/>
-      <c r="D5" s="305"/>
-      <c r="E5" s="305"/>
-      <c r="F5" s="305"/>
-      <c r="G5" s="317" t="s">
+      <c r="A5" s="302"/>
+      <c r="B5" s="302"/>
+      <c r="C5" s="302"/>
+      <c r="D5" s="302"/>
+      <c r="E5" s="302"/>
+      <c r="F5" s="302"/>
+      <c r="G5" s="323" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="317"/>
-      <c r="I5" s="317"/>
-      <c r="J5" s="317"/>
-      <c r="K5" s="317"/>
-      <c r="L5" s="317"/>
-      <c r="M5" s="194" t="s">
+      <c r="H5" s="323"/>
+      <c r="I5" s="323"/>
+      <c r="J5" s="323"/>
+      <c r="K5" s="323"/>
+      <c r="L5" s="323"/>
+      <c r="M5" s="193" t="s">
         <v>267</v>
       </c>
-      <c r="N5" s="194"/>
-      <c r="O5" s="194" t="s">
-        <v>364</v>
-      </c>
-      <c r="P5" s="194" t="s">
-        <v>365</v>
+      <c r="N5" s="193"/>
+      <c r="O5" s="193" t="s">
+        <v>362</v>
+      </c>
+      <c r="P5" s="193" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="305"/>
-      <c r="B6" s="305"/>
-      <c r="C6" s="305"/>
-      <c r="D6" s="305"/>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="317"/>
-      <c r="H6" s="317"/>
-      <c r="I6" s="317"/>
-      <c r="J6" s="317"/>
-      <c r="K6" s="317"/>
-      <c r="L6" s="317"/>
-      <c r="M6" s="194"/>
-      <c r="N6" s="194"/>
-      <c r="O6" s="194"/>
+      <c r="A6" s="302"/>
+      <c r="B6" s="302"/>
+      <c r="C6" s="302"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="323"/>
+      <c r="H6" s="323"/>
+      <c r="I6" s="323"/>
+      <c r="J6" s="323"/>
+      <c r="K6" s="323"/>
+      <c r="L6" s="323"/>
+      <c r="M6" s="193"/>
+      <c r="N6" s="193"/>
+      <c r="O6" s="193"/>
       <c r="P6" s="167"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="305"/>
-      <c r="B7" s="305"/>
-      <c r="C7" s="305"/>
-      <c r="D7" s="305"/>
-      <c r="E7" s="305"/>
-      <c r="F7" s="305"/>
-      <c r="G7" s="317"/>
-      <c r="H7" s="317"/>
-      <c r="I7" s="317"/>
-      <c r="J7" s="317"/>
-      <c r="K7" s="317"/>
-      <c r="L7" s="317"/>
-      <c r="M7" s="194"/>
-      <c r="N7" s="194"/>
-      <c r="O7" s="194"/>
+      <c r="A7" s="302"/>
+      <c r="B7" s="302"/>
+      <c r="C7" s="302"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="302"/>
+      <c r="G7" s="323"/>
+      <c r="H7" s="323"/>
+      <c r="I7" s="323"/>
+      <c r="J7" s="323"/>
+      <c r="K7" s="323"/>
+      <c r="L7" s="323"/>
+      <c r="M7" s="193"/>
+      <c r="N7" s="193"/>
+      <c r="O7" s="193"/>
       <c r="P7" s="165"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="305"/>
-      <c r="B8" s="305"/>
-      <c r="C8" s="305"/>
-      <c r="D8" s="305"/>
-      <c r="E8" s="305"/>
-      <c r="F8" s="305"/>
-      <c r="G8" s="317"/>
-      <c r="H8" s="317"/>
-      <c r="I8" s="317"/>
-      <c r="J8" s="317"/>
-      <c r="K8" s="317"/>
-      <c r="L8" s="317"/>
-      <c r="M8" s="194"/>
-      <c r="N8" s="194"/>
-      <c r="O8" s="194"/>
+      <c r="A8" s="302"/>
+      <c r="B8" s="302"/>
+      <c r="C8" s="302"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="302"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="323"/>
+      <c r="H8" s="323"/>
+      <c r="I8" s="323"/>
+      <c r="J8" s="323"/>
+      <c r="K8" s="323"/>
+      <c r="L8" s="323"/>
+      <c r="M8" s="193"/>
+      <c r="N8" s="193"/>
+      <c r="O8" s="193"/>
       <c r="P8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="314" t="s">
+      <c r="A10" s="304" t="s">
         <v>331</v>
       </c>
-      <c r="B10" s="315"/>
-      <c r="C10" s="315"/>
-      <c r="D10" s="315"/>
-      <c r="E10" s="315"/>
-      <c r="F10" s="315"/>
-      <c r="G10" s="315"/>
-      <c r="H10" s="315"/>
-      <c r="I10" s="316"/>
+      <c r="B10" s="305"/>
+      <c r="C10" s="305"/>
+      <c r="D10" s="305"/>
+      <c r="E10" s="305"/>
+      <c r="F10" s="305"/>
+      <c r="G10" s="305"/>
+      <c r="H10" s="305"/>
+      <c r="I10" s="306"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
@@ -9419,8 +9411,8 @@
       <c r="B11" s="132" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="188" t="s">
-        <v>346</v>
+      <c r="C11" s="187" t="s">
+        <v>344</v>
       </c>
       <c r="D11" s="125" t="s">
         <v>246</v>
@@ -9447,7 +9439,7 @@
         <v>226</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D12" s="147" t="s">
         <v>94</v>
@@ -9492,69 +9484,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="292" t="s">
+      <c r="A15" s="289" t="s">
         <v>256</v>
       </c>
-      <c r="B15" s="293"/>
-      <c r="C15" s="293"/>
-      <c r="D15" s="293"/>
-      <c r="E15" s="293"/>
-      <c r="F15" s="293"/>
-      <c r="G15" s="293"/>
-      <c r="H15" s="294"/>
+      <c r="B15" s="290"/>
+      <c r="C15" s="290"/>
+      <c r="D15" s="290"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="290"/>
+      <c r="H15" s="291"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="295" t="s">
-        <v>343</v>
-      </c>
-      <c r="B16" s="296"/>
-      <c r="C16" s="296"/>
-      <c r="D16" s="296"/>
-      <c r="E16" s="296"/>
-      <c r="F16" s="296"/>
-      <c r="G16" s="296"/>
-      <c r="H16" s="297"/>
+      <c r="A16" s="292" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16" s="293"/>
+      <c r="C16" s="293"/>
+      <c r="D16" s="293"/>
+      <c r="E16" s="293"/>
+      <c r="F16" s="293"/>
+      <c r="G16" s="293"/>
+      <c r="H16" s="294"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="295"/>
-      <c r="B17" s="296"/>
-      <c r="C17" s="296"/>
-      <c r="D17" s="296"/>
-      <c r="E17" s="296"/>
-      <c r="F17" s="296"/>
-      <c r="G17" s="296"/>
-      <c r="H17" s="297"/>
+      <c r="A17" s="292"/>
+      <c r="B17" s="293"/>
+      <c r="C17" s="293"/>
+      <c r="D17" s="293"/>
+      <c r="E17" s="293"/>
+      <c r="F17" s="293"/>
+      <c r="G17" s="293"/>
+      <c r="H17" s="294"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="295"/>
-      <c r="B18" s="296"/>
-      <c r="C18" s="296"/>
-      <c r="D18" s="296"/>
-      <c r="E18" s="296"/>
-      <c r="F18" s="296"/>
-      <c r="G18" s="296"/>
-      <c r="H18" s="297"/>
+      <c r="A18" s="292"/>
+      <c r="B18" s="293"/>
+      <c r="C18" s="293"/>
+      <c r="D18" s="293"/>
+      <c r="E18" s="293"/>
+      <c r="F18" s="293"/>
+      <c r="G18" s="293"/>
+      <c r="H18" s="294"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="298"/>
-      <c r="B19" s="299"/>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="300"/>
+      <c r="A19" s="295"/>
+      <c r="B19" s="296"/>
+      <c r="C19" s="296"/>
+      <c r="D19" s="296"/>
+      <c r="E19" s="296"/>
+      <c r="F19" s="296"/>
+      <c r="G19" s="296"/>
+      <c r="H19" s="297"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="304" t="s">
+      <c r="A21" s="301" t="s">
         <v>285</v>
       </c>
-      <c r="B21" s="304"/>
-      <c r="C21" s="304"/>
-      <c r="D21" s="304"/>
-      <c r="E21" s="304"/>
-      <c r="F21" s="304"/>
-      <c r="G21" s="304"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="301"/>
+      <c r="D21" s="301"/>
+      <c r="E21" s="301"/>
+      <c r="F21" s="301"/>
+      <c r="G21" s="301"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -9566,12 +9558,12 @@
       <c r="C22" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="264" t="s">
+      <c r="D22" s="261" t="s">
         <v>288</v>
       </c>
-      <c r="E22" s="264"/>
-      <c r="F22" s="264"/>
-      <c r="G22" s="264"/>
+      <c r="E22" s="261"/>
+      <c r="F22" s="261"/>
+      <c r="G22" s="261"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9581,10 +9573,10 @@
         <v>290</v>
       </c>
       <c r="C23" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D23" s="174" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -9595,9 +9587,9 @@
         <v>315</v>
       </c>
       <c r="C24" t="s">
-        <v>432</v>
-      </c>
-      <c r="D24" s="187" t="s">
+        <v>430</v>
+      </c>
+      <c r="D24" s="186" t="s">
         <v>312</v>
       </c>
     </row>
@@ -9609,7 +9601,7 @@
         <v>316</v>
       </c>
       <c r="C25" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D25" s="174" t="s">
         <v>313</v>
@@ -9623,10 +9615,10 @@
         <v>317</v>
       </c>
       <c r="C26" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D26" s="174" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -9637,7 +9629,7 @@
         <v>318</v>
       </c>
       <c r="C27" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D27" s="177" t="s">
         <v>314</v>
@@ -9651,10 +9643,10 @@
         <v>291</v>
       </c>
       <c r="C28" t="s">
-        <v>432</v>
-      </c>
-      <c r="D28" s="187" t="s">
-        <v>380</v>
+        <v>430</v>
+      </c>
+      <c r="D28" s="186" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -9665,10 +9657,10 @@
         <v>291</v>
       </c>
       <c r="C29" t="s">
-        <v>432</v>
-      </c>
-      <c r="D29" s="187" t="s">
-        <v>366</v>
+        <v>430</v>
+      </c>
+      <c r="D29" s="186" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -9679,10 +9671,10 @@
         <v>291</v>
       </c>
       <c r="C30" t="s">
-        <v>432</v>
-      </c>
-      <c r="D30" s="187" t="s">
-        <v>381</v>
+        <v>430</v>
+      </c>
+      <c r="D30" s="186" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -9693,9 +9685,9 @@
         <v>291</v>
       </c>
       <c r="C31" t="s">
-        <v>432</v>
-      </c>
-      <c r="D31" s="187" t="s">
+        <v>430</v>
+      </c>
+      <c r="D31" s="186" t="s">
         <v>323</v>
       </c>
     </row>
@@ -9707,24 +9699,24 @@
         <v>319</v>
       </c>
       <c r="C32" t="s">
-        <v>432</v>
-      </c>
-      <c r="D32" s="187" t="s">
+        <v>430</v>
+      </c>
+      <c r="D32" s="186" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B33" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C33" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D33" s="174" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9735,24 +9727,14 @@
         <v>326</v>
       </c>
       <c r="C34" t="s">
-        <v>432</v>
-      </c>
-      <c r="D34" s="187" t="s">
+        <v>430</v>
+      </c>
+      <c r="D34" s="186" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9769,6 +9751,16 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9850,12 +9842,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="324" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="320"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="326"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -9938,25 +9930,25 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="215" t="s">
-        <v>462</v>
+      <c r="A7" s="212" t="s">
+        <v>460</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="C7" s="216"/>
+        <v>461</v>
+      </c>
+      <c r="C7" s="213"/>
       <c r="D7" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="215" t="s">
-        <v>464</v>
+      <c r="A8" s="212" t="s">
+        <v>462</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="C8" s="216"/>
+        <v>463</v>
+      </c>
+      <c r="C8" s="213"/>
       <c r="D8" s="24">
         <v>1</v>
       </c>
@@ -10616,23 +10608,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="330" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="325"/>
-      <c r="E1" s="325"/>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="325"/>
-      <c r="L1" s="325"/>
-      <c r="M1" s="325"/>
-      <c r="N1" s="325"/>
-      <c r="O1" s="325"/>
+      <c r="B1" s="331"/>
+      <c r="C1" s="331"/>
+      <c r="D1" s="331"/>
+      <c r="E1" s="331"/>
+      <c r="F1" s="331"/>
+      <c r="G1" s="331"/>
+      <c r="H1" s="331"/>
+      <c r="I1" s="331"/>
+      <c r="J1" s="331"/>
+      <c r="K1" s="331"/>
+      <c r="L1" s="331"/>
+      <c r="M1" s="331"/>
+      <c r="N1" s="331"/>
+      <c r="O1" s="331"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -10650,17 +10642,17 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="321" t="s">
+      <c r="B3" s="327" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
-      <c r="F3" s="322"/>
-      <c r="G3" s="322"/>
-      <c r="H3" s="322"/>
-      <c r="I3" s="322"/>
-      <c r="J3" s="323"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="329"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="37"/>
@@ -10851,21 +10843,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="321" t="s">
+      <c r="B19" s="327" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="322"/>
-      <c r="D19" s="322"/>
-      <c r="E19" s="322"/>
-      <c r="F19" s="322"/>
-      <c r="G19" s="322"/>
-      <c r="H19" s="322"/>
-      <c r="I19" s="322"/>
-      <c r="J19" s="322"/>
-      <c r="K19" s="322"/>
-      <c r="L19" s="322"/>
-      <c r="M19" s="322"/>
-      <c r="N19" s="323"/>
+      <c r="C19" s="328"/>
+      <c r="D19" s="328"/>
+      <c r="E19" s="328"/>
+      <c r="F19" s="328"/>
+      <c r="G19" s="328"/>
+      <c r="H19" s="328"/>
+      <c r="I19" s="328"/>
+      <c r="J19" s="328"/>
+      <c r="K19" s="328"/>
+      <c r="L19" s="328"/>
+      <c r="M19" s="328"/>
+      <c r="N19" s="329"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
@@ -11067,27 +11059,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="329" t="s">
+      <c r="A1" s="335" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="330"/>
-      <c r="C1" s="330"/>
-      <c r="D1" s="330"/>
-      <c r="E1" s="330"/>
-      <c r="F1" s="330"/>
-      <c r="G1" s="330"/>
-      <c r="H1" s="330"/>
-      <c r="I1" s="330"/>
-      <c r="J1" s="330"/>
-      <c r="K1" s="330"/>
-      <c r="L1" s="330"/>
-      <c r="M1" s="330"/>
-      <c r="N1" s="330"/>
-      <c r="O1" s="330"/>
-      <c r="P1" s="330"/>
-      <c r="Q1" s="330"/>
-      <c r="R1" s="330"/>
-      <c r="S1" s="330"/>
+      <c r="B1" s="336"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="336"/>
+      <c r="G1" s="336"/>
+      <c r="H1" s="336"/>
+      <c r="I1" s="336"/>
+      <c r="J1" s="336"/>
+      <c r="K1" s="336"/>
+      <c r="L1" s="336"/>
+      <c r="M1" s="336"/>
+      <c r="N1" s="336"/>
+      <c r="O1" s="336"/>
+      <c r="P1" s="336"/>
+      <c r="Q1" s="336"/>
+      <c r="R1" s="336"/>
+      <c r="S1" s="336"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -11101,26 +11093,26 @@
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="321" t="s">
+      <c r="B3" s="327" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
-      <c r="F3" s="322"/>
-      <c r="G3" s="322"/>
-      <c r="H3" s="322"/>
-      <c r="I3" s="322"/>
-      <c r="J3" s="323"/>
-      <c r="L3" s="326" t="s">
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="329"/>
+      <c r="L3" s="332" t="s">
         <v>196</v>
       </c>
-      <c r="M3" s="327"/>
-      <c r="N3" s="327"/>
-      <c r="O3" s="327"/>
-      <c r="P3" s="327"/>
-      <c r="Q3" s="327"/>
-      <c r="R3" s="328"/>
+      <c r="M3" s="333"/>
+      <c r="N3" s="333"/>
+      <c r="O3" s="333"/>
+      <c r="P3" s="333"/>
+      <c r="Q3" s="333"/>
+      <c r="R3" s="334"/>
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
     </row>
@@ -11351,23 +11343,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="337" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="332"/>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
-      <c r="I1" s="332"/>
-      <c r="J1" s="332"/>
-      <c r="K1" s="332"/>
-      <c r="L1" s="332"/>
-      <c r="M1" s="332"/>
-      <c r="N1" s="332"/>
-      <c r="O1" s="333"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
+      <c r="N1" s="338"/>
+      <c r="O1" s="339"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11380,22 +11372,22 @@
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="321" t="s">
+      <c r="B3" s="327" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
-      <c r="F3" s="322"/>
-      <c r="G3" s="322"/>
-      <c r="H3" s="323"/>
-      <c r="J3" s="326" t="s">
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328"/>
+      <c r="H3" s="329"/>
+      <c r="J3" s="332" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="327"/>
-      <c r="L3" s="327"/>
-      <c r="M3" s="327"/>
-      <c r="N3" s="328"/>
+      <c r="K3" s="333"/>
+      <c r="L3" s="333"/>
+      <c r="M3" s="333"/>
+      <c r="N3" s="334"/>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
     </row>

--- a/test_templates/test_batch_template4.xlsx
+++ b/test_templates/test_batch_template4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="486">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -692,12 +692,6 @@
   </si>
   <si>
     <t>Preferences for Transfer Curve Analysis</t>
-  </si>
-  <si>
-    <t>Sample Column Name</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
   <si>
     <t>Comparisons</t>
@@ -808,9 +802,6 @@
   </si>
   <si>
     <t>Shortened Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
   </si>
   <si>
     <t>Optional</t>
@@ -1018,9 +1009,6 @@
   </si>
   <si>
     <t>Preferences potentially unique to each transfer curve analysis</t>
-  </si>
-  <si>
-    <t>Only samples with a given value for a specific condition/column in "Samples" are considered for analysis. There can be multiple groups for a single plusminus analysis. More than one plusminus analysis can be executed as long as the Comparison Groups are aligned with the correct Comparisons.</t>
   </si>
   <si>
     <t>Preferences potentially unique to each plusminus analysis</t>
@@ -1070,30 +1058,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Only samples with a given value for a specific condition/column in "Samples" are considered for analysis. Each group corresponds to a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>separate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> transfer curve analysis. Leave blank if not applicable. (There should be a Comparison for every Comparison Group.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -1980,12 +1944,6 @@
     <t>UnsafeCharacters</t>
   </si>
   <si>
-    <t>transfercurve</t>
-  </si>
-  <si>
-    <t>transfercurve/plots</t>
-  </si>
-  <si>
     <t>Missing Output Filename in "Calibration" sheet. Defaulting to exp name.</t>
   </si>
   <si>
@@ -2388,28 +2346,105 @@
   <si>
     <t>plusminus/plots</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only samples with given values for listed condition/column(s) in "Samples" are considered for analysis. There can be multiple groups for a single plusminus analysis. More than one plusminus analysis can be executed as long as the Comparison Groups are aligned with the correct Comparisons. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FORMAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ColName1 = Value1, ColName2 = Value2</t>
+    </r>
+  </si>
+  <si>
+    <t>Sample Column Name=Value</t>
+  </si>
+  <si>
+    <t>DOSE=Low</t>
+  </si>
+  <si>
+    <t>DOSE=High</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only samples with given values for listed condition/column(s) in "Samples" are considered for analysis. Each group corresponds to a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>separate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> transfer curve analysis. Leave blank if not applicable. (There should be a Comparison for every Comparison Group.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FORMAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ColName1 = Value1, ColName2 = Value2</t>
+    </r>
+  </si>
+  <si>
+    <t>transfercurve1</t>
+  </si>
+  <si>
+    <t>transfercurve1/plots</t>
+  </si>
+  <si>
+    <t>DOSE = Low, 10xDox = 0.1</t>
+  </si>
+  <si>
+    <t>transfercurve2</t>
+  </si>
+  <si>
+    <t>transfercurve2/plots</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3394,25 +3429,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="343">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3428,7 +3463,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3439,28 +3474,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3481,62 +3516,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3547,20 +3582,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3569,32 +3604,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3612,19 +3647,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3633,304 +3668,283 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3941,18 +3955,18 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3980,29 +3994,125 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4013,151 +4123,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4187,31 +4201,31 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4232,146 +4246,171 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5294,86 +5333,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="229" t="s">
-        <v>356</v>
-      </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="231"/>
+      <c r="A1" s="233" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="235"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="245" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" s="246"/>
+      <c r="A3" s="212" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="213"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="243" t="s">
+      <c r="A4" s="226" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="244"/>
+      <c r="B4" s="227"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="259" t="s">
+      <c r="A5" s="228" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="260"/>
+      <c r="B5" s="229"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="245" t="s">
-        <v>249</v>
-      </c>
-      <c r="B7" s="247"/>
-      <c r="C7" s="247"/>
-      <c r="D7" s="247"/>
-      <c r="E7" s="247"/>
-      <c r="F7" s="247"/>
-      <c r="G7" s="247"/>
-      <c r="H7" s="247"/>
-      <c r="I7" s="247"/>
-      <c r="J7" s="247"/>
-      <c r="K7" s="246"/>
+      <c r="A7" s="212" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="214"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="214"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="213"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="232" t="s">
+      <c r="A8" s="236" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="233"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="233"/>
-      <c r="E8" s="233"/>
-      <c r="F8" s="233"/>
-      <c r="G8" s="233"/>
-      <c r="H8" s="233"/>
-      <c r="I8" s="233"/>
-      <c r="J8" s="233"/>
-      <c r="K8" s="234"/>
+      <c r="B8" s="237"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="237"/>
+      <c r="H8" s="237"/>
+      <c r="I8" s="237"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="238"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="235"/>
-      <c r="B9" s="236"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="236"/>
-      <c r="G9" s="236"/>
-      <c r="H9" s="236"/>
-      <c r="I9" s="236"/>
-      <c r="J9" s="236"/>
-      <c r="K9" s="237"/>
+      <c r="A9" s="239"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="240"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="240"/>
+      <c r="H9" s="240"/>
+      <c r="I9" s="240"/>
+      <c r="J9" s="240"/>
+      <c r="K9" s="241"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="156"/>
@@ -5384,89 +5423,89 @@
       <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="248" t="s">
-        <v>250</v>
-      </c>
-      <c r="B11" s="249"/>
-      <c r="C11" s="249"/>
-      <c r="D11" s="250"/>
+      <c r="A11" s="215" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="216"/>
+      <c r="C11" s="216"/>
+      <c r="D11" s="217"/>
       <c r="E11" s="87"/>
       <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="251" t="s">
+      <c r="A12" s="218" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="252"/>
-      <c r="C12" s="253" t="s">
+      <c r="B12" s="219"/>
+      <c r="C12" s="220" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="254"/>
+      <c r="D12" s="221"/>
       <c r="E12" s="87"/>
       <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="255"/>
-      <c r="B13" s="256"/>
-      <c r="C13" s="257"/>
-      <c r="D13" s="258"/>
+      <c r="A13" s="222"/>
+      <c r="B13" s="223"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="225"/>
       <c r="E13" s="87"/>
       <c r="F13" s="142"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="248" t="s">
-        <v>251</v>
-      </c>
-      <c r="B15" s="250"/>
-      <c r="E15" s="248" t="s">
-        <v>293</v>
-      </c>
-      <c r="F15" s="249"/>
-      <c r="G15" s="249"/>
-      <c r="H15" s="249"/>
-      <c r="I15" s="250"/>
+      <c r="A15" s="215" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="217"/>
+      <c r="E15" s="215" t="s">
+        <v>288</v>
+      </c>
+      <c r="F15" s="216"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="216"/>
+      <c r="I15" s="217"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="243" t="s">
+      <c r="A16" s="226" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="244"/>
+      <c r="B16" s="227"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="238" t="s">
+      <c r="E16" s="242" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="239"/>
-      <c r="G16" s="239"/>
-      <c r="H16" s="239"/>
-      <c r="I16" s="240"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="243"/>
+      <c r="H16" s="243"/>
+      <c r="I16" s="244"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="157" t="s">
         <v>210</v>
       </c>
       <c r="B17" s="115" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C17" s="89"/>
-      <c r="E17" s="241" t="s">
+      <c r="E17" s="245" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="242"/>
-      <c r="G17" s="202" t="s">
+      <c r="F17" s="246"/>
+      <c r="G17" s="195" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="202" t="s">
+      <c r="H17" s="195" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="188" t="s">
-        <v>334</v>
+      <c r="I17" s="184" t="s">
+        <v>329</v>
       </c>
       <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="158" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B18" s="90" t="s">
         <v>211</v>
@@ -5482,14 +5521,14 @@
       <c r="H18" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="217" t="s">
-        <v>451</v>
+      <c r="I18" s="230" t="s">
+        <v>444</v>
       </c>
       <c r="J18" s="81"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="159" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B19" s="116"/>
       <c r="C19" s="89"/>
@@ -5505,12 +5544,12 @@
       <c r="H19" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="I19" s="217"/>
+      <c r="I19" s="230"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="159" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B20" s="116"/>
       <c r="C20" s="91"/>
@@ -5522,12 +5561,12 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="218"/>
+      <c r="I20" s="231"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="159" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B21" s="116"/>
       <c r="C21" s="32"/>
@@ -5544,32 +5583,32 @@
       <c r="A23" s="161"/>
       <c r="B23" s="92"/>
       <c r="C23" s="91"/>
-      <c r="E23" s="219" t="s">
+      <c r="E23" s="210" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="220"/>
-      <c r="G23" s="220"/>
-      <c r="H23" s="220"/>
-      <c r="I23" s="221"/>
+      <c r="F23" s="232"/>
+      <c r="G23" s="232"/>
+      <c r="H23" s="232"/>
+      <c r="I23" s="211"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="219" t="s">
+      <c r="A24" s="210" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="221"/>
+      <c r="B24" s="211"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="225" t="s">
+      <c r="E24" s="250" t="s">
         <v>208</v>
       </c>
-      <c r="F24" s="226"/>
-      <c r="G24" s="202" t="s">
+      <c r="F24" s="251"/>
+      <c r="G24" s="195" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="202" t="s">
+      <c r="H24" s="195" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="188" t="s">
-        <v>335</v>
+      <c r="I24" s="184" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5577,7 +5616,7 @@
         <v>210</v>
       </c>
       <c r="B25" s="115" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C25" s="32"/>
       <c r="E25" s="83">
@@ -5590,13 +5629,13 @@
       <c r="H25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="222" t="s">
-        <v>452</v>
+      <c r="I25" s="247" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="158" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B26" s="90" t="s">
         <v>211</v>
@@ -5614,11 +5653,11 @@
       <c r="H26" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="I26" s="223"/>
+      <c r="I26" s="248"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="159" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B27" s="116"/>
       <c r="C27" s="91"/>
@@ -5630,11 +5669,11 @@
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="224"/>
+      <c r="I27" s="249"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="159" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B28" s="116"/>
       <c r="C28" s="32"/>
@@ -5654,37 +5693,37 @@
       <c r="A30" s="160"/>
       <c r="B30" s="117"/>
       <c r="C30" s="89"/>
-      <c r="E30" s="219" t="s">
+      <c r="E30" s="210" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="220"/>
-      <c r="G30" s="220"/>
-      <c r="H30" s="220"/>
-      <c r="I30" s="221"/>
+      <c r="F30" s="232"/>
+      <c r="G30" s="232"/>
+      <c r="H30" s="232"/>
+      <c r="I30" s="211"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="161"/>
       <c r="B31" s="91"/>
       <c r="C31" s="91"/>
-      <c r="E31" s="227" t="s">
-        <v>437</v>
-      </c>
-      <c r="F31" s="228"/>
-      <c r="G31" s="200" t="s">
+      <c r="E31" s="252" t="s">
+        <v>430</v>
+      </c>
+      <c r="F31" s="253"/>
+      <c r="G31" s="193" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="200" t="s">
+      <c r="H31" s="193" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="188" t="s">
-        <v>336</v>
+      <c r="I31" s="184" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="219" t="s">
+      <c r="A32" s="210" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="221"/>
+      <c r="B32" s="211"/>
       <c r="C32" s="32"/>
       <c r="E32" s="83">
         <v>1</v>
@@ -5694,14 +5733,14 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="217"/>
+      <c r="I32" s="230"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="157" t="s">
         <v>210</v>
       </c>
       <c r="B33" s="115" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C33" s="89"/>
       <c r="E33" s="83">
@@ -5714,7 +5753,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="217"/>
+      <c r="I33" s="230"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="158" t="s">
@@ -5729,7 +5768,7 @@
       <c r="F34" s="93"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="217"/>
+      <c r="I34" s="230"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="159" t="s">
@@ -5742,7 +5781,7 @@
       <c r="F35" s="93"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="217"/>
+      <c r="I35" s="230"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="159" t="s">
@@ -5755,7 +5794,7 @@
       <c r="F36" s="93"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="217"/>
+      <c r="I36" s="230"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="159" t="s">
@@ -5768,7 +5807,7 @@
       <c r="F37" s="140"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="218"/>
+      <c r="I37" s="231"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="160" t="s">
@@ -5781,25 +5820,25 @@
       <c r="B39" s="121"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="219" t="s">
+      <c r="E40" s="210" t="s">
         <v>187</v>
       </c>
-      <c r="F40" s="220"/>
-      <c r="G40" s="220"/>
-      <c r="H40" s="220"/>
-      <c r="I40" s="221"/>
+      <c r="F40" s="232"/>
+      <c r="G40" s="232"/>
+      <c r="H40" s="232"/>
+      <c r="I40" s="211"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="225"/>
-      <c r="F41" s="226"/>
+      <c r="E41" s="250"/>
+      <c r="F41" s="251"/>
       <c r="G41" s="82" t="s">
         <v>159</v>
       </c>
       <c r="H41" s="82" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="188" t="s">
-        <v>337</v>
+      <c r="I41" s="184" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5809,7 +5848,7 @@
       <c r="F42" s="93"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="217"/>
+      <c r="I42" s="230"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="83">
@@ -5818,7 +5857,7 @@
       <c r="F43" s="93"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="217"/>
+      <c r="I43" s="230"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="83">
@@ -5827,7 +5866,7 @@
       <c r="F44" s="93"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="217"/>
+      <c r="I44" s="230"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="83">
@@ -5836,7 +5875,7 @@
       <c r="F45" s="93"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="217"/>
+      <c r="I45" s="230"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="83">
@@ -5845,7 +5884,7 @@
       <c r="F46" s="93"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="217"/>
+      <c r="I46" s="230"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="84">
@@ -5854,11 +5893,25 @@
       <c r="F47" s="140"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="218"/>
+      <c r="I47" s="231"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5874,20 +5927,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5927,32 +5966,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="265" t="s">
-        <v>357</v>
-      </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="267"/>
+      <c r="A1" s="258" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="260"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="261" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="270"/>
+      <c r="B2" s="262"/>
+      <c r="C2" s="262"/>
+      <c r="D2" s="262"/>
+      <c r="E2" s="262"/>
+      <c r="F2" s="262"/>
+      <c r="G2" s="262"/>
+      <c r="H2" s="262"/>
+      <c r="I2" s="262"/>
+      <c r="J2" s="263"/>
       <c r="K2" s="79"/>
       <c r="L2" s="79"/>
       <c r="M2" s="75"/>
@@ -5960,27 +5999,27 @@
       <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="172" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="175" t="s">
-        <v>295</v>
-      </c>
-      <c r="C3" s="271" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" s="272"/>
-      <c r="E3" s="272"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="175" t="s">
-        <v>296</v>
-      </c>
-      <c r="I3" s="175" t="s">
-        <v>297</v>
-      </c>
-      <c r="J3" s="176" t="s">
-        <v>298</v>
+      <c r="A3" s="168" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="171" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="264" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="265"/>
+      <c r="E3" s="265"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="266"/>
+      <c r="H3" s="171" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3" s="171" t="s">
+        <v>292</v>
+      </c>
+      <c r="J3" s="172" t="s">
+        <v>293</v>
       </c>
       <c r="K3" s="79"/>
       <c r="L3" s="79"/>
@@ -5999,16 +6038,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="139" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E4" s="139" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F4" s="139" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G4" s="139" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="H4" s="139" t="s">
         <v>189</v>
@@ -6016,8 +6055,8 @@
       <c r="I4" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="192" t="s">
-        <v>381</v>
+      <c r="J4" s="188" t="s">
+        <v>374</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -6026,8 +6065,8 @@
       <c r="A5" s="108">
         <v>1</v>
       </c>
-      <c r="B5" s="203" t="s">
-        <v>453</v>
+      <c r="B5" s="196" t="s">
+        <v>446</v>
       </c>
       <c r="C5" s="109">
         <v>0.1</v>
@@ -6042,14 +6081,14 @@
         <v>1</v>
       </c>
       <c r="I5" s="111" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="J5" s="112"/>
-      <c r="K5" s="204" t="s">
-        <v>438</v>
-      </c>
-      <c r="L5" s="204" t="s">
-        <v>439</v>
+      <c r="K5" s="197" t="s">
+        <v>431</v>
+      </c>
+      <c r="L5" s="197" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6057,8 +6096,8 @@
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="203" t="s">
-        <v>455</v>
+      <c r="B6" s="196" t="s">
+        <v>448</v>
       </c>
       <c r="C6" s="109">
         <v>0.2</v>
@@ -6073,14 +6112,14 @@
         <v>1</v>
       </c>
       <c r="I6" s="111" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="J6" s="112"/>
-      <c r="K6" s="204" t="s">
-        <v>440</v>
-      </c>
-      <c r="L6" s="204" t="s">
-        <v>441</v>
+      <c r="K6" s="197" t="s">
+        <v>433</v>
+      </c>
+      <c r="L6" s="197" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6088,8 +6127,8 @@
         <f t="shared" ref="A7:A22" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="203" t="s">
-        <v>457</v>
+      <c r="B7" s="196" t="s">
+        <v>450</v>
       </c>
       <c r="C7" s="109">
         <v>0.5</v>
@@ -6104,14 +6143,14 @@
         <v>1</v>
       </c>
       <c r="I7" s="111" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="J7" s="112"/>
-      <c r="K7" s="204" t="s">
-        <v>442</v>
-      </c>
-      <c r="L7" s="204" t="s">
-        <v>443</v>
+      <c r="K7" s="197" t="s">
+        <v>435</v>
+      </c>
+      <c r="L7" s="197" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6119,16 +6158,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="214" t="s">
-        <v>464</v>
+      <c r="B8" s="207" t="s">
+        <v>457</v>
       </c>
       <c r="C8" s="109"/>
       <c r="D8" s="109" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E8" s="109"/>
       <c r="F8" s="109" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G8" s="109">
         <v>0.1</v>
@@ -6137,31 +6176,31 @@
         <v>1</v>
       </c>
       <c r="I8" s="111" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="J8" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="204" t="s">
-        <v>478</v>
-      </c>
-      <c r="L8" s="204"/>
+      <c r="K8" s="197" t="s">
+        <v>471</v>
+      </c>
+      <c r="L8" s="197"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="108">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="214" t="s">
-        <v>465</v>
+      <c r="B9" s="207" t="s">
+        <v>458</v>
       </c>
       <c r="C9" s="109"/>
       <c r="D9" s="109" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E9" s="109"/>
       <c r="F9" s="109" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G9" s="109">
         <v>0.2</v>
@@ -6170,31 +6209,31 @@
         <v>1</v>
       </c>
       <c r="I9" s="111" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J9" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="204" t="s">
-        <v>479</v>
-      </c>
-      <c r="L9" s="204"/>
+      <c r="K9" s="197" t="s">
+        <v>472</v>
+      </c>
+      <c r="L9" s="197"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="108">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="214" t="s">
-        <v>466</v>
+      <c r="B10" s="207" t="s">
+        <v>459</v>
       </c>
       <c r="C10" s="109"/>
       <c r="D10" s="109" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E10" s="109"/>
       <c r="F10" s="109" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G10" s="109">
         <v>0.1</v>
@@ -6203,31 +6242,31 @@
         <v>1</v>
       </c>
       <c r="I10" s="111" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="J10" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="204" t="s">
-        <v>438</v>
-      </c>
-      <c r="L10" s="204"/>
+      <c r="K10" s="197" t="s">
+        <v>431</v>
+      </c>
+      <c r="L10" s="197"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="108">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="214" t="s">
-        <v>467</v>
+      <c r="B11" s="207" t="s">
+        <v>460</v>
       </c>
       <c r="C11" s="109"/>
       <c r="D11" s="109" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E11" s="109"/>
       <c r="F11" s="109" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G11" s="109">
         <v>0.2</v>
@@ -6236,31 +6275,31 @@
         <v>1</v>
       </c>
       <c r="I11" s="111" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="J11" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="204" t="s">
-        <v>439</v>
-      </c>
-      <c r="L11" s="204"/>
+      <c r="K11" s="197" t="s">
+        <v>432</v>
+      </c>
+      <c r="L11" s="197"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="108">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="214" t="s">
-        <v>468</v>
+      <c r="B12" s="207" t="s">
+        <v>461</v>
       </c>
       <c r="C12" s="109"/>
       <c r="D12" s="109" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E12" s="109"/>
       <c r="F12" s="109" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G12" s="109">
         <v>10</v>
@@ -6269,31 +6308,31 @@
         <v>1</v>
       </c>
       <c r="I12" s="111" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="J12" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="204" t="s">
-        <v>480</v>
-      </c>
-      <c r="L12" s="204"/>
+      <c r="K12" s="197" t="s">
+        <v>473</v>
+      </c>
+      <c r="L12" s="197"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="108">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="214" t="s">
-        <v>469</v>
+      <c r="B13" s="207" t="s">
+        <v>462</v>
       </c>
       <c r="C13" s="109"/>
       <c r="D13" s="109" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E13" s="109"/>
       <c r="F13" s="109" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G13" s="109">
         <v>20</v>
@@ -6302,31 +6341,31 @@
         <v>1</v>
       </c>
       <c r="I13" s="111" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="J13" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="204" t="s">
-        <v>481</v>
-      </c>
-      <c r="L13" s="204"/>
+      <c r="K13" s="197" t="s">
+        <v>474</v>
+      </c>
+      <c r="L13" s="197"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="108">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="214" t="s">
-        <v>470</v>
+      <c r="B14" s="207" t="s">
+        <v>463</v>
       </c>
       <c r="C14" s="109"/>
       <c r="D14" s="109" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E14" s="109"/>
       <c r="F14" s="109" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G14" s="109">
         <v>10</v>
@@ -6335,31 +6374,31 @@
         <v>1</v>
       </c>
       <c r="I14" s="111" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="J14" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="204" t="s">
-        <v>478</v>
-      </c>
-      <c r="L14" s="204"/>
+      <c r="K14" s="197" t="s">
+        <v>471</v>
+      </c>
+      <c r="L14" s="197"/>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="108">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="214" t="s">
-        <v>471</v>
+      <c r="B15" s="207" t="s">
+        <v>464</v>
       </c>
       <c r="C15" s="109"/>
       <c r="D15" s="109" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E15" s="109"/>
       <c r="F15" s="109" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G15" s="109">
         <v>20</v>
@@ -6368,15 +6407,15 @@
         <v>1</v>
       </c>
       <c r="I15" s="111" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J15" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="204" t="s">
-        <v>479</v>
-      </c>
-      <c r="L15" s="204"/>
+      <c r="K15" s="197" t="s">
+        <v>472</v>
+      </c>
+      <c r="L15" s="197"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="108">
@@ -6398,8 +6437,8 @@
       <c r="J16" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="201" t="s">
-        <v>444</v>
+      <c r="K16" s="194" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6422,8 +6461,8 @@
       <c r="J17" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="201" t="s">
-        <v>445</v>
+      <c r="K17" s="194" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6446,8 +6485,8 @@
       <c r="J18" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="201" t="s">
-        <v>446</v>
+      <c r="K18" s="194" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6470,8 +6509,8 @@
       <c r="J19" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="201" t="s">
-        <v>447</v>
+      <c r="K19" s="194" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6494,8 +6533,8 @@
       <c r="J20" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="201" t="s">
-        <v>448</v>
+      <c r="K20" s="194" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6518,8 +6557,8 @@
       <c r="J21" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="201" t="s">
-        <v>449</v>
+      <c r="K21" s="194" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6527,100 +6566,100 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="205" t="s">
-        <v>284</v>
-      </c>
-      <c r="C22" s="206"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="206"/>
-      <c r="G22" s="206"/>
-      <c r="H22" s="207">
+      <c r="B22" s="198" t="s">
+        <v>279</v>
+      </c>
+      <c r="C22" s="199"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="199"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="199"/>
+      <c r="H22" s="200">
         <v>2</v>
       </c>
-      <c r="I22" s="208"/>
-      <c r="J22" s="209" t="s">
+      <c r="I22" s="201"/>
+      <c r="J22" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="201" t="s">
-        <v>450</v>
+      <c r="K22" s="194" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K23" s="201"/>
+      <c r="K23" s="194"/>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="286" t="s">
+      <c r="A24" s="279" t="s">
         <v>216</v>
       </c>
-      <c r="B24" s="287"/>
-      <c r="C24" s="287"/>
-      <c r="D24" s="287"/>
-      <c r="E24" s="287"/>
-      <c r="F24" s="287"/>
-      <c r="G24" s="287"/>
-      <c r="H24" s="287"/>
-      <c r="I24" s="287"/>
-      <c r="J24" s="287"/>
-      <c r="K24" s="287"/>
-      <c r="L24" s="287"/>
-      <c r="M24" s="287"/>
-      <c r="N24" s="287"/>
-      <c r="O24" s="287"/>
-      <c r="P24" s="287"/>
-      <c r="Q24" s="288"/>
+      <c r="B24" s="280"/>
+      <c r="C24" s="280"/>
+      <c r="D24" s="280"/>
+      <c r="E24" s="280"/>
+      <c r="F24" s="280"/>
+      <c r="G24" s="280"/>
+      <c r="H24" s="280"/>
+      <c r="I24" s="280"/>
+      <c r="J24" s="280"/>
+      <c r="K24" s="280"/>
+      <c r="L24" s="280"/>
+      <c r="M24" s="280"/>
+      <c r="N24" s="280"/>
+      <c r="O24" s="280"/>
+      <c r="P24" s="280"/>
+      <c r="Q24" s="281"/>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="B25" s="189" t="s">
-        <v>342</v>
-      </c>
-      <c r="C25" s="191" t="s">
-        <v>310</v>
-      </c>
-      <c r="D25" s="191" t="s">
-        <v>344</v>
-      </c>
-      <c r="E25" s="191" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="185" t="s">
+        <v>337</v>
+      </c>
+      <c r="C25" s="187" t="s">
+        <v>305</v>
+      </c>
+      <c r="D25" s="187" t="s">
+        <v>339</v>
+      </c>
+      <c r="E25" s="187" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" s="187" t="s">
+        <v>354</v>
+      </c>
+      <c r="G25" s="187" t="s">
+        <v>401</v>
+      </c>
+      <c r="H25" s="187" t="s">
+        <v>241</v>
+      </c>
+      <c r="I25" s="187" t="s">
+        <v>401</v>
+      </c>
+      <c r="J25" s="187" t="s">
+        <v>412</v>
+      </c>
+      <c r="K25" s="187" t="s">
+        <v>401</v>
+      </c>
+      <c r="L25" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="F25" s="191" t="s">
-        <v>359</v>
-      </c>
-      <c r="G25" s="191" t="s">
-        <v>408</v>
-      </c>
-      <c r="H25" s="191" t="s">
+      <c r="M25" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="I25" s="191" t="s">
-        <v>408</v>
-      </c>
-      <c r="J25" s="191" t="s">
-        <v>419</v>
-      </c>
-      <c r="K25" s="191" t="s">
-        <v>408</v>
-      </c>
-      <c r="L25" s="123" t="s">
-        <v>246</v>
-      </c>
-      <c r="M25" s="123" t="s">
-        <v>246</v>
-      </c>
       <c r="N25" s="123" t="s">
-        <v>246</v>
-      </c>
-      <c r="O25" s="191" t="s">
-        <v>252</v>
-      </c>
-      <c r="P25" s="191" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q25" s="190" t="s">
-        <v>252</v>
+        <v>243</v>
+      </c>
+      <c r="O25" s="187" t="s">
+        <v>249</v>
+      </c>
+      <c r="P25" s="187" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q25" s="186" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6629,31 +6668,31 @@
         <v>20</v>
       </c>
       <c r="C26" s="96" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D26" s="96" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E26" s="96" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F26" s="96" t="s">
         <v>154</v>
       </c>
       <c r="G26" s="96" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H26" s="96" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="I26" s="96" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="J26" s="96" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K26" s="96" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="L26" s="96" t="s">
         <v>94</v>
@@ -6665,34 +6704,34 @@
         <v>96</v>
       </c>
       <c r="O26" s="96" t="s">
+        <v>226</v>
+      </c>
+      <c r="P26" s="96" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q26" s="118" t="s">
         <v>228</v>
       </c>
-      <c r="P26" s="96" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q26" s="118" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="210"/>
-      <c r="B27" s="211" t="s">
-        <v>411</v>
-      </c>
-      <c r="C27" s="211"/>
-      <c r="D27" s="211"/>
+      <c r="A27" s="203"/>
+      <c r="B27" s="204" t="s">
+        <v>404</v>
+      </c>
+      <c r="C27" s="204"/>
+      <c r="D27" s="204"/>
       <c r="E27" s="153"/>
       <c r="F27" s="153"/>
       <c r="G27" s="153" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="H27" s="153"/>
       <c r="I27" s="153" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="J27" s="153"/>
       <c r="K27" s="153" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="L27" s="153">
         <v>100</v>
@@ -6713,100 +6752,100 @@
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="283" t="s">
-        <v>256</v>
-      </c>
-      <c r="B29" s="284"/>
-      <c r="C29" s="284"/>
-      <c r="D29" s="284"/>
-      <c r="E29" s="284"/>
-      <c r="F29" s="284"/>
-      <c r="G29" s="284"/>
-      <c r="H29" s="285"/>
+      <c r="A29" s="276" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" s="277"/>
+      <c r="C29" s="277"/>
+      <c r="D29" s="277"/>
+      <c r="E29" s="277"/>
+      <c r="F29" s="277"/>
+      <c r="G29" s="277"/>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="274" t="s">
-        <v>339</v>
-      </c>
-      <c r="B30" s="275"/>
-      <c r="C30" s="275"/>
-      <c r="D30" s="275"/>
-      <c r="E30" s="275"/>
-      <c r="F30" s="275"/>
-      <c r="G30" s="275"/>
-      <c r="H30" s="276"/>
+      <c r="A30" s="267" t="s">
+        <v>334</v>
+      </c>
+      <c r="B30" s="268"/>
+      <c r="C30" s="268"/>
+      <c r="D30" s="268"/>
+      <c r="E30" s="268"/>
+      <c r="F30" s="268"/>
+      <c r="G30" s="268"/>
+      <c r="H30" s="269"/>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="277"/>
-      <c r="B31" s="278"/>
-      <c r="C31" s="278"/>
-      <c r="D31" s="278"/>
-      <c r="E31" s="278"/>
-      <c r="F31" s="278"/>
-      <c r="G31" s="278"/>
-      <c r="H31" s="279"/>
+      <c r="A31" s="270"/>
+      <c r="B31" s="271"/>
+      <c r="C31" s="271"/>
+      <c r="D31" s="271"/>
+      <c r="E31" s="271"/>
+      <c r="F31" s="271"/>
+      <c r="G31" s="271"/>
+      <c r="H31" s="272"/>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="277"/>
-      <c r="B32" s="278"/>
-      <c r="C32" s="278"/>
-      <c r="D32" s="278"/>
-      <c r="E32" s="278"/>
-      <c r="F32" s="278"/>
-      <c r="G32" s="278"/>
-      <c r="H32" s="279"/>
+      <c r="A32" s="270"/>
+      <c r="B32" s="271"/>
+      <c r="C32" s="271"/>
+      <c r="D32" s="271"/>
+      <c r="E32" s="271"/>
+      <c r="F32" s="271"/>
+      <c r="G32" s="271"/>
+      <c r="H32" s="272"/>
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="280"/>
-      <c r="B33" s="281"/>
-      <c r="C33" s="281"/>
-      <c r="D33" s="281"/>
-      <c r="E33" s="281"/>
-      <c r="F33" s="281"/>
-      <c r="G33" s="281"/>
-      <c r="H33" s="282"/>
+      <c r="A33" s="273"/>
+      <c r="B33" s="274"/>
+      <c r="C33" s="274"/>
+      <c r="D33" s="274"/>
+      <c r="E33" s="274"/>
+      <c r="F33" s="274"/>
+      <c r="G33" s="274"/>
+      <c r="H33" s="275"/>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="262" t="s">
-        <v>285</v>
-      </c>
-      <c r="B35" s="263"/>
-      <c r="C35" s="263"/>
-      <c r="D35" s="263"/>
-      <c r="E35" s="263"/>
-      <c r="F35" s="263"/>
-      <c r="G35" s="264"/>
+      <c r="A35" s="255" t="s">
+        <v>280</v>
+      </c>
+      <c r="B35" s="256"/>
+      <c r="C35" s="256"/>
+      <c r="D35" s="256"/>
+      <c r="E35" s="256"/>
+      <c r="F35" s="256"/>
+      <c r="G35" s="257"/>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B36" s="78" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C36" s="78" t="s">
-        <v>287</v>
-      </c>
-      <c r="D36" s="261" t="s">
-        <v>288</v>
-      </c>
-      <c r="E36" s="261"/>
-      <c r="F36" s="261"/>
-      <c r="G36" s="261"/>
+        <v>282</v>
+      </c>
+      <c r="D36" s="254" t="s">
+        <v>283</v>
+      </c>
+      <c r="E36" s="254"/>
+      <c r="F36" s="254"/>
+      <c r="G36" s="254"/>
     </row>
     <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B37" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C37" t="s">
-        <v>417</v>
-      </c>
-      <c r="D37" s="174" t="s">
-        <v>346</v>
+        <v>410</v>
+      </c>
+      <c r="D37" s="170" t="s">
+        <v>341</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
@@ -6817,16 +6856,16 @@
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C38" t="s">
-        <v>417</v>
-      </c>
-      <c r="D38" s="186" t="s">
-        <v>312</v>
+        <v>410</v>
+      </c>
+      <c r="D38" s="182" t="s">
+        <v>307</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
@@ -6837,16 +6876,16 @@
     </row>
     <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>306</v>
+      </c>
+      <c r="B39" t="s">
         <v>311</v>
       </c>
-      <c r="B39" t="s">
-        <v>316</v>
-      </c>
       <c r="C39" t="s">
-        <v>417</v>
-      </c>
-      <c r="D39" s="174" t="s">
-        <v>313</v>
+        <v>410</v>
+      </c>
+      <c r="D39" s="170" t="s">
+        <v>308</v>
       </c>
       <c r="E39"/>
       <c r="F39"/>
@@ -6857,16 +6896,16 @@
     </row>
     <row r="40" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C40" t="s">
-        <v>417</v>
-      </c>
-      <c r="D40" s="174" t="s">
-        <v>333</v>
+        <v>410</v>
+      </c>
+      <c r="D40" s="170" t="s">
+        <v>328</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
@@ -6877,16 +6916,16 @@
     </row>
     <row r="41" spans="1:10" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C41" t="s">
-        <v>417</v>
-      </c>
-      <c r="D41" s="177" t="s">
-        <v>314</v>
+        <v>410</v>
+      </c>
+      <c r="D41" s="173" t="s">
+        <v>309</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -6897,16 +6936,16 @@
     </row>
     <row r="42" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B42" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C42" t="s">
-        <v>417</v>
-      </c>
-      <c r="D42" s="186" t="s">
-        <v>383</v>
+        <v>410</v>
+      </c>
+      <c r="D42" s="182" t="s">
+        <v>376</v>
       </c>
       <c r="E42"/>
       <c r="F42"/>
@@ -6917,16 +6956,16 @@
     </row>
     <row r="43" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B43" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C43" t="s">
-        <v>417</v>
-      </c>
-      <c r="D43" s="186" t="s">
-        <v>364</v>
+        <v>410</v>
+      </c>
+      <c r="D43" s="182" t="s">
+        <v>357</v>
       </c>
       <c r="E43"/>
       <c r="F43"/>
@@ -6937,16 +6976,16 @@
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B44" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C44" t="s">
-        <v>417</v>
-      </c>
-      <c r="D44" s="186" t="s">
-        <v>384</v>
+        <v>410</v>
+      </c>
+      <c r="D44" s="182" t="s">
+        <v>377</v>
       </c>
       <c r="E44"/>
       <c r="F44"/>
@@ -6957,16 +6996,16 @@
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C45" t="s">
-        <v>417</v>
-      </c>
-      <c r="D45" s="186" t="s">
-        <v>386</v>
+        <v>410</v>
+      </c>
+      <c r="D45" s="182" t="s">
+        <v>379</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
@@ -6977,16 +7016,16 @@
     </row>
     <row r="46" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C46" t="s">
-        <v>417</v>
-      </c>
-      <c r="D46" s="186" t="s">
-        <v>385</v>
+        <v>410</v>
+      </c>
+      <c r="D46" s="182" t="s">
+        <v>378</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
@@ -6997,16 +7036,16 @@
     </row>
     <row r="47" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B47" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C47" t="s">
-        <v>417</v>
-      </c>
-      <c r="D47" s="186" t="s">
-        <v>387</v>
+        <v>410</v>
+      </c>
+      <c r="D47" s="182" t="s">
+        <v>380</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
@@ -7017,296 +7056,296 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B48" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C48" t="s">
-        <v>417</v>
-      </c>
-      <c r="D48" s="186" t="s">
-        <v>390</v>
+        <v>410</v>
+      </c>
+      <c r="D48" s="182" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C49" t="s">
-        <v>417</v>
-      </c>
-      <c r="D49" s="174" t="s">
-        <v>418</v>
+        <v>410</v>
+      </c>
+      <c r="D49" s="170" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B50" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C50" t="s">
-        <v>417</v>
-      </c>
-      <c r="D50" s="186" t="s">
-        <v>393</v>
+        <v>410</v>
+      </c>
+      <c r="D50" s="182" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B51" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C51" t="s">
-        <v>417</v>
-      </c>
-      <c r="D51" s="186" t="s">
-        <v>393</v>
+        <v>410</v>
+      </c>
+      <c r="D51" s="182" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B52" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C52" t="s">
-        <v>417</v>
-      </c>
-      <c r="D52" s="186" t="s">
-        <v>393</v>
+        <v>410</v>
+      </c>
+      <c r="D52" s="182" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C53" t="s">
-        <v>417</v>
-      </c>
-      <c r="D53" s="186" t="s">
-        <v>393</v>
+        <v>410</v>
+      </c>
+      <c r="D53" s="182" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C54" t="s">
-        <v>417</v>
-      </c>
-      <c r="D54" s="186" t="s">
-        <v>393</v>
+        <v>410</v>
+      </c>
+      <c r="D54" s="182" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B55" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C55" t="s">
-        <v>417</v>
-      </c>
-      <c r="D55" s="174" t="s">
-        <v>394</v>
+        <v>410</v>
+      </c>
+      <c r="D55" s="170" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B56" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C56" t="s">
-        <v>417</v>
-      </c>
-      <c r="D56" s="174" t="s">
-        <v>395</v>
+        <v>410</v>
+      </c>
+      <c r="D56" s="170" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B57" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C57" t="s">
-        <v>417</v>
-      </c>
-      <c r="D57" s="174" t="s">
-        <v>396</v>
+        <v>410</v>
+      </c>
+      <c r="D57" s="170" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B58" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C58" t="s">
-        <v>417</v>
-      </c>
-      <c r="D58" s="174" t="s">
-        <v>397</v>
+        <v>410</v>
+      </c>
+      <c r="D58" s="170" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B59" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C59" t="s">
-        <v>417</v>
-      </c>
-      <c r="D59" s="174" t="s">
-        <v>398</v>
+        <v>410</v>
+      </c>
+      <c r="D59" s="170" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B60" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C60" t="s">
-        <v>417</v>
-      </c>
-      <c r="D60" s="174" t="s">
-        <v>399</v>
+        <v>410</v>
+      </c>
+      <c r="D60" s="170" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B61" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C61" t="s">
-        <v>417</v>
-      </c>
-      <c r="D61" s="174" t="s">
-        <v>400</v>
+        <v>410</v>
+      </c>
+      <c r="D61" s="170" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B62" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C62" t="s">
-        <v>417</v>
-      </c>
-      <c r="D62" s="174" t="s">
-        <v>401</v>
+        <v>410</v>
+      </c>
+      <c r="D62" s="170" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B63" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C63" t="s">
-        <v>417</v>
-      </c>
-      <c r="D63" s="174" t="s">
-        <v>402</v>
+        <v>410</v>
+      </c>
+      <c r="D63" s="170" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B64" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C64" t="s">
-        <v>417</v>
-      </c>
-      <c r="D64" s="174" t="s">
-        <v>403</v>
+        <v>410</v>
+      </c>
+      <c r="D64" s="170" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B65" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C65" t="s">
-        <v>417</v>
-      </c>
-      <c r="D65" s="174" t="s">
-        <v>404</v>
+        <v>410</v>
+      </c>
+      <c r="D65" s="170" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B66" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C66" t="s">
-        <v>417</v>
-      </c>
-      <c r="D66" s="174" t="s">
-        <v>405</v>
+        <v>410</v>
+      </c>
+      <c r="D66" s="170" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B67" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C67" t="s">
-        <v>417</v>
-      </c>
-      <c r="D67" s="174" t="s">
-        <v>406</v>
+        <v>410</v>
+      </c>
+      <c r="D67" s="170" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B68" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C68" t="s">
-        <v>417</v>
-      </c>
-      <c r="D68" s="174" t="s">
-        <v>407</v>
+        <v>410</v>
+      </c>
+      <c r="D68" s="170" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -7426,57 +7465,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="298" t="s">
-        <v>358</v>
-      </c>
-      <c r="B1" s="299"/>
-      <c r="C1" s="299"/>
-      <c r="D1" s="299"/>
-      <c r="E1" s="299"/>
-      <c r="F1" s="299"/>
-      <c r="G1" s="299"/>
-      <c r="H1" s="299"/>
-      <c r="I1" s="299"/>
-      <c r="J1" s="300"/>
+      <c r="A1" s="291" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="293"/>
     </row>
     <row r="2" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="286" t="s">
+      <c r="A2" s="279" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="287"/>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287"/>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="288"/>
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="281"/>
     </row>
     <row r="3" spans="1:10" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="131" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B3" s="131" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C3" s="128" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D3" s="128" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E3" s="125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F3" s="126" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G3" s="132" t="s">
-        <v>300</v>
-      </c>
-      <c r="H3" s="170" t="s">
-        <v>281</v>
+        <v>295</v>
+      </c>
+      <c r="H3" s="166" t="s">
+        <v>276</v>
       </c>
       <c r="I3" s="128"/>
       <c r="J3" s="130"/>
@@ -7489,10 +7528,10 @@
         <v>97</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D4" s="100" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E4" s="100" t="s">
         <v>17</v>
@@ -7503,8 +7542,8 @@
       <c r="G4" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="H4" s="171" t="s">
-        <v>282</v>
+      <c r="H4" s="167" t="s">
+        <v>277</v>
       </c>
       <c r="I4" s="101"/>
       <c r="J4" s="102"/>
@@ -7522,33 +7561,33 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="199" t="s">
-        <v>283</v>
-      </c>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
+      <c r="G5" s="192" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
     </row>
     <row r="6" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="286" t="s">
+      <c r="A6" s="279" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="287"/>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="287"/>
-      <c r="I6" s="287"/>
-      <c r="J6" s="288"/>
+      <c r="B6" s="280"/>
+      <c r="C6" s="280"/>
+      <c r="D6" s="280"/>
+      <c r="E6" s="280"/>
+      <c r="F6" s="280"/>
+      <c r="G6" s="280"/>
+      <c r="H6" s="280"/>
+      <c r="I6" s="280"/>
+      <c r="J6" s="281"/>
     </row>
     <row r="7" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B7" s="132" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C7" s="128"/>
       <c r="D7" s="128"/>
@@ -7592,41 +7631,41 @@
       <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="286" t="s">
+      <c r="A10" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="287"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="287"/>
-      <c r="I10" s="287"/>
-      <c r="J10" s="288"/>
+      <c r="B10" s="280"/>
+      <c r="C10" s="280"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="280"/>
+      <c r="J10" s="281"/>
     </row>
     <row r="11" spans="1:10" s="113" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="127"/>
       <c r="B11" s="128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C11" s="128" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="169" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" s="128" t="s">
         <v>233</v>
       </c>
-      <c r="D11" s="173" t="s">
-        <v>309</v>
-      </c>
-      <c r="E11" s="128" t="s">
-        <v>235</v>
-      </c>
       <c r="F11" s="133" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G11" s="132" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H11" s="132" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I11" s="128"/>
       <c r="J11" s="130"/>
@@ -7639,19 +7678,19 @@
         <v>15</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D12" s="96" t="s">
         <v>152</v>
       </c>
       <c r="E12" s="96" t="s">
+        <v>234</v>
+      </c>
+      <c r="F12" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="134" t="s">
         <v>236</v>
-      </c>
-      <c r="F12" s="96" t="s">
-        <v>237</v>
-      </c>
-      <c r="G12" s="134" t="s">
-        <v>238</v>
       </c>
       <c r="H12" s="99" t="s">
         <v>207</v>
@@ -7670,7 +7709,7 @@
         <v>174</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E13" s="4">
         <v>488</v>
@@ -7698,7 +7737,7 @@
         <v>178</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E14" s="4">
         <v>561</v>
@@ -7726,7 +7765,7 @@
         <v>180</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E15" s="4">
         <v>405</v>
@@ -7814,31 +7853,31 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="286" t="s">
+      <c r="A21" s="279" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="287"/>
-      <c r="C21" s="287"/>
-      <c r="D21" s="287"/>
-      <c r="E21" s="287"/>
-      <c r="F21" s="287"/>
-      <c r="G21" s="287"/>
-      <c r="H21" s="287"/>
-      <c r="I21" s="287"/>
-      <c r="J21" s="288"/>
+      <c r="B21" s="280"/>
+      <c r="C21" s="280"/>
+      <c r="D21" s="280"/>
+      <c r="E21" s="280"/>
+      <c r="F21" s="280"/>
+      <c r="G21" s="280"/>
+      <c r="H21" s="280"/>
+      <c r="I21" s="280"/>
+      <c r="J21" s="281"/>
     </row>
     <row r="22" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="131" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B22" s="132" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C22" s="132" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D22" s="132" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E22" s="128"/>
       <c r="F22" s="129"/>
@@ -7852,10 +7891,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="96" t="s">
         <v>239</v>
-      </c>
-      <c r="C23" s="96" t="s">
-        <v>241</v>
       </c>
       <c r="D23" s="99" t="s">
         <v>207</v>
@@ -7888,34 +7927,34 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="286" t="s">
+      <c r="A25" s="279" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="287"/>
-      <c r="C25" s="287"/>
-      <c r="D25" s="287"/>
-      <c r="E25" s="287"/>
-      <c r="F25" s="287"/>
-      <c r="G25" s="287"/>
-      <c r="H25" s="287"/>
-      <c r="I25" s="287"/>
-      <c r="J25" s="288"/>
+      <c r="B25" s="280"/>
+      <c r="C25" s="280"/>
+      <c r="D25" s="280"/>
+      <c r="E25" s="280"/>
+      <c r="F25" s="280"/>
+      <c r="G25" s="280"/>
+      <c r="H25" s="280"/>
+      <c r="I25" s="280"/>
+      <c r="J25" s="281"/>
     </row>
     <row r="26" spans="1:10" s="113" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="131" t="s">
-        <v>257</v>
-      </c>
-      <c r="B26" s="191" t="s">
-        <v>344</v>
+        <v>254</v>
+      </c>
+      <c r="B26" s="187" t="s">
+        <v>339</v>
       </c>
       <c r="C26" s="132" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D26" s="132" t="s">
-        <v>242</v>
-      </c>
-      <c r="E26" s="187" t="s">
-        <v>344</v>
+        <v>240</v>
+      </c>
+      <c r="E26" s="183" t="s">
+        <v>339</v>
       </c>
       <c r="F26" s="128"/>
       <c r="G26" s="128"/>
@@ -7929,13 +7968,13 @@
         <v>20</v>
       </c>
       <c r="C27" s="147" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D27" s="96" t="s">
         <v>154</v>
       </c>
       <c r="E27" s="96" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F27" s="147"/>
       <c r="G27" s="147"/>
@@ -7945,13 +7984,13 @@
     </row>
     <row r="28" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="146"/>
-      <c r="B28" s="198" t="s">
-        <v>431</v>
-      </c>
-      <c r="C28" s="184"/>
+      <c r="B28" s="191" t="s">
+        <v>424</v>
+      </c>
+      <c r="C28" s="180"/>
       <c r="D28" s="122"/>
       <c r="E28" s="153" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -7961,240 +8000,240 @@
     </row>
     <row r="29" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="289" t="s">
-        <v>256</v>
-      </c>
-      <c r="B30" s="290"/>
-      <c r="C30" s="290"/>
-      <c r="D30" s="290"/>
-      <c r="E30" s="290"/>
-      <c r="F30" s="290"/>
-      <c r="G30" s="290"/>
-      <c r="H30" s="291"/>
+      <c r="A30" s="282" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" s="283"/>
+      <c r="C30" s="283"/>
+      <c r="D30" s="283"/>
+      <c r="E30" s="283"/>
+      <c r="F30" s="283"/>
+      <c r="G30" s="283"/>
+      <c r="H30" s="284"/>
     </row>
     <row r="31" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="292" t="s">
-        <v>338</v>
-      </c>
-      <c r="B31" s="293"/>
-      <c r="C31" s="293"/>
-      <c r="D31" s="293"/>
-      <c r="E31" s="293"/>
-      <c r="F31" s="293"/>
-      <c r="G31" s="293"/>
-      <c r="H31" s="294"/>
+      <c r="A31" s="285" t="s">
+        <v>333</v>
+      </c>
+      <c r="B31" s="286"/>
+      <c r="C31" s="286"/>
+      <c r="D31" s="286"/>
+      <c r="E31" s="286"/>
+      <c r="F31" s="286"/>
+      <c r="G31" s="286"/>
+      <c r="H31" s="287"/>
     </row>
     <row r="32" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="292"/>
-      <c r="B32" s="293"/>
-      <c r="C32" s="293"/>
-      <c r="D32" s="293"/>
-      <c r="E32" s="293"/>
-      <c r="F32" s="293"/>
-      <c r="G32" s="293"/>
-      <c r="H32" s="294"/>
+      <c r="A32" s="285"/>
+      <c r="B32" s="286"/>
+      <c r="C32" s="286"/>
+      <c r="D32" s="286"/>
+      <c r="E32" s="286"/>
+      <c r="F32" s="286"/>
+      <c r="G32" s="286"/>
+      <c r="H32" s="287"/>
     </row>
     <row r="33" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="292"/>
-      <c r="B33" s="293"/>
-      <c r="C33" s="293"/>
-      <c r="D33" s="293"/>
-      <c r="E33" s="293"/>
-      <c r="F33" s="293"/>
-      <c r="G33" s="293"/>
-      <c r="H33" s="294"/>
+      <c r="A33" s="285"/>
+      <c r="B33" s="286"/>
+      <c r="C33" s="286"/>
+      <c r="D33" s="286"/>
+      <c r="E33" s="286"/>
+      <c r="F33" s="286"/>
+      <c r="G33" s="286"/>
+      <c r="H33" s="287"/>
     </row>
     <row r="34" spans="1:8" s="113" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="295"/>
-      <c r="B34" s="296"/>
-      <c r="C34" s="296"/>
-      <c r="D34" s="296"/>
-      <c r="E34" s="296"/>
-      <c r="F34" s="296"/>
-      <c r="G34" s="296"/>
-      <c r="H34" s="297"/>
+      <c r="A34" s="288"/>
+      <c r="B34" s="289"/>
+      <c r="C34" s="289"/>
+      <c r="D34" s="289"/>
+      <c r="E34" s="289"/>
+      <c r="F34" s="289"/>
+      <c r="G34" s="289"/>
+      <c r="H34" s="290"/>
     </row>
     <row r="35" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:8" s="113" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="301" t="s">
-        <v>285</v>
-      </c>
-      <c r="B36" s="301"/>
-      <c r="C36" s="301"/>
-      <c r="D36" s="301"/>
-      <c r="E36" s="301"/>
-      <c r="F36" s="301"/>
-      <c r="G36" s="301"/>
+      <c r="A36" s="294" t="s">
+        <v>280</v>
+      </c>
+      <c r="B36" s="294"/>
+      <c r="C36" s="294"/>
+      <c r="D36" s="294"/>
+      <c r="E36" s="294"/>
+      <c r="F36" s="294"/>
+      <c r="G36" s="294"/>
     </row>
     <row r="37" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B37" s="78" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C37" s="78" t="s">
-        <v>287</v>
-      </c>
-      <c r="D37" s="261" t="s">
-        <v>288</v>
-      </c>
-      <c r="E37" s="261"/>
-      <c r="F37" s="261"/>
-      <c r="G37" s="261"/>
+        <v>282</v>
+      </c>
+      <c r="D37" s="254" t="s">
+        <v>283</v>
+      </c>
+      <c r="E37" s="254"/>
+      <c r="F37" s="254"/>
+      <c r="G37" s="254"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B38" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C38" t="s">
-        <v>434</v>
-      </c>
-      <c r="D38" s="174" t="s">
-        <v>346</v>
+        <v>427</v>
+      </c>
+      <c r="D38" s="170" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C39" t="s">
-        <v>434</v>
-      </c>
-      <c r="D39" s="186" t="s">
-        <v>312</v>
+        <v>427</v>
+      </c>
+      <c r="D39" s="182" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>306</v>
+      </c>
+      <c r="B40" t="s">
         <v>311</v>
       </c>
-      <c r="B40" t="s">
-        <v>316</v>
-      </c>
       <c r="C40" t="s">
-        <v>434</v>
-      </c>
-      <c r="D40" s="174" t="s">
-        <v>313</v>
+        <v>427</v>
+      </c>
+      <c r="D40" s="170" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C41" t="s">
-        <v>434</v>
-      </c>
-      <c r="D41" s="174" t="s">
-        <v>333</v>
+        <v>427</v>
+      </c>
+      <c r="D41" s="170" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B42" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C42" t="s">
-        <v>434</v>
-      </c>
-      <c r="D42" s="177" t="s">
-        <v>314</v>
+        <v>427</v>
+      </c>
+      <c r="D42" s="173" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C43" t="s">
-        <v>434</v>
-      </c>
-      <c r="D43" s="186" t="s">
-        <v>348</v>
+        <v>427</v>
+      </c>
+      <c r="D43" s="182" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B44" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C44" t="s">
-        <v>434</v>
-      </c>
-      <c r="D44" s="186" t="s">
-        <v>351</v>
+        <v>427</v>
+      </c>
+      <c r="D44" s="182" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C45" t="s">
-        <v>434</v>
-      </c>
-      <c r="D45" s="186" t="s">
-        <v>433</v>
+        <v>427</v>
+      </c>
+      <c r="D45" s="182" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B46" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C46" t="s">
-        <v>434</v>
-      </c>
-      <c r="D46" s="186" t="s">
-        <v>352</v>
+        <v>427</v>
+      </c>
+      <c r="D46" s="182" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B47" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C47" t="s">
-        <v>434</v>
-      </c>
-      <c r="D47" s="186" t="s">
-        <v>353</v>
+        <v>427</v>
+      </c>
+      <c r="D47" s="182" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B48" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C48" t="s">
-        <v>434</v>
-      </c>
-      <c r="D48" s="177" t="s">
-        <v>436</v>
+        <v>427</v>
+      </c>
+      <c r="D48" s="173" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -8252,8 +8291,8 @@
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8278,248 +8317,242 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="317" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
-      <c r="G1" s="319"/>
-      <c r="H1" s="319"/>
-      <c r="I1" s="319"/>
-      <c r="J1" s="319"/>
-      <c r="K1" s="319"/>
-      <c r="L1" s="319"/>
-      <c r="M1" s="319"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="319"/>
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="317"/>
+      <c r="G1" s="317"/>
+      <c r="H1" s="317"/>
+      <c r="I1" s="317"/>
+      <c r="J1" s="317"/>
+      <c r="K1" s="317"/>
+      <c r="L1" s="317"/>
+      <c r="M1" s="317"/>
+      <c r="N1" s="317"/>
+      <c r="O1" s="317"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="308"/>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="308"/>
-      <c r="F2" s="309"/>
-      <c r="G2" s="320" t="s">
-        <v>221</v>
-      </c>
-      <c r="H2" s="320"/>
-      <c r="I2" s="320"/>
-      <c r="J2" s="320"/>
-      <c r="K2" s="320"/>
-      <c r="L2" s="320"/>
-      <c r="M2" s="303" t="s">
-        <v>272</v>
-      </c>
-      <c r="N2" s="303"/>
-      <c r="O2" s="303"/>
+      <c r="A2" s="318" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="320"/>
+      <c r="G2" s="321" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="322" t="s">
+        <v>268</v>
+      </c>
+      <c r="N2" s="322"/>
+      <c r="O2" s="322"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="310" t="s">
-        <v>271</v>
-      </c>
-      <c r="B3" s="311"/>
-      <c r="C3" s="311"/>
-      <c r="D3" s="311"/>
-      <c r="E3" s="311"/>
-      <c r="F3" s="312"/>
-      <c r="G3" s="322" t="s">
-        <v>279</v>
-      </c>
-      <c r="H3" s="322"/>
-      <c r="I3" s="322"/>
-      <c r="J3" s="322"/>
-      <c r="K3" s="322"/>
-      <c r="L3" s="322"/>
-      <c r="M3" s="194" t="s">
-        <v>277</v>
-      </c>
-      <c r="N3" s="194" t="s">
-        <v>344</v>
-      </c>
-      <c r="O3" s="195" t="s">
-        <v>344</v>
-      </c>
-      <c r="P3" s="197"/>
+      <c r="A3" s="323" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3" s="324"/>
+      <c r="C3" s="324"/>
+      <c r="D3" s="324"/>
+      <c r="E3" s="324"/>
+      <c r="F3" s="325"/>
+      <c r="G3" s="326" t="s">
+        <v>274</v>
+      </c>
+      <c r="H3" s="326"/>
+      <c r="I3" s="326"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
+      <c r="L3" s="326"/>
+      <c r="M3" s="327" t="s">
+        <v>272</v>
+      </c>
+      <c r="N3" s="327" t="s">
+        <v>339</v>
+      </c>
+      <c r="O3" s="327" t="s">
+        <v>339</v>
+      </c>
+      <c r="P3" s="190"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="313" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="314"/>
-      <c r="C4" s="315"/>
-      <c r="D4" s="321" t="s">
+      <c r="A4" s="328" t="s">
+        <v>477</v>
+      </c>
+      <c r="B4" s="329"/>
+      <c r="C4" s="329"/>
+      <c r="D4" s="329"/>
+      <c r="E4" s="329"/>
+      <c r="F4" s="330"/>
+      <c r="G4" s="331" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="321"/>
-      <c r="F4" s="321"/>
-      <c r="G4" s="321" t="s">
-        <v>222</v>
-      </c>
-      <c r="H4" s="321"/>
-      <c r="I4" s="321"/>
-      <c r="J4" s="321" t="s">
-        <v>280</v>
-      </c>
-      <c r="K4" s="321"/>
-      <c r="L4" s="321"/>
-      <c r="M4" s="166" t="s">
+      <c r="H4" s="331"/>
+      <c r="I4" s="331"/>
+      <c r="J4" s="331" t="s">
+        <v>275</v>
+      </c>
+      <c r="K4" s="331"/>
+      <c r="L4" s="331"/>
+      <c r="M4" s="332" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="166" t="s">
-        <v>345</v>
-      </c>
-      <c r="O4" s="166" t="s">
+      <c r="N4" s="332" t="s">
+        <v>340</v>
+      </c>
+      <c r="O4" s="332" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="340" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5" s="341"/>
-      <c r="C5" s="342"/>
-      <c r="D5" s="340" t="s">
-        <v>264</v>
-      </c>
-      <c r="E5" s="341"/>
-      <c r="F5" s="342"/>
-      <c r="G5" s="316" t="s">
-        <v>261</v>
-      </c>
-      <c r="H5" s="317"/>
-      <c r="I5" s="318"/>
-      <c r="J5" s="316" t="s">
-        <v>278</v>
-      </c>
-      <c r="K5" s="317"/>
-      <c r="L5" s="318"/>
-      <c r="M5" s="215"/>
-      <c r="N5" s="215" t="s">
+      <c r="A5" s="333" t="s">
+        <v>478</v>
+      </c>
+      <c r="B5" s="334"/>
+      <c r="C5" s="334"/>
+      <c r="D5" s="334"/>
+      <c r="E5" s="334"/>
+      <c r="F5" s="335"/>
+      <c r="G5" s="295" t="s">
+        <v>258</v>
+      </c>
+      <c r="H5" s="296"/>
+      <c r="I5" s="297"/>
+      <c r="J5" s="295" t="s">
+        <v>273</v>
+      </c>
+      <c r="K5" s="296"/>
+      <c r="L5" s="297"/>
+      <c r="M5" s="209"/>
+      <c r="N5" s="209" t="s">
         <v>147</v>
       </c>
-      <c r="O5" s="216" t="s">
-        <v>482</v>
+      <c r="O5" s="208" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="340" t="s">
-        <v>254</v>
-      </c>
-      <c r="B6" s="341"/>
-      <c r="C6" s="342"/>
-      <c r="D6" s="343" t="s">
-        <v>265</v>
-      </c>
-      <c r="E6" s="343"/>
-      <c r="F6" s="343"/>
-      <c r="G6" s="302"/>
-      <c r="H6" s="302"/>
-      <c r="I6" s="302"/>
-      <c r="J6" s="302"/>
-      <c r="K6" s="302"/>
-      <c r="L6" s="302"/>
-      <c r="M6" s="215"/>
-      <c r="N6" s="215"/>
-      <c r="O6" s="164"/>
+      <c r="A6" s="333" t="s">
+        <v>479</v>
+      </c>
+      <c r="B6" s="334"/>
+      <c r="C6" s="334"/>
+      <c r="D6" s="334"/>
+      <c r="E6" s="334"/>
+      <c r="F6" s="335"/>
+      <c r="G6" s="336"/>
+      <c r="H6" s="336"/>
+      <c r="I6" s="336"/>
+      <c r="J6" s="336"/>
+      <c r="K6" s="336"/>
+      <c r="L6" s="336"/>
+      <c r="M6" s="337"/>
+      <c r="N6" s="337"/>
+      <c r="O6" s="338"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="340"/>
-      <c r="B7" s="341"/>
-      <c r="C7" s="342"/>
-      <c r="D7" s="343"/>
-      <c r="E7" s="343"/>
-      <c r="F7" s="343"/>
-      <c r="G7" s="302"/>
-      <c r="H7" s="302"/>
-      <c r="I7" s="302"/>
-      <c r="J7" s="302"/>
-      <c r="K7" s="302"/>
-      <c r="L7" s="302"/>
-      <c r="M7" s="193"/>
-      <c r="N7" s="193"/>
-      <c r="O7" s="164"/>
+      <c r="A7" s="333"/>
+      <c r="B7" s="334"/>
+      <c r="C7" s="334"/>
+      <c r="D7" s="334"/>
+      <c r="E7" s="334"/>
+      <c r="F7" s="335"/>
+      <c r="G7" s="336"/>
+      <c r="H7" s="336"/>
+      <c r="I7" s="336"/>
+      <c r="J7" s="336"/>
+      <c r="K7" s="336"/>
+      <c r="L7" s="336"/>
+      <c r="M7" s="337"/>
+      <c r="N7" s="337"/>
+      <c r="O7" s="338"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="340"/>
-      <c r="B8" s="341"/>
-      <c r="C8" s="342"/>
-      <c r="D8" s="343" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="343"/>
-      <c r="F8" s="343"/>
-      <c r="G8" s="302"/>
-      <c r="H8" s="302"/>
-      <c r="I8" s="302"/>
-      <c r="J8" s="302"/>
-      <c r="K8" s="302"/>
-      <c r="L8" s="302"/>
-      <c r="M8" s="193"/>
-      <c r="N8" s="193"/>
-      <c r="O8" s="164"/>
+      <c r="A8" s="333"/>
+      <c r="B8" s="334"/>
+      <c r="C8" s="334"/>
+      <c r="D8" s="334"/>
+      <c r="E8" s="334"/>
+      <c r="F8" s="335"/>
+      <c r="G8" s="336"/>
+      <c r="H8" s="336"/>
+      <c r="I8" s="336"/>
+      <c r="J8" s="336"/>
+      <c r="K8" s="336"/>
+      <c r="L8" s="336"/>
+      <c r="M8" s="337"/>
+      <c r="N8" s="337"/>
+      <c r="O8" s="338"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="304" t="s">
-        <v>332</v>
-      </c>
-      <c r="B10" s="305"/>
-      <c r="C10" s="305"/>
-      <c r="D10" s="305"/>
-      <c r="E10" s="305"/>
-      <c r="F10" s="305"/>
-      <c r="G10" s="305"/>
-      <c r="H10" s="305"/>
-      <c r="I10" s="306"/>
+      <c r="A10" s="298" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="299"/>
+      <c r="C10" s="299"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="299"/>
+      <c r="F10" s="299"/>
+      <c r="G10" s="299"/>
+      <c r="H10" s="299"/>
+      <c r="I10" s="300"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B11" s="132" t="s">
-        <v>310</v>
-      </c>
-      <c r="C11" s="187" t="s">
-        <v>344</v>
+        <v>305</v>
+      </c>
+      <c r="C11" s="183" t="s">
+        <v>339</v>
       </c>
       <c r="D11" s="125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E11" s="125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G11" s="132" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H11" s="132" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I11" s="144" t="s">
-        <v>252</v>
-      </c>
-      <c r="K11" s="185"/>
-      <c r="L11" s="185"/>
+        <v>249</v>
+      </c>
+      <c r="K11" s="181"/>
+      <c r="L11" s="339"/>
+      <c r="M11" s="339"/>
+      <c r="N11" s="340"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="148"/>
       <c r="B12" s="147" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D12" s="147" t="s">
         <v>94</v>
@@ -8531,14 +8564,17 @@
         <v>96</v>
       </c>
       <c r="G12" s="147" t="s">
+        <v>226</v>
+      </c>
+      <c r="H12" s="147" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" s="149" t="s">
         <v>228</v>
       </c>
-      <c r="H12" s="147" t="s">
-        <v>229</v>
-      </c>
-      <c r="I12" s="149" t="s">
-        <v>230</v>
-      </c>
+      <c r="L12" s="339"/>
+      <c r="M12" s="339"/>
+      <c r="N12" s="341"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="146"/>
@@ -8563,554 +8599,549 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="289" t="s">
-        <v>256</v>
-      </c>
-      <c r="B15" s="290"/>
-      <c r="C15" s="290"/>
-      <c r="D15" s="290"/>
-      <c r="E15" s="290"/>
-      <c r="F15" s="290"/>
-      <c r="G15" s="290"/>
-      <c r="H15" s="291"/>
+      <c r="A15" s="282" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="283"/>
+      <c r="C15" s="283"/>
+      <c r="D15" s="283"/>
+      <c r="E15" s="283"/>
+      <c r="F15" s="283"/>
+      <c r="G15" s="283"/>
+      <c r="H15" s="284"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="292" t="s">
-        <v>340</v>
-      </c>
-      <c r="B16" s="293"/>
-      <c r="C16" s="293"/>
-      <c r="D16" s="293"/>
-      <c r="E16" s="293"/>
-      <c r="F16" s="293"/>
-      <c r="G16" s="293"/>
-      <c r="H16" s="294"/>
+      <c r="A16" s="285" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" s="286"/>
+      <c r="C16" s="286"/>
+      <c r="D16" s="286"/>
+      <c r="E16" s="286"/>
+      <c r="F16" s="286"/>
+      <c r="G16" s="286"/>
+      <c r="H16" s="287"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="292"/>
-      <c r="B17" s="293"/>
-      <c r="C17" s="293"/>
-      <c r="D17" s="293"/>
-      <c r="E17" s="293"/>
-      <c r="F17" s="293"/>
-      <c r="G17" s="293"/>
-      <c r="H17" s="294"/>
+      <c r="A17" s="285"/>
+      <c r="B17" s="286"/>
+      <c r="C17" s="286"/>
+      <c r="D17" s="286"/>
+      <c r="E17" s="286"/>
+      <c r="F17" s="286"/>
+      <c r="G17" s="286"/>
+      <c r="H17" s="287"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="292"/>
-      <c r="B18" s="293"/>
-      <c r="C18" s="293"/>
-      <c r="D18" s="293"/>
-      <c r="E18" s="293"/>
-      <c r="F18" s="293"/>
-      <c r="G18" s="293"/>
-      <c r="H18" s="294"/>
+      <c r="A18" s="285"/>
+      <c r="B18" s="286"/>
+      <c r="C18" s="286"/>
+      <c r="D18" s="286"/>
+      <c r="E18" s="286"/>
+      <c r="F18" s="286"/>
+      <c r="G18" s="286"/>
+      <c r="H18" s="287"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="295"/>
-      <c r="B19" s="296"/>
-      <c r="C19" s="296"/>
-      <c r="D19" s="296"/>
-      <c r="E19" s="296"/>
-      <c r="F19" s="296"/>
-      <c r="G19" s="296"/>
-      <c r="H19" s="297"/>
+      <c r="A19" s="288"/>
+      <c r="B19" s="289"/>
+      <c r="C19" s="289"/>
+      <c r="D19" s="289"/>
+      <c r="E19" s="289"/>
+      <c r="F19" s="289"/>
+      <c r="G19" s="289"/>
+      <c r="H19" s="290"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="301" t="s">
-        <v>285</v>
-      </c>
-      <c r="B21" s="301"/>
-      <c r="C21" s="301"/>
-      <c r="D21" s="301"/>
-      <c r="E21" s="301"/>
-      <c r="F21" s="301"/>
-      <c r="G21" s="301"/>
+      <c r="A21" s="294" t="s">
+        <v>280</v>
+      </c>
+      <c r="B21" s="294"/>
+      <c r="C21" s="294"/>
+      <c r="D21" s="294"/>
+      <c r="E21" s="294"/>
+      <c r="F21" s="294"/>
+      <c r="G21" s="294"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>287</v>
-      </c>
-      <c r="D22" s="261" t="s">
-        <v>288</v>
-      </c>
-      <c r="E22" s="261"/>
-      <c r="F22" s="261"/>
-      <c r="G22" s="261"/>
+        <v>282</v>
+      </c>
+      <c r="D22" s="254" t="s">
+        <v>283</v>
+      </c>
+      <c r="E22" s="254"/>
+      <c r="F22" s="254"/>
+      <c r="G22" s="254"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C23" t="s">
-        <v>420</v>
-      </c>
-      <c r="D23" s="174" t="s">
-        <v>346</v>
+        <v>413</v>
+      </c>
+      <c r="D23" s="170" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C24" t="s">
-        <v>420</v>
-      </c>
-      <c r="D24" s="186" t="s">
-        <v>312</v>
+        <v>413</v>
+      </c>
+      <c r="D24" s="182" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" t="s">
         <v>311</v>
       </c>
-      <c r="B25" t="s">
-        <v>316</v>
-      </c>
       <c r="C25" t="s">
-        <v>420</v>
-      </c>
-      <c r="D25" s="174" t="s">
-        <v>313</v>
+        <v>413</v>
+      </c>
+      <c r="D25" s="170" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B26" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C26" t="s">
-        <v>420</v>
-      </c>
-      <c r="D26" s="174" t="s">
-        <v>333</v>
+        <v>413</v>
+      </c>
+      <c r="D26" s="170" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B27" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C27" t="s">
-        <v>420</v>
-      </c>
-      <c r="D27" s="177" t="s">
-        <v>314</v>
+        <v>413</v>
+      </c>
+      <c r="D27" s="173" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B28" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C28" t="s">
-        <v>420</v>
-      </c>
-      <c r="D28" s="186" t="s">
-        <v>365</v>
+        <v>413</v>
+      </c>
+      <c r="D28" s="182" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C29" t="s">
-        <v>420</v>
-      </c>
-      <c r="D29" s="186" t="s">
-        <v>364</v>
+        <v>413</v>
+      </c>
+      <c r="D29" s="182" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B30" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C30" t="s">
-        <v>420</v>
-      </c>
-      <c r="D30" s="186" t="s">
-        <v>366</v>
+        <v>413</v>
+      </c>
+      <c r="D30" s="182" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B31" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C31" t="s">
-        <v>420</v>
-      </c>
-      <c r="D31" s="186" t="s">
-        <v>321</v>
+        <v>413</v>
+      </c>
+      <c r="D31" s="182" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B32" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C32" t="s">
-        <v>420</v>
-      </c>
-      <c r="D32" s="186" t="s">
-        <v>367</v>
+        <v>413</v>
+      </c>
+      <c r="D32" s="182" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C33" t="s">
-        <v>420</v>
-      </c>
-      <c r="D33" s="186" t="s">
-        <v>368</v>
+        <v>413</v>
+      </c>
+      <c r="D33" s="182" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B34" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C34" t="s">
-        <v>420</v>
-      </c>
-      <c r="D34" s="174" t="s">
-        <v>369</v>
+        <v>413</v>
+      </c>
+      <c r="D34" s="170" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B35" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C35" t="s">
-        <v>420</v>
-      </c>
-      <c r="D35" s="174" t="s">
-        <v>370</v>
+        <v>413</v>
+      </c>
+      <c r="D35" s="170" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B36" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C36" t="s">
-        <v>420</v>
-      </c>
-      <c r="D36" s="174" t="s">
-        <v>371</v>
+        <v>413</v>
+      </c>
+      <c r="D36" s="170" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B37" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C37" t="s">
-        <v>420</v>
-      </c>
-      <c r="D37" s="174" t="s">
-        <v>372</v>
+        <v>413</v>
+      </c>
+      <c r="D37" s="170" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B38" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C38" t="s">
-        <v>420</v>
-      </c>
-      <c r="D38" s="174" t="s">
-        <v>373</v>
+        <v>413</v>
+      </c>
+      <c r="D38" s="170" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C39" t="s">
-        <v>420</v>
-      </c>
-      <c r="D39" s="174" t="s">
-        <v>374</v>
+        <v>413</v>
+      </c>
+      <c r="D39" s="170" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B40" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C40" t="s">
-        <v>420</v>
-      </c>
-      <c r="D40" s="174" t="s">
-        <v>375</v>
+        <v>413</v>
+      </c>
+      <c r="D40" s="170" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B41" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C41" t="s">
-        <v>420</v>
-      </c>
-      <c r="D41" s="174" t="s">
-        <v>421</v>
+        <v>413</v>
+      </c>
+      <c r="D41" s="170" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C42" t="s">
-        <v>420</v>
-      </c>
-      <c r="D42" s="174" t="s">
-        <v>376</v>
+        <v>413</v>
+      </c>
+      <c r="D42" s="170" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B43" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C43" t="s">
-        <v>420</v>
-      </c>
-      <c r="D43" s="174" t="s">
-        <v>422</v>
+        <v>413</v>
+      </c>
+      <c r="D43" s="170" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B44" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C44" t="s">
-        <v>420</v>
-      </c>
-      <c r="D44" s="174" t="s">
-        <v>376</v>
+        <v>413</v>
+      </c>
+      <c r="D44" s="170" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C45" t="s">
-        <v>420</v>
-      </c>
-      <c r="D45" s="174" t="s">
-        <v>423</v>
+        <v>413</v>
+      </c>
+      <c r="D45" s="170" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B46" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C46" t="s">
-        <v>420</v>
-      </c>
-      <c r="D46" s="174" t="s">
-        <v>424</v>
+        <v>413</v>
+      </c>
+      <c r="D46" s="170" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B47" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C47" t="s">
-        <v>420</v>
-      </c>
-      <c r="D47" s="174" t="s">
-        <v>425</v>
+        <v>413</v>
+      </c>
+      <c r="D47" s="170" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C48" t="s">
-        <v>420</v>
-      </c>
-      <c r="D48" s="174" t="s">
-        <v>426</v>
+        <v>413</v>
+      </c>
+      <c r="D48" s="170" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B49" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C49" t="s">
+        <v>413</v>
+      </c>
+      <c r="D49" s="170" t="s">
         <v>420</v>
-      </c>
-      <c r="D49" s="174" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C50" t="s">
-        <v>420</v>
-      </c>
-      <c r="D50" s="174" t="s">
-        <v>428</v>
+        <v>413</v>
+      </c>
+      <c r="D50" s="170" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B51" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C51" t="s">
-        <v>420</v>
-      </c>
-      <c r="D51" s="174" t="s">
-        <v>429</v>
+        <v>413</v>
+      </c>
+      <c r="D51" s="170" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B52" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C52" t="s">
-        <v>420</v>
-      </c>
-      <c r="D52" s="186" t="s">
-        <v>368</v>
+        <v>413</v>
+      </c>
+      <c r="D52" s="182" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C53" t="s">
-        <v>420</v>
-      </c>
-      <c r="D53" s="174" t="s">
-        <v>377</v>
+        <v>413</v>
+      </c>
+      <c r="D53" s="170" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D4:F4"/>
+  <mergeCells count="26">
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9176,8 +9207,8 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9202,244 +9233,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="317" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
-      <c r="G1" s="319"/>
-      <c r="H1" s="319"/>
-      <c r="I1" s="319"/>
-      <c r="J1" s="319"/>
-      <c r="K1" s="319"/>
-      <c r="L1" s="319"/>
-      <c r="M1" s="319"/>
-      <c r="N1" s="319"/>
-      <c r="O1" s="319"/>
-      <c r="P1" s="319"/>
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="317"/>
+      <c r="G1" s="317"/>
+      <c r="H1" s="317"/>
+      <c r="I1" s="317"/>
+      <c r="J1" s="317"/>
+      <c r="K1" s="317"/>
+      <c r="L1" s="317"/>
+      <c r="M1" s="317"/>
+      <c r="N1" s="317"/>
+      <c r="O1" s="317"/>
+      <c r="P1" s="317"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="320" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" s="320"/>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
-      <c r="G2" s="320" t="s">
+      <c r="A2" s="321" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="322" t="s">
+        <v>267</v>
+      </c>
+      <c r="N2" s="322"/>
+      <c r="O2" s="322"/>
+      <c r="P2" s="322"/>
+      <c r="Q2" s="88"/>
+    </row>
+    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="326" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="326"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="326"/>
+      <c r="E3" s="326"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="326" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" s="326"/>
+      <c r="I3" s="326"/>
+      <c r="J3" s="326"/>
+      <c r="K3" s="326"/>
+      <c r="L3" s="326"/>
+      <c r="M3" s="327" t="s">
+        <v>271</v>
+      </c>
+      <c r="N3" s="327" t="s">
+        <v>270</v>
+      </c>
+      <c r="O3" s="327" t="s">
+        <v>339</v>
+      </c>
+      <c r="P3" s="327" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q3" s="189"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="328" t="s">
+        <v>477</v>
+      </c>
+      <c r="B4" s="329"/>
+      <c r="C4" s="329"/>
+      <c r="D4" s="329"/>
+      <c r="E4" s="329"/>
+      <c r="F4" s="330"/>
+      <c r="G4" s="331" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="320"/>
-      <c r="I2" s="320"/>
-      <c r="J2" s="320"/>
-      <c r="K2" s="320"/>
-      <c r="L2" s="320"/>
-      <c r="M2" s="303" t="s">
-        <v>270</v>
-      </c>
-      <c r="N2" s="303"/>
-      <c r="O2" s="303"/>
-      <c r="P2" s="303"/>
-      <c r="Q2" s="88"/>
-    </row>
-    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="322" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" s="322"/>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
-      <c r="F3" s="322"/>
-      <c r="G3" s="322" t="s">
-        <v>273</v>
-      </c>
-      <c r="H3" s="322"/>
-      <c r="I3" s="322"/>
-      <c r="J3" s="322"/>
-      <c r="K3" s="322"/>
-      <c r="L3" s="322"/>
-      <c r="M3" s="194" t="s">
-        <v>276</v>
-      </c>
-      <c r="N3" s="194" t="s">
-        <v>275</v>
-      </c>
-      <c r="O3" s="194" t="s">
-        <v>344</v>
-      </c>
-      <c r="P3" s="194" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q3" s="196"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="321" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="321"/>
-      <c r="C4" s="321"/>
-      <c r="D4" s="321" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="321"/>
-      <c r="F4" s="321"/>
-      <c r="G4" s="321" t="s">
-        <v>223</v>
-      </c>
-      <c r="H4" s="321"/>
-      <c r="I4" s="321"/>
-      <c r="J4" s="321"/>
-      <c r="K4" s="321"/>
-      <c r="L4" s="321"/>
-      <c r="M4" s="166" t="s">
-        <v>227</v>
-      </c>
-      <c r="N4" s="166" t="s">
+      <c r="H4" s="331"/>
+      <c r="I4" s="331"/>
+      <c r="J4" s="331"/>
+      <c r="K4" s="331"/>
+      <c r="L4" s="331"/>
+      <c r="M4" s="332" t="s">
+        <v>225</v>
+      </c>
+      <c r="N4" s="332" t="s">
         <v>154</v>
       </c>
-      <c r="O4" s="166" t="s">
-        <v>345</v>
-      </c>
-      <c r="P4" s="166" t="s">
+      <c r="O4" s="332" t="s">
+        <v>340</v>
+      </c>
+      <c r="P4" s="332" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="302"/>
-      <c r="B5" s="302"/>
-      <c r="C5" s="302"/>
-      <c r="D5" s="302"/>
-      <c r="E5" s="302"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="323" t="s">
+      <c r="A5" s="333"/>
+      <c r="B5" s="334"/>
+      <c r="C5" s="334"/>
+      <c r="D5" s="334"/>
+      <c r="E5" s="334"/>
+      <c r="F5" s="335"/>
+      <c r="G5" s="342" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="323"/>
-      <c r="I5" s="323"/>
-      <c r="J5" s="323"/>
-      <c r="K5" s="323"/>
-      <c r="L5" s="323"/>
-      <c r="M5" s="193" t="s">
-        <v>267</v>
-      </c>
-      <c r="N5" s="193"/>
-      <c r="O5" s="193" t="s">
-        <v>362</v>
-      </c>
-      <c r="P5" s="193" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="302"/>
-      <c r="B6" s="302"/>
-      <c r="C6" s="302"/>
-      <c r="D6" s="302"/>
-      <c r="E6" s="302"/>
-      <c r="F6" s="302"/>
-      <c r="G6" s="323"/>
-      <c r="H6" s="323"/>
-      <c r="I6" s="323"/>
-      <c r="J6" s="323"/>
-      <c r="K6" s="323"/>
-      <c r="L6" s="323"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="193"/>
-      <c r="O6" s="193"/>
-      <c r="P6" s="167"/>
+      <c r="H5" s="342"/>
+      <c r="I5" s="342"/>
+      <c r="J5" s="342"/>
+      <c r="K5" s="342"/>
+      <c r="L5" s="342"/>
+      <c r="M5" s="337" t="s">
+        <v>264</v>
+      </c>
+      <c r="N5" s="337"/>
+      <c r="O5" s="337" t="s">
+        <v>481</v>
+      </c>
+      <c r="P5" s="337" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="333" t="s">
+        <v>483</v>
+      </c>
+      <c r="B6" s="334"/>
+      <c r="C6" s="334"/>
+      <c r="D6" s="334"/>
+      <c r="E6" s="334"/>
+      <c r="F6" s="335"/>
+      <c r="G6" s="342" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="342"/>
+      <c r="I6" s="342"/>
+      <c r="J6" s="342"/>
+      <c r="K6" s="342"/>
+      <c r="L6" s="342"/>
+      <c r="M6" s="337"/>
+      <c r="N6" s="337"/>
+      <c r="O6" s="337" t="s">
+        <v>484</v>
+      </c>
+      <c r="P6" s="337" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="302"/>
-      <c r="B7" s="302"/>
-      <c r="C7" s="302"/>
-      <c r="D7" s="302"/>
-      <c r="E7" s="302"/>
-      <c r="F7" s="302"/>
-      <c r="G7" s="323"/>
-      <c r="H7" s="323"/>
-      <c r="I7" s="323"/>
-      <c r="J7" s="323"/>
-      <c r="K7" s="323"/>
-      <c r="L7" s="323"/>
-      <c r="M7" s="193"/>
-      <c r="N7" s="193"/>
-      <c r="O7" s="193"/>
-      <c r="P7" s="165"/>
+      <c r="A7" s="333"/>
+      <c r="B7" s="334"/>
+      <c r="C7" s="334"/>
+      <c r="D7" s="334"/>
+      <c r="E7" s="334"/>
+      <c r="F7" s="335"/>
+      <c r="G7" s="342"/>
+      <c r="H7" s="342"/>
+      <c r="I7" s="342"/>
+      <c r="J7" s="342"/>
+      <c r="K7" s="342"/>
+      <c r="L7" s="342"/>
+      <c r="M7" s="337"/>
+      <c r="N7" s="337"/>
+      <c r="O7" s="337"/>
+      <c r="P7" s="338"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="302"/>
-      <c r="B8" s="302"/>
-      <c r="C8" s="302"/>
-      <c r="D8" s="302"/>
-      <c r="E8" s="302"/>
-      <c r="F8" s="302"/>
-      <c r="G8" s="323"/>
-      <c r="H8" s="323"/>
-      <c r="I8" s="323"/>
-      <c r="J8" s="323"/>
-      <c r="K8" s="323"/>
-      <c r="L8" s="323"/>
-      <c r="M8" s="193"/>
-      <c r="N8" s="193"/>
-      <c r="O8" s="193"/>
-      <c r="P8" s="165"/>
+      <c r="A8" s="333"/>
+      <c r="B8" s="334"/>
+      <c r="C8" s="334"/>
+      <c r="D8" s="334"/>
+      <c r="E8" s="334"/>
+      <c r="F8" s="335"/>
+      <c r="G8" s="342"/>
+      <c r="H8" s="342"/>
+      <c r="I8" s="342"/>
+      <c r="J8" s="342"/>
+      <c r="K8" s="342"/>
+      <c r="L8" s="342"/>
+      <c r="M8" s="337"/>
+      <c r="N8" s="337"/>
+      <c r="O8" s="337"/>
+      <c r="P8" s="338"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="304" t="s">
-        <v>331</v>
-      </c>
-      <c r="B10" s="305"/>
-      <c r="C10" s="305"/>
-      <c r="D10" s="305"/>
-      <c r="E10" s="305"/>
-      <c r="F10" s="305"/>
-      <c r="G10" s="305"/>
-      <c r="H10" s="305"/>
-      <c r="I10" s="306"/>
+      <c r="A10" s="298" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="299"/>
+      <c r="C10" s="299"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="299"/>
+      <c r="F10" s="299"/>
+      <c r="G10" s="299"/>
+      <c r="H10" s="299"/>
+      <c r="I10" s="300"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B11" s="132" t="s">
-        <v>310</v>
-      </c>
-      <c r="C11" s="187" t="s">
-        <v>344</v>
+        <v>305</v>
+      </c>
+      <c r="C11" s="183" t="s">
+        <v>339</v>
       </c>
       <c r="D11" s="125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E11" s="125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G11" s="132" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H11" s="132" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I11" s="144" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="148"/>
       <c r="B12" s="147" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D12" s="147" t="s">
         <v>94</v>
@@ -9451,15 +9488,15 @@
         <v>96</v>
       </c>
       <c r="G12" s="147" t="s">
+        <v>226</v>
+      </c>
+      <c r="H12" s="147" t="s">
+        <v>227</v>
+      </c>
+      <c r="I12" s="149" t="s">
         <v>228</v>
       </c>
-      <c r="H12" s="147" t="s">
-        <v>229</v>
-      </c>
-      <c r="I12" s="149" t="s">
-        <v>230</v>
-      </c>
-      <c r="K12" s="168"/>
+      <c r="K12" s="164"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="146"/>
@@ -9484,283 +9521,278 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="289" t="s">
-        <v>256</v>
-      </c>
-      <c r="B15" s="290"/>
-      <c r="C15" s="290"/>
-      <c r="D15" s="290"/>
-      <c r="E15" s="290"/>
-      <c r="F15" s="290"/>
-      <c r="G15" s="290"/>
-      <c r="H15" s="291"/>
+      <c r="A15" s="282" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="283"/>
+      <c r="C15" s="283"/>
+      <c r="D15" s="283"/>
+      <c r="E15" s="283"/>
+      <c r="F15" s="283"/>
+      <c r="G15" s="283"/>
+      <c r="H15" s="284"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="292" t="s">
-        <v>341</v>
-      </c>
-      <c r="B16" s="293"/>
-      <c r="C16" s="293"/>
-      <c r="D16" s="293"/>
-      <c r="E16" s="293"/>
-      <c r="F16" s="293"/>
-      <c r="G16" s="293"/>
-      <c r="H16" s="294"/>
+      <c r="A16" s="285" t="s">
+        <v>336</v>
+      </c>
+      <c r="B16" s="286"/>
+      <c r="C16" s="286"/>
+      <c r="D16" s="286"/>
+      <c r="E16" s="286"/>
+      <c r="F16" s="286"/>
+      <c r="G16" s="286"/>
+      <c r="H16" s="287"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="292"/>
-      <c r="B17" s="293"/>
-      <c r="C17" s="293"/>
-      <c r="D17" s="293"/>
-      <c r="E17" s="293"/>
-      <c r="F17" s="293"/>
-      <c r="G17" s="293"/>
-      <c r="H17" s="294"/>
+      <c r="A17" s="285"/>
+      <c r="B17" s="286"/>
+      <c r="C17" s="286"/>
+      <c r="D17" s="286"/>
+      <c r="E17" s="286"/>
+      <c r="F17" s="286"/>
+      <c r="G17" s="286"/>
+      <c r="H17" s="287"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="292"/>
-      <c r="B18" s="293"/>
-      <c r="C18" s="293"/>
-      <c r="D18" s="293"/>
-      <c r="E18" s="293"/>
-      <c r="F18" s="293"/>
-      <c r="G18" s="293"/>
-      <c r="H18" s="294"/>
+      <c r="A18" s="285"/>
+      <c r="B18" s="286"/>
+      <c r="C18" s="286"/>
+      <c r="D18" s="286"/>
+      <c r="E18" s="286"/>
+      <c r="F18" s="286"/>
+      <c r="G18" s="286"/>
+      <c r="H18" s="287"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="295"/>
-      <c r="B19" s="296"/>
-      <c r="C19" s="296"/>
-      <c r="D19" s="296"/>
-      <c r="E19" s="296"/>
-      <c r="F19" s="296"/>
-      <c r="G19" s="296"/>
-      <c r="H19" s="297"/>
+      <c r="A19" s="288"/>
+      <c r="B19" s="289"/>
+      <c r="C19" s="289"/>
+      <c r="D19" s="289"/>
+      <c r="E19" s="289"/>
+      <c r="F19" s="289"/>
+      <c r="G19" s="289"/>
+      <c r="H19" s="290"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="301" t="s">
-        <v>285</v>
-      </c>
-      <c r="B21" s="301"/>
-      <c r="C21" s="301"/>
-      <c r="D21" s="301"/>
-      <c r="E21" s="301"/>
-      <c r="F21" s="301"/>
-      <c r="G21" s="301"/>
+      <c r="A21" s="294" t="s">
+        <v>280</v>
+      </c>
+      <c r="B21" s="294"/>
+      <c r="C21" s="294"/>
+      <c r="D21" s="294"/>
+      <c r="E21" s="294"/>
+      <c r="F21" s="294"/>
+      <c r="G21" s="294"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>287</v>
-      </c>
-      <c r="D22" s="261" t="s">
-        <v>288</v>
-      </c>
-      <c r="E22" s="261"/>
-      <c r="F22" s="261"/>
-      <c r="G22" s="261"/>
+        <v>282</v>
+      </c>
+      <c r="D22" s="254" t="s">
+        <v>283</v>
+      </c>
+      <c r="E22" s="254"/>
+      <c r="F22" s="254"/>
+      <c r="G22" s="254"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B23" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C23" t="s">
-        <v>430</v>
-      </c>
-      <c r="D23" s="174" t="s">
-        <v>346</v>
+        <v>423</v>
+      </c>
+      <c r="D23" s="170" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C24" t="s">
-        <v>430</v>
-      </c>
-      <c r="D24" s="186" t="s">
-        <v>312</v>
+        <v>423</v>
+      </c>
+      <c r="D24" s="182" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" t="s">
         <v>311</v>
       </c>
-      <c r="B25" t="s">
-        <v>316</v>
-      </c>
       <c r="C25" t="s">
-        <v>430</v>
-      </c>
-      <c r="D25" s="174" t="s">
-        <v>313</v>
+        <v>423</v>
+      </c>
+      <c r="D25" s="170" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B26" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C26" t="s">
-        <v>430</v>
-      </c>
-      <c r="D26" s="174" t="s">
-        <v>333</v>
+        <v>423</v>
+      </c>
+      <c r="D26" s="170" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B27" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C27" t="s">
-        <v>430</v>
-      </c>
-      <c r="D27" s="177" t="s">
-        <v>314</v>
+        <v>423</v>
+      </c>
+      <c r="D27" s="173" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B28" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C28" t="s">
-        <v>430</v>
-      </c>
-      <c r="D28" s="186" t="s">
-        <v>378</v>
+        <v>423</v>
+      </c>
+      <c r="D28" s="182" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B29" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C29" t="s">
-        <v>430</v>
-      </c>
-      <c r="D29" s="186" t="s">
-        <v>364</v>
+        <v>423</v>
+      </c>
+      <c r="D29" s="182" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B30" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C30" t="s">
-        <v>430</v>
-      </c>
-      <c r="D30" s="186" t="s">
-        <v>379</v>
+        <v>423</v>
+      </c>
+      <c r="D30" s="182" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B31" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C31" t="s">
-        <v>430</v>
-      </c>
-      <c r="D31" s="186" t="s">
-        <v>323</v>
+        <v>423</v>
+      </c>
+      <c r="D31" s="182" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C32" t="s">
+        <v>423</v>
+      </c>
+      <c r="D32" s="182" t="s">
         <v>319</v>
-      </c>
-      <c r="C32" t="s">
-        <v>430</v>
-      </c>
-      <c r="D32" s="186" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B33" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C33" t="s">
-        <v>430</v>
-      </c>
-      <c r="D33" s="174" t="s">
-        <v>380</v>
+        <v>423</v>
+      </c>
+      <c r="D33" s="170" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C34" t="s">
-        <v>430</v>
-      </c>
-      <c r="D34" s="186" t="s">
-        <v>327</v>
+        <v>423</v>
+      </c>
+      <c r="D34" s="182" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="21">
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A7:F7"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="G4:L4"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A16:H19"/>
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9834,7 +9866,7 @@
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
     <col min="2" max="2" width="68.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="183" customWidth="1"/>
+    <col min="3" max="3" width="16" style="179" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="67" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
@@ -9842,12 +9874,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="324" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="326"/>
+      <c r="A1" s="301" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="302"/>
+      <c r="C1" s="302"/>
+      <c r="D1" s="303"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -9882,7 +9914,7 @@
       <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="180"/>
+      <c r="C3" s="176"/>
       <c r="D3" s="23"/>
       <c r="F3" s="136" t="s">
         <v>79</v>
@@ -9895,7 +9927,7 @@
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="181"/>
+      <c r="C4" s="177"/>
       <c r="D4" s="24">
         <v>0</v>
       </c>
@@ -9910,7 +9942,7 @@
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="181"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="24">
         <v>7</v>
       </c>
@@ -9922,7 +9954,7 @@
       <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="181">
+      <c r="C6" s="177">
         <v>1</v>
       </c>
       <c r="D6" s="24">
@@ -9930,25 +9962,25 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="212" t="s">
-        <v>460</v>
+      <c r="A7" s="205" t="s">
+        <v>453</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="C7" s="213"/>
+        <v>454</v>
+      </c>
+      <c r="C7" s="206"/>
       <c r="D7" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="212" t="s">
-        <v>462</v>
+      <c r="A8" s="205" t="s">
+        <v>455</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="C8" s="213"/>
+        <v>456</v>
+      </c>
+      <c r="C8" s="206"/>
       <c r="D8" s="24">
         <v>1</v>
       </c>
@@ -9960,7 +9992,7 @@
       <c r="B9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="181"/>
+      <c r="C9" s="177"/>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -9970,7 +10002,7 @@
       <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="180"/>
+      <c r="C10" s="176"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -9980,7 +10012,7 @@
       <c r="B11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="181"/>
+      <c r="C11" s="177"/>
       <c r="D11" s="24">
         <v>0</v>
       </c>
@@ -9992,7 +10024,7 @@
       <c r="B12" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="181"/>
+      <c r="C12" s="177"/>
       <c r="D12" s="25" t="s">
         <v>68</v>
       </c>
@@ -10004,7 +10036,7 @@
       <c r="B13" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="181"/>
+      <c r="C13" s="177"/>
       <c r="D13" s="25" t="s">
         <v>69</v>
       </c>
@@ -10016,7 +10048,7 @@
       <c r="B14" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="181"/>
+      <c r="C14" s="177"/>
       <c r="D14" s="24">
         <v>0</v>
       </c>
@@ -10028,7 +10060,7 @@
       <c r="B15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="181"/>
+      <c r="C15" s="177"/>
       <c r="D15" s="24" t="s">
         <v>31</v>
       </c>
@@ -10040,7 +10072,7 @@
       <c r="B16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="180"/>
+      <c r="C16" s="176"/>
       <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -10050,7 +10082,7 @@
       <c r="B17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="181"/>
+      <c r="C17" s="177"/>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10060,7 +10092,7 @@
       <c r="B18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="181"/>
+      <c r="C18" s="177"/>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -10070,7 +10102,7 @@
       <c r="B19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="181"/>
+      <c r="C19" s="177"/>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -10080,7 +10112,7 @@
       <c r="B20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="181"/>
+      <c r="C20" s="177"/>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -10090,7 +10122,7 @@
       <c r="B21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="181"/>
+      <c r="C21" s="177"/>
       <c r="D21" s="24">
         <v>1</v>
       </c>
@@ -10102,7 +10134,7 @@
       <c r="B22" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="181"/>
+      <c r="C22" s="177"/>
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -10112,7 +10144,7 @@
       <c r="B23" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="181"/>
+      <c r="C23" s="177"/>
       <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -10122,7 +10154,7 @@
       <c r="B24" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="181"/>
+      <c r="C24" s="177"/>
       <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -10132,7 +10164,7 @@
       <c r="B25" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="180"/>
+      <c r="C25" s="176"/>
       <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -10142,7 +10174,7 @@
       <c r="B26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="181"/>
+      <c r="C26" s="177"/>
       <c r="D26" s="24">
         <v>100</v>
       </c>
@@ -10154,7 +10186,7 @@
       <c r="B27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="181"/>
+      <c r="C27" s="177"/>
       <c r="D27" s="24">
         <v>65535</v>
       </c>
@@ -10166,7 +10198,7 @@
       <c r="B28" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="181"/>
+      <c r="C28" s="177"/>
       <c r="D28" s="24">
         <v>10</v>
       </c>
@@ -10178,7 +10210,7 @@
       <c r="B29" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="181"/>
+      <c r="C29" s="177"/>
       <c r="D29" s="24">
         <v>0.1</v>
       </c>
@@ -10190,7 +10222,7 @@
       <c r="B30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="181"/>
+      <c r="C30" s="177"/>
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -10200,7 +10232,7 @@
       <c r="B31" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="181"/>
+      <c r="C31" s="177"/>
       <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -10210,7 +10242,7 @@
       <c r="B32" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="181"/>
+      <c r="C32" s="177"/>
       <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -10220,7 +10252,7 @@
       <c r="B33" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="180"/>
+      <c r="C33" s="176"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -10230,7 +10262,7 @@
       <c r="B34" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="181"/>
+      <c r="C34" s="177"/>
       <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -10240,7 +10272,7 @@
       <c r="B35" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="181"/>
+      <c r="C35" s="177"/>
       <c r="D35" s="24">
         <v>0.02</v>
       </c>
@@ -10252,7 +10284,7 @@
       <c r="B36" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="181"/>
+      <c r="C36" s="177"/>
       <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -10262,7 +10294,7 @@
       <c r="B37" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="181"/>
+      <c r="C37" s="177"/>
       <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -10272,7 +10304,7 @@
       <c r="B38" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="181"/>
+      <c r="C38" s="177"/>
       <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -10282,7 +10314,7 @@
       <c r="B39" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="181"/>
+      <c r="C39" s="177"/>
       <c r="D39" s="25" t="s">
         <v>72</v>
       </c>
@@ -10294,7 +10326,7 @@
       <c r="B40" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="181"/>
+      <c r="C40" s="177"/>
       <c r="D40" s="25">
         <v>0</v>
       </c>
@@ -10306,7 +10338,7 @@
       <c r="B41" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="180"/>
+      <c r="C41" s="176"/>
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -10314,7 +10346,7 @@
         <v>129</v>
       </c>
       <c r="B42" s="15"/>
-      <c r="C42" s="181"/>
+      <c r="C42" s="177"/>
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -10324,7 +10356,7 @@
       <c r="B43" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="181"/>
+      <c r="C43" s="177"/>
       <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -10334,7 +10366,7 @@
       <c r="B44" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="181"/>
+      <c r="C44" s="177"/>
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -10344,7 +10376,7 @@
       <c r="B45" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="181"/>
+      <c r="C45" s="177"/>
       <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -10354,7 +10386,7 @@
       <c r="B46" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C46" s="181"/>
+      <c r="C46" s="177"/>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -10364,7 +10396,7 @@
       <c r="B47" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="181"/>
+      <c r="C47" s="177"/>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -10374,7 +10406,7 @@
       <c r="B48" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="181"/>
+      <c r="C48" s="177"/>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -10384,7 +10416,7 @@
       <c r="B49" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="181"/>
+      <c r="C49" s="177"/>
       <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -10394,7 +10426,7 @@
       <c r="B50" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="181"/>
+      <c r="C50" s="177"/>
       <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10404,7 +10436,7 @@
       <c r="B51" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="181"/>
+      <c r="C51" s="177"/>
       <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -10414,7 +10446,7 @@
       <c r="B52" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="181"/>
+      <c r="C52" s="177"/>
       <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -10424,7 +10456,7 @@
       <c r="B53" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="181"/>
+      <c r="C53" s="177"/>
       <c r="D53" s="24">
         <v>1</v>
       </c>
@@ -10436,7 +10468,7 @@
       <c r="B54" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="181"/>
+      <c r="C54" s="177"/>
       <c r="D54" s="24">
         <v>1</v>
       </c>
@@ -10448,7 +10480,7 @@
       <c r="B55" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="181"/>
+      <c r="C55" s="177"/>
       <c r="D55" s="24">
         <v>1</v>
       </c>
@@ -10460,7 +10492,7 @@
       <c r="B56" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="181"/>
+      <c r="C56" s="177"/>
       <c r="D56" s="24">
         <v>1</v>
       </c>
@@ -10472,7 +10504,7 @@
       <c r="B57" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="181"/>
+      <c r="C57" s="177"/>
       <c r="D57" s="24">
         <v>1</v>
       </c>
@@ -10484,7 +10516,7 @@
       <c r="B58" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="181"/>
+      <c r="C58" s="177"/>
       <c r="D58" s="24">
         <v>0</v>
       </c>
@@ -10496,7 +10528,7 @@
       <c r="B59" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="181"/>
+      <c r="C59" s="177"/>
       <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -10506,7 +10538,7 @@
       <c r="B60" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="181"/>
+      <c r="C60" s="177"/>
       <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -10516,8 +10548,8 @@
       <c r="B61" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="180"/>
-      <c r="D61" s="179"/>
+      <c r="C61" s="176"/>
+      <c r="D61" s="175"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
@@ -10526,27 +10558,27 @@
       <c r="B62" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="181"/>
+      <c r="C62" s="177"/>
       <c r="D62" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="B63" s="178"/>
-      <c r="C63" s="180"/>
-      <c r="D63" s="179"/>
+        <v>323</v>
+      </c>
+      <c r="B63" s="174"/>
+      <c r="C63" s="176"/>
+      <c r="D63" s="175"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="C64" s="181"/>
+        <v>325</v>
+      </c>
+      <c r="C64" s="177"/>
       <c r="D64" s="26">
         <v>0</v>
       </c>
@@ -10558,8 +10590,8 @@
       <c r="B65" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="180"/>
-      <c r="D65" s="179"/>
+      <c r="C65" s="176"/>
+      <c r="D65" s="175"/>
     </row>
     <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
@@ -10568,7 +10600,7 @@
       <c r="B66" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="182"/>
+      <c r="C66" s="178"/>
       <c r="D66" s="29">
         <v>0</v>
       </c>
@@ -10608,23 +10640,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="330" t="s">
+      <c r="A1" s="307" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="331"/>
-      <c r="C1" s="331"/>
-      <c r="D1" s="331"/>
-      <c r="E1" s="331"/>
-      <c r="F1" s="331"/>
-      <c r="G1" s="331"/>
-      <c r="H1" s="331"/>
-      <c r="I1" s="331"/>
-      <c r="J1" s="331"/>
-      <c r="K1" s="331"/>
-      <c r="L1" s="331"/>
-      <c r="M1" s="331"/>
-      <c r="N1" s="331"/>
-      <c r="O1" s="331"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="308"/>
+      <c r="K1" s="308"/>
+      <c r="L1" s="308"/>
+      <c r="M1" s="308"/>
+      <c r="N1" s="308"/>
+      <c r="O1" s="308"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -10642,17 +10674,17 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="304" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328"/>
-      <c r="H3" s="328"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="329"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="305"/>
+      <c r="E3" s="305"/>
+      <c r="F3" s="305"/>
+      <c r="G3" s="305"/>
+      <c r="H3" s="305"/>
+      <c r="I3" s="305"/>
+      <c r="J3" s="306"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="37"/>
@@ -10843,21 +10875,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="327" t="s">
+      <c r="B19" s="304" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="328"/>
-      <c r="D19" s="328"/>
-      <c r="E19" s="328"/>
-      <c r="F19" s="328"/>
-      <c r="G19" s="328"/>
-      <c r="H19" s="328"/>
-      <c r="I19" s="328"/>
-      <c r="J19" s="328"/>
-      <c r="K19" s="328"/>
-      <c r="L19" s="328"/>
-      <c r="M19" s="328"/>
-      <c r="N19" s="329"/>
+      <c r="C19" s="305"/>
+      <c r="D19" s="305"/>
+      <c r="E19" s="305"/>
+      <c r="F19" s="305"/>
+      <c r="G19" s="305"/>
+      <c r="H19" s="305"/>
+      <c r="I19" s="305"/>
+      <c r="J19" s="305"/>
+      <c r="K19" s="305"/>
+      <c r="L19" s="305"/>
+      <c r="M19" s="305"/>
+      <c r="N19" s="306"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
@@ -11059,27 +11091,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="335" t="s">
+      <c r="A1" s="312" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="336"/>
-      <c r="C1" s="336"/>
-      <c r="D1" s="336"/>
-      <c r="E1" s="336"/>
-      <c r="F1" s="336"/>
-      <c r="G1" s="336"/>
-      <c r="H1" s="336"/>
-      <c r="I1" s="336"/>
-      <c r="J1" s="336"/>
-      <c r="K1" s="336"/>
-      <c r="L1" s="336"/>
-      <c r="M1" s="336"/>
-      <c r="N1" s="336"/>
-      <c r="O1" s="336"/>
-      <c r="P1" s="336"/>
-      <c r="Q1" s="336"/>
-      <c r="R1" s="336"/>
-      <c r="S1" s="336"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
+      <c r="G1" s="313"/>
+      <c r="H1" s="313"/>
+      <c r="I1" s="313"/>
+      <c r="J1" s="313"/>
+      <c r="K1" s="313"/>
+      <c r="L1" s="313"/>
+      <c r="M1" s="313"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="313"/>
+      <c r="P1" s="313"/>
+      <c r="Q1" s="313"/>
+      <c r="R1" s="313"/>
+      <c r="S1" s="313"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -11093,26 +11125,26 @@
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="304" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328"/>
-      <c r="H3" s="328"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="329"/>
-      <c r="L3" s="332" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="305"/>
+      <c r="E3" s="305"/>
+      <c r="F3" s="305"/>
+      <c r="G3" s="305"/>
+      <c r="H3" s="305"/>
+      <c r="I3" s="305"/>
+      <c r="J3" s="306"/>
+      <c r="L3" s="309" t="s">
         <v>196</v>
       </c>
-      <c r="M3" s="333"/>
-      <c r="N3" s="333"/>
-      <c r="O3" s="333"/>
-      <c r="P3" s="333"/>
-      <c r="Q3" s="333"/>
-      <c r="R3" s="334"/>
+      <c r="M3" s="310"/>
+      <c r="N3" s="310"/>
+      <c r="O3" s="310"/>
+      <c r="P3" s="310"/>
+      <c r="Q3" s="310"/>
+      <c r="R3" s="311"/>
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
     </row>
@@ -11343,23 +11375,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="337" t="s">
+      <c r="A1" s="314" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
-      <c r="N1" s="338"/>
-      <c r="O1" s="339"/>
+      <c r="B1" s="315"/>
+      <c r="C1" s="315"/>
+      <c r="D1" s="315"/>
+      <c r="E1" s="315"/>
+      <c r="F1" s="315"/>
+      <c r="G1" s="315"/>
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="315"/>
+      <c r="K1" s="315"/>
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
+      <c r="N1" s="315"/>
+      <c r="O1" s="316"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11372,22 +11404,22 @@
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="327" t="s">
+      <c r="B3" s="304" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328"/>
-      <c r="H3" s="329"/>
-      <c r="J3" s="332" t="s">
+      <c r="C3" s="305"/>
+      <c r="D3" s="305"/>
+      <c r="E3" s="305"/>
+      <c r="F3" s="305"/>
+      <c r="G3" s="305"/>
+      <c r="H3" s="306"/>
+      <c r="J3" s="309" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="333"/>
-      <c r="L3" s="333"/>
-      <c r="M3" s="333"/>
-      <c r="N3" s="334"/>
+      <c r="K3" s="310"/>
+      <c r="L3" s="310"/>
+      <c r="M3" s="310"/>
+      <c r="N3" s="311"/>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
     </row>

--- a/test_templates/test_batch_template4.xlsx
+++ b/test_templates/test_batch_template4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -17,11 +17,21 @@
     <sheet name="Calibration" sheetId="1" r:id="rId3"/>
     <sheet name="Comparative Analysis" sheetId="12" r:id="rId4"/>
     <sheet name="Transfer Curve Analysis" sheetId="13" r:id="rId5"/>
-    <sheet name="Optional Settings" sheetId="14" r:id="rId6"/>
+    <sheet name="Optional Settings" sheetId="15" r:id="rId6"/>
     <sheet name="96w" sheetId="9" r:id="rId7"/>
     <sheet name="48w" sheetId="11" r:id="rId8"/>
     <sheet name="24w" sheetId="10" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="I3010I">0</definedName>
+    <definedName name="I3535I">1</definedName>
+    <definedName name="I3903I">0</definedName>
+    <definedName name="I4018I">0</definedName>
+    <definedName name="I4619I">0</definedName>
+    <definedName name="I4922I">0</definedName>
+    <definedName name="I7577I">1</definedName>
+    <definedName name="I896I">0</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="489">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2437,14 +2447,30 @@
   <si>
     <t>transfercurve2/plots</t>
   </si>
+  <si>
+    <t>flow.onThreshold</t>
+  </si>
+  <si>
+    <t>Threshold to differentiate between on and off events. Points with values equal to threshold are placed in on group.</t>
+  </si>
+  <si>
+    <t>10^4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3429,25 +3455,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="343">
+  <cellXfs count="344">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3463,7 +3489,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3474,28 +3500,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3516,62 +3539,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3582,20 +3605,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3604,32 +3627,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3647,19 +3670,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3668,46 +3691,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3725,83 +3748,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3816,37 +3839,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3855,51 +3878,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3922,71 +3945,71 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3994,19 +4017,120 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4027,151 +4151,73 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4201,31 +4247,31 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4246,6 +4292,25 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4255,161 +4320,127 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -5317,601 +5348,587 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="155" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="85" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="85" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="141" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="85" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="85" customWidth="1"/>
-    <col min="9" max="9" width="20" style="85" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="85" customWidth="1"/>
-    <col min="11" max="11" width="6" style="85" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="85" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="85"/>
+    <col min="1" max="1" width="20.875" style="154" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="84" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="84" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="84" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="84" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="140" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="84" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="84" customWidth="1"/>
+    <col min="9" max="9" width="20" style="84" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="84" customWidth="1"/>
+    <col min="11" max="11" width="6" style="84" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="84" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="228" t="s">
         <v>351</v>
       </c>
-      <c r="B1" s="234"/>
-      <c r="C1" s="234"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="234"/>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="234"/>
-      <c r="J1" s="234"/>
-      <c r="K1" s="235"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="230"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="86"/>
+      <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="244" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="213"/>
+      <c r="B3" s="245"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="226" t="s">
+      <c r="A4" s="242" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="227"/>
+      <c r="B4" s="243"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="228" t="s">
+      <c r="A5" s="258" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="229"/>
+      <c r="B5" s="259"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="86"/>
+      <c r="B6" s="85"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="212" t="s">
+      <c r="A7" s="244" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="214"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="214"/>
-      <c r="I7" s="214"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="213"/>
+      <c r="B7" s="246"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="246"/>
+      <c r="F7" s="246"/>
+      <c r="G7" s="246"/>
+      <c r="H7" s="246"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="246"/>
+      <c r="K7" s="245"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="236" t="s">
+      <c r="A8" s="231" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="237"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="237"/>
-      <c r="G8" s="237"/>
-      <c r="H8" s="237"/>
-      <c r="I8" s="237"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="238"/>
+      <c r="B8" s="232"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="232"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="232"/>
+      <c r="H8" s="232"/>
+      <c r="I8" s="232"/>
+      <c r="J8" s="232"/>
+      <c r="K8" s="233"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="239"/>
-      <c r="B9" s="240"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="240"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="240"/>
-      <c r="H9" s="240"/>
-      <c r="I9" s="240"/>
-      <c r="J9" s="240"/>
-      <c r="K9" s="241"/>
+      <c r="A9" s="234"/>
+      <c r="B9" s="235"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="235"/>
+      <c r="H9" s="235"/>
+      <c r="I9" s="235"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="236"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="156"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="142"/>
+      <c r="A10" s="155"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="141"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="215" t="s">
+      <c r="A11" s="247" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="216"/>
-      <c r="C11" s="216"/>
-      <c r="D11" s="217"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="142"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="248"/>
+      <c r="D11" s="249"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="141"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="218" t="s">
+      <c r="A12" s="250" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="219"/>
-      <c r="C12" s="220" t="s">
+      <c r="B12" s="251"/>
+      <c r="C12" s="252" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="221"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="142"/>
+      <c r="D12" s="253"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="141"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="222"/>
-      <c r="B13" s="223"/>
-      <c r="C13" s="224"/>
-      <c r="D13" s="225"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="142"/>
+      <c r="A13" s="254"/>
+      <c r="B13" s="255"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="257"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="141"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="215" t="s">
+      <c r="A15" s="247" t="s">
         <v>248</v>
       </c>
-      <c r="B15" s="217"/>
-      <c r="E15" s="215" t="s">
+      <c r="B15" s="249"/>
+      <c r="E15" s="247" t="s">
         <v>288</v>
       </c>
-      <c r="F15" s="216"/>
-      <c r="G15" s="216"/>
-      <c r="H15" s="216"/>
-      <c r="I15" s="217"/>
+      <c r="F15" s="248"/>
+      <c r="G15" s="248"/>
+      <c r="H15" s="248"/>
+      <c r="I15" s="249"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="226" t="s">
+      <c r="A16" s="242" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="227"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="242" t="s">
+      <c r="B16" s="243"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="237" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="243"/>
-      <c r="G16" s="243"/>
-      <c r="H16" s="243"/>
-      <c r="I16" s="244"/>
+      <c r="F16" s="238"/>
+      <c r="G16" s="238"/>
+      <c r="H16" s="238"/>
+      <c r="I16" s="239"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="157" t="s">
+      <c r="A17" s="156" t="s">
         <v>210</v>
       </c>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="114" t="s">
         <v>251</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="E17" s="245" t="s">
+      <c r="C17" s="88"/>
+      <c r="E17" s="240" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="246"/>
-      <c r="G17" s="195" t="s">
+      <c r="F17" s="241"/>
+      <c r="G17" s="194" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="195" t="s">
+      <c r="H17" s="194" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="184" t="s">
+      <c r="I17" s="183" t="s">
         <v>329</v>
       </c>
-      <c r="J17" s="81"/>
+      <c r="J17" s="80"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="158" t="s">
+      <c r="A18" s="157" t="s">
         <v>242</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="E18" s="83">
+      <c r="C18" s="88"/>
+      <c r="E18" s="82">
         <v>1</v>
       </c>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33" t="s">
+      <c r="G18" s="32"/>
+      <c r="H18" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="230" t="s">
+      <c r="I18" s="216" t="s">
         <v>444</v>
       </c>
-      <c r="J18" s="81"/>
+      <c r="J18" s="80"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="159" t="s">
+      <c r="A19" s="158" t="s">
         <v>261</v>
       </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="89"/>
-      <c r="E19" s="83">
+      <c r="B19" s="115"/>
+      <c r="C19" s="88"/>
+      <c r="E19" s="82">
         <v>2</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="74" t="s">
+      <c r="H19" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="I19" s="230"/>
-      <c r="J19" s="81"/>
+      <c r="I19" s="216"/>
+      <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="159" t="s">
+      <c r="A20" s="158" t="s">
         <v>262</v>
       </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="91"/>
-      <c r="E20" s="84">
+      <c r="B20" s="115"/>
+      <c r="C20" s="90"/>
+      <c r="E20" s="83">
         <v>3</v>
       </c>
-      <c r="F20" s="140" t="s">
+      <c r="F20" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="231"/>
-      <c r="J20" s="81"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="217"/>
+      <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="158" t="s">
         <v>266</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="32"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="31"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="160"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="89"/>
-      <c r="J22" s="81"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="88"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="161"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="91"/>
-      <c r="E23" s="210" t="s">
+      <c r="A23" s="160"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="90"/>
+      <c r="E23" s="218" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="232"/>
-      <c r="G23" s="232"/>
-      <c r="H23" s="232"/>
-      <c r="I23" s="211"/>
+      <c r="F23" s="219"/>
+      <c r="G23" s="219"/>
+      <c r="H23" s="219"/>
+      <c r="I23" s="220"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="210" t="s">
+      <c r="A24" s="218" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="211"/>
-      <c r="C24" s="32"/>
-      <c r="E24" s="250" t="s">
+      <c r="B24" s="220"/>
+      <c r="C24" s="31"/>
+      <c r="E24" s="224" t="s">
         <v>208</v>
       </c>
-      <c r="F24" s="251"/>
-      <c r="G24" s="195" t="s">
+      <c r="F24" s="225"/>
+      <c r="G24" s="194" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="195" t="s">
+      <c r="H24" s="194" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="184" t="s">
+      <c r="I24" s="183" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="157" t="s">
+      <c r="A25" s="156" t="s">
         <v>210</v>
       </c>
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="114" t="s">
         <v>258</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="E25" s="83">
+      <c r="C25" s="31"/>
+      <c r="E25" s="82">
         <v>1</v>
       </c>
-      <c r="F25" s="93" t="s">
+      <c r="F25" s="92" t="s">
         <v>194</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33" t="s">
+      <c r="G25" s="32"/>
+      <c r="H25" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="247" t="s">
+      <c r="I25" s="221" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="158" t="s">
+      <c r="A26" s="157" t="s">
         <v>242</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="E26" s="83">
+      <c r="C26" s="88"/>
+      <c r="E26" s="82">
         <v>2</v>
       </c>
-      <c r="F26" s="93" t="s">
+      <c r="F26" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="74" t="s">
+      <c r="H26" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="I26" s="248"/>
+      <c r="I26" s="222"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="159" t="s">
+      <c r="A27" s="158" t="s">
         <v>259</v>
       </c>
-      <c r="B27" s="116"/>
-      <c r="C27" s="91"/>
-      <c r="E27" s="84">
+      <c r="B27" s="115"/>
+      <c r="C27" s="90"/>
+      <c r="E27" s="83">
         <v>3</v>
       </c>
-      <c r="F27" s="140" t="s">
+      <c r="F27" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="249"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="223"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="159" t="s">
+      <c r="A28" s="158" t="s">
         <v>260</v>
       </c>
-      <c r="B28" s="116"/>
-      <c r="C28" s="32"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="81"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="31"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="80"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="159"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="32"/>
-      <c r="I29" s="81"/>
+      <c r="A29" s="158"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="31"/>
+      <c r="I29" s="80"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="160"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="89"/>
-      <c r="E30" s="210" t="s">
+      <c r="A30" s="159"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="88"/>
+      <c r="E30" s="218" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="232"/>
-      <c r="G30" s="232"/>
-      <c r="H30" s="232"/>
-      <c r="I30" s="211"/>
+      <c r="F30" s="219"/>
+      <c r="G30" s="219"/>
+      <c r="H30" s="219"/>
+      <c r="I30" s="220"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="161"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="E31" s="252" t="s">
+      <c r="A31" s="160"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="E31" s="226" t="s">
         <v>430</v>
       </c>
-      <c r="F31" s="253"/>
-      <c r="G31" s="193" t="s">
+      <c r="F31" s="227"/>
+      <c r="G31" s="192" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="193" t="s">
+      <c r="H31" s="192" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="184" t="s">
+      <c r="I31" s="183" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="210" t="s">
+      <c r="A32" s="218" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="211"/>
-      <c r="C32" s="32"/>
-      <c r="E32" s="83">
+      <c r="B32" s="220"/>
+      <c r="C32" s="31"/>
+      <c r="E32" s="82">
         <v>1</v>
       </c>
-      <c r="F32" s="93" t="s">
+      <c r="F32" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="230"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="216"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="157" t="s">
+      <c r="A33" s="156" t="s">
         <v>210</v>
       </c>
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="114" t="s">
         <v>265</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="E33" s="83">
+      <c r="C33" s="88"/>
+      <c r="E33" s="82">
         <v>2</v>
       </c>
-      <c r="F33" s="93" t="s">
+      <c r="F33" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="33"/>
-      <c r="I33" s="230"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="216"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="158" t="s">
+      <c r="A34" s="157" t="s">
         <v>212</v>
       </c>
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="E34" s="83">
+      <c r="E34" s="82">
         <v>3</v>
       </c>
-      <c r="F34" s="93"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="230"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="216"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="159" t="s">
+      <c r="A35" s="158" t="s">
         <v>197</v>
       </c>
-      <c r="B35" s="116"/>
-      <c r="E35" s="83">
+      <c r="B35" s="115"/>
+      <c r="E35" s="82">
         <v>4</v>
       </c>
-      <c r="F35" s="93"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="230"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="216"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="159" t="s">
+      <c r="A36" s="158" t="s">
         <v>198</v>
       </c>
-      <c r="B36" s="116"/>
-      <c r="E36" s="83">
+      <c r="B36" s="115"/>
+      <c r="E36" s="82">
         <v>5</v>
       </c>
-      <c r="F36" s="93"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="230"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="216"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="159" t="s">
+      <c r="A37" s="158" t="s">
         <v>199</v>
       </c>
-      <c r="B37" s="116"/>
-      <c r="E37" s="84">
+      <c r="B37" s="115"/>
+      <c r="E37" s="83">
         <v>6</v>
       </c>
-      <c r="F37" s="140"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="231"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="217"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="160" t="s">
+      <c r="A38" s="159" t="s">
         <v>200</v>
       </c>
-      <c r="B38" s="117"/>
+      <c r="B38" s="116"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="162"/>
-      <c r="B39" s="121"/>
+      <c r="A39" s="161"/>
+      <c r="B39" s="120"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="210" t="s">
+      <c r="E40" s="218" t="s">
         <v>187</v>
       </c>
-      <c r="F40" s="232"/>
-      <c r="G40" s="232"/>
-      <c r="H40" s="232"/>
-      <c r="I40" s="211"/>
+      <c r="F40" s="219"/>
+      <c r="G40" s="219"/>
+      <c r="H40" s="219"/>
+      <c r="I40" s="220"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="250"/>
-      <c r="F41" s="251"/>
-      <c r="G41" s="82" t="s">
+      <c r="E41" s="224"/>
+      <c r="F41" s="225"/>
+      <c r="G41" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="H41" s="82" t="s">
+      <c r="H41" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="184" t="s">
+      <c r="I41" s="183" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="83">
+      <c r="E42" s="82">
         <v>1</v>
       </c>
-      <c r="F42" s="93"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="230"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="216"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="83">
+      <c r="E43" s="82">
         <v>2</v>
       </c>
-      <c r="F43" s="93"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="230"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="216"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="83">
+      <c r="E44" s="82">
         <v>3</v>
       </c>
-      <c r="F44" s="93"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="230"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="216"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="83">
+      <c r="E45" s="82">
         <v>4</v>
       </c>
-      <c r="F45" s="93"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="230"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="216"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="83">
+      <c r="E46" s="82">
         <v>5</v>
       </c>
-      <c r="F46" s="93"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="230"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="216"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="84">
+      <c r="E47" s="83">
         <v>6</v>
       </c>
-      <c r="F47" s="140"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="231"/>
+      <c r="F47" s="139"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="217"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5927,6 +5944,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5966,873 +5997,873 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="264" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="260"/>
+      <c r="B1" s="265"/>
+      <c r="C1" s="265"/>
+      <c r="D1" s="265"/>
+      <c r="E1" s="265"/>
+      <c r="F1" s="265"/>
+      <c r="G1" s="265"/>
+      <c r="H1" s="265"/>
+      <c r="I1" s="265"/>
+      <c r="J1" s="266"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="267" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
+      <c r="B2" s="268"/>
+      <c r="C2" s="268"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="268"/>
+      <c r="G2" s="268"/>
+      <c r="H2" s="268"/>
+      <c r="I2" s="268"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="168" t="s">
+      <c r="A3" s="167" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="170" t="s">
         <v>290</v>
       </c>
-      <c r="C3" s="264" t="s">
+      <c r="C3" s="270" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="171" t="s">
+      <c r="D3" s="271"/>
+      <c r="E3" s="271"/>
+      <c r="F3" s="271"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="170" t="s">
         <v>291</v>
       </c>
-      <c r="I3" s="171" t="s">
+      <c r="I3" s="170" t="s">
         <v>292</v>
       </c>
-      <c r="J3" s="172" t="s">
+      <c r="J3" s="171" t="s">
         <v>293</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="138" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="139" t="s">
+      <c r="E4" s="138" t="s">
         <v>265</v>
       </c>
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="138" t="s">
         <v>258</v>
       </c>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="138" t="s">
         <v>273</v>
       </c>
-      <c r="H4" s="139" t="s">
+      <c r="H4" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="188" t="s">
+      <c r="J4" s="187" t="s">
         <v>374</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108">
+      <c r="A5" s="107">
         <v>1</v>
       </c>
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="195" t="s">
         <v>446</v>
       </c>
-      <c r="C5" s="109">
+      <c r="C5" s="108">
         <v>0.1</v>
       </c>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109" t="s">
+      <c r="D5" s="108"/>
+      <c r="E5" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="109"/>
-      <c r="G5" s="109"/>
-      <c r="H5" s="110">
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="109">
         <v>1</v>
       </c>
-      <c r="I5" s="111" t="s">
+      <c r="I5" s="110" t="s">
         <v>447</v>
       </c>
-      <c r="J5" s="112"/>
-      <c r="K5" s="197" t="s">
+      <c r="J5" s="111"/>
+      <c r="K5" s="196" t="s">
         <v>431</v>
       </c>
-      <c r="L5" s="197" t="s">
+      <c r="L5" s="196" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108">
+      <c r="A6" s="107">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="196" t="s">
+      <c r="B6" s="195" t="s">
         <v>448</v>
       </c>
-      <c r="C6" s="109">
+      <c r="C6" s="108">
         <v>0.2</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109" t="s">
+      <c r="D6" s="108"/>
+      <c r="E6" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="110">
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="109">
         <v>1</v>
       </c>
-      <c r="I6" s="111" t="s">
+      <c r="I6" s="110" t="s">
         <v>449</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="197" t="s">
+      <c r="J6" s="111"/>
+      <c r="K6" s="196" t="s">
         <v>433</v>
       </c>
-      <c r="L6" s="197" t="s">
+      <c r="L6" s="196" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108">
+      <c r="A7" s="107">
         <f t="shared" ref="A7:A22" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="196" t="s">
+      <c r="B7" s="195" t="s">
         <v>450</v>
       </c>
-      <c r="C7" s="109">
+      <c r="C7" s="108">
         <v>0.5</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109" t="s">
+      <c r="D7" s="108"/>
+      <c r="E7" s="108" t="s">
         <v>199</v>
       </c>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="110">
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="109">
         <v>1</v>
       </c>
-      <c r="I7" s="111" t="s">
+      <c r="I7" s="110" t="s">
         <v>451</v>
       </c>
-      <c r="J7" s="112"/>
-      <c r="K7" s="197" t="s">
+      <c r="J7" s="111"/>
+      <c r="K7" s="196" t="s">
         <v>435</v>
       </c>
-      <c r="L7" s="197" t="s">
+      <c r="L7" s="196" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108">
+      <c r="A8" s="107">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="206" t="s">
         <v>457</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109" t="s">
+      <c r="C8" s="108"/>
+      <c r="D8" s="108" t="s">
         <v>261</v>
       </c>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109" t="s">
+      <c r="E8" s="108"/>
+      <c r="F8" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G8" s="108">
         <v>0.1</v>
       </c>
-      <c r="H8" s="110">
+      <c r="H8" s="109">
         <v>1</v>
       </c>
-      <c r="I8" s="111" t="s">
+      <c r="I8" s="110" t="s">
         <v>465</v>
       </c>
-      <c r="J8" s="112" t="s">
+      <c r="J8" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="197" t="s">
+      <c r="K8" s="196" t="s">
         <v>471</v>
       </c>
-      <c r="L8" s="197"/>
+      <c r="L8" s="196"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="108">
+      <c r="A9" s="107">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="207" t="s">
+      <c r="B9" s="206" t="s">
         <v>458</v>
       </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109" t="s">
+      <c r="C9" s="108"/>
+      <c r="D9" s="108" t="s">
         <v>261</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109" t="s">
+      <c r="E9" s="108"/>
+      <c r="F9" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="G9" s="109">
+      <c r="G9" s="108">
         <v>0.2</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="109">
         <v>1</v>
       </c>
-      <c r="I9" s="111" t="s">
+      <c r="I9" s="110" t="s">
         <v>466</v>
       </c>
-      <c r="J9" s="112" t="s">
+      <c r="J9" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="197" t="s">
+      <c r="K9" s="196" t="s">
         <v>472</v>
       </c>
-      <c r="L9" s="197"/>
+      <c r="L9" s="196"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="108">
+      <c r="A10" s="107">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="207" t="s">
+      <c r="B10" s="206" t="s">
         <v>459</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109" t="s">
+      <c r="C10" s="108"/>
+      <c r="D10" s="108" t="s">
         <v>261</v>
       </c>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109" t="s">
+      <c r="E10" s="108"/>
+      <c r="F10" s="108" t="s">
         <v>260</v>
       </c>
-      <c r="G10" s="109">
+      <c r="G10" s="108">
         <v>0.1</v>
       </c>
-      <c r="H10" s="110">
+      <c r="H10" s="109">
         <v>1</v>
       </c>
-      <c r="I10" s="111" t="s">
+      <c r="I10" s="110" t="s">
         <v>467</v>
       </c>
-      <c r="J10" s="112" t="s">
+      <c r="J10" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="197" t="s">
+      <c r="K10" s="196" t="s">
         <v>431</v>
       </c>
-      <c r="L10" s="197"/>
+      <c r="L10" s="196"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="108">
+      <c r="A11" s="107">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="207" t="s">
+      <c r="B11" s="206" t="s">
         <v>460</v>
       </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109" t="s">
+      <c r="C11" s="108"/>
+      <c r="D11" s="108" t="s">
         <v>261</v>
       </c>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109" t="s">
+      <c r="E11" s="108"/>
+      <c r="F11" s="108" t="s">
         <v>260</v>
       </c>
-      <c r="G11" s="109">
+      <c r="G11" s="108">
         <v>0.2</v>
       </c>
-      <c r="H11" s="110">
+      <c r="H11" s="109">
         <v>1</v>
       </c>
-      <c r="I11" s="111" t="s">
+      <c r="I11" s="110" t="s">
         <v>468</v>
       </c>
-      <c r="J11" s="112" t="s">
+      <c r="J11" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="197" t="s">
+      <c r="K11" s="196" t="s">
         <v>432</v>
       </c>
-      <c r="L11" s="197"/>
+      <c r="L11" s="196"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="108">
+      <c r="A12" s="107">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="207" t="s">
+      <c r="B12" s="206" t="s">
         <v>461</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109" t="s">
+      <c r="C12" s="108"/>
+      <c r="D12" s="108" t="s">
         <v>262</v>
       </c>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109" t="s">
+      <c r="E12" s="108"/>
+      <c r="F12" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="G12" s="109">
+      <c r="G12" s="108">
         <v>10</v>
       </c>
-      <c r="H12" s="110">
+      <c r="H12" s="109">
         <v>1</v>
       </c>
-      <c r="I12" s="111" t="s">
+      <c r="I12" s="110" t="s">
         <v>469</v>
       </c>
-      <c r="J12" s="112" t="s">
+      <c r="J12" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="197" t="s">
+      <c r="K12" s="196" t="s">
         <v>473</v>
       </c>
-      <c r="L12" s="197"/>
+      <c r="L12" s="196"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="108">
+      <c r="A13" s="107">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="206" t="s">
         <v>462</v>
       </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="108" t="s">
         <v>262</v>
       </c>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109" t="s">
+      <c r="E13" s="108"/>
+      <c r="F13" s="108" t="s">
         <v>259</v>
       </c>
-      <c r="G13" s="109">
+      <c r="G13" s="108">
         <v>20</v>
       </c>
-      <c r="H13" s="110">
+      <c r="H13" s="109">
         <v>1</v>
       </c>
-      <c r="I13" s="111" t="s">
+      <c r="I13" s="110" t="s">
         <v>470</v>
       </c>
-      <c r="J13" s="112" t="s">
+      <c r="J13" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="197" t="s">
+      <c r="K13" s="196" t="s">
         <v>474</v>
       </c>
-      <c r="L13" s="197"/>
+      <c r="L13" s="196"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108">
+      <c r="A14" s="107">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="207" t="s">
+      <c r="B14" s="206" t="s">
         <v>463</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109" t="s">
+      <c r="C14" s="108"/>
+      <c r="D14" s="108" t="s">
         <v>262</v>
       </c>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109" t="s">
+      <c r="E14" s="108"/>
+      <c r="F14" s="108" t="s">
         <v>260</v>
       </c>
-      <c r="G14" s="109">
+      <c r="G14" s="108">
         <v>10</v>
       </c>
-      <c r="H14" s="110">
+      <c r="H14" s="109">
         <v>1</v>
       </c>
-      <c r="I14" s="111" t="s">
+      <c r="I14" s="110" t="s">
         <v>465</v>
       </c>
-      <c r="J14" s="112" t="s">
+      <c r="J14" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="197" t="s">
+      <c r="K14" s="196" t="s">
         <v>471</v>
       </c>
-      <c r="L14" s="197"/>
+      <c r="L14" s="196"/>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108">
+      <c r="A15" s="107">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="207" t="s">
+      <c r="B15" s="206" t="s">
         <v>464</v>
       </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109" t="s">
+      <c r="C15" s="108"/>
+      <c r="D15" s="108" t="s">
         <v>262</v>
       </c>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109" t="s">
+      <c r="E15" s="108"/>
+      <c r="F15" s="108" t="s">
         <v>260</v>
       </c>
-      <c r="G15" s="109">
+      <c r="G15" s="108">
         <v>20</v>
       </c>
-      <c r="H15" s="110">
+      <c r="H15" s="109">
         <v>1</v>
       </c>
-      <c r="I15" s="111" t="s">
+      <c r="I15" s="110" t="s">
         <v>466</v>
       </c>
-      <c r="J15" s="112" t="s">
+      <c r="J15" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="197" t="s">
+      <c r="K15" s="196" t="s">
         <v>472</v>
       </c>
-      <c r="L15" s="197"/>
+      <c r="L15" s="196"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108">
+      <c r="A16" s="107">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="77" t="s">
         <v>190</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="110">
+      <c r="C16" s="76"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="109">
         <v>2</v>
       </c>
-      <c r="I16" s="111"/>
-      <c r="J16" s="112" t="s">
+      <c r="I16" s="110"/>
+      <c r="J16" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="194" t="s">
+      <c r="K16" s="193" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="108">
+      <c r="A17" s="107">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110">
+      <c r="C17" s="76"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="108"/>
+      <c r="H17" s="109">
         <v>2</v>
       </c>
-      <c r="I17" s="111"/>
-      <c r="J17" s="112" t="s">
+      <c r="I17" s="110"/>
+      <c r="J17" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="194" t="s">
+      <c r="K17" s="193" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108">
+      <c r="A18" s="107">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="110">
+      <c r="C18" s="76"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="109">
         <v>2</v>
       </c>
-      <c r="I18" s="111"/>
-      <c r="J18" s="112" t="s">
+      <c r="I18" s="110"/>
+      <c r="J18" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="194" t="s">
+      <c r="K18" s="193" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108">
+      <c r="A19" s="107">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="110">
+      <c r="C19" s="76"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="109">
         <v>2</v>
       </c>
-      <c r="I19" s="111"/>
-      <c r="J19" s="112" t="s">
+      <c r="I19" s="110"/>
+      <c r="J19" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="194" t="s">
+      <c r="K19" s="193" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108">
+      <c r="A20" s="107">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="110">
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="109">
         <v>2</v>
       </c>
-      <c r="I20" s="111"/>
-      <c r="J20" s="112" t="s">
+      <c r="I20" s="110"/>
+      <c r="J20" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="194" t="s">
+      <c r="K20" s="193" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="108">
+      <c r="A21" s="107">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="110">
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="109">
         <v>2</v>
       </c>
-      <c r="I21" s="111"/>
-      <c r="J21" s="112" t="s">
+      <c r="I21" s="110"/>
+      <c r="J21" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="194" t="s">
+      <c r="K21" s="193" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="108">
+      <c r="A22" s="107">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="198" t="s">
+      <c r="B22" s="197" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="199"/>
-      <c r="D22" s="199"/>
-      <c r="E22" s="199"/>
-      <c r="F22" s="199"/>
-      <c r="G22" s="199"/>
-      <c r="H22" s="200">
+      <c r="C22" s="198"/>
+      <c r="D22" s="198"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="198"/>
+      <c r="G22" s="198"/>
+      <c r="H22" s="199">
         <v>2</v>
       </c>
-      <c r="I22" s="201"/>
-      <c r="J22" s="202" t="s">
+      <c r="I22" s="200"/>
+      <c r="J22" s="201" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="194" t="s">
+      <c r="K22" s="193" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K23" s="194"/>
+      <c r="K23" s="193"/>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="279" t="s">
+      <c r="A24" s="285" t="s">
         <v>216</v>
       </c>
-      <c r="B24" s="280"/>
-      <c r="C24" s="280"/>
-      <c r="D24" s="280"/>
-      <c r="E24" s="280"/>
-      <c r="F24" s="280"/>
-      <c r="G24" s="280"/>
-      <c r="H24" s="280"/>
-      <c r="I24" s="280"/>
-      <c r="J24" s="280"/>
-      <c r="K24" s="280"/>
-      <c r="L24" s="280"/>
-      <c r="M24" s="280"/>
-      <c r="N24" s="280"/>
-      <c r="O24" s="280"/>
-      <c r="P24" s="280"/>
-      <c r="Q24" s="281"/>
+      <c r="B24" s="286"/>
+      <c r="C24" s="286"/>
+      <c r="D24" s="286"/>
+      <c r="E24" s="286"/>
+      <c r="F24" s="286"/>
+      <c r="G24" s="286"/>
+      <c r="H24" s="286"/>
+      <c r="I24" s="286"/>
+      <c r="J24" s="286"/>
+      <c r="K24" s="286"/>
+      <c r="L24" s="286"/>
+      <c r="M24" s="286"/>
+      <c r="N24" s="286"/>
+      <c r="O24" s="286"/>
+      <c r="P24" s="286"/>
+      <c r="Q24" s="287"/>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="137" t="s">
+      <c r="A25" s="136" t="s">
         <v>254</v>
       </c>
-      <c r="B25" s="185" t="s">
+      <c r="B25" s="184" t="s">
         <v>337</v>
       </c>
-      <c r="C25" s="187" t="s">
+      <c r="C25" s="186" t="s">
         <v>305</v>
       </c>
-      <c r="D25" s="187" t="s">
+      <c r="D25" s="186" t="s">
         <v>339</v>
       </c>
-      <c r="E25" s="187" t="s">
+      <c r="E25" s="186" t="s">
         <v>241</v>
       </c>
-      <c r="F25" s="187" t="s">
+      <c r="F25" s="186" t="s">
         <v>354</v>
       </c>
-      <c r="G25" s="187" t="s">
+      <c r="G25" s="186" t="s">
         <v>401</v>
       </c>
-      <c r="H25" s="187" t="s">
+      <c r="H25" s="186" t="s">
         <v>241</v>
       </c>
-      <c r="I25" s="187" t="s">
+      <c r="I25" s="186" t="s">
         <v>401</v>
       </c>
-      <c r="J25" s="187" t="s">
+      <c r="J25" s="186" t="s">
         <v>412</v>
       </c>
-      <c r="K25" s="187" t="s">
+      <c r="K25" s="186" t="s">
         <v>401</v>
       </c>
-      <c r="L25" s="123" t="s">
+      <c r="L25" s="122" t="s">
         <v>243</v>
       </c>
-      <c r="M25" s="123" t="s">
+      <c r="M25" s="122" t="s">
         <v>243</v>
       </c>
-      <c r="N25" s="123" t="s">
+      <c r="N25" s="122" t="s">
         <v>243</v>
       </c>
-      <c r="O25" s="187" t="s">
+      <c r="O25" s="186" t="s">
         <v>249</v>
       </c>
-      <c r="P25" s="187" t="s">
+      <c r="P25" s="186" t="s">
         <v>249</v>
       </c>
-      <c r="Q25" s="186" t="s">
+      <c r="Q25" s="185" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="145"/>
-      <c r="B26" s="96" t="s">
+      <c r="A26" s="144"/>
+      <c r="B26" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="96" t="s">
+      <c r="C26" s="95" t="s">
         <v>224</v>
       </c>
-      <c r="D26" s="96" t="s">
+      <c r="D26" s="95" t="s">
         <v>338</v>
       </c>
-      <c r="E26" s="96" t="s">
+      <c r="E26" s="95" t="s">
         <v>225</v>
       </c>
-      <c r="F26" s="96" t="s">
+      <c r="F26" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="G26" s="96" t="s">
+      <c r="G26" s="95" t="s">
         <v>340</v>
       </c>
-      <c r="H26" s="96" t="s">
+      <c r="H26" s="95" t="s">
         <v>402</v>
       </c>
-      <c r="I26" s="96" t="s">
+      <c r="I26" s="95" t="s">
         <v>405</v>
       </c>
-      <c r="J26" s="96" t="s">
+      <c r="J26" s="95" t="s">
         <v>407</v>
       </c>
-      <c r="K26" s="96" t="s">
+      <c r="K26" s="95" t="s">
         <v>408</v>
       </c>
-      <c r="L26" s="96" t="s">
+      <c r="L26" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="M26" s="96" t="s">
+      <c r="M26" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="N26" s="96" t="s">
+      <c r="N26" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="O26" s="96" t="s">
+      <c r="O26" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="P26" s="96" t="s">
+      <c r="P26" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="Q26" s="118" t="s">
+      <c r="Q26" s="117" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="203"/>
-      <c r="B27" s="204" t="s">
+      <c r="A27" s="202"/>
+      <c r="B27" s="203" t="s">
         <v>404</v>
       </c>
-      <c r="C27" s="204"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153" t="s">
+      <c r="C27" s="203"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152" t="s">
         <v>403</v>
       </c>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153" t="s">
+      <c r="H27" s="152"/>
+      <c r="I27" s="152" t="s">
         <v>406</v>
       </c>
-      <c r="J27" s="153"/>
-      <c r="K27" s="153" t="s">
+      <c r="J27" s="152"/>
+      <c r="K27" s="152" t="s">
         <v>452</v>
       </c>
-      <c r="L27" s="153">
+      <c r="L27" s="152">
         <v>100</v>
       </c>
-      <c r="M27" s="153">
+      <c r="M27" s="152">
         <v>0</v>
       </c>
-      <c r="N27" s="153"/>
-      <c r="O27" s="153">
+      <c r="N27" s="152"/>
+      <c r="O27" s="152">
         <v>4</v>
       </c>
-      <c r="P27" s="153">
+      <c r="P27" s="152">
         <v>10</v>
       </c>
-      <c r="Q27" s="154">
+      <c r="Q27" s="153">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="276" t="s">
+      <c r="A29" s="282" t="s">
         <v>253</v>
       </c>
-      <c r="B29" s="277"/>
-      <c r="C29" s="277"/>
-      <c r="D29" s="277"/>
-      <c r="E29" s="277"/>
-      <c r="F29" s="277"/>
-      <c r="G29" s="277"/>
-      <c r="H29" s="278"/>
+      <c r="B29" s="283"/>
+      <c r="C29" s="283"/>
+      <c r="D29" s="283"/>
+      <c r="E29" s="283"/>
+      <c r="F29" s="283"/>
+      <c r="G29" s="283"/>
+      <c r="H29" s="284"/>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="267" t="s">
+      <c r="A30" s="273" t="s">
         <v>334</v>
       </c>
-      <c r="B30" s="268"/>
-      <c r="C30" s="268"/>
-      <c r="D30" s="268"/>
-      <c r="E30" s="268"/>
-      <c r="F30" s="268"/>
-      <c r="G30" s="268"/>
-      <c r="H30" s="269"/>
+      <c r="B30" s="274"/>
+      <c r="C30" s="274"/>
+      <c r="D30" s="274"/>
+      <c r="E30" s="274"/>
+      <c r="F30" s="274"/>
+      <c r="G30" s="274"/>
+      <c r="H30" s="275"/>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="270"/>
-      <c r="B31" s="271"/>
-      <c r="C31" s="271"/>
-      <c r="D31" s="271"/>
-      <c r="E31" s="271"/>
-      <c r="F31" s="271"/>
-      <c r="G31" s="271"/>
-      <c r="H31" s="272"/>
+      <c r="A31" s="276"/>
+      <c r="B31" s="277"/>
+      <c r="C31" s="277"/>
+      <c r="D31" s="277"/>
+      <c r="E31" s="277"/>
+      <c r="F31" s="277"/>
+      <c r="G31" s="277"/>
+      <c r="H31" s="278"/>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="270"/>
-      <c r="B32" s="271"/>
-      <c r="C32" s="271"/>
-      <c r="D32" s="271"/>
-      <c r="E32" s="271"/>
-      <c r="F32" s="271"/>
-      <c r="G32" s="271"/>
-      <c r="H32" s="272"/>
+      <c r="A32" s="276"/>
+      <c r="B32" s="277"/>
+      <c r="C32" s="277"/>
+      <c r="D32" s="277"/>
+      <c r="E32" s="277"/>
+      <c r="F32" s="277"/>
+      <c r="G32" s="277"/>
+      <c r="H32" s="278"/>
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="273"/>
-      <c r="B33" s="274"/>
-      <c r="C33" s="274"/>
-      <c r="D33" s="274"/>
-      <c r="E33" s="274"/>
-      <c r="F33" s="274"/>
-      <c r="G33" s="274"/>
-      <c r="H33" s="275"/>
+      <c r="A33" s="279"/>
+      <c r="B33" s="280"/>
+      <c r="C33" s="280"/>
+      <c r="D33" s="280"/>
+      <c r="E33" s="280"/>
+      <c r="F33" s="280"/>
+      <c r="G33" s="280"/>
+      <c r="H33" s="281"/>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="255" t="s">
+      <c r="A35" s="261" t="s">
         <v>280</v>
       </c>
-      <c r="B35" s="256"/>
-      <c r="C35" s="256"/>
-      <c r="D35" s="256"/>
-      <c r="E35" s="256"/>
-      <c r="F35" s="256"/>
-      <c r="G35" s="257"/>
+      <c r="B35" s="262"/>
+      <c r="C35" s="262"/>
+      <c r="D35" s="262"/>
+      <c r="E35" s="262"/>
+      <c r="F35" s="262"/>
+      <c r="G35" s="263"/>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="D36" s="254" t="s">
+      <c r="D36" s="260" t="s">
         <v>283</v>
       </c>
-      <c r="E36" s="254"/>
-      <c r="F36" s="254"/>
-      <c r="G36" s="254"/>
+      <c r="E36" s="260"/>
+      <c r="F36" s="260"/>
+      <c r="G36" s="260"/>
     </row>
     <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -6844,7 +6875,7 @@
       <c r="C37" t="s">
         <v>410</v>
       </c>
-      <c r="D37" s="170" t="s">
+      <c r="D37" s="169" t="s">
         <v>341</v>
       </c>
       <c r="E37"/>
@@ -6864,7 +6895,7 @@
       <c r="C38" t="s">
         <v>410</v>
       </c>
-      <c r="D38" s="182" t="s">
+      <c r="D38" s="181" t="s">
         <v>307</v>
       </c>
       <c r="E38"/>
@@ -6884,7 +6915,7 @@
       <c r="C39" t="s">
         <v>410</v>
       </c>
-      <c r="D39" s="170" t="s">
+      <c r="D39" s="169" t="s">
         <v>308</v>
       </c>
       <c r="E39"/>
@@ -6904,7 +6935,7 @@
       <c r="C40" t="s">
         <v>410</v>
       </c>
-      <c r="D40" s="170" t="s">
+      <c r="D40" s="169" t="s">
         <v>328</v>
       </c>
       <c r="E40"/>
@@ -6924,7 +6955,7 @@
       <c r="C41" t="s">
         <v>410</v>
       </c>
-      <c r="D41" s="173" t="s">
+      <c r="D41" s="172" t="s">
         <v>309</v>
       </c>
       <c r="E41"/>
@@ -6944,7 +6975,7 @@
       <c r="C42" t="s">
         <v>410</v>
       </c>
-      <c r="D42" s="182" t="s">
+      <c r="D42" s="181" t="s">
         <v>376</v>
       </c>
       <c r="E42"/>
@@ -6964,7 +6995,7 @@
       <c r="C43" t="s">
         <v>410</v>
       </c>
-      <c r="D43" s="182" t="s">
+      <c r="D43" s="181" t="s">
         <v>357</v>
       </c>
       <c r="E43"/>
@@ -6984,7 +7015,7 @@
       <c r="C44" t="s">
         <v>410</v>
       </c>
-      <c r="D44" s="182" t="s">
+      <c r="D44" s="181" t="s">
         <v>377</v>
       </c>
       <c r="E44"/>
@@ -7004,7 +7035,7 @@
       <c r="C45" t="s">
         <v>410</v>
       </c>
-      <c r="D45" s="182" t="s">
+      <c r="D45" s="181" t="s">
         <v>379</v>
       </c>
       <c r="E45"/>
@@ -7024,7 +7055,7 @@
       <c r="C46" t="s">
         <v>410</v>
       </c>
-      <c r="D46" s="182" t="s">
+      <c r="D46" s="181" t="s">
         <v>378</v>
       </c>
       <c r="E46"/>
@@ -7044,7 +7075,7 @@
       <c r="C47" t="s">
         <v>410</v>
       </c>
-      <c r="D47" s="182" t="s">
+      <c r="D47" s="181" t="s">
         <v>380</v>
       </c>
       <c r="E47"/>
@@ -7064,7 +7095,7 @@
       <c r="C48" t="s">
         <v>410</v>
       </c>
-      <c r="D48" s="182" t="s">
+      <c r="D48" s="181" t="s">
         <v>383</v>
       </c>
     </row>
@@ -7078,7 +7109,7 @@
       <c r="C49" t="s">
         <v>410</v>
       </c>
-      <c r="D49" s="170" t="s">
+      <c r="D49" s="169" t="s">
         <v>411</v>
       </c>
     </row>
@@ -7092,7 +7123,7 @@
       <c r="C50" t="s">
         <v>410</v>
       </c>
-      <c r="D50" s="182" t="s">
+      <c r="D50" s="181" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7106,7 +7137,7 @@
       <c r="C51" t="s">
         <v>410</v>
       </c>
-      <c r="D51" s="182" t="s">
+      <c r="D51" s="181" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7120,7 +7151,7 @@
       <c r="C52" t="s">
         <v>410</v>
       </c>
-      <c r="D52" s="182" t="s">
+      <c r="D52" s="181" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7134,7 +7165,7 @@
       <c r="C53" t="s">
         <v>410</v>
       </c>
-      <c r="D53" s="182" t="s">
+      <c r="D53" s="181" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7148,7 +7179,7 @@
       <c r="C54" t="s">
         <v>410</v>
       </c>
-      <c r="D54" s="182" t="s">
+      <c r="D54" s="181" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7162,7 +7193,7 @@
       <c r="C55" t="s">
         <v>410</v>
       </c>
-      <c r="D55" s="170" t="s">
+      <c r="D55" s="169" t="s">
         <v>387</v>
       </c>
     </row>
@@ -7176,7 +7207,7 @@
       <c r="C56" t="s">
         <v>410</v>
       </c>
-      <c r="D56" s="170" t="s">
+      <c r="D56" s="169" t="s">
         <v>388</v>
       </c>
     </row>
@@ -7190,7 +7221,7 @@
       <c r="C57" t="s">
         <v>410</v>
       </c>
-      <c r="D57" s="170" t="s">
+      <c r="D57" s="169" t="s">
         <v>389</v>
       </c>
     </row>
@@ -7204,7 +7235,7 @@
       <c r="C58" t="s">
         <v>410</v>
       </c>
-      <c r="D58" s="170" t="s">
+      <c r="D58" s="169" t="s">
         <v>390</v>
       </c>
     </row>
@@ -7218,7 +7249,7 @@
       <c r="C59" t="s">
         <v>410</v>
       </c>
-      <c r="D59" s="170" t="s">
+      <c r="D59" s="169" t="s">
         <v>391</v>
       </c>
     </row>
@@ -7232,7 +7263,7 @@
       <c r="C60" t="s">
         <v>410</v>
       </c>
-      <c r="D60" s="170" t="s">
+      <c r="D60" s="169" t="s">
         <v>392</v>
       </c>
     </row>
@@ -7246,7 +7277,7 @@
       <c r="C61" t="s">
         <v>410</v>
       </c>
-      <c r="D61" s="170" t="s">
+      <c r="D61" s="169" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7260,7 +7291,7 @@
       <c r="C62" t="s">
         <v>410</v>
       </c>
-      <c r="D62" s="170" t="s">
+      <c r="D62" s="169" t="s">
         <v>394</v>
       </c>
     </row>
@@ -7274,7 +7305,7 @@
       <c r="C63" t="s">
         <v>410</v>
       </c>
-      <c r="D63" s="170" t="s">
+      <c r="D63" s="169" t="s">
         <v>395</v>
       </c>
     </row>
@@ -7288,7 +7319,7 @@
       <c r="C64" t="s">
         <v>410</v>
       </c>
-      <c r="D64" s="170" t="s">
+      <c r="D64" s="169" t="s">
         <v>396</v>
       </c>
     </row>
@@ -7302,7 +7333,7 @@
       <c r="C65" t="s">
         <v>410</v>
       </c>
-      <c r="D65" s="170" t="s">
+      <c r="D65" s="169" t="s">
         <v>397</v>
       </c>
     </row>
@@ -7316,7 +7347,7 @@
       <c r="C66" t="s">
         <v>410</v>
       </c>
-      <c r="D66" s="170" t="s">
+      <c r="D66" s="169" t="s">
         <v>398</v>
       </c>
     </row>
@@ -7330,7 +7361,7 @@
       <c r="C67" t="s">
         <v>410</v>
       </c>
-      <c r="D67" s="170" t="s">
+      <c r="D67" s="169" t="s">
         <v>399</v>
       </c>
     </row>
@@ -7344,7 +7375,7 @@
       <c r="C68" t="s">
         <v>410</v>
       </c>
-      <c r="D68" s="170" t="s">
+      <c r="D68" s="169" t="s">
         <v>400</v>
       </c>
     </row>
@@ -7464,92 +7495,92 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="291" t="s">
+    <row r="1" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="297" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
-      <c r="H1" s="292"/>
-      <c r="I1" s="292"/>
-      <c r="J1" s="293"/>
-    </row>
-    <row r="2" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="279" t="s">
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="298"/>
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
+      <c r="J1" s="299"/>
+    </row>
+    <row r="2" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="285" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="281"/>
-    </row>
-    <row r="3" spans="1:10" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="286"/>
+      <c r="G2" s="286"/>
+      <c r="H2" s="286"/>
+      <c r="I2" s="286"/>
+      <c r="J2" s="287"/>
+    </row>
+    <row r="3" spans="1:10" s="112" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="130" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="130" t="s">
         <v>294</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="127" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="127" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="125" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="132" t="s">
+      <c r="G3" s="131" t="s">
         <v>295</v>
       </c>
-      <c r="H3" s="166" t="s">
+      <c r="H3" s="165" t="s">
         <v>276</v>
       </c>
-      <c r="I3" s="128"/>
-      <c r="J3" s="130"/>
-    </row>
-    <row r="4" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="I3" s="127"/>
+      <c r="J3" s="129"/>
+    </row>
+    <row r="4" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="H4" s="167" t="s">
+      <c r="H4" s="166" t="s">
         <v>277</v>
       </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="102"/>
-    </row>
-    <row r="5" spans="1:10" s="113" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="I4" s="100"/>
+      <c r="J4" s="101"/>
+    </row>
+    <row r="5" spans="1:10" s="112" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="72" t="s">
         <v>173</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7561,145 +7592,145 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="192" t="s">
+      <c r="G5" s="191" t="s">
         <v>278</v>
       </c>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
-    </row>
-    <row r="6" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="279" t="s">
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+    </row>
+    <row r="6" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="280"/>
-      <c r="C6" s="280"/>
-      <c r="D6" s="280"/>
-      <c r="E6" s="280"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="280"/>
-      <c r="H6" s="280"/>
-      <c r="I6" s="280"/>
-      <c r="J6" s="281"/>
-    </row>
-    <row r="7" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="124" t="s">
+      <c r="B6" s="286"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="286"/>
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="286"/>
+      <c r="H6" s="286"/>
+      <c r="I6" s="286"/>
+      <c r="J6" s="287"/>
+    </row>
+    <row r="7" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="131" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="130"/>
-    </row>
-    <row r="8" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="129"/>
+    </row>
+    <row r="8" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
-    </row>
-    <row r="9" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104"/>
+    </row>
+    <row r="9" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="72"/>
-    </row>
-    <row r="10" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="279" t="s">
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+    </row>
+    <row r="10" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="285" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="280"/>
-      <c r="C10" s="280"/>
-      <c r="D10" s="280"/>
-      <c r="E10" s="280"/>
-      <c r="F10" s="280"/>
-      <c r="G10" s="280"/>
-      <c r="H10" s="280"/>
-      <c r="I10" s="280"/>
-      <c r="J10" s="281"/>
-    </row>
-    <row r="11" spans="1:10" s="113" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="127"/>
-      <c r="B11" s="128" t="s">
+      <c r="B10" s="286"/>
+      <c r="C10" s="286"/>
+      <c r="D10" s="286"/>
+      <c r="E10" s="286"/>
+      <c r="F10" s="286"/>
+      <c r="G10" s="286"/>
+      <c r="H10" s="286"/>
+      <c r="I10" s="286"/>
+      <c r="J10" s="287"/>
+    </row>
+    <row r="11" spans="1:10" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="126"/>
+      <c r="B11" s="127" t="s">
         <v>250</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="127" t="s">
         <v>231</v>
       </c>
-      <c r="D11" s="169" t="s">
+      <c r="D11" s="168" t="s">
         <v>304</v>
       </c>
-      <c r="E11" s="128" t="s">
+      <c r="E11" s="127" t="s">
         <v>233</v>
       </c>
-      <c r="F11" s="133" t="s">
+      <c r="F11" s="132" t="s">
         <v>298</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="131" t="s">
         <v>297</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="131" t="s">
         <v>299</v>
       </c>
-      <c r="I11" s="128"/>
-      <c r="J11" s="130"/>
-    </row>
-    <row r="12" spans="1:10" s="113" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+      <c r="I11" s="127"/>
+      <c r="J11" s="129"/>
+    </row>
+    <row r="12" spans="1:10" s="112" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="95" t="s">
         <v>232</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="F12" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="G12" s="134" t="s">
+      <c r="G12" s="133" t="s">
         <v>236</v>
       </c>
-      <c r="H12" s="99" t="s">
+      <c r="H12" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
-    </row>
-    <row r="13" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="I12" s="118"/>
+      <c r="J12" s="119"/>
+    </row>
+    <row r="13" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="105" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -7726,8 +7757,8 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="106">
+    <row r="14" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="105">
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -7754,8 +7785,8 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="106">
+    <row r="15" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="105">
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -7782,8 +7813,8 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="106">
+    <row r="16" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="105">
         <v>4</v>
       </c>
       <c r="B16" s="4"/>
@@ -7796,8 +7827,8 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="106">
+    <row r="17" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="105">
         <v>5</v>
       </c>
       <c r="B17" s="4"/>
@@ -7810,8 +7841,8 @@
       <c r="I17" s="4"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106">
+    <row r="18" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="105">
         <v>6</v>
       </c>
       <c r="B18" s="4"/>
@@ -7824,8 +7855,8 @@
       <c r="I18" s="4"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106">
+    <row r="19" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="105">
         <v>7</v>
       </c>
       <c r="B19" s="4"/>
@@ -7838,8 +7869,8 @@
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" s="113" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="107">
+    <row r="20" spans="1:10" s="112" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="106">
         <v>8</v>
       </c>
       <c r="B20" s="8"/>
@@ -7852,62 +7883,62 @@
       <c r="I20" s="8"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="279" t="s">
+    <row r="21" spans="1:10" s="112" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="285" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="280"/>
-      <c r="C21" s="280"/>
-      <c r="D21" s="280"/>
-      <c r="E21" s="280"/>
-      <c r="F21" s="280"/>
-      <c r="G21" s="280"/>
-      <c r="H21" s="280"/>
-      <c r="I21" s="280"/>
-      <c r="J21" s="281"/>
-    </row>
-    <row r="22" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="131" t="s">
+      <c r="B21" s="286"/>
+      <c r="C21" s="286"/>
+      <c r="D21" s="286"/>
+      <c r="E21" s="286"/>
+      <c r="F21" s="286"/>
+      <c r="G21" s="286"/>
+      <c r="H21" s="286"/>
+      <c r="I21" s="286"/>
+      <c r="J21" s="287"/>
+    </row>
+    <row r="22" spans="1:10" s="112" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="130" t="s">
         <v>300</v>
       </c>
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="131" t="s">
         <v>301</v>
       </c>
-      <c r="C22" s="132" t="s">
+      <c r="C22" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="D22" s="132" t="s">
+      <c r="D22" s="131" t="s">
         <v>302</v>
       </c>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="130"/>
-    </row>
-    <row r="23" spans="1:10" s="113" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="95" t="s">
+      <c r="E22" s="127"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="129"/>
+    </row>
+    <row r="23" spans="1:10" s="112" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="C23" s="96" t="s">
+      <c r="C23" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="D23" s="99" t="s">
+      <c r="D23" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="E23" s="114"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="105"/>
-    </row>
-    <row r="24" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30">
+      <c r="E23" s="113"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="104"/>
+    </row>
+    <row r="24" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29">
         <v>3</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -7916,7 +7947,7 @@
       <c r="C24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="153" t="s">
+      <c r="D24" s="152" t="s">
         <v>193</v>
       </c>
       <c r="E24" s="8"/>
@@ -7926,70 +7957,70 @@
       <c r="I24" s="8"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="279" t="s">
+    <row r="25" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="285" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="280"/>
-      <c r="C25" s="280"/>
-      <c r="D25" s="280"/>
-      <c r="E25" s="280"/>
-      <c r="F25" s="280"/>
-      <c r="G25" s="280"/>
-      <c r="H25" s="280"/>
-      <c r="I25" s="280"/>
-      <c r="J25" s="281"/>
-    </row>
-    <row r="26" spans="1:10" s="113" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="131" t="s">
+      <c r="B25" s="286"/>
+      <c r="C25" s="286"/>
+      <c r="D25" s="286"/>
+      <c r="E25" s="286"/>
+      <c r="F25" s="286"/>
+      <c r="G25" s="286"/>
+      <c r="H25" s="286"/>
+      <c r="I25" s="286"/>
+      <c r="J25" s="287"/>
+    </row>
+    <row r="26" spans="1:10" s="112" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="130" t="s">
         <v>254</v>
       </c>
-      <c r="B26" s="187" t="s">
+      <c r="B26" s="186" t="s">
         <v>339</v>
       </c>
-      <c r="C26" s="132" t="s">
+      <c r="C26" s="131" t="s">
         <v>303</v>
       </c>
-      <c r="D26" s="132" t="s">
+      <c r="D26" s="131" t="s">
         <v>240</v>
       </c>
-      <c r="E26" s="183" t="s">
+      <c r="E26" s="182" t="s">
         <v>339</v>
       </c>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="151"/>
-    </row>
-    <row r="27" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="148"/>
-      <c r="B27" s="147" t="s">
+      <c r="F26" s="127"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="150"/>
+    </row>
+    <row r="27" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="147"/>
+      <c r="B27" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="147" t="s">
+      <c r="C27" s="146" t="s">
         <v>238</v>
       </c>
-      <c r="D27" s="96" t="s">
+      <c r="D27" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="96" t="s">
+      <c r="E27" s="95" t="s">
         <v>340</v>
       </c>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="152"/>
-    </row>
-    <row r="28" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="146"/>
-      <c r="B28" s="191" t="s">
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="151"/>
+    </row>
+    <row r="28" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="145"/>
+      <c r="B28" s="190" t="s">
         <v>424</v>
       </c>
-      <c r="C28" s="180"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="153" t="s">
+      <c r="C28" s="179"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="152" t="s">
         <v>425</v>
       </c>
       <c r="F28" s="8"/>
@@ -7998,89 +8029,89 @@
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="282" t="s">
+    <row r="29" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:10" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="288" t="s">
         <v>253</v>
       </c>
-      <c r="B30" s="283"/>
-      <c r="C30" s="283"/>
-      <c r="D30" s="283"/>
-      <c r="E30" s="283"/>
-      <c r="F30" s="283"/>
-      <c r="G30" s="283"/>
-      <c r="H30" s="284"/>
-    </row>
-    <row r="31" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="285" t="s">
+      <c r="B30" s="289"/>
+      <c r="C30" s="289"/>
+      <c r="D30" s="289"/>
+      <c r="E30" s="289"/>
+      <c r="F30" s="289"/>
+      <c r="G30" s="289"/>
+      <c r="H30" s="290"/>
+    </row>
+    <row r="31" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="291" t="s">
         <v>333</v>
       </c>
-      <c r="B31" s="286"/>
-      <c r="C31" s="286"/>
-      <c r="D31" s="286"/>
-      <c r="E31" s="286"/>
-      <c r="F31" s="286"/>
-      <c r="G31" s="286"/>
-      <c r="H31" s="287"/>
-    </row>
-    <row r="32" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="285"/>
-      <c r="B32" s="286"/>
-      <c r="C32" s="286"/>
-      <c r="D32" s="286"/>
-      <c r="E32" s="286"/>
-      <c r="F32" s="286"/>
-      <c r="G32" s="286"/>
-      <c r="H32" s="287"/>
-    </row>
-    <row r="33" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="285"/>
-      <c r="B33" s="286"/>
-      <c r="C33" s="286"/>
-      <c r="D33" s="286"/>
-      <c r="E33" s="286"/>
-      <c r="F33" s="286"/>
-      <c r="G33" s="286"/>
-      <c r="H33" s="287"/>
-    </row>
-    <row r="34" spans="1:8" s="113" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="288"/>
-      <c r="B34" s="289"/>
-      <c r="C34" s="289"/>
-      <c r="D34" s="289"/>
-      <c r="E34" s="289"/>
-      <c r="F34" s="289"/>
-      <c r="G34" s="289"/>
-      <c r="H34" s="290"/>
-    </row>
-    <row r="35" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:8" s="113" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="294" t="s">
+      <c r="B31" s="292"/>
+      <c r="C31" s="292"/>
+      <c r="D31" s="292"/>
+      <c r="E31" s="292"/>
+      <c r="F31" s="292"/>
+      <c r="G31" s="292"/>
+      <c r="H31" s="293"/>
+    </row>
+    <row r="32" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="291"/>
+      <c r="B32" s="292"/>
+      <c r="C32" s="292"/>
+      <c r="D32" s="292"/>
+      <c r="E32" s="292"/>
+      <c r="F32" s="292"/>
+      <c r="G32" s="292"/>
+      <c r="H32" s="293"/>
+    </row>
+    <row r="33" spans="1:8" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="291"/>
+      <c r="B33" s="292"/>
+      <c r="C33" s="292"/>
+      <c r="D33" s="292"/>
+      <c r="E33" s="292"/>
+      <c r="F33" s="292"/>
+      <c r="G33" s="292"/>
+      <c r="H33" s="293"/>
+    </row>
+    <row r="34" spans="1:8" s="112" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="294"/>
+      <c r="B34" s="295"/>
+      <c r="C34" s="295"/>
+      <c r="D34" s="295"/>
+      <c r="E34" s="295"/>
+      <c r="F34" s="295"/>
+      <c r="G34" s="295"/>
+      <c r="H34" s="296"/>
+    </row>
+    <row r="35" spans="1:8" s="112" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:8" s="112" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="300" t="s">
         <v>280</v>
       </c>
-      <c r="B36" s="294"/>
-      <c r="C36" s="294"/>
-      <c r="D36" s="294"/>
-      <c r="E36" s="294"/>
-      <c r="F36" s="294"/>
-      <c r="G36" s="294"/>
-    </row>
-    <row r="37" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="78" t="s">
+      <c r="B36" s="300"/>
+      <c r="C36" s="300"/>
+      <c r="D36" s="300"/>
+      <c r="E36" s="300"/>
+      <c r="F36" s="300"/>
+      <c r="G36" s="300"/>
+    </row>
+    <row r="37" spans="1:8" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="D37" s="254" t="s">
+      <c r="D37" s="260" t="s">
         <v>283</v>
       </c>
-      <c r="E37" s="254"/>
-      <c r="F37" s="254"/>
-      <c r="G37" s="254"/>
+      <c r="E37" s="260"/>
+      <c r="F37" s="260"/>
+      <c r="G37" s="260"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -8092,7 +8123,7 @@
       <c r="C38" t="s">
         <v>427</v>
       </c>
-      <c r="D38" s="170" t="s">
+      <c r="D38" s="169" t="s">
         <v>341</v>
       </c>
     </row>
@@ -8106,7 +8137,7 @@
       <c r="C39" t="s">
         <v>427</v>
       </c>
-      <c r="D39" s="182" t="s">
+      <c r="D39" s="181" t="s">
         <v>307</v>
       </c>
     </row>
@@ -8120,7 +8151,7 @@
       <c r="C40" t="s">
         <v>427</v>
       </c>
-      <c r="D40" s="170" t="s">
+      <c r="D40" s="169" t="s">
         <v>308</v>
       </c>
     </row>
@@ -8134,7 +8165,7 @@
       <c r="C41" t="s">
         <v>427</v>
       </c>
-      <c r="D41" s="170" t="s">
+      <c r="D41" s="169" t="s">
         <v>328</v>
       </c>
     </row>
@@ -8148,7 +8179,7 @@
       <c r="C42" t="s">
         <v>427</v>
       </c>
-      <c r="D42" s="173" t="s">
+      <c r="D42" s="172" t="s">
         <v>309</v>
       </c>
     </row>
@@ -8162,7 +8193,7 @@
       <c r="C43" t="s">
         <v>427</v>
       </c>
-      <c r="D43" s="182" t="s">
+      <c r="D43" s="181" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8176,7 +8207,7 @@
       <c r="C44" t="s">
         <v>427</v>
       </c>
-      <c r="D44" s="182" t="s">
+      <c r="D44" s="181" t="s">
         <v>346</v>
       </c>
     </row>
@@ -8190,7 +8221,7 @@
       <c r="C45" t="s">
         <v>427</v>
       </c>
-      <c r="D45" s="182" t="s">
+      <c r="D45" s="181" t="s">
         <v>426</v>
       </c>
     </row>
@@ -8204,7 +8235,7 @@
       <c r="C46" t="s">
         <v>427</v>
       </c>
-      <c r="D46" s="182" t="s">
+      <c r="D46" s="181" t="s">
         <v>347</v>
       </c>
     </row>
@@ -8218,7 +8249,7 @@
       <c r="C47" t="s">
         <v>427</v>
       </c>
-      <c r="D47" s="182" t="s">
+      <c r="D47" s="181" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8232,7 +8263,7 @@
       <c r="C48" t="s">
         <v>427</v>
       </c>
-      <c r="D48" s="173" t="s">
+      <c r="D48" s="172" t="s">
         <v>429</v>
       </c>
     </row>
@@ -8317,368 +8348,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="317" t="s">
+      <c r="A1" s="318" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="317"/>
-      <c r="C1" s="317"/>
-      <c r="D1" s="317"/>
-      <c r="E1" s="317"/>
-      <c r="F1" s="317"/>
-      <c r="G1" s="317"/>
-      <c r="H1" s="317"/>
-      <c r="I1" s="317"/>
-      <c r="J1" s="317"/>
-      <c r="K1" s="317"/>
-      <c r="L1" s="317"/>
-      <c r="M1" s="317"/>
-      <c r="N1" s="317"/>
-      <c r="O1" s="317"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="B1" s="318"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="318"/>
+      <c r="O1" s="318"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="318" t="s">
+      <c r="A2" s="306" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="319"/>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="320"/>
-      <c r="G2" s="321" t="s">
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="319" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="321"/>
-      <c r="I2" s="321"/>
-      <c r="J2" s="321"/>
-      <c r="K2" s="321"/>
-      <c r="L2" s="321"/>
-      <c r="M2" s="322" t="s">
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="319"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="319"/>
+      <c r="M2" s="302" t="s">
         <v>268</v>
       </c>
-      <c r="N2" s="322"/>
-      <c r="O2" s="322"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
+      <c r="N2" s="302"/>
+      <c r="O2" s="302"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="323" t="s">
+      <c r="A3" s="309" t="s">
         <v>476</v>
       </c>
-      <c r="B3" s="324"/>
-      <c r="C3" s="324"/>
-      <c r="D3" s="324"/>
-      <c r="E3" s="324"/>
-      <c r="F3" s="325"/>
-      <c r="G3" s="326" t="s">
+      <c r="B3" s="310"/>
+      <c r="C3" s="310"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="310"/>
+      <c r="F3" s="311"/>
+      <c r="G3" s="321" t="s">
         <v>274</v>
       </c>
-      <c r="H3" s="326"/>
-      <c r="I3" s="326"/>
-      <c r="J3" s="326"/>
-      <c r="K3" s="326"/>
-      <c r="L3" s="326"/>
-      <c r="M3" s="327" t="s">
+      <c r="H3" s="321"/>
+      <c r="I3" s="321"/>
+      <c r="J3" s="321"/>
+      <c r="K3" s="321"/>
+      <c r="L3" s="321"/>
+      <c r="M3" s="209" t="s">
         <v>272</v>
       </c>
-      <c r="N3" s="327" t="s">
+      <c r="N3" s="209" t="s">
         <v>339</v>
       </c>
-      <c r="O3" s="327" t="s">
+      <c r="O3" s="209" t="s">
         <v>339</v>
       </c>
-      <c r="P3" s="190"/>
+      <c r="P3" s="189"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="328" t="s">
+      <c r="A4" s="312" t="s">
         <v>477</v>
       </c>
-      <c r="B4" s="329"/>
-      <c r="C4" s="329"/>
-      <c r="D4" s="329"/>
-      <c r="E4" s="329"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="331" t="s">
+      <c r="B4" s="313"/>
+      <c r="C4" s="313"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="314"/>
+      <c r="G4" s="320" t="s">
         <v>220</v>
       </c>
-      <c r="H4" s="331"/>
-      <c r="I4" s="331"/>
-      <c r="J4" s="331" t="s">
+      <c r="H4" s="320"/>
+      <c r="I4" s="320"/>
+      <c r="J4" s="320" t="s">
         <v>275</v>
       </c>
-      <c r="K4" s="331"/>
-      <c r="L4" s="331"/>
-      <c r="M4" s="332" t="s">
+      <c r="K4" s="320"/>
+      <c r="L4" s="320"/>
+      <c r="M4" s="210" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="332" t="s">
+      <c r="N4" s="210" t="s">
         <v>340</v>
       </c>
-      <c r="O4" s="332" t="s">
+      <c r="O4" s="210" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="333" t="s">
+      <c r="A5" s="315" t="s">
         <v>478</v>
       </c>
-      <c r="B5" s="334"/>
-      <c r="C5" s="334"/>
-      <c r="D5" s="334"/>
-      <c r="E5" s="334"/>
-      <c r="F5" s="335"/>
-      <c r="G5" s="295" t="s">
+      <c r="B5" s="316"/>
+      <c r="C5" s="316"/>
+      <c r="D5" s="316"/>
+      <c r="E5" s="316"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="322" t="s">
         <v>258</v>
       </c>
-      <c r="H5" s="296"/>
-      <c r="I5" s="297"/>
-      <c r="J5" s="295" t="s">
+      <c r="H5" s="323"/>
+      <c r="I5" s="324"/>
+      <c r="J5" s="322" t="s">
         <v>273</v>
       </c>
-      <c r="K5" s="296"/>
-      <c r="L5" s="297"/>
-      <c r="M5" s="209"/>
-      <c r="N5" s="209" t="s">
+      <c r="K5" s="323"/>
+      <c r="L5" s="324"/>
+      <c r="M5" s="208"/>
+      <c r="N5" s="208" t="s">
         <v>147</v>
       </c>
-      <c r="O5" s="208" t="s">
+      <c r="O5" s="207" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="333" t="s">
+      <c r="A6" s="315" t="s">
         <v>479</v>
       </c>
-      <c r="B6" s="334"/>
-      <c r="C6" s="334"/>
-      <c r="D6" s="334"/>
-      <c r="E6" s="334"/>
-      <c r="F6" s="335"/>
-      <c r="G6" s="336"/>
-      <c r="H6" s="336"/>
-      <c r="I6" s="336"/>
-      <c r="J6" s="336"/>
-      <c r="K6" s="336"/>
-      <c r="L6" s="336"/>
-      <c r="M6" s="337"/>
-      <c r="N6" s="337"/>
-      <c r="O6" s="338"/>
+      <c r="B6" s="316"/>
+      <c r="C6" s="316"/>
+      <c r="D6" s="316"/>
+      <c r="E6" s="316"/>
+      <c r="F6" s="317"/>
+      <c r="G6" s="301"/>
+      <c r="H6" s="301"/>
+      <c r="I6" s="301"/>
+      <c r="J6" s="301"/>
+      <c r="K6" s="301"/>
+      <c r="L6" s="301"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="211"/>
+      <c r="O6" s="212"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="333"/>
-      <c r="B7" s="334"/>
-      <c r="C7" s="334"/>
-      <c r="D7" s="334"/>
-      <c r="E7" s="334"/>
-      <c r="F7" s="335"/>
-      <c r="G7" s="336"/>
-      <c r="H7" s="336"/>
-      <c r="I7" s="336"/>
-      <c r="J7" s="336"/>
-      <c r="K7" s="336"/>
-      <c r="L7" s="336"/>
-      <c r="M7" s="337"/>
-      <c r="N7" s="337"/>
-      <c r="O7" s="338"/>
+      <c r="A7" s="315"/>
+      <c r="B7" s="316"/>
+      <c r="C7" s="316"/>
+      <c r="D7" s="316"/>
+      <c r="E7" s="316"/>
+      <c r="F7" s="317"/>
+      <c r="G7" s="301"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="301"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="301"/>
+      <c r="L7" s="301"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="212"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="333"/>
-      <c r="B8" s="334"/>
-      <c r="C8" s="334"/>
-      <c r="D8" s="334"/>
-      <c r="E8" s="334"/>
-      <c r="F8" s="335"/>
-      <c r="G8" s="336"/>
-      <c r="H8" s="336"/>
-      <c r="I8" s="336"/>
-      <c r="J8" s="336"/>
-      <c r="K8" s="336"/>
-      <c r="L8" s="336"/>
-      <c r="M8" s="337"/>
-      <c r="N8" s="337"/>
-      <c r="O8" s="338"/>
+      <c r="A8" s="315"/>
+      <c r="B8" s="316"/>
+      <c r="C8" s="316"/>
+      <c r="D8" s="316"/>
+      <c r="E8" s="316"/>
+      <c r="F8" s="317"/>
+      <c r="G8" s="301"/>
+      <c r="H8" s="301"/>
+      <c r="I8" s="301"/>
+      <c r="J8" s="301"/>
+      <c r="K8" s="301"/>
+      <c r="L8" s="301"/>
+      <c r="M8" s="211"/>
+      <c r="N8" s="211"/>
+      <c r="O8" s="212"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="298" t="s">
+      <c r="A10" s="303" t="s">
         <v>327</v>
       </c>
-      <c r="B10" s="299"/>
-      <c r="C10" s="299"/>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="299"/>
-      <c r="H10" s="299"/>
-      <c r="I10" s="300"/>
+      <c r="B10" s="304"/>
+      <c r="C10" s="304"/>
+      <c r="D10" s="304"/>
+      <c r="E10" s="304"/>
+      <c r="F10" s="304"/>
+      <c r="G10" s="304"/>
+      <c r="H10" s="304"/>
+      <c r="I10" s="305"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="130" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="131" t="s">
         <v>305</v>
       </c>
-      <c r="C11" s="183" t="s">
+      <c r="C11" s="182" t="s">
         <v>339</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="E11" s="125" t="s">
+      <c r="E11" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="F11" s="125" t="s">
+      <c r="F11" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="131" t="s">
         <v>249</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="131" t="s">
         <v>249</v>
       </c>
-      <c r="I11" s="144" t="s">
+      <c r="I11" s="143" t="s">
         <v>249</v>
       </c>
-      <c r="K11" s="181"/>
-      <c r="L11" s="339"/>
-      <c r="M11" s="339"/>
-      <c r="N11" s="340"/>
+      <c r="K11" s="180"/>
+      <c r="L11" s="213"/>
+      <c r="M11" s="213"/>
+      <c r="N11" s="214"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
-      <c r="B12" s="147" t="s">
+      <c r="A12" s="147"/>
+      <c r="B12" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="95" t="s">
         <v>338</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="147" t="s">
+      <c r="E12" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="147" t="s">
+      <c r="F12" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="G12" s="146" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="147" t="s">
+      <c r="H12" s="146" t="s">
         <v>227</v>
       </c>
-      <c r="I12" s="149" t="s">
+      <c r="I12" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="L12" s="339"/>
-      <c r="M12" s="339"/>
-      <c r="N12" s="341"/>
+      <c r="L12" s="213"/>
+      <c r="M12" s="213"/>
+      <c r="N12" s="215"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="146"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="153">
+      <c r="A13" s="145"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="152">
         <v>100</v>
       </c>
-      <c r="E13" s="153">
+      <c r="E13" s="152">
         <v>0</v>
       </c>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153">
+      <c r="F13" s="152"/>
+      <c r="G13" s="152">
         <v>4</v>
       </c>
-      <c r="H13" s="153">
+      <c r="H13" s="152">
         <v>10</v>
       </c>
-      <c r="I13" s="154">
+      <c r="I13" s="153">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="282" t="s">
+      <c r="A15" s="288" t="s">
         <v>253</v>
       </c>
-      <c r="B15" s="283"/>
-      <c r="C15" s="283"/>
-      <c r="D15" s="283"/>
-      <c r="E15" s="283"/>
-      <c r="F15" s="283"/>
-      <c r="G15" s="283"/>
-      <c r="H15" s="284"/>
+      <c r="B15" s="289"/>
+      <c r="C15" s="289"/>
+      <c r="D15" s="289"/>
+      <c r="E15" s="289"/>
+      <c r="F15" s="289"/>
+      <c r="G15" s="289"/>
+      <c r="H15" s="290"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="285" t="s">
+      <c r="A16" s="291" t="s">
         <v>335</v>
       </c>
-      <c r="B16" s="286"/>
-      <c r="C16" s="286"/>
-      <c r="D16" s="286"/>
-      <c r="E16" s="286"/>
-      <c r="F16" s="286"/>
-      <c r="G16" s="286"/>
-      <c r="H16" s="287"/>
+      <c r="B16" s="292"/>
+      <c r="C16" s="292"/>
+      <c r="D16" s="292"/>
+      <c r="E16" s="292"/>
+      <c r="F16" s="292"/>
+      <c r="G16" s="292"/>
+      <c r="H16" s="293"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="285"/>
-      <c r="B17" s="286"/>
-      <c r="C17" s="286"/>
-      <c r="D17" s="286"/>
-      <c r="E17" s="286"/>
-      <c r="F17" s="286"/>
-      <c r="G17" s="286"/>
-      <c r="H17" s="287"/>
+      <c r="A17" s="291"/>
+      <c r="B17" s="292"/>
+      <c r="C17" s="292"/>
+      <c r="D17" s="292"/>
+      <c r="E17" s="292"/>
+      <c r="F17" s="292"/>
+      <c r="G17" s="292"/>
+      <c r="H17" s="293"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="285"/>
-      <c r="B18" s="286"/>
-      <c r="C18" s="286"/>
-      <c r="D18" s="286"/>
-      <c r="E18" s="286"/>
-      <c r="F18" s="286"/>
-      <c r="G18" s="286"/>
-      <c r="H18" s="287"/>
+      <c r="A18" s="291"/>
+      <c r="B18" s="292"/>
+      <c r="C18" s="292"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="293"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="288"/>
-      <c r="B19" s="289"/>
-      <c r="C19" s="289"/>
-      <c r="D19" s="289"/>
-      <c r="E19" s="289"/>
-      <c r="F19" s="289"/>
-      <c r="G19" s="289"/>
-      <c r="H19" s="290"/>
+      <c r="A19" s="294"/>
+      <c r="B19" s="295"/>
+      <c r="C19" s="295"/>
+      <c r="D19" s="295"/>
+      <c r="E19" s="295"/>
+      <c r="F19" s="295"/>
+      <c r="G19" s="295"/>
+      <c r="H19" s="296"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="294" t="s">
+      <c r="A21" s="300" t="s">
         <v>280</v>
       </c>
-      <c r="B21" s="294"/>
-      <c r="C21" s="294"/>
-      <c r="D21" s="294"/>
-      <c r="E21" s="294"/>
-      <c r="F21" s="294"/>
-      <c r="G21" s="294"/>
+      <c r="B21" s="300"/>
+      <c r="C21" s="300"/>
+      <c r="D21" s="300"/>
+      <c r="E21" s="300"/>
+      <c r="F21" s="300"/>
+      <c r="G21" s="300"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="D22" s="254" t="s">
+      <c r="D22" s="260" t="s">
         <v>283</v>
       </c>
-      <c r="E22" s="254"/>
-      <c r="F22" s="254"/>
-      <c r="G22" s="254"/>
+      <c r="E22" s="260"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="260"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8690,7 +8721,7 @@
       <c r="C23" t="s">
         <v>413</v>
       </c>
-      <c r="D23" s="170" t="s">
+      <c r="D23" s="169" t="s">
         <v>341</v>
       </c>
     </row>
@@ -8704,7 +8735,7 @@
       <c r="C24" t="s">
         <v>413</v>
       </c>
-      <c r="D24" s="182" t="s">
+      <c r="D24" s="181" t="s">
         <v>307</v>
       </c>
     </row>
@@ -8718,7 +8749,7 @@
       <c r="C25" t="s">
         <v>413</v>
       </c>
-      <c r="D25" s="170" t="s">
+      <c r="D25" s="169" t="s">
         <v>308</v>
       </c>
     </row>
@@ -8732,7 +8763,7 @@
       <c r="C26" t="s">
         <v>413</v>
       </c>
-      <c r="D26" s="170" t="s">
+      <c r="D26" s="169" t="s">
         <v>328</v>
       </c>
     </row>
@@ -8746,7 +8777,7 @@
       <c r="C27" t="s">
         <v>413</v>
       </c>
-      <c r="D27" s="173" t="s">
+      <c r="D27" s="172" t="s">
         <v>309</v>
       </c>
     </row>
@@ -8760,7 +8791,7 @@
       <c r="C28" t="s">
         <v>413</v>
       </c>
-      <c r="D28" s="182" t="s">
+      <c r="D28" s="181" t="s">
         <v>358</v>
       </c>
     </row>
@@ -8774,7 +8805,7 @@
       <c r="C29" t="s">
         <v>413</v>
       </c>
-      <c r="D29" s="182" t="s">
+      <c r="D29" s="181" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8788,7 +8819,7 @@
       <c r="C30" t="s">
         <v>413</v>
       </c>
-      <c r="D30" s="182" t="s">
+      <c r="D30" s="181" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8802,7 +8833,7 @@
       <c r="C31" t="s">
         <v>413</v>
       </c>
-      <c r="D31" s="182" t="s">
+      <c r="D31" s="181" t="s">
         <v>316</v>
       </c>
     </row>
@@ -8816,7 +8847,7 @@
       <c r="C32" t="s">
         <v>413</v>
       </c>
-      <c r="D32" s="182" t="s">
+      <c r="D32" s="181" t="s">
         <v>360</v>
       </c>
     </row>
@@ -8830,7 +8861,7 @@
       <c r="C33" t="s">
         <v>413</v>
       </c>
-      <c r="D33" s="182" t="s">
+      <c r="D33" s="181" t="s">
         <v>361</v>
       </c>
     </row>
@@ -8844,7 +8875,7 @@
       <c r="C34" t="s">
         <v>413</v>
       </c>
-      <c r="D34" s="170" t="s">
+      <c r="D34" s="169" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8858,7 +8889,7 @@
       <c r="C35" t="s">
         <v>413</v>
       </c>
-      <c r="D35" s="170" t="s">
+      <c r="D35" s="169" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8872,7 +8903,7 @@
       <c r="C36" t="s">
         <v>413</v>
       </c>
-      <c r="D36" s="170" t="s">
+      <c r="D36" s="169" t="s">
         <v>364</v>
       </c>
     </row>
@@ -8886,7 +8917,7 @@
       <c r="C37" t="s">
         <v>413</v>
       </c>
-      <c r="D37" s="170" t="s">
+      <c r="D37" s="169" t="s">
         <v>365</v>
       </c>
     </row>
@@ -8900,7 +8931,7 @@
       <c r="C38" t="s">
         <v>413</v>
       </c>
-      <c r="D38" s="170" t="s">
+      <c r="D38" s="169" t="s">
         <v>366</v>
       </c>
     </row>
@@ -8914,7 +8945,7 @@
       <c r="C39" t="s">
         <v>413</v>
       </c>
-      <c r="D39" s="170" t="s">
+      <c r="D39" s="169" t="s">
         <v>367</v>
       </c>
     </row>
@@ -8928,7 +8959,7 @@
       <c r="C40" t="s">
         <v>413</v>
       </c>
-      <c r="D40" s="170" t="s">
+      <c r="D40" s="169" t="s">
         <v>368</v>
       </c>
     </row>
@@ -8942,7 +8973,7 @@
       <c r="C41" t="s">
         <v>413</v>
       </c>
-      <c r="D41" s="170" t="s">
+      <c r="D41" s="169" t="s">
         <v>414</v>
       </c>
     </row>
@@ -8956,7 +8987,7 @@
       <c r="C42" t="s">
         <v>413</v>
       </c>
-      <c r="D42" s="170" t="s">
+      <c r="D42" s="169" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8970,7 +9001,7 @@
       <c r="C43" t="s">
         <v>413</v>
       </c>
-      <c r="D43" s="170" t="s">
+      <c r="D43" s="169" t="s">
         <v>415</v>
       </c>
     </row>
@@ -8984,7 +9015,7 @@
       <c r="C44" t="s">
         <v>413</v>
       </c>
-      <c r="D44" s="170" t="s">
+      <c r="D44" s="169" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8998,7 +9029,7 @@
       <c r="C45" t="s">
         <v>413</v>
       </c>
-      <c r="D45" s="170" t="s">
+      <c r="D45" s="169" t="s">
         <v>416</v>
       </c>
     </row>
@@ -9012,7 +9043,7 @@
       <c r="C46" t="s">
         <v>413</v>
       </c>
-      <c r="D46" s="170" t="s">
+      <c r="D46" s="169" t="s">
         <v>417</v>
       </c>
     </row>
@@ -9026,7 +9057,7 @@
       <c r="C47" t="s">
         <v>413</v>
       </c>
-      <c r="D47" s="170" t="s">
+      <c r="D47" s="169" t="s">
         <v>418</v>
       </c>
     </row>
@@ -9040,7 +9071,7 @@
       <c r="C48" t="s">
         <v>413</v>
       </c>
-      <c r="D48" s="170" t="s">
+      <c r="D48" s="169" t="s">
         <v>419</v>
       </c>
     </row>
@@ -9054,7 +9085,7 @@
       <c r="C49" t="s">
         <v>413</v>
       </c>
-      <c r="D49" s="170" t="s">
+      <c r="D49" s="169" t="s">
         <v>420</v>
       </c>
     </row>
@@ -9068,7 +9099,7 @@
       <c r="C50" t="s">
         <v>413</v>
       </c>
-      <c r="D50" s="170" t="s">
+      <c r="D50" s="169" t="s">
         <v>421</v>
       </c>
     </row>
@@ -9082,7 +9113,7 @@
       <c r="C51" t="s">
         <v>413</v>
       </c>
-      <c r="D51" s="170" t="s">
+      <c r="D51" s="169" t="s">
         <v>422</v>
       </c>
     </row>
@@ -9096,7 +9127,7 @@
       <c r="C52" t="s">
         <v>413</v>
       </c>
-      <c r="D52" s="182" t="s">
+      <c r="D52" s="181" t="s">
         <v>361</v>
       </c>
     </row>
@@ -9110,12 +9141,28 @@
       <c r="C53" t="s">
         <v>413</v>
       </c>
-      <c r="D53" s="170" t="s">
+      <c r="D53" s="169" t="s">
         <v>370</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="M2:O2"/>
@@ -9126,22 +9173,6 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9207,7 +9238,7 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -9233,374 +9264,374 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="317" t="s">
+      <c r="A1" s="318" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="317"/>
-      <c r="C1" s="317"/>
-      <c r="D1" s="317"/>
-      <c r="E1" s="317"/>
-      <c r="F1" s="317"/>
-      <c r="G1" s="317"/>
-      <c r="H1" s="317"/>
-      <c r="I1" s="317"/>
-      <c r="J1" s="317"/>
-      <c r="K1" s="317"/>
-      <c r="L1" s="317"/>
-      <c r="M1" s="317"/>
-      <c r="N1" s="317"/>
-      <c r="O1" s="317"/>
-      <c r="P1" s="317"/>
-      <c r="Q1" s="31"/>
+      <c r="B1" s="318"/>
+      <c r="C1" s="318"/>
+      <c r="D1" s="318"/>
+      <c r="E1" s="318"/>
+      <c r="F1" s="318"/>
+      <c r="G1" s="318"/>
+      <c r="H1" s="318"/>
+      <c r="I1" s="318"/>
+      <c r="J1" s="318"/>
+      <c r="K1" s="318"/>
+      <c r="L1" s="318"/>
+      <c r="M1" s="318"/>
+      <c r="N1" s="318"/>
+      <c r="O1" s="318"/>
+      <c r="P1" s="318"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="319" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="321" t="s">
+      <c r="B2" s="319"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="319" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="321"/>
-      <c r="I2" s="321"/>
-      <c r="J2" s="321"/>
-      <c r="K2" s="321"/>
-      <c r="L2" s="321"/>
-      <c r="M2" s="322" t="s">
+      <c r="H2" s="319"/>
+      <c r="I2" s="319"/>
+      <c r="J2" s="319"/>
+      <c r="K2" s="319"/>
+      <c r="L2" s="319"/>
+      <c r="M2" s="302" t="s">
         <v>267</v>
       </c>
-      <c r="N2" s="322"/>
-      <c r="O2" s="322"/>
-      <c r="P2" s="322"/>
-      <c r="Q2" s="88"/>
+      <c r="N2" s="302"/>
+      <c r="O2" s="302"/>
+      <c r="P2" s="302"/>
+      <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="326" t="s">
+      <c r="A3" s="321" t="s">
         <v>480</v>
       </c>
-      <c r="B3" s="326"/>
-      <c r="C3" s="326"/>
-      <c r="D3" s="326"/>
-      <c r="E3" s="326"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="326" t="s">
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="321" t="s">
         <v>269</v>
       </c>
-      <c r="H3" s="326"/>
-      <c r="I3" s="326"/>
-      <c r="J3" s="326"/>
-      <c r="K3" s="326"/>
-      <c r="L3" s="326"/>
-      <c r="M3" s="327" t="s">
+      <c r="H3" s="321"/>
+      <c r="I3" s="321"/>
+      <c r="J3" s="321"/>
+      <c r="K3" s="321"/>
+      <c r="L3" s="321"/>
+      <c r="M3" s="209" t="s">
         <v>271</v>
       </c>
-      <c r="N3" s="327" t="s">
+      <c r="N3" s="209" t="s">
         <v>270</v>
       </c>
-      <c r="O3" s="327" t="s">
+      <c r="O3" s="209" t="s">
         <v>339</v>
       </c>
-      <c r="P3" s="327" t="s">
+      <c r="P3" s="209" t="s">
         <v>339</v>
       </c>
-      <c r="Q3" s="189"/>
+      <c r="Q3" s="188"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="328" t="s">
+      <c r="A4" s="312" t="s">
         <v>477</v>
       </c>
-      <c r="B4" s="329"/>
-      <c r="C4" s="329"/>
-      <c r="D4" s="329"/>
-      <c r="E4" s="329"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="331" t="s">
+      <c r="B4" s="313"/>
+      <c r="C4" s="313"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="314"/>
+      <c r="G4" s="320" t="s">
         <v>221</v>
       </c>
-      <c r="H4" s="331"/>
-      <c r="I4" s="331"/>
-      <c r="J4" s="331"/>
-      <c r="K4" s="331"/>
-      <c r="L4" s="331"/>
-      <c r="M4" s="332" t="s">
+      <c r="H4" s="320"/>
+      <c r="I4" s="320"/>
+      <c r="J4" s="320"/>
+      <c r="K4" s="320"/>
+      <c r="L4" s="320"/>
+      <c r="M4" s="210" t="s">
         <v>225</v>
       </c>
-      <c r="N4" s="332" t="s">
+      <c r="N4" s="210" t="s">
         <v>154</v>
       </c>
-      <c r="O4" s="332" t="s">
+      <c r="O4" s="210" t="s">
         <v>340</v>
       </c>
-      <c r="P4" s="332" t="s">
+      <c r="P4" s="210" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="333"/>
-      <c r="B5" s="334"/>
-      <c r="C5" s="334"/>
-      <c r="D5" s="334"/>
-      <c r="E5" s="334"/>
-      <c r="F5" s="335"/>
-      <c r="G5" s="342" t="s">
+      <c r="A5" s="315"/>
+      <c r="B5" s="316"/>
+      <c r="C5" s="316"/>
+      <c r="D5" s="316"/>
+      <c r="E5" s="316"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="325" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="342"/>
-      <c r="I5" s="342"/>
-      <c r="J5" s="342"/>
-      <c r="K5" s="342"/>
-      <c r="L5" s="342"/>
-      <c r="M5" s="337" t="s">
+      <c r="H5" s="325"/>
+      <c r="I5" s="325"/>
+      <c r="J5" s="325"/>
+      <c r="K5" s="325"/>
+      <c r="L5" s="325"/>
+      <c r="M5" s="211" t="s">
         <v>264</v>
       </c>
-      <c r="N5" s="337"/>
-      <c r="O5" s="337" t="s">
+      <c r="N5" s="211"/>
+      <c r="O5" s="211" t="s">
         <v>481</v>
       </c>
-      <c r="P5" s="337" t="s">
+      <c r="P5" s="211" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="333" t="s">
+      <c r="A6" s="315" t="s">
         <v>483</v>
       </c>
-      <c r="B6" s="334"/>
-      <c r="C6" s="334"/>
-      <c r="D6" s="334"/>
-      <c r="E6" s="334"/>
-      <c r="F6" s="335"/>
-      <c r="G6" s="342" t="s">
+      <c r="B6" s="316"/>
+      <c r="C6" s="316"/>
+      <c r="D6" s="316"/>
+      <c r="E6" s="316"/>
+      <c r="F6" s="317"/>
+      <c r="G6" s="325" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="342"/>
-      <c r="I6" s="342"/>
-      <c r="J6" s="342"/>
-      <c r="K6" s="342"/>
-      <c r="L6" s="342"/>
-      <c r="M6" s="337"/>
-      <c r="N6" s="337"/>
-      <c r="O6" s="337" t="s">
+      <c r="H6" s="325"/>
+      <c r="I6" s="325"/>
+      <c r="J6" s="325"/>
+      <c r="K6" s="325"/>
+      <c r="L6" s="325"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="211"/>
+      <c r="O6" s="211" t="s">
         <v>484</v>
       </c>
-      <c r="P6" s="337" t="s">
+      <c r="P6" s="211" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="333"/>
-      <c r="B7" s="334"/>
-      <c r="C7" s="334"/>
-      <c r="D7" s="334"/>
-      <c r="E7" s="334"/>
-      <c r="F7" s="335"/>
-      <c r="G7" s="342"/>
-      <c r="H7" s="342"/>
-      <c r="I7" s="342"/>
-      <c r="J7" s="342"/>
-      <c r="K7" s="342"/>
-      <c r="L7" s="342"/>
-      <c r="M7" s="337"/>
-      <c r="N7" s="337"/>
-      <c r="O7" s="337"/>
-      <c r="P7" s="338"/>
+      <c r="A7" s="315"/>
+      <c r="B7" s="316"/>
+      <c r="C7" s="316"/>
+      <c r="D7" s="316"/>
+      <c r="E7" s="316"/>
+      <c r="F7" s="317"/>
+      <c r="G7" s="325"/>
+      <c r="H7" s="325"/>
+      <c r="I7" s="325"/>
+      <c r="J7" s="325"/>
+      <c r="K7" s="325"/>
+      <c r="L7" s="325"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
+      <c r="P7" s="212"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="333"/>
-      <c r="B8" s="334"/>
-      <c r="C8" s="334"/>
-      <c r="D8" s="334"/>
-      <c r="E8" s="334"/>
-      <c r="F8" s="335"/>
-      <c r="G8" s="342"/>
-      <c r="H8" s="342"/>
-      <c r="I8" s="342"/>
-      <c r="J8" s="342"/>
-      <c r="K8" s="342"/>
-      <c r="L8" s="342"/>
-      <c r="M8" s="337"/>
-      <c r="N8" s="337"/>
-      <c r="O8" s="337"/>
-      <c r="P8" s="338"/>
+      <c r="A8" s="315"/>
+      <c r="B8" s="316"/>
+      <c r="C8" s="316"/>
+      <c r="D8" s="316"/>
+      <c r="E8" s="316"/>
+      <c r="F8" s="317"/>
+      <c r="G8" s="325"/>
+      <c r="H8" s="325"/>
+      <c r="I8" s="325"/>
+      <c r="J8" s="325"/>
+      <c r="K8" s="325"/>
+      <c r="L8" s="325"/>
+      <c r="M8" s="211"/>
+      <c r="N8" s="211"/>
+      <c r="O8" s="211"/>
+      <c r="P8" s="212"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="298" t="s">
+      <c r="A10" s="303" t="s">
         <v>326</v>
       </c>
-      <c r="B10" s="299"/>
-      <c r="C10" s="299"/>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="299"/>
-      <c r="H10" s="299"/>
-      <c r="I10" s="300"/>
+      <c r="B10" s="304"/>
+      <c r="C10" s="304"/>
+      <c r="D10" s="304"/>
+      <c r="E10" s="304"/>
+      <c r="F10" s="304"/>
+      <c r="G10" s="304"/>
+      <c r="H10" s="304"/>
+      <c r="I10" s="305"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="130" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="131" t="s">
         <v>305</v>
       </c>
-      <c r="C11" s="183" t="s">
+      <c r="C11" s="182" t="s">
         <v>339</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="E11" s="125" t="s">
+      <c r="E11" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="F11" s="125" t="s">
+      <c r="F11" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="131" t="s">
         <v>249</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="131" t="s">
         <v>249</v>
       </c>
-      <c r="I11" s="144" t="s">
+      <c r="I11" s="143" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
-      <c r="B12" s="147" t="s">
+      <c r="A12" s="147"/>
+      <c r="B12" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="95" t="s">
         <v>338</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="147" t="s">
+      <c r="E12" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="147" t="s">
+      <c r="F12" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="G12" s="146" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="147" t="s">
+      <c r="H12" s="146" t="s">
         <v>227</v>
       </c>
-      <c r="I12" s="149" t="s">
+      <c r="I12" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="K12" s="164"/>
+      <c r="K12" s="163"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="146"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="153">
+      <c r="A13" s="145"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="152">
         <v>100</v>
       </c>
-      <c r="E13" s="153">
+      <c r="E13" s="152">
         <v>0</v>
       </c>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153">
+      <c r="F13" s="152"/>
+      <c r="G13" s="152">
         <v>4</v>
       </c>
-      <c r="H13" s="153">
+      <c r="H13" s="152">
         <v>10</v>
       </c>
-      <c r="I13" s="154">
+      <c r="I13" s="153">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="282" t="s">
+      <c r="A15" s="288" t="s">
         <v>253</v>
       </c>
-      <c r="B15" s="283"/>
-      <c r="C15" s="283"/>
-      <c r="D15" s="283"/>
-      <c r="E15" s="283"/>
-      <c r="F15" s="283"/>
-      <c r="G15" s="283"/>
-      <c r="H15" s="284"/>
+      <c r="B15" s="289"/>
+      <c r="C15" s="289"/>
+      <c r="D15" s="289"/>
+      <c r="E15" s="289"/>
+      <c r="F15" s="289"/>
+      <c r="G15" s="289"/>
+      <c r="H15" s="290"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="285" t="s">
+      <c r="A16" s="291" t="s">
         <v>336</v>
       </c>
-      <c r="B16" s="286"/>
-      <c r="C16" s="286"/>
-      <c r="D16" s="286"/>
-      <c r="E16" s="286"/>
-      <c r="F16" s="286"/>
-      <c r="G16" s="286"/>
-      <c r="H16" s="287"/>
+      <c r="B16" s="292"/>
+      <c r="C16" s="292"/>
+      <c r="D16" s="292"/>
+      <c r="E16" s="292"/>
+      <c r="F16" s="292"/>
+      <c r="G16" s="292"/>
+      <c r="H16" s="293"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="285"/>
-      <c r="B17" s="286"/>
-      <c r="C17" s="286"/>
-      <c r="D17" s="286"/>
-      <c r="E17" s="286"/>
-      <c r="F17" s="286"/>
-      <c r="G17" s="286"/>
-      <c r="H17" s="287"/>
+      <c r="A17" s="291"/>
+      <c r="B17" s="292"/>
+      <c r="C17" s="292"/>
+      <c r="D17" s="292"/>
+      <c r="E17" s="292"/>
+      <c r="F17" s="292"/>
+      <c r="G17" s="292"/>
+      <c r="H17" s="293"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="285"/>
-      <c r="B18" s="286"/>
-      <c r="C18" s="286"/>
-      <c r="D18" s="286"/>
-      <c r="E18" s="286"/>
-      <c r="F18" s="286"/>
-      <c r="G18" s="286"/>
-      <c r="H18" s="287"/>
+      <c r="A18" s="291"/>
+      <c r="B18" s="292"/>
+      <c r="C18" s="292"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="293"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="288"/>
-      <c r="B19" s="289"/>
-      <c r="C19" s="289"/>
-      <c r="D19" s="289"/>
-      <c r="E19" s="289"/>
-      <c r="F19" s="289"/>
-      <c r="G19" s="289"/>
-      <c r="H19" s="290"/>
+      <c r="A19" s="294"/>
+      <c r="B19" s="295"/>
+      <c r="C19" s="295"/>
+      <c r="D19" s="295"/>
+      <c r="E19" s="295"/>
+      <c r="F19" s="295"/>
+      <c r="G19" s="295"/>
+      <c r="H19" s="296"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="294" t="s">
+      <c r="A21" s="300" t="s">
         <v>280</v>
       </c>
-      <c r="B21" s="294"/>
-      <c r="C21" s="294"/>
-      <c r="D21" s="294"/>
-      <c r="E21" s="294"/>
-      <c r="F21" s="294"/>
-      <c r="G21" s="294"/>
+      <c r="B21" s="300"/>
+      <c r="C21" s="300"/>
+      <c r="D21" s="300"/>
+      <c r="E21" s="300"/>
+      <c r="F21" s="300"/>
+      <c r="G21" s="300"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="D22" s="254" t="s">
+      <c r="D22" s="260" t="s">
         <v>283</v>
       </c>
-      <c r="E22" s="254"/>
-      <c r="F22" s="254"/>
-      <c r="G22" s="254"/>
+      <c r="E22" s="260"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="260"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9612,7 +9643,7 @@
       <c r="C23" t="s">
         <v>423</v>
       </c>
-      <c r="D23" s="170" t="s">
+      <c r="D23" s="169" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9626,7 +9657,7 @@
       <c r="C24" t="s">
         <v>423</v>
       </c>
-      <c r="D24" s="182" t="s">
+      <c r="D24" s="181" t="s">
         <v>307</v>
       </c>
     </row>
@@ -9640,7 +9671,7 @@
       <c r="C25" t="s">
         <v>423</v>
       </c>
-      <c r="D25" s="170" t="s">
+      <c r="D25" s="169" t="s">
         <v>308</v>
       </c>
     </row>
@@ -9654,7 +9685,7 @@
       <c r="C26" t="s">
         <v>423</v>
       </c>
-      <c r="D26" s="170" t="s">
+      <c r="D26" s="169" t="s">
         <v>328</v>
       </c>
     </row>
@@ -9668,7 +9699,7 @@
       <c r="C27" t="s">
         <v>423</v>
       </c>
-      <c r="D27" s="173" t="s">
+      <c r="D27" s="172" t="s">
         <v>309</v>
       </c>
     </row>
@@ -9682,7 +9713,7 @@
       <c r="C28" t="s">
         <v>423</v>
       </c>
-      <c r="D28" s="182" t="s">
+      <c r="D28" s="181" t="s">
         <v>371</v>
       </c>
     </row>
@@ -9696,7 +9727,7 @@
       <c r="C29" t="s">
         <v>423</v>
       </c>
-      <c r="D29" s="182" t="s">
+      <c r="D29" s="181" t="s">
         <v>357</v>
       </c>
     </row>
@@ -9710,7 +9741,7 @@
       <c r="C30" t="s">
         <v>423</v>
       </c>
-      <c r="D30" s="182" t="s">
+      <c r="D30" s="181" t="s">
         <v>372</v>
       </c>
     </row>
@@ -9724,7 +9755,7 @@
       <c r="C31" t="s">
         <v>423</v>
       </c>
-      <c r="D31" s="182" t="s">
+      <c r="D31" s="181" t="s">
         <v>318</v>
       </c>
     </row>
@@ -9738,7 +9769,7 @@
       <c r="C32" t="s">
         <v>423</v>
       </c>
-      <c r="D32" s="182" t="s">
+      <c r="D32" s="181" t="s">
         <v>319</v>
       </c>
     </row>
@@ -9752,7 +9783,7 @@
       <c r="C33" t="s">
         <v>423</v>
       </c>
-      <c r="D33" s="170" t="s">
+      <c r="D33" s="169" t="s">
         <v>373</v>
       </c>
     </row>
@@ -9766,12 +9797,21 @@
       <c r="C34" t="s">
         <v>423</v>
       </c>
-      <c r="D34" s="182" t="s">
+      <c r="D34" s="181" t="s">
         <v>322</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G8:L8"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
@@ -9784,15 +9824,6 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="G8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9853,42 +9884,42 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
-    <col min="2" max="2" width="68.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="179" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="91" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16" style="178" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="66" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
     <col min="7" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="301" t="s">
+      <c r="A1" s="326" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="328"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -9900,23 +9931,23 @@
       <c r="C2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="342" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="135" t="s">
+      <c r="F2" s="134" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="176"/>
-      <c r="D3" s="23"/>
-      <c r="F3" s="136" t="s">
+      <c r="C3" s="175"/>
+      <c r="D3" s="22"/>
+      <c r="F3" s="135" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9927,8 +9958,8 @@
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="177"/>
-      <c r="D4" s="24">
+      <c r="C4" s="176"/>
+      <c r="D4" s="23">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -9942,671 +9973,685 @@
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="177"/>
-      <c r="D5" s="24">
+      <c r="C5" s="176"/>
+      <c r="D5" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="204" t="s">
+        <v>486</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="C6" s="343" t="s">
+        <v>488</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="177">
+      <c r="C7" s="176">
         <v>1</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D7" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="205" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="204" t="s">
         <v>453</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B8" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="C7" s="206"/>
-      <c r="D7" s="24">
+      <c r="C8" s="205"/>
+      <c r="D8" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="205" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="204" t="s">
         <v>455</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="C8" s="206"/>
-      <c r="D8" s="24">
+      <c r="C9" s="205"/>
+      <c r="D9" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B10" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="C9" s="177"/>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="C10" s="176"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="177"/>
-      <c r="D11" s="24">
-        <v>0</v>
-      </c>
+      <c r="A11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="175"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="177"/>
-      <c r="D12" s="25" t="s">
-        <v>68</v>
+        <v>29</v>
+      </c>
+      <c r="C12" s="176"/>
+      <c r="D12" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="177"/>
-      <c r="D13" s="25" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="C13" s="176"/>
+      <c r="D13" s="24" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="177"/>
-      <c r="D14" s="24">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="C14" s="176"/>
+      <c r="D14" s="24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="176"/>
+      <c r="D15" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="24" t="s">
+      <c r="C16" s="176"/>
+      <c r="D16" s="23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="176"/>
-      <c r="D16" s="23"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="177"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="177"/>
-      <c r="D18" s="24"/>
+        <v>35</v>
+      </c>
+      <c r="C18" s="176"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="177"/>
-      <c r="D19" s="24"/>
+        <v>36</v>
+      </c>
+      <c r="C19" s="176"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="177"/>
-      <c r="D20" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="C20" s="176"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="177"/>
-      <c r="D21" s="24">
-        <v>1</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C21" s="176"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="177"/>
-      <c r="D22" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="C22" s="176"/>
+      <c r="D22" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="177"/>
-      <c r="D23" s="24"/>
+        <v>40</v>
+      </c>
+      <c r="C23" s="176"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="176"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B25" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="C24" s="177"/>
-      <c r="D24" s="24"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="C25" s="176"/>
       <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="177"/>
-      <c r="D26" s="24">
-        <v>100</v>
-      </c>
+      <c r="A26" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="175"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="177"/>
-      <c r="D27" s="24">
-        <v>65535</v>
+        <v>43</v>
+      </c>
+      <c r="C27" s="176"/>
+      <c r="D27" s="23">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="177"/>
-      <c r="D28" s="24">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="C28" s="176"/>
+      <c r="D28" s="23">
+        <v>65535</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="177"/>
-      <c r="D29" s="24">
-        <v>0.1</v>
+        <v>45</v>
+      </c>
+      <c r="C29" s="176"/>
+      <c r="D29" s="23">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="177"/>
-      <c r="D30" s="24"/>
+        <v>46</v>
+      </c>
+      <c r="C30" s="176"/>
+      <c r="D30" s="23">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="177"/>
-      <c r="D31" s="24"/>
+        <v>47</v>
+      </c>
+      <c r="C31" s="176"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="176"/>
+      <c r="D32" s="23"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B33" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="C32" s="177"/>
-      <c r="D32" s="24"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="C33" s="176"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="177"/>
-      <c r="D34" s="24"/>
+      <c r="A34" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="175"/>
+      <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="177"/>
-      <c r="D35" s="24">
-        <v>0.02</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C35" s="176"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="177"/>
-      <c r="D36" s="24"/>
+        <v>52</v>
+      </c>
+      <c r="C36" s="176"/>
+      <c r="D36" s="23">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="176"/>
+      <c r="D37" s="23"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B38" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="177"/>
-      <c r="D37" s="24"/>
-    </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="177"/>
-      <c r="D38" s="24"/>
+      <c r="C38" s="176"/>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="176"/>
+      <c r="D39" s="23"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B40" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="177"/>
-      <c r="D39" s="25" t="s">
+      <c r="C40" s="176"/>
+      <c r="D40" s="24" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B41" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="177"/>
-      <c r="D40" s="25">
+      <c r="C41" s="176"/>
+      <c r="D41" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B42" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="176"/>
-      <c r="D41" s="23"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="24"/>
+      <c r="C42" s="175"/>
+      <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="177"/>
-      <c r="D43" s="24"/>
+        <v>129</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="176"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="177"/>
-      <c r="D44" s="24"/>
+        <v>85</v>
+      </c>
+      <c r="C44" s="176"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="177"/>
-      <c r="D45" s="24"/>
+        <v>86</v>
+      </c>
+      <c r="C45" s="176"/>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" s="177"/>
-      <c r="D46" s="24"/>
+        <v>87</v>
+      </c>
+      <c r="C46" s="176"/>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="177"/>
-      <c r="D47" s="24"/>
+        <v>169</v>
+      </c>
+      <c r="C47" s="176"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="177"/>
-      <c r="D48" s="24"/>
+        <v>89</v>
+      </c>
+      <c r="C48" s="176"/>
+      <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="177"/>
-      <c r="D49" s="24"/>
+        <v>90</v>
+      </c>
+      <c r="C49" s="176"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="177"/>
-      <c r="D50" s="24"/>
+        <v>88</v>
+      </c>
+      <c r="C50" s="176"/>
+      <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="177"/>
-      <c r="D51" s="24"/>
+        <v>91</v>
+      </c>
+      <c r="C51" s="176"/>
+      <c r="D51" s="23"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="177"/>
-      <c r="D52" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="C52" s="176"/>
+      <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="177"/>
-      <c r="D53" s="24">
-        <v>1</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C53" s="176"/>
+      <c r="D53" s="23"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="177"/>
-      <c r="D54" s="24">
+        <v>59</v>
+      </c>
+      <c r="C54" s="176"/>
+      <c r="D54" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="177"/>
-      <c r="D55" s="24">
+        <v>60</v>
+      </c>
+      <c r="C55" s="176"/>
+      <c r="D55" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="177"/>
-      <c r="D56" s="24">
+        <v>61</v>
+      </c>
+      <c r="C56" s="176"/>
+      <c r="D56" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="177"/>
-      <c r="D57" s="24">
+        <v>62</v>
+      </c>
+      <c r="C57" s="176"/>
+      <c r="D57" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="177"/>
-      <c r="D58" s="24">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="C58" s="176"/>
+      <c r="D58" s="23">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="177"/>
-      <c r="D59" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="C59" s="176"/>
+      <c r="D59" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="176"/>
+      <c r="D60" s="23"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B61" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="177"/>
-      <c r="D60" s="24"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+      <c r="C61" s="176"/>
+      <c r="D61" s="23"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B62" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="176"/>
-      <c r="D61" s="175"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="C62" s="175"/>
+      <c r="D62" s="174"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B63" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="177"/>
-      <c r="D62" s="26">
+      <c r="C63" s="176"/>
+      <c r="D63" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B63" s="174"/>
-      <c r="C63" s="176"/>
-      <c r="D63" s="175"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="B64" s="173"/>
+      <c r="C64" s="175"/>
+      <c r="D64" s="174"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B65" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C64" s="177"/>
-      <c r="D64" s="26">
+      <c r="C65" s="176"/>
+      <c r="D65" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B66" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="176"/>
-      <c r="D65" s="175"/>
-    </row>
-    <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="27" t="s">
+      <c r="C66" s="175"/>
+      <c r="D66" s="174"/>
+    </row>
+    <row r="67" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B67" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C66" s="178"/>
-      <c r="D66" s="29">
+      <c r="C67" s="177"/>
+      <c r="D67" s="28">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="e8kOAtFlpesjtn2br0yWcMpJ0DR209aE1yKF50VLzsPmXh5YkSkNGPUjF34NepgBd0tNNjIcbP5PGt3vMdgCiw==" saltValue="lwyCEHXZ04Z8PX//kotMKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="74eWta5L8Yhz4iS1rxGcXlqXG5gv6gJoc981GJMOpDHJ2q/ExJwcIywQ8KgOseRnN/S5mk6FKMWD/Xjg9+rh8A==" saltValue="mCsttIcsEE5oAm7QfPcuKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -10640,163 +10685,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="332" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="308"/>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="308"/>
-      <c r="G1" s="308"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="308"/>
-      <c r="K1" s="308"/>
-      <c r="L1" s="308"/>
-      <c r="M1" s="308"/>
-      <c r="N1" s="308"/>
-      <c r="O1" s="308"/>
+      <c r="B1" s="333"/>
+      <c r="C1" s="333"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="333"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="333"/>
+      <c r="H1" s="333"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="333"/>
+      <c r="K1" s="333"/>
+      <c r="L1" s="333"/>
+      <c r="M1" s="333"/>
+      <c r="N1" s="333"/>
+      <c r="O1" s="333"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="329" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
-      <c r="F3" s="305"/>
-      <c r="G3" s="305"/>
-      <c r="H3" s="305"/>
-      <c r="I3" s="305"/>
-      <c r="J3" s="306"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
+      <c r="H3" s="330"/>
+      <c r="I3" s="330"/>
+      <c r="J3" s="331"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="37" t="s">
         <v>203</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="40">
+      <c r="B5" s="39">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <v>2</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="40">
+      <c r="B7" s="39">
         <v>3</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="40">
+      <c r="B8" s="39">
         <v>4</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
-      <c r="N8" s="36"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
+      <c r="N8" s="35"/>
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="40">
+      <c r="B9" s="39">
         <v>5</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="40">
+      <c r="B10" s="39">
         <v>6</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="43">
+      <c r="B11" s="42">
         <v>7</v>
       </c>
       <c r="C11" s="3"/>
@@ -10806,10 +10851,10 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="44"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="43">
+      <c r="B12" s="42">
         <v>8</v>
       </c>
       <c r="C12" s="3"/>
@@ -10819,10 +10864,10 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="44"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="43">
+      <c r="B13" s="42">
         <v>9</v>
       </c>
       <c r="C13" s="3"/>
@@ -10832,10 +10877,10 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="44"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="43">
+      <c r="B14" s="42">
         <v>10</v>
       </c>
       <c r="C14" s="3"/>
@@ -10845,10 +10890,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="44"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="43">
+      <c r="B15" s="42">
         <v>11</v>
       </c>
       <c r="C15" s="3"/>
@@ -10858,10 +10903,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="44"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="45">
+      <c r="B16" s="44">
         <v>12</v>
       </c>
       <c r="C16" s="6"/>
@@ -10875,190 +10920,190 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="304" t="s">
+      <c r="B19" s="329" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="305"/>
-      <c r="D19" s="305"/>
-      <c r="E19" s="305"/>
-      <c r="F19" s="305"/>
-      <c r="G19" s="305"/>
-      <c r="H19" s="305"/>
-      <c r="I19" s="305"/>
-      <c r="J19" s="305"/>
-      <c r="K19" s="305"/>
-      <c r="L19" s="305"/>
-      <c r="M19" s="305"/>
-      <c r="N19" s="306"/>
+      <c r="C19" s="330"/>
+      <c r="D19" s="330"/>
+      <c r="E19" s="330"/>
+      <c r="F19" s="330"/>
+      <c r="G19" s="330"/>
+      <c r="H19" s="330"/>
+      <c r="I19" s="330"/>
+      <c r="J19" s="330"/>
+      <c r="K19" s="330"/>
+      <c r="L19" s="330"/>
+      <c r="M19" s="330"/>
+      <c r="N19" s="331"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B20" s="37"/>
-      <c r="C20" s="46">
+      <c r="B20" s="36"/>
+      <c r="C20" s="45">
         <v>1</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="45">
         <v>2</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="45">
         <v>3</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="45">
         <v>4</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="45">
         <v>5</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="45">
         <v>6</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="46">
         <v>7</v>
       </c>
-      <c r="J20" s="47">
+      <c r="J20" s="46">
         <v>8</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="46">
         <v>9</v>
       </c>
-      <c r="L20" s="47">
+      <c r="L20" s="46">
         <v>10</v>
       </c>
-      <c r="M20" s="47">
+      <c r="M20" s="46">
         <v>11</v>
       </c>
-      <c r="N20" s="48">
+      <c r="N20" s="47">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="44"/>
+      <c r="N21" s="43"/>
     </row>
     <row r="22" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="44"/>
+      <c r="N22" s="43"/>
     </row>
     <row r="23" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="44"/>
+      <c r="N23" s="43"/>
     </row>
     <row r="24" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="44"/>
+      <c r="N24" s="43"/>
     </row>
     <row r="25" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="44"/>
+      <c r="N25" s="43"/>
     </row>
     <row r="26" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="44"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="44"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -11091,122 +11136,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="312" t="s">
+      <c r="A1" s="337" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="313"/>
-      <c r="P1" s="313"/>
-      <c r="Q1" s="313"/>
-      <c r="R1" s="313"/>
-      <c r="S1" s="313"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
+      <c r="N1" s="338"/>
+      <c r="O1" s="338"/>
+      <c r="P1" s="338"/>
+      <c r="Q1" s="338"/>
+      <c r="R1" s="338"/>
+      <c r="S1" s="338"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="329" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
-      <c r="F3" s="305"/>
-      <c r="G3" s="305"/>
-      <c r="H3" s="305"/>
-      <c r="I3" s="305"/>
-      <c r="J3" s="306"/>
-      <c r="L3" s="309" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
+      <c r="H3" s="330"/>
+      <c r="I3" s="330"/>
+      <c r="J3" s="331"/>
+      <c r="L3" s="334" t="s">
         <v>196</v>
       </c>
-      <c r="M3" s="310"/>
-      <c r="N3" s="310"/>
-      <c r="O3" s="310"/>
-      <c r="P3" s="310"/>
-      <c r="Q3" s="310"/>
-      <c r="R3" s="311"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="335"/>
+      <c r="O3" s="335"/>
+      <c r="P3" s="335"/>
+      <c r="Q3" s="335"/>
+      <c r="R3" s="336"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
     </row>
     <row r="4" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="37"/>
-      <c r="C4" s="58">
+      <c r="B4" s="36"/>
+      <c r="C4" s="57">
         <v>1</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>2</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>3</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>4</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>5</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="45">
         <v>6</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="58">
         <v>7</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="47">
         <v>8</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38" t="s">
+      <c r="L4" s="36"/>
+      <c r="M4" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q4" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="38" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="44"/>
-      <c r="L5" s="40">
+      <c r="I5" s="60"/>
+      <c r="J5" s="43"/>
+      <c r="L5" s="39">
         <v>1</v>
       </c>
       <c r="M5" s="3"/>
@@ -11214,21 +11259,21 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="44"/>
+      <c r="R5" s="43"/>
     </row>
     <row r="6" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="44"/>
-      <c r="L6" s="40">
+      <c r="I6" s="60"/>
+      <c r="J6" s="43"/>
+      <c r="L6" s="39">
         <v>2</v>
       </c>
       <c r="M6" s="3"/>
@@ -11236,21 +11281,21 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="44"/>
+      <c r="R6" s="43"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="44"/>
-      <c r="L7" s="40">
+      <c r="I7" s="60"/>
+      <c r="J7" s="43"/>
+      <c r="L7" s="39">
         <v>3</v>
       </c>
       <c r="M7" s="3"/>
@@ -11258,21 +11303,21 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="44"/>
+      <c r="R7" s="43"/>
     </row>
     <row r="8" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="44"/>
-      <c r="L8" s="40">
+      <c r="I8" s="60"/>
+      <c r="J8" s="43"/>
+      <c r="L8" s="39">
         <v>4</v>
       </c>
       <c r="M8" s="3"/>
@@ -11280,21 +11325,21 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="44"/>
+      <c r="R8" s="43"/>
     </row>
     <row r="9" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="44"/>
-      <c r="L9" s="40">
+      <c r="I9" s="60"/>
+      <c r="J9" s="43"/>
+      <c r="L9" s="39">
         <v>5</v>
       </c>
       <c r="M9" s="3"/>
@@ -11302,21 +11347,21 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="44"/>
+      <c r="R9" s="43"/>
     </row>
     <row r="10" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="63"/>
+      <c r="I10" s="62"/>
       <c r="J10" s="7"/>
-      <c r="L10" s="40">
+      <c r="L10" s="39">
         <v>6</v>
       </c>
       <c r="M10" s="3"/>
@@ -11324,10 +11369,10 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="44"/>
+      <c r="R10" s="43"/>
     </row>
     <row r="11" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="L11" s="43">
+      <c r="L11" s="42">
         <v>7</v>
       </c>
       <c r="M11" s="3"/>
@@ -11335,10 +11380,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="44"/>
+      <c r="R11" s="43"/>
     </row>
     <row r="12" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L12" s="45">
+      <c r="L12" s="44">
         <v>8</v>
       </c>
       <c r="M12" s="6"/>
@@ -11375,90 +11420,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="314" t="s">
+      <c r="A1" s="339" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
-      <c r="N1" s="315"/>
-      <c r="O1" s="316"/>
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
+      <c r="L1" s="340"/>
+      <c r="M1" s="340"/>
+      <c r="N1" s="340"/>
+      <c r="O1" s="341"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="329" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
-      <c r="F3" s="305"/>
-      <c r="G3" s="305"/>
-      <c r="H3" s="306"/>
-      <c r="J3" s="309" t="s">
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
+      <c r="H3" s="331"/>
+      <c r="J3" s="334" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="310"/>
-      <c r="L3" s="310"/>
-      <c r="M3" s="310"/>
-      <c r="N3" s="311"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
+      <c r="K3" s="335"/>
+      <c r="L3" s="335"/>
+      <c r="M3" s="335"/>
+      <c r="N3" s="336"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="37"/>
-      <c r="C4" s="46">
+      <c r="B4" s="36"/>
+      <c r="C4" s="45">
         <v>1</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>2</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>3</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>4</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>5</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="52">
         <v>6</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38" t="s">
+      <c r="J4" s="36"/>
+      <c r="K4" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="38" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="3"/>
@@ -11466,17 +11511,17 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="44"/>
-      <c r="J5" s="40">
+      <c r="H5" s="43"/>
+      <c r="J5" s="39">
         <v>1</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="44"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>198</v>
       </c>
       <c r="C6" s="3"/>
@@ -11484,17 +11529,17 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="44"/>
-      <c r="J6" s="40">
+      <c r="H6" s="43"/>
+      <c r="J6" s="39">
         <v>2</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="44"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>199</v>
       </c>
       <c r="C7" s="3"/>
@@ -11502,17 +11547,17 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="44"/>
-      <c r="J7" s="40">
+      <c r="H7" s="43"/>
+      <c r="J7" s="39">
         <v>3</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="44"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>200</v>
       </c>
       <c r="C8" s="6"/>
@@ -11521,27 +11566,27 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="J8" s="40">
+      <c r="J8" s="39">
         <v>4</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="44"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H9" s="54"/>
-      <c r="J9" s="40">
+      <c r="H9" s="53"/>
+      <c r="J9" s="39">
         <v>5</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="44"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H10" s="55"/>
-      <c r="J10" s="56">
+      <c r="H10" s="54"/>
+      <c r="J10" s="55">
         <v>6</v>
       </c>
       <c r="K10" s="6"/>
@@ -11550,19 +11595,19 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="H11" s="57"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="54"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="54"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="54"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H15" s="54"/>
+      <c r="H15" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/test_templates/test_batch_template4.xlsx
+++ b/test_templates/test_batch_template4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="496">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2455,6 +2455,57 @@
   </si>
   <si>
     <t>10^4</t>
+  </si>
+  <si>
+    <t>Non-fluorescence Channels (unprocessed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel
+</t>
+  </si>
+  <si>
+    <t>Non-fluorescence Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excitation wavelength </t>
+  </si>
+  <si>
+    <t>Size Beads</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Options can be found in BeadCatalog</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Defaults to FSC</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3455,7 +3506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="376">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3727,9 +3778,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4049,41 +4097,82 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4127,59 +4216,26 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4308,45 +4364,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4379,6 +4396,45 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4435,11 +4491,117 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4703,13 +4865,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5348,12 +5510,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="154" customWidth="1"/>
+    <col min="1" max="1" width="20.875" style="153" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="84" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.125" style="84" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="84" customWidth="1"/>
     <col min="5" max="5" width="11.875" style="84" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="140" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="139" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="84" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="84" customWidth="1"/>
     <col min="9" max="9" width="20" style="84" customWidth="1"/>
@@ -5364,178 +5526,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="240" t="s">
         <v>351</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="230"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="242"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="219" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="245"/>
+      <c r="B3" s="220"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="242" t="s">
+      <c r="A4" s="233" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="243"/>
+      <c r="B4" s="234"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="258" t="s">
+      <c r="A5" s="235" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="259"/>
+      <c r="B5" s="236"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="85"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="244" t="s">
+      <c r="A7" s="219" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="246"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="246"/>
-      <c r="F7" s="246"/>
-      <c r="G7" s="246"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="246"/>
-      <c r="J7" s="246"/>
-      <c r="K7" s="245"/>
+      <c r="B7" s="221"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="221"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="221"/>
+      <c r="K7" s="220"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="231" t="s">
+      <c r="A8" s="243" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="232"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
-      <c r="G8" s="232"/>
-      <c r="H8" s="232"/>
-      <c r="I8" s="232"/>
-      <c r="J8" s="232"/>
-      <c r="K8" s="233"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="244"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="245"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="234"/>
-      <c r="B9" s="235"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="235"/>
-      <c r="F9" s="235"/>
-      <c r="G9" s="235"/>
-      <c r="H9" s="235"/>
-      <c r="I9" s="235"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="236"/>
+      <c r="A9" s="246"/>
+      <c r="B9" s="247"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="247"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="247"/>
+      <c r="G9" s="247"/>
+      <c r="H9" s="247"/>
+      <c r="I9" s="247"/>
+      <c r="J9" s="247"/>
+      <c r="K9" s="248"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="155"/>
+      <c r="A10" s="154"/>
       <c r="B10" s="86"/>
       <c r="C10" s="86"/>
       <c r="D10" s="86"/>
       <c r="E10" s="86"/>
-      <c r="F10" s="141"/>
+      <c r="F10" s="140"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="247" t="s">
+      <c r="A11" s="222" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="248"/>
-      <c r="C11" s="248"/>
-      <c r="D11" s="249"/>
+      <c r="B11" s="223"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="224"/>
       <c r="E11" s="86"/>
-      <c r="F11" s="141"/>
+      <c r="F11" s="140"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="250" t="s">
+      <c r="A12" s="225" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="251"/>
-      <c r="C12" s="252" t="s">
+      <c r="B12" s="226"/>
+      <c r="C12" s="227" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="253"/>
+      <c r="D12" s="228"/>
       <c r="E12" s="86"/>
-      <c r="F12" s="141"/>
+      <c r="F12" s="140"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="254"/>
-      <c r="B13" s="255"/>
-      <c r="C13" s="256"/>
-      <c r="D13" s="257"/>
+      <c r="A13" s="229"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="231"/>
+      <c r="D13" s="232"/>
       <c r="E13" s="86"/>
-      <c r="F13" s="141"/>
+      <c r="F13" s="140"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="247" t="s">
+      <c r="A15" s="222" t="s">
         <v>248</v>
       </c>
-      <c r="B15" s="249"/>
-      <c r="E15" s="247" t="s">
+      <c r="B15" s="224"/>
+      <c r="E15" s="222" t="s">
         <v>288</v>
       </c>
-      <c r="F15" s="248"/>
-      <c r="G15" s="248"/>
-      <c r="H15" s="248"/>
-      <c r="I15" s="249"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="223"/>
+      <c r="I15" s="224"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="242" t="s">
+      <c r="A16" s="233" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="243"/>
+      <c r="B16" s="234"/>
       <c r="D16" s="87"/>
-      <c r="E16" s="237" t="s">
+      <c r="E16" s="249" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="238"/>
-      <c r="G16" s="238"/>
-      <c r="H16" s="238"/>
-      <c r="I16" s="239"/>
+      <c r="F16" s="250"/>
+      <c r="G16" s="250"/>
+      <c r="H16" s="250"/>
+      <c r="I16" s="251"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="155" t="s">
         <v>210</v>
       </c>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="113" t="s">
         <v>251</v>
       </c>
       <c r="C17" s="88"/>
-      <c r="E17" s="240" t="s">
+      <c r="E17" s="252" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="241"/>
-      <c r="G17" s="194" t="s">
+      <c r="F17" s="253"/>
+      <c r="G17" s="193" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="194" t="s">
+      <c r="H17" s="193" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="183" t="s">
+      <c r="I17" s="182" t="s">
         <v>329</v>
       </c>
       <c r="J17" s="80"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="157" t="s">
+      <c r="A18" s="156" t="s">
         <v>242</v>
       </c>
       <c r="B18" s="89" t="s">
@@ -5552,16 +5714,16 @@
       <c r="H18" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="216" t="s">
+      <c r="I18" s="237" t="s">
         <v>444</v>
       </c>
       <c r="J18" s="80"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="158" t="s">
+      <c r="A19" s="157" t="s">
         <v>261</v>
       </c>
-      <c r="B19" s="115"/>
+      <c r="B19" s="114"/>
       <c r="C19" s="88"/>
       <c r="E19" s="82">
         <v>2</v>
@@ -5575,78 +5737,78 @@
       <c r="H19" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="I19" s="216"/>
+      <c r="I19" s="237"/>
       <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="158" t="s">
+      <c r="A20" s="157" t="s">
         <v>262</v>
       </c>
-      <c r="B20" s="115"/>
+      <c r="B20" s="114"/>
       <c r="C20" s="90"/>
       <c r="E20" s="83">
         <v>3</v>
       </c>
-      <c r="F20" s="139" t="s">
+      <c r="F20" s="138" t="s">
         <v>172</v>
       </c>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
-      <c r="I20" s="217"/>
+      <c r="I20" s="238"/>
       <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="158" t="s">
+      <c r="A21" s="157" t="s">
         <v>266</v>
       </c>
-      <c r="B21" s="115"/>
+      <c r="B21" s="114"/>
       <c r="C21" s="31"/>
       <c r="I21" s="80"/>
       <c r="J21" s="80"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="159"/>
-      <c r="B22" s="116"/>
+      <c r="A22" s="158"/>
+      <c r="B22" s="115"/>
       <c r="C22" s="88"/>
       <c r="J22" s="80"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="160"/>
+      <c r="A23" s="159"/>
       <c r="B23" s="91"/>
       <c r="C23" s="90"/>
-      <c r="E23" s="218" t="s">
+      <c r="E23" s="217" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="219"/>
-      <c r="G23" s="219"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="220"/>
+      <c r="F23" s="239"/>
+      <c r="G23" s="239"/>
+      <c r="H23" s="239"/>
+      <c r="I23" s="218"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="218" t="s">
+      <c r="A24" s="217" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="220"/>
+      <c r="B24" s="218"/>
       <c r="C24" s="31"/>
-      <c r="E24" s="224" t="s">
+      <c r="E24" s="257" t="s">
         <v>208</v>
       </c>
-      <c r="F24" s="225"/>
-      <c r="G24" s="194" t="s">
+      <c r="F24" s="258"/>
+      <c r="G24" s="193" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="194" t="s">
+      <c r="H24" s="193" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="183" t="s">
+      <c r="I24" s="182" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="156" t="s">
+      <c r="A25" s="155" t="s">
         <v>210</v>
       </c>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="113" t="s">
         <v>258</v>
       </c>
       <c r="C25" s="31"/>
@@ -5660,12 +5822,12 @@
       <c r="H25" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="221" t="s">
+      <c r="I25" s="254" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="157" t="s">
+      <c r="A26" s="156" t="s">
         <v>242</v>
       </c>
       <c r="B26" s="89" t="s">
@@ -5684,77 +5846,77 @@
       <c r="H26" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="I26" s="222"/>
+      <c r="I26" s="255"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="158" t="s">
+      <c r="A27" s="157" t="s">
         <v>259</v>
       </c>
-      <c r="B27" s="115"/>
+      <c r="B27" s="114"/>
       <c r="C27" s="90"/>
       <c r="E27" s="83">
         <v>3</v>
       </c>
-      <c r="F27" s="139" t="s">
+      <c r="F27" s="138" t="s">
         <v>172</v>
       </c>
       <c r="G27" s="70"/>
       <c r="H27" s="70"/>
-      <c r="I27" s="223"/>
+      <c r="I27" s="256"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="158" t="s">
+      <c r="A28" s="157" t="s">
         <v>260</v>
       </c>
-      <c r="B28" s="115"/>
+      <c r="B28" s="114"/>
       <c r="C28" s="31"/>
       <c r="E28" s="93"/>
-      <c r="F28" s="142"/>
+      <c r="F28" s="141"/>
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
       <c r="I28" s="80"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="158"/>
-      <c r="B29" s="115"/>
+      <c r="A29" s="157"/>
+      <c r="B29" s="114"/>
       <c r="C29" s="31"/>
       <c r="I29" s="80"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="159"/>
-      <c r="B30" s="116"/>
+      <c r="A30" s="158"/>
+      <c r="B30" s="115"/>
       <c r="C30" s="88"/>
-      <c r="E30" s="218" t="s">
+      <c r="E30" s="217" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="219"/>
-      <c r="G30" s="219"/>
-      <c r="H30" s="219"/>
-      <c r="I30" s="220"/>
+      <c r="F30" s="239"/>
+      <c r="G30" s="239"/>
+      <c r="H30" s="239"/>
+      <c r="I30" s="218"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="160"/>
+      <c r="A31" s="159"/>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
-      <c r="E31" s="226" t="s">
+      <c r="E31" s="259" t="s">
         <v>430</v>
       </c>
-      <c r="F31" s="227"/>
-      <c r="G31" s="192" t="s">
+      <c r="F31" s="260"/>
+      <c r="G31" s="191" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="192" t="s">
+      <c r="H31" s="191" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="183" t="s">
+      <c r="I31" s="182" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="218" t="s">
+      <c r="A32" s="217" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="220"/>
+      <c r="B32" s="218"/>
       <c r="C32" s="31"/>
       <c r="E32" s="82">
         <v>1</v>
@@ -5764,13 +5926,13 @@
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="73"/>
-      <c r="I32" s="216"/>
+      <c r="I32" s="237"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="155" t="s">
         <v>210</v>
       </c>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="113" t="s">
         <v>265</v>
       </c>
       <c r="C33" s="88"/>
@@ -5784,10 +5946,10 @@
         <v>5</v>
       </c>
       <c r="H33" s="32"/>
-      <c r="I33" s="216"/>
+      <c r="I33" s="237"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="157" t="s">
+      <c r="A34" s="156" t="s">
         <v>212</v>
       </c>
       <c r="B34" s="89" t="s">
@@ -5799,76 +5961,76 @@
       <c r="F34" s="92"/>
       <c r="G34" s="32"/>
       <c r="H34" s="73"/>
-      <c r="I34" s="216"/>
+      <c r="I34" s="237"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="158" t="s">
+      <c r="A35" s="157" t="s">
         <v>197</v>
       </c>
-      <c r="B35" s="115"/>
+      <c r="B35" s="114"/>
       <c r="E35" s="82">
         <v>4</v>
       </c>
       <c r="F35" s="92"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
-      <c r="I35" s="216"/>
+      <c r="I35" s="237"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="158" t="s">
+      <c r="A36" s="157" t="s">
         <v>198</v>
       </c>
-      <c r="B36" s="115"/>
+      <c r="B36" s="114"/>
       <c r="E36" s="82">
         <v>5</v>
       </c>
       <c r="F36" s="92"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
-      <c r="I36" s="216"/>
+      <c r="I36" s="237"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="158" t="s">
+      <c r="A37" s="157" t="s">
         <v>199</v>
       </c>
-      <c r="B37" s="115"/>
+      <c r="B37" s="114"/>
       <c r="E37" s="83">
         <v>6</v>
       </c>
-      <c r="F37" s="139"/>
+      <c r="F37" s="138"/>
       <c r="G37" s="70"/>
       <c r="H37" s="70"/>
-      <c r="I37" s="217"/>
+      <c r="I37" s="238"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="159" t="s">
+      <c r="A38" s="158" t="s">
         <v>200</v>
       </c>
-      <c r="B38" s="116"/>
+      <c r="B38" s="115"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="161"/>
-      <c r="B39" s="120"/>
+      <c r="A39" s="160"/>
+      <c r="B39" s="119"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="218" t="s">
+      <c r="E40" s="217" t="s">
         <v>187</v>
       </c>
-      <c r="F40" s="219"/>
-      <c r="G40" s="219"/>
-      <c r="H40" s="219"/>
-      <c r="I40" s="220"/>
+      <c r="F40" s="239"/>
+      <c r="G40" s="239"/>
+      <c r="H40" s="239"/>
+      <c r="I40" s="218"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="224"/>
-      <c r="F41" s="225"/>
+      <c r="E41" s="257"/>
+      <c r="F41" s="258"/>
       <c r="G41" s="81" t="s">
         <v>159</v>
       </c>
       <c r="H41" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="183" t="s">
+      <c r="I41" s="182" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5879,7 +6041,7 @@
       <c r="F42" s="92"/>
       <c r="G42" s="32"/>
       <c r="H42" s="73"/>
-      <c r="I42" s="216"/>
+      <c r="I42" s="237"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="82">
@@ -5888,7 +6050,7 @@
       <c r="F43" s="92"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
-      <c r="I43" s="216"/>
+      <c r="I43" s="237"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="82">
@@ -5897,7 +6059,7 @@
       <c r="F44" s="92"/>
       <c r="G44" s="32"/>
       <c r="H44" s="73"/>
-      <c r="I44" s="216"/>
+      <c r="I44" s="237"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="82">
@@ -5906,7 +6068,7 @@
       <c r="F45" s="92"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
-      <c r="I45" s="216"/>
+      <c r="I45" s="237"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="82">
@@ -5915,20 +6077,34 @@
       <c r="F46" s="92"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
-      <c r="I46" s="216"/>
+      <c r="I46" s="237"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="83">
         <v>6</v>
       </c>
-      <c r="F47" s="139"/>
+      <c r="F47" s="138"/>
       <c r="G47" s="70"/>
       <c r="H47" s="70"/>
-      <c r="I47" s="217"/>
+      <c r="I47" s="238"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5944,20 +6120,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5997,32 +6159,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="264" t="s">
+      <c r="A1" s="265" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="265"/>
-      <c r="C1" s="265"/>
-      <c r="D1" s="265"/>
-      <c r="E1" s="265"/>
-      <c r="F1" s="265"/>
-      <c r="G1" s="265"/>
-      <c r="H1" s="265"/>
-      <c r="I1" s="265"/>
-      <c r="J1" s="266"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="267"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="267" t="s">
+      <c r="A2" s="268" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="268"/>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
-      <c r="G2" s="268"/>
-      <c r="H2" s="268"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="269"/>
+      <c r="B2" s="269"/>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="270"/>
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="74"/>
@@ -6030,26 +6192,26 @@
       <c r="O2" s="75"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="166" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="169" t="s">
         <v>290</v>
       </c>
-      <c r="C3" s="270" t="s">
+      <c r="C3" s="271" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="271"/>
-      <c r="E3" s="271"/>
-      <c r="F3" s="271"/>
-      <c r="G3" s="272"/>
-      <c r="H3" s="170" t="s">
+      <c r="D3" s="272"/>
+      <c r="E3" s="272"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="169" t="s">
         <v>291</v>
       </c>
-      <c r="I3" s="170" t="s">
+      <c r="I3" s="169" t="s">
         <v>292</v>
       </c>
-      <c r="J3" s="171" t="s">
+      <c r="J3" s="170" t="s">
         <v>293</v>
       </c>
       <c r="K3" s="78"/>
@@ -6059,397 +6221,397 @@
       <c r="O3" s="75"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="137" t="s">
         <v>251</v>
       </c>
-      <c r="E4" s="138" t="s">
+      <c r="E4" s="137" t="s">
         <v>265</v>
       </c>
-      <c r="F4" s="138" t="s">
+      <c r="F4" s="137" t="s">
         <v>258</v>
       </c>
-      <c r="G4" s="138" t="s">
+      <c r="G4" s="137" t="s">
         <v>273</v>
       </c>
-      <c r="H4" s="138" t="s">
+      <c r="H4" s="137" t="s">
         <v>189</v>
       </c>
-      <c r="I4" s="138" t="s">
+      <c r="I4" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="187" t="s">
+      <c r="J4" s="186" t="s">
         <v>374</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107">
+      <c r="A5" s="106">
         <v>1</v>
       </c>
-      <c r="B5" s="195" t="s">
+      <c r="B5" s="194" t="s">
         <v>446</v>
       </c>
-      <c r="C5" s="108">
+      <c r="C5" s="107">
         <v>0.1</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108" t="s">
+      <c r="D5" s="107"/>
+      <c r="E5" s="107" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="109">
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="108">
         <v>1</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="I5" s="109" t="s">
         <v>447</v>
       </c>
-      <c r="J5" s="111"/>
-      <c r="K5" s="196" t="s">
+      <c r="J5" s="110"/>
+      <c r="K5" s="195" t="s">
         <v>431</v>
       </c>
-      <c r="L5" s="196" t="s">
+      <c r="L5" s="195" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107">
+      <c r="A6" s="106">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="195" t="s">
+      <c r="B6" s="194" t="s">
         <v>448</v>
       </c>
-      <c r="C6" s="108">
+      <c r="C6" s="107">
         <v>0.2</v>
       </c>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108" t="s">
+      <c r="D6" s="107"/>
+      <c r="E6" s="107" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="109">
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="108">
         <v>1</v>
       </c>
-      <c r="I6" s="110" t="s">
+      <c r="I6" s="109" t="s">
         <v>449</v>
       </c>
-      <c r="J6" s="111"/>
-      <c r="K6" s="196" t="s">
+      <c r="J6" s="110"/>
+      <c r="K6" s="195" t="s">
         <v>433</v>
       </c>
-      <c r="L6" s="196" t="s">
+      <c r="L6" s="195" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107">
+      <c r="A7" s="106">
         <f t="shared" ref="A7:A22" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="194" t="s">
         <v>450</v>
       </c>
-      <c r="C7" s="108">
+      <c r="C7" s="107">
         <v>0.5</v>
       </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108" t="s">
+      <c r="D7" s="107"/>
+      <c r="E7" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="109">
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="108">
         <v>1</v>
       </c>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="109" t="s">
         <v>451</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="196" t="s">
+      <c r="J7" s="110"/>
+      <c r="K7" s="195" t="s">
         <v>435</v>
       </c>
-      <c r="L7" s="196" t="s">
+      <c r="L7" s="195" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107">
+      <c r="A8" s="106">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="206" t="s">
+      <c r="B8" s="205" t="s">
         <v>457</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108" t="s">
+      <c r="C8" s="107"/>
+      <c r="D8" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108" t="s">
+      <c r="E8" s="107"/>
+      <c r="F8" s="107" t="s">
         <v>259</v>
       </c>
-      <c r="G8" s="108">
+      <c r="G8" s="107">
         <v>0.1</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H8" s="108">
         <v>1</v>
       </c>
-      <c r="I8" s="110" t="s">
+      <c r="I8" s="109" t="s">
         <v>465</v>
       </c>
-      <c r="J8" s="111" t="s">
+      <c r="J8" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="196" t="s">
+      <c r="K8" s="195" t="s">
         <v>471</v>
       </c>
-      <c r="L8" s="196"/>
+      <c r="L8" s="195"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="107">
+      <c r="A9" s="106">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="206" t="s">
+      <c r="B9" s="205" t="s">
         <v>458</v>
       </c>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108" t="s">
+      <c r="C9" s="107"/>
+      <c r="D9" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108" t="s">
+      <c r="E9" s="107"/>
+      <c r="F9" s="107" t="s">
         <v>259</v>
       </c>
-      <c r="G9" s="108">
+      <c r="G9" s="107">
         <v>0.2</v>
       </c>
-      <c r="H9" s="109">
+      <c r="H9" s="108">
         <v>1</v>
       </c>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="109" t="s">
         <v>466</v>
       </c>
-      <c r="J9" s="111" t="s">
+      <c r="J9" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="196" t="s">
+      <c r="K9" s="195" t="s">
         <v>472</v>
       </c>
-      <c r="L9" s="196"/>
+      <c r="L9" s="195"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="107">
+      <c r="A10" s="106">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="206" t="s">
+      <c r="B10" s="205" t="s">
         <v>459</v>
       </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108" t="s">
+      <c r="C10" s="107"/>
+      <c r="D10" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108" t="s">
+      <c r="E10" s="107"/>
+      <c r="F10" s="107" t="s">
         <v>260</v>
       </c>
-      <c r="G10" s="108">
+      <c r="G10" s="107">
         <v>0.1</v>
       </c>
-      <c r="H10" s="109">
+      <c r="H10" s="108">
         <v>1</v>
       </c>
-      <c r="I10" s="110" t="s">
+      <c r="I10" s="109" t="s">
         <v>467</v>
       </c>
-      <c r="J10" s="111" t="s">
+      <c r="J10" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="196" t="s">
+      <c r="K10" s="195" t="s">
         <v>431</v>
       </c>
-      <c r="L10" s="196"/>
+      <c r="L10" s="195"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107">
+      <c r="A11" s="106">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="206" t="s">
+      <c r="B11" s="205" t="s">
         <v>460</v>
       </c>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108" t="s">
+      <c r="C11" s="107"/>
+      <c r="D11" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108" t="s">
+      <c r="E11" s="107"/>
+      <c r="F11" s="107" t="s">
         <v>260</v>
       </c>
-      <c r="G11" s="108">
+      <c r="G11" s="107">
         <v>0.2</v>
       </c>
-      <c r="H11" s="109">
+      <c r="H11" s="108">
         <v>1</v>
       </c>
-      <c r="I11" s="110" t="s">
+      <c r="I11" s="109" t="s">
         <v>468</v>
       </c>
-      <c r="J11" s="111" t="s">
+      <c r="J11" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="196" t="s">
+      <c r="K11" s="195" t="s">
         <v>432</v>
       </c>
-      <c r="L11" s="196"/>
+      <c r="L11" s="195"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107">
+      <c r="A12" s="106">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="206" t="s">
+      <c r="B12" s="205" t="s">
         <v>461</v>
       </c>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108" t="s">
+      <c r="C12" s="107"/>
+      <c r="D12" s="107" t="s">
         <v>262</v>
       </c>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108" t="s">
+      <c r="E12" s="107"/>
+      <c r="F12" s="107" t="s">
         <v>259</v>
       </c>
-      <c r="G12" s="108">
+      <c r="G12" s="107">
         <v>10</v>
       </c>
-      <c r="H12" s="109">
+      <c r="H12" s="108">
         <v>1</v>
       </c>
-      <c r="I12" s="110" t="s">
+      <c r="I12" s="109" t="s">
         <v>469</v>
       </c>
-      <c r="J12" s="111" t="s">
+      <c r="J12" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="196" t="s">
+      <c r="K12" s="195" t="s">
         <v>473</v>
       </c>
-      <c r="L12" s="196"/>
+      <c r="L12" s="195"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107">
+      <c r="A13" s="106">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="206" t="s">
+      <c r="B13" s="205" t="s">
         <v>462</v>
       </c>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108" t="s">
+      <c r="C13" s="107"/>
+      <c r="D13" s="107" t="s">
         <v>262</v>
       </c>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108" t="s">
+      <c r="E13" s="107"/>
+      <c r="F13" s="107" t="s">
         <v>259</v>
       </c>
-      <c r="G13" s="108">
+      <c r="G13" s="107">
         <v>20</v>
       </c>
-      <c r="H13" s="109">
+      <c r="H13" s="108">
         <v>1</v>
       </c>
-      <c r="I13" s="110" t="s">
+      <c r="I13" s="109" t="s">
         <v>470</v>
       </c>
-      <c r="J13" s="111" t="s">
+      <c r="J13" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="196" t="s">
+      <c r="K13" s="195" t="s">
         <v>474</v>
       </c>
-      <c r="L13" s="196"/>
+      <c r="L13" s="195"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107">
+      <c r="A14" s="106">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="206" t="s">
+      <c r="B14" s="205" t="s">
         <v>463</v>
       </c>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108" t="s">
+      <c r="C14" s="107"/>
+      <c r="D14" s="107" t="s">
         <v>262</v>
       </c>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108" t="s">
+      <c r="E14" s="107"/>
+      <c r="F14" s="107" t="s">
         <v>260</v>
       </c>
-      <c r="G14" s="108">
+      <c r="G14" s="107">
         <v>10</v>
       </c>
-      <c r="H14" s="109">
+      <c r="H14" s="108">
         <v>1</v>
       </c>
-      <c r="I14" s="110" t="s">
+      <c r="I14" s="109" t="s">
         <v>465</v>
       </c>
-      <c r="J14" s="111" t="s">
+      <c r="J14" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="196" t="s">
+      <c r="K14" s="195" t="s">
         <v>471</v>
       </c>
-      <c r="L14" s="196"/>
+      <c r="L14" s="195"/>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="107">
+      <c r="A15" s="106">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="206" t="s">
+      <c r="B15" s="205" t="s">
         <v>464</v>
       </c>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108" t="s">
+      <c r="C15" s="107"/>
+      <c r="D15" s="107" t="s">
         <v>262</v>
       </c>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108" t="s">
+      <c r="E15" s="107"/>
+      <c r="F15" s="107" t="s">
         <v>260</v>
       </c>
-      <c r="G15" s="108">
+      <c r="G15" s="107">
         <v>20</v>
       </c>
-      <c r="H15" s="109">
+      <c r="H15" s="108">
         <v>1</v>
       </c>
-      <c r="I15" s="110" t="s">
+      <c r="I15" s="109" t="s">
         <v>466</v>
       </c>
-      <c r="J15" s="111" t="s">
+      <c r="J15" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="196" t="s">
+      <c r="K15" s="195" t="s">
         <v>472</v>
       </c>
-      <c r="L15" s="196"/>
+      <c r="L15" s="195"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107">
+      <c r="A16" s="106">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -6457,23 +6619,23 @@
         <v>190</v>
       </c>
       <c r="C16" s="76"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="109">
+      <c r="D16" s="107"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="108">
         <v>2</v>
       </c>
-      <c r="I16" s="110"/>
-      <c r="J16" s="111" t="s">
+      <c r="I16" s="109"/>
+      <c r="J16" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="193" t="s">
+      <c r="K16" s="192" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="107">
+      <c r="A17" s="106">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -6481,23 +6643,23 @@
         <v>175</v>
       </c>
       <c r="C17" s="76"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="109">
+      <c r="D17" s="107"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="108">
         <v>2</v>
       </c>
-      <c r="I17" s="110"/>
-      <c r="J17" s="111" t="s">
+      <c r="I17" s="109"/>
+      <c r="J17" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="193" t="s">
+      <c r="K17" s="192" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107">
+      <c r="A18" s="106">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -6505,23 +6667,23 @@
         <v>191</v>
       </c>
       <c r="C18" s="76"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="109">
+      <c r="D18" s="107"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="108">
         <v>2</v>
       </c>
-      <c r="I18" s="110"/>
-      <c r="J18" s="111" t="s">
+      <c r="I18" s="109"/>
+      <c r="J18" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="193" t="s">
+      <c r="K18" s="192" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107">
+      <c r="A19" s="106">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -6529,172 +6691,172 @@
         <v>192</v>
       </c>
       <c r="C19" s="76"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="109">
+      <c r="D19" s="107"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="108">
         <v>2</v>
       </c>
-      <c r="I19" s="110"/>
-      <c r="J19" s="111" t="s">
+      <c r="I19" s="109"/>
+      <c r="J19" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="193" t="s">
+      <c r="K19" s="192" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="107">
+      <c r="A20" s="106">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B20" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="109">
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="108">
         <v>2</v>
       </c>
-      <c r="I20" s="110"/>
-      <c r="J20" s="111" t="s">
+      <c r="I20" s="109"/>
+      <c r="J20" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="193" t="s">
+      <c r="K20" s="192" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="107">
+      <c r="A21" s="106">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B21" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="109">
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="108">
         <v>2</v>
       </c>
-      <c r="I21" s="110"/>
-      <c r="J21" s="111" t="s">
+      <c r="I21" s="109"/>
+      <c r="J21" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="193" t="s">
+      <c r="K21" s="192" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="107">
+      <c r="A22" s="106">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="197" t="s">
+      <c r="B22" s="196" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="198"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="198"/>
-      <c r="F22" s="198"/>
-      <c r="G22" s="198"/>
-      <c r="H22" s="199">
+      <c r="C22" s="197"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="197"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="197"/>
+      <c r="H22" s="198">
         <v>2</v>
       </c>
-      <c r="I22" s="200"/>
-      <c r="J22" s="201" t="s">
+      <c r="I22" s="199"/>
+      <c r="J22" s="200" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="193" t="s">
+      <c r="K22" s="192" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K23" s="193"/>
+      <c r="K23" s="192"/>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="285" t="s">
+      <c r="A24" s="286" t="s">
         <v>216</v>
       </c>
-      <c r="B24" s="286"/>
-      <c r="C24" s="286"/>
-      <c r="D24" s="286"/>
-      <c r="E24" s="286"/>
-      <c r="F24" s="286"/>
-      <c r="G24" s="286"/>
-      <c r="H24" s="286"/>
-      <c r="I24" s="286"/>
-      <c r="J24" s="286"/>
-      <c r="K24" s="286"/>
-      <c r="L24" s="286"/>
-      <c r="M24" s="286"/>
-      <c r="N24" s="286"/>
-      <c r="O24" s="286"/>
-      <c r="P24" s="286"/>
-      <c r="Q24" s="287"/>
+      <c r="B24" s="287"/>
+      <c r="C24" s="287"/>
+      <c r="D24" s="287"/>
+      <c r="E24" s="287"/>
+      <c r="F24" s="287"/>
+      <c r="G24" s="287"/>
+      <c r="H24" s="287"/>
+      <c r="I24" s="287"/>
+      <c r="J24" s="287"/>
+      <c r="K24" s="287"/>
+      <c r="L24" s="287"/>
+      <c r="M24" s="287"/>
+      <c r="N24" s="287"/>
+      <c r="O24" s="287"/>
+      <c r="P24" s="287"/>
+      <c r="Q24" s="288"/>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="136" t="s">
+      <c r="A25" s="135" t="s">
         <v>254</v>
       </c>
-      <c r="B25" s="184" t="s">
+      <c r="B25" s="183" t="s">
         <v>337</v>
       </c>
-      <c r="C25" s="186" t="s">
+      <c r="C25" s="185" t="s">
         <v>305</v>
       </c>
-      <c r="D25" s="186" t="s">
+      <c r="D25" s="185" t="s">
         <v>339</v>
       </c>
-      <c r="E25" s="186" t="s">
+      <c r="E25" s="185" t="s">
         <v>241</v>
       </c>
-      <c r="F25" s="186" t="s">
+      <c r="F25" s="185" t="s">
         <v>354</v>
       </c>
-      <c r="G25" s="186" t="s">
+      <c r="G25" s="185" t="s">
         <v>401</v>
       </c>
-      <c r="H25" s="186" t="s">
+      <c r="H25" s="185" t="s">
         <v>241</v>
       </c>
-      <c r="I25" s="186" t="s">
+      <c r="I25" s="185" t="s">
         <v>401</v>
       </c>
-      <c r="J25" s="186" t="s">
+      <c r="J25" s="185" t="s">
         <v>412</v>
       </c>
-      <c r="K25" s="186" t="s">
+      <c r="K25" s="185" t="s">
         <v>401</v>
       </c>
-      <c r="L25" s="122" t="s">
+      <c r="L25" s="121" t="s">
         <v>243</v>
       </c>
-      <c r="M25" s="122" t="s">
+      <c r="M25" s="121" t="s">
         <v>243</v>
       </c>
-      <c r="N25" s="122" t="s">
+      <c r="N25" s="121" t="s">
         <v>243</v>
       </c>
-      <c r="O25" s="186" t="s">
+      <c r="O25" s="185" t="s">
         <v>249</v>
       </c>
-      <c r="P25" s="186" t="s">
+      <c r="P25" s="185" t="s">
         <v>249</v>
       </c>
-      <c r="Q25" s="185" t="s">
+      <c r="Q25" s="184" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="144"/>
+      <c r="A26" s="143"/>
       <c r="B26" s="95" t="s">
         <v>20</v>
       </c>
@@ -6740,113 +6902,113 @@
       <c r="P26" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="Q26" s="117" t="s">
+      <c r="Q26" s="116" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="202"/>
-      <c r="B27" s="203" t="s">
+      <c r="A27" s="201"/>
+      <c r="B27" s="202" t="s">
         <v>404</v>
       </c>
-      <c r="C27" s="203"/>
-      <c r="D27" s="203"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152" t="s">
+      <c r="C27" s="202"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151" t="s">
         <v>403</v>
       </c>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152" t="s">
+      <c r="H27" s="151"/>
+      <c r="I27" s="151" t="s">
         <v>406</v>
       </c>
-      <c r="J27" s="152"/>
-      <c r="K27" s="152" t="s">
+      <c r="J27" s="151"/>
+      <c r="K27" s="151" t="s">
         <v>452</v>
       </c>
-      <c r="L27" s="152">
+      <c r="L27" s="151">
         <v>100</v>
       </c>
-      <c r="M27" s="152">
+      <c r="M27" s="151">
         <v>0</v>
       </c>
-      <c r="N27" s="152"/>
-      <c r="O27" s="152">
+      <c r="N27" s="151"/>
+      <c r="O27" s="151">
         <v>4</v>
       </c>
-      <c r="P27" s="152">
+      <c r="P27" s="151">
         <v>10</v>
       </c>
-      <c r="Q27" s="153">
+      <c r="Q27" s="152">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="282" t="s">
+      <c r="A29" s="283" t="s">
         <v>253</v>
       </c>
-      <c r="B29" s="283"/>
-      <c r="C29" s="283"/>
-      <c r="D29" s="283"/>
-      <c r="E29" s="283"/>
-      <c r="F29" s="283"/>
-      <c r="G29" s="283"/>
-      <c r="H29" s="284"/>
+      <c r="B29" s="284"/>
+      <c r="C29" s="284"/>
+      <c r="D29" s="284"/>
+      <c r="E29" s="284"/>
+      <c r="F29" s="284"/>
+      <c r="G29" s="284"/>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="273" t="s">
+      <c r="A30" s="274" t="s">
         <v>334</v>
       </c>
-      <c r="B30" s="274"/>
-      <c r="C30" s="274"/>
-      <c r="D30" s="274"/>
-      <c r="E30" s="274"/>
-      <c r="F30" s="274"/>
-      <c r="G30" s="274"/>
-      <c r="H30" s="275"/>
+      <c r="B30" s="275"/>
+      <c r="C30" s="275"/>
+      <c r="D30" s="275"/>
+      <c r="E30" s="275"/>
+      <c r="F30" s="275"/>
+      <c r="G30" s="275"/>
+      <c r="H30" s="276"/>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="276"/>
-      <c r="B31" s="277"/>
-      <c r="C31" s="277"/>
-      <c r="D31" s="277"/>
-      <c r="E31" s="277"/>
-      <c r="F31" s="277"/>
-      <c r="G31" s="277"/>
-      <c r="H31" s="278"/>
+      <c r="A31" s="277"/>
+      <c r="B31" s="278"/>
+      <c r="C31" s="278"/>
+      <c r="D31" s="278"/>
+      <c r="E31" s="278"/>
+      <c r="F31" s="278"/>
+      <c r="G31" s="278"/>
+      <c r="H31" s="279"/>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="276"/>
-      <c r="B32" s="277"/>
-      <c r="C32" s="277"/>
-      <c r="D32" s="277"/>
-      <c r="E32" s="277"/>
-      <c r="F32" s="277"/>
-      <c r="G32" s="277"/>
-      <c r="H32" s="278"/>
+      <c r="A32" s="277"/>
+      <c r="B32" s="278"/>
+      <c r="C32" s="278"/>
+      <c r="D32" s="278"/>
+      <c r="E32" s="278"/>
+      <c r="F32" s="278"/>
+      <c r="G32" s="278"/>
+      <c r="H32" s="279"/>
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="279"/>
-      <c r="B33" s="280"/>
-      <c r="C33" s="280"/>
-      <c r="D33" s="280"/>
-      <c r="E33" s="280"/>
-      <c r="F33" s="280"/>
-      <c r="G33" s="280"/>
-      <c r="H33" s="281"/>
+      <c r="A33" s="280"/>
+      <c r="B33" s="281"/>
+      <c r="C33" s="281"/>
+      <c r="D33" s="281"/>
+      <c r="E33" s="281"/>
+      <c r="F33" s="281"/>
+      <c r="G33" s="281"/>
+      <c r="H33" s="282"/>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="261" t="s">
+      <c r="A35" s="262" t="s">
         <v>280</v>
       </c>
-      <c r="B35" s="262"/>
-      <c r="C35" s="262"/>
-      <c r="D35" s="262"/>
-      <c r="E35" s="262"/>
-      <c r="F35" s="262"/>
-      <c r="G35" s="263"/>
+      <c r="B35" s="263"/>
+      <c r="C35" s="263"/>
+      <c r="D35" s="263"/>
+      <c r="E35" s="263"/>
+      <c r="F35" s="263"/>
+      <c r="G35" s="264"/>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="77" t="s">
@@ -6858,12 +7020,12 @@
       <c r="C36" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="D36" s="260" t="s">
+      <c r="D36" s="261" t="s">
         <v>283</v>
       </c>
-      <c r="E36" s="260"/>
-      <c r="F36" s="260"/>
-      <c r="G36" s="260"/>
+      <c r="E36" s="261"/>
+      <c r="F36" s="261"/>
+      <c r="G36" s="261"/>
     </row>
     <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -6875,7 +7037,7 @@
       <c r="C37" t="s">
         <v>410</v>
       </c>
-      <c r="D37" s="169" t="s">
+      <c r="D37" s="168" t="s">
         <v>341</v>
       </c>
       <c r="E37"/>
@@ -6895,7 +7057,7 @@
       <c r="C38" t="s">
         <v>410</v>
       </c>
-      <c r="D38" s="181" t="s">
+      <c r="D38" s="180" t="s">
         <v>307</v>
       </c>
       <c r="E38"/>
@@ -6915,7 +7077,7 @@
       <c r="C39" t="s">
         <v>410</v>
       </c>
-      <c r="D39" s="169" t="s">
+      <c r="D39" s="168" t="s">
         <v>308</v>
       </c>
       <c r="E39"/>
@@ -6935,7 +7097,7 @@
       <c r="C40" t="s">
         <v>410</v>
       </c>
-      <c r="D40" s="169" t="s">
+      <c r="D40" s="168" t="s">
         <v>328</v>
       </c>
       <c r="E40"/>
@@ -6955,7 +7117,7 @@
       <c r="C41" t="s">
         <v>410</v>
       </c>
-      <c r="D41" s="172" t="s">
+      <c r="D41" s="171" t="s">
         <v>309</v>
       </c>
       <c r="E41"/>
@@ -6975,7 +7137,7 @@
       <c r="C42" t="s">
         <v>410</v>
       </c>
-      <c r="D42" s="181" t="s">
+      <c r="D42" s="180" t="s">
         <v>376</v>
       </c>
       <c r="E42"/>
@@ -6995,7 +7157,7 @@
       <c r="C43" t="s">
         <v>410</v>
       </c>
-      <c r="D43" s="181" t="s">
+      <c r="D43" s="180" t="s">
         <v>357</v>
       </c>
       <c r="E43"/>
@@ -7015,7 +7177,7 @@
       <c r="C44" t="s">
         <v>410</v>
       </c>
-      <c r="D44" s="181" t="s">
+      <c r="D44" s="180" t="s">
         <v>377</v>
       </c>
       <c r="E44"/>
@@ -7035,7 +7197,7 @@
       <c r="C45" t="s">
         <v>410</v>
       </c>
-      <c r="D45" s="181" t="s">
+      <c r="D45" s="180" t="s">
         <v>379</v>
       </c>
       <c r="E45"/>
@@ -7055,7 +7217,7 @@
       <c r="C46" t="s">
         <v>410</v>
       </c>
-      <c r="D46" s="181" t="s">
+      <c r="D46" s="180" t="s">
         <v>378</v>
       </c>
       <c r="E46"/>
@@ -7075,7 +7237,7 @@
       <c r="C47" t="s">
         <v>410</v>
       </c>
-      <c r="D47" s="181" t="s">
+      <c r="D47" s="180" t="s">
         <v>380</v>
       </c>
       <c r="E47"/>
@@ -7095,7 +7257,7 @@
       <c r="C48" t="s">
         <v>410</v>
       </c>
-      <c r="D48" s="181" t="s">
+      <c r="D48" s="180" t="s">
         <v>383</v>
       </c>
     </row>
@@ -7109,7 +7271,7 @@
       <c r="C49" t="s">
         <v>410</v>
       </c>
-      <c r="D49" s="169" t="s">
+      <c r="D49" s="168" t="s">
         <v>411</v>
       </c>
     </row>
@@ -7123,7 +7285,7 @@
       <c r="C50" t="s">
         <v>410</v>
       </c>
-      <c r="D50" s="181" t="s">
+      <c r="D50" s="180" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7137,7 +7299,7 @@
       <c r="C51" t="s">
         <v>410</v>
       </c>
-      <c r="D51" s="181" t="s">
+      <c r="D51" s="180" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7151,7 +7313,7 @@
       <c r="C52" t="s">
         <v>410</v>
       </c>
-      <c r="D52" s="181" t="s">
+      <c r="D52" s="180" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7165,7 +7327,7 @@
       <c r="C53" t="s">
         <v>410</v>
       </c>
-      <c r="D53" s="181" t="s">
+      <c r="D53" s="180" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7179,7 +7341,7 @@
       <c r="C54" t="s">
         <v>410</v>
       </c>
-      <c r="D54" s="181" t="s">
+      <c r="D54" s="180" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7193,7 +7355,7 @@
       <c r="C55" t="s">
         <v>410</v>
       </c>
-      <c r="D55" s="169" t="s">
+      <c r="D55" s="168" t="s">
         <v>387</v>
       </c>
     </row>
@@ -7207,7 +7369,7 @@
       <c r="C56" t="s">
         <v>410</v>
       </c>
-      <c r="D56" s="169" t="s">
+      <c r="D56" s="168" t="s">
         <v>388</v>
       </c>
     </row>
@@ -7221,7 +7383,7 @@
       <c r="C57" t="s">
         <v>410</v>
       </c>
-      <c r="D57" s="169" t="s">
+      <c r="D57" s="168" t="s">
         <v>389</v>
       </c>
     </row>
@@ -7235,7 +7397,7 @@
       <c r="C58" t="s">
         <v>410</v>
       </c>
-      <c r="D58" s="169" t="s">
+      <c r="D58" s="168" t="s">
         <v>390</v>
       </c>
     </row>
@@ -7249,7 +7411,7 @@
       <c r="C59" t="s">
         <v>410</v>
       </c>
-      <c r="D59" s="169" t="s">
+      <c r="D59" s="168" t="s">
         <v>391</v>
       </c>
     </row>
@@ -7263,7 +7425,7 @@
       <c r="C60" t="s">
         <v>410</v>
       </c>
-      <c r="D60" s="169" t="s">
+      <c r="D60" s="168" t="s">
         <v>392</v>
       </c>
     </row>
@@ -7277,7 +7439,7 @@
       <c r="C61" t="s">
         <v>410</v>
       </c>
-      <c r="D61" s="169" t="s">
+      <c r="D61" s="168" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7291,7 +7453,7 @@
       <c r="C62" t="s">
         <v>410</v>
       </c>
-      <c r="D62" s="169" t="s">
+      <c r="D62" s="168" t="s">
         <v>394</v>
       </c>
     </row>
@@ -7305,7 +7467,7 @@
       <c r="C63" t="s">
         <v>410</v>
       </c>
-      <c r="D63" s="169" t="s">
+      <c r="D63" s="168" t="s">
         <v>395</v>
       </c>
     </row>
@@ -7319,7 +7481,7 @@
       <c r="C64" t="s">
         <v>410</v>
       </c>
-      <c r="D64" s="169" t="s">
+      <c r="D64" s="168" t="s">
         <v>396</v>
       </c>
     </row>
@@ -7333,7 +7495,7 @@
       <c r="C65" t="s">
         <v>410</v>
       </c>
-      <c r="D65" s="169" t="s">
+      <c r="D65" s="168" t="s">
         <v>397</v>
       </c>
     </row>
@@ -7347,7 +7509,7 @@
       <c r="C66" t="s">
         <v>410</v>
       </c>
-      <c r="D66" s="169" t="s">
+      <c r="D66" s="168" t="s">
         <v>398</v>
       </c>
     </row>
@@ -7361,7 +7523,7 @@
       <c r="C67" t="s">
         <v>410</v>
       </c>
-      <c r="D67" s="169" t="s">
+      <c r="D67" s="168" t="s">
         <v>399</v>
       </c>
     </row>
@@ -7375,7 +7537,7 @@
       <c r="C68" t="s">
         <v>410</v>
       </c>
-      <c r="D68" s="169" t="s">
+      <c r="D68" s="168" t="s">
         <v>400</v>
       </c>
     </row>
@@ -7474,10 +7636,10 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7495,63 +7657,63 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="297" t="s">
+    <row r="1" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="298" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="298"/>
-      <c r="C1" s="298"/>
-      <c r="D1" s="298"/>
-      <c r="E1" s="298"/>
-      <c r="F1" s="298"/>
-      <c r="G1" s="298"/>
-      <c r="H1" s="298"/>
-      <c r="I1" s="298"/>
-      <c r="J1" s="299"/>
-    </row>
-    <row r="2" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="285" t="s">
+      <c r="B1" s="299"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="299"/>
+      <c r="I1" s="299"/>
+      <c r="J1" s="300"/>
+    </row>
+    <row r="2" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="286" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="287"/>
-    </row>
-    <row r="3" spans="1:10" s="112" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287"/>
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="288"/>
+    </row>
+    <row r="3" spans="1:10" s="111" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="129" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="129" t="s">
         <v>294</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="126" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="126" t="s">
         <v>244</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="124" t="s">
         <v>243</v>
       </c>
-      <c r="G3" s="131" t="s">
+      <c r="G3" s="130" t="s">
         <v>295</v>
       </c>
-      <c r="H3" s="165" t="s">
+      <c r="H3" s="164" t="s">
         <v>276</v>
       </c>
-      <c r="I3" s="127"/>
-      <c r="J3" s="129"/>
-    </row>
-    <row r="4" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I3" s="126"/>
+      <c r="J3" s="128"/>
+    </row>
+    <row r="4" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="97" t="s">
         <v>98</v>
       </c>
@@ -7573,13 +7735,13 @@
       <c r="G4" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="H4" s="166" t="s">
+      <c r="H4" s="165" t="s">
         <v>277</v>
       </c>
       <c r="I4" s="100"/>
       <c r="J4" s="101"/>
     </row>
-    <row r="5" spans="1:10" s="112" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="111" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="72" t="s">
         <v>173</v>
       </c>
@@ -7592,44 +7754,44 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="191" t="s">
+      <c r="G5" s="190" t="s">
         <v>278</v>
       </c>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-    </row>
-    <row r="6" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="285" t="s">
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+    </row>
+    <row r="6" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="286" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="286"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286"/>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286"/>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="287"/>
-    </row>
-    <row r="7" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="123" t="s">
+      <c r="B6" s="287"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="287"/>
+      <c r="E6" s="287"/>
+      <c r="F6" s="287"/>
+      <c r="G6" s="287"/>
+      <c r="H6" s="287"/>
+      <c r="I6" s="287"/>
+      <c r="J6" s="288"/>
+    </row>
+    <row r="7" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="122" t="s">
         <v>243</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="130" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="129"/>
-    </row>
-    <row r="8" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="94" t="s">
         <v>151</v>
       </c>
@@ -7645,7 +7807,7 @@
       <c r="I8" s="103"/>
       <c r="J8" s="104"/>
     </row>
-    <row r="9" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="67" t="s">
         <v>0</v>
       </c>
@@ -7661,47 +7823,47 @@
       <c r="I9" s="70"/>
       <c r="J9" s="71"/>
     </row>
-    <row r="10" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="285" t="s">
+    <row r="10" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="286" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="286"/>
-      <c r="C10" s="286"/>
-      <c r="D10" s="286"/>
-      <c r="E10" s="286"/>
-      <c r="F10" s="286"/>
-      <c r="G10" s="286"/>
-      <c r="H10" s="286"/>
-      <c r="I10" s="286"/>
-      <c r="J10" s="287"/>
-    </row>
-    <row r="11" spans="1:10" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="126"/>
-      <c r="B11" s="127" t="s">
+      <c r="B10" s="287"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="287"/>
+      <c r="I10" s="287"/>
+      <c r="J10" s="288"/>
+    </row>
+    <row r="11" spans="1:10" s="111" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="125"/>
+      <c r="B11" s="126" t="s">
         <v>250</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="126" t="s">
         <v>231</v>
       </c>
-      <c r="D11" s="168" t="s">
+      <c r="D11" s="167" t="s">
         <v>304</v>
       </c>
-      <c r="E11" s="127" t="s">
+      <c r="E11" s="126" t="s">
         <v>233</v>
       </c>
-      <c r="F11" s="132" t="s">
+      <c r="F11" s="131" t="s">
         <v>298</v>
       </c>
-      <c r="G11" s="131" t="s">
+      <c r="G11" s="130" t="s">
         <v>297</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="H11" s="130" t="s">
         <v>299</v>
       </c>
-      <c r="I11" s="127"/>
-      <c r="J11" s="129"/>
-    </row>
-    <row r="12" spans="1:10" s="112" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="126"/>
+      <c r="J11" s="128"/>
+    </row>
+    <row r="12" spans="1:10" s="111" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="94" t="s">
         <v>1</v>
       </c>
@@ -7720,16 +7882,16 @@
       <c r="F12" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="132" t="s">
         <v>236</v>
       </c>
       <c r="H12" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="I12" s="118"/>
-      <c r="J12" s="119"/>
-    </row>
-    <row r="13" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+    </row>
+    <row r="13" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="105" t="s">
         <v>16</v>
       </c>
@@ -7757,7 +7919,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="105">
         <v>2</v>
       </c>
@@ -7785,7 +7947,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="105">
         <v>3</v>
       </c>
@@ -7813,7 +7975,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="105">
         <v>4</v>
       </c>
@@ -7827,458 +7989,585 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="105">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="105">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="105">
-        <v>7</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" s="112" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="106">
-        <v>8</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" s="112" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="285" t="s">
+    <row r="17" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="343" t="s">
+        <v>489</v>
+      </c>
+      <c r="B17" s="344"/>
+      <c r="C17" s="344"/>
+      <c r="D17" s="344"/>
+      <c r="E17" s="344"/>
+      <c r="F17" s="344"/>
+      <c r="G17" s="344"/>
+      <c r="H17" s="344"/>
+      <c r="I17" s="344"/>
+      <c r="J17" s="345"/>
+    </row>
+    <row r="18" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="346"/>
+      <c r="B18" s="347" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="347" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="347" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="348" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="349" t="s">
+        <v>297</v>
+      </c>
+      <c r="G18" s="349"/>
+      <c r="H18" s="350"/>
+      <c r="I18" s="350"/>
+      <c r="J18" s="351"/>
+    </row>
+    <row r="19" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="352" t="s">
+        <v>490</v>
+      </c>
+      <c r="B19" s="353" t="s">
+        <v>491</v>
+      </c>
+      <c r="C19" s="354" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="354" t="s">
+        <v>492</v>
+      </c>
+      <c r="E19" s="354" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" s="355" t="s">
+        <v>236</v>
+      </c>
+      <c r="G19" s="353"/>
+      <c r="H19" s="356"/>
+      <c r="I19" s="356"/>
+      <c r="J19" s="357"/>
+    </row>
+    <row r="20" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="358"/>
+      <c r="B20" s="359"/>
+      <c r="C20" s="359"/>
+      <c r="D20" s="359"/>
+      <c r="E20" s="359"/>
+      <c r="F20" s="359"/>
+      <c r="G20" s="359"/>
+      <c r="H20" s="359"/>
+      <c r="I20" s="359"/>
+      <c r="J20" s="360"/>
+    </row>
+    <row r="21" spans="1:10" s="111" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="358"/>
+      <c r="B21" s="359"/>
+      <c r="C21" s="359"/>
+      <c r="D21" s="359"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
+      <c r="H21" s="359"/>
+      <c r="I21" s="359"/>
+      <c r="J21" s="360"/>
+    </row>
+    <row r="22" spans="1:10" s="111" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="286" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="286"/>
-      <c r="C21" s="286"/>
-      <c r="D21" s="286"/>
-      <c r="E21" s="286"/>
-      <c r="F21" s="286"/>
-      <c r="G21" s="286"/>
-      <c r="H21" s="286"/>
-      <c r="I21" s="286"/>
-      <c r="J21" s="287"/>
-    </row>
-    <row r="22" spans="1:10" s="112" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="130" t="s">
+      <c r="B22" s="287"/>
+      <c r="C22" s="287"/>
+      <c r="D22" s="287"/>
+      <c r="E22" s="287"/>
+      <c r="F22" s="287"/>
+      <c r="G22" s="287"/>
+      <c r="H22" s="287"/>
+      <c r="I22" s="287"/>
+      <c r="J22" s="288"/>
+    </row>
+    <row r="23" spans="1:10" s="111" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="129" t="s">
         <v>300</v>
       </c>
-      <c r="B22" s="131" t="s">
+      <c r="B23" s="130" t="s">
         <v>301</v>
       </c>
-      <c r="C22" s="131" t="s">
+      <c r="C23" s="130" t="s">
         <v>245</v>
       </c>
-      <c r="D22" s="131" t="s">
+      <c r="D23" s="130" t="s">
         <v>302</v>
       </c>
-      <c r="E22" s="127"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="129"/>
-    </row>
-    <row r="23" spans="1:10" s="112" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94" t="s">
+      <c r="E23" s="126"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="128"/>
+    </row>
+    <row r="24" spans="1:10" s="111" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="95" t="s">
+      <c r="B24" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="C23" s="95" t="s">
+      <c r="C24" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="D23" s="98" t="s">
+      <c r="D24" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="E23" s="113"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="104"/>
-    </row>
-    <row r="24" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29">
+      <c r="E24" s="112"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="104"/>
+    </row>
+    <row r="25" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29">
         <v>3</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="152" t="s">
+      <c r="D25" s="151" t="s">
         <v>193</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="285" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="343" t="s">
+        <v>493</v>
+      </c>
+      <c r="B26" s="344"/>
+      <c r="C26" s="344"/>
+      <c r="D26" s="344"/>
+      <c r="E26" s="344"/>
+      <c r="F26" s="344"/>
+      <c r="G26" s="344"/>
+      <c r="H26" s="344"/>
+      <c r="I26" s="344"/>
+      <c r="J26" s="345"/>
+    </row>
+    <row r="27" spans="1:10" s="111" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="361" t="s">
+        <v>494</v>
+      </c>
+      <c r="B27" s="362" t="s">
+        <v>494</v>
+      </c>
+      <c r="C27" s="363" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" s="363" t="s">
+        <v>244</v>
+      </c>
+      <c r="E27" s="364" t="s">
+        <v>243</v>
+      </c>
+      <c r="F27" s="365" t="s">
+        <v>495</v>
+      </c>
+      <c r="G27" s="364" t="s">
+        <v>243</v>
+      </c>
+      <c r="H27" s="366"/>
+      <c r="I27" s="366"/>
+      <c r="J27" s="367"/>
+    </row>
+    <row r="28" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="368" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="353" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="369" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="369" t="s">
+        <v>230</v>
+      </c>
+      <c r="E28" s="369" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="369" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="353" t="s">
+        <v>207</v>
+      </c>
+      <c r="H28" s="370"/>
+      <c r="I28" s="370"/>
+      <c r="J28" s="371"/>
+    </row>
+    <row r="29" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="372"/>
+      <c r="B29" s="373"/>
+      <c r="C29" s="374"/>
+      <c r="D29" s="374"/>
+      <c r="E29" s="374"/>
+      <c r="F29" s="374"/>
+      <c r="G29" s="374"/>
+      <c r="H29" s="374"/>
+      <c r="I29" s="374"/>
+      <c r="J29" s="375"/>
+    </row>
+    <row r="30" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="286" t="s">
         <v>153</v>
       </c>
-      <c r="B25" s="286"/>
-      <c r="C25" s="286"/>
-      <c r="D25" s="286"/>
-      <c r="E25" s="286"/>
-      <c r="F25" s="286"/>
-      <c r="G25" s="286"/>
-      <c r="H25" s="286"/>
-      <c r="I25" s="286"/>
-      <c r="J25" s="287"/>
-    </row>
-    <row r="26" spans="1:10" s="112" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="130" t="s">
+      <c r="B30" s="287"/>
+      <c r="C30" s="287"/>
+      <c r="D30" s="287"/>
+      <c r="E30" s="287"/>
+      <c r="F30" s="287"/>
+      <c r="G30" s="287"/>
+      <c r="H30" s="287"/>
+      <c r="I30" s="287"/>
+      <c r="J30" s="288"/>
+    </row>
+    <row r="31" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="B26" s="186" t="s">
+      <c r="B31" s="185" t="s">
         <v>339</v>
       </c>
-      <c r="C26" s="131" t="s">
+      <c r="C31" s="130" t="s">
         <v>303</v>
       </c>
-      <c r="D26" s="131" t="s">
+      <c r="D31" s="130" t="s">
         <v>240</v>
       </c>
-      <c r="E26" s="182" t="s">
+      <c r="E31" s="181" t="s">
         <v>339</v>
       </c>
-      <c r="F26" s="127"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="150"/>
-    </row>
-    <row r="27" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="147"/>
-      <c r="B27" s="146" t="s">
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="149"/>
+    </row>
+    <row r="32" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="146"/>
+      <c r="B32" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="146" t="s">
+      <c r="C32" s="145" t="s">
         <v>238</v>
       </c>
-      <c r="D27" s="95" t="s">
+      <c r="D32" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="95" t="s">
+      <c r="E32" s="95" t="s">
         <v>340</v>
       </c>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="151"/>
-    </row>
-    <row r="28" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="145"/>
-      <c r="B28" s="190" t="s">
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="150"/>
+    </row>
+    <row r="33" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="144"/>
+      <c r="B33" s="189" t="s">
         <v>424</v>
       </c>
-      <c r="C28" s="179"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="152" t="s">
+      <c r="C33" s="178"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="151" t="s">
         <v>425</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:10" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="288" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:10" s="111" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="289" t="s">
         <v>253</v>
       </c>
-      <c r="B30" s="289"/>
-      <c r="C30" s="289"/>
-      <c r="D30" s="289"/>
-      <c r="E30" s="289"/>
-      <c r="F30" s="289"/>
-      <c r="G30" s="289"/>
-      <c r="H30" s="290"/>
-    </row>
-    <row r="31" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="291" t="s">
+      <c r="B35" s="290"/>
+      <c r="C35" s="290"/>
+      <c r="D35" s="290"/>
+      <c r="E35" s="290"/>
+      <c r="F35" s="290"/>
+      <c r="G35" s="290"/>
+      <c r="H35" s="291"/>
+    </row>
+    <row r="36" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="292" t="s">
         <v>333</v>
       </c>
-      <c r="B31" s="292"/>
-      <c r="C31" s="292"/>
-      <c r="D31" s="292"/>
-      <c r="E31" s="292"/>
-      <c r="F31" s="292"/>
-      <c r="G31" s="292"/>
-      <c r="H31" s="293"/>
-    </row>
-    <row r="32" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="291"/>
-      <c r="B32" s="292"/>
-      <c r="C32" s="292"/>
-      <c r="D32" s="292"/>
-      <c r="E32" s="292"/>
-      <c r="F32" s="292"/>
-      <c r="G32" s="292"/>
-      <c r="H32" s="293"/>
-    </row>
-    <row r="33" spans="1:8" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="291"/>
-      <c r="B33" s="292"/>
-      <c r="C33" s="292"/>
-      <c r="D33" s="292"/>
-      <c r="E33" s="292"/>
-      <c r="F33" s="292"/>
-      <c r="G33" s="292"/>
-      <c r="H33" s="293"/>
-    </row>
-    <row r="34" spans="1:8" s="112" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="294"/>
-      <c r="B34" s="295"/>
-      <c r="C34" s="295"/>
-      <c r="D34" s="295"/>
-      <c r="E34" s="295"/>
-      <c r="F34" s="295"/>
-      <c r="G34" s="295"/>
-      <c r="H34" s="296"/>
-    </row>
-    <row r="35" spans="1:8" s="112" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:8" s="112" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="300" t="s">
+      <c r="B36" s="293"/>
+      <c r="C36" s="293"/>
+      <c r="D36" s="293"/>
+      <c r="E36" s="293"/>
+      <c r="F36" s="293"/>
+      <c r="G36" s="293"/>
+      <c r="H36" s="294"/>
+    </row>
+    <row r="37" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="292"/>
+      <c r="B37" s="293"/>
+      <c r="C37" s="293"/>
+      <c r="D37" s="293"/>
+      <c r="E37" s="293"/>
+      <c r="F37" s="293"/>
+      <c r="G37" s="293"/>
+      <c r="H37" s="294"/>
+    </row>
+    <row r="38" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="292"/>
+      <c r="B38" s="293"/>
+      <c r="C38" s="293"/>
+      <c r="D38" s="293"/>
+      <c r="E38" s="293"/>
+      <c r="F38" s="293"/>
+      <c r="G38" s="293"/>
+      <c r="H38" s="294"/>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="295"/>
+      <c r="B39" s="296"/>
+      <c r="C39" s="296"/>
+      <c r="D39" s="296"/>
+      <c r="E39" s="296"/>
+      <c r="F39" s="296"/>
+      <c r="G39" s="296"/>
+      <c r="H39" s="297"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="111"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+    </row>
+    <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="301" t="s">
         <v>280</v>
       </c>
-      <c r="B36" s="300"/>
-      <c r="C36" s="300"/>
-      <c r="D36" s="300"/>
-      <c r="E36" s="300"/>
-      <c r="F36" s="300"/>
-      <c r="G36" s="300"/>
-    </row>
-    <row r="37" spans="1:8" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="77" t="s">
+      <c r="B41" s="301"/>
+      <c r="C41" s="301"/>
+      <c r="D41" s="301"/>
+      <c r="E41" s="301"/>
+      <c r="F41" s="301"/>
+      <c r="G41" s="301"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B42" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="C37" s="77" t="s">
+      <c r="C42" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="D37" s="260" t="s">
+      <c r="D42" s="261" t="s">
         <v>283</v>
       </c>
-      <c r="E37" s="260"/>
-      <c r="F37" s="260"/>
-      <c r="G37" s="260"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="E42" s="261"/>
+      <c r="F42" s="261"/>
+      <c r="G42" s="261"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>284</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B43" t="s">
         <v>285</v>
-      </c>
-      <c r="C38" t="s">
-        <v>427</v>
-      </c>
-      <c r="D38" s="169" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>306</v>
-      </c>
-      <c r="B39" t="s">
-        <v>310</v>
-      </c>
-      <c r="C39" t="s">
-        <v>427</v>
-      </c>
-      <c r="D39" s="181" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>306</v>
-      </c>
-      <c r="B40" t="s">
-        <v>311</v>
-      </c>
-      <c r="C40" t="s">
-        <v>427</v>
-      </c>
-      <c r="D40" s="169" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>306</v>
-      </c>
-      <c r="B41" t="s">
-        <v>312</v>
-      </c>
-      <c r="C41" t="s">
-        <v>427</v>
-      </c>
-      <c r="D41" s="169" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>306</v>
-      </c>
-      <c r="B42" t="s">
-        <v>313</v>
-      </c>
-      <c r="C42" t="s">
-        <v>427</v>
-      </c>
-      <c r="D42" s="172" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>342</v>
-      </c>
-      <c r="B43" t="s">
-        <v>286</v>
       </c>
       <c r="C43" t="s">
         <v>427</v>
       </c>
-      <c r="D43" s="181" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="168" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="B44" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="C44" t="s">
         <v>427</v>
       </c>
-      <c r="D44" s="181" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="180" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="C45" t="s">
         <v>427</v>
       </c>
-      <c r="D45" s="181" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="168" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="B46" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="C46" t="s">
         <v>427</v>
       </c>
-      <c r="D46" s="181" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="168" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="B47" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="C47" t="s">
         <v>427</v>
       </c>
-      <c r="D47" s="181" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="171" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="B48" t="s">
-        <v>428</v>
+        <v>286</v>
       </c>
       <c r="C48" t="s">
         <v>427</v>
       </c>
-      <c r="D48" s="172" t="s">
+      <c r="D48" s="180" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>344</v>
+      </c>
+      <c r="B49" t="s">
+        <v>345</v>
+      </c>
+      <c r="C49" t="s">
+        <v>427</v>
+      </c>
+      <c r="D49" s="180" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>344</v>
+      </c>
+      <c r="B50" t="s">
+        <v>345</v>
+      </c>
+      <c r="C50" t="s">
+        <v>427</v>
+      </c>
+      <c r="D50" s="180" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>344</v>
+      </c>
+      <c r="B51" t="s">
+        <v>345</v>
+      </c>
+      <c r="C51" t="s">
+        <v>427</v>
+      </c>
+      <c r="D51" s="180" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>344</v>
+      </c>
+      <c r="B52" t="s">
+        <v>345</v>
+      </c>
+      <c r="C52" t="s">
+        <v>427</v>
+      </c>
+      <c r="D52" s="180" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" t="s">
+        <v>428</v>
+      </c>
+      <c r="C53" t="s">
+        <v>427</v>
+      </c>
+      <c r="D53" s="171" t="s">
         <v>429</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:H34"/>
-    <mergeCell ref="A25:J25"/>
+  <mergeCells count="12">
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H39"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8295,13 +8584,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8348,351 +8637,351 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="306" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
-      <c r="N1" s="318"/>
-      <c r="O1" s="318"/>
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
+      <c r="N1" s="306"/>
+      <c r="O1" s="306"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="306" t="s">
+      <c r="A2" s="317" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="307"/>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="308"/>
-      <c r="G2" s="319" t="s">
+      <c r="B2" s="318"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="319"/>
+      <c r="G2" s="307" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="319"/>
-      <c r="I2" s="319"/>
-      <c r="J2" s="319"/>
-      <c r="K2" s="319"/>
-      <c r="L2" s="319"/>
-      <c r="M2" s="302" t="s">
+      <c r="H2" s="307"/>
+      <c r="I2" s="307"/>
+      <c r="J2" s="307"/>
+      <c r="K2" s="307"/>
+      <c r="L2" s="307"/>
+      <c r="M2" s="313" t="s">
         <v>268</v>
       </c>
-      <c r="N2" s="302"/>
-      <c r="O2" s="302"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="313"/>
       <c r="P2" s="87"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="309" t="s">
+      <c r="A3" s="320" t="s">
         <v>476</v>
       </c>
-      <c r="B3" s="310"/>
-      <c r="C3" s="310"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="310"/>
-      <c r="F3" s="311"/>
-      <c r="G3" s="321" t="s">
+      <c r="B3" s="321"/>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="309" t="s">
         <v>274</v>
       </c>
-      <c r="H3" s="321"/>
-      <c r="I3" s="321"/>
-      <c r="J3" s="321"/>
-      <c r="K3" s="321"/>
-      <c r="L3" s="321"/>
-      <c r="M3" s="209" t="s">
+      <c r="H3" s="309"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="309"/>
+      <c r="K3" s="309"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="208" t="s">
         <v>272</v>
       </c>
-      <c r="N3" s="209" t="s">
+      <c r="N3" s="208" t="s">
         <v>339</v>
       </c>
-      <c r="O3" s="209" t="s">
+      <c r="O3" s="208" t="s">
         <v>339</v>
       </c>
-      <c r="P3" s="189"/>
+      <c r="P3" s="188"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="312" t="s">
+      <c r="A4" s="323" t="s">
         <v>477</v>
       </c>
-      <c r="B4" s="313"/>
-      <c r="C4" s="313"/>
-      <c r="D4" s="313"/>
-      <c r="E4" s="313"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="320" t="s">
+      <c r="B4" s="324"/>
+      <c r="C4" s="324"/>
+      <c r="D4" s="324"/>
+      <c r="E4" s="324"/>
+      <c r="F4" s="325"/>
+      <c r="G4" s="308" t="s">
         <v>220</v>
       </c>
-      <c r="H4" s="320"/>
-      <c r="I4" s="320"/>
-      <c r="J4" s="320" t="s">
+      <c r="H4" s="308"/>
+      <c r="I4" s="308"/>
+      <c r="J4" s="308" t="s">
         <v>275</v>
       </c>
-      <c r="K4" s="320"/>
-      <c r="L4" s="320"/>
-      <c r="M4" s="210" t="s">
+      <c r="K4" s="308"/>
+      <c r="L4" s="308"/>
+      <c r="M4" s="209" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="210" t="s">
+      <c r="N4" s="209" t="s">
         <v>340</v>
       </c>
-      <c r="O4" s="210" t="s">
+      <c r="O4" s="209" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="315" t="s">
+      <c r="A5" s="303" t="s">
         <v>478</v>
       </c>
-      <c r="B5" s="316"/>
-      <c r="C5" s="316"/>
-      <c r="D5" s="316"/>
-      <c r="E5" s="316"/>
-      <c r="F5" s="317"/>
-      <c r="G5" s="322" t="s">
+      <c r="B5" s="304"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="305"/>
+      <c r="G5" s="310" t="s">
         <v>258</v>
       </c>
-      <c r="H5" s="323"/>
-      <c r="I5" s="324"/>
-      <c r="J5" s="322" t="s">
+      <c r="H5" s="311"/>
+      <c r="I5" s="312"/>
+      <c r="J5" s="310" t="s">
         <v>273</v>
       </c>
-      <c r="K5" s="323"/>
-      <c r="L5" s="324"/>
-      <c r="M5" s="208"/>
-      <c r="N5" s="208" t="s">
+      <c r="K5" s="311"/>
+      <c r="L5" s="312"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="207" t="s">
         <v>147</v>
       </c>
-      <c r="O5" s="207" t="s">
+      <c r="O5" s="206" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="315" t="s">
+      <c r="A6" s="303" t="s">
         <v>479</v>
       </c>
-      <c r="B6" s="316"/>
-      <c r="C6" s="316"/>
-      <c r="D6" s="316"/>
-      <c r="E6" s="316"/>
-      <c r="F6" s="317"/>
-      <c r="G6" s="301"/>
-      <c r="H6" s="301"/>
-      <c r="I6" s="301"/>
-      <c r="J6" s="301"/>
-      <c r="K6" s="301"/>
-      <c r="L6" s="301"/>
-      <c r="M6" s="211"/>
-      <c r="N6" s="211"/>
-      <c r="O6" s="212"/>
+      <c r="B6" s="304"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="304"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="302"/>
+      <c r="I6" s="302"/>
+      <c r="J6" s="302"/>
+      <c r="K6" s="302"/>
+      <c r="L6" s="302"/>
+      <c r="M6" s="210"/>
+      <c r="N6" s="210"/>
+      <c r="O6" s="211"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="315"/>
-      <c r="B7" s="316"/>
-      <c r="C7" s="316"/>
-      <c r="D7" s="316"/>
-      <c r="E7" s="316"/>
-      <c r="F7" s="317"/>
-      <c r="G7" s="301"/>
-      <c r="H7" s="301"/>
-      <c r="I7" s="301"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="301"/>
-      <c r="L7" s="301"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="211"/>
-      <c r="O7" s="212"/>
+      <c r="A7" s="303"/>
+      <c r="B7" s="304"/>
+      <c r="C7" s="304"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="302"/>
+      <c r="I7" s="302"/>
+      <c r="J7" s="302"/>
+      <c r="K7" s="302"/>
+      <c r="L7" s="302"/>
+      <c r="M7" s="210"/>
+      <c r="N7" s="210"/>
+      <c r="O7" s="211"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="315"/>
-      <c r="B8" s="316"/>
-      <c r="C8" s="316"/>
-      <c r="D8" s="316"/>
-      <c r="E8" s="316"/>
-      <c r="F8" s="317"/>
-      <c r="G8" s="301"/>
-      <c r="H8" s="301"/>
-      <c r="I8" s="301"/>
-      <c r="J8" s="301"/>
-      <c r="K8" s="301"/>
-      <c r="L8" s="301"/>
-      <c r="M8" s="211"/>
-      <c r="N8" s="211"/>
-      <c r="O8" s="212"/>
+      <c r="A8" s="303"/>
+      <c r="B8" s="304"/>
+      <c r="C8" s="304"/>
+      <c r="D8" s="304"/>
+      <c r="E8" s="304"/>
+      <c r="F8" s="305"/>
+      <c r="G8" s="302"/>
+      <c r="H8" s="302"/>
+      <c r="I8" s="302"/>
+      <c r="J8" s="302"/>
+      <c r="K8" s="302"/>
+      <c r="L8" s="302"/>
+      <c r="M8" s="210"/>
+      <c r="N8" s="210"/>
+      <c r="O8" s="211"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="303" t="s">
+      <c r="A10" s="314" t="s">
         <v>327</v>
       </c>
-      <c r="B10" s="304"/>
-      <c r="C10" s="304"/>
-      <c r="D10" s="304"/>
-      <c r="E10" s="304"/>
-      <c r="F10" s="304"/>
-      <c r="G10" s="304"/>
-      <c r="H10" s="304"/>
-      <c r="I10" s="305"/>
+      <c r="B10" s="315"/>
+      <c r="C10" s="315"/>
+      <c r="D10" s="315"/>
+      <c r="E10" s="315"/>
+      <c r="F10" s="315"/>
+      <c r="G10" s="315"/>
+      <c r="H10" s="315"/>
+      <c r="I10" s="316"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="130" t="s">
         <v>305</v>
       </c>
-      <c r="C11" s="182" t="s">
+      <c r="C11" s="181" t="s">
         <v>339</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="G11" s="131" t="s">
+      <c r="G11" s="130" t="s">
         <v>249</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="H11" s="130" t="s">
         <v>249</v>
       </c>
-      <c r="I11" s="143" t="s">
+      <c r="I11" s="142" t="s">
         <v>249</v>
       </c>
-      <c r="K11" s="180"/>
-      <c r="L11" s="213"/>
-      <c r="M11" s="213"/>
-      <c r="N11" s="214"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="212"/>
+      <c r="M11" s="212"/>
+      <c r="N11" s="213"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="147"/>
-      <c r="B12" s="146" t="s">
+      <c r="A12" s="146"/>
+      <c r="B12" s="145" t="s">
         <v>224</v>
       </c>
       <c r="C12" s="95" t="s">
         <v>338</v>
       </c>
-      <c r="D12" s="146" t="s">
+      <c r="D12" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="146" t="s">
+      <c r="E12" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="146" t="s">
+      <c r="F12" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="146" t="s">
+      <c r="G12" s="145" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="146" t="s">
+      <c r="H12" s="145" t="s">
         <v>227</v>
       </c>
-      <c r="I12" s="148" t="s">
+      <c r="I12" s="147" t="s">
         <v>228</v>
       </c>
-      <c r="L12" s="213"/>
-      <c r="M12" s="213"/>
-      <c r="N12" s="215"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="212"/>
+      <c r="N12" s="214"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145"/>
+      <c r="A13" s="144"/>
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
-      <c r="D13" s="152">
+      <c r="D13" s="151">
         <v>100</v>
       </c>
-      <c r="E13" s="152">
+      <c r="E13" s="151">
         <v>0</v>
       </c>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152">
+      <c r="F13" s="151"/>
+      <c r="G13" s="151">
         <v>4</v>
       </c>
-      <c r="H13" s="152">
+      <c r="H13" s="151">
         <v>10</v>
       </c>
-      <c r="I13" s="153">
+      <c r="I13" s="152">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="288" t="s">
+      <c r="A15" s="289" t="s">
         <v>253</v>
       </c>
-      <c r="B15" s="289"/>
-      <c r="C15" s="289"/>
-      <c r="D15" s="289"/>
-      <c r="E15" s="289"/>
-      <c r="F15" s="289"/>
-      <c r="G15" s="289"/>
-      <c r="H15" s="290"/>
+      <c r="B15" s="290"/>
+      <c r="C15" s="290"/>
+      <c r="D15" s="290"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="290"/>
+      <c r="H15" s="291"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="291" t="s">
+      <c r="A16" s="292" t="s">
         <v>335</v>
       </c>
-      <c r="B16" s="292"/>
-      <c r="C16" s="292"/>
-      <c r="D16" s="292"/>
-      <c r="E16" s="292"/>
-      <c r="F16" s="292"/>
-      <c r="G16" s="292"/>
-      <c r="H16" s="293"/>
+      <c r="B16" s="293"/>
+      <c r="C16" s="293"/>
+      <c r="D16" s="293"/>
+      <c r="E16" s="293"/>
+      <c r="F16" s="293"/>
+      <c r="G16" s="293"/>
+      <c r="H16" s="294"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="291"/>
-      <c r="B17" s="292"/>
-      <c r="C17" s="292"/>
-      <c r="D17" s="292"/>
-      <c r="E17" s="292"/>
-      <c r="F17" s="292"/>
-      <c r="G17" s="292"/>
-      <c r="H17" s="293"/>
+      <c r="A17" s="292"/>
+      <c r="B17" s="293"/>
+      <c r="C17" s="293"/>
+      <c r="D17" s="293"/>
+      <c r="E17" s="293"/>
+      <c r="F17" s="293"/>
+      <c r="G17" s="293"/>
+      <c r="H17" s="294"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="291"/>
-      <c r="B18" s="292"/>
-      <c r="C18" s="292"/>
-      <c r="D18" s="292"/>
-      <c r="E18" s="292"/>
-      <c r="F18" s="292"/>
-      <c r="G18" s="292"/>
-      <c r="H18" s="293"/>
+      <c r="A18" s="292"/>
+      <c r="B18" s="293"/>
+      <c r="C18" s="293"/>
+      <c r="D18" s="293"/>
+      <c r="E18" s="293"/>
+      <c r="F18" s="293"/>
+      <c r="G18" s="293"/>
+      <c r="H18" s="294"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="294"/>
-      <c r="B19" s="295"/>
-      <c r="C19" s="295"/>
-      <c r="D19" s="295"/>
-      <c r="E19" s="295"/>
-      <c r="F19" s="295"/>
-      <c r="G19" s="295"/>
-      <c r="H19" s="296"/>
+      <c r="A19" s="295"/>
+      <c r="B19" s="296"/>
+      <c r="C19" s="296"/>
+      <c r="D19" s="296"/>
+      <c r="E19" s="296"/>
+      <c r="F19" s="296"/>
+      <c r="G19" s="296"/>
+      <c r="H19" s="297"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="300" t="s">
+      <c r="A21" s="301" t="s">
         <v>280</v>
       </c>
-      <c r="B21" s="300"/>
-      <c r="C21" s="300"/>
-      <c r="D21" s="300"/>
-      <c r="E21" s="300"/>
-      <c r="F21" s="300"/>
-      <c r="G21" s="300"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="301"/>
+      <c r="D21" s="301"/>
+      <c r="E21" s="301"/>
+      <c r="F21" s="301"/>
+      <c r="G21" s="301"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
@@ -8704,12 +8993,12 @@
       <c r="C22" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="D22" s="260" t="s">
+      <c r="D22" s="261" t="s">
         <v>283</v>
       </c>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="260"/>
+      <c r="E22" s="261"/>
+      <c r="F22" s="261"/>
+      <c r="G22" s="261"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8721,7 +9010,7 @@
       <c r="C23" t="s">
         <v>413</v>
       </c>
-      <c r="D23" s="169" t="s">
+      <c r="D23" s="168" t="s">
         <v>341</v>
       </c>
     </row>
@@ -8735,7 +9024,7 @@
       <c r="C24" t="s">
         <v>413</v>
       </c>
-      <c r="D24" s="181" t="s">
+      <c r="D24" s="180" t="s">
         <v>307</v>
       </c>
     </row>
@@ -8749,7 +9038,7 @@
       <c r="C25" t="s">
         <v>413</v>
       </c>
-      <c r="D25" s="169" t="s">
+      <c r="D25" s="168" t="s">
         <v>308</v>
       </c>
     </row>
@@ -8763,7 +9052,7 @@
       <c r="C26" t="s">
         <v>413</v>
       </c>
-      <c r="D26" s="169" t="s">
+      <c r="D26" s="168" t="s">
         <v>328</v>
       </c>
     </row>
@@ -8777,7 +9066,7 @@
       <c r="C27" t="s">
         <v>413</v>
       </c>
-      <c r="D27" s="172" t="s">
+      <c r="D27" s="171" t="s">
         <v>309</v>
       </c>
     </row>
@@ -8791,7 +9080,7 @@
       <c r="C28" t="s">
         <v>413</v>
       </c>
-      <c r="D28" s="181" t="s">
+      <c r="D28" s="180" t="s">
         <v>358</v>
       </c>
     </row>
@@ -8805,7 +9094,7 @@
       <c r="C29" t="s">
         <v>413</v>
       </c>
-      <c r="D29" s="181" t="s">
+      <c r="D29" s="180" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8819,7 +9108,7 @@
       <c r="C30" t="s">
         <v>413</v>
       </c>
-      <c r="D30" s="181" t="s">
+      <c r="D30" s="180" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8833,7 +9122,7 @@
       <c r="C31" t="s">
         <v>413</v>
       </c>
-      <c r="D31" s="181" t="s">
+      <c r="D31" s="180" t="s">
         <v>316</v>
       </c>
     </row>
@@ -8847,7 +9136,7 @@
       <c r="C32" t="s">
         <v>413</v>
       </c>
-      <c r="D32" s="181" t="s">
+      <c r="D32" s="180" t="s">
         <v>360</v>
       </c>
     </row>
@@ -8861,7 +9150,7 @@
       <c r="C33" t="s">
         <v>413</v>
       </c>
-      <c r="D33" s="181" t="s">
+      <c r="D33" s="180" t="s">
         <v>361</v>
       </c>
     </row>
@@ -8875,7 +9164,7 @@
       <c r="C34" t="s">
         <v>413</v>
       </c>
-      <c r="D34" s="169" t="s">
+      <c r="D34" s="168" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8889,7 +9178,7 @@
       <c r="C35" t="s">
         <v>413</v>
       </c>
-      <c r="D35" s="169" t="s">
+      <c r="D35" s="168" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8903,7 +9192,7 @@
       <c r="C36" t="s">
         <v>413</v>
       </c>
-      <c r="D36" s="169" t="s">
+      <c r="D36" s="168" t="s">
         <v>364</v>
       </c>
     </row>
@@ -8917,7 +9206,7 @@
       <c r="C37" t="s">
         <v>413</v>
       </c>
-      <c r="D37" s="169" t="s">
+      <c r="D37" s="168" t="s">
         <v>365</v>
       </c>
     </row>
@@ -8931,7 +9220,7 @@
       <c r="C38" t="s">
         <v>413</v>
       </c>
-      <c r="D38" s="169" t="s">
+      <c r="D38" s="168" t="s">
         <v>366</v>
       </c>
     </row>
@@ -8945,7 +9234,7 @@
       <c r="C39" t="s">
         <v>413</v>
       </c>
-      <c r="D39" s="169" t="s">
+      <c r="D39" s="168" t="s">
         <v>367</v>
       </c>
     </row>
@@ -8959,7 +9248,7 @@
       <c r="C40" t="s">
         <v>413</v>
       </c>
-      <c r="D40" s="169" t="s">
+      <c r="D40" s="168" t="s">
         <v>368</v>
       </c>
     </row>
@@ -8973,7 +9262,7 @@
       <c r="C41" t="s">
         <v>413</v>
       </c>
-      <c r="D41" s="169" t="s">
+      <c r="D41" s="168" t="s">
         <v>414</v>
       </c>
     </row>
@@ -8987,7 +9276,7 @@
       <c r="C42" t="s">
         <v>413</v>
       </c>
-      <c r="D42" s="169" t="s">
+      <c r="D42" s="168" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9001,7 +9290,7 @@
       <c r="C43" t="s">
         <v>413</v>
       </c>
-      <c r="D43" s="169" t="s">
+      <c r="D43" s="168" t="s">
         <v>415</v>
       </c>
     </row>
@@ -9015,7 +9304,7 @@
       <c r="C44" t="s">
         <v>413</v>
       </c>
-      <c r="D44" s="169" t="s">
+      <c r="D44" s="168" t="s">
         <v>369</v>
       </c>
     </row>
@@ -9029,7 +9318,7 @@
       <c r="C45" t="s">
         <v>413</v>
       </c>
-      <c r="D45" s="169" t="s">
+      <c r="D45" s="168" t="s">
         <v>416</v>
       </c>
     </row>
@@ -9043,7 +9332,7 @@
       <c r="C46" t="s">
         <v>413</v>
       </c>
-      <c r="D46" s="169" t="s">
+      <c r="D46" s="168" t="s">
         <v>417</v>
       </c>
     </row>
@@ -9057,7 +9346,7 @@
       <c r="C47" t="s">
         <v>413</v>
       </c>
-      <c r="D47" s="169" t="s">
+      <c r="D47" s="168" t="s">
         <v>418</v>
       </c>
     </row>
@@ -9071,7 +9360,7 @@
       <c r="C48" t="s">
         <v>413</v>
       </c>
-      <c r="D48" s="169" t="s">
+      <c r="D48" s="168" t="s">
         <v>419</v>
       </c>
     </row>
@@ -9085,7 +9374,7 @@
       <c r="C49" t="s">
         <v>413</v>
       </c>
-      <c r="D49" s="169" t="s">
+      <c r="D49" s="168" t="s">
         <v>420</v>
       </c>
     </row>
@@ -9099,7 +9388,7 @@
       <c r="C50" t="s">
         <v>413</v>
       </c>
-      <c r="D50" s="169" t="s">
+      <c r="D50" s="168" t="s">
         <v>421</v>
       </c>
     </row>
@@ -9113,7 +9402,7 @@
       <c r="C51" t="s">
         <v>413</v>
       </c>
-      <c r="D51" s="169" t="s">
+      <c r="D51" s="168" t="s">
         <v>422</v>
       </c>
     </row>
@@ -9127,7 +9416,7 @@
       <c r="C52" t="s">
         <v>413</v>
       </c>
-      <c r="D52" s="181" t="s">
+      <c r="D52" s="180" t="s">
         <v>361</v>
       </c>
     </row>
@@ -9141,18 +9430,22 @@
       <c r="C53" t="s">
         <v>413</v>
       </c>
-      <c r="D53" s="169" t="s">
+      <c r="D53" s="168" t="s">
         <v>370</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:L6"/>
@@ -9163,16 +9456,12 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9264,357 +9553,357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="318" t="s">
+      <c r="A1" s="306" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="318"/>
-      <c r="C1" s="318"/>
-      <c r="D1" s="318"/>
-      <c r="E1" s="318"/>
-      <c r="F1" s="318"/>
-      <c r="G1" s="318"/>
-      <c r="H1" s="318"/>
-      <c r="I1" s="318"/>
-      <c r="J1" s="318"/>
-      <c r="K1" s="318"/>
-      <c r="L1" s="318"/>
-      <c r="M1" s="318"/>
-      <c r="N1" s="318"/>
-      <c r="O1" s="318"/>
-      <c r="P1" s="318"/>
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
+      <c r="N1" s="306"/>
+      <c r="O1" s="306"/>
+      <c r="P1" s="306"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="319" t="s">
+      <c r="A2" s="307" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="319"/>
-      <c r="C2" s="319"/>
-      <c r="D2" s="319"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="319" t="s">
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="307" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="319"/>
-      <c r="I2" s="319"/>
-      <c r="J2" s="319"/>
-      <c r="K2" s="319"/>
-      <c r="L2" s="319"/>
-      <c r="M2" s="302" t="s">
+      <c r="H2" s="307"/>
+      <c r="I2" s="307"/>
+      <c r="J2" s="307"/>
+      <c r="K2" s="307"/>
+      <c r="L2" s="307"/>
+      <c r="M2" s="313" t="s">
         <v>267</v>
       </c>
-      <c r="N2" s="302"/>
-      <c r="O2" s="302"/>
-      <c r="P2" s="302"/>
+      <c r="N2" s="313"/>
+      <c r="O2" s="313"/>
+      <c r="P2" s="313"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="321" t="s">
+      <c r="A3" s="309" t="s">
         <v>480</v>
       </c>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="321" t="s">
+      <c r="B3" s="309"/>
+      <c r="C3" s="309"/>
+      <c r="D3" s="309"/>
+      <c r="E3" s="309"/>
+      <c r="F3" s="309"/>
+      <c r="G3" s="309" t="s">
         <v>269</v>
       </c>
-      <c r="H3" s="321"/>
-      <c r="I3" s="321"/>
-      <c r="J3" s="321"/>
-      <c r="K3" s="321"/>
-      <c r="L3" s="321"/>
-      <c r="M3" s="209" t="s">
+      <c r="H3" s="309"/>
+      <c r="I3" s="309"/>
+      <c r="J3" s="309"/>
+      <c r="K3" s="309"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="208" t="s">
         <v>271</v>
       </c>
-      <c r="N3" s="209" t="s">
+      <c r="N3" s="208" t="s">
         <v>270</v>
       </c>
-      <c r="O3" s="209" t="s">
+      <c r="O3" s="208" t="s">
         <v>339</v>
       </c>
-      <c r="P3" s="209" t="s">
+      <c r="P3" s="208" t="s">
         <v>339</v>
       </c>
-      <c r="Q3" s="188"/>
+      <c r="Q3" s="187"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="312" t="s">
+      <c r="A4" s="323" t="s">
         <v>477</v>
       </c>
-      <c r="B4" s="313"/>
-      <c r="C4" s="313"/>
-      <c r="D4" s="313"/>
-      <c r="E4" s="313"/>
-      <c r="F4" s="314"/>
-      <c r="G4" s="320" t="s">
+      <c r="B4" s="324"/>
+      <c r="C4" s="324"/>
+      <c r="D4" s="324"/>
+      <c r="E4" s="324"/>
+      <c r="F4" s="325"/>
+      <c r="G4" s="308" t="s">
         <v>221</v>
       </c>
-      <c r="H4" s="320"/>
-      <c r="I4" s="320"/>
-      <c r="J4" s="320"/>
-      <c r="K4" s="320"/>
-      <c r="L4" s="320"/>
-      <c r="M4" s="210" t="s">
+      <c r="H4" s="308"/>
+      <c r="I4" s="308"/>
+      <c r="J4" s="308"/>
+      <c r="K4" s="308"/>
+      <c r="L4" s="308"/>
+      <c r="M4" s="209" t="s">
         <v>225</v>
       </c>
-      <c r="N4" s="210" t="s">
+      <c r="N4" s="209" t="s">
         <v>154</v>
       </c>
-      <c r="O4" s="210" t="s">
+      <c r="O4" s="209" t="s">
         <v>340</v>
       </c>
-      <c r="P4" s="210" t="s">
+      <c r="P4" s="209" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="315"/>
-      <c r="B5" s="316"/>
-      <c r="C5" s="316"/>
-      <c r="D5" s="316"/>
-      <c r="E5" s="316"/>
-      <c r="F5" s="317"/>
-      <c r="G5" s="325" t="s">
+      <c r="A5" s="303"/>
+      <c r="B5" s="304"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="305"/>
+      <c r="G5" s="326" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="325"/>
-      <c r="I5" s="325"/>
-      <c r="J5" s="325"/>
-      <c r="K5" s="325"/>
-      <c r="L5" s="325"/>
-      <c r="M5" s="211" t="s">
+      <c r="H5" s="326"/>
+      <c r="I5" s="326"/>
+      <c r="J5" s="326"/>
+      <c r="K5" s="326"/>
+      <c r="L5" s="326"/>
+      <c r="M5" s="210" t="s">
         <v>264</v>
       </c>
-      <c r="N5" s="211"/>
-      <c r="O5" s="211" t="s">
+      <c r="N5" s="210"/>
+      <c r="O5" s="210" t="s">
         <v>481</v>
       </c>
-      <c r="P5" s="211" t="s">
+      <c r="P5" s="210" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="315" t="s">
+      <c r="A6" s="303" t="s">
         <v>483</v>
       </c>
-      <c r="B6" s="316"/>
-      <c r="C6" s="316"/>
-      <c r="D6" s="316"/>
-      <c r="E6" s="316"/>
-      <c r="F6" s="317"/>
-      <c r="G6" s="325" t="s">
+      <c r="B6" s="304"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="304"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="326" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="325"/>
-      <c r="I6" s="325"/>
-      <c r="J6" s="325"/>
-      <c r="K6" s="325"/>
-      <c r="L6" s="325"/>
-      <c r="M6" s="211"/>
-      <c r="N6" s="211"/>
-      <c r="O6" s="211" t="s">
+      <c r="H6" s="326"/>
+      <c r="I6" s="326"/>
+      <c r="J6" s="326"/>
+      <c r="K6" s="326"/>
+      <c r="L6" s="326"/>
+      <c r="M6" s="210"/>
+      <c r="N6" s="210"/>
+      <c r="O6" s="210" t="s">
         <v>484</v>
       </c>
-      <c r="P6" s="211" t="s">
+      <c r="P6" s="210" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="315"/>
-      <c r="B7" s="316"/>
-      <c r="C7" s="316"/>
-      <c r="D7" s="316"/>
-      <c r="E7" s="316"/>
-      <c r="F7" s="317"/>
-      <c r="G7" s="325"/>
-      <c r="H7" s="325"/>
-      <c r="I7" s="325"/>
-      <c r="J7" s="325"/>
-      <c r="K7" s="325"/>
-      <c r="L7" s="325"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
-      <c r="P7" s="212"/>
+      <c r="A7" s="303"/>
+      <c r="B7" s="304"/>
+      <c r="C7" s="304"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="304"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="326"/>
+      <c r="H7" s="326"/>
+      <c r="I7" s="326"/>
+      <c r="J7" s="326"/>
+      <c r="K7" s="326"/>
+      <c r="L7" s="326"/>
+      <c r="M7" s="210"/>
+      <c r="N7" s="210"/>
+      <c r="O7" s="210"/>
+      <c r="P7" s="211"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="315"/>
-      <c r="B8" s="316"/>
-      <c r="C8" s="316"/>
-      <c r="D8" s="316"/>
-      <c r="E8" s="316"/>
-      <c r="F8" s="317"/>
-      <c r="G8" s="325"/>
-      <c r="H8" s="325"/>
-      <c r="I8" s="325"/>
-      <c r="J8" s="325"/>
-      <c r="K8" s="325"/>
-      <c r="L8" s="325"/>
-      <c r="M8" s="211"/>
-      <c r="N8" s="211"/>
-      <c r="O8" s="211"/>
-      <c r="P8" s="212"/>
+      <c r="A8" s="303"/>
+      <c r="B8" s="304"/>
+      <c r="C8" s="304"/>
+      <c r="D8" s="304"/>
+      <c r="E8" s="304"/>
+      <c r="F8" s="305"/>
+      <c r="G8" s="326"/>
+      <c r="H8" s="326"/>
+      <c r="I8" s="326"/>
+      <c r="J8" s="326"/>
+      <c r="K8" s="326"/>
+      <c r="L8" s="326"/>
+      <c r="M8" s="210"/>
+      <c r="N8" s="210"/>
+      <c r="O8" s="210"/>
+      <c r="P8" s="211"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="303" t="s">
+      <c r="A10" s="314" t="s">
         <v>326</v>
       </c>
-      <c r="B10" s="304"/>
-      <c r="C10" s="304"/>
-      <c r="D10" s="304"/>
-      <c r="E10" s="304"/>
-      <c r="F10" s="304"/>
-      <c r="G10" s="304"/>
-      <c r="H10" s="304"/>
-      <c r="I10" s="305"/>
+      <c r="B10" s="315"/>
+      <c r="C10" s="315"/>
+      <c r="D10" s="315"/>
+      <c r="E10" s="315"/>
+      <c r="F10" s="315"/>
+      <c r="G10" s="315"/>
+      <c r="H10" s="315"/>
+      <c r="I10" s="316"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="130" t="s">
         <v>305</v>
       </c>
-      <c r="C11" s="182" t="s">
+      <c r="C11" s="181" t="s">
         <v>339</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="G11" s="131" t="s">
+      <c r="G11" s="130" t="s">
         <v>249</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="H11" s="130" t="s">
         <v>249</v>
       </c>
-      <c r="I11" s="143" t="s">
+      <c r="I11" s="142" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="147"/>
-      <c r="B12" s="146" t="s">
+      <c r="A12" s="146"/>
+      <c r="B12" s="145" t="s">
         <v>224</v>
       </c>
       <c r="C12" s="95" t="s">
         <v>338</v>
       </c>
-      <c r="D12" s="146" t="s">
+      <c r="D12" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="146" t="s">
+      <c r="E12" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="146" t="s">
+      <c r="F12" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="146" t="s">
+      <c r="G12" s="145" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="146" t="s">
+      <c r="H12" s="145" t="s">
         <v>227</v>
       </c>
-      <c r="I12" s="148" t="s">
+      <c r="I12" s="147" t="s">
         <v>228</v>
       </c>
-      <c r="K12" s="163"/>
+      <c r="K12" s="162"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145"/>
+      <c r="A13" s="144"/>
       <c r="B13" s="96"/>
       <c r="C13" s="96"/>
-      <c r="D13" s="152">
+      <c r="D13" s="151">
         <v>100</v>
       </c>
-      <c r="E13" s="152">
+      <c r="E13" s="151">
         <v>0</v>
       </c>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152">
+      <c r="F13" s="151"/>
+      <c r="G13" s="151">
         <v>4</v>
       </c>
-      <c r="H13" s="152">
+      <c r="H13" s="151">
         <v>10</v>
       </c>
-      <c r="I13" s="153">
+      <c r="I13" s="152">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="288" t="s">
+      <c r="A15" s="289" t="s">
         <v>253</v>
       </c>
-      <c r="B15" s="289"/>
-      <c r="C15" s="289"/>
-      <c r="D15" s="289"/>
-      <c r="E15" s="289"/>
-      <c r="F15" s="289"/>
-      <c r="G15" s="289"/>
-      <c r="H15" s="290"/>
+      <c r="B15" s="290"/>
+      <c r="C15" s="290"/>
+      <c r="D15" s="290"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="290"/>
+      <c r="H15" s="291"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="291" t="s">
+      <c r="A16" s="292" t="s">
         <v>336</v>
       </c>
-      <c r="B16" s="292"/>
-      <c r="C16" s="292"/>
-      <c r="D16" s="292"/>
-      <c r="E16" s="292"/>
-      <c r="F16" s="292"/>
-      <c r="G16" s="292"/>
-      <c r="H16" s="293"/>
+      <c r="B16" s="293"/>
+      <c r="C16" s="293"/>
+      <c r="D16" s="293"/>
+      <c r="E16" s="293"/>
+      <c r="F16" s="293"/>
+      <c r="G16" s="293"/>
+      <c r="H16" s="294"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="291"/>
-      <c r="B17" s="292"/>
-      <c r="C17" s="292"/>
-      <c r="D17" s="292"/>
-      <c r="E17" s="292"/>
-      <c r="F17" s="292"/>
-      <c r="G17" s="292"/>
-      <c r="H17" s="293"/>
+      <c r="A17" s="292"/>
+      <c r="B17" s="293"/>
+      <c r="C17" s="293"/>
+      <c r="D17" s="293"/>
+      <c r="E17" s="293"/>
+      <c r="F17" s="293"/>
+      <c r="G17" s="293"/>
+      <c r="H17" s="294"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="291"/>
-      <c r="B18" s="292"/>
-      <c r="C18" s="292"/>
-      <c r="D18" s="292"/>
-      <c r="E18" s="292"/>
-      <c r="F18" s="292"/>
-      <c r="G18" s="292"/>
-      <c r="H18" s="293"/>
+      <c r="A18" s="292"/>
+      <c r="B18" s="293"/>
+      <c r="C18" s="293"/>
+      <c r="D18" s="293"/>
+      <c r="E18" s="293"/>
+      <c r="F18" s="293"/>
+      <c r="G18" s="293"/>
+      <c r="H18" s="294"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="294"/>
-      <c r="B19" s="295"/>
-      <c r="C19" s="295"/>
-      <c r="D19" s="295"/>
-      <c r="E19" s="295"/>
-      <c r="F19" s="295"/>
-      <c r="G19" s="295"/>
-      <c r="H19" s="296"/>
+      <c r="A19" s="295"/>
+      <c r="B19" s="296"/>
+      <c r="C19" s="296"/>
+      <c r="D19" s="296"/>
+      <c r="E19" s="296"/>
+      <c r="F19" s="296"/>
+      <c r="G19" s="296"/>
+      <c r="H19" s="297"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="300" t="s">
+      <c r="A21" s="301" t="s">
         <v>280</v>
       </c>
-      <c r="B21" s="300"/>
-      <c r="C21" s="300"/>
-      <c r="D21" s="300"/>
-      <c r="E21" s="300"/>
-      <c r="F21" s="300"/>
-      <c r="G21" s="300"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="301"/>
+      <c r="D21" s="301"/>
+      <c r="E21" s="301"/>
+      <c r="F21" s="301"/>
+      <c r="G21" s="301"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
@@ -9626,12 +9915,12 @@
       <c r="C22" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="D22" s="260" t="s">
+      <c r="D22" s="261" t="s">
         <v>283</v>
       </c>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="260"/>
+      <c r="E22" s="261"/>
+      <c r="F22" s="261"/>
+      <c r="G22" s="261"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9643,7 +9932,7 @@
       <c r="C23" t="s">
         <v>423</v>
       </c>
-      <c r="D23" s="169" t="s">
+      <c r="D23" s="168" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9657,7 +9946,7 @@
       <c r="C24" t="s">
         <v>423</v>
       </c>
-      <c r="D24" s="181" t="s">
+      <c r="D24" s="180" t="s">
         <v>307</v>
       </c>
     </row>
@@ -9671,7 +9960,7 @@
       <c r="C25" t="s">
         <v>423</v>
       </c>
-      <c r="D25" s="169" t="s">
+      <c r="D25" s="168" t="s">
         <v>308</v>
       </c>
     </row>
@@ -9685,7 +9974,7 @@
       <c r="C26" t="s">
         <v>423</v>
       </c>
-      <c r="D26" s="169" t="s">
+      <c r="D26" s="168" t="s">
         <v>328</v>
       </c>
     </row>
@@ -9699,7 +9988,7 @@
       <c r="C27" t="s">
         <v>423</v>
       </c>
-      <c r="D27" s="172" t="s">
+      <c r="D27" s="171" t="s">
         <v>309</v>
       </c>
     </row>
@@ -9713,7 +10002,7 @@
       <c r="C28" t="s">
         <v>423</v>
       </c>
-      <c r="D28" s="181" t="s">
+      <c r="D28" s="180" t="s">
         <v>371</v>
       </c>
     </row>
@@ -9727,7 +10016,7 @@
       <c r="C29" t="s">
         <v>423</v>
       </c>
-      <c r="D29" s="181" t="s">
+      <c r="D29" s="180" t="s">
         <v>357</v>
       </c>
     </row>
@@ -9741,7 +10030,7 @@
       <c r="C30" t="s">
         <v>423</v>
       </c>
-      <c r="D30" s="181" t="s">
+      <c r="D30" s="180" t="s">
         <v>372</v>
       </c>
     </row>
@@ -9755,7 +10044,7 @@
       <c r="C31" t="s">
         <v>423</v>
       </c>
-      <c r="D31" s="181" t="s">
+      <c r="D31" s="180" t="s">
         <v>318</v>
       </c>
     </row>
@@ -9769,7 +10058,7 @@
       <c r="C32" t="s">
         <v>423</v>
       </c>
-      <c r="D32" s="181" t="s">
+      <c r="D32" s="180" t="s">
         <v>319</v>
       </c>
     </row>
@@ -9783,7 +10072,7 @@
       <c r="C33" t="s">
         <v>423</v>
       </c>
-      <c r="D33" s="169" t="s">
+      <c r="D33" s="168" t="s">
         <v>373</v>
       </c>
     </row>
@@ -9797,12 +10086,19 @@
       <c r="C34" t="s">
         <v>423</v>
       </c>
-      <c r="D34" s="181" t="s">
+      <c r="D34" s="180" t="s">
         <v>322</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9813,16 +10109,9 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9889,7 +10178,7 @@
   </sheetPr>
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -9897,7 +10186,7 @@
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
     <col min="2" max="2" width="91" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="178" customWidth="1"/>
+    <col min="3" max="3" width="16" style="177" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="66" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
@@ -9905,12 +10194,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="327" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="328"/>
+      <c r="B1" s="328"/>
+      <c r="C1" s="328"/>
+      <c r="D1" s="329"/>
       <c r="E1" s="65"/>
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
@@ -9931,10 +10220,10 @@
       <c r="C2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="342" t="s">
+      <c r="D2" s="215" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="133" t="s">
         <v>78</v>
       </c>
     </row>
@@ -9945,9 +10234,9 @@
       <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="175"/>
+      <c r="C3" s="174"/>
       <c r="D3" s="22"/>
-      <c r="F3" s="135" t="s">
+      <c r="F3" s="134" t="s">
         <v>79</v>
       </c>
     </row>
@@ -9958,7 +10247,7 @@
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="176"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="23">
         <v>0</v>
       </c>
@@ -9973,19 +10262,19 @@
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="176"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="203" t="s">
         <v>486</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="C6" s="343" t="s">
+      <c r="C6" s="216" t="s">
         <v>488</v>
       </c>
       <c r="D6" s="23">
@@ -9999,7 +10288,7 @@
       <c r="B7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="176">
+      <c r="C7" s="175">
         <v>1</v>
       </c>
       <c r="D7" s="23">
@@ -10007,25 +10296,25 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="204" t="s">
+      <c r="A8" s="203" t="s">
         <v>453</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="C8" s="205"/>
+      <c r="C8" s="204"/>
       <c r="D8" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="204" t="s">
+      <c r="A9" s="203" t="s">
         <v>455</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="C9" s="205"/>
+      <c r="C9" s="204"/>
       <c r="D9" s="23">
         <v>1</v>
       </c>
@@ -10037,7 +10326,7 @@
       <c r="B10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="176"/>
+      <c r="C10" s="175"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -10047,7 +10336,7 @@
       <c r="B11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="175"/>
+      <c r="C11" s="174"/>
       <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -10057,7 +10346,7 @@
       <c r="B12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="176"/>
+      <c r="C12" s="175"/>
       <c r="D12" s="23">
         <v>0</v>
       </c>
@@ -10069,7 +10358,7 @@
       <c r="B13" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="176"/>
+      <c r="C13" s="175"/>
       <c r="D13" s="24" t="s">
         <v>68</v>
       </c>
@@ -10081,7 +10370,7 @@
       <c r="B14" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="176"/>
+      <c r="C14" s="175"/>
       <c r="D14" s="24" t="s">
         <v>69</v>
       </c>
@@ -10093,7 +10382,7 @@
       <c r="B15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="176"/>
+      <c r="C15" s="175"/>
       <c r="D15" s="23">
         <v>0</v>
       </c>
@@ -10105,7 +10394,7 @@
       <c r="B16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="176"/>
+      <c r="C16" s="175"/>
       <c r="D16" s="23" t="s">
         <v>31</v>
       </c>
@@ -10117,7 +10406,7 @@
       <c r="B17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="175"/>
+      <c r="C17" s="174"/>
       <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10127,7 +10416,7 @@
       <c r="B18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="176"/>
+      <c r="C18" s="175"/>
       <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -10137,7 +10426,7 @@
       <c r="B19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="176"/>
+      <c r="C19" s="175"/>
       <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -10147,7 +10436,7 @@
       <c r="B20" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="176"/>
+      <c r="C20" s="175"/>
       <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -10157,7 +10446,7 @@
       <c r="B21" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="176"/>
+      <c r="C21" s="175"/>
       <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -10167,7 +10456,7 @@
       <c r="B22" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="176"/>
+      <c r="C22" s="175"/>
       <c r="D22" s="23">
         <v>1</v>
       </c>
@@ -10179,7 +10468,7 @@
       <c r="B23" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="176"/>
+      <c r="C23" s="175"/>
       <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -10189,7 +10478,7 @@
       <c r="B24" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="176"/>
+      <c r="C24" s="175"/>
       <c r="D24" s="23"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -10199,7 +10488,7 @@
       <c r="B25" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="176"/>
+      <c r="C25" s="175"/>
       <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -10209,7 +10498,7 @@
       <c r="B26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="175"/>
+      <c r="C26" s="174"/>
       <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -10219,7 +10508,7 @@
       <c r="B27" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="176"/>
+      <c r="C27" s="175"/>
       <c r="D27" s="23">
         <v>100</v>
       </c>
@@ -10231,7 +10520,7 @@
       <c r="B28" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="176"/>
+      <c r="C28" s="175"/>
       <c r="D28" s="23">
         <v>65535</v>
       </c>
@@ -10243,7 +10532,7 @@
       <c r="B29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="176"/>
+      <c r="C29" s="175"/>
       <c r="D29" s="23">
         <v>10</v>
       </c>
@@ -10255,7 +10544,7 @@
       <c r="B30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="176"/>
+      <c r="C30" s="175"/>
       <c r="D30" s="23">
         <v>0.1</v>
       </c>
@@ -10267,7 +10556,7 @@
       <c r="B31" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="176"/>
+      <c r="C31" s="175"/>
       <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -10277,7 +10566,7 @@
       <c r="B32" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="176"/>
+      <c r="C32" s="175"/>
       <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -10287,7 +10576,7 @@
       <c r="B33" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="176"/>
+      <c r="C33" s="175"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -10297,7 +10586,7 @@
       <c r="B34" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="175"/>
+      <c r="C34" s="174"/>
       <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -10307,7 +10596,7 @@
       <c r="B35" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="176"/>
+      <c r="C35" s="175"/>
       <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -10317,7 +10606,7 @@
       <c r="B36" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="176"/>
+      <c r="C36" s="175"/>
       <c r="D36" s="23">
         <v>0.02</v>
       </c>
@@ -10329,7 +10618,7 @@
       <c r="B37" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="176"/>
+      <c r="C37" s="175"/>
       <c r="D37" s="23"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -10339,7 +10628,7 @@
       <c r="B38" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="176"/>
+      <c r="C38" s="175"/>
       <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -10349,7 +10638,7 @@
       <c r="B39" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="176"/>
+      <c r="C39" s="175"/>
       <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -10359,7 +10648,7 @@
       <c r="B40" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="176"/>
+      <c r="C40" s="175"/>
       <c r="D40" s="24" t="s">
         <v>72</v>
       </c>
@@ -10371,7 +10660,7 @@
       <c r="B41" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="176"/>
+      <c r="C41" s="175"/>
       <c r="D41" s="24">
         <v>0</v>
       </c>
@@ -10383,7 +10672,7 @@
       <c r="B42" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="175"/>
+      <c r="C42" s="174"/>
       <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -10391,7 +10680,7 @@
         <v>129</v>
       </c>
       <c r="B43" s="15"/>
-      <c r="C43" s="176"/>
+      <c r="C43" s="175"/>
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -10401,7 +10690,7 @@
       <c r="B44" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="176"/>
+      <c r="C44" s="175"/>
       <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -10411,7 +10700,7 @@
       <c r="B45" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="176"/>
+      <c r="C45" s="175"/>
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -10421,7 +10710,7 @@
       <c r="B46" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="176"/>
+      <c r="C46" s="175"/>
       <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -10431,7 +10720,7 @@
       <c r="B47" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="176"/>
+      <c r="C47" s="175"/>
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -10441,7 +10730,7 @@
       <c r="B48" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="176"/>
+      <c r="C48" s="175"/>
       <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -10451,7 +10740,7 @@
       <c r="B49" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="176"/>
+      <c r="C49" s="175"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -10461,7 +10750,7 @@
       <c r="B50" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="176"/>
+      <c r="C50" s="175"/>
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10471,7 +10760,7 @@
       <c r="B51" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="176"/>
+      <c r="C51" s="175"/>
       <c r="D51" s="23"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -10481,7 +10770,7 @@
       <c r="B52" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="176"/>
+      <c r="C52" s="175"/>
       <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -10491,7 +10780,7 @@
       <c r="B53" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="176"/>
+      <c r="C53" s="175"/>
       <c r="D53" s="23"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -10501,7 +10790,7 @@
       <c r="B54" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="176"/>
+      <c r="C54" s="175"/>
       <c r="D54" s="23">
         <v>1</v>
       </c>
@@ -10513,7 +10802,7 @@
       <c r="B55" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="176"/>
+      <c r="C55" s="175"/>
       <c r="D55" s="23">
         <v>1</v>
       </c>
@@ -10525,7 +10814,7 @@
       <c r="B56" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="176"/>
+      <c r="C56" s="175"/>
       <c r="D56" s="23">
         <v>1</v>
       </c>
@@ -10537,7 +10826,7 @@
       <c r="B57" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="176"/>
+      <c r="C57" s="175"/>
       <c r="D57" s="23">
         <v>1</v>
       </c>
@@ -10549,7 +10838,7 @@
       <c r="B58" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="176"/>
+      <c r="C58" s="175"/>
       <c r="D58" s="23">
         <v>1</v>
       </c>
@@ -10561,7 +10850,7 @@
       <c r="B59" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="176"/>
+      <c r="C59" s="175"/>
       <c r="D59" s="23">
         <v>0</v>
       </c>
@@ -10573,7 +10862,7 @@
       <c r="B60" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="176"/>
+      <c r="C60" s="175"/>
       <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -10583,7 +10872,7 @@
       <c r="B61" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="176"/>
+      <c r="C61" s="175"/>
       <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -10593,8 +10882,8 @@
       <c r="B62" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C62" s="175"/>
-      <c r="D62" s="174"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="173"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
@@ -10603,7 +10892,7 @@
       <c r="B63" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C63" s="176"/>
+      <c r="C63" s="175"/>
       <c r="D63" s="25">
         <v>0</v>
       </c>
@@ -10612,9 +10901,9 @@
       <c r="A64" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="B64" s="173"/>
-      <c r="C64" s="175"/>
-      <c r="D64" s="174"/>
+      <c r="B64" s="172"/>
+      <c r="C64" s="174"/>
+      <c r="D64" s="173"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
@@ -10623,7 +10912,7 @@
       <c r="B65" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C65" s="176"/>
+      <c r="C65" s="175"/>
       <c r="D65" s="25">
         <v>0</v>
       </c>
@@ -10635,8 +10924,8 @@
       <c r="B66" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="175"/>
-      <c r="D66" s="174"/>
+      <c r="C66" s="174"/>
+      <c r="D66" s="173"/>
     </row>
     <row r="67" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
@@ -10645,7 +10934,7 @@
       <c r="B67" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="177"/>
+      <c r="C67" s="176"/>
       <c r="D67" s="28">
         <v>0</v>
       </c>
@@ -10685,23 +10974,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="332" t="s">
+      <c r="A1" s="333" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="333"/>
-      <c r="C1" s="333"/>
-      <c r="D1" s="333"/>
-      <c r="E1" s="333"/>
-      <c r="F1" s="333"/>
-      <c r="G1" s="333"/>
-      <c r="H1" s="333"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="333"/>
-      <c r="K1" s="333"/>
-      <c r="L1" s="333"/>
-      <c r="M1" s="333"/>
-      <c r="N1" s="333"/>
-      <c r="O1" s="333"/>
+      <c r="B1" s="334"/>
+      <c r="C1" s="334"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="334"/>
+      <c r="G1" s="334"/>
+      <c r="H1" s="334"/>
+      <c r="I1" s="334"/>
+      <c r="J1" s="334"/>
+      <c r="K1" s="334"/>
+      <c r="L1" s="334"/>
+      <c r="M1" s="334"/>
+      <c r="N1" s="334"/>
+      <c r="O1" s="334"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
@@ -10719,17 +11008,17 @@
       <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="329" t="s">
+      <c r="B3" s="330" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="330"/>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330"/>
-      <c r="F3" s="330"/>
-      <c r="G3" s="330"/>
-      <c r="H3" s="330"/>
-      <c r="I3" s="330"/>
-      <c r="J3" s="331"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="331"/>
+      <c r="H3" s="331"/>
+      <c r="I3" s="331"/>
+      <c r="J3" s="332"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="36"/>
@@ -10920,21 +11209,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="329" t="s">
+      <c r="B19" s="330" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="330"/>
-      <c r="D19" s="330"/>
-      <c r="E19" s="330"/>
-      <c r="F19" s="330"/>
-      <c r="G19" s="330"/>
-      <c r="H19" s="330"/>
-      <c r="I19" s="330"/>
-      <c r="J19" s="330"/>
-      <c r="K19" s="330"/>
-      <c r="L19" s="330"/>
-      <c r="M19" s="330"/>
-      <c r="N19" s="331"/>
+      <c r="C19" s="331"/>
+      <c r="D19" s="331"/>
+      <c r="E19" s="331"/>
+      <c r="F19" s="331"/>
+      <c r="G19" s="331"/>
+      <c r="H19" s="331"/>
+      <c r="I19" s="331"/>
+      <c r="J19" s="331"/>
+      <c r="K19" s="331"/>
+      <c r="L19" s="331"/>
+      <c r="M19" s="331"/>
+      <c r="N19" s="332"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="36"/>
@@ -11136,27 +11425,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="337" t="s">
+      <c r="A1" s="338" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
-      <c r="N1" s="338"/>
-      <c r="O1" s="338"/>
-      <c r="P1" s="338"/>
-      <c r="Q1" s="338"/>
-      <c r="R1" s="338"/>
-      <c r="S1" s="338"/>
+      <c r="B1" s="339"/>
+      <c r="C1" s="339"/>
+      <c r="D1" s="339"/>
+      <c r="E1" s="339"/>
+      <c r="F1" s="339"/>
+      <c r="G1" s="339"/>
+      <c r="H1" s="339"/>
+      <c r="I1" s="339"/>
+      <c r="J1" s="339"/>
+      <c r="K1" s="339"/>
+      <c r="L1" s="339"/>
+      <c r="M1" s="339"/>
+      <c r="N1" s="339"/>
+      <c r="O1" s="339"/>
+      <c r="P1" s="339"/>
+      <c r="Q1" s="339"/>
+      <c r="R1" s="339"/>
+      <c r="S1" s="339"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11170,26 +11459,26 @@
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="329" t="s">
+      <c r="B3" s="330" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="330"/>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330"/>
-      <c r="F3" s="330"/>
-      <c r="G3" s="330"/>
-      <c r="H3" s="330"/>
-      <c r="I3" s="330"/>
-      <c r="J3" s="331"/>
-      <c r="L3" s="334" t="s">
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="331"/>
+      <c r="H3" s="331"/>
+      <c r="I3" s="331"/>
+      <c r="J3" s="332"/>
+      <c r="L3" s="335" t="s">
         <v>196</v>
       </c>
-      <c r="M3" s="335"/>
-      <c r="N3" s="335"/>
-      <c r="O3" s="335"/>
-      <c r="P3" s="335"/>
-      <c r="Q3" s="335"/>
-      <c r="R3" s="336"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="336"/>
+      <c r="O3" s="336"/>
+      <c r="P3" s="336"/>
+      <c r="Q3" s="336"/>
+      <c r="R3" s="337"/>
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
     </row>
@@ -11420,23 +11709,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="339" t="s">
+      <c r="A1" s="340" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="340"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
-      <c r="N1" s="340"/>
-      <c r="O1" s="341"/>
+      <c r="B1" s="341"/>
+      <c r="C1" s="341"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
+      <c r="H1" s="341"/>
+      <c r="I1" s="341"/>
+      <c r="J1" s="341"/>
+      <c r="K1" s="341"/>
+      <c r="L1" s="341"/>
+      <c r="M1" s="341"/>
+      <c r="N1" s="341"/>
+      <c r="O1" s="342"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
@@ -11449,22 +11738,22 @@
       <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="329" t="s">
+      <c r="B3" s="330" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="330"/>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330"/>
-      <c r="F3" s="330"/>
-      <c r="G3" s="330"/>
-      <c r="H3" s="331"/>
-      <c r="J3" s="334" t="s">
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="331"/>
+      <c r="H3" s="332"/>
+      <c r="J3" s="335" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="335"/>
-      <c r="L3" s="335"/>
-      <c r="M3" s="335"/>
-      <c r="N3" s="336"/>
+      <c r="K3" s="336"/>
+      <c r="L3" s="336"/>
+      <c r="M3" s="336"/>
+      <c r="N3" s="337"/>
       <c r="O3" s="35"/>
       <c r="P3" s="35"/>
     </row>

--- a/test_templates/test_batch_template4.xlsx
+++ b/test_templates/test_batch_template4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Calibration" sheetId="1" r:id="rId3"/>
     <sheet name="Comparative Analysis" sheetId="12" r:id="rId4"/>
     <sheet name="Transfer Curve Analysis" sheetId="13" r:id="rId5"/>
-    <sheet name="Optional Settings" sheetId="15" r:id="rId6"/>
+    <sheet name="Optional Settings" sheetId="16" r:id="rId6"/>
     <sheet name="96w" sheetId="9" r:id="rId7"/>
     <sheet name="48w" sheetId="11" r:id="rId8"/>
     <sheet name="24w" sheetId="10" r:id="rId9"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="533">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2451,12 +2451,6 @@
     <t>flow.onThreshold</t>
   </si>
   <si>
-    <t>Threshold to differentiate between on and off events. Points with values equal to threshold are placed in on group.</t>
-  </si>
-  <si>
-    <t>10^4</t>
-  </si>
-  <si>
     <t>Non-fluorescence Channels (unprocessed)</t>
   </si>
   <si>
@@ -2507,14 +2501,138 @@
       <t>: Defaults to FSC</t>
     </r>
   </si>
+  <si>
+    <t>flow.maxEvents</t>
+  </si>
+  <si>
+    <t>Drop events above this count to avoid memory issues</t>
+  </si>
+  <si>
+    <t>Threshold to differentiate between on and off events. Points with values equal to threshold are placed in the on group.</t>
+  </si>
+  <si>
+    <t>flow.pointCloudFileType</t>
+  </si>
+  <si>
+    <t>what type of pathname to write to point-cloud JSON header file. 0 stands for absolute, 1 stands for relative.</t>
+  </si>
+  <si>
+    <t>flow.defaultCSVReadHeader</t>
+  </si>
+  <si>
+    <t>what is absolute filename for the JSON header file needed to read in CSV files</t>
+  </si>
+  <si>
+    <t>flow.smallFileWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning that event count is unusually low</t>
+  </si>
+  <si>
+    <t>flow.gateDiscardsWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning gates are discarding too high a fraction of events</t>
+  </si>
+  <si>
+    <t>flow.preGateDiscardsWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning pre-gates are discarding too high a fraction of events</t>
+  </si>
+  <si>
+    <t>flow.postGateDiscardsWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning post-gates are discarding too high a fraction of events</t>
+  </si>
+  <si>
+    <t>flow.eventRatioWarning</t>
+  </si>
+  <si>
+    <t>Generic threshold for warning about different event counts.</t>
+  </si>
+  <si>
+    <t>flow.replicateEventRatioWarning</t>
+  </si>
+  <si>
+    <t>Threshold to warn on variation in replicate event counts.</t>
+  </si>
+  <si>
+    <t>flow.conditionEventRatioWarning</t>
+  </si>
+  <si>
+    <t>Threshold to warn on variation in condition event counts.</t>
+  </si>
+  <si>
+    <t>sizebeads</t>
+  </si>
+  <si>
+    <t>Settings controlling the interpretation of size calibration beads</t>
+  </si>
+  <si>
+    <t>sizebeads.binIncrement</t>
+  </si>
+  <si>
+    <t>Resolution of histogram bins used for finding size bead peaks</t>
+  </si>
+  <si>
+    <t>sizebeads.forceFirstPeak</t>
+  </si>
+  <si>
+    <t>If set to N, lowest observed size bead peak is forced to be interpreted as Nth peak</t>
+  </si>
+  <si>
+    <t>sizebeads.plot</t>
+  </si>
+  <si>
+    <t>When true, make diagnostic plots while computing size bead unit calibration</t>
+  </si>
+  <si>
+    <t>sizebeads.visiblePlots</t>
+  </si>
+  <si>
+    <t>If true, size bead unit calibration plots are visible; otherwise, they are hidden for later saving</t>
+  </si>
+  <si>
+    <t>sizebeads.plotSize</t>
+  </si>
+  <si>
+    <t>Size (in inches) [X Y] for size bead unit calibration figures</t>
+  </si>
+  <si>
+    <t>Settings controlling excel wrapper preferences</t>
+  </si>
+  <si>
+    <t>gating</t>
+  </si>
+  <si>
+    <t>General settings for GMM Gating</t>
+  </si>
+  <si>
+    <t>gating.fixedSeed</t>
+  </si>
+  <si>
+    <t>When true, controls the random seed for GMM Gating</t>
+  </si>
+  <si>
+    <t>Min Valid a.u.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3506,25 +3624,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="376">
+  <cellXfs count="387">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3540,7 +3658,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3551,25 +3669,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3590,62 +3708,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3656,20 +3774,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3678,32 +3796,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3721,19 +3839,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3742,43 +3860,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3796,83 +3914,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3887,37 +4005,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3926,54 +4044,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3993,51 +4108,51 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4052,10 +4167,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyProtection="1">
@@ -4065,105 +4180,146 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4171,25 +4327,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4201,409 +4384,382 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5526,86 +5682,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="257" t="s">
         <v>351</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="242"/>
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="259"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="273" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="220"/>
+      <c r="B3" s="274"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="233" t="s">
+      <c r="A4" s="271" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="234"/>
+      <c r="B4" s="272"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="235" t="s">
+      <c r="A5" s="287" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="236"/>
+      <c r="B5" s="288"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="85"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="219" t="s">
+      <c r="A7" s="273" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="221"/>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
-      <c r="I7" s="221"/>
-      <c r="J7" s="221"/>
-      <c r="K7" s="220"/>
+      <c r="B7" s="275"/>
+      <c r="C7" s="275"/>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="275"/>
+      <c r="J7" s="275"/>
+      <c r="K7" s="274"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="243" t="s">
+      <c r="A8" s="260" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="244"/>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
-      <c r="G8" s="244"/>
-      <c r="H8" s="244"/>
-      <c r="I8" s="244"/>
-      <c r="J8" s="244"/>
-      <c r="K8" s="245"/>
+      <c r="B8" s="261"/>
+      <c r="C8" s="261"/>
+      <c r="D8" s="261"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="261"/>
+      <c r="G8" s="261"/>
+      <c r="H8" s="261"/>
+      <c r="I8" s="261"/>
+      <c r="J8" s="261"/>
+      <c r="K8" s="262"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="246"/>
-      <c r="B9" s="247"/>
-      <c r="C9" s="247"/>
-      <c r="D9" s="247"/>
-      <c r="E9" s="247"/>
-      <c r="F9" s="247"/>
-      <c r="G9" s="247"/>
-      <c r="H9" s="247"/>
-      <c r="I9" s="247"/>
-      <c r="J9" s="247"/>
-      <c r="K9" s="248"/>
+      <c r="A9" s="263"/>
+      <c r="B9" s="264"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="264"/>
+      <c r="E9" s="264"/>
+      <c r="F9" s="264"/>
+      <c r="G9" s="264"/>
+      <c r="H9" s="264"/>
+      <c r="I9" s="264"/>
+      <c r="J9" s="264"/>
+      <c r="K9" s="265"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="154"/>
@@ -5616,62 +5772,62 @@
       <c r="F10" s="140"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="222" t="s">
+      <c r="A11" s="276" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="223"/>
-      <c r="C11" s="223"/>
-      <c r="D11" s="224"/>
+      <c r="B11" s="277"/>
+      <c r="C11" s="277"/>
+      <c r="D11" s="278"/>
       <c r="E11" s="86"/>
       <c r="F11" s="140"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="225" t="s">
+      <c r="A12" s="279" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="226"/>
-      <c r="C12" s="227" t="s">
+      <c r="B12" s="280"/>
+      <c r="C12" s="281" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="228"/>
+      <c r="D12" s="282"/>
       <c r="E12" s="86"/>
       <c r="F12" s="140"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="229"/>
-      <c r="B13" s="230"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="232"/>
+      <c r="A13" s="283"/>
+      <c r="B13" s="284"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="286"/>
       <c r="E13" s="86"/>
       <c r="F13" s="140"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="222" t="s">
+      <c r="A15" s="276" t="s">
         <v>248</v>
       </c>
-      <c r="B15" s="224"/>
-      <c r="E15" s="222" t="s">
+      <c r="B15" s="278"/>
+      <c r="E15" s="276" t="s">
         <v>288</v>
       </c>
-      <c r="F15" s="223"/>
-      <c r="G15" s="223"/>
-      <c r="H15" s="223"/>
-      <c r="I15" s="224"/>
+      <c r="F15" s="277"/>
+      <c r="G15" s="277"/>
+      <c r="H15" s="277"/>
+      <c r="I15" s="278"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="233" t="s">
+      <c r="A16" s="271" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="234"/>
+      <c r="B16" s="272"/>
       <c r="D16" s="87"/>
-      <c r="E16" s="249" t="s">
+      <c r="E16" s="266" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="250"/>
-      <c r="G16" s="250"/>
-      <c r="H16" s="250"/>
-      <c r="I16" s="251"/>
+      <c r="F16" s="267"/>
+      <c r="G16" s="267"/>
+      <c r="H16" s="267"/>
+      <c r="I16" s="268"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="155" t="s">
@@ -5681,17 +5837,17 @@
         <v>251</v>
       </c>
       <c r="C17" s="88"/>
-      <c r="E17" s="252" t="s">
+      <c r="E17" s="269" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="253"/>
-      <c r="G17" s="193" t="s">
+      <c r="F17" s="270"/>
+      <c r="G17" s="192" t="s">
         <v>159</v>
       </c>
-      <c r="H17" s="193" t="s">
+      <c r="H17" s="192" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="182" t="s">
+      <c r="I17" s="181" t="s">
         <v>329</v>
       </c>
       <c r="J17" s="80"/>
@@ -5714,7 +5870,7 @@
       <c r="H18" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="237" t="s">
+      <c r="I18" s="245" t="s">
         <v>444</v>
       </c>
       <c r="J18" s="80"/>
@@ -5737,7 +5893,7 @@
       <c r="H19" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="I19" s="237"/>
+      <c r="I19" s="245"/>
       <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5754,7 +5910,7 @@
       </c>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
-      <c r="I20" s="238"/>
+      <c r="I20" s="246"/>
       <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5776,31 +5932,31 @@
       <c r="A23" s="159"/>
       <c r="B23" s="91"/>
       <c r="C23" s="90"/>
-      <c r="E23" s="217" t="s">
+      <c r="E23" s="247" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="239"/>
-      <c r="G23" s="239"/>
-      <c r="H23" s="239"/>
-      <c r="I23" s="218"/>
+      <c r="F23" s="248"/>
+      <c r="G23" s="248"/>
+      <c r="H23" s="248"/>
+      <c r="I23" s="249"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="217" t="s">
+      <c r="A24" s="247" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="218"/>
+      <c r="B24" s="249"/>
       <c r="C24" s="31"/>
-      <c r="E24" s="257" t="s">
+      <c r="E24" s="253" t="s">
         <v>208</v>
       </c>
-      <c r="F24" s="258"/>
-      <c r="G24" s="193" t="s">
+      <c r="F24" s="254"/>
+      <c r="G24" s="192" t="s">
         <v>159</v>
       </c>
-      <c r="H24" s="193" t="s">
+      <c r="H24" s="192" t="s">
         <v>160</v>
       </c>
-      <c r="I24" s="182" t="s">
+      <c r="I24" s="181" t="s">
         <v>330</v>
       </c>
     </row>
@@ -5822,7 +5978,7 @@
       <c r="H25" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="254" t="s">
+      <c r="I25" s="250" t="s">
         <v>445</v>
       </c>
     </row>
@@ -5846,7 +6002,7 @@
       <c r="H26" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="I26" s="255"/>
+      <c r="I26" s="251"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="157" t="s">
@@ -5862,7 +6018,7 @@
       </c>
       <c r="G27" s="70"/>
       <c r="H27" s="70"/>
-      <c r="I27" s="256"/>
+      <c r="I27" s="252"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="157" t="s">
@@ -5886,37 +6042,37 @@
       <c r="A30" s="158"/>
       <c r="B30" s="115"/>
       <c r="C30" s="88"/>
-      <c r="E30" s="217" t="s">
+      <c r="E30" s="247" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="239"/>
-      <c r="G30" s="239"/>
-      <c r="H30" s="239"/>
-      <c r="I30" s="218"/>
+      <c r="F30" s="248"/>
+      <c r="G30" s="248"/>
+      <c r="H30" s="248"/>
+      <c r="I30" s="249"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="159"/>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
-      <c r="E31" s="259" t="s">
+      <c r="E31" s="255" t="s">
         <v>430</v>
       </c>
-      <c r="F31" s="260"/>
-      <c r="G31" s="191" t="s">
+      <c r="F31" s="256"/>
+      <c r="G31" s="190" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="191" t="s">
+      <c r="H31" s="190" t="s">
         <v>160</v>
       </c>
-      <c r="I31" s="182" t="s">
+      <c r="I31" s="181" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="217" t="s">
+      <c r="A32" s="247" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="218"/>
+      <c r="B32" s="249"/>
       <c r="C32" s="31"/>
       <c r="E32" s="82">
         <v>1</v>
@@ -5926,7 +6082,7 @@
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="73"/>
-      <c r="I32" s="237"/>
+      <c r="I32" s="245"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="155" t="s">
@@ -5946,7 +6102,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="32"/>
-      <c r="I33" s="237"/>
+      <c r="I33" s="245"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="156" t="s">
@@ -5961,7 +6117,7 @@
       <c r="F34" s="92"/>
       <c r="G34" s="32"/>
       <c r="H34" s="73"/>
-      <c r="I34" s="237"/>
+      <c r="I34" s="245"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="157" t="s">
@@ -5974,7 +6130,7 @@
       <c r="F35" s="92"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
-      <c r="I35" s="237"/>
+      <c r="I35" s="245"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="157" t="s">
@@ -5987,7 +6143,7 @@
       <c r="F36" s="92"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
-      <c r="I36" s="237"/>
+      <c r="I36" s="245"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="157" t="s">
@@ -6000,7 +6156,7 @@
       <c r="F37" s="138"/>
       <c r="G37" s="70"/>
       <c r="H37" s="70"/>
-      <c r="I37" s="238"/>
+      <c r="I37" s="246"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="158" t="s">
@@ -6013,24 +6169,24 @@
       <c r="B39" s="119"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="217" t="s">
+      <c r="E40" s="247" t="s">
         <v>187</v>
       </c>
-      <c r="F40" s="239"/>
-      <c r="G40" s="239"/>
-      <c r="H40" s="239"/>
-      <c r="I40" s="218"/>
+      <c r="F40" s="248"/>
+      <c r="G40" s="248"/>
+      <c r="H40" s="248"/>
+      <c r="I40" s="249"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="257"/>
-      <c r="F41" s="258"/>
+      <c r="E41" s="253"/>
+      <c r="F41" s="254"/>
       <c r="G41" s="81" t="s">
         <v>159</v>
       </c>
       <c r="H41" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="I41" s="182" t="s">
+      <c r="I41" s="181" t="s">
         <v>332</v>
       </c>
     </row>
@@ -6041,7 +6197,7 @@
       <c r="F42" s="92"/>
       <c r="G42" s="32"/>
       <c r="H42" s="73"/>
-      <c r="I42" s="237"/>
+      <c r="I42" s="245"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="82">
@@ -6050,7 +6206,7 @@
       <c r="F43" s="92"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
-      <c r="I43" s="237"/>
+      <c r="I43" s="245"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="82">
@@ -6059,7 +6215,7 @@
       <c r="F44" s="92"/>
       <c r="G44" s="32"/>
       <c r="H44" s="73"/>
-      <c r="I44" s="237"/>
+      <c r="I44" s="245"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="82">
@@ -6068,7 +6224,7 @@
       <c r="F45" s="92"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
-      <c r="I45" s="237"/>
+      <c r="I45" s="245"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="82">
@@ -6077,7 +6233,7 @@
       <c r="F46" s="92"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
-      <c r="I46" s="237"/>
+      <c r="I46" s="245"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="83">
@@ -6086,25 +6242,11 @@
       <c r="F47" s="138"/>
       <c r="G47" s="70"/>
       <c r="H47" s="70"/>
-      <c r="I47" s="238"/>
+      <c r="I47" s="246"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -6120,6 +6262,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6131,10 +6287,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6159,32 +6315,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="293" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="266"/>
-      <c r="F1" s="266"/>
-      <c r="G1" s="266"/>
-      <c r="H1" s="266"/>
-      <c r="I1" s="266"/>
-      <c r="J1" s="267"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="295"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="296" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="270"/>
+      <c r="B2" s="297"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="297"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="297"/>
+      <c r="H2" s="297"/>
+      <c r="I2" s="297"/>
+      <c r="J2" s="298"/>
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="74"/>
@@ -6198,13 +6354,13 @@
       <c r="B3" s="169" t="s">
         <v>290</v>
       </c>
-      <c r="C3" s="271" t="s">
+      <c r="C3" s="299" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="272"/>
-      <c r="E3" s="272"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="273"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="301"/>
       <c r="H3" s="169" t="s">
         <v>291</v>
       </c>
@@ -6248,7 +6404,7 @@
       <c r="I4" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="186" t="s">
+      <c r="J4" s="185" t="s">
         <v>374</v>
       </c>
       <c r="K4" s="3"/>
@@ -6258,7 +6414,7 @@
       <c r="A5" s="106">
         <v>1</v>
       </c>
-      <c r="B5" s="194" t="s">
+      <c r="B5" s="193" t="s">
         <v>446</v>
       </c>
       <c r="C5" s="107">
@@ -6277,10 +6433,10 @@
         <v>447</v>
       </c>
       <c r="J5" s="110"/>
-      <c r="K5" s="195" t="s">
+      <c r="K5" s="194" t="s">
         <v>431</v>
       </c>
-      <c r="L5" s="195" t="s">
+      <c r="L5" s="194" t="s">
         <v>432</v>
       </c>
     </row>
@@ -6289,7 +6445,7 @@
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="193" t="s">
         <v>448</v>
       </c>
       <c r="C6" s="107">
@@ -6308,10 +6464,10 @@
         <v>449</v>
       </c>
       <c r="J6" s="110"/>
-      <c r="K6" s="195" t="s">
+      <c r="K6" s="194" t="s">
         <v>433</v>
       </c>
-      <c r="L6" s="195" t="s">
+      <c r="L6" s="194" t="s">
         <v>434</v>
       </c>
     </row>
@@ -6320,7 +6476,7 @@
         <f t="shared" ref="A7:A22" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="193" t="s">
         <v>450</v>
       </c>
       <c r="C7" s="107">
@@ -6339,10 +6495,10 @@
         <v>451</v>
       </c>
       <c r="J7" s="110"/>
-      <c r="K7" s="195" t="s">
+      <c r="K7" s="194" t="s">
         <v>435</v>
       </c>
-      <c r="L7" s="195" t="s">
+      <c r="L7" s="194" t="s">
         <v>436</v>
       </c>
     </row>
@@ -6351,7 +6507,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="205" t="s">
+      <c r="B8" s="204" t="s">
         <v>457</v>
       </c>
       <c r="C8" s="107"/>
@@ -6374,17 +6530,17 @@
       <c r="J8" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="195" t="s">
+      <c r="K8" s="194" t="s">
         <v>471</v>
       </c>
-      <c r="L8" s="195"/>
+      <c r="L8" s="194"/>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="106">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="205" t="s">
+      <c r="B9" s="204" t="s">
         <v>458</v>
       </c>
       <c r="C9" s="107"/>
@@ -6407,17 +6563,17 @@
       <c r="J9" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="195" t="s">
+      <c r="K9" s="194" t="s">
         <v>472</v>
       </c>
-      <c r="L9" s="195"/>
+      <c r="L9" s="194"/>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="106">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="205" t="s">
+      <c r="B10" s="204" t="s">
         <v>459</v>
       </c>
       <c r="C10" s="107"/>
@@ -6440,17 +6596,17 @@
       <c r="J10" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="195" t="s">
+      <c r="K10" s="194" t="s">
         <v>431</v>
       </c>
-      <c r="L10" s="195"/>
+      <c r="L10" s="194"/>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="106">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="205" t="s">
+      <c r="B11" s="204" t="s">
         <v>460</v>
       </c>
       <c r="C11" s="107"/>
@@ -6473,17 +6629,17 @@
       <c r="J11" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="195" t="s">
+      <c r="K11" s="194" t="s">
         <v>432</v>
       </c>
-      <c r="L11" s="195"/>
+      <c r="L11" s="194"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="106">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="205" t="s">
+      <c r="B12" s="204" t="s">
         <v>461</v>
       </c>
       <c r="C12" s="107"/>
@@ -6506,17 +6662,17 @@
       <c r="J12" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="195" t="s">
+      <c r="K12" s="194" t="s">
         <v>473</v>
       </c>
-      <c r="L12" s="195"/>
+      <c r="L12" s="194"/>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="106">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="205" t="s">
+      <c r="B13" s="204" t="s">
         <v>462</v>
       </c>
       <c r="C13" s="107"/>
@@ -6539,17 +6695,17 @@
       <c r="J13" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="195" t="s">
+      <c r="K13" s="194" t="s">
         <v>474</v>
       </c>
-      <c r="L13" s="195"/>
+      <c r="L13" s="194"/>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="106">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="205" t="s">
+      <c r="B14" s="204" t="s">
         <v>463</v>
       </c>
       <c r="C14" s="107"/>
@@ -6572,17 +6728,17 @@
       <c r="J14" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="195" t="s">
+      <c r="K14" s="194" t="s">
         <v>471</v>
       </c>
-      <c r="L14" s="195"/>
+      <c r="L14" s="194"/>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="106">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="205" t="s">
+      <c r="B15" s="204" t="s">
         <v>464</v>
       </c>
       <c r="C15" s="107"/>
@@ -6605,10 +6761,10 @@
       <c r="J15" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="195" t="s">
+      <c r="K15" s="194" t="s">
         <v>472</v>
       </c>
-      <c r="L15" s="195"/>
+      <c r="L15" s="194"/>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="106">
@@ -6630,11 +6786,11 @@
       <c r="J16" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="192" t="s">
+      <c r="K16" s="191" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="106">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6654,11 +6810,11 @@
       <c r="J17" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="192" t="s">
+      <c r="K17" s="191" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="106">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6678,11 +6834,11 @@
       <c r="J18" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="192" t="s">
+      <c r="K18" s="191" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="106">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6702,11 +6858,11 @@
       <c r="J19" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="192" t="s">
+      <c r="K19" s="191" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="106">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6726,11 +6882,11 @@
       <c r="J20" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="192" t="s">
+      <c r="K20" s="191" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="106">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6750,112 +6906,116 @@
       <c r="J21" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="192" t="s">
+      <c r="K21" s="191" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="106">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="196" t="s">
+      <c r="B22" s="195" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="197"/>
-      <c r="D22" s="197"/>
-      <c r="E22" s="197"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="197"/>
-      <c r="H22" s="198">
+      <c r="C22" s="196"/>
+      <c r="D22" s="196"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="197">
         <v>2</v>
       </c>
-      <c r="I22" s="199"/>
-      <c r="J22" s="200" t="s">
+      <c r="I22" s="198"/>
+      <c r="J22" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="192" t="s">
+      <c r="K22" s="191" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K23" s="192"/>
-    </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="286" t="s">
+    <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="191"/>
+    </row>
+    <row r="24" spans="1:18" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="385" t="s">
         <v>216</v>
       </c>
-      <c r="B24" s="287"/>
-      <c r="C24" s="287"/>
-      <c r="D24" s="287"/>
-      <c r="E24" s="287"/>
-      <c r="F24" s="287"/>
-      <c r="G24" s="287"/>
-      <c r="H24" s="287"/>
-      <c r="I24" s="287"/>
-      <c r="J24" s="287"/>
-      <c r="K24" s="287"/>
-      <c r="L24" s="287"/>
-      <c r="M24" s="287"/>
-      <c r="N24" s="287"/>
-      <c r="O24" s="287"/>
-      <c r="P24" s="287"/>
-      <c r="Q24" s="288"/>
-    </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B24" s="386"/>
+      <c r="C24" s="386"/>
+      <c r="D24" s="386"/>
+      <c r="E24" s="386"/>
+      <c r="F24" s="386"/>
+      <c r="G24" s="386"/>
+      <c r="H24" s="386"/>
+      <c r="I24" s="386"/>
+      <c r="J24" s="386"/>
+      <c r="K24" s="386"/>
+      <c r="L24" s="386"/>
+      <c r="M24" s="386"/>
+      <c r="N24" s="386"/>
+      <c r="O24" s="386"/>
+      <c r="P24" s="386"/>
+      <c r="Q24" s="386"/>
+      <c r="R24" s="386"/>
+    </row>
+    <row r="25" spans="1:18" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="135" t="s">
         <v>254</v>
       </c>
-      <c r="B25" s="183" t="s">
+      <c r="B25" s="182" t="s">
         <v>337</v>
       </c>
-      <c r="C25" s="185" t="s">
+      <c r="C25" s="184" t="s">
         <v>305</v>
       </c>
-      <c r="D25" s="185" t="s">
+      <c r="D25" s="184" t="s">
         <v>339</v>
       </c>
-      <c r="E25" s="185" t="s">
+      <c r="E25" s="184" t="s">
         <v>241</v>
       </c>
-      <c r="F25" s="185" t="s">
+      <c r="F25" s="184" t="s">
         <v>354</v>
       </c>
-      <c r="G25" s="185" t="s">
+      <c r="G25" s="184" t="s">
         <v>401</v>
       </c>
-      <c r="H25" s="185" t="s">
+      <c r="H25" s="184" t="s">
         <v>241</v>
       </c>
-      <c r="I25" s="185" t="s">
+      <c r="I25" s="184" t="s">
         <v>401</v>
       </c>
-      <c r="J25" s="185" t="s">
+      <c r="J25" s="184" t="s">
         <v>412</v>
       </c>
-      <c r="K25" s="185" t="s">
+      <c r="K25" s="184" t="s">
         <v>401</v>
       </c>
       <c r="L25" s="121" t="s">
         <v>243</v>
       </c>
-      <c r="M25" s="121" t="s">
+      <c r="M25" s="383" t="s">
         <v>243</v>
       </c>
       <c r="N25" s="121" t="s">
         <v>243</v>
       </c>
-      <c r="O25" s="185" t="s">
-        <v>249</v>
-      </c>
-      <c r="P25" s="185" t="s">
+      <c r="O25" s="121" t="s">
+        <v>243</v>
+      </c>
+      <c r="P25" s="184" t="s">
         <v>249</v>
       </c>
       <c r="Q25" s="184" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R25" s="183" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="143"/>
       <c r="B26" s="95" t="s">
         <v>20</v>
@@ -6890,29 +7050,32 @@
       <c r="L26" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="M26" s="95" t="s">
+      <c r="M26" s="384" t="s">
+        <v>532</v>
+      </c>
+      <c r="N26" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="N26" s="95" t="s">
+      <c r="O26" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="O26" s="95" t="s">
+      <c r="P26" s="95" t="s">
         <v>226</v>
       </c>
-      <c r="P26" s="95" t="s">
+      <c r="Q26" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="Q26" s="116" t="s">
+      <c r="R26" s="116" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="201"/>
-      <c r="B27" s="202" t="s">
+    <row r="27" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="200"/>
+      <c r="B27" s="201" t="s">
         <v>404</v>
       </c>
-      <c r="C27" s="202"/>
-      <c r="D27" s="202"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="201"/>
       <c r="E27" s="151"/>
       <c r="F27" s="151"/>
       <c r="G27" s="151" t="s">
@@ -6929,86 +7092,87 @@
       <c r="L27" s="151">
         <v>100</v>
       </c>
-      <c r="M27" s="151">
+      <c r="M27" s="242"/>
+      <c r="N27" s="151">
         <v>0</v>
       </c>
-      <c r="N27" s="151"/>
-      <c r="O27" s="151">
+      <c r="O27" s="151"/>
+      <c r="P27" s="151">
         <v>4</v>
       </c>
-      <c r="P27" s="151">
+      <c r="Q27" s="151">
         <v>10</v>
       </c>
-      <c r="Q27" s="152">
+      <c r="R27" s="152">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="283" t="s">
+    <row r="28" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:18" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="311" t="s">
         <v>253</v>
       </c>
-      <c r="B29" s="284"/>
-      <c r="C29" s="284"/>
-      <c r="D29" s="284"/>
-      <c r="E29" s="284"/>
-      <c r="F29" s="284"/>
-      <c r="G29" s="284"/>
-      <c r="H29" s="285"/>
-    </row>
-    <row r="30" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="274" t="s">
+      <c r="B29" s="312"/>
+      <c r="C29" s="312"/>
+      <c r="D29" s="312"/>
+      <c r="E29" s="312"/>
+      <c r="F29" s="312"/>
+      <c r="G29" s="312"/>
+      <c r="H29" s="313"/>
+    </row>
+    <row r="30" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="302" t="s">
         <v>334</v>
       </c>
-      <c r="B30" s="275"/>
-      <c r="C30" s="275"/>
-      <c r="D30" s="275"/>
-      <c r="E30" s="275"/>
-      <c r="F30" s="275"/>
-      <c r="G30" s="275"/>
-      <c r="H30" s="276"/>
-    </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="277"/>
-      <c r="B31" s="278"/>
-      <c r="C31" s="278"/>
-      <c r="D31" s="278"/>
-      <c r="E31" s="278"/>
-      <c r="F31" s="278"/>
-      <c r="G31" s="278"/>
-      <c r="H31" s="279"/>
-    </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="277"/>
-      <c r="B32" s="278"/>
-      <c r="C32" s="278"/>
-      <c r="D32" s="278"/>
-      <c r="E32" s="278"/>
-      <c r="F32" s="278"/>
-      <c r="G32" s="278"/>
-      <c r="H32" s="279"/>
+      <c r="B30" s="303"/>
+      <c r="C30" s="303"/>
+      <c r="D30" s="303"/>
+      <c r="E30" s="303"/>
+      <c r="F30" s="303"/>
+      <c r="G30" s="303"/>
+      <c r="H30" s="304"/>
+    </row>
+    <row r="31" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="305"/>
+      <c r="B31" s="306"/>
+      <c r="C31" s="306"/>
+      <c r="D31" s="306"/>
+      <c r="E31" s="306"/>
+      <c r="F31" s="306"/>
+      <c r="G31" s="306"/>
+      <c r="H31" s="307"/>
+    </row>
+    <row r="32" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="305"/>
+      <c r="B32" s="306"/>
+      <c r="C32" s="306"/>
+      <c r="D32" s="306"/>
+      <c r="E32" s="306"/>
+      <c r="F32" s="306"/>
+      <c r="G32" s="306"/>
+      <c r="H32" s="307"/>
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="280"/>
-      <c r="B33" s="281"/>
-      <c r="C33" s="281"/>
-      <c r="D33" s="281"/>
-      <c r="E33" s="281"/>
-      <c r="F33" s="281"/>
-      <c r="G33" s="281"/>
-      <c r="H33" s="282"/>
+      <c r="A33" s="308"/>
+      <c r="B33" s="309"/>
+      <c r="C33" s="309"/>
+      <c r="D33" s="309"/>
+      <c r="E33" s="309"/>
+      <c r="F33" s="309"/>
+      <c r="G33" s="309"/>
+      <c r="H33" s="310"/>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="262" t="s">
+      <c r="A35" s="290" t="s">
         <v>280</v>
       </c>
-      <c r="B35" s="263"/>
-      <c r="C35" s="263"/>
-      <c r="D35" s="263"/>
-      <c r="E35" s="263"/>
-      <c r="F35" s="263"/>
-      <c r="G35" s="264"/>
+      <c r="B35" s="291"/>
+      <c r="C35" s="291"/>
+      <c r="D35" s="291"/>
+      <c r="E35" s="291"/>
+      <c r="F35" s="291"/>
+      <c r="G35" s="292"/>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="77" t="s">
@@ -7020,12 +7184,12 @@
       <c r="C36" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="D36" s="261" t="s">
+      <c r="D36" s="289" t="s">
         <v>283</v>
       </c>
-      <c r="E36" s="261"/>
-      <c r="F36" s="261"/>
-      <c r="G36" s="261"/>
+      <c r="E36" s="289"/>
+      <c r="F36" s="289"/>
+      <c r="G36" s="289"/>
     </row>
     <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -7057,7 +7221,7 @@
       <c r="C38" t="s">
         <v>410</v>
       </c>
-      <c r="D38" s="180" t="s">
+      <c r="D38" s="179" t="s">
         <v>307</v>
       </c>
       <c r="E38"/>
@@ -7137,7 +7301,7 @@
       <c r="C42" t="s">
         <v>410</v>
       </c>
-      <c r="D42" s="180" t="s">
+      <c r="D42" s="179" t="s">
         <v>376</v>
       </c>
       <c r="E42"/>
@@ -7157,7 +7321,7 @@
       <c r="C43" t="s">
         <v>410</v>
       </c>
-      <c r="D43" s="180" t="s">
+      <c r="D43" s="179" t="s">
         <v>357</v>
       </c>
       <c r="E43"/>
@@ -7177,7 +7341,7 @@
       <c r="C44" t="s">
         <v>410</v>
       </c>
-      <c r="D44" s="180" t="s">
+      <c r="D44" s="179" t="s">
         <v>377</v>
       </c>
       <c r="E44"/>
@@ -7197,7 +7361,7 @@
       <c r="C45" t="s">
         <v>410</v>
       </c>
-      <c r="D45" s="180" t="s">
+      <c r="D45" s="179" t="s">
         <v>379</v>
       </c>
       <c r="E45"/>
@@ -7217,7 +7381,7 @@
       <c r="C46" t="s">
         <v>410</v>
       </c>
-      <c r="D46" s="180" t="s">
+      <c r="D46" s="179" t="s">
         <v>378</v>
       </c>
       <c r="E46"/>
@@ -7237,7 +7401,7 @@
       <c r="C47" t="s">
         <v>410</v>
       </c>
-      <c r="D47" s="180" t="s">
+      <c r="D47" s="179" t="s">
         <v>380</v>
       </c>
       <c r="E47"/>
@@ -7257,7 +7421,7 @@
       <c r="C48" t="s">
         <v>410</v>
       </c>
-      <c r="D48" s="180" t="s">
+      <c r="D48" s="179" t="s">
         <v>383</v>
       </c>
     </row>
@@ -7285,7 +7449,7 @@
       <c r="C50" t="s">
         <v>410</v>
       </c>
-      <c r="D50" s="180" t="s">
+      <c r="D50" s="179" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7299,7 +7463,7 @@
       <c r="C51" t="s">
         <v>410</v>
       </c>
-      <c r="D51" s="180" t="s">
+      <c r="D51" s="179" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7313,7 +7477,7 @@
       <c r="C52" t="s">
         <v>410</v>
       </c>
-      <c r="D52" s="180" t="s">
+      <c r="D52" s="179" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7327,7 +7491,7 @@
       <c r="C53" t="s">
         <v>410</v>
       </c>
-      <c r="D53" s="180" t="s">
+      <c r="D53" s="179" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7341,7 +7505,7 @@
       <c r="C54" t="s">
         <v>410</v>
       </c>
-      <c r="D54" s="180" t="s">
+      <c r="D54" s="179" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7550,7 +7714,7 @@
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="A30:H33"/>
     <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A24:R24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7638,7 +7802,7 @@
   </sheetPr>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -7658,32 +7822,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="298" t="s">
+      <c r="A1" s="326" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="299"/>
-      <c r="C1" s="299"/>
-      <c r="D1" s="299"/>
-      <c r="E1" s="299"/>
-      <c r="F1" s="299"/>
-      <c r="G1" s="299"/>
-      <c r="H1" s="299"/>
-      <c r="I1" s="299"/>
-      <c r="J1" s="300"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="328"/>
     </row>
     <row r="2" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="286" t="s">
+      <c r="A2" s="314" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="287"/>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287"/>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="288"/>
+      <c r="B2" s="315"/>
+      <c r="C2" s="315"/>
+      <c r="D2" s="315"/>
+      <c r="E2" s="315"/>
+      <c r="F2" s="315"/>
+      <c r="G2" s="315"/>
+      <c r="H2" s="315"/>
+      <c r="I2" s="315"/>
+      <c r="J2" s="316"/>
     </row>
     <row r="3" spans="1:10" s="111" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="129" t="s">
@@ -7754,7 +7918,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="190" t="s">
+      <c r="G5" s="189" t="s">
         <v>278</v>
       </c>
       <c r="H5" s="163"/>
@@ -7762,18 +7926,18 @@
       <c r="J5" s="163"/>
     </row>
     <row r="6" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="286" t="s">
+      <c r="A6" s="314" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="287"/>
-      <c r="C6" s="287"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="287"/>
-      <c r="I6" s="287"/>
-      <c r="J6" s="288"/>
+      <c r="B6" s="315"/>
+      <c r="C6" s="315"/>
+      <c r="D6" s="315"/>
+      <c r="E6" s="315"/>
+      <c r="F6" s="315"/>
+      <c r="G6" s="315"/>
+      <c r="H6" s="315"/>
+      <c r="I6" s="315"/>
+      <c r="J6" s="316"/>
     </row>
     <row r="7" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="122" t="s">
@@ -7824,18 +7988,18 @@
       <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="286" t="s">
+      <c r="A10" s="314" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="287"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="287"/>
-      <c r="I10" s="287"/>
-      <c r="J10" s="288"/>
+      <c r="B10" s="315"/>
+      <c r="C10" s="315"/>
+      <c r="D10" s="315"/>
+      <c r="E10" s="315"/>
+      <c r="F10" s="315"/>
+      <c r="G10" s="315"/>
+      <c r="H10" s="315"/>
+      <c r="I10" s="315"/>
+      <c r="J10" s="316"/>
     </row>
     <row r="11" spans="1:10" s="111" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="125"/>
@@ -7990,102 +8154,102 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="343" t="s">
+      <c r="A17" s="330" t="s">
+        <v>487</v>
+      </c>
+      <c r="B17" s="331"/>
+      <c r="C17" s="331"/>
+      <c r="D17" s="331"/>
+      <c r="E17" s="331"/>
+      <c r="F17" s="331"/>
+      <c r="G17" s="331"/>
+      <c r="H17" s="331"/>
+      <c r="I17" s="331"/>
+      <c r="J17" s="332"/>
+    </row>
+    <row r="18" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="215"/>
+      <c r="B18" s="216" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="216" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="216" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="217" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="218" t="s">
+        <v>297</v>
+      </c>
+      <c r="G18" s="218"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="219"/>
+      <c r="J18" s="220"/>
+    </row>
+    <row r="19" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="221" t="s">
+        <v>488</v>
+      </c>
+      <c r="B19" s="222" t="s">
         <v>489</v>
       </c>
-      <c r="B17" s="344"/>
-      <c r="C17" s="344"/>
-      <c r="D17" s="344"/>
-      <c r="E17" s="344"/>
-      <c r="F17" s="344"/>
-      <c r="G17" s="344"/>
-      <c r="H17" s="344"/>
-      <c r="I17" s="344"/>
-      <c r="J17" s="345"/>
-    </row>
-    <row r="18" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="346"/>
-      <c r="B18" s="347" t="s">
-        <v>250</v>
-      </c>
-      <c r="C18" s="347" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="347" t="s">
-        <v>233</v>
-      </c>
-      <c r="E18" s="348" t="s">
-        <v>298</v>
-      </c>
-      <c r="F18" s="349" t="s">
-        <v>297</v>
-      </c>
-      <c r="G18" s="349"/>
-      <c r="H18" s="350"/>
-      <c r="I18" s="350"/>
-      <c r="J18" s="351"/>
-    </row>
-    <row r="19" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="352" t="s">
+      <c r="C19" s="223" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="223" t="s">
         <v>490</v>
       </c>
-      <c r="B19" s="353" t="s">
-        <v>491</v>
-      </c>
-      <c r="C19" s="354" t="s">
-        <v>232</v>
-      </c>
-      <c r="D19" s="354" t="s">
-        <v>492</v>
-      </c>
-      <c r="E19" s="354" t="s">
+      <c r="E19" s="223" t="s">
         <v>235</v>
       </c>
-      <c r="F19" s="355" t="s">
+      <c r="F19" s="224" t="s">
         <v>236</v>
       </c>
-      <c r="G19" s="353"/>
-      <c r="H19" s="356"/>
-      <c r="I19" s="356"/>
-      <c r="J19" s="357"/>
+      <c r="G19" s="222"/>
+      <c r="H19" s="225"/>
+      <c r="I19" s="225"/>
+      <c r="J19" s="226"/>
     </row>
     <row r="20" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="358"/>
-      <c r="B20" s="359"/>
-      <c r="C20" s="359"/>
-      <c r="D20" s="359"/>
-      <c r="E20" s="359"/>
-      <c r="F20" s="359"/>
-      <c r="G20" s="359"/>
-      <c r="H20" s="359"/>
-      <c r="I20" s="359"/>
-      <c r="J20" s="360"/>
+      <c r="A20" s="227"/>
+      <c r="B20" s="228"/>
+      <c r="C20" s="228"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="228"/>
+      <c r="F20" s="228"/>
+      <c r="G20" s="228"/>
+      <c r="H20" s="228"/>
+      <c r="I20" s="228"/>
+      <c r="J20" s="229"/>
     </row>
     <row r="21" spans="1:10" s="111" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="358"/>
-      <c r="B21" s="359"/>
-      <c r="C21" s="359"/>
-      <c r="D21" s="359"/>
-      <c r="E21" s="359"/>
-      <c r="F21" s="359"/>
-      <c r="G21" s="359"/>
-      <c r="H21" s="359"/>
-      <c r="I21" s="359"/>
-      <c r="J21" s="360"/>
+      <c r="A21" s="227"/>
+      <c r="B21" s="228"/>
+      <c r="C21" s="228"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="228"/>
+      <c r="F21" s="228"/>
+      <c r="G21" s="228"/>
+      <c r="H21" s="228"/>
+      <c r="I21" s="228"/>
+      <c r="J21" s="229"/>
     </row>
     <row r="22" spans="1:10" s="111" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="286" t="s">
+      <c r="A22" s="314" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="287"/>
-      <c r="C22" s="287"/>
-      <c r="D22" s="287"/>
-      <c r="E22" s="287"/>
-      <c r="F22" s="287"/>
-      <c r="G22" s="287"/>
-      <c r="H22" s="287"/>
-      <c r="I22" s="287"/>
-      <c r="J22" s="288"/>
+      <c r="B22" s="315"/>
+      <c r="C22" s="315"/>
+      <c r="D22" s="315"/>
+      <c r="E22" s="315"/>
+      <c r="F22" s="315"/>
+      <c r="G22" s="315"/>
+      <c r="H22" s="315"/>
+      <c r="I22" s="315"/>
+      <c r="J22" s="316"/>
     </row>
     <row r="23" spans="1:10" s="111" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="129" t="s">
@@ -8148,102 +8312,102 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="343" t="s">
+      <c r="A26" s="330" t="s">
+        <v>491</v>
+      </c>
+      <c r="B26" s="331"/>
+      <c r="C26" s="331"/>
+      <c r="D26" s="331"/>
+      <c r="E26" s="331"/>
+      <c r="F26" s="331"/>
+      <c r="G26" s="331"/>
+      <c r="H26" s="331"/>
+      <c r="I26" s="331"/>
+      <c r="J26" s="332"/>
+    </row>
+    <row r="27" spans="1:10" s="111" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="230" t="s">
+        <v>492</v>
+      </c>
+      <c r="B27" s="231" t="s">
+        <v>492</v>
+      </c>
+      <c r="C27" s="232" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" s="232" t="s">
+        <v>244</v>
+      </c>
+      <c r="E27" s="233" t="s">
+        <v>243</v>
+      </c>
+      <c r="F27" s="234" t="s">
         <v>493</v>
       </c>
-      <c r="B26" s="344"/>
-      <c r="C26" s="344"/>
-      <c r="D26" s="344"/>
-      <c r="E26" s="344"/>
-      <c r="F26" s="344"/>
-      <c r="G26" s="344"/>
-      <c r="H26" s="344"/>
-      <c r="I26" s="344"/>
-      <c r="J26" s="345"/>
-    </row>
-    <row r="27" spans="1:10" s="111" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="361" t="s">
-        <v>494</v>
-      </c>
-      <c r="B27" s="362" t="s">
-        <v>494</v>
-      </c>
-      <c r="C27" s="363" t="s">
-        <v>244</v>
-      </c>
-      <c r="D27" s="363" t="s">
-        <v>244</v>
-      </c>
-      <c r="E27" s="364" t="s">
+      <c r="G27" s="233" t="s">
         <v>243</v>
       </c>
-      <c r="F27" s="365" t="s">
-        <v>495</v>
-      </c>
-      <c r="G27" s="364" t="s">
-        <v>243</v>
-      </c>
-      <c r="H27" s="366"/>
-      <c r="I27" s="366"/>
-      <c r="J27" s="367"/>
+      <c r="H27" s="235"/>
+      <c r="I27" s="235"/>
+      <c r="J27" s="236"/>
     </row>
     <row r="28" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="368" t="s">
+      <c r="A28" s="237" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="353" t="s">
+      <c r="B28" s="222" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="369" t="s">
+      <c r="C28" s="238" t="s">
         <v>229</v>
       </c>
-      <c r="D28" s="369" t="s">
+      <c r="D28" s="238" t="s">
         <v>230</v>
       </c>
-      <c r="E28" s="369" t="s">
+      <c r="E28" s="238" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="369" t="s">
+      <c r="F28" s="238" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="353" t="s">
+      <c r="G28" s="222" t="s">
         <v>207</v>
       </c>
-      <c r="H28" s="370"/>
-      <c r="I28" s="370"/>
-      <c r="J28" s="371"/>
+      <c r="H28" s="239"/>
+      <c r="I28" s="239"/>
+      <c r="J28" s="240"/>
     </row>
     <row r="29" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="372"/>
-      <c r="B29" s="373"/>
-      <c r="C29" s="374"/>
-      <c r="D29" s="374"/>
-      <c r="E29" s="374"/>
-      <c r="F29" s="374"/>
-      <c r="G29" s="374"/>
-      <c r="H29" s="374"/>
-      <c r="I29" s="374"/>
-      <c r="J29" s="375"/>
+      <c r="A29" s="241"/>
+      <c r="B29" s="242"/>
+      <c r="C29" s="243"/>
+      <c r="D29" s="243"/>
+      <c r="E29" s="243"/>
+      <c r="F29" s="243"/>
+      <c r="G29" s="243"/>
+      <c r="H29" s="243"/>
+      <c r="I29" s="243"/>
+      <c r="J29" s="244"/>
     </row>
     <row r="30" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="286" t="s">
+      <c r="A30" s="314" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="287"/>
-      <c r="C30" s="287"/>
-      <c r="D30" s="287"/>
-      <c r="E30" s="287"/>
-      <c r="F30" s="287"/>
-      <c r="G30" s="287"/>
-      <c r="H30" s="287"/>
-      <c r="I30" s="287"/>
-      <c r="J30" s="288"/>
+      <c r="B30" s="315"/>
+      <c r="C30" s="315"/>
+      <c r="D30" s="315"/>
+      <c r="E30" s="315"/>
+      <c r="F30" s="315"/>
+      <c r="G30" s="315"/>
+      <c r="H30" s="315"/>
+      <c r="I30" s="315"/>
+      <c r="J30" s="316"/>
     </row>
     <row r="31" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="129" t="s">
         <v>254</v>
       </c>
-      <c r="B31" s="185" t="s">
+      <c r="B31" s="184" t="s">
         <v>339</v>
       </c>
       <c r="C31" s="130" t="s">
@@ -8252,7 +8416,7 @@
       <c r="D31" s="130" t="s">
         <v>240</v>
       </c>
-      <c r="E31" s="181" t="s">
+      <c r="E31" s="180" t="s">
         <v>339</v>
       </c>
       <c r="F31" s="126"/>
@@ -8283,10 +8447,10 @@
     </row>
     <row r="33" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="144"/>
-      <c r="B33" s="189" t="s">
+      <c r="B33" s="188" t="s">
         <v>424</v>
       </c>
-      <c r="C33" s="178"/>
+      <c r="C33" s="177"/>
       <c r="D33" s="120"/>
       <c r="E33" s="151" t="s">
         <v>425</v>
@@ -8299,58 +8463,58 @@
     </row>
     <row r="34" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:10" s="111" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="289" t="s">
+      <c r="A35" s="317" t="s">
         <v>253</v>
       </c>
-      <c r="B35" s="290"/>
-      <c r="C35" s="290"/>
-      <c r="D35" s="290"/>
-      <c r="E35" s="290"/>
-      <c r="F35" s="290"/>
-      <c r="G35" s="290"/>
-      <c r="H35" s="291"/>
+      <c r="B35" s="318"/>
+      <c r="C35" s="318"/>
+      <c r="D35" s="318"/>
+      <c r="E35" s="318"/>
+      <c r="F35" s="318"/>
+      <c r="G35" s="318"/>
+      <c r="H35" s="319"/>
     </row>
     <row r="36" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="292" t="s">
+      <c r="A36" s="320" t="s">
         <v>333</v>
       </c>
-      <c r="B36" s="293"/>
-      <c r="C36" s="293"/>
-      <c r="D36" s="293"/>
-      <c r="E36" s="293"/>
-      <c r="F36" s="293"/>
-      <c r="G36" s="293"/>
-      <c r="H36" s="294"/>
+      <c r="B36" s="321"/>
+      <c r="C36" s="321"/>
+      <c r="D36" s="321"/>
+      <c r="E36" s="321"/>
+      <c r="F36" s="321"/>
+      <c r="G36" s="321"/>
+      <c r="H36" s="322"/>
     </row>
     <row r="37" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="292"/>
-      <c r="B37" s="293"/>
-      <c r="C37" s="293"/>
-      <c r="D37" s="293"/>
-      <c r="E37" s="293"/>
-      <c r="F37" s="293"/>
-      <c r="G37" s="293"/>
-      <c r="H37" s="294"/>
+      <c r="A37" s="320"/>
+      <c r="B37" s="321"/>
+      <c r="C37" s="321"/>
+      <c r="D37" s="321"/>
+      <c r="E37" s="321"/>
+      <c r="F37" s="321"/>
+      <c r="G37" s="321"/>
+      <c r="H37" s="322"/>
     </row>
     <row r="38" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="292"/>
-      <c r="B38" s="293"/>
-      <c r="C38" s="293"/>
-      <c r="D38" s="293"/>
-      <c r="E38" s="293"/>
-      <c r="F38" s="293"/>
-      <c r="G38" s="293"/>
-      <c r="H38" s="294"/>
+      <c r="A38" s="320"/>
+      <c r="B38" s="321"/>
+      <c r="C38" s="321"/>
+      <c r="D38" s="321"/>
+      <c r="E38" s="321"/>
+      <c r="F38" s="321"/>
+      <c r="G38" s="321"/>
+      <c r="H38" s="322"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="295"/>
-      <c r="B39" s="296"/>
-      <c r="C39" s="296"/>
-      <c r="D39" s="296"/>
-      <c r="E39" s="296"/>
-      <c r="F39" s="296"/>
-      <c r="G39" s="296"/>
-      <c r="H39" s="297"/>
+      <c r="A39" s="323"/>
+      <c r="B39" s="324"/>
+      <c r="C39" s="324"/>
+      <c r="D39" s="324"/>
+      <c r="E39" s="324"/>
+      <c r="F39" s="324"/>
+      <c r="G39" s="324"/>
+      <c r="H39" s="325"/>
       <c r="I39" s="111"/>
       <c r="J39" s="111"/>
     </row>
@@ -8367,15 +8531,15 @@
       <c r="J40" s="111"/>
     </row>
     <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="301" t="s">
+      <c r="A41" s="329" t="s">
         <v>280</v>
       </c>
-      <c r="B41" s="301"/>
-      <c r="C41" s="301"/>
-      <c r="D41" s="301"/>
-      <c r="E41" s="301"/>
-      <c r="F41" s="301"/>
-      <c r="G41" s="301"/>
+      <c r="B41" s="329"/>
+      <c r="C41" s="329"/>
+      <c r="D41" s="329"/>
+      <c r="E41" s="329"/>
+      <c r="F41" s="329"/>
+      <c r="G41" s="329"/>
       <c r="H41" s="111"/>
       <c r="I41" s="111"/>
       <c r="J41" s="111"/>
@@ -8390,12 +8554,12 @@
       <c r="C42" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="D42" s="261" t="s">
+      <c r="D42" s="289" t="s">
         <v>283</v>
       </c>
-      <c r="E42" s="261"/>
-      <c r="F42" s="261"/>
-      <c r="G42" s="261"/>
+      <c r="E42" s="289"/>
+      <c r="F42" s="289"/>
+      <c r="G42" s="289"/>
       <c r="H42" s="111"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
@@ -8424,7 +8588,7 @@
       <c r="C44" t="s">
         <v>427</v>
       </c>
-      <c r="D44" s="180" t="s">
+      <c r="D44" s="179" t="s">
         <v>307</v>
       </c>
     </row>
@@ -8480,7 +8644,7 @@
       <c r="C48" t="s">
         <v>427</v>
       </c>
-      <c r="D48" s="180" t="s">
+      <c r="D48" s="179" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8494,7 +8658,7 @@
       <c r="C49" t="s">
         <v>427</v>
       </c>
-      <c r="D49" s="180" t="s">
+      <c r="D49" s="179" t="s">
         <v>346</v>
       </c>
     </row>
@@ -8508,7 +8672,7 @@
       <c r="C50" t="s">
         <v>427</v>
       </c>
-      <c r="D50" s="180" t="s">
+      <c r="D50" s="179" t="s">
         <v>426</v>
       </c>
     </row>
@@ -8522,7 +8686,7 @@
       <c r="C51" t="s">
         <v>427</v>
       </c>
-      <c r="D51" s="180" t="s">
+      <c r="D51" s="179" t="s">
         <v>347</v>
       </c>
     </row>
@@ -8536,7 +8700,7 @@
       <c r="C52" t="s">
         <v>427</v>
       </c>
-      <c r="D52" s="180" t="s">
+      <c r="D52" s="179" t="s">
         <v>348</v>
       </c>
     </row>
@@ -8612,7 +8776,7 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8637,201 +8801,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="350" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
-      <c r="N1" s="306"/>
-      <c r="O1" s="306"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="G1" s="350"/>
+      <c r="H1" s="350"/>
+      <c r="I1" s="350"/>
+      <c r="J1" s="350"/>
+      <c r="K1" s="350"/>
+      <c r="L1" s="350"/>
+      <c r="M1" s="350"/>
+      <c r="N1" s="350"/>
+      <c r="O1" s="350"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="317" t="s">
+      <c r="A2" s="338" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="318"/>
-      <c r="C2" s="318"/>
-      <c r="D2" s="318"/>
-      <c r="E2" s="318"/>
-      <c r="F2" s="319"/>
-      <c r="G2" s="307" t="s">
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="340"/>
+      <c r="G2" s="351" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="307"/>
-      <c r="I2" s="307"/>
-      <c r="J2" s="307"/>
-      <c r="K2" s="307"/>
-      <c r="L2" s="307"/>
-      <c r="M2" s="313" t="s">
+      <c r="H2" s="351"/>
+      <c r="I2" s="351"/>
+      <c r="J2" s="351"/>
+      <c r="K2" s="351"/>
+      <c r="L2" s="351"/>
+      <c r="M2" s="334" t="s">
         <v>268</v>
       </c>
-      <c r="N2" s="313"/>
-      <c r="O2" s="313"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
       <c r="P2" s="87"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="320" t="s">
+      <c r="A3" s="341" t="s">
         <v>476</v>
       </c>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="322"/>
-      <c r="G3" s="309" t="s">
+      <c r="B3" s="342"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="343"/>
+      <c r="G3" s="353" t="s">
         <v>274</v>
       </c>
-      <c r="H3" s="309"/>
-      <c r="I3" s="309"/>
-      <c r="J3" s="309"/>
-      <c r="K3" s="309"/>
-      <c r="L3" s="309"/>
-      <c r="M3" s="208" t="s">
+      <c r="H3" s="353"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="353"/>
+      <c r="K3" s="353"/>
+      <c r="L3" s="353"/>
+      <c r="M3" s="207" t="s">
         <v>272</v>
       </c>
-      <c r="N3" s="208" t="s">
+      <c r="N3" s="207" t="s">
         <v>339</v>
       </c>
-      <c r="O3" s="208" t="s">
+      <c r="O3" s="207" t="s">
         <v>339</v>
       </c>
-      <c r="P3" s="188"/>
+      <c r="P3" s="187"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="323" t="s">
+      <c r="A4" s="344" t="s">
         <v>477</v>
       </c>
-      <c r="B4" s="324"/>
-      <c r="C4" s="324"/>
-      <c r="D4" s="324"/>
-      <c r="E4" s="324"/>
-      <c r="F4" s="325"/>
-      <c r="G4" s="308" t="s">
+      <c r="B4" s="345"/>
+      <c r="C4" s="345"/>
+      <c r="D4" s="345"/>
+      <c r="E4" s="345"/>
+      <c r="F4" s="346"/>
+      <c r="G4" s="352" t="s">
         <v>220</v>
       </c>
-      <c r="H4" s="308"/>
-      <c r="I4" s="308"/>
-      <c r="J4" s="308" t="s">
+      <c r="H4" s="352"/>
+      <c r="I4" s="352"/>
+      <c r="J4" s="352" t="s">
         <v>275</v>
       </c>
-      <c r="K4" s="308"/>
-      <c r="L4" s="308"/>
-      <c r="M4" s="209" t="s">
+      <c r="K4" s="352"/>
+      <c r="L4" s="352"/>
+      <c r="M4" s="208" t="s">
         <v>154</v>
       </c>
-      <c r="N4" s="209" t="s">
+      <c r="N4" s="208" t="s">
         <v>340</v>
       </c>
-      <c r="O4" s="209" t="s">
+      <c r="O4" s="208" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="303" t="s">
+      <c r="A5" s="347" t="s">
         <v>478</v>
       </c>
-      <c r="B5" s="304"/>
-      <c r="C5" s="304"/>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="305"/>
-      <c r="G5" s="310" t="s">
+      <c r="B5" s="348"/>
+      <c r="C5" s="348"/>
+      <c r="D5" s="348"/>
+      <c r="E5" s="348"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="354" t="s">
         <v>258</v>
       </c>
-      <c r="H5" s="311"/>
-      <c r="I5" s="312"/>
-      <c r="J5" s="310" t="s">
+      <c r="H5" s="355"/>
+      <c r="I5" s="356"/>
+      <c r="J5" s="354" t="s">
         <v>273</v>
       </c>
-      <c r="K5" s="311"/>
-      <c r="L5" s="312"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="207" t="s">
+      <c r="K5" s="355"/>
+      <c r="L5" s="356"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206" t="s">
         <v>147</v>
       </c>
-      <c r="O5" s="206" t="s">
+      <c r="O5" s="205" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="303" t="s">
+      <c r="A6" s="347" t="s">
         <v>479</v>
       </c>
-      <c r="B6" s="304"/>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="304"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="302"/>
-      <c r="H6" s="302"/>
-      <c r="I6" s="302"/>
-      <c r="J6" s="302"/>
-      <c r="K6" s="302"/>
-      <c r="L6" s="302"/>
-      <c r="M6" s="210"/>
-      <c r="N6" s="210"/>
-      <c r="O6" s="211"/>
+      <c r="B6" s="348"/>
+      <c r="C6" s="348"/>
+      <c r="D6" s="348"/>
+      <c r="E6" s="348"/>
+      <c r="F6" s="349"/>
+      <c r="G6" s="333"/>
+      <c r="H6" s="333"/>
+      <c r="I6" s="333"/>
+      <c r="J6" s="333"/>
+      <c r="K6" s="333"/>
+      <c r="L6" s="333"/>
+      <c r="M6" s="209"/>
+      <c r="N6" s="209"/>
+      <c r="O6" s="210"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="303"/>
-      <c r="B7" s="304"/>
-      <c r="C7" s="304"/>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="305"/>
-      <c r="G7" s="302"/>
-      <c r="H7" s="302"/>
-      <c r="I7" s="302"/>
-      <c r="J7" s="302"/>
-      <c r="K7" s="302"/>
-      <c r="L7" s="302"/>
-      <c r="M7" s="210"/>
-      <c r="N7" s="210"/>
-      <c r="O7" s="211"/>
+      <c r="A7" s="347"/>
+      <c r="B7" s="348"/>
+      <c r="C7" s="348"/>
+      <c r="D7" s="348"/>
+      <c r="E7" s="348"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="333"/>
+      <c r="H7" s="333"/>
+      <c r="I7" s="333"/>
+      <c r="J7" s="333"/>
+      <c r="K7" s="333"/>
+      <c r="L7" s="333"/>
+      <c r="M7" s="209"/>
+      <c r="N7" s="209"/>
+      <c r="O7" s="210"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="303"/>
-      <c r="B8" s="304"/>
-      <c r="C8" s="304"/>
-      <c r="D8" s="304"/>
-      <c r="E8" s="304"/>
-      <c r="F8" s="305"/>
-      <c r="G8" s="302"/>
-      <c r="H8" s="302"/>
-      <c r="I8" s="302"/>
-      <c r="J8" s="302"/>
-      <c r="K8" s="302"/>
-      <c r="L8" s="302"/>
-      <c r="M8" s="210"/>
-      <c r="N8" s="210"/>
-      <c r="O8" s="211"/>
+      <c r="A8" s="347"/>
+      <c r="B8" s="348"/>
+      <c r="C8" s="348"/>
+      <c r="D8" s="348"/>
+      <c r="E8" s="348"/>
+      <c r="F8" s="349"/>
+      <c r="G8" s="333"/>
+      <c r="H8" s="333"/>
+      <c r="I8" s="333"/>
+      <c r="J8" s="333"/>
+      <c r="K8" s="333"/>
+      <c r="L8" s="333"/>
+      <c r="M8" s="209"/>
+      <c r="N8" s="209"/>
+      <c r="O8" s="210"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="314" t="s">
+      <c r="A10" s="335" t="s">
         <v>327</v>
       </c>
-      <c r="B10" s="315"/>
-      <c r="C10" s="315"/>
-      <c r="D10" s="315"/>
-      <c r="E10" s="315"/>
-      <c r="F10" s="315"/>
-      <c r="G10" s="315"/>
-      <c r="H10" s="315"/>
-      <c r="I10" s="316"/>
+      <c r="B10" s="336"/>
+      <c r="C10" s="336"/>
+      <c r="D10" s="336"/>
+      <c r="E10" s="336"/>
+      <c r="F10" s="336"/>
+      <c r="G10" s="336"/>
+      <c r="H10" s="336"/>
+      <c r="I10" s="337"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="129" t="s">
@@ -8840,31 +9004,34 @@
       <c r="B11" s="130" t="s">
         <v>305</v>
       </c>
-      <c r="C11" s="181" t="s">
+      <c r="C11" s="180" t="s">
         <v>339</v>
       </c>
       <c r="D11" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="E11" s="123" t="s">
+      <c r="E11" s="381" t="s">
         <v>243</v>
       </c>
       <c r="F11" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="G11" s="130" t="s">
-        <v>249</v>
+      <c r="G11" s="123" t="s">
+        <v>243</v>
       </c>
       <c r="H11" s="130" t="s">
         <v>249</v>
       </c>
-      <c r="I11" s="142" t="s">
+      <c r="I11" s="130" t="s">
         <v>249</v>
       </c>
-      <c r="K11" s="179"/>
-      <c r="L11" s="212"/>
-      <c r="M11" s="212"/>
-      <c r="N11" s="213"/>
+      <c r="J11" s="142" t="s">
+        <v>249</v>
+      </c>
+      <c r="L11" s="178"/>
+      <c r="M11" s="211"/>
+      <c r="N11" s="211"/>
+      <c r="O11" s="212"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="146"/>
@@ -8877,24 +9044,27 @@
       <c r="D12" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="145" t="s">
+      <c r="E12" s="382" t="s">
+        <v>532</v>
+      </c>
+      <c r="F12" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="145" t="s">
+      <c r="G12" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="145" t="s">
+      <c r="H12" s="145" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="145" t="s">
+      <c r="I12" s="145" t="s">
         <v>227</v>
       </c>
-      <c r="I12" s="147" t="s">
+      <c r="J12" s="147" t="s">
         <v>228</v>
       </c>
-      <c r="L12" s="212"/>
-      <c r="M12" s="212"/>
-      <c r="N12" s="214"/>
+      <c r="M12" s="211"/>
+      <c r="N12" s="211"/>
+      <c r="O12" s="213"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="144"/>
@@ -8903,85 +9073,86 @@
       <c r="D13" s="151">
         <v>100</v>
       </c>
-      <c r="E13" s="151">
+      <c r="E13" s="242"/>
+      <c r="F13" s="151">
         <v>0</v>
       </c>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151">
+      <c r="G13" s="151"/>
+      <c r="H13" s="151">
         <v>4</v>
       </c>
-      <c r="H13" s="151">
+      <c r="I13" s="151">
         <v>10</v>
       </c>
-      <c r="I13" s="152">
+      <c r="J13" s="152">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="289" t="s">
+      <c r="A15" s="317" t="s">
         <v>253</v>
       </c>
-      <c r="B15" s="290"/>
-      <c r="C15" s="290"/>
-      <c r="D15" s="290"/>
-      <c r="E15" s="290"/>
-      <c r="F15" s="290"/>
-      <c r="G15" s="290"/>
-      <c r="H15" s="291"/>
+      <c r="B15" s="318"/>
+      <c r="C15" s="318"/>
+      <c r="D15" s="318"/>
+      <c r="E15" s="318"/>
+      <c r="F15" s="318"/>
+      <c r="G15" s="318"/>
+      <c r="H15" s="319"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="292" t="s">
+      <c r="A16" s="320" t="s">
         <v>335</v>
       </c>
-      <c r="B16" s="293"/>
-      <c r="C16" s="293"/>
-      <c r="D16" s="293"/>
-      <c r="E16" s="293"/>
-      <c r="F16" s="293"/>
-      <c r="G16" s="293"/>
-      <c r="H16" s="294"/>
+      <c r="B16" s="321"/>
+      <c r="C16" s="321"/>
+      <c r="D16" s="321"/>
+      <c r="E16" s="321"/>
+      <c r="F16" s="321"/>
+      <c r="G16" s="321"/>
+      <c r="H16" s="322"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="292"/>
-      <c r="B17" s="293"/>
-      <c r="C17" s="293"/>
-      <c r="D17" s="293"/>
-      <c r="E17" s="293"/>
-      <c r="F17" s="293"/>
-      <c r="G17" s="293"/>
-      <c r="H17" s="294"/>
+      <c r="A17" s="320"/>
+      <c r="B17" s="321"/>
+      <c r="C17" s="321"/>
+      <c r="D17" s="321"/>
+      <c r="E17" s="321"/>
+      <c r="F17" s="321"/>
+      <c r="G17" s="321"/>
+      <c r="H17" s="322"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="292"/>
-      <c r="B18" s="293"/>
-      <c r="C18" s="293"/>
-      <c r="D18" s="293"/>
-      <c r="E18" s="293"/>
-      <c r="F18" s="293"/>
-      <c r="G18" s="293"/>
-      <c r="H18" s="294"/>
+      <c r="A18" s="320"/>
+      <c r="B18" s="321"/>
+      <c r="C18" s="321"/>
+      <c r="D18" s="321"/>
+      <c r="E18" s="321"/>
+      <c r="F18" s="321"/>
+      <c r="G18" s="321"/>
+      <c r="H18" s="322"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="295"/>
-      <c r="B19" s="296"/>
-      <c r="C19" s="296"/>
-      <c r="D19" s="296"/>
-      <c r="E19" s="296"/>
-      <c r="F19" s="296"/>
-      <c r="G19" s="296"/>
-      <c r="H19" s="297"/>
+      <c r="A19" s="323"/>
+      <c r="B19" s="324"/>
+      <c r="C19" s="324"/>
+      <c r="D19" s="324"/>
+      <c r="E19" s="324"/>
+      <c r="F19" s="324"/>
+      <c r="G19" s="324"/>
+      <c r="H19" s="325"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="301" t="s">
+      <c r="A21" s="329" t="s">
         <v>280</v>
       </c>
-      <c r="B21" s="301"/>
-      <c r="C21" s="301"/>
-      <c r="D21" s="301"/>
-      <c r="E21" s="301"/>
-      <c r="F21" s="301"/>
-      <c r="G21" s="301"/>
+      <c r="B21" s="329"/>
+      <c r="C21" s="329"/>
+      <c r="D21" s="329"/>
+      <c r="E21" s="329"/>
+      <c r="F21" s="329"/>
+      <c r="G21" s="329"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
@@ -8993,12 +9164,12 @@
       <c r="C22" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="D22" s="261" t="s">
+      <c r="D22" s="289" t="s">
         <v>283</v>
       </c>
-      <c r="E22" s="261"/>
-      <c r="F22" s="261"/>
-      <c r="G22" s="261"/>
+      <c r="E22" s="289"/>
+      <c r="F22" s="289"/>
+      <c r="G22" s="289"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9024,7 +9195,7 @@
       <c r="C24" t="s">
         <v>413</v>
       </c>
-      <c r="D24" s="180" t="s">
+      <c r="D24" s="179" t="s">
         <v>307</v>
       </c>
     </row>
@@ -9080,7 +9251,7 @@
       <c r="C28" t="s">
         <v>413</v>
       </c>
-      <c r="D28" s="180" t="s">
+      <c r="D28" s="179" t="s">
         <v>358</v>
       </c>
     </row>
@@ -9094,7 +9265,7 @@
       <c r="C29" t="s">
         <v>413</v>
       </c>
-      <c r="D29" s="180" t="s">
+      <c r="D29" s="179" t="s">
         <v>357</v>
       </c>
     </row>
@@ -9108,7 +9279,7 @@
       <c r="C30" t="s">
         <v>413</v>
       </c>
-      <c r="D30" s="180" t="s">
+      <c r="D30" s="179" t="s">
         <v>359</v>
       </c>
     </row>
@@ -9122,7 +9293,7 @@
       <c r="C31" t="s">
         <v>413</v>
       </c>
-      <c r="D31" s="180" t="s">
+      <c r="D31" s="179" t="s">
         <v>316</v>
       </c>
     </row>
@@ -9136,7 +9307,7 @@
       <c r="C32" t="s">
         <v>413</v>
       </c>
-      <c r="D32" s="180" t="s">
+      <c r="D32" s="179" t="s">
         <v>360</v>
       </c>
     </row>
@@ -9150,7 +9321,7 @@
       <c r="C33" t="s">
         <v>413</v>
       </c>
-      <c r="D33" s="180" t="s">
+      <c r="D33" s="179" t="s">
         <v>361</v>
       </c>
     </row>
@@ -9416,7 +9587,7 @@
       <c r="C52" t="s">
         <v>413</v>
       </c>
-      <c r="D52" s="180" t="s">
+      <c r="D52" s="179" t="s">
         <v>361</v>
       </c>
     </row>
@@ -9436,6 +9607,22 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="M2:O2"/>
@@ -9446,22 +9633,6 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9528,7 +9699,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9553,240 +9724,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="350" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
-      <c r="N1" s="306"/>
-      <c r="O1" s="306"/>
-      <c r="P1" s="306"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="G1" s="350"/>
+      <c r="H1" s="350"/>
+      <c r="I1" s="350"/>
+      <c r="J1" s="350"/>
+      <c r="K1" s="350"/>
+      <c r="L1" s="350"/>
+      <c r="M1" s="350"/>
+      <c r="N1" s="350"/>
+      <c r="O1" s="350"/>
+      <c r="P1" s="350"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="351" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="307"/>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307" t="s">
+      <c r="B2" s="351"/>
+      <c r="C2" s="351"/>
+      <c r="D2" s="351"/>
+      <c r="E2" s="351"/>
+      <c r="F2" s="351"/>
+      <c r="G2" s="351" t="s">
         <v>219</v>
       </c>
-      <c r="H2" s="307"/>
-      <c r="I2" s="307"/>
-      <c r="J2" s="307"/>
-      <c r="K2" s="307"/>
-      <c r="L2" s="307"/>
-      <c r="M2" s="313" t="s">
+      <c r="H2" s="351"/>
+      <c r="I2" s="351"/>
+      <c r="J2" s="351"/>
+      <c r="K2" s="351"/>
+      <c r="L2" s="351"/>
+      <c r="M2" s="334" t="s">
         <v>267</v>
       </c>
-      <c r="N2" s="313"/>
-      <c r="O2" s="313"/>
-      <c r="P2" s="313"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="309" t="s">
+      <c r="A3" s="353" t="s">
         <v>480</v>
       </c>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
-      <c r="E3" s="309"/>
-      <c r="F3" s="309"/>
-      <c r="G3" s="309" t="s">
+      <c r="B3" s="353"/>
+      <c r="C3" s="353"/>
+      <c r="D3" s="353"/>
+      <c r="E3" s="353"/>
+      <c r="F3" s="353"/>
+      <c r="G3" s="353" t="s">
         <v>269</v>
       </c>
-      <c r="H3" s="309"/>
-      <c r="I3" s="309"/>
-      <c r="J3" s="309"/>
-      <c r="K3" s="309"/>
-      <c r="L3" s="309"/>
-      <c r="M3" s="208" t="s">
+      <c r="H3" s="353"/>
+      <c r="I3" s="353"/>
+      <c r="J3" s="353"/>
+      <c r="K3" s="353"/>
+      <c r="L3" s="353"/>
+      <c r="M3" s="207" t="s">
         <v>271</v>
       </c>
-      <c r="N3" s="208" t="s">
+      <c r="N3" s="207" t="s">
         <v>270</v>
       </c>
-      <c r="O3" s="208" t="s">
+      <c r="O3" s="207" t="s">
         <v>339</v>
       </c>
-      <c r="P3" s="208" t="s">
+      <c r="P3" s="207" t="s">
         <v>339</v>
       </c>
-      <c r="Q3" s="187"/>
+      <c r="Q3" s="186"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="323" t="s">
+      <c r="A4" s="344" t="s">
         <v>477</v>
       </c>
-      <c r="B4" s="324"/>
-      <c r="C4" s="324"/>
-      <c r="D4" s="324"/>
-      <c r="E4" s="324"/>
-      <c r="F4" s="325"/>
-      <c r="G4" s="308" t="s">
+      <c r="B4" s="345"/>
+      <c r="C4" s="345"/>
+      <c r="D4" s="345"/>
+      <c r="E4" s="345"/>
+      <c r="F4" s="346"/>
+      <c r="G4" s="352" t="s">
         <v>221</v>
       </c>
-      <c r="H4" s="308"/>
-      <c r="I4" s="308"/>
-      <c r="J4" s="308"/>
-      <c r="K4" s="308"/>
-      <c r="L4" s="308"/>
-      <c r="M4" s="209" t="s">
+      <c r="H4" s="352"/>
+      <c r="I4" s="352"/>
+      <c r="J4" s="352"/>
+      <c r="K4" s="352"/>
+      <c r="L4" s="352"/>
+      <c r="M4" s="208" t="s">
         <v>225</v>
       </c>
-      <c r="N4" s="209" t="s">
+      <c r="N4" s="208" t="s">
         <v>154</v>
       </c>
-      <c r="O4" s="209" t="s">
+      <c r="O4" s="208" t="s">
         <v>340</v>
       </c>
-      <c r="P4" s="209" t="s">
+      <c r="P4" s="208" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="303"/>
-      <c r="B5" s="304"/>
-      <c r="C5" s="304"/>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="305"/>
-      <c r="G5" s="326" t="s">
+      <c r="A5" s="347"/>
+      <c r="B5" s="348"/>
+      <c r="C5" s="348"/>
+      <c r="D5" s="348"/>
+      <c r="E5" s="348"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="357" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="326"/>
-      <c r="I5" s="326"/>
-      <c r="J5" s="326"/>
-      <c r="K5" s="326"/>
-      <c r="L5" s="326"/>
-      <c r="M5" s="210" t="s">
+      <c r="H5" s="357"/>
+      <c r="I5" s="357"/>
+      <c r="J5" s="357"/>
+      <c r="K5" s="357"/>
+      <c r="L5" s="357"/>
+      <c r="M5" s="209" t="s">
         <v>264</v>
       </c>
-      <c r="N5" s="210"/>
-      <c r="O5" s="210" t="s">
+      <c r="N5" s="209"/>
+      <c r="O5" s="209" t="s">
         <v>481</v>
       </c>
-      <c r="P5" s="210" t="s">
+      <c r="P5" s="209" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="303" t="s">
+      <c r="A6" s="347" t="s">
         <v>483</v>
       </c>
-      <c r="B6" s="304"/>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="304"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="326" t="s">
+      <c r="B6" s="348"/>
+      <c r="C6" s="348"/>
+      <c r="D6" s="348"/>
+      <c r="E6" s="348"/>
+      <c r="F6" s="349"/>
+      <c r="G6" s="357" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="326"/>
-      <c r="I6" s="326"/>
-      <c r="J6" s="326"/>
-      <c r="K6" s="326"/>
-      <c r="L6" s="326"/>
-      <c r="M6" s="210"/>
-      <c r="N6" s="210"/>
-      <c r="O6" s="210" t="s">
+      <c r="H6" s="357"/>
+      <c r="I6" s="357"/>
+      <c r="J6" s="357"/>
+      <c r="K6" s="357"/>
+      <c r="L6" s="357"/>
+      <c r="M6" s="209"/>
+      <c r="N6" s="209"/>
+      <c r="O6" s="209" t="s">
         <v>484</v>
       </c>
-      <c r="P6" s="210" t="s">
+      <c r="P6" s="209" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="303"/>
-      <c r="B7" s="304"/>
-      <c r="C7" s="304"/>
-      <c r="D7" s="304"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="305"/>
-      <c r="G7" s="326"/>
-      <c r="H7" s="326"/>
-      <c r="I7" s="326"/>
-      <c r="J7" s="326"/>
-      <c r="K7" s="326"/>
-      <c r="L7" s="326"/>
-      <c r="M7" s="210"/>
-      <c r="N7" s="210"/>
-      <c r="O7" s="210"/>
-      <c r="P7" s="211"/>
+      <c r="A7" s="347"/>
+      <c r="B7" s="348"/>
+      <c r="C7" s="348"/>
+      <c r="D7" s="348"/>
+      <c r="E7" s="348"/>
+      <c r="F7" s="349"/>
+      <c r="G7" s="357"/>
+      <c r="H7" s="357"/>
+      <c r="I7" s="357"/>
+      <c r="J7" s="357"/>
+      <c r="K7" s="357"/>
+      <c r="L7" s="357"/>
+      <c r="M7" s="209"/>
+      <c r="N7" s="209"/>
+      <c r="O7" s="209"/>
+      <c r="P7" s="210"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="303"/>
-      <c r="B8" s="304"/>
-      <c r="C8" s="304"/>
-      <c r="D8" s="304"/>
-      <c r="E8" s="304"/>
-      <c r="F8" s="305"/>
-      <c r="G8" s="326"/>
-      <c r="H8" s="326"/>
-      <c r="I8" s="326"/>
-      <c r="J8" s="326"/>
-      <c r="K8" s="326"/>
-      <c r="L8" s="326"/>
-      <c r="M8" s="210"/>
-      <c r="N8" s="210"/>
-      <c r="O8" s="210"/>
-      <c r="P8" s="211"/>
+      <c r="A8" s="347"/>
+      <c r="B8" s="348"/>
+      <c r="C8" s="348"/>
+      <c r="D8" s="348"/>
+      <c r="E8" s="348"/>
+      <c r="F8" s="349"/>
+      <c r="G8" s="357"/>
+      <c r="H8" s="357"/>
+      <c r="I8" s="357"/>
+      <c r="J8" s="357"/>
+      <c r="K8" s="357"/>
+      <c r="L8" s="357"/>
+      <c r="M8" s="209"/>
+      <c r="N8" s="209"/>
+      <c r="O8" s="209"/>
+      <c r="P8" s="210"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="314" t="s">
+      <c r="A10" s="335" t="s">
         <v>326</v>
       </c>
-      <c r="B10" s="315"/>
-      <c r="C10" s="315"/>
-      <c r="D10" s="315"/>
-      <c r="E10" s="315"/>
-      <c r="F10" s="315"/>
-      <c r="G10" s="315"/>
-      <c r="H10" s="315"/>
-      <c r="I10" s="316"/>
-    </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="336"/>
+      <c r="C10" s="336"/>
+      <c r="D10" s="336"/>
+      <c r="E10" s="336"/>
+      <c r="F10" s="336"/>
+      <c r="G10" s="336"/>
+      <c r="H10" s="336"/>
+      <c r="I10" s="337"/>
+    </row>
+    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="129" t="s">
         <v>254</v>
       </c>
       <c r="B11" s="130" t="s">
         <v>305</v>
       </c>
-      <c r="C11" s="181" t="s">
+      <c r="C11" s="180" t="s">
         <v>339</v>
       </c>
       <c r="D11" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="E11" s="123" t="s">
+      <c r="E11" s="381" t="s">
         <v>243</v>
       </c>
       <c r="F11" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="G11" s="130" t="s">
-        <v>249</v>
+      <c r="G11" s="123" t="s">
+        <v>243</v>
       </c>
       <c r="H11" s="130" t="s">
         <v>249</v>
       </c>
-      <c r="I11" s="142" t="s">
+      <c r="I11" s="130" t="s">
+        <v>249</v>
+      </c>
+      <c r="J11" s="142" t="s">
         <v>249</v>
       </c>
     </row>
@@ -9801,22 +9975,25 @@
       <c r="D12" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="145" t="s">
+      <c r="E12" s="382" t="s">
+        <v>532</v>
+      </c>
+      <c r="F12" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="145" t="s">
+      <c r="G12" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="145" t="s">
+      <c r="H12" s="145" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="145" t="s">
+      <c r="I12" s="145" t="s">
         <v>227</v>
       </c>
-      <c r="I12" s="147" t="s">
+      <c r="J12" s="147" t="s">
         <v>228</v>
       </c>
-      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="144"/>
@@ -9825,85 +10002,86 @@
       <c r="D13" s="151">
         <v>100</v>
       </c>
-      <c r="E13" s="151">
+      <c r="E13" s="242"/>
+      <c r="F13" s="151">
         <v>0</v>
       </c>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151">
+      <c r="G13" s="151"/>
+      <c r="H13" s="151">
         <v>4</v>
       </c>
-      <c r="H13" s="151">
+      <c r="I13" s="151">
         <v>10</v>
       </c>
-      <c r="I13" s="152">
+      <c r="J13" s="152">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="289" t="s">
+      <c r="A15" s="317" t="s">
         <v>253</v>
       </c>
-      <c r="B15" s="290"/>
-      <c r="C15" s="290"/>
-      <c r="D15" s="290"/>
-      <c r="E15" s="290"/>
-      <c r="F15" s="290"/>
-      <c r="G15" s="290"/>
-      <c r="H15" s="291"/>
+      <c r="B15" s="318"/>
+      <c r="C15" s="318"/>
+      <c r="D15" s="318"/>
+      <c r="E15" s="318"/>
+      <c r="F15" s="318"/>
+      <c r="G15" s="318"/>
+      <c r="H15" s="319"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="292" t="s">
+      <c r="A16" s="320" t="s">
         <v>336</v>
       </c>
-      <c r="B16" s="293"/>
-      <c r="C16" s="293"/>
-      <c r="D16" s="293"/>
-      <c r="E16" s="293"/>
-      <c r="F16" s="293"/>
-      <c r="G16" s="293"/>
-      <c r="H16" s="294"/>
+      <c r="B16" s="321"/>
+      <c r="C16" s="321"/>
+      <c r="D16" s="321"/>
+      <c r="E16" s="321"/>
+      <c r="F16" s="321"/>
+      <c r="G16" s="321"/>
+      <c r="H16" s="322"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="292"/>
-      <c r="B17" s="293"/>
-      <c r="C17" s="293"/>
-      <c r="D17" s="293"/>
-      <c r="E17" s="293"/>
-      <c r="F17" s="293"/>
-      <c r="G17" s="293"/>
-      <c r="H17" s="294"/>
+      <c r="A17" s="320"/>
+      <c r="B17" s="321"/>
+      <c r="C17" s="321"/>
+      <c r="D17" s="321"/>
+      <c r="E17" s="321"/>
+      <c r="F17" s="321"/>
+      <c r="G17" s="321"/>
+      <c r="H17" s="322"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="292"/>
-      <c r="B18" s="293"/>
-      <c r="C18" s="293"/>
-      <c r="D18" s="293"/>
-      <c r="E18" s="293"/>
-      <c r="F18" s="293"/>
-      <c r="G18" s="293"/>
-      <c r="H18" s="294"/>
+      <c r="A18" s="320"/>
+      <c r="B18" s="321"/>
+      <c r="C18" s="321"/>
+      <c r="D18" s="321"/>
+      <c r="E18" s="321"/>
+      <c r="F18" s="321"/>
+      <c r="G18" s="321"/>
+      <c r="H18" s="322"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="295"/>
-      <c r="B19" s="296"/>
-      <c r="C19" s="296"/>
-      <c r="D19" s="296"/>
-      <c r="E19" s="296"/>
-      <c r="F19" s="296"/>
-      <c r="G19" s="296"/>
-      <c r="H19" s="297"/>
+      <c r="A19" s="323"/>
+      <c r="B19" s="324"/>
+      <c r="C19" s="324"/>
+      <c r="D19" s="324"/>
+      <c r="E19" s="324"/>
+      <c r="F19" s="324"/>
+      <c r="G19" s="324"/>
+      <c r="H19" s="325"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="301" t="s">
+      <c r="A21" s="329" t="s">
         <v>280</v>
       </c>
-      <c r="B21" s="301"/>
-      <c r="C21" s="301"/>
-      <c r="D21" s="301"/>
-      <c r="E21" s="301"/>
-      <c r="F21" s="301"/>
-      <c r="G21" s="301"/>
+      <c r="B21" s="329"/>
+      <c r="C21" s="329"/>
+      <c r="D21" s="329"/>
+      <c r="E21" s="329"/>
+      <c r="F21" s="329"/>
+      <c r="G21" s="329"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
@@ -9915,12 +10093,12 @@
       <c r="C22" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="D22" s="261" t="s">
+      <c r="D22" s="289" t="s">
         <v>283</v>
       </c>
-      <c r="E22" s="261"/>
-      <c r="F22" s="261"/>
-      <c r="G22" s="261"/>
+      <c r="E22" s="289"/>
+      <c r="F22" s="289"/>
+      <c r="G22" s="289"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9946,7 +10124,7 @@
       <c r="C24" t="s">
         <v>423</v>
       </c>
-      <c r="D24" s="180" t="s">
+      <c r="D24" s="179" t="s">
         <v>307</v>
       </c>
     </row>
@@ -10002,7 +10180,7 @@
       <c r="C28" t="s">
         <v>423</v>
       </c>
-      <c r="D28" s="180" t="s">
+      <c r="D28" s="179" t="s">
         <v>371</v>
       </c>
     </row>
@@ -10016,7 +10194,7 @@
       <c r="C29" t="s">
         <v>423</v>
       </c>
-      <c r="D29" s="180" t="s">
+      <c r="D29" s="179" t="s">
         <v>357</v>
       </c>
     </row>
@@ -10030,7 +10208,7 @@
       <c r="C30" t="s">
         <v>423</v>
       </c>
-      <c r="D30" s="180" t="s">
+      <c r="D30" s="179" t="s">
         <v>372</v>
       </c>
     </row>
@@ -10044,7 +10222,7 @@
       <c r="C31" t="s">
         <v>423</v>
       </c>
-      <c r="D31" s="180" t="s">
+      <c r="D31" s="179" t="s">
         <v>318</v>
       </c>
     </row>
@@ -10058,7 +10236,7 @@
       <c r="C32" t="s">
         <v>423</v>
       </c>
-      <c r="D32" s="180" t="s">
+      <c r="D32" s="179" t="s">
         <v>319</v>
       </c>
     </row>
@@ -10086,19 +10264,12 @@
       <c r="C34" t="s">
         <v>423</v>
       </c>
-      <c r="D34" s="180" t="s">
+      <c r="D34" s="179" t="s">
         <v>322</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -10113,6 +10284,13 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10173,20 +10351,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
-    <col min="2" max="2" width="91" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="177" customWidth="1"/>
+    <col min="2" max="2" width="94.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16" style="176" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="66" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
@@ -10194,12 +10372,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="358" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="328"/>
-      <c r="C1" s="328"/>
-      <c r="D1" s="329"/>
+      <c r="B1" s="359"/>
+      <c r="C1" s="359"/>
+      <c r="D1" s="360"/>
       <c r="E1" s="65"/>
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
@@ -10220,7 +10398,7 @@
       <c r="C2" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="215" t="s">
+      <c r="D2" s="214" t="s">
         <v>75</v>
       </c>
       <c r="F2" s="133" t="s">
@@ -10234,7 +10412,7 @@
       <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="174"/>
+      <c r="C3" s="173"/>
       <c r="D3" s="22"/>
       <c r="F3" s="134" t="s">
         <v>79</v>
@@ -10247,7 +10425,7 @@
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="174"/>
       <c r="D4" s="23">
         <v>0</v>
       </c>
@@ -10262,685 +10440,879 @@
       <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="174"/>
       <c r="D5" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="203" t="s">
-        <v>486</v>
+      <c r="A6" s="202" t="s">
+        <v>494</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="C6" s="216" t="s">
-        <v>488</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="C6" s="374"/>
       <c r="D6" s="23">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="175">
-        <v>1</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="C7" s="375"/>
       <c r="D7" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="203" t="s">
+      <c r="A8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="376"/>
+      <c r="D8" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="C9" s="376"/>
+      <c r="D9" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="202" t="s">
+        <v>499</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="C10" s="374"/>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="C8" s="204"/>
-      <c r="D8" s="23">
+      <c r="C11" s="203"/>
+      <c r="D11" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="203" t="s">
-        <v>455</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="C9" s="204"/>
-      <c r="D9" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="175"/>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="174"/>
-      <c r="D11" s="22"/>
-    </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="175"/>
+      <c r="A12" s="202" t="s">
+        <v>501</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="C12" s="374"/>
       <c r="D12" s="23">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="175"/>
-      <c r="D13" s="24" t="s">
-        <v>68</v>
+      <c r="A13" s="202" t="s">
+        <v>503</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="C13" s="374"/>
+      <c r="D13" s="23">
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="175"/>
-      <c r="D14" s="24" t="s">
-        <v>69</v>
-      </c>
+      <c r="A14" s="202" t="s">
+        <v>505</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="C14" s="374"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="175"/>
-      <c r="D15" s="23">
-        <v>0</v>
-      </c>
+      <c r="A15" s="202" t="s">
+        <v>507</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C15" s="374"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="175"/>
-      <c r="D16" s="23" t="s">
-        <v>31</v>
+      <c r="A16" s="202" t="s">
+        <v>509</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="C16" s="374"/>
+      <c r="D16" s="23">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="174"/>
-      <c r="D17" s="22"/>
+      <c r="A17" s="202" t="s">
+        <v>511</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="C17" s="374"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="175"/>
+      <c r="A18" s="202" t="s">
+        <v>513</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="C18" s="374"/>
       <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="175"/>
-      <c r="D19" s="23"/>
+        <v>455</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="C19" s="203"/>
+      <c r="D19" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="175"/>
+        <v>102</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="174"/>
       <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="175"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="173"/>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="175"/>
+        <v>29</v>
+      </c>
+      <c r="C22" s="174"/>
       <c r="D22" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="175"/>
-      <c r="D23" s="23"/>
+        <v>71</v>
+      </c>
+      <c r="C23" s="174"/>
+      <c r="D23" s="24" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="175"/>
-      <c r="D24" s="23"/>
+        <v>70</v>
+      </c>
+      <c r="C24" s="174"/>
+      <c r="D24" s="24" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="175"/>
-      <c r="D25" s="23"/>
+        <v>30</v>
+      </c>
+      <c r="C25" s="174"/>
+      <c r="D25" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>42</v>
+      <c r="A26" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="C26" s="174"/>
-      <c r="D26" s="22"/>
+      <c r="D26" s="23" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="175"/>
-      <c r="D27" s="23">
-        <v>100</v>
-      </c>
+      <c r="A27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="173"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="175"/>
-      <c r="D28" s="23">
-        <v>65535</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C28" s="174"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="175"/>
-      <c r="D29" s="23">
-        <v>10</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C29" s="174"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="175"/>
-      <c r="D30" s="23">
-        <v>0.1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C30" s="174"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="175"/>
+        <v>38</v>
+      </c>
+      <c r="C31" s="174"/>
       <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="175"/>
-      <c r="D32" s="23"/>
+        <v>39</v>
+      </c>
+      <c r="C32" s="174"/>
+      <c r="D32" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="175"/>
+        <v>40</v>
+      </c>
+      <c r="C33" s="174"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>50</v>
+      <c r="A34" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="C34" s="174"/>
-      <c r="D34" s="22"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="175"/>
+        <v>82</v>
+      </c>
+      <c r="C35" s="174"/>
       <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="175"/>
-      <c r="D36" s="23">
-        <v>0.02</v>
-      </c>
+      <c r="A36" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="173"/>
+      <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="175"/>
-      <c r="D37" s="23"/>
+        <v>43</v>
+      </c>
+      <c r="C37" s="174"/>
+      <c r="D37" s="23">
+        <v>100</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="175"/>
-      <c r="D38" s="23"/>
+        <v>44</v>
+      </c>
+      <c r="C38" s="174"/>
+      <c r="D38" s="23">
+        <v>65535</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="175"/>
-      <c r="D39" s="23"/>
+        <v>45</v>
+      </c>
+      <c r="C39" s="174"/>
+      <c r="D39" s="23">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="175"/>
-      <c r="D40" s="24" t="s">
-        <v>72</v>
+        <v>46</v>
+      </c>
+      <c r="C40" s="174"/>
+      <c r="D40" s="23">
+        <v>0.1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" s="175"/>
-      <c r="D41" s="24">
-        <v>0</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C41" s="174"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>58</v>
+      <c r="A42" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="C42" s="174"/>
-      <c r="D42" s="22"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="175"/>
+        <v>122</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="174"/>
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="175"/>
-      <c r="D44" s="23"/>
+      <c r="A44" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="173"/>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="175"/>
+        <v>51</v>
+      </c>
+      <c r="C45" s="174"/>
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="175"/>
-      <c r="D46" s="23"/>
+        <v>52</v>
+      </c>
+      <c r="C46" s="174"/>
+      <c r="D46" s="23">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C47" s="175"/>
+        <v>53</v>
+      </c>
+      <c r="C47" s="174"/>
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="175"/>
+        <v>54</v>
+      </c>
+      <c r="C48" s="174"/>
       <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="175"/>
+        <v>55</v>
+      </c>
+      <c r="C49" s="174"/>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="175"/>
-      <c r="D50" s="23"/>
+        <v>73</v>
+      </c>
+      <c r="C50" s="174"/>
+      <c r="D50" s="24" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C51" s="175"/>
-      <c r="D51" s="23"/>
+        <v>167</v>
+      </c>
+      <c r="C51" s="174"/>
+      <c r="D51" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C52" s="175"/>
-      <c r="D52" s="23"/>
+      <c r="A52" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="C52" s="377"/>
+      <c r="D52" s="378"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="175"/>
-      <c r="D53" s="23"/>
+        <v>517</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="C53" s="375"/>
+      <c r="D53" s="379">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="175"/>
-      <c r="D54" s="23">
-        <v>1</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="C54" s="375"/>
+      <c r="D54" s="379"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="175"/>
-      <c r="D55" s="23">
-        <v>1</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="C55" s="375"/>
+      <c r="D55" s="379"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="175"/>
-      <c r="D56" s="23">
-        <v>1</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C56" s="375"/>
+      <c r="D56" s="379"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="175"/>
-      <c r="D57" s="23">
-        <v>1</v>
+        <v>525</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="C57" s="375"/>
+      <c r="D57" s="24" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="175"/>
-      <c r="D58" s="23">
-        <v>1</v>
-      </c>
+      <c r="A58" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="173"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="175"/>
-      <c r="D59" s="23">
-        <v>0</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="174"/>
+      <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C60" s="175"/>
+        <v>85</v>
+      </c>
+      <c r="C60" s="174"/>
       <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="175"/>
+        <v>86</v>
+      </c>
+      <c r="C61" s="174"/>
       <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>148</v>
+      <c r="A62" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="C62" s="174"/>
-      <c r="D62" s="173"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="175"/>
-      <c r="D63" s="25">
-        <v>0</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="174"/>
+      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="B64" s="172"/>
+      <c r="A64" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="C64" s="174"/>
-      <c r="D64" s="173"/>
+      <c r="D64" s="23"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="174"/>
+      <c r="D65" s="23"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="174"/>
+      <c r="D66" s="23"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" s="174"/>
+      <c r="D67" s="23"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C68" s="174"/>
+      <c r="D68" s="23"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="174"/>
+      <c r="D69" s="23"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="174"/>
+      <c r="D70" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="174"/>
+      <c r="D71" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" s="174"/>
+      <c r="D72" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" s="174"/>
+      <c r="D73" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="174"/>
+      <c r="D74" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" s="174"/>
+      <c r="D75" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" s="174"/>
+      <c r="D76" s="23"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" s="174"/>
+      <c r="D77" s="23"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="173"/>
+      <c r="D78" s="172"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" s="174"/>
+      <c r="D79" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="C80" s="173"/>
+      <c r="D80" s="172"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B81" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C65" s="175"/>
-      <c r="D65" s="25">
+      <c r="C81" s="174"/>
+      <c r="D81" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="21" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="B82" s="380" t="s">
+        <v>529</v>
+      </c>
+      <c r="C82" s="173"/>
+      <c r="D82" s="172"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="C83" s="174"/>
+      <c r="D83" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B84" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="174"/>
-      <c r="D66" s="173"/>
-    </row>
-    <row r="67" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
+      <c r="C84" s="173"/>
+      <c r="D84" s="172"/>
+    </row>
+    <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B85" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="176"/>
-      <c r="D67" s="28">
+      <c r="C85" s="175"/>
+      <c r="D85" s="28">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="74eWta5L8Yhz4iS1rxGcXlqXG5gv6gJoc981GJMOpDHJ2q/ExJwcIywQ8KgOseRnN/S5mk6FKMWD/Xjg9+rh8A==" saltValue="mCsttIcsEE5oAm7QfPcuKQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nz+s2XO+ftXiPvDFdCb363Kdxpm8/rTzkaQvNt3hixFy/XzDLwk3vacxi/mnwp2lCzlwAgpdDUMXZxUkXUE4MA==" saltValue="5VzOwROovNDqiQdmD//x7A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -10974,23 +11346,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="333" t="s">
+      <c r="A1" s="364" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="334"/>
-      <c r="C1" s="334"/>
-      <c r="D1" s="334"/>
-      <c r="E1" s="334"/>
-      <c r="F1" s="334"/>
-      <c r="G1" s="334"/>
-      <c r="H1" s="334"/>
-      <c r="I1" s="334"/>
-      <c r="J1" s="334"/>
-      <c r="K1" s="334"/>
-      <c r="L1" s="334"/>
-      <c r="M1" s="334"/>
-      <c r="N1" s="334"/>
-      <c r="O1" s="334"/>
+      <c r="B1" s="365"/>
+      <c r="C1" s="365"/>
+      <c r="D1" s="365"/>
+      <c r="E1" s="365"/>
+      <c r="F1" s="365"/>
+      <c r="G1" s="365"/>
+      <c r="H1" s="365"/>
+      <c r="I1" s="365"/>
+      <c r="J1" s="365"/>
+      <c r="K1" s="365"/>
+      <c r="L1" s="365"/>
+      <c r="M1" s="365"/>
+      <c r="N1" s="365"/>
+      <c r="O1" s="365"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
@@ -11008,17 +11380,17 @@
       <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="330" t="s">
+      <c r="B3" s="361" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="331"/>
-      <c r="D3" s="331"/>
-      <c r="E3" s="331"/>
-      <c r="F3" s="331"/>
-      <c r="G3" s="331"/>
-      <c r="H3" s="331"/>
-      <c r="I3" s="331"/>
-      <c r="J3" s="332"/>
+      <c r="C3" s="362"/>
+      <c r="D3" s="362"/>
+      <c r="E3" s="362"/>
+      <c r="F3" s="362"/>
+      <c r="G3" s="362"/>
+      <c r="H3" s="362"/>
+      <c r="I3" s="362"/>
+      <c r="J3" s="363"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="36"/>
@@ -11209,21 +11581,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="330" t="s">
+      <c r="B19" s="361" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="331"/>
-      <c r="D19" s="331"/>
-      <c r="E19" s="331"/>
-      <c r="F19" s="331"/>
-      <c r="G19" s="331"/>
-      <c r="H19" s="331"/>
-      <c r="I19" s="331"/>
-      <c r="J19" s="331"/>
-      <c r="K19" s="331"/>
-      <c r="L19" s="331"/>
-      <c r="M19" s="331"/>
-      <c r="N19" s="332"/>
+      <c r="C19" s="362"/>
+      <c r="D19" s="362"/>
+      <c r="E19" s="362"/>
+      <c r="F19" s="362"/>
+      <c r="G19" s="362"/>
+      <c r="H19" s="362"/>
+      <c r="I19" s="362"/>
+      <c r="J19" s="362"/>
+      <c r="K19" s="362"/>
+      <c r="L19" s="362"/>
+      <c r="M19" s="362"/>
+      <c r="N19" s="363"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="36"/>
@@ -11425,27 +11797,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="338" t="s">
+      <c r="A1" s="369" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="339"/>
-      <c r="C1" s="339"/>
-      <c r="D1" s="339"/>
-      <c r="E1" s="339"/>
-      <c r="F1" s="339"/>
-      <c r="G1" s="339"/>
-      <c r="H1" s="339"/>
-      <c r="I1" s="339"/>
-      <c r="J1" s="339"/>
-      <c r="K1" s="339"/>
-      <c r="L1" s="339"/>
-      <c r="M1" s="339"/>
-      <c r="N1" s="339"/>
-      <c r="O1" s="339"/>
-      <c r="P1" s="339"/>
-      <c r="Q1" s="339"/>
-      <c r="R1" s="339"/>
-      <c r="S1" s="339"/>
+      <c r="B1" s="370"/>
+      <c r="C1" s="370"/>
+      <c r="D1" s="370"/>
+      <c r="E1" s="370"/>
+      <c r="F1" s="370"/>
+      <c r="G1" s="370"/>
+      <c r="H1" s="370"/>
+      <c r="I1" s="370"/>
+      <c r="J1" s="370"/>
+      <c r="K1" s="370"/>
+      <c r="L1" s="370"/>
+      <c r="M1" s="370"/>
+      <c r="N1" s="370"/>
+      <c r="O1" s="370"/>
+      <c r="P1" s="370"/>
+      <c r="Q1" s="370"/>
+      <c r="R1" s="370"/>
+      <c r="S1" s="370"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11459,26 +11831,26 @@
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="330" t="s">
+      <c r="B3" s="361" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="331"/>
-      <c r="D3" s="331"/>
-      <c r="E3" s="331"/>
-      <c r="F3" s="331"/>
-      <c r="G3" s="331"/>
-      <c r="H3" s="331"/>
-      <c r="I3" s="331"/>
-      <c r="J3" s="332"/>
-      <c r="L3" s="335" t="s">
+      <c r="C3" s="362"/>
+      <c r="D3" s="362"/>
+      <c r="E3" s="362"/>
+      <c r="F3" s="362"/>
+      <c r="G3" s="362"/>
+      <c r="H3" s="362"/>
+      <c r="I3" s="362"/>
+      <c r="J3" s="363"/>
+      <c r="L3" s="366" t="s">
         <v>196</v>
       </c>
-      <c r="M3" s="336"/>
-      <c r="N3" s="336"/>
-      <c r="O3" s="336"/>
-      <c r="P3" s="336"/>
-      <c r="Q3" s="336"/>
-      <c r="R3" s="337"/>
+      <c r="M3" s="367"/>
+      <c r="N3" s="367"/>
+      <c r="O3" s="367"/>
+      <c r="P3" s="367"/>
+      <c r="Q3" s="367"/>
+      <c r="R3" s="368"/>
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
     </row>
@@ -11709,23 +12081,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="340" t="s">
+      <c r="A1" s="371" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="341"/>
-      <c r="C1" s="341"/>
-      <c r="D1" s="341"/>
-      <c r="E1" s="341"/>
-      <c r="F1" s="341"/>
-      <c r="G1" s="341"/>
-      <c r="H1" s="341"/>
-      <c r="I1" s="341"/>
-      <c r="J1" s="341"/>
-      <c r="K1" s="341"/>
-      <c r="L1" s="341"/>
-      <c r="M1" s="341"/>
-      <c r="N1" s="341"/>
-      <c r="O1" s="342"/>
+      <c r="B1" s="372"/>
+      <c r="C1" s="372"/>
+      <c r="D1" s="372"/>
+      <c r="E1" s="372"/>
+      <c r="F1" s="372"/>
+      <c r="G1" s="372"/>
+      <c r="H1" s="372"/>
+      <c r="I1" s="372"/>
+      <c r="J1" s="372"/>
+      <c r="K1" s="372"/>
+      <c r="L1" s="372"/>
+      <c r="M1" s="372"/>
+      <c r="N1" s="372"/>
+      <c r="O1" s="373"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
@@ -11738,22 +12110,22 @@
       <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="330" t="s">
+      <c r="B3" s="361" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="331"/>
-      <c r="D3" s="331"/>
-      <c r="E3" s="331"/>
-      <c r="F3" s="331"/>
-      <c r="G3" s="331"/>
-      <c r="H3" s="332"/>
-      <c r="J3" s="335" t="s">
+      <c r="C3" s="362"/>
+      <c r="D3" s="362"/>
+      <c r="E3" s="362"/>
+      <c r="F3" s="362"/>
+      <c r="G3" s="362"/>
+      <c r="H3" s="363"/>
+      <c r="J3" s="366" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="336"/>
-      <c r="L3" s="336"/>
-      <c r="M3" s="336"/>
-      <c r="N3" s="337"/>
+      <c r="K3" s="367"/>
+      <c r="L3" s="367"/>
+      <c r="M3" s="367"/>
+      <c r="N3" s="368"/>
       <c r="O3" s="35"/>
       <c r="P3" s="35"/>
     </row>

--- a/test_templates/test_batch_template4.xlsx
+++ b/test_templates/test_batch_template4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="534">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2617,6 +2617,9 @@
   </si>
   <si>
     <t>Min Valid a.u.</t>
+  </si>
+  <si>
+    <t>10^4</t>
   </si>
 </sst>
 </file>
@@ -4321,41 +4324,113 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4399,59 +4474,26 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4528,13 +4570,10 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4564,6 +4603,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4588,45 +4636,6 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4660,6 +4669,45 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4714,51 +4762,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5682,86 +5685,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="279" t="s">
         <v>351</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="258"/>
-      <c r="E1" s="258"/>
-      <c r="F1" s="258"/>
-      <c r="G1" s="258"/>
-      <c r="H1" s="258"/>
-      <c r="I1" s="258"/>
-      <c r="J1" s="258"/>
-      <c r="K1" s="259"/>
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
+      <c r="I1" s="280"/>
+      <c r="J1" s="280"/>
+      <c r="K1" s="281"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="273" t="s">
+      <c r="A3" s="258" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="274"/>
+      <c r="B3" s="259"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="271" t="s">
+      <c r="A4" s="272" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="272"/>
+      <c r="B4" s="273"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="287" t="s">
+      <c r="A5" s="274" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="288"/>
+      <c r="B5" s="275"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="85"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="273" t="s">
+      <c r="A7" s="258" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="275"/>
-      <c r="C7" s="275"/>
-      <c r="D7" s="275"/>
-      <c r="E7" s="275"/>
-      <c r="F7" s="275"/>
-      <c r="G7" s="275"/>
-      <c r="H7" s="275"/>
-      <c r="I7" s="275"/>
-      <c r="J7" s="275"/>
-      <c r="K7" s="274"/>
+      <c r="B7" s="260"/>
+      <c r="C7" s="260"/>
+      <c r="D7" s="260"/>
+      <c r="E7" s="260"/>
+      <c r="F7" s="260"/>
+      <c r="G7" s="260"/>
+      <c r="H7" s="260"/>
+      <c r="I7" s="260"/>
+      <c r="J7" s="260"/>
+      <c r="K7" s="259"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="260" t="s">
+      <c r="A8" s="282" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="261"/>
-      <c r="C8" s="261"/>
-      <c r="D8" s="261"/>
-      <c r="E8" s="261"/>
-      <c r="F8" s="261"/>
-      <c r="G8" s="261"/>
-      <c r="H8" s="261"/>
-      <c r="I8" s="261"/>
-      <c r="J8" s="261"/>
-      <c r="K8" s="262"/>
+      <c r="B8" s="283"/>
+      <c r="C8" s="283"/>
+      <c r="D8" s="283"/>
+      <c r="E8" s="283"/>
+      <c r="F8" s="283"/>
+      <c r="G8" s="283"/>
+      <c r="H8" s="283"/>
+      <c r="I8" s="283"/>
+      <c r="J8" s="283"/>
+      <c r="K8" s="284"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="263"/>
-      <c r="B9" s="264"/>
-      <c r="C9" s="264"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="264"/>
-      <c r="F9" s="264"/>
-      <c r="G9" s="264"/>
-      <c r="H9" s="264"/>
-      <c r="I9" s="264"/>
-      <c r="J9" s="264"/>
-      <c r="K9" s="265"/>
+      <c r="A9" s="285"/>
+      <c r="B9" s="286"/>
+      <c r="C9" s="286"/>
+      <c r="D9" s="286"/>
+      <c r="E9" s="286"/>
+      <c r="F9" s="286"/>
+      <c r="G9" s="286"/>
+      <c r="H9" s="286"/>
+      <c r="I9" s="286"/>
+      <c r="J9" s="286"/>
+      <c r="K9" s="287"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="154"/>
@@ -5772,62 +5775,62 @@
       <c r="F10" s="140"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="276" t="s">
+      <c r="A11" s="261" t="s">
         <v>247</v>
       </c>
-      <c r="B11" s="277"/>
-      <c r="C11" s="277"/>
-      <c r="D11" s="278"/>
+      <c r="B11" s="262"/>
+      <c r="C11" s="262"/>
+      <c r="D11" s="263"/>
       <c r="E11" s="86"/>
       <c r="F11" s="140"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="279" t="s">
+      <c r="A12" s="264" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="280"/>
-      <c r="C12" s="281" t="s">
+      <c r="B12" s="265"/>
+      <c r="C12" s="266" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="282"/>
+      <c r="D12" s="267"/>
       <c r="E12" s="86"/>
       <c r="F12" s="140"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="283"/>
-      <c r="B13" s="284"/>
-      <c r="C13" s="285"/>
-      <c r="D13" s="286"/>
+      <c r="A13" s="268"/>
+      <c r="B13" s="269"/>
+      <c r="C13" s="270"/>
+      <c r="D13" s="271"/>
       <c r="E13" s="86"/>
       <c r="F13" s="140"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="276" t="s">
+      <c r="A15" s="261" t="s">
         <v>248</v>
       </c>
-      <c r="B15" s="278"/>
-      <c r="E15" s="276" t="s">
+      <c r="B15" s="263"/>
+      <c r="E15" s="261" t="s">
         <v>288</v>
       </c>
-      <c r="F15" s="277"/>
-      <c r="G15" s="277"/>
-      <c r="H15" s="277"/>
-      <c r="I15" s="278"/>
+      <c r="F15" s="262"/>
+      <c r="G15" s="262"/>
+      <c r="H15" s="262"/>
+      <c r="I15" s="263"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="271" t="s">
+      <c r="A16" s="272" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="272"/>
+      <c r="B16" s="273"/>
       <c r="D16" s="87"/>
-      <c r="E16" s="266" t="s">
+      <c r="E16" s="288" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="267"/>
-      <c r="G16" s="267"/>
-      <c r="H16" s="267"/>
-      <c r="I16" s="268"/>
+      <c r="F16" s="289"/>
+      <c r="G16" s="289"/>
+      <c r="H16" s="289"/>
+      <c r="I16" s="290"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="155" t="s">
@@ -5837,10 +5840,10 @@
         <v>251</v>
       </c>
       <c r="C17" s="88"/>
-      <c r="E17" s="269" t="s">
+      <c r="E17" s="291" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="270"/>
+      <c r="F17" s="292"/>
       <c r="G17" s="192" t="s">
         <v>159</v>
       </c>
@@ -5870,7 +5873,7 @@
       <c r="H18" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="I18" s="245" t="s">
+      <c r="I18" s="276" t="s">
         <v>444</v>
       </c>
       <c r="J18" s="80"/>
@@ -5893,7 +5896,7 @@
       <c r="H19" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="I19" s="245"/>
+      <c r="I19" s="276"/>
       <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5910,7 +5913,7 @@
       </c>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
-      <c r="I20" s="246"/>
+      <c r="I20" s="277"/>
       <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5932,24 +5935,24 @@
       <c r="A23" s="159"/>
       <c r="B23" s="91"/>
       <c r="C23" s="90"/>
-      <c r="E23" s="247" t="s">
+      <c r="E23" s="256" t="s">
         <v>185</v>
       </c>
-      <c r="F23" s="248"/>
-      <c r="G23" s="248"/>
-      <c r="H23" s="248"/>
-      <c r="I23" s="249"/>
+      <c r="F23" s="278"/>
+      <c r="G23" s="278"/>
+      <c r="H23" s="278"/>
+      <c r="I23" s="257"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="247" t="s">
+      <c r="A24" s="256" t="s">
         <v>213</v>
       </c>
-      <c r="B24" s="249"/>
+      <c r="B24" s="257"/>
       <c r="C24" s="31"/>
-      <c r="E24" s="253" t="s">
+      <c r="E24" s="296" t="s">
         <v>208</v>
       </c>
-      <c r="F24" s="254"/>
+      <c r="F24" s="297"/>
       <c r="G24" s="192" t="s">
         <v>159</v>
       </c>
@@ -5978,7 +5981,7 @@
       <c r="H25" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="250" t="s">
+      <c r="I25" s="293" t="s">
         <v>445</v>
       </c>
     </row>
@@ -6002,7 +6005,7 @@
       <c r="H26" s="73" t="s">
         <v>188</v>
       </c>
-      <c r="I26" s="251"/>
+      <c r="I26" s="294"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="157" t="s">
@@ -6018,7 +6021,7 @@
       </c>
       <c r="G27" s="70"/>
       <c r="H27" s="70"/>
-      <c r="I27" s="252"/>
+      <c r="I27" s="295"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="157" t="s">
@@ -6042,22 +6045,22 @@
       <c r="A30" s="158"/>
       <c r="B30" s="115"/>
       <c r="C30" s="88"/>
-      <c r="E30" s="247" t="s">
+      <c r="E30" s="256" t="s">
         <v>186</v>
       </c>
-      <c r="F30" s="248"/>
-      <c r="G30" s="248"/>
-      <c r="H30" s="248"/>
-      <c r="I30" s="249"/>
+      <c r="F30" s="278"/>
+      <c r="G30" s="278"/>
+      <c r="H30" s="278"/>
+      <c r="I30" s="257"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="159"/>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
-      <c r="E31" s="255" t="s">
+      <c r="E31" s="298" t="s">
         <v>430</v>
       </c>
-      <c r="F31" s="256"/>
+      <c r="F31" s="299"/>
       <c r="G31" s="190" t="s">
         <v>159</v>
       </c>
@@ -6069,10 +6072,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="247" t="s">
+      <c r="A32" s="256" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="249"/>
+      <c r="B32" s="257"/>
       <c r="C32" s="31"/>
       <c r="E32" s="82">
         <v>1</v>
@@ -6082,7 +6085,7 @@
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="73"/>
-      <c r="I32" s="245"/>
+      <c r="I32" s="276"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="155" t="s">
@@ -6102,7 +6105,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="32"/>
-      <c r="I33" s="245"/>
+      <c r="I33" s="276"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="156" t="s">
@@ -6117,7 +6120,7 @@
       <c r="F34" s="92"/>
       <c r="G34" s="32"/>
       <c r="H34" s="73"/>
-      <c r="I34" s="245"/>
+      <c r="I34" s="276"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="157" t="s">
@@ -6130,7 +6133,7 @@
       <c r="F35" s="92"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
-      <c r="I35" s="245"/>
+      <c r="I35" s="276"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="157" t="s">
@@ -6143,7 +6146,7 @@
       <c r="F36" s="92"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
-      <c r="I36" s="245"/>
+      <c r="I36" s="276"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="157" t="s">
@@ -6156,7 +6159,7 @@
       <c r="F37" s="138"/>
       <c r="G37" s="70"/>
       <c r="H37" s="70"/>
-      <c r="I37" s="246"/>
+      <c r="I37" s="277"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="158" t="s">
@@ -6169,17 +6172,17 @@
       <c r="B39" s="119"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="247" t="s">
+      <c r="E40" s="256" t="s">
         <v>187</v>
       </c>
-      <c r="F40" s="248"/>
-      <c r="G40" s="248"/>
-      <c r="H40" s="248"/>
-      <c r="I40" s="249"/>
+      <c r="F40" s="278"/>
+      <c r="G40" s="278"/>
+      <c r="H40" s="278"/>
+      <c r="I40" s="257"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="253"/>
-      <c r="F41" s="254"/>
+      <c r="E41" s="296"/>
+      <c r="F41" s="297"/>
       <c r="G41" s="81" t="s">
         <v>159</v>
       </c>
@@ -6197,7 +6200,7 @@
       <c r="F42" s="92"/>
       <c r="G42" s="32"/>
       <c r="H42" s="73"/>
-      <c r="I42" s="245"/>
+      <c r="I42" s="276"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="82">
@@ -6206,7 +6209,7 @@
       <c r="F43" s="92"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
-      <c r="I43" s="245"/>
+      <c r="I43" s="276"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="82">
@@ -6215,7 +6218,7 @@
       <c r="F44" s="92"/>
       <c r="G44" s="32"/>
       <c r="H44" s="73"/>
-      <c r="I44" s="245"/>
+      <c r="I44" s="276"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="82">
@@ -6224,7 +6227,7 @@
       <c r="F45" s="92"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
-      <c r="I45" s="245"/>
+      <c r="I45" s="276"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="82">
@@ -6233,7 +6236,7 @@
       <c r="F46" s="92"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
-      <c r="I46" s="245"/>
+      <c r="I46" s="276"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="83">
@@ -6242,11 +6245,25 @@
       <c r="F47" s="138"/>
       <c r="G47" s="70"/>
       <c r="H47" s="70"/>
-      <c r="I47" s="246"/>
+      <c r="I47" s="277"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -6262,20 +6279,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6289,7 +6292,7 @@
   </sheetPr>
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -6315,32 +6318,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="293" t="s">
+      <c r="A1" s="304" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="295"/>
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="305"/>
+      <c r="E1" s="305"/>
+      <c r="F1" s="305"/>
+      <c r="G1" s="305"/>
+      <c r="H1" s="305"/>
+      <c r="I1" s="305"/>
+      <c r="J1" s="306"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="296" t="s">
+      <c r="A2" s="307" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="297"/>
-      <c r="C2" s="297"/>
-      <c r="D2" s="297"/>
-      <c r="E2" s="297"/>
-      <c r="F2" s="297"/>
-      <c r="G2" s="297"/>
-      <c r="H2" s="297"/>
-      <c r="I2" s="297"/>
-      <c r="J2" s="298"/>
+      <c r="B2" s="308"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308"/>
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+      <c r="J2" s="309"/>
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="74"/>
@@ -6354,13 +6357,13 @@
       <c r="B3" s="169" t="s">
         <v>290</v>
       </c>
-      <c r="C3" s="299" t="s">
+      <c r="C3" s="310" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="301"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
+      <c r="F3" s="311"/>
+      <c r="G3" s="312"/>
       <c r="H3" s="169" t="s">
         <v>291</v>
       </c>
@@ -6938,26 +6941,26 @@
       <c r="K23" s="191"/>
     </row>
     <row r="24" spans="1:18" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="385" t="s">
+      <c r="A24" s="325" t="s">
         <v>216</v>
       </c>
-      <c r="B24" s="386"/>
-      <c r="C24" s="386"/>
-      <c r="D24" s="386"/>
-      <c r="E24" s="386"/>
-      <c r="F24" s="386"/>
-      <c r="G24" s="386"/>
-      <c r="H24" s="386"/>
-      <c r="I24" s="386"/>
-      <c r="J24" s="386"/>
-      <c r="K24" s="386"/>
-      <c r="L24" s="386"/>
-      <c r="M24" s="386"/>
-      <c r="N24" s="386"/>
-      <c r="O24" s="386"/>
-      <c r="P24" s="386"/>
-      <c r="Q24" s="386"/>
-      <c r="R24" s="386"/>
+      <c r="B24" s="326"/>
+      <c r="C24" s="326"/>
+      <c r="D24" s="326"/>
+      <c r="E24" s="326"/>
+      <c r="F24" s="326"/>
+      <c r="G24" s="326"/>
+      <c r="H24" s="326"/>
+      <c r="I24" s="326"/>
+      <c r="J24" s="326"/>
+      <c r="K24" s="326"/>
+      <c r="L24" s="326"/>
+      <c r="M24" s="326"/>
+      <c r="N24" s="326"/>
+      <c r="O24" s="326"/>
+      <c r="P24" s="326"/>
+      <c r="Q24" s="326"/>
+      <c r="R24" s="326"/>
     </row>
     <row r="25" spans="1:18" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="135" t="s">
@@ -6996,7 +6999,7 @@
       <c r="L25" s="121" t="s">
         <v>243</v>
       </c>
-      <c r="M25" s="383" t="s">
+      <c r="M25" s="254" t="s">
         <v>243</v>
       </c>
       <c r="N25" s="121" t="s">
@@ -7050,7 +7053,7 @@
       <c r="L26" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="M26" s="384" t="s">
+      <c r="M26" s="255" t="s">
         <v>532</v>
       </c>
       <c r="N26" s="95" t="s">
@@ -7109,70 +7112,70 @@
     </row>
     <row r="28" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:18" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="311" t="s">
+      <c r="A29" s="322" t="s">
         <v>253</v>
       </c>
-      <c r="B29" s="312"/>
-      <c r="C29" s="312"/>
-      <c r="D29" s="312"/>
-      <c r="E29" s="312"/>
-      <c r="F29" s="312"/>
-      <c r="G29" s="312"/>
-      <c r="H29" s="313"/>
+      <c r="B29" s="323"/>
+      <c r="C29" s="323"/>
+      <c r="D29" s="323"/>
+      <c r="E29" s="323"/>
+      <c r="F29" s="323"/>
+      <c r="G29" s="323"/>
+      <c r="H29" s="324"/>
     </row>
     <row r="30" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="302" t="s">
+      <c r="A30" s="313" t="s">
         <v>334</v>
       </c>
-      <c r="B30" s="303"/>
-      <c r="C30" s="303"/>
-      <c r="D30" s="303"/>
-      <c r="E30" s="303"/>
-      <c r="F30" s="303"/>
-      <c r="G30" s="303"/>
-      <c r="H30" s="304"/>
+      <c r="B30" s="314"/>
+      <c r="C30" s="314"/>
+      <c r="D30" s="314"/>
+      <c r="E30" s="314"/>
+      <c r="F30" s="314"/>
+      <c r="G30" s="314"/>
+      <c r="H30" s="315"/>
     </row>
     <row r="31" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="305"/>
-      <c r="B31" s="306"/>
-      <c r="C31" s="306"/>
-      <c r="D31" s="306"/>
-      <c r="E31" s="306"/>
-      <c r="F31" s="306"/>
-      <c r="G31" s="306"/>
-      <c r="H31" s="307"/>
+      <c r="A31" s="316"/>
+      <c r="B31" s="317"/>
+      <c r="C31" s="317"/>
+      <c r="D31" s="317"/>
+      <c r="E31" s="317"/>
+      <c r="F31" s="317"/>
+      <c r="G31" s="317"/>
+      <c r="H31" s="318"/>
     </row>
     <row r="32" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="305"/>
-      <c r="B32" s="306"/>
-      <c r="C32" s="306"/>
-      <c r="D32" s="306"/>
-      <c r="E32" s="306"/>
-      <c r="F32" s="306"/>
-      <c r="G32" s="306"/>
-      <c r="H32" s="307"/>
+      <c r="A32" s="316"/>
+      <c r="B32" s="317"/>
+      <c r="C32" s="317"/>
+      <c r="D32" s="317"/>
+      <c r="E32" s="317"/>
+      <c r="F32" s="317"/>
+      <c r="G32" s="317"/>
+      <c r="H32" s="318"/>
     </row>
     <row r="33" spans="1:10" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="308"/>
-      <c r="B33" s="309"/>
-      <c r="C33" s="309"/>
-      <c r="D33" s="309"/>
-      <c r="E33" s="309"/>
-      <c r="F33" s="309"/>
-      <c r="G33" s="309"/>
-      <c r="H33" s="310"/>
+      <c r="A33" s="319"/>
+      <c r="B33" s="320"/>
+      <c r="C33" s="320"/>
+      <c r="D33" s="320"/>
+      <c r="E33" s="320"/>
+      <c r="F33" s="320"/>
+      <c r="G33" s="320"/>
+      <c r="H33" s="321"/>
     </row>
     <row r="34" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:10" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="290" t="s">
+      <c r="A35" s="301" t="s">
         <v>280</v>
       </c>
-      <c r="B35" s="291"/>
-      <c r="C35" s="291"/>
-      <c r="D35" s="291"/>
-      <c r="E35" s="291"/>
-      <c r="F35" s="291"/>
-      <c r="G35" s="292"/>
+      <c r="B35" s="302"/>
+      <c r="C35" s="302"/>
+      <c r="D35" s="302"/>
+      <c r="E35" s="302"/>
+      <c r="F35" s="302"/>
+      <c r="G35" s="303"/>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="77" t="s">
@@ -7184,12 +7187,12 @@
       <c r="C36" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="D36" s="289" t="s">
+      <c r="D36" s="300" t="s">
         <v>283</v>
       </c>
-      <c r="E36" s="289"/>
-      <c r="F36" s="289"/>
-      <c r="G36" s="289"/>
+      <c r="E36" s="300"/>
+      <c r="F36" s="300"/>
+      <c r="G36" s="300"/>
     </row>
     <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -7822,32 +7825,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="339" t="s">
         <v>353</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="328"/>
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="341"/>
     </row>
     <row r="2" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="314" t="s">
+      <c r="A2" s="336" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="315"/>
-      <c r="C2" s="315"/>
-      <c r="D2" s="315"/>
-      <c r="E2" s="315"/>
-      <c r="F2" s="315"/>
-      <c r="G2" s="315"/>
-      <c r="H2" s="315"/>
-      <c r="I2" s="315"/>
-      <c r="J2" s="316"/>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="337"/>
+      <c r="J2" s="338"/>
     </row>
     <row r="3" spans="1:10" s="111" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="129" t="s">
@@ -7926,18 +7929,18 @@
       <c r="J5" s="163"/>
     </row>
     <row r="6" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="314" t="s">
+      <c r="A6" s="336" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="315"/>
-      <c r="C6" s="315"/>
-      <c r="D6" s="315"/>
-      <c r="E6" s="315"/>
-      <c r="F6" s="315"/>
-      <c r="G6" s="315"/>
-      <c r="H6" s="315"/>
-      <c r="I6" s="315"/>
-      <c r="J6" s="316"/>
+      <c r="B6" s="337"/>
+      <c r="C6" s="337"/>
+      <c r="D6" s="337"/>
+      <c r="E6" s="337"/>
+      <c r="F6" s="337"/>
+      <c r="G6" s="337"/>
+      <c r="H6" s="337"/>
+      <c r="I6" s="337"/>
+      <c r="J6" s="338"/>
     </row>
     <row r="7" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="122" t="s">
@@ -7988,18 +7991,18 @@
       <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="314" t="s">
+      <c r="A10" s="336" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="315"/>
-      <c r="C10" s="315"/>
-      <c r="D10" s="315"/>
-      <c r="E10" s="315"/>
-      <c r="F10" s="315"/>
-      <c r="G10" s="315"/>
-      <c r="H10" s="315"/>
-      <c r="I10" s="315"/>
-      <c r="J10" s="316"/>
+      <c r="B10" s="337"/>
+      <c r="C10" s="337"/>
+      <c r="D10" s="337"/>
+      <c r="E10" s="337"/>
+      <c r="F10" s="337"/>
+      <c r="G10" s="337"/>
+      <c r="H10" s="337"/>
+      <c r="I10" s="337"/>
+      <c r="J10" s="338"/>
     </row>
     <row r="11" spans="1:10" s="111" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="125"/>
@@ -8154,18 +8157,18 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="330" t="s">
+      <c r="A17" s="343" t="s">
         <v>487</v>
       </c>
-      <c r="B17" s="331"/>
-      <c r="C17" s="331"/>
-      <c r="D17" s="331"/>
-      <c r="E17" s="331"/>
-      <c r="F17" s="331"/>
-      <c r="G17" s="331"/>
-      <c r="H17" s="331"/>
-      <c r="I17" s="331"/>
-      <c r="J17" s="332"/>
+      <c r="B17" s="344"/>
+      <c r="C17" s="344"/>
+      <c r="D17" s="344"/>
+      <c r="E17" s="344"/>
+      <c r="F17" s="344"/>
+      <c r="G17" s="344"/>
+      <c r="H17" s="344"/>
+      <c r="I17" s="344"/>
+      <c r="J17" s="345"/>
     </row>
     <row r="18" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="215"/>
@@ -8238,18 +8241,18 @@
       <c r="J21" s="229"/>
     </row>
     <row r="22" spans="1:10" s="111" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="314" t="s">
+      <c r="A22" s="336" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="315"/>
-      <c r="C22" s="315"/>
-      <c r="D22" s="315"/>
-      <c r="E22" s="315"/>
-      <c r="F22" s="315"/>
-      <c r="G22" s="315"/>
-      <c r="H22" s="315"/>
-      <c r="I22" s="315"/>
-      <c r="J22" s="316"/>
+      <c r="B22" s="337"/>
+      <c r="C22" s="337"/>
+      <c r="D22" s="337"/>
+      <c r="E22" s="337"/>
+      <c r="F22" s="337"/>
+      <c r="G22" s="337"/>
+      <c r="H22" s="337"/>
+      <c r="I22" s="337"/>
+      <c r="J22" s="338"/>
     </row>
     <row r="23" spans="1:10" s="111" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="129" t="s">
@@ -8312,18 +8315,18 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="330" t="s">
+      <c r="A26" s="343" t="s">
         <v>491</v>
       </c>
-      <c r="B26" s="331"/>
-      <c r="C26" s="331"/>
-      <c r="D26" s="331"/>
-      <c r="E26" s="331"/>
-      <c r="F26" s="331"/>
-      <c r="G26" s="331"/>
-      <c r="H26" s="331"/>
-      <c r="I26" s="331"/>
-      <c r="J26" s="332"/>
+      <c r="B26" s="344"/>
+      <c r="C26" s="344"/>
+      <c r="D26" s="344"/>
+      <c r="E26" s="344"/>
+      <c r="F26" s="344"/>
+      <c r="G26" s="344"/>
+      <c r="H26" s="344"/>
+      <c r="I26" s="344"/>
+      <c r="J26" s="345"/>
     </row>
     <row r="27" spans="1:10" s="111" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="230" t="s">
@@ -8390,18 +8393,18 @@
       <c r="J29" s="244"/>
     </row>
     <row r="30" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="314" t="s">
+      <c r="A30" s="336" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="315"/>
-      <c r="C30" s="315"/>
-      <c r="D30" s="315"/>
-      <c r="E30" s="315"/>
-      <c r="F30" s="315"/>
-      <c r="G30" s="315"/>
-      <c r="H30" s="315"/>
-      <c r="I30" s="315"/>
-      <c r="J30" s="316"/>
+      <c r="B30" s="337"/>
+      <c r="C30" s="337"/>
+      <c r="D30" s="337"/>
+      <c r="E30" s="337"/>
+      <c r="F30" s="337"/>
+      <c r="G30" s="337"/>
+      <c r="H30" s="337"/>
+      <c r="I30" s="337"/>
+      <c r="J30" s="338"/>
     </row>
     <row r="31" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="129" t="s">
@@ -8463,58 +8466,58 @@
     </row>
     <row r="34" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:10" s="111" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="317" t="s">
+      <c r="A35" s="327" t="s">
         <v>253</v>
       </c>
-      <c r="B35" s="318"/>
-      <c r="C35" s="318"/>
-      <c r="D35" s="318"/>
-      <c r="E35" s="318"/>
-      <c r="F35" s="318"/>
-      <c r="G35" s="318"/>
-      <c r="H35" s="319"/>
+      <c r="B35" s="328"/>
+      <c r="C35" s="328"/>
+      <c r="D35" s="328"/>
+      <c r="E35" s="328"/>
+      <c r="F35" s="328"/>
+      <c r="G35" s="328"/>
+      <c r="H35" s="329"/>
     </row>
     <row r="36" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="320" t="s">
+      <c r="A36" s="330" t="s">
         <v>333</v>
       </c>
-      <c r="B36" s="321"/>
-      <c r="C36" s="321"/>
-      <c r="D36" s="321"/>
-      <c r="E36" s="321"/>
-      <c r="F36" s="321"/>
-      <c r="G36" s="321"/>
-      <c r="H36" s="322"/>
+      <c r="B36" s="331"/>
+      <c r="C36" s="331"/>
+      <c r="D36" s="331"/>
+      <c r="E36" s="331"/>
+      <c r="F36" s="331"/>
+      <c r="G36" s="331"/>
+      <c r="H36" s="332"/>
     </row>
     <row r="37" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="320"/>
-      <c r="B37" s="321"/>
-      <c r="C37" s="321"/>
-      <c r="D37" s="321"/>
-      <c r="E37" s="321"/>
-      <c r="F37" s="321"/>
-      <c r="G37" s="321"/>
-      <c r="H37" s="322"/>
+      <c r="A37" s="330"/>
+      <c r="B37" s="331"/>
+      <c r="C37" s="331"/>
+      <c r="D37" s="331"/>
+      <c r="E37" s="331"/>
+      <c r="F37" s="331"/>
+      <c r="G37" s="331"/>
+      <c r="H37" s="332"/>
     </row>
     <row r="38" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="320"/>
-      <c r="B38" s="321"/>
-      <c r="C38" s="321"/>
-      <c r="D38" s="321"/>
-      <c r="E38" s="321"/>
-      <c r="F38" s="321"/>
-      <c r="G38" s="321"/>
-      <c r="H38" s="322"/>
+      <c r="A38" s="330"/>
+      <c r="B38" s="331"/>
+      <c r="C38" s="331"/>
+      <c r="D38" s="331"/>
+      <c r="E38" s="331"/>
+      <c r="F38" s="331"/>
+      <c r="G38" s="331"/>
+      <c r="H38" s="332"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="323"/>
-      <c r="B39" s="324"/>
-      <c r="C39" s="324"/>
-      <c r="D39" s="324"/>
-      <c r="E39" s="324"/>
-      <c r="F39" s="324"/>
-      <c r="G39" s="324"/>
-      <c r="H39" s="325"/>
+      <c r="A39" s="333"/>
+      <c r="B39" s="334"/>
+      <c r="C39" s="334"/>
+      <c r="D39" s="334"/>
+      <c r="E39" s="334"/>
+      <c r="F39" s="334"/>
+      <c r="G39" s="334"/>
+      <c r="H39" s="335"/>
       <c r="I39" s="111"/>
       <c r="J39" s="111"/>
     </row>
@@ -8531,15 +8534,15 @@
       <c r="J40" s="111"/>
     </row>
     <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="329" t="s">
+      <c r="A41" s="342" t="s">
         <v>280</v>
       </c>
-      <c r="B41" s="329"/>
-      <c r="C41" s="329"/>
-      <c r="D41" s="329"/>
-      <c r="E41" s="329"/>
-      <c r="F41" s="329"/>
-      <c r="G41" s="329"/>
+      <c r="B41" s="342"/>
+      <c r="C41" s="342"/>
+      <c r="D41" s="342"/>
+      <c r="E41" s="342"/>
+      <c r="F41" s="342"/>
+      <c r="G41" s="342"/>
       <c r="H41" s="111"/>
       <c r="I41" s="111"/>
       <c r="J41" s="111"/>
@@ -8554,12 +8557,12 @@
       <c r="C42" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="D42" s="289" t="s">
+      <c r="D42" s="300" t="s">
         <v>283</v>
       </c>
-      <c r="E42" s="289"/>
-      <c r="F42" s="289"/>
-      <c r="G42" s="289"/>
+      <c r="E42" s="300"/>
+      <c r="F42" s="300"/>
+      <c r="G42" s="300"/>
       <c r="H42" s="111"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
@@ -8822,14 +8825,14 @@
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="338" t="s">
+      <c r="A2" s="361" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="339"/>
-      <c r="C2" s="339"/>
-      <c r="D2" s="339"/>
-      <c r="E2" s="339"/>
-      <c r="F2" s="340"/>
+      <c r="B2" s="362"/>
+      <c r="C2" s="362"/>
+      <c r="D2" s="362"/>
+      <c r="E2" s="362"/>
+      <c r="F2" s="363"/>
       <c r="G2" s="351" t="s">
         <v>219</v>
       </c>
@@ -8838,23 +8841,23 @@
       <c r="J2" s="351"/>
       <c r="K2" s="351"/>
       <c r="L2" s="351"/>
-      <c r="M2" s="334" t="s">
+      <c r="M2" s="357" t="s">
         <v>268</v>
       </c>
-      <c r="N2" s="334"/>
-      <c r="O2" s="334"/>
+      <c r="N2" s="357"/>
+      <c r="O2" s="357"/>
       <c r="P2" s="87"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="341" t="s">
+      <c r="A3" s="364" t="s">
         <v>476</v>
       </c>
-      <c r="B3" s="342"/>
-      <c r="C3" s="342"/>
-      <c r="D3" s="342"/>
-      <c r="E3" s="342"/>
-      <c r="F3" s="343"/>
+      <c r="B3" s="365"/>
+      <c r="C3" s="365"/>
+      <c r="D3" s="365"/>
+      <c r="E3" s="365"/>
+      <c r="F3" s="366"/>
       <c r="G3" s="353" t="s">
         <v>274</v>
       </c>
@@ -8875,14 +8878,14 @@
       <c r="P3" s="187"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="344" t="s">
+      <c r="A4" s="367" t="s">
         <v>477</v>
       </c>
-      <c r="B4" s="345"/>
-      <c r="C4" s="345"/>
-      <c r="D4" s="345"/>
-      <c r="E4" s="345"/>
-      <c r="F4" s="346"/>
+      <c r="B4" s="368"/>
+      <c r="C4" s="368"/>
+      <c r="D4" s="368"/>
+      <c r="E4" s="368"/>
+      <c r="F4" s="369"/>
       <c r="G4" s="352" t="s">
         <v>220</v>
       </c>
@@ -8939,12 +8942,12 @@
       <c r="D6" s="348"/>
       <c r="E6" s="348"/>
       <c r="F6" s="349"/>
-      <c r="G6" s="333"/>
-      <c r="H6" s="333"/>
-      <c r="I6" s="333"/>
-      <c r="J6" s="333"/>
-      <c r="K6" s="333"/>
-      <c r="L6" s="333"/>
+      <c r="G6" s="346"/>
+      <c r="H6" s="346"/>
+      <c r="I6" s="346"/>
+      <c r="J6" s="346"/>
+      <c r="K6" s="346"/>
+      <c r="L6" s="346"/>
       <c r="M6" s="209"/>
       <c r="N6" s="209"/>
       <c r="O6" s="210"/>
@@ -8956,12 +8959,12 @@
       <c r="D7" s="348"/>
       <c r="E7" s="348"/>
       <c r="F7" s="349"/>
-      <c r="G7" s="333"/>
-      <c r="H7" s="333"/>
-      <c r="I7" s="333"/>
-      <c r="J7" s="333"/>
-      <c r="K7" s="333"/>
-      <c r="L7" s="333"/>
+      <c r="G7" s="346"/>
+      <c r="H7" s="346"/>
+      <c r="I7" s="346"/>
+      <c r="J7" s="346"/>
+      <c r="K7" s="346"/>
+      <c r="L7" s="346"/>
       <c r="M7" s="209"/>
       <c r="N7" s="209"/>
       <c r="O7" s="210"/>
@@ -8973,29 +8976,29 @@
       <c r="D8" s="348"/>
       <c r="E8" s="348"/>
       <c r="F8" s="349"/>
-      <c r="G8" s="333"/>
-      <c r="H8" s="333"/>
-      <c r="I8" s="333"/>
-      <c r="J8" s="333"/>
-      <c r="K8" s="333"/>
-      <c r="L8" s="333"/>
+      <c r="G8" s="346"/>
+      <c r="H8" s="346"/>
+      <c r="I8" s="346"/>
+      <c r="J8" s="346"/>
+      <c r="K8" s="346"/>
+      <c r="L8" s="346"/>
       <c r="M8" s="209"/>
       <c r="N8" s="209"/>
       <c r="O8" s="210"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="335" t="s">
+      <c r="A10" s="358" t="s">
         <v>327</v>
       </c>
-      <c r="B10" s="336"/>
-      <c r="C10" s="336"/>
-      <c r="D10" s="336"/>
-      <c r="E10" s="336"/>
-      <c r="F10" s="336"/>
-      <c r="G10" s="336"/>
-      <c r="H10" s="336"/>
-      <c r="I10" s="337"/>
+      <c r="B10" s="359"/>
+      <c r="C10" s="359"/>
+      <c r="D10" s="359"/>
+      <c r="E10" s="359"/>
+      <c r="F10" s="359"/>
+      <c r="G10" s="359"/>
+      <c r="H10" s="359"/>
+      <c r="I10" s="360"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="129" t="s">
@@ -9010,7 +9013,7 @@
       <c r="D11" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="E11" s="381" t="s">
+      <c r="E11" s="252" t="s">
         <v>243</v>
       </c>
       <c r="F11" s="123" t="s">
@@ -9044,7 +9047,7 @@
       <c r="D12" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="382" t="s">
+      <c r="E12" s="253" t="s">
         <v>532</v>
       </c>
       <c r="F12" s="145" t="s">
@@ -9090,69 +9093,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="317" t="s">
+      <c r="A15" s="327" t="s">
         <v>253</v>
       </c>
-      <c r="B15" s="318"/>
-      <c r="C15" s="318"/>
-      <c r="D15" s="318"/>
-      <c r="E15" s="318"/>
-      <c r="F15" s="318"/>
-      <c r="G15" s="318"/>
-      <c r="H15" s="319"/>
+      <c r="B15" s="328"/>
+      <c r="C15" s="328"/>
+      <c r="D15" s="328"/>
+      <c r="E15" s="328"/>
+      <c r="F15" s="328"/>
+      <c r="G15" s="328"/>
+      <c r="H15" s="329"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="320" t="s">
+      <c r="A16" s="330" t="s">
         <v>335</v>
       </c>
-      <c r="B16" s="321"/>
-      <c r="C16" s="321"/>
-      <c r="D16" s="321"/>
-      <c r="E16" s="321"/>
-      <c r="F16" s="321"/>
-      <c r="G16" s="321"/>
-      <c r="H16" s="322"/>
+      <c r="B16" s="331"/>
+      <c r="C16" s="331"/>
+      <c r="D16" s="331"/>
+      <c r="E16" s="331"/>
+      <c r="F16" s="331"/>
+      <c r="G16" s="331"/>
+      <c r="H16" s="332"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="320"/>
-      <c r="B17" s="321"/>
-      <c r="C17" s="321"/>
-      <c r="D17" s="321"/>
-      <c r="E17" s="321"/>
-      <c r="F17" s="321"/>
-      <c r="G17" s="321"/>
-      <c r="H17" s="322"/>
+      <c r="A17" s="330"/>
+      <c r="B17" s="331"/>
+      <c r="C17" s="331"/>
+      <c r="D17" s="331"/>
+      <c r="E17" s="331"/>
+      <c r="F17" s="331"/>
+      <c r="G17" s="331"/>
+      <c r="H17" s="332"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="320"/>
-      <c r="B18" s="321"/>
-      <c r="C18" s="321"/>
-      <c r="D18" s="321"/>
-      <c r="E18" s="321"/>
-      <c r="F18" s="321"/>
-      <c r="G18" s="321"/>
-      <c r="H18" s="322"/>
+      <c r="A18" s="330"/>
+      <c r="B18" s="331"/>
+      <c r="C18" s="331"/>
+      <c r="D18" s="331"/>
+      <c r="E18" s="331"/>
+      <c r="F18" s="331"/>
+      <c r="G18" s="331"/>
+      <c r="H18" s="332"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="323"/>
-      <c r="B19" s="324"/>
-      <c r="C19" s="324"/>
-      <c r="D19" s="324"/>
-      <c r="E19" s="324"/>
-      <c r="F19" s="324"/>
-      <c r="G19" s="324"/>
-      <c r="H19" s="325"/>
+      <c r="A19" s="333"/>
+      <c r="B19" s="334"/>
+      <c r="C19" s="334"/>
+      <c r="D19" s="334"/>
+      <c r="E19" s="334"/>
+      <c r="F19" s="334"/>
+      <c r="G19" s="334"/>
+      <c r="H19" s="335"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="329" t="s">
+      <c r="A21" s="342" t="s">
         <v>280</v>
       </c>
-      <c r="B21" s="329"/>
-      <c r="C21" s="329"/>
-      <c r="D21" s="329"/>
-      <c r="E21" s="329"/>
-      <c r="F21" s="329"/>
-      <c r="G21" s="329"/>
+      <c r="B21" s="342"/>
+      <c r="C21" s="342"/>
+      <c r="D21" s="342"/>
+      <c r="E21" s="342"/>
+      <c r="F21" s="342"/>
+      <c r="G21" s="342"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
@@ -9164,12 +9167,12 @@
       <c r="C22" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="D22" s="289" t="s">
+      <c r="D22" s="300" t="s">
         <v>283</v>
       </c>
-      <c r="E22" s="289"/>
-      <c r="F22" s="289"/>
-      <c r="G22" s="289"/>
+      <c r="E22" s="300"/>
+      <c r="F22" s="300"/>
+      <c r="G22" s="300"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9607,12 +9610,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="J6:L6"/>
@@ -9623,16 +9630,12 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9761,12 +9764,12 @@
       <c r="J2" s="351"/>
       <c r="K2" s="351"/>
       <c r="L2" s="351"/>
-      <c r="M2" s="334" t="s">
+      <c r="M2" s="357" t="s">
         <v>267</v>
       </c>
-      <c r="N2" s="334"/>
-      <c r="O2" s="334"/>
-      <c r="P2" s="334"/>
+      <c r="N2" s="357"/>
+      <c r="O2" s="357"/>
+      <c r="P2" s="357"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -9801,14 +9804,14 @@
       <c r="Q3" s="186"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="344" t="s">
+      <c r="A4" s="367" t="s">
         <v>477</v>
       </c>
-      <c r="B4" s="345"/>
-      <c r="C4" s="345"/>
-      <c r="D4" s="345"/>
-      <c r="E4" s="345"/>
-      <c r="F4" s="346"/>
+      <c r="B4" s="368"/>
+      <c r="C4" s="368"/>
+      <c r="D4" s="368"/>
+      <c r="E4" s="368"/>
+      <c r="F4" s="369"/>
       <c r="G4" s="352" t="s">
         <v>221</v>
       </c>
@@ -9837,14 +9840,14 @@
       <c r="D5" s="348"/>
       <c r="E5" s="348"/>
       <c r="F5" s="349"/>
-      <c r="G5" s="357" t="s">
+      <c r="G5" s="370" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="357"/>
-      <c r="I5" s="357"/>
-      <c r="J5" s="357"/>
-      <c r="K5" s="357"/>
-      <c r="L5" s="357"/>
+      <c r="H5" s="370"/>
+      <c r="I5" s="370"/>
+      <c r="J5" s="370"/>
+      <c r="K5" s="370"/>
+      <c r="L5" s="370"/>
       <c r="M5" s="209" t="s">
         <v>264</v>
       </c>
@@ -9865,14 +9868,14 @@
       <c r="D6" s="348"/>
       <c r="E6" s="348"/>
       <c r="F6" s="349"/>
-      <c r="G6" s="357" t="s">
+      <c r="G6" s="370" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="357"/>
-      <c r="I6" s="357"/>
-      <c r="J6" s="357"/>
-      <c r="K6" s="357"/>
-      <c r="L6" s="357"/>
+      <c r="H6" s="370"/>
+      <c r="I6" s="370"/>
+      <c r="J6" s="370"/>
+      <c r="K6" s="370"/>
+      <c r="L6" s="370"/>
       <c r="M6" s="209"/>
       <c r="N6" s="209"/>
       <c r="O6" s="209" t="s">
@@ -9889,12 +9892,12 @@
       <c r="D7" s="348"/>
       <c r="E7" s="348"/>
       <c r="F7" s="349"/>
-      <c r="G7" s="357"/>
-      <c r="H7" s="357"/>
-      <c r="I7" s="357"/>
-      <c r="J7" s="357"/>
-      <c r="K7" s="357"/>
-      <c r="L7" s="357"/>
+      <c r="G7" s="370"/>
+      <c r="H7" s="370"/>
+      <c r="I7" s="370"/>
+      <c r="J7" s="370"/>
+      <c r="K7" s="370"/>
+      <c r="L7" s="370"/>
       <c r="M7" s="209"/>
       <c r="N7" s="209"/>
       <c r="O7" s="209"/>
@@ -9907,12 +9910,12 @@
       <c r="D8" s="348"/>
       <c r="E8" s="348"/>
       <c r="F8" s="349"/>
-      <c r="G8" s="357"/>
-      <c r="H8" s="357"/>
-      <c r="I8" s="357"/>
-      <c r="J8" s="357"/>
-      <c r="K8" s="357"/>
-      <c r="L8" s="357"/>
+      <c r="G8" s="370"/>
+      <c r="H8" s="370"/>
+      <c r="I8" s="370"/>
+      <c r="J8" s="370"/>
+      <c r="K8" s="370"/>
+      <c r="L8" s="370"/>
       <c r="M8" s="209"/>
       <c r="N8" s="209"/>
       <c r="O8" s="209"/>
@@ -9920,17 +9923,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="335" t="s">
+      <c r="A10" s="358" t="s">
         <v>326</v>
       </c>
-      <c r="B10" s="336"/>
-      <c r="C10" s="336"/>
-      <c r="D10" s="336"/>
-      <c r="E10" s="336"/>
-      <c r="F10" s="336"/>
-      <c r="G10" s="336"/>
-      <c r="H10" s="336"/>
-      <c r="I10" s="337"/>
+      <c r="B10" s="359"/>
+      <c r="C10" s="359"/>
+      <c r="D10" s="359"/>
+      <c r="E10" s="359"/>
+      <c r="F10" s="359"/>
+      <c r="G10" s="359"/>
+      <c r="H10" s="359"/>
+      <c r="I10" s="360"/>
     </row>
     <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="129" t="s">
@@ -9945,7 +9948,7 @@
       <c r="D11" s="123" t="s">
         <v>243</v>
       </c>
-      <c r="E11" s="381" t="s">
+      <c r="E11" s="252" t="s">
         <v>243</v>
       </c>
       <c r="F11" s="123" t="s">
@@ -9975,7 +9978,7 @@
       <c r="D12" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="382" t="s">
+      <c r="E12" s="253" t="s">
         <v>532</v>
       </c>
       <c r="F12" s="145" t="s">
@@ -10019,69 +10022,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="317" t="s">
+      <c r="A15" s="327" t="s">
         <v>253</v>
       </c>
-      <c r="B15" s="318"/>
-      <c r="C15" s="318"/>
-      <c r="D15" s="318"/>
-      <c r="E15" s="318"/>
-      <c r="F15" s="318"/>
-      <c r="G15" s="318"/>
-      <c r="H15" s="319"/>
+      <c r="B15" s="328"/>
+      <c r="C15" s="328"/>
+      <c r="D15" s="328"/>
+      <c r="E15" s="328"/>
+      <c r="F15" s="328"/>
+      <c r="G15" s="328"/>
+      <c r="H15" s="329"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="320" t="s">
+      <c r="A16" s="330" t="s">
         <v>336</v>
       </c>
-      <c r="B16" s="321"/>
-      <c r="C16" s="321"/>
-      <c r="D16" s="321"/>
-      <c r="E16" s="321"/>
-      <c r="F16" s="321"/>
-      <c r="G16" s="321"/>
-      <c r="H16" s="322"/>
+      <c r="B16" s="331"/>
+      <c r="C16" s="331"/>
+      <c r="D16" s="331"/>
+      <c r="E16" s="331"/>
+      <c r="F16" s="331"/>
+      <c r="G16" s="331"/>
+      <c r="H16" s="332"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="320"/>
-      <c r="B17" s="321"/>
-      <c r="C17" s="321"/>
-      <c r="D17" s="321"/>
-      <c r="E17" s="321"/>
-      <c r="F17" s="321"/>
-      <c r="G17" s="321"/>
-      <c r="H17" s="322"/>
+      <c r="A17" s="330"/>
+      <c r="B17" s="331"/>
+      <c r="C17" s="331"/>
+      <c r="D17" s="331"/>
+      <c r="E17" s="331"/>
+      <c r="F17" s="331"/>
+      <c r="G17" s="331"/>
+      <c r="H17" s="332"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="320"/>
-      <c r="B18" s="321"/>
-      <c r="C18" s="321"/>
-      <c r="D18" s="321"/>
-      <c r="E18" s="321"/>
-      <c r="F18" s="321"/>
-      <c r="G18" s="321"/>
-      <c r="H18" s="322"/>
+      <c r="A18" s="330"/>
+      <c r="B18" s="331"/>
+      <c r="C18" s="331"/>
+      <c r="D18" s="331"/>
+      <c r="E18" s="331"/>
+      <c r="F18" s="331"/>
+      <c r="G18" s="331"/>
+      <c r="H18" s="332"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="323"/>
-      <c r="B19" s="324"/>
-      <c r="C19" s="324"/>
-      <c r="D19" s="324"/>
-      <c r="E19" s="324"/>
-      <c r="F19" s="324"/>
-      <c r="G19" s="324"/>
-      <c r="H19" s="325"/>
+      <c r="A19" s="333"/>
+      <c r="B19" s="334"/>
+      <c r="C19" s="334"/>
+      <c r="D19" s="334"/>
+      <c r="E19" s="334"/>
+      <c r="F19" s="334"/>
+      <c r="G19" s="334"/>
+      <c r="H19" s="335"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="329" t="s">
+      <c r="A21" s="342" t="s">
         <v>280</v>
       </c>
-      <c r="B21" s="329"/>
-      <c r="C21" s="329"/>
-      <c r="D21" s="329"/>
-      <c r="E21" s="329"/>
-      <c r="F21" s="329"/>
-      <c r="G21" s="329"/>
+      <c r="B21" s="342"/>
+      <c r="C21" s="342"/>
+      <c r="D21" s="342"/>
+      <c r="E21" s="342"/>
+      <c r="F21" s="342"/>
+      <c r="G21" s="342"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
@@ -10093,12 +10096,12 @@
       <c r="C22" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="D22" s="289" t="s">
+      <c r="D22" s="300" t="s">
         <v>283</v>
       </c>
-      <c r="E22" s="289"/>
-      <c r="F22" s="289"/>
-      <c r="G22" s="289"/>
+      <c r="E22" s="300"/>
+      <c r="F22" s="300"/>
+      <c r="G22" s="300"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -10270,6 +10273,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -10284,13 +10294,6 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10356,8 +10359,8 @@
   </sheetPr>
   <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10372,12 +10375,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="358" t="s">
+      <c r="A1" s="371" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="359"/>
-      <c r="C1" s="359"/>
-      <c r="D1" s="360"/>
+      <c r="B1" s="372"/>
+      <c r="C1" s="372"/>
+      <c r="D1" s="373"/>
       <c r="E1" s="65"/>
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
@@ -10452,7 +10455,7 @@
       <c r="B6" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="C6" s="374"/>
+      <c r="C6" s="245"/>
       <c r="D6" s="23">
         <v>1000000</v>
       </c>
@@ -10464,7 +10467,9 @@
       <c r="B7" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="C7" s="375"/>
+      <c r="C7" s="246" t="s">
+        <v>533</v>
+      </c>
       <c r="D7" s="23">
         <v>0</v>
       </c>
@@ -10476,7 +10481,9 @@
       <c r="B8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="376"/>
+      <c r="C8" s="247">
+        <v>1</v>
+      </c>
       <c r="D8" s="23">
         <v>0</v>
       </c>
@@ -10488,7 +10495,7 @@
       <c r="B9" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="C9" s="376"/>
+      <c r="C9" s="247"/>
       <c r="D9" s="23">
         <v>0</v>
       </c>
@@ -10500,7 +10507,7 @@
       <c r="B10" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="C10" s="374"/>
+      <c r="C10" s="245"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -10522,7 +10529,7 @@
       <c r="B12" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="C12" s="374"/>
+      <c r="C12" s="245"/>
       <c r="D12" s="23">
         <v>10000</v>
       </c>
@@ -10534,7 +10541,7 @@
       <c r="B13" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="C13" s="374"/>
+      <c r="C13" s="245"/>
       <c r="D13" s="23">
         <v>0.1</v>
       </c>
@@ -10546,7 +10553,7 @@
       <c r="B14" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="C14" s="374"/>
+      <c r="C14" s="245"/>
       <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -10556,7 +10563,7 @@
       <c r="B15" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="C15" s="374"/>
+      <c r="C15" s="245"/>
       <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -10566,7 +10573,7 @@
       <c r="B16" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="C16" s="374"/>
+      <c r="C16" s="245"/>
       <c r="D16" s="23">
         <v>10</v>
       </c>
@@ -10578,7 +10585,7 @@
       <c r="B17" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="C17" s="374"/>
+      <c r="C17" s="245"/>
       <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -10588,7 +10595,7 @@
       <c r="B18" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="C18" s="374"/>
+      <c r="C18" s="245"/>
       <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -10956,8 +10963,8 @@
       <c r="B52" s="17" t="s">
         <v>516</v>
       </c>
-      <c r="C52" s="377"/>
-      <c r="D52" s="378"/>
+      <c r="C52" s="248"/>
+      <c r="D52" s="249"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
@@ -10966,8 +10973,8 @@
       <c r="B53" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="C53" s="375"/>
-      <c r="D53" s="379">
+      <c r="C53" s="246"/>
+      <c r="D53" s="250">
         <v>0.02</v>
       </c>
     </row>
@@ -10978,8 +10985,8 @@
       <c r="B54" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="C54" s="375"/>
-      <c r="D54" s="379"/>
+      <c r="C54" s="246"/>
+      <c r="D54" s="250"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
@@ -10988,8 +10995,8 @@
       <c r="B55" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="C55" s="375"/>
-      <c r="D55" s="379"/>
+      <c r="C55" s="246"/>
+      <c r="D55" s="250"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
@@ -10998,8 +11005,8 @@
       <c r="B56" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="C56" s="375"/>
-      <c r="D56" s="379"/>
+      <c r="C56" s="246"/>
+      <c r="D56" s="250"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -11008,7 +11015,7 @@
       <c r="B57" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="C57" s="375"/>
+      <c r="C57" s="246"/>
       <c r="D57" s="24" t="s">
         <v>72</v>
       </c>
@@ -11271,7 +11278,7 @@
       <c r="A82" s="21" t="s">
         <v>528</v>
       </c>
-      <c r="B82" s="380" t="s">
+      <c r="B82" s="251" t="s">
         <v>529</v>
       </c>
       <c r="C82" s="173"/>
@@ -11346,23 +11353,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="364" t="s">
+      <c r="A1" s="377" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="365"/>
-      <c r="C1" s="365"/>
-      <c r="D1" s="365"/>
-      <c r="E1" s="365"/>
-      <c r="F1" s="365"/>
-      <c r="G1" s="365"/>
-      <c r="H1" s="365"/>
-      <c r="I1" s="365"/>
-      <c r="J1" s="365"/>
-      <c r="K1" s="365"/>
-      <c r="L1" s="365"/>
-      <c r="M1" s="365"/>
-      <c r="N1" s="365"/>
-      <c r="O1" s="365"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
+      <c r="H1" s="378"/>
+      <c r="I1" s="378"/>
+      <c r="J1" s="378"/>
+      <c r="K1" s="378"/>
+      <c r="L1" s="378"/>
+      <c r="M1" s="378"/>
+      <c r="N1" s="378"/>
+      <c r="O1" s="378"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
@@ -11380,17 +11387,17 @@
       <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="361" t="s">
+      <c r="B3" s="374" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="362"/>
-      <c r="D3" s="362"/>
-      <c r="E3" s="362"/>
-      <c r="F3" s="362"/>
-      <c r="G3" s="362"/>
-      <c r="H3" s="362"/>
-      <c r="I3" s="362"/>
-      <c r="J3" s="363"/>
+      <c r="C3" s="375"/>
+      <c r="D3" s="375"/>
+      <c r="E3" s="375"/>
+      <c r="F3" s="375"/>
+      <c r="G3" s="375"/>
+      <c r="H3" s="375"/>
+      <c r="I3" s="375"/>
+      <c r="J3" s="376"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="36"/>
@@ -11581,21 +11588,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="361" t="s">
+      <c r="B19" s="374" t="s">
         <v>196</v>
       </c>
-      <c r="C19" s="362"/>
-      <c r="D19" s="362"/>
-      <c r="E19" s="362"/>
-      <c r="F19" s="362"/>
-      <c r="G19" s="362"/>
-      <c r="H19" s="362"/>
-      <c r="I19" s="362"/>
-      <c r="J19" s="362"/>
-      <c r="K19" s="362"/>
-      <c r="L19" s="362"/>
-      <c r="M19" s="362"/>
-      <c r="N19" s="363"/>
+      <c r="C19" s="375"/>
+      <c r="D19" s="375"/>
+      <c r="E19" s="375"/>
+      <c r="F19" s="375"/>
+      <c r="G19" s="375"/>
+      <c r="H19" s="375"/>
+      <c r="I19" s="375"/>
+      <c r="J19" s="375"/>
+      <c r="K19" s="375"/>
+      <c r="L19" s="375"/>
+      <c r="M19" s="375"/>
+      <c r="N19" s="376"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="36"/>
@@ -11797,27 +11804,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="369" t="s">
+      <c r="A1" s="382" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="370"/>
-      <c r="C1" s="370"/>
-      <c r="D1" s="370"/>
-      <c r="E1" s="370"/>
-      <c r="F1" s="370"/>
-      <c r="G1" s="370"/>
-      <c r="H1" s="370"/>
-      <c r="I1" s="370"/>
-      <c r="J1" s="370"/>
-      <c r="K1" s="370"/>
-      <c r="L1" s="370"/>
-      <c r="M1" s="370"/>
-      <c r="N1" s="370"/>
-      <c r="O1" s="370"/>
-      <c r="P1" s="370"/>
-      <c r="Q1" s="370"/>
-      <c r="R1" s="370"/>
-      <c r="S1" s="370"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="383"/>
+      <c r="F1" s="383"/>
+      <c r="G1" s="383"/>
+      <c r="H1" s="383"/>
+      <c r="I1" s="383"/>
+      <c r="J1" s="383"/>
+      <c r="K1" s="383"/>
+      <c r="L1" s="383"/>
+      <c r="M1" s="383"/>
+      <c r="N1" s="383"/>
+      <c r="O1" s="383"/>
+      <c r="P1" s="383"/>
+      <c r="Q1" s="383"/>
+      <c r="R1" s="383"/>
+      <c r="S1" s="383"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11831,26 +11838,26 @@
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="361" t="s">
+      <c r="B3" s="374" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="362"/>
-      <c r="D3" s="362"/>
-      <c r="E3" s="362"/>
-      <c r="F3" s="362"/>
-      <c r="G3" s="362"/>
-      <c r="H3" s="362"/>
-      <c r="I3" s="362"/>
-      <c r="J3" s="363"/>
-      <c r="L3" s="366" t="s">
+      <c r="C3" s="375"/>
+      <c r="D3" s="375"/>
+      <c r="E3" s="375"/>
+      <c r="F3" s="375"/>
+      <c r="G3" s="375"/>
+      <c r="H3" s="375"/>
+      <c r="I3" s="375"/>
+      <c r="J3" s="376"/>
+      <c r="L3" s="379" t="s">
         <v>196</v>
       </c>
-      <c r="M3" s="367"/>
-      <c r="N3" s="367"/>
-      <c r="O3" s="367"/>
-      <c r="P3" s="367"/>
-      <c r="Q3" s="367"/>
-      <c r="R3" s="368"/>
+      <c r="M3" s="380"/>
+      <c r="N3" s="380"/>
+      <c r="O3" s="380"/>
+      <c r="P3" s="380"/>
+      <c r="Q3" s="380"/>
+      <c r="R3" s="381"/>
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
     </row>
@@ -12081,23 +12088,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="371" t="s">
+      <c r="A1" s="384" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="372"/>
-      <c r="C1" s="372"/>
-      <c r="D1" s="372"/>
-      <c r="E1" s="372"/>
-      <c r="F1" s="372"/>
-      <c r="G1" s="372"/>
-      <c r="H1" s="372"/>
-      <c r="I1" s="372"/>
-      <c r="J1" s="372"/>
-      <c r="K1" s="372"/>
-      <c r="L1" s="372"/>
-      <c r="M1" s="372"/>
-      <c r="N1" s="372"/>
-      <c r="O1" s="373"/>
+      <c r="B1" s="385"/>
+      <c r="C1" s="385"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="385"/>
+      <c r="F1" s="385"/>
+      <c r="G1" s="385"/>
+      <c r="H1" s="385"/>
+      <c r="I1" s="385"/>
+      <c r="J1" s="385"/>
+      <c r="K1" s="385"/>
+      <c r="L1" s="385"/>
+      <c r="M1" s="385"/>
+      <c r="N1" s="385"/>
+      <c r="O1" s="386"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
@@ -12110,22 +12117,22 @@
       <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="361" t="s">
+      <c r="B3" s="374" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="362"/>
-      <c r="D3" s="362"/>
-      <c r="E3" s="362"/>
-      <c r="F3" s="362"/>
-      <c r="G3" s="362"/>
-      <c r="H3" s="363"/>
-      <c r="J3" s="366" t="s">
+      <c r="C3" s="375"/>
+      <c r="D3" s="375"/>
+      <c r="E3" s="375"/>
+      <c r="F3" s="375"/>
+      <c r="G3" s="375"/>
+      <c r="H3" s="376"/>
+      <c r="J3" s="379" t="s">
         <v>196</v>
       </c>
-      <c r="K3" s="367"/>
-      <c r="L3" s="367"/>
-      <c r="M3" s="367"/>
-      <c r="N3" s="368"/>
+      <c r="K3" s="380"/>
+      <c r="L3" s="380"/>
+      <c r="M3" s="380"/>
+      <c r="N3" s="381"/>
       <c r="O3" s="35"/>
       <c r="P3" s="35"/>
     </row>

--- a/test_templates/test_batch_template4.xlsx
+++ b/test_templates/test_batch_template4.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="532">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2515,12 +2515,6 @@
   </si>
   <si>
     <t>what type of pathname to write to point-cloud JSON header file. 0 stands for absolute, 1 stands for relative.</t>
-  </si>
-  <si>
-    <t>flow.defaultCSVReadHeader</t>
-  </si>
-  <si>
-    <t>what is absolute filename for the JSON header file needed to read in CSV files</t>
   </si>
   <si>
     <t>flow.smallFileWarning</t>
@@ -7054,7 +7048,7 @@
         <v>94</v>
       </c>
       <c r="M26" s="255" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="N26" s="95" t="s">
         <v>95</v>
@@ -9048,7 +9042,7 @@
         <v>94</v>
       </c>
       <c r="E12" s="253" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F12" s="145" t="s">
         <v>95</v>
@@ -9979,7 +9973,7 @@
         <v>94</v>
       </c>
       <c r="E12" s="253" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F12" s="145" t="s">
         <v>95</v>
@@ -10357,10 +10351,10 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10468,7 +10462,7 @@
         <v>496</v>
       </c>
       <c r="C7" s="246" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D7" s="23">
         <v>0</v>
@@ -10501,25 +10495,27 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="202" t="s">
+      <c r="A10" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="C10" s="203"/>
+      <c r="D10" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="202" t="s">
         <v>499</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="C10" s="245"/>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="C11" s="203"/>
+      <c r="C11" s="245"/>
       <c r="D11" s="23">
-        <v>1</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -10531,7 +10527,7 @@
       </c>
       <c r="C12" s="245"/>
       <c r="D12" s="23">
-        <v>10000</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -10542,9 +10538,7 @@
         <v>504</v>
       </c>
       <c r="C13" s="245"/>
-      <c r="D13" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="202" t="s">
@@ -10564,7 +10558,9 @@
         <v>508</v>
       </c>
       <c r="C15" s="245"/>
-      <c r="D15" s="23"/>
+      <c r="D15" s="23">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="202" t="s">
@@ -10574,9 +10570,7 @@
         <v>510</v>
       </c>
       <c r="C16" s="245"/>
-      <c r="D16" s="23">
-        <v>10</v>
-      </c>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="202" t="s">
@@ -10589,382 +10583,384 @@
       <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="202" t="s">
-        <v>513</v>
+      <c r="A18" s="12" t="s">
+        <v>455</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>514</v>
-      </c>
-      <c r="C18" s="245"/>
-      <c r="D18" s="23"/>
+        <v>456</v>
+      </c>
+      <c r="C18" s="203"/>
+      <c r="D18" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>455</v>
+        <v>102</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="C19" s="203"/>
-      <c r="D19" s="23">
-        <v>1</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C19" s="174"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="174"/>
-      <c r="D20" s="23"/>
+      <c r="A20" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="173"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="173"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="174"/>
+      <c r="D21" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C22" s="174"/>
-      <c r="D22" s="23">
-        <v>0</v>
+      <c r="D22" s="24" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="174"/>
       <c r="D23" s="24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C24" s="174"/>
-      <c r="D24" s="24" t="s">
-        <v>69</v>
+      <c r="D24" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C25" s="174"/>
-      <c r="D25" s="23">
-        <v>0</v>
+      <c r="D25" s="23" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="174"/>
-      <c r="D26" s="23" t="s">
-        <v>31</v>
-      </c>
+      <c r="A26" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="173"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="173"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="174"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="174"/>
       <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C29" s="174"/>
       <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C30" s="174"/>
       <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="174"/>
-      <c r="D31" s="23"/>
+      <c r="D31" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C32" s="174"/>
-      <c r="D32" s="23">
-        <v>1</v>
-      </c>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C33" s="174"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="174"/>
       <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="174"/>
-      <c r="D35" s="23"/>
+      <c r="A35" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="173"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="173"/>
-      <c r="D36" s="22"/>
+      <c r="A36" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="174"/>
+      <c r="D36" s="23">
+        <v>100</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" s="174"/>
       <c r="D37" s="23">
-        <v>100</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="174"/>
       <c r="D38" s="23">
-        <v>65535</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" s="174"/>
       <c r="D39" s="23">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" s="174"/>
-      <c r="D40" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="174"/>
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C42" s="174"/>
       <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="174"/>
-      <c r="D43" s="23"/>
+      <c r="A43" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="173"/>
+      <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="173"/>
-      <c r="D44" s="22"/>
+      <c r="A44" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="174"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45" s="174"/>
-      <c r="D45" s="23"/>
+      <c r="D45" s="23">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" s="174"/>
-      <c r="D46" s="23">
-        <v>0.02</v>
-      </c>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C47" s="174"/>
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" s="174"/>
       <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C49" s="174"/>
-      <c r="D49" s="23"/>
+      <c r="D49" s="24" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="C50" s="174"/>
-      <c r="D50" s="24" t="s">
-        <v>72</v>
+      <c r="D50" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C51" s="174"/>
-      <c r="D51" s="24">
-        <v>0</v>
-      </c>
+      <c r="A51" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="C51" s="248"/>
+      <c r="D51" s="249"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="C52" s="248"/>
-      <c r="D52" s="249"/>
+      <c r="C52" s="246"/>
+      <c r="D52" s="250">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
@@ -10974,9 +10970,7 @@
         <v>518</v>
       </c>
       <c r="C53" s="246"/>
-      <c r="D53" s="250">
-        <v>0.02</v>
-      </c>
+      <c r="D53" s="250"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
@@ -11006,144 +11000,146 @@
         <v>524</v>
       </c>
       <c r="C56" s="246"/>
-      <c r="D56" s="250"/>
+      <c r="D56" s="24" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="C57" s="246"/>
-      <c r="D57" s="24" t="s">
-        <v>72</v>
-      </c>
+      <c r="A57" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="173"/>
+      <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" s="173"/>
-      <c r="D58" s="22"/>
+      <c r="A58" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="15"/>
+        <v>130</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="C59" s="174"/>
       <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60" s="174"/>
       <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C61" s="174"/>
       <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="C62" s="174"/>
       <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="C63" s="174"/>
       <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" s="174"/>
       <c r="D64" s="23"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C65" s="174"/>
       <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C66" s="174"/>
       <c r="D66" s="23"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C67" s="174"/>
       <c r="D67" s="23"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" s="174"/>
       <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C69" s="174"/>
-      <c r="D69" s="23"/>
+      <c r="D69" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </